--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/dev/shiratama-core/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFA8B42-6082-A140-B87D-479F5C1A20ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97DAB38-93D6-0E49-B45F-E8F76C70E7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35860" yWindow="2320" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="List" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">message!$A$4:$J$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">message!$A$4:$J$208</definedName>
     <definedName name="実施結果">List!$A$3:$A$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="1111">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -8122,10 +8122,6 @@
   </si>
   <si>
     <t>Write "${value}" to clipboard</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>writeToClipboard</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -9532,6 +9528,32 @@
     <rPh sb="53" eb="55">
       <t>シヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cropImage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cropImage("${file}")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Crop image as ${file}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像を切り取ります。(${file})</t>
+    <rPh sb="0" eb="1">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キリトリマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>writeClipboard</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11110,11 +11132,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I383"/>
+  <dimension ref="A1:I384"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A320" sqref="A320"/>
+      <pane ySplit="4" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>
@@ -11540,16 +11562,16 @@
     </row>
     <row r="25" spans="1:9" ht="19" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
@@ -11559,16 +11581,16 @@
     </row>
     <row r="26" spans="1:9" ht="19" customHeight="1">
       <c r="A26" s="19" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -11578,16 +11600,16 @@
     </row>
     <row r="27" spans="1:9" ht="19" customHeight="1">
       <c r="A27" s="19" t="s">
+        <v>937</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>938</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="C27" s="20" t="s">
         <v>939</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="D27" s="20" t="s">
         <v>940</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>941</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
@@ -11638,10 +11660,10 @@
         <v>56</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>935</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>936</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>937</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>306</v>
@@ -11711,16 +11733,16 @@
     </row>
     <row r="34" spans="1:9" ht="19" customHeight="1">
       <c r="A34" s="19" t="s">
-        <v>959</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>960</v>
+        <v>1106</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>1107</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>961</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>961</v>
+        <v>1108</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>1109</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -11730,16 +11752,16 @@
     </row>
     <row r="35" spans="1:9" ht="19" customHeight="1">
       <c r="A35" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>832</v>
+        <v>958</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>959</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>103</v>
+        <v>960</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>328</v>
+        <v>960</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -11749,16 +11771,16 @@
     </row>
     <row r="36" spans="1:9" ht="19" customHeight="1">
       <c r="A36" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>449</v>
+        <v>832</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
@@ -11768,16 +11790,16 @@
     </row>
     <row r="37" spans="1:9" ht="19" customHeight="1">
       <c r="A37" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
@@ -11787,16 +11809,16 @@
     </row>
     <row r="38" spans="1:9" ht="19" customHeight="1">
       <c r="A38" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>829</v>
+        <v>450</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
@@ -11806,16 +11828,16 @@
     </row>
     <row r="39" spans="1:9" ht="19" customHeight="1">
       <c r="A39" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>456</v>
+        <v>829</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
@@ -11825,16 +11847,16 @@
     </row>
     <row r="40" spans="1:9" ht="19" customHeight="1">
       <c r="A40" s="19" t="s">
-        <v>1096</v>
+        <v>110</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>1098</v>
+        <v>456</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>1100</v>
+        <v>111</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>1102</v>
+        <v>332</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
@@ -11844,16 +11866,16 @@
     </row>
     <row r="41" spans="1:9" ht="19" customHeight="1">
       <c r="A41" s="19" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>1097</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="C41" s="20" t="s">
         <v>1099</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="D41" s="20" t="s">
         <v>1101</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>1103</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
@@ -11863,16 +11885,16 @@
     </row>
     <row r="42" spans="1:9" ht="19" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>112</v>
+        <v>1096</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>826</v>
+        <v>1098</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>113</v>
+        <v>1100</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>333</v>
+        <v>1102</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -11882,16 +11904,16 @@
     </row>
     <row r="43" spans="1:9" ht="19" customHeight="1">
       <c r="A43" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -11901,16 +11923,16 @@
     </row>
     <row r="44" spans="1:9" ht="19" customHeight="1">
       <c r="A44" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
@@ -11920,16 +11942,16 @@
     </row>
     <row r="45" spans="1:9" ht="19" customHeight="1">
       <c r="A45" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>451</v>
+        <v>828</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
@@ -11939,16 +11961,16 @@
     </row>
     <row r="46" spans="1:9" ht="19" customHeight="1">
       <c r="A46" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -11958,16 +11980,16 @@
     </row>
     <row r="47" spans="1:9" ht="19" customHeight="1">
       <c r="A47" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
@@ -11977,16 +11999,16 @@
     </row>
     <row r="48" spans="1:9" ht="19" customHeight="1">
       <c r="A48" s="19" t="s">
-        <v>1088</v>
+        <v>122</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>1090</v>
+        <v>453</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>1092</v>
+        <v>123</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>1094</v>
+        <v>338</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
@@ -11996,16 +12018,16 @@
     </row>
     <row r="49" spans="1:9" ht="19" customHeight="1">
       <c r="A49" s="19" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>1089</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="C49" s="20" t="s">
         <v>1091</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="D49" s="20" t="s">
         <v>1093</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>1095</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
@@ -12015,16 +12037,16 @@
     </row>
     <row r="50" spans="1:9" ht="19" customHeight="1">
       <c r="A50" s="19" t="s">
-        <v>124</v>
+        <v>1088</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>456</v>
+        <v>1090</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>119</v>
+        <v>1092</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>336</v>
+        <v>1094</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -12034,16 +12056,16 @@
     </row>
     <row r="51" spans="1:9" ht="19" customHeight="1">
       <c r="A51" s="19" t="s">
-        <v>991</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>992</v>
+        <v>124</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>456</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>993</v>
+        <v>119</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>994</v>
+        <v>336</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -12053,16 +12075,16 @@
     </row>
     <row r="52" spans="1:9" ht="19" customHeight="1">
       <c r="A52" s="19" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
@@ -12072,16 +12094,16 @@
     </row>
     <row r="53" spans="1:9" ht="19" customHeight="1">
       <c r="A53" s="19" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
@@ -12091,16 +12113,16 @@
     </row>
     <row r="54" spans="1:9" ht="19" customHeight="1">
       <c r="A54" s="19" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -12110,16 +12132,16 @@
     </row>
     <row r="55" spans="1:9" ht="19" customHeight="1">
       <c r="A55" s="19" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
@@ -12129,16 +12151,16 @@
     </row>
     <row r="56" spans="1:9" ht="19" customHeight="1">
       <c r="A56" s="19" t="s">
-        <v>61</v>
+        <v>1000</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>844</v>
+        <v>1003</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>309</v>
+        <v>1006</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>1009</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
@@ -12148,16 +12170,16 @@
     </row>
     <row r="57" spans="1:9" ht="19" customHeight="1">
       <c r="A57" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>432</v>
+        <v>844</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>310</v>
+        <v>62</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>309</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
@@ -12167,16 +12189,16 @@
     </row>
     <row r="58" spans="1:9" ht="19" customHeight="1">
       <c r="A58" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>311</v>
+        <v>64</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>310</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
@@ -12186,16 +12208,16 @@
     </row>
     <row r="59" spans="1:9" ht="19" customHeight="1">
       <c r="A59" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
@@ -12205,16 +12227,16 @@
     </row>
     <row r="60" spans="1:9" ht="19" customHeight="1">
       <c r="A60" s="19" t="s">
-        <v>951</v>
+        <v>67</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>952</v>
+        <v>434</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>953</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>953</v>
+        <v>68</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>312</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
@@ -12224,16 +12246,16 @@
     </row>
     <row r="61" spans="1:9" ht="19" customHeight="1">
       <c r="A61" s="19" t="s">
-        <v>849</v>
+        <v>950</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>851</v>
+        <v>951</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>852</v>
+        <v>952</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>853</v>
+        <v>952</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -12243,16 +12265,16 @@
     </row>
     <row r="62" spans="1:9" ht="19" customHeight="1">
       <c r="A62" s="19" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
@@ -12262,16 +12284,16 @@
     </row>
     <row r="63" spans="1:9" ht="19" customHeight="1">
       <c r="A63" s="19" t="s">
-        <v>919</v>
+        <v>850</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>920</v>
+        <v>855</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>918</v>
+        <v>856</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
@@ -12281,16 +12303,16 @@
     </row>
     <row r="64" spans="1:9" ht="19" customHeight="1">
       <c r="A64" s="19" t="s">
-        <v>847</v>
+        <v>1110</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>848</v>
+        <v>919</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>917</v>
+        <v>854</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
@@ -12300,16 +12322,16 @@
     </row>
     <row r="65" spans="1:9" ht="19" customHeight="1">
       <c r="A65" s="19" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>866</v>
+        <v>920</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>867</v>
+        <v>917</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
@@ -12319,16 +12341,16 @@
     </row>
     <row r="66" spans="1:9" ht="19" customHeight="1">
       <c r="A66" s="19" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>910</v>
+        <v>866</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>912</v>
+        <v>867</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
@@ -12338,16 +12360,16 @@
     </row>
     <row r="67" spans="1:9" ht="19" customHeight="1">
       <c r="A67" s="19" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
@@ -12357,16 +12379,16 @@
     </row>
     <row r="68" spans="1:9" ht="19" customHeight="1">
       <c r="A68" s="19" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>914</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>915</v>
+        <v>911</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>913</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
@@ -12376,16 +12398,16 @@
     </row>
     <row r="69" spans="1:9" ht="19" customHeight="1">
       <c r="A69" s="19" t="s">
-        <v>69</v>
+        <v>860</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>435</v>
+        <v>861</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>933</v>
+        <v>914</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>915</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
@@ -12395,16 +12417,16 @@
     </row>
     <row r="70" spans="1:9" ht="19" customHeight="1">
       <c r="A70" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>313</v>
+        <v>932</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
@@ -12414,16 +12436,16 @@
     </row>
     <row r="71" spans="1:9" ht="19" customHeight="1">
       <c r="A71" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>934</v>
+        <v>313</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
@@ -12433,16 +12455,16 @@
     </row>
     <row r="72" spans="1:9" ht="19" customHeight="1">
       <c r="A72" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>314</v>
+        <v>933</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
@@ -12452,16 +12474,16 @@
     </row>
     <row r="73" spans="1:9" ht="19" customHeight="1">
       <c r="A73" s="19" t="s">
-        <v>962</v>
+        <v>75</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>963</v>
+        <v>438</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>964</v>
+        <v>76</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>965</v>
+        <v>314</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
@@ -12471,16 +12493,16 @@
     </row>
     <row r="74" spans="1:9" ht="19" customHeight="1">
       <c r="A74" s="19" t="s">
-        <v>77</v>
+        <v>961</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>439</v>
+        <v>962</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>315</v>
+        <v>963</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>964</v>
       </c>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
@@ -12490,16 +12512,16 @@
     </row>
     <row r="75" spans="1:9" ht="19" customHeight="1">
       <c r="A75" s="19" t="s">
-        <v>930</v>
+        <v>77</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>931</v>
+        <v>439</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>932</v>
+        <v>78</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>935</v>
+        <v>315</v>
       </c>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
@@ -12509,16 +12531,16 @@
     </row>
     <row r="76" spans="1:9" ht="19" customHeight="1">
       <c r="A76" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>440</v>
+        <v>929</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>930</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" s="21" t="s">
-        <v>316</v>
+        <v>931</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>934</v>
       </c>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
@@ -12528,16 +12550,16 @@
     </row>
     <row r="77" spans="1:9" ht="19" customHeight="1">
       <c r="A77" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>441</v>
+        <v>79</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>440</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>317</v>
+        <v>80</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>316</v>
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="20"/>
@@ -12547,16 +12569,16 @@
     </row>
     <row r="78" spans="1:9" ht="19" customHeight="1">
       <c r="A78" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>443</v>
+        <v>81</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>441</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>318</v>
+        <v>82</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
@@ -12566,16 +12588,16 @@
     </row>
     <row r="79" spans="1:9" ht="19" customHeight="1">
       <c r="A79" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>319</v>
+        <v>442</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
@@ -12585,16 +12607,16 @@
     </row>
     <row r="80" spans="1:9" ht="19" customHeight="1">
       <c r="A80" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
@@ -12604,16 +12626,16 @@
     </row>
     <row r="81" spans="1:9" ht="19" customHeight="1">
       <c r="A81" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
@@ -12623,16 +12645,16 @@
     </row>
     <row r="82" spans="1:9" ht="19" customHeight="1">
       <c r="A82" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
@@ -12642,16 +12664,16 @@
     </row>
     <row r="83" spans="1:9" ht="19" customHeight="1">
       <c r="A83" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
@@ -12661,16 +12683,16 @@
     </row>
     <row r="84" spans="1:9" ht="19" customHeight="1">
       <c r="A84" s="19" t="s">
-        <v>955</v>
+        <v>92</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>956</v>
+        <v>448</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>957</v>
-      </c>
-      <c r="D84" s="22" t="s">
-        <v>958</v>
+        <v>93</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>323</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
@@ -12680,16 +12702,16 @@
     </row>
     <row r="85" spans="1:9" ht="19" customHeight="1">
       <c r="A85" s="19" t="s">
-        <v>94</v>
+        <v>954</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>94</v>
+        <v>955</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>95</v>
+        <v>956</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>324</v>
+        <v>957</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
@@ -12699,16 +12721,16 @@
     </row>
     <row r="86" spans="1:9" ht="19" customHeight="1">
       <c r="A86" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>846</v>
+        <v>94</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -12718,16 +12740,16 @@
     </row>
     <row r="87" spans="1:9" ht="19" customHeight="1">
       <c r="A87" s="19" t="s">
-        <v>870</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>872</v>
+        <v>96</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>846</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>1037</v>
+        <v>97</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>325</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
@@ -12737,16 +12759,16 @@
     </row>
     <row r="88" spans="1:9" ht="19" customHeight="1">
       <c r="A88" s="19" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
@@ -12756,16 +12778,16 @@
     </row>
     <row r="89" spans="1:9" ht="19" customHeight="1">
       <c r="A89" s="19" t="s">
-        <v>874</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>887</v>
+        <v>871</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>873</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>1051</v>
+        <v>1043</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>1037</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
@@ -12775,16 +12797,16 @@
     </row>
     <row r="90" spans="1:9" ht="19" customHeight="1">
       <c r="A90" s="19" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>909</v>
+        <v>887</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
@@ -12794,16 +12816,16 @@
     </row>
     <row r="91" spans="1:9" ht="19" customHeight="1">
       <c r="A91" s="19" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>886</v>
+        <v>909</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
@@ -12813,13 +12835,13 @@
     </row>
     <row r="92" spans="1:9" ht="19" customHeight="1">
       <c r="A92" s="19" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D92" s="22" t="s">
         <v>1049</v>
@@ -12832,16 +12854,16 @@
     </row>
     <row r="93" spans="1:9" ht="19" customHeight="1">
       <c r="A93" s="19" t="s">
-        <v>1015</v>
+        <v>877</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>1018</v>
+        <v>885</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>1014</v>
+        <v>1047</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>1048</v>
       </c>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
@@ -12851,16 +12873,16 @@
     </row>
     <row r="94" spans="1:9" ht="19" customHeight="1">
       <c r="A94" s="19" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>1017</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -12870,16 +12892,16 @@
     </row>
     <row r="95" spans="1:9" ht="19" customHeight="1">
       <c r="A95" s="19" t="s">
-        <v>888</v>
+        <v>1015</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>884</v>
+        <v>1016</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
@@ -12889,16 +12911,16 @@
     </row>
     <row r="96" spans="1:9" ht="19" customHeight="1">
       <c r="A96" s="19" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
@@ -12908,16 +12930,16 @@
     </row>
     <row r="97" spans="1:9" ht="19" customHeight="1">
       <c r="A97" s="19" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
@@ -12927,16 +12949,16 @@
     </row>
     <row r="98" spans="1:9" ht="19" customHeight="1">
       <c r="A98" s="19" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
@@ -12946,16 +12968,16 @@
     </row>
     <row r="99" spans="1:9" ht="19" customHeight="1">
       <c r="A99" s="19" t="s">
-        <v>889</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>893</v>
+        <v>880</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>881</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>1021</v>
+        <v>1032</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
@@ -12965,16 +12987,16 @@
     </row>
     <row r="100" spans="1:9" ht="19" customHeight="1">
       <c r="A100" s="19" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
@@ -12984,16 +13006,16 @@
     </row>
     <row r="101" spans="1:9" ht="19" customHeight="1">
       <c r="A101" s="19" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
@@ -13003,16 +13025,16 @@
     </row>
     <row r="102" spans="1:9" ht="19" customHeight="1">
       <c r="A102" s="19" t="s">
-        <v>892</v>
-      </c>
-      <c r="B102" s="19" t="s">
-        <v>896</v>
+        <v>891</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>895</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
@@ -13022,16 +13044,16 @@
     </row>
     <row r="103" spans="1:9" ht="19" customHeight="1">
       <c r="A103" s="19" t="s">
-        <v>897</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>899</v>
+        <v>892</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>896</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
@@ -13041,16 +13063,16 @@
     </row>
     <row r="104" spans="1:9" ht="19" customHeight="1">
       <c r="A104" s="19" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C104" s="20" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D104" s="20" t="s">
         <v>1040</v>
-      </c>
-      <c r="D104" s="20" t="s">
-        <v>1042</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
@@ -13060,16 +13082,16 @@
     </row>
     <row r="105" spans="1:9" ht="19" customHeight="1">
       <c r="A105" s="19" t="s">
-        <v>125</v>
+        <v>898</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>825</v>
+        <v>900</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>126</v>
+        <v>1039</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>344</v>
+        <v>1041</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
@@ -13079,16 +13101,16 @@
     </row>
     <row r="106" spans="1:9" ht="19" customHeight="1">
       <c r="A106" s="19" t="s">
-        <v>1053</v>
+        <v>125</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>1054</v>
+        <v>825</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>1011</v>
+        <v>126</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>1012</v>
+        <v>344</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
@@ -13098,16 +13120,16 @@
     </row>
     <row r="107" spans="1:9" ht="19" customHeight="1">
       <c r="A107" s="19" t="s">
-        <v>969</v>
+        <v>1052</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>970</v>
+        <v>1053</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>972</v>
+        <v>1010</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>971</v>
+        <v>1011</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
@@ -13117,16 +13139,16 @@
     </row>
     <row r="108" spans="1:9" ht="19" customHeight="1">
       <c r="A108" s="19" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
@@ -13136,16 +13158,16 @@
     </row>
     <row r="109" spans="1:9" ht="19" customHeight="1">
       <c r="A109" s="19" t="s">
-        <v>127</v>
+        <v>972</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>454</v>
+        <v>973</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>128</v>
+        <v>974</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>339</v>
+        <v>975</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
@@ -13155,16 +13177,16 @@
     </row>
     <row r="110" spans="1:9" ht="19" customHeight="1">
       <c r="A110" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B110" s="19" t="s">
-        <v>455</v>
+        <v>127</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>454</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
@@ -13174,16 +13196,16 @@
     </row>
     <row r="111" spans="1:9" ht="19" customHeight="1">
       <c r="A111" s="19" t="s">
-        <v>922</v>
+        <v>129</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>923</v>
+        <v>455</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>925</v>
+        <v>130</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>924</v>
+        <v>340</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
@@ -13193,16 +13215,16 @@
     </row>
     <row r="112" spans="1:9" ht="19" customHeight="1">
       <c r="A112" s="19" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
@@ -13212,16 +13234,16 @@
     </row>
     <row r="113" spans="1:9" ht="19" customHeight="1">
       <c r="A113" s="19" t="s">
-        <v>131</v>
+        <v>925</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>824</v>
+        <v>928</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>132</v>
+        <v>926</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>341</v>
+        <v>927</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
@@ -13231,16 +13253,16 @@
     </row>
     <row r="114" spans="1:9" ht="19" customHeight="1">
       <c r="A114" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
@@ -13250,16 +13272,16 @@
     </row>
     <row r="115" spans="1:9" ht="19" customHeight="1">
       <c r="A115" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
@@ -13269,16 +13291,16 @@
     </row>
     <row r="116" spans="1:9" ht="19" customHeight="1">
       <c r="A116" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
@@ -13288,16 +13310,16 @@
     </row>
     <row r="117" spans="1:9" ht="19" customHeight="1">
       <c r="A117" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
@@ -13307,16 +13329,16 @@
     </row>
     <row r="118" spans="1:9" ht="19" customHeight="1">
       <c r="A118" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
@@ -13326,16 +13348,16 @@
     </row>
     <row r="119" spans="1:9" ht="19" customHeight="1">
       <c r="A119" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -13345,16 +13367,16 @@
     </row>
     <row r="120" spans="1:9" ht="19" customHeight="1">
       <c r="A120" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>798</v>
+        <v>821</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
@@ -13364,16 +13386,16 @@
     </row>
     <row r="121" spans="1:9" ht="19" customHeight="1">
       <c r="A121" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
@@ -13383,16 +13405,16 @@
     </row>
     <row r="122" spans="1:9" ht="19" customHeight="1">
       <c r="A122" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
@@ -13402,16 +13424,16 @@
     </row>
     <row r="123" spans="1:9" ht="19" customHeight="1">
       <c r="A123" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
@@ -13421,16 +13443,16 @@
     </row>
     <row r="124" spans="1:9" ht="19" customHeight="1">
       <c r="A124" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
@@ -13440,16 +13462,16 @@
     </row>
     <row r="125" spans="1:9" ht="19" customHeight="1">
       <c r="A125" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
@@ -13459,16 +13481,16 @@
     </row>
     <row r="126" spans="1:9" ht="19" customHeight="1">
       <c r="A126" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
@@ -13478,16 +13500,16 @@
     </row>
     <row r="127" spans="1:9" ht="19" customHeight="1">
       <c r="A127" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="20"/>
@@ -13497,16 +13519,16 @@
     </row>
     <row r="128" spans="1:9" ht="19" customHeight="1">
       <c r="A128" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="20"/>
@@ -13516,16 +13538,16 @@
     </row>
     <row r="129" spans="1:9" ht="19" customHeight="1">
       <c r="A129" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
@@ -13535,16 +13557,16 @@
     </row>
     <row r="130" spans="1:9" ht="19" customHeight="1">
       <c r="A130" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
@@ -13554,16 +13576,16 @@
     </row>
     <row r="131" spans="1:9" ht="19" customHeight="1">
       <c r="A131" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="20"/>
@@ -13573,16 +13595,16 @@
     </row>
     <row r="132" spans="1:9" ht="19" customHeight="1">
       <c r="A132" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
@@ -13592,16 +13614,16 @@
     </row>
     <row r="133" spans="1:9" ht="19" customHeight="1">
       <c r="A133" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="20"/>
@@ -13611,16 +13633,16 @@
     </row>
     <row r="134" spans="1:9" ht="19" customHeight="1">
       <c r="A134" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
@@ -13630,16 +13652,16 @@
     </row>
     <row r="135" spans="1:9" ht="19" customHeight="1">
       <c r="A135" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="20"/>
@@ -13649,16 +13671,16 @@
     </row>
     <row r="136" spans="1:9" ht="19" customHeight="1">
       <c r="A136" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
@@ -13668,16 +13690,16 @@
     </row>
     <row r="137" spans="1:9" ht="19" customHeight="1">
       <c r="A137" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
@@ -13687,16 +13709,16 @@
     </row>
     <row r="138" spans="1:9" ht="19" customHeight="1">
       <c r="A138" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
@@ -13706,16 +13728,16 @@
     </row>
     <row r="139" spans="1:9" ht="19" customHeight="1">
       <c r="A139" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="20"/>
@@ -13725,16 +13747,16 @@
     </row>
     <row r="140" spans="1:9" ht="19" customHeight="1">
       <c r="A140" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B140" s="20" t="s">
-        <v>456</v>
+        <v>181</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>817</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>184</v>
+        <v>358</v>
       </c>
       <c r="E140" s="20"/>
       <c r="F140" s="20"/>
@@ -13744,7 +13766,7 @@
     </row>
     <row r="141" spans="1:9" ht="19" customHeight="1">
       <c r="A141" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B141" s="20" t="s">
         <v>456</v>
@@ -13763,7 +13785,7 @@
     </row>
     <row r="142" spans="1:9" ht="19" customHeight="1">
       <c r="A142" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B142" s="20" t="s">
         <v>456</v>
@@ -13782,7 +13804,7 @@
     </row>
     <row r="143" spans="1:9" ht="19" customHeight="1">
       <c r="A143" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B143" s="20" t="s">
         <v>456</v>
@@ -13801,16 +13823,16 @@
     </row>
     <row r="144" spans="1:9" ht="19" customHeight="1">
       <c r="A144" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B144" s="19" t="s">
-        <v>457</v>
+        <v>187</v>
+      </c>
+      <c r="B144" s="20" t="s">
+        <v>456</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D144" s="22" t="s">
-        <v>359</v>
+        <v>184</v>
+      </c>
+      <c r="D144" s="20" t="s">
+        <v>184</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="20"/>
@@ -13820,16 +13842,16 @@
     </row>
     <row r="145" spans="1:9" ht="19" customHeight="1">
       <c r="A145" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D145" s="22" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="20"/>
@@ -13839,16 +13861,16 @@
     </row>
     <row r="146" spans="1:9" ht="19" customHeight="1">
       <c r="A146" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D146" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="20"/>
@@ -13858,16 +13880,16 @@
     </row>
     <row r="147" spans="1:9" ht="19" customHeight="1">
       <c r="A147" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D147" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E147" s="20"/>
       <c r="F147" s="20"/>
@@ -13877,16 +13899,16 @@
     </row>
     <row r="148" spans="1:9" ht="19" customHeight="1">
       <c r="A148" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D148" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="20"/>
@@ -13896,16 +13918,16 @@
     </row>
     <row r="149" spans="1:9" ht="19" customHeight="1">
       <c r="A149" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="20"/>
@@ -13915,16 +13937,16 @@
     </row>
     <row r="150" spans="1:9" ht="19" customHeight="1">
       <c r="A150" s="19" t="s">
-        <v>1066</v>
+        <v>198</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>1067</v>
+        <v>462</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>1068</v>
+        <v>199</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E150" s="20"/>
       <c r="F150" s="20"/>
@@ -13934,16 +13956,16 @@
     </row>
     <row r="151" spans="1:9" ht="19" customHeight="1">
       <c r="A151" s="19" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
@@ -13953,16 +13975,16 @@
     </row>
     <row r="152" spans="1:9" ht="19" customHeight="1">
       <c r="A152" s="19" t="s">
-        <v>200</v>
+        <v>1068</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>463</v>
+        <v>1069</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D152" s="21" t="s">
-        <v>379</v>
+        <v>1070</v>
+      </c>
+      <c r="D152" s="22" t="s">
+        <v>378</v>
       </c>
       <c r="E152" s="20"/>
       <c r="F152" s="20"/>
@@ -13972,16 +13994,16 @@
     </row>
     <row r="153" spans="1:9" ht="19" customHeight="1">
       <c r="A153" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D153" s="22" t="s">
-        <v>380</v>
+        <v>201</v>
+      </c>
+      <c r="D153" s="21" t="s">
+        <v>379</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="20"/>
@@ -13991,16 +14013,16 @@
     </row>
     <row r="154" spans="1:9" ht="19" customHeight="1">
       <c r="A154" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E154" s="20"/>
       <c r="F154" s="20"/>
@@ -14010,16 +14032,16 @@
     </row>
     <row r="155" spans="1:9" ht="19" customHeight="1">
       <c r="A155" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E155" s="20"/>
       <c r="F155" s="20"/>
@@ -14029,16 +14051,16 @@
     </row>
     <row r="156" spans="1:9" ht="19" customHeight="1">
       <c r="A156" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
@@ -14048,16 +14070,16 @@
     </row>
     <row r="157" spans="1:9" ht="19" customHeight="1">
       <c r="A157" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E157" s="20"/>
       <c r="F157" s="20"/>
@@ -14067,16 +14089,16 @@
     </row>
     <row r="158" spans="1:9" ht="19" customHeight="1">
       <c r="A158" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E158" s="20"/>
       <c r="F158" s="20"/>
@@ -14086,16 +14108,16 @@
     </row>
     <row r="159" spans="1:9" ht="19" customHeight="1">
       <c r="A159" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E159" s="20"/>
       <c r="F159" s="20"/>
@@ -14105,16 +14127,16 @@
     </row>
     <row r="160" spans="1:9" ht="19" customHeight="1">
       <c r="A160" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E160" s="20"/>
       <c r="F160" s="20"/>
@@ -14124,16 +14146,16 @@
     </row>
     <row r="161" spans="1:9" ht="19" customHeight="1">
       <c r="A161" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D161" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E161" s="20"/>
       <c r="F161" s="20"/>
@@ -14143,16 +14165,16 @@
     </row>
     <row r="162" spans="1:9" ht="19" customHeight="1">
       <c r="A162" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E162" s="20"/>
       <c r="F162" s="20"/>
@@ -14162,16 +14184,16 @@
     </row>
     <row r="163" spans="1:9" ht="19" customHeight="1">
       <c r="A163" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E163" s="20"/>
       <c r="F163" s="20"/>
@@ -14181,16 +14203,16 @@
     </row>
     <row r="164" spans="1:9" ht="19" customHeight="1">
       <c r="A164" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="D164" s="20" t="s">
-        <v>384</v>
+        <v>223</v>
+      </c>
+      <c r="D164" s="22" t="s">
+        <v>392</v>
       </c>
       <c r="E164" s="20"/>
       <c r="F164" s="20"/>
@@ -14200,16 +14222,16 @@
     </row>
     <row r="165" spans="1:9" ht="19" customHeight="1">
       <c r="A165" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E165" s="20"/>
       <c r="F165" s="20"/>
@@ -14219,16 +14241,16 @@
     </row>
     <row r="166" spans="1:9" ht="19" customHeight="1">
       <c r="A166" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="D166" s="22" t="s">
-        <v>393</v>
+        <v>227</v>
+      </c>
+      <c r="D166" s="20" t="s">
+        <v>385</v>
       </c>
       <c r="E166" s="20"/>
       <c r="F166" s="20"/>
@@ -14238,16 +14260,16 @@
     </row>
     <row r="167" spans="1:9" ht="19" customHeight="1">
       <c r="A167" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="D167" s="20" t="s">
-        <v>394</v>
+        <v>229</v>
+      </c>
+      <c r="D167" s="22" t="s">
+        <v>393</v>
       </c>
       <c r="E167" s="20"/>
       <c r="F167" s="20"/>
@@ -14257,16 +14279,16 @@
     </row>
     <row r="168" spans="1:9" ht="19" customHeight="1">
       <c r="A168" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E168" s="20"/>
       <c r="F168" s="20"/>
@@ -14276,16 +14298,16 @@
     </row>
     <row r="169" spans="1:9" ht="19" customHeight="1">
       <c r="A169" s="19" t="s">
-        <v>1084</v>
+        <v>232</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>1085</v>
+        <v>479</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>1086</v>
+        <v>233</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>1087</v>
+        <v>395</v>
       </c>
       <c r="E169" s="20"/>
       <c r="F169" s="20"/>
@@ -14295,16 +14317,16 @@
     </row>
     <row r="170" spans="1:9" ht="19" customHeight="1">
       <c r="A170" s="19" t="s">
-        <v>234</v>
+        <v>1083</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>480</v>
+        <v>1084</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="D170" s="22" t="s">
-        <v>396</v>
+        <v>1085</v>
+      </c>
+      <c r="D170" s="20" t="s">
+        <v>1086</v>
       </c>
       <c r="E170" s="20"/>
       <c r="F170" s="20"/>
@@ -14314,16 +14336,16 @@
     </row>
     <row r="171" spans="1:9" ht="19" customHeight="1">
       <c r="A171" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D171" s="22" t="s">
-        <v>916</v>
+        <v>396</v>
       </c>
       <c r="E171" s="20"/>
       <c r="F171" s="20"/>
@@ -14333,16 +14355,16 @@
     </row>
     <row r="172" spans="1:9" ht="19" customHeight="1">
       <c r="A172" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>397</v>
+        <v>916</v>
       </c>
       <c r="E172" s="20"/>
       <c r="F172" s="20"/>
@@ -14352,16 +14374,16 @@
     </row>
     <row r="173" spans="1:9" ht="19" customHeight="1">
       <c r="A173" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E173" s="20"/>
       <c r="F173" s="20"/>
@@ -14371,16 +14393,16 @@
     </row>
     <row r="174" spans="1:9" ht="19" customHeight="1">
       <c r="A174" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D174" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E174" s="20"/>
       <c r="F174" s="20"/>
@@ -14390,16 +14412,16 @@
     </row>
     <row r="175" spans="1:9" ht="19" customHeight="1">
       <c r="A175" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E175" s="20"/>
       <c r="F175" s="20"/>
@@ -14409,16 +14431,16 @@
     </row>
     <row r="176" spans="1:9" ht="19" customHeight="1">
       <c r="A176" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="D176" s="20" t="s">
-        <v>401</v>
+        <v>245</v>
+      </c>
+      <c r="D176" s="22" t="s">
+        <v>400</v>
       </c>
       <c r="E176" s="20"/>
       <c r="F176" s="20"/>
@@ -14428,16 +14450,16 @@
     </row>
     <row r="177" spans="1:9" ht="19" customHeight="1">
       <c r="A177" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="D177" s="22" t="s">
-        <v>402</v>
+        <v>247</v>
+      </c>
+      <c r="D177" s="20" t="s">
+        <v>401</v>
       </c>
       <c r="E177" s="20"/>
       <c r="F177" s="20"/>
@@ -14447,16 +14469,16 @@
     </row>
     <row r="178" spans="1:9" ht="19" customHeight="1">
       <c r="A178" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D178" s="22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E178" s="20"/>
       <c r="F178" s="20"/>
@@ -14466,16 +14488,16 @@
     </row>
     <row r="179" spans="1:9" ht="19" customHeight="1">
       <c r="A179" s="19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="D179" s="20" t="s">
-        <v>404</v>
+        <v>251</v>
+      </c>
+      <c r="D179" s="22" t="s">
+        <v>403</v>
       </c>
       <c r="E179" s="20"/>
       <c r="F179" s="20"/>
@@ -14485,16 +14507,16 @@
     </row>
     <row r="180" spans="1:9" ht="19" customHeight="1">
       <c r="A180" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E180" s="20"/>
       <c r="F180" s="20"/>
@@ -14504,16 +14526,16 @@
     </row>
     <row r="181" spans="1:9" ht="19" customHeight="1">
       <c r="A181" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E181" s="20"/>
       <c r="F181" s="20"/>
@@ -14523,16 +14545,16 @@
     </row>
     <row r="182" spans="1:9" ht="19" customHeight="1">
       <c r="A182" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D182" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E182" s="20"/>
       <c r="F182" s="20"/>
@@ -14542,16 +14564,16 @@
     </row>
     <row r="183" spans="1:9" ht="19" customHeight="1">
       <c r="A183" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D183" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E183" s="20"/>
       <c r="F183" s="20"/>
@@ -14561,16 +14583,16 @@
     </row>
     <row r="184" spans="1:9" ht="19" customHeight="1">
       <c r="A184" s="19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D184" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E184" s="20"/>
       <c r="F184" s="20"/>
@@ -14580,16 +14602,16 @@
     </row>
     <row r="185" spans="1:9" ht="19" customHeight="1">
       <c r="A185" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D185" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E185" s="20"/>
       <c r="F185" s="20"/>
@@ -14599,16 +14621,16 @@
     </row>
     <row r="186" spans="1:9" ht="19" customHeight="1">
       <c r="A186" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>859</v>
+        <v>493</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E186" s="20"/>
       <c r="F186" s="20"/>
@@ -14618,16 +14640,16 @@
     </row>
     <row r="187" spans="1:9" ht="19" customHeight="1">
       <c r="A187" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E187" s="20"/>
       <c r="F187" s="20"/>
@@ -14637,16 +14659,16 @@
     </row>
     <row r="188" spans="1:9" ht="19" customHeight="1">
       <c r="A188" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>494</v>
+        <v>858</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="D188" s="21" t="s">
-        <v>412</v>
+        <v>268</v>
+      </c>
+      <c r="D188" s="20" t="s">
+        <v>411</v>
       </c>
       <c r="E188" s="20"/>
       <c r="F188" s="20"/>
@@ -14656,16 +14678,16 @@
     </row>
     <row r="189" spans="1:9" ht="19" customHeight="1">
       <c r="A189" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="B189" s="20" t="s">
-        <v>495</v>
+        <v>269</v>
+      </c>
+      <c r="B189" s="19" t="s">
+        <v>494</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="D189" s="20" t="s">
-        <v>502</v>
+        <v>270</v>
+      </c>
+      <c r="D189" s="21" t="s">
+        <v>412</v>
       </c>
       <c r="E189" s="20"/>
       <c r="F189" s="20"/>
@@ -14675,16 +14697,16 @@
     </row>
     <row r="190" spans="1:9" ht="19" customHeight="1">
       <c r="A190" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B190" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D190" s="20" t="s">
-        <v>413</v>
+        <v>502</v>
       </c>
       <c r="E190" s="20"/>
       <c r="F190" s="20"/>
@@ -14694,16 +14716,16 @@
     </row>
     <row r="191" spans="1:9" ht="19" customHeight="1">
       <c r="A191" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="B191" s="19" t="s">
-        <v>497</v>
+        <v>273</v>
+      </c>
+      <c r="B191" s="20" t="s">
+        <v>496</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D191" s="21" t="s">
-        <v>414</v>
+        <v>274</v>
+      </c>
+      <c r="D191" s="20" t="s">
+        <v>413</v>
       </c>
       <c r="E191" s="20"/>
       <c r="F191" s="20"/>
@@ -14713,16 +14735,16 @@
     </row>
     <row r="192" spans="1:9" ht="19" customHeight="1">
       <c r="A192" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>277</v>
+        <v>497</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D192" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E192" s="20"/>
       <c r="F192" s="20"/>
@@ -14732,16 +14754,16 @@
     </row>
     <row r="193" spans="1:9" ht="19" customHeight="1">
       <c r="A193" s="19" t="s">
-        <v>1072</v>
+        <v>277</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>456</v>
+        <v>277</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D193" s="20" t="s">
-        <v>1074</v>
+        <v>278</v>
+      </c>
+      <c r="D193" s="21" t="s">
+        <v>415</v>
       </c>
       <c r="E193" s="20"/>
       <c r="F193" s="20"/>
@@ -14751,16 +14773,16 @@
     </row>
     <row r="194" spans="1:9" ht="19" customHeight="1">
       <c r="A194" s="19" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="B194" s="19" t="s">
         <v>456</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="D194" s="20" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="E194" s="20"/>
       <c r="F194" s="20"/>
@@ -14770,16 +14792,16 @@
     </row>
     <row r="195" spans="1:9" ht="19" customHeight="1">
       <c r="A195" s="19" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>456</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E195" s="20"/>
       <c r="F195" s="20"/>
@@ -14789,16 +14811,16 @@
     </row>
     <row r="196" spans="1:9" ht="19" customHeight="1">
       <c r="A196" s="19" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B196" s="19" t="s">
         <v>456</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E196" s="20"/>
       <c r="F196" s="20"/>
@@ -14808,16 +14830,16 @@
     </row>
     <row r="197" spans="1:9" ht="19" customHeight="1">
       <c r="A197" s="19" t="s">
-        <v>279</v>
+        <v>1076</v>
       </c>
       <c r="B197" s="19" t="s">
         <v>456</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D197" s="22" t="s">
-        <v>416</v>
+        <v>1079</v>
+      </c>
+      <c r="D197" s="20" t="s">
+        <v>1082</v>
       </c>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
@@ -14827,16 +14849,16 @@
     </row>
     <row r="198" spans="1:9" ht="19" customHeight="1">
       <c r="A198" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B198" s="19" t="s">
         <v>456</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D198" s="22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E198" s="20"/>
       <c r="F198" s="20"/>
@@ -14846,16 +14868,16 @@
     </row>
     <row r="199" spans="1:9" ht="19" customHeight="1">
       <c r="A199" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="B199" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B199" s="19" t="s">
         <v>456</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D199" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="D199" s="22" t="s">
+        <v>417</v>
       </c>
       <c r="E199" s="20"/>
       <c r="F199" s="20"/>
@@ -14865,16 +14887,16 @@
     </row>
     <row r="200" spans="1:9" ht="19" customHeight="1">
       <c r="A200" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B200" s="20" t="s">
         <v>456</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D200" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E200" s="20"/>
       <c r="F200" s="20"/>
@@ -14884,16 +14906,16 @@
     </row>
     <row r="201" spans="1:9" ht="19" customHeight="1">
       <c r="A201" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B201" s="20" t="s">
         <v>456</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E201" s="20"/>
       <c r="F201" s="20"/>
@@ -14903,16 +14925,16 @@
     </row>
     <row r="202" spans="1:9" ht="19" customHeight="1">
       <c r="A202" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B202" s="20" t="s">
         <v>456</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>422</v>
+        <v>283</v>
       </c>
       <c r="D202" s="20" t="s">
-        <v>428</v>
+        <v>283</v>
       </c>
       <c r="E202" s="20"/>
       <c r="F202" s="20"/>
@@ -14922,16 +14944,16 @@
     </row>
     <row r="203" spans="1:9" ht="19" customHeight="1">
       <c r="A203" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B203" s="20" t="s">
         <v>456</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D203" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E203" s="20"/>
       <c r="F203" s="20"/>
@@ -14941,16 +14963,16 @@
     </row>
     <row r="204" spans="1:9" ht="19" customHeight="1">
       <c r="A204" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B204" s="20" t="s">
         <v>456</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D204" s="20" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="E204" s="20"/>
       <c r="F204" s="20"/>
@@ -14960,16 +14982,16 @@
     </row>
     <row r="205" spans="1:9" ht="19" customHeight="1">
       <c r="A205" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B205" s="20" t="s">
         <v>456</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D205" s="20" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E205" s="20"/>
       <c r="F205" s="20"/>
@@ -14979,16 +15001,16 @@
     </row>
     <row r="206" spans="1:9" ht="19" customHeight="1">
       <c r="A206" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B206" s="20" t="s">
         <v>456</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="D206" s="21" t="s">
-        <v>420</v>
+        <v>425</v>
+      </c>
+      <c r="D206" s="20" t="s">
+        <v>418</v>
       </c>
       <c r="E206" s="20"/>
       <c r="F206" s="20"/>
@@ -14998,16 +15020,16 @@
     </row>
     <row r="207" spans="1:9" ht="19" customHeight="1">
       <c r="A207" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B207" s="20" t="s">
         <v>456</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
@@ -15016,10 +15038,18 @@
       <c r="I207" s="18"/>
     </row>
     <row r="208" spans="1:9" ht="19" customHeight="1">
-      <c r="A208" s="19"/>
-      <c r="B208" s="20"/>
-      <c r="C208" s="20"/>
-      <c r="D208" s="20"/>
+      <c r="A208" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="B208" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="C208" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="D208" s="21" t="s">
+        <v>421</v>
+      </c>
       <c r="E208" s="20"/>
       <c r="F208" s="20"/>
       <c r="G208" s="18"/>
@@ -15060,45 +15090,39 @@
       <c r="I211" s="18"/>
     </row>
     <row r="212" spans="1:9" ht="19" customHeight="1">
-      <c r="A212" s="26" t="s">
+      <c r="A212" s="19"/>
+      <c r="B212" s="20"/>
+      <c r="C212" s="20"/>
+      <c r="D212" s="20"/>
+      <c r="E212" s="20"/>
+      <c r="F212" s="20"/>
+      <c r="G212" s="18"/>
+      <c r="H212" s="17"/>
+      <c r="I212" s="18"/>
+    </row>
+    <row r="213" spans="1:9" ht="19" customHeight="1">
+      <c r="A213" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="B212" s="23"/>
-      <c r="C212" s="23"/>
-      <c r="D212" s="23"/>
-      <c r="E212" s="23"/>
-      <c r="F212" s="23"/>
-      <c r="G212" s="24"/>
-      <c r="H212" s="25"/>
-      <c r="I212" s="24"/>
-    </row>
-    <row r="213" spans="1:9" ht="19" customHeight="1">
-      <c r="A213" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="B213" s="20"/>
-      <c r="C213" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="D213" s="20" t="s">
-        <v>696</v>
-      </c>
-      <c r="E213" s="20"/>
-      <c r="F213" s="20"/>
-      <c r="G213" s="18"/>
-      <c r="H213" s="17"/>
-      <c r="I213" s="18"/>
+      <c r="B213" s="23"/>
+      <c r="C213" s="23"/>
+      <c r="D213" s="23"/>
+      <c r="E213" s="23"/>
+      <c r="F213" s="23"/>
+      <c r="G213" s="24"/>
+      <c r="H213" s="25"/>
+      <c r="I213" s="24"/>
     </row>
     <row r="214" spans="1:9" ht="19" customHeight="1">
       <c r="A214" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B214" s="20"/>
       <c r="C214" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="D214" s="22" t="s">
-        <v>697</v>
+        <v>505</v>
+      </c>
+      <c r="D214" s="20" t="s">
+        <v>696</v>
       </c>
       <c r="E214" s="20"/>
       <c r="F214" s="20"/>
@@ -15108,14 +15132,14 @@
     </row>
     <row r="215" spans="1:9" ht="19" customHeight="1">
       <c r="A215" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B215" s="20"/>
       <c r="C215" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="D215" s="20" t="s">
-        <v>698</v>
+        <v>506</v>
+      </c>
+      <c r="D215" s="22" t="s">
+        <v>697</v>
       </c>
       <c r="E215" s="20"/>
       <c r="F215" s="20"/>
@@ -15125,14 +15149,14 @@
     </row>
     <row r="216" spans="1:9" ht="19" customHeight="1">
       <c r="A216" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B216" s="20"/>
       <c r="C216" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="D216" s="22" t="s">
-        <v>699</v>
+        <v>507</v>
+      </c>
+      <c r="D216" s="20" t="s">
+        <v>698</v>
       </c>
       <c r="E216" s="20"/>
       <c r="F216" s="20"/>
@@ -15142,14 +15166,14 @@
     </row>
     <row r="217" spans="1:9" ht="19" customHeight="1">
       <c r="A217" s="19" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="D217" s="20" t="s">
-        <v>700</v>
+        <v>509</v>
+      </c>
+      <c r="D217" s="22" t="s">
+        <v>699</v>
       </c>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
@@ -15159,14 +15183,14 @@
     </row>
     <row r="218" spans="1:9" ht="19" customHeight="1">
       <c r="A218" s="19" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B218" s="20"/>
       <c r="C218" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D218" s="20" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E218" s="20"/>
       <c r="F218" s="20"/>
@@ -15176,14 +15200,14 @@
     </row>
     <row r="219" spans="1:9" ht="19" customHeight="1">
       <c r="A219" s="19" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="D219" s="21" t="s">
-        <v>702</v>
+        <v>513</v>
+      </c>
+      <c r="D219" s="20" t="s">
+        <v>701</v>
       </c>
       <c r="E219" s="20"/>
       <c r="F219" s="20"/>
@@ -15193,14 +15217,14 @@
     </row>
     <row r="220" spans="1:9" ht="19" customHeight="1">
       <c r="A220" s="19" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="D220" s="22" t="s">
-        <v>703</v>
+        <v>515</v>
+      </c>
+      <c r="D220" s="21" t="s">
+        <v>702</v>
       </c>
       <c r="E220" s="20"/>
       <c r="F220" s="20"/>
@@ -15210,14 +15234,14 @@
     </row>
     <row r="221" spans="1:9" ht="19" customHeight="1">
       <c r="A221" s="19" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="D221" s="21" t="s">
-        <v>704</v>
+        <v>517</v>
+      </c>
+      <c r="D221" s="22" t="s">
+        <v>703</v>
       </c>
       <c r="E221" s="20"/>
       <c r="F221" s="20"/>
@@ -15227,14 +15251,14 @@
     </row>
     <row r="222" spans="1:9" ht="19" customHeight="1">
       <c r="A222" s="19" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B222" s="20"/>
       <c r="C222" s="20" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D222" s="21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E222" s="20"/>
       <c r="F222" s="20"/>
@@ -15244,14 +15268,14 @@
     </row>
     <row r="223" spans="1:9" ht="19" customHeight="1">
       <c r="A223" s="19" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="20" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E223" s="20"/>
       <c r="F223" s="20"/>
@@ -15261,14 +15285,14 @@
     </row>
     <row r="224" spans="1:9" ht="19" customHeight="1">
       <c r="A224" s="19" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="20" t="s">
-        <v>966</v>
+        <v>523</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>967</v>
+        <v>706</v>
       </c>
       <c r="E224" s="20"/>
       <c r="F224" s="20"/>
@@ -15278,14 +15302,14 @@
     </row>
     <row r="225" spans="1:9" ht="19" customHeight="1">
       <c r="A225" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="20" t="s">
-        <v>526</v>
+        <v>965</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>707</v>
+        <v>966</v>
       </c>
       <c r="E225" s="20"/>
       <c r="F225" s="20"/>
@@ -15295,14 +15319,14 @@
     </row>
     <row r="226" spans="1:9" ht="19" customHeight="1">
       <c r="A226" s="19" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="20" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E226" s="20"/>
       <c r="F226" s="20"/>
@@ -15312,14 +15336,14 @@
     </row>
     <row r="227" spans="1:9" ht="19" customHeight="1">
       <c r="A227" s="19" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="20" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E227" s="20"/>
       <c r="F227" s="20"/>
@@ -15329,14 +15353,14 @@
     </row>
     <row r="228" spans="1:9" ht="19" customHeight="1">
       <c r="A228" s="19" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B228" s="20"/>
       <c r="C228" s="20" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D228" s="21" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E228" s="20"/>
       <c r="F228" s="20"/>
@@ -15346,14 +15370,14 @@
     </row>
     <row r="229" spans="1:9" ht="19" customHeight="1">
       <c r="A229" s="19" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B229" s="20"/>
       <c r="C229" s="20" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E229" s="20"/>
       <c r="F229" s="20"/>
@@ -15363,14 +15387,14 @@
     </row>
     <row r="230" spans="1:9" ht="19" customHeight="1">
       <c r="A230" s="19" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E230" s="20"/>
       <c r="F230" s="20"/>
@@ -15380,14 +15404,14 @@
     </row>
     <row r="231" spans="1:9" ht="19" customHeight="1">
       <c r="A231" s="19" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B231" s="20"/>
       <c r="C231" s="20" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E231" s="20"/>
       <c r="F231" s="20"/>
@@ -15397,14 +15421,14 @@
     </row>
     <row r="232" spans="1:9" ht="19" customHeight="1">
       <c r="A232" s="19" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="D232" s="20" t="s">
-        <v>714</v>
+        <v>538</v>
+      </c>
+      <c r="D232" s="21" t="s">
+        <v>713</v>
       </c>
       <c r="E232" s="20"/>
       <c r="F232" s="20"/>
@@ -15414,14 +15438,14 @@
     </row>
     <row r="233" spans="1:9" ht="19" customHeight="1">
       <c r="A233" s="19" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="20" t="s">
-        <v>542</v>
-      </c>
-      <c r="D233" s="22" t="s">
-        <v>715</v>
+        <v>540</v>
+      </c>
+      <c r="D233" s="20" t="s">
+        <v>714</v>
       </c>
       <c r="E233" s="20"/>
       <c r="F233" s="20"/>
@@ -15431,14 +15455,14 @@
     </row>
     <row r="234" spans="1:9" ht="19" customHeight="1">
       <c r="A234" s="19" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="20" t="s">
-        <v>544</v>
-      </c>
-      <c r="D234" s="21" t="s">
-        <v>716</v>
+        <v>542</v>
+      </c>
+      <c r="D234" s="22" t="s">
+        <v>715</v>
       </c>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
@@ -15448,14 +15472,14 @@
     </row>
     <row r="235" spans="1:9" ht="19" customHeight="1">
       <c r="A235" s="19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B235" s="20"/>
       <c r="C235" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="D235" s="20" t="s">
-        <v>717</v>
+        <v>544</v>
+      </c>
+      <c r="D235" s="21" t="s">
+        <v>716</v>
       </c>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
@@ -15465,14 +15489,14 @@
     </row>
     <row r="236" spans="1:9" ht="19" customHeight="1">
       <c r="A236" s="19" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B236" s="20"/>
       <c r="C236" s="20" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D236" s="20" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E236" s="20"/>
       <c r="F236" s="20"/>
@@ -15482,14 +15506,14 @@
     </row>
     <row r="237" spans="1:9" ht="19" customHeight="1">
       <c r="A237" s="19" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B237" s="20"/>
       <c r="C237" s="20" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D237" s="20" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E237" s="20"/>
       <c r="F237" s="20"/>
@@ -15499,14 +15523,14 @@
     </row>
     <row r="238" spans="1:9" ht="19" customHeight="1">
       <c r="A238" s="19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B238" s="20"/>
       <c r="C238" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D238" s="20" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E238" s="20"/>
       <c r="F238" s="20"/>
@@ -15516,14 +15540,14 @@
     </row>
     <row r="239" spans="1:9" ht="19" customHeight="1">
       <c r="A239" s="19" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="20" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D239" s="20" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E239" s="20"/>
       <c r="F239" s="20"/>
@@ -15533,14 +15557,14 @@
     </row>
     <row r="240" spans="1:9" ht="19" customHeight="1">
       <c r="A240" s="19" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B240" s="20"/>
       <c r="C240" s="20" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E240" s="20"/>
       <c r="F240" s="20"/>
@@ -15550,14 +15574,14 @@
     </row>
     <row r="241" spans="1:9" ht="19" customHeight="1">
       <c r="A241" s="19" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B241" s="20"/>
       <c r="C241" s="20" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E241" s="20"/>
       <c r="F241" s="20"/>
@@ -15567,14 +15591,14 @@
     </row>
     <row r="242" spans="1:9" ht="19" customHeight="1">
       <c r="A242" s="19" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B242" s="20"/>
       <c r="C242" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="D242" s="21" t="s">
-        <v>724</v>
+        <v>558</v>
+      </c>
+      <c r="D242" s="20" t="s">
+        <v>723</v>
       </c>
       <c r="E242" s="20"/>
       <c r="F242" s="20"/>
@@ -15584,14 +15608,14 @@
     </row>
     <row r="243" spans="1:9" ht="19" customHeight="1">
       <c r="A243" s="19" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="20" t="s">
-        <v>562</v>
-      </c>
-      <c r="D243" s="20" t="s">
-        <v>725</v>
+        <v>560</v>
+      </c>
+      <c r="D243" s="21" t="s">
+        <v>724</v>
       </c>
       <c r="E243" s="20"/>
       <c r="F243" s="20"/>
@@ -15601,14 +15625,14 @@
     </row>
     <row r="244" spans="1:9" ht="19" customHeight="1">
       <c r="A244" s="19" t="s">
-        <v>1058</v>
+        <v>561</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D244" s="20" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E244" s="20"/>
       <c r="F244" s="20"/>
@@ -15618,14 +15642,14 @@
     </row>
     <row r="245" spans="1:9" ht="19" customHeight="1">
       <c r="A245" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B245" s="20"/>
       <c r="C245" s="20" t="s">
-        <v>564</v>
-      </c>
-      <c r="D245" s="21" t="s">
-        <v>727</v>
+        <v>563</v>
+      </c>
+      <c r="D245" s="20" t="s">
+        <v>726</v>
       </c>
       <c r="E245" s="20"/>
       <c r="F245" s="20"/>
@@ -15635,14 +15659,14 @@
     </row>
     <row r="246" spans="1:9" ht="19" customHeight="1">
       <c r="A246" s="19" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="20" t="s">
-        <v>1061</v>
+        <v>564</v>
       </c>
       <c r="D246" s="21" t="s">
-        <v>1062</v>
+        <v>727</v>
       </c>
       <c r="E246" s="20"/>
       <c r="F246" s="20"/>
@@ -15652,14 +15676,14 @@
     </row>
     <row r="247" spans="1:9" ht="19" customHeight="1">
       <c r="A247" s="19" t="s">
-        <v>565</v>
+        <v>1059</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="D247" s="20" t="s">
-        <v>728</v>
+        <v>1060</v>
+      </c>
+      <c r="D247" s="21" t="s">
+        <v>1061</v>
       </c>
       <c r="E247" s="20"/>
       <c r="F247" s="20"/>
@@ -15669,14 +15693,14 @@
     </row>
     <row r="248" spans="1:9" ht="19" customHeight="1">
       <c r="A248" s="19" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="20" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D248" s="20" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E248" s="20"/>
       <c r="F248" s="20"/>
@@ -15686,14 +15710,14 @@
     </row>
     <row r="249" spans="1:9" ht="19" customHeight="1">
       <c r="A249" s="19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="D249" s="21" t="s">
-        <v>730</v>
+        <v>568</v>
+      </c>
+      <c r="D249" s="20" t="s">
+        <v>729</v>
       </c>
       <c r="E249" s="20"/>
       <c r="F249" s="20"/>
@@ -15703,14 +15727,14 @@
     </row>
     <row r="250" spans="1:9" ht="19" customHeight="1">
       <c r="A250" s="19" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="D250" s="20" t="s">
-        <v>731</v>
+        <v>570</v>
+      </c>
+      <c r="D250" s="21" t="s">
+        <v>730</v>
       </c>
       <c r="E250" s="20"/>
       <c r="F250" s="20"/>
@@ -15720,14 +15744,14 @@
     </row>
     <row r="251" spans="1:9" ht="19" customHeight="1">
       <c r="A251" s="19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="20" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
@@ -15737,14 +15761,14 @@
     </row>
     <row r="252" spans="1:9" ht="19" customHeight="1">
       <c r="A252" s="19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="20" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E252" s="20"/>
       <c r="F252" s="20"/>
@@ -15754,14 +15778,14 @@
     </row>
     <row r="253" spans="1:9" ht="19" customHeight="1">
       <c r="A253" s="19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E253" s="20"/>
       <c r="F253" s="20"/>
@@ -15771,14 +15795,14 @@
     </row>
     <row r="254" spans="1:9" ht="19" customHeight="1">
       <c r="A254" s="19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B254" s="20"/>
       <c r="C254" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="D254" s="21" t="s">
-        <v>735</v>
+        <v>578</v>
+      </c>
+      <c r="D254" s="20" t="s">
+        <v>734</v>
       </c>
       <c r="E254" s="20"/>
       <c r="F254" s="20"/>
@@ -15788,14 +15812,14 @@
     </row>
     <row r="255" spans="1:9" ht="19" customHeight="1">
       <c r="A255" s="19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B255" s="20"/>
       <c r="C255" s="20" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D255" s="21" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E255" s="20"/>
       <c r="F255" s="20"/>
@@ -15805,14 +15829,14 @@
     </row>
     <row r="256" spans="1:9" ht="19" customHeight="1">
       <c r="A256" s="19" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="D256" s="20" t="s">
-        <v>737</v>
+        <v>582</v>
+      </c>
+      <c r="D256" s="21" t="s">
+        <v>736</v>
       </c>
       <c r="E256" s="20"/>
       <c r="F256" s="20"/>
@@ -15822,14 +15846,14 @@
     </row>
     <row r="257" spans="1:9" ht="19" customHeight="1">
       <c r="A257" s="19" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="20" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D257" s="20" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
@@ -15839,14 +15863,14 @@
     </row>
     <row r="258" spans="1:9" ht="19" customHeight="1">
       <c r="A258" s="19" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="20" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D258" s="20" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E258" s="20"/>
       <c r="F258" s="20"/>
@@ -15856,14 +15880,14 @@
     </row>
     <row r="259" spans="1:9" ht="19" customHeight="1">
       <c r="A259" s="19" t="s">
-        <v>942</v>
+        <v>587</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="20" t="s">
-        <v>944</v>
+        <v>588</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>943</v>
+        <v>739</v>
       </c>
       <c r="E259" s="20"/>
       <c r="F259" s="20"/>
@@ -15873,14 +15897,14 @@
     </row>
     <row r="260" spans="1:9" ht="19" customHeight="1">
       <c r="A260" s="19" t="s">
-        <v>589</v>
+        <v>941</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="D260" s="21" t="s">
-        <v>740</v>
+        <v>943</v>
+      </c>
+      <c r="D260" s="20" t="s">
+        <v>942</v>
       </c>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
@@ -15890,14 +15914,14 @@
     </row>
     <row r="261" spans="1:9" ht="19" customHeight="1">
       <c r="A261" s="19" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D261" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
@@ -15907,14 +15931,14 @@
     </row>
     <row r="262" spans="1:9" ht="19" customHeight="1">
       <c r="A262" s="19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="D262" s="20" t="s">
-        <v>742</v>
+        <v>592</v>
+      </c>
+      <c r="D262" s="21" t="s">
+        <v>741</v>
       </c>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
@@ -15924,14 +15948,14 @@
     </row>
     <row r="263" spans="1:9" ht="19" customHeight="1">
       <c r="A263" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="20" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D263" s="20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E263" s="20"/>
       <c r="F263" s="20"/>
@@ -15941,14 +15965,14 @@
     </row>
     <row r="264" spans="1:9" ht="19" customHeight="1">
       <c r="A264" s="19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="20" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D264" s="20" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E264" s="20"/>
       <c r="F264" s="20"/>
@@ -15958,14 +15982,14 @@
     </row>
     <row r="265" spans="1:9" ht="19" customHeight="1">
       <c r="A265" s="19" t="s">
-        <v>1063</v>
+        <v>597</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="20" t="s">
-        <v>1064</v>
+        <v>598</v>
       </c>
       <c r="D265" s="20" t="s">
-        <v>1065</v>
+        <v>744</v>
       </c>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
@@ -15975,14 +15999,14 @@
     </row>
     <row r="266" spans="1:9" ht="19" customHeight="1">
       <c r="A266" s="19" t="s">
-        <v>599</v>
+        <v>1062</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="20" t="s">
-        <v>600</v>
+        <v>1063</v>
       </c>
       <c r="D266" s="20" t="s">
-        <v>745</v>
+        <v>1064</v>
       </c>
       <c r="E266" s="20"/>
       <c r="F266" s="20"/>
@@ -15992,14 +16016,14 @@
     </row>
     <row r="267" spans="1:9" ht="19" customHeight="1">
       <c r="A267" s="19" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="20" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D267" s="20" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
@@ -16009,14 +16033,14 @@
     </row>
     <row r="268" spans="1:9" ht="19" customHeight="1">
       <c r="A268" s="19" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="20" t="s">
-        <v>604</v>
-      </c>
-      <c r="D268" s="21" t="s">
-        <v>747</v>
+        <v>602</v>
+      </c>
+      <c r="D268" s="20" t="s">
+        <v>746</v>
       </c>
       <c r="E268" s="20"/>
       <c r="F268" s="20"/>
@@ -16026,14 +16050,14 @@
     </row>
     <row r="269" spans="1:9" ht="19" customHeight="1">
       <c r="A269" s="19" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="20" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D269" s="21" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E269" s="20"/>
       <c r="F269" s="20"/>
@@ -16043,14 +16067,14 @@
     </row>
     <row r="270" spans="1:9" ht="19" customHeight="1">
       <c r="A270" s="19" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="D270" s="20" t="s">
-        <v>749</v>
+        <v>606</v>
+      </c>
+      <c r="D270" s="21" t="s">
+        <v>748</v>
       </c>
       <c r="E270" s="20"/>
       <c r="F270" s="20"/>
@@ -16060,14 +16084,14 @@
     </row>
     <row r="271" spans="1:9" ht="19" customHeight="1">
       <c r="A271" s="19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="20" t="s">
-        <v>610</v>
-      </c>
-      <c r="D271" s="21" t="s">
-        <v>750</v>
+        <v>608</v>
+      </c>
+      <c r="D271" s="20" t="s">
+        <v>749</v>
       </c>
       <c r="E271" s="20"/>
       <c r="F271" s="20"/>
@@ -16077,14 +16101,14 @@
     </row>
     <row r="272" spans="1:9" ht="19" customHeight="1">
       <c r="A272" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="20" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D272" s="21" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E272" s="20"/>
       <c r="F272" s="20"/>
@@ -16094,14 +16118,14 @@
     </row>
     <row r="273" spans="1:9" ht="19" customHeight="1">
       <c r="A273" s="19" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="20" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D273" s="21" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E273" s="20"/>
       <c r="F273" s="20"/>
@@ -16111,14 +16135,14 @@
     </row>
     <row r="274" spans="1:9" ht="19" customHeight="1">
       <c r="A274" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="20" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D274" s="21" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -16128,14 +16152,14 @@
     </row>
     <row r="275" spans="1:9" ht="19" customHeight="1">
       <c r="A275" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="20" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D275" s="21" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
@@ -16145,14 +16169,14 @@
     </row>
     <row r="276" spans="1:9" ht="19" customHeight="1">
       <c r="A276" s="19" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="D276" s="20" t="s">
-        <v>755</v>
+        <v>618</v>
+      </c>
+      <c r="D276" s="21" t="s">
+        <v>754</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -16162,14 +16186,14 @@
     </row>
     <row r="277" spans="1:9" ht="19" customHeight="1">
       <c r="A277" s="19" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="D277" s="21" t="s">
-        <v>756</v>
+        <v>620</v>
+      </c>
+      <c r="D277" s="20" t="s">
+        <v>755</v>
       </c>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
@@ -16179,14 +16203,14 @@
     </row>
     <row r="278" spans="1:9" ht="19" customHeight="1">
       <c r="A278" s="19" t="s">
-        <v>983</v>
+        <v>621</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="20" t="s">
-        <v>984</v>
-      </c>
-      <c r="D278" s="20" t="s">
-        <v>985</v>
+        <v>622</v>
+      </c>
+      <c r="D278" s="21" t="s">
+        <v>756</v>
       </c>
       <c r="E278" s="20"/>
       <c r="F278" s="20"/>
@@ -16196,14 +16220,14 @@
     </row>
     <row r="279" spans="1:9" ht="19" customHeight="1">
       <c r="A279" s="19" t="s">
-        <v>623</v>
+        <v>982</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="D279" s="21" t="s">
-        <v>757</v>
+        <v>983</v>
+      </c>
+      <c r="D279" s="20" t="s">
+        <v>984</v>
       </c>
       <c r="E279" s="20"/>
       <c r="F279" s="20"/>
@@ -16213,14 +16237,14 @@
     </row>
     <row r="280" spans="1:9" ht="19" customHeight="1">
       <c r="A280" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="20" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D280" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E280" s="20"/>
       <c r="F280" s="20"/>
@@ -16230,14 +16254,14 @@
     </row>
     <row r="281" spans="1:9" ht="19" customHeight="1">
       <c r="A281" s="19" t="s">
-        <v>1055</v>
+        <v>625</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="20" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D281" s="20" t="s">
-        <v>1057</v>
+        <v>626</v>
+      </c>
+      <c r="D281" s="21" t="s">
+        <v>758</v>
       </c>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
@@ -16247,14 +16271,14 @@
     </row>
     <row r="282" spans="1:9" ht="19" customHeight="1">
       <c r="A282" s="19" t="s">
-        <v>627</v>
+        <v>1054</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="20" t="s">
-        <v>628</v>
-      </c>
-      <c r="D282" s="21" t="s">
-        <v>759</v>
+        <v>1055</v>
+      </c>
+      <c r="D282" s="20" t="s">
+        <v>1056</v>
       </c>
       <c r="E282" s="20"/>
       <c r="F282" s="20"/>
@@ -16264,14 +16288,14 @@
     </row>
     <row r="283" spans="1:9" ht="19" customHeight="1">
       <c r="A283" s="19" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="20" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D283" s="21" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
@@ -16281,14 +16305,14 @@
     </row>
     <row r="284" spans="1:9" ht="19" customHeight="1">
       <c r="A284" s="19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="20" t="s">
-        <v>632</v>
-      </c>
-      <c r="D284" s="20" t="s">
-        <v>761</v>
+        <v>630</v>
+      </c>
+      <c r="D284" s="21" t="s">
+        <v>760</v>
       </c>
       <c r="E284" s="20"/>
       <c r="F284" s="20"/>
@@ -16298,14 +16322,14 @@
     </row>
     <row r="285" spans="1:9" ht="19" customHeight="1">
       <c r="A285" s="19" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="20" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D285" s="20" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
@@ -16315,14 +16339,14 @@
     </row>
     <row r="286" spans="1:9" ht="19" customHeight="1">
       <c r="A286" s="19" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="20" t="s">
-        <v>636</v>
-      </c>
-      <c r="D286" s="21" t="s">
-        <v>763</v>
+        <v>634</v>
+      </c>
+      <c r="D286" s="20" t="s">
+        <v>762</v>
       </c>
       <c r="E286" s="20"/>
       <c r="F286" s="20"/>
@@ -16332,14 +16356,14 @@
     </row>
     <row r="287" spans="1:9" ht="19" customHeight="1">
       <c r="A287" s="19" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="20" t="s">
-        <v>638</v>
-      </c>
-      <c r="D287" s="22" t="s">
-        <v>764</v>
+        <v>636</v>
+      </c>
+      <c r="D287" s="21" t="s">
+        <v>763</v>
       </c>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
@@ -16349,14 +16373,14 @@
     </row>
     <row r="288" spans="1:9" ht="19" customHeight="1">
       <c r="A288" s="19" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="20" t="s">
-        <v>640</v>
-      </c>
-      <c r="D288" s="21" t="s">
-        <v>968</v>
+        <v>638</v>
+      </c>
+      <c r="D288" s="22" t="s">
+        <v>764</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -16366,14 +16390,14 @@
     </row>
     <row r="289" spans="1:9" ht="19" customHeight="1">
       <c r="A289" s="19" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="20" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>765</v>
+        <v>967</v>
       </c>
       <c r="E289" s="20"/>
       <c r="F289" s="20"/>
@@ -16383,14 +16407,14 @@
     </row>
     <row r="290" spans="1:9" ht="19" customHeight="1">
       <c r="A290" s="19" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="20" t="s">
-        <v>644</v>
-      </c>
-      <c r="D290" s="20" t="s">
-        <v>766</v>
+        <v>642</v>
+      </c>
+      <c r="D290" s="21" t="s">
+        <v>765</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -16400,14 +16424,14 @@
     </row>
     <row r="291" spans="1:9" ht="19" customHeight="1">
       <c r="A291" s="19" t="s">
-        <v>980</v>
+        <v>643</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="20" t="s">
-        <v>981</v>
+        <v>644</v>
       </c>
       <c r="D291" s="20" t="s">
-        <v>982</v>
+        <v>766</v>
       </c>
       <c r="E291" s="20"/>
       <c r="F291" s="20"/>
@@ -16417,14 +16441,14 @@
     </row>
     <row r="292" spans="1:9" ht="19" customHeight="1">
       <c r="A292" s="19" t="s">
-        <v>645</v>
+        <v>979</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="20" t="s">
-        <v>646</v>
-      </c>
-      <c r="D292" s="21" t="s">
-        <v>767</v>
+        <v>980</v>
+      </c>
+      <c r="D292" s="20" t="s">
+        <v>981</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -16434,14 +16458,14 @@
     </row>
     <row r="293" spans="1:9" ht="19" customHeight="1">
       <c r="A293" s="19" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="20" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D293" s="21" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E293" s="20"/>
       <c r="F293" s="20"/>
@@ -16451,14 +16475,14 @@
     </row>
     <row r="294" spans="1:9" ht="19" customHeight="1">
       <c r="A294" s="19" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="20" t="s">
-        <v>986</v>
+        <v>648</v>
       </c>
       <c r="D294" s="21" t="s">
-        <v>987</v>
+        <v>768</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -16468,14 +16492,14 @@
     </row>
     <row r="295" spans="1:9" ht="19" customHeight="1">
       <c r="A295" s="19" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="20" t="s">
-        <v>651</v>
+        <v>985</v>
       </c>
       <c r="D295" s="21" t="s">
-        <v>769</v>
+        <v>986</v>
       </c>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
@@ -16485,14 +16509,14 @@
     </row>
     <row r="296" spans="1:9" ht="19" customHeight="1">
       <c r="A296" s="19" t="s">
-        <v>988</v>
+        <v>650</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="20" t="s">
-        <v>989</v>
-      </c>
-      <c r="D296" s="20" t="s">
-        <v>990</v>
+        <v>651</v>
+      </c>
+      <c r="D296" s="21" t="s">
+        <v>769</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -16502,14 +16526,14 @@
     </row>
     <row r="297" spans="1:9" ht="19" customHeight="1">
       <c r="A297" s="19" t="s">
-        <v>652</v>
+        <v>987</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="20" t="s">
-        <v>653</v>
-      </c>
-      <c r="D297" s="21" t="s">
-        <v>770</v>
+        <v>988</v>
+      </c>
+      <c r="D297" s="20" t="s">
+        <v>989</v>
       </c>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
@@ -16519,14 +16543,14 @@
     </row>
     <row r="298" spans="1:9" ht="19" customHeight="1">
       <c r="A298" s="19" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="20" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D298" s="21" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -16536,14 +16560,14 @@
     </row>
     <row r="299" spans="1:9" ht="19" customHeight="1">
       <c r="A299" s="19" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="20" t="s">
-        <v>657</v>
-      </c>
-      <c r="D299" s="20" t="s">
-        <v>772</v>
+        <v>655</v>
+      </c>
+      <c r="D299" s="21" t="s">
+        <v>771</v>
       </c>
       <c r="E299" s="20"/>
       <c r="F299" s="20"/>
@@ -16553,14 +16577,14 @@
     </row>
     <row r="300" spans="1:9" ht="19" customHeight="1">
       <c r="A300" s="19" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="20" t="s">
-        <v>659</v>
-      </c>
-      <c r="D300" s="21" t="s">
-        <v>773</v>
+        <v>657</v>
+      </c>
+      <c r="D300" s="20" t="s">
+        <v>772</v>
       </c>
       <c r="E300" s="20"/>
       <c r="F300" s="20"/>
@@ -16570,14 +16594,14 @@
     </row>
     <row r="301" spans="1:9" ht="19" customHeight="1">
       <c r="A301" s="19" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="20" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D301" s="21" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
@@ -16587,14 +16611,14 @@
     </row>
     <row r="302" spans="1:9" ht="19" customHeight="1">
       <c r="A302" s="19" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="20" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D302" s="21" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E302" s="20"/>
       <c r="F302" s="20"/>
@@ -16604,14 +16628,14 @@
     </row>
     <row r="303" spans="1:9" ht="19" customHeight="1">
       <c r="A303" s="19" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="D303" s="22" t="s">
-        <v>776</v>
+        <v>663</v>
+      </c>
+      <c r="D303" s="21" t="s">
+        <v>775</v>
       </c>
       <c r="E303" s="20"/>
       <c r="F303" s="20"/>
@@ -16621,14 +16645,14 @@
     </row>
     <row r="304" spans="1:9" ht="19" customHeight="1">
       <c r="A304" s="19" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="20" t="s">
-        <v>667</v>
-      </c>
-      <c r="D304" s="21" t="s">
-        <v>777</v>
+        <v>665</v>
+      </c>
+      <c r="D304" s="22" t="s">
+        <v>776</v>
       </c>
       <c r="E304" s="20"/>
       <c r="F304" s="20"/>
@@ -16638,14 +16662,14 @@
     </row>
     <row r="305" spans="1:9" ht="19" customHeight="1">
       <c r="A305" s="19" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D305" s="21" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
@@ -16655,14 +16679,14 @@
     </row>
     <row r="306" spans="1:9" ht="19" customHeight="1">
       <c r="A306" s="19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="20" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
@@ -16672,14 +16696,14 @@
     </row>
     <row r="307" spans="1:9" ht="19" customHeight="1">
       <c r="A307" s="19" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="20" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E307" s="20"/>
       <c r="F307" s="20"/>
@@ -16689,14 +16713,14 @@
     </row>
     <row r="308" spans="1:9" ht="19" customHeight="1">
       <c r="A308" s="19" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="20" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D308" s="21" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -16706,14 +16730,14 @@
     </row>
     <row r="309" spans="1:9" ht="19" customHeight="1">
       <c r="A309" s="19" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="20" t="s">
-        <v>677</v>
-      </c>
-      <c r="D309" s="20" t="s">
-        <v>782</v>
+        <v>675</v>
+      </c>
+      <c r="D309" s="21" t="s">
+        <v>781</v>
       </c>
       <c r="E309" s="20"/>
       <c r="F309" s="20"/>
@@ -16723,14 +16747,14 @@
     </row>
     <row r="310" spans="1:9" ht="19" customHeight="1">
       <c r="A310" s="19" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B310" s="20"/>
-      <c r="C310" s="27" t="s">
-        <v>679</v>
-      </c>
-      <c r="D310" s="27" t="s">
-        <v>783</v>
+      <c r="C310" s="20" t="s">
+        <v>677</v>
+      </c>
+      <c r="D310" s="20" t="s">
+        <v>782</v>
       </c>
       <c r="E310" s="20"/>
       <c r="F310" s="20"/>
@@ -16740,14 +16764,14 @@
     </row>
     <row r="311" spans="1:9" ht="19" customHeight="1">
       <c r="A311" s="19" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B311" s="20"/>
-      <c r="C311" s="20" t="s">
-        <v>681</v>
-      </c>
-      <c r="D311" s="20" t="s">
-        <v>784</v>
+      <c r="C311" s="27" t="s">
+        <v>679</v>
+      </c>
+      <c r="D311" s="27" t="s">
+        <v>783</v>
       </c>
       <c r="E311" s="20"/>
       <c r="F311" s="20"/>
@@ -16757,14 +16781,14 @@
     </row>
     <row r="312" spans="1:9" ht="19" customHeight="1">
       <c r="A312" s="19" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="20" t="s">
-        <v>683</v>
-      </c>
-      <c r="D312" s="21" t="s">
-        <v>785</v>
+        <v>681</v>
+      </c>
+      <c r="D312" s="20" t="s">
+        <v>784</v>
       </c>
       <c r="E312" s="20"/>
       <c r="F312" s="20"/>
@@ -16774,14 +16798,14 @@
     </row>
     <row r="313" spans="1:9" ht="19" customHeight="1">
       <c r="A313" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="20" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D313" s="21" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -16791,14 +16815,14 @@
     </row>
     <row r="314" spans="1:9" ht="19" customHeight="1">
       <c r="A314" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="20" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E314" s="20"/>
       <c r="F314" s="20"/>
@@ -16808,14 +16832,14 @@
     </row>
     <row r="315" spans="1:9" ht="19" customHeight="1">
       <c r="A315" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="20" t="s">
-        <v>689</v>
-      </c>
-      <c r="D315" s="20" t="s">
-        <v>788</v>
+        <v>687</v>
+      </c>
+      <c r="D315" s="21" t="s">
+        <v>787</v>
       </c>
       <c r="E315" s="20"/>
       <c r="F315" s="20"/>
@@ -16825,14 +16849,14 @@
     </row>
     <row r="316" spans="1:9" ht="19" customHeight="1">
       <c r="A316" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="20" t="s">
-        <v>691</v>
-      </c>
-      <c r="D316" s="22" t="s">
-        <v>789</v>
+        <v>689</v>
+      </c>
+      <c r="D316" s="20" t="s">
+        <v>788</v>
       </c>
       <c r="E316" s="20"/>
       <c r="F316" s="20"/>
@@ -16842,14 +16866,14 @@
     </row>
     <row r="317" spans="1:9" ht="19" customHeight="1">
       <c r="A317" s="19" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="20" t="s">
-        <v>693</v>
-      </c>
-      <c r="D317" s="20" t="s">
-        <v>790</v>
+        <v>691</v>
+      </c>
+      <c r="D317" s="22" t="s">
+        <v>789</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -16859,14 +16883,14 @@
     </row>
     <row r="318" spans="1:9" ht="19" customHeight="1">
       <c r="A318" s="19" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="20" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D318" s="20" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E318" s="20"/>
       <c r="F318" s="20"/>
@@ -16876,14 +16900,14 @@
     </row>
     <row r="319" spans="1:9" ht="19" customHeight="1">
       <c r="A319" s="19" t="s">
-        <v>977</v>
+        <v>694</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="20" t="s">
-        <v>978</v>
+        <v>695</v>
       </c>
       <c r="D319" s="20" t="s">
-        <v>979</v>
+        <v>791</v>
       </c>
       <c r="E319" s="20"/>
       <c r="F319" s="20"/>
@@ -16893,14 +16917,14 @@
     </row>
     <row r="320" spans="1:9" ht="19" customHeight="1">
       <c r="A320" s="19" t="s">
-        <v>1104</v>
+        <v>976</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="20" t="s">
-        <v>1105</v>
+        <v>977</v>
       </c>
       <c r="D320" s="20" t="s">
-        <v>1106</v>
+        <v>978</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -16909,10 +16933,16 @@
       <c r="I320" s="18"/>
     </row>
     <row r="321" spans="1:9" ht="19" customHeight="1">
-      <c r="A321" s="19"/>
+      <c r="A321" s="19" t="s">
+        <v>1103</v>
+      </c>
       <c r="B321" s="20"/>
-      <c r="C321" s="20"/>
-      <c r="D321" s="20"/>
+      <c r="C321" s="20" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D321" s="20" t="s">
+        <v>1105</v>
+      </c>
       <c r="E321" s="20"/>
       <c r="F321" s="20"/>
       <c r="G321" s="18"/>
@@ -17601,15 +17631,26 @@
       <c r="H383" s="17"/>
       <c r="I383" s="18"/>
     </row>
+    <row r="384" spans="1:9" ht="19" customHeight="1">
+      <c r="A384" s="19"/>
+      <c r="B384" s="20"/>
+      <c r="C384" s="20"/>
+      <c r="D384" s="20"/>
+      <c r="E384" s="20"/>
+      <c r="F384" s="20"/>
+      <c r="G384" s="18"/>
+      <c r="H384" s="17"/>
+      <c r="I384" s="18"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:J207" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
+  <autoFilter ref="A4:J208" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A232:E233 E219:G219 A219:C231 A255:E256 A282:E283 A257:C281 E257:E281 A304:E305 E284:E303 A321:G383 A319:E320 A306:C318 E306:E318 E220:E231 B63:G63 D113:D131 A213:G218 I8:I28 A8:G28 A284:C303 A64:G112 A234:C254 E234:E254 G220:G320 I213:I383 F220:F269 A113:C139 E113:G139 D136:D139 A140:G211 I30:I211 A30:G62">
+  <conditionalFormatting sqref="A233:E234 E220:G220 A220:C232 A256:E257 A283:E284 A258:C282 E258:E282 A305:E306 E285:E304 A322:G384 A320:E321 A307:C319 E307:E319 E221:E232 B64:G64 D114:D132 A214:G219 I8:I28 A8:G28 A285:C304 A65:G113 A235:C255 E235:E255 G221:G321 I214:I384 F221:F270 A114:C140 E114:G140 D137:D140 A141:G212 I30:I212 A30:G63">
     <cfRule type="expression" dxfId="130" priority="260">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H85:H110 H213:H383 H113:H211 H30:H83">
+  <conditionalFormatting sqref="H8:H28 H86:H111 H214:H384 H114:H212 H30:H84">
     <cfRule type="cellIs" dxfId="129" priority="215" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
@@ -17623,7 +17664,7 @@
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H85:H110 H213:H383 H113:H211 H30:H83">
+  <conditionalFormatting sqref="H8:H28 H86:H111 H214:H384 H114:H212 H30:H84">
     <cfRule type="cellIs" dxfId="125" priority="216" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -17640,19 +17681,19 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H85:H110 H213:H383 H113:H211 H30:H83">
+  <conditionalFormatting sqref="H8:H28 H86:H111 H214:H384 H114:H212 H30:H84">
     <cfRule type="cellIs" dxfId="120" priority="218" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D132:D133">
+  <conditionalFormatting sqref="D133:D134">
     <cfRule type="expression" dxfId="119" priority="139">
-      <formula>$G132&lt;&gt;""</formula>
+      <formula>$G133&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D134:D135">
+  <conditionalFormatting sqref="D135:D136">
     <cfRule type="expression" dxfId="118" priority="138">
-      <formula>$G134&lt;&gt;""</formula>
+      <formula>$G135&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5 I5 A5">
@@ -17701,26 +17742,26 @@
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C212:G212 I212 A212">
+  <conditionalFormatting sqref="C213:G213 I213 A213">
     <cfRule type="expression" dxfId="105" priority="120">
-      <formula>$G212&lt;&gt;""</formula>
+      <formula>$G213&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H212">
+  <conditionalFormatting sqref="H213">
     <cfRule type="cellIs" dxfId="104" priority="110" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="103" priority="117" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",H212)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",H213)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="102" priority="118" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",H212)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",H213)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="101" priority="119" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H212)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H213)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H212">
+  <conditionalFormatting sqref="H213">
     <cfRule type="cellIs" dxfId="100" priority="111" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -17737,24 +17778,24 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H212">
+  <conditionalFormatting sqref="H213">
     <cfRule type="cellIs" dxfId="95" priority="113" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B212">
+  <conditionalFormatting sqref="B213">
     <cfRule type="expression" dxfId="94" priority="109">
-      <formula>$G212&lt;&gt;""</formula>
+      <formula>$G213&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D292:D293 D297:D318 D282:D288 D219:D240 D243 D247:D256 D260:D262 D266:D275">
+  <conditionalFormatting sqref="D293:D294 D298:D319 D283:D289 D220:D241 D244 D248:D257 D261:D263 D267:D276">
     <cfRule type="expression" dxfId="93" priority="262">
-      <formula>$G221&lt;&gt;""</formula>
+      <formula>$G222&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F270:F320">
+  <conditionalFormatting sqref="F271:F321">
     <cfRule type="expression" dxfId="92" priority="108">
-      <formula>$G270&lt;&gt;""</formula>
+      <formula>$G271&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6 I6 C6:G6">
@@ -17854,26 +17895,26 @@
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
+  <conditionalFormatting sqref="A64">
     <cfRule type="expression" dxfId="66" priority="57">
-      <formula>$G63&lt;&gt;""</formula>
+      <formula>$G64&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H111:H112">
+  <conditionalFormatting sqref="H112:H113">
     <cfRule type="cellIs" dxfId="65" priority="46" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="64" priority="53" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",H111)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",H112)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="63" priority="54" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",H111)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",H112)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="62" priority="55" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H111)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H112)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H111:H112">
+  <conditionalFormatting sqref="H112:H113">
     <cfRule type="cellIs" dxfId="61" priority="47" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -17890,7 +17931,7 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H111:H112">
+  <conditionalFormatting sqref="H112:H113">
     <cfRule type="cellIs" dxfId="56" priority="49" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
@@ -17936,26 +17977,26 @@
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D257:D259 D289:D291 D294:D296 D279:D281 D276:D277 D244:D246 D263:D264">
+  <conditionalFormatting sqref="D258:D260 D290:D292 D295:D297 D280:D282 D277:D278 D245:D247 D264:D265">
     <cfRule type="expression" dxfId="44" priority="265">
-      <formula>$G247&lt;&gt;""</formula>
+      <formula>$G248&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
+  <conditionalFormatting sqref="H85">
     <cfRule type="cellIs" dxfId="43" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="9" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",H84)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",H85)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="41" priority="10" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",H84)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",H85)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="40" priority="11" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H84)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H85)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
+  <conditionalFormatting sqref="H85">
     <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -17972,29 +18013,29 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
+  <conditionalFormatting sqref="H85">
     <cfRule type="cellIs" dxfId="34" priority="5" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D278">
+  <conditionalFormatting sqref="D279">
     <cfRule type="expression" dxfId="33" priority="269">
-      <formula>$G282&lt;&gt;""</formula>
+      <formula>$G283&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D243">
+    <cfRule type="expression" dxfId="32" priority="300">
+      <formula>$G244&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D242">
-    <cfRule type="expression" dxfId="32" priority="300">
-      <formula>$G243&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D241">
     <cfRule type="expression" dxfId="31" priority="301">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D265">
+  <conditionalFormatting sqref="D266">
     <cfRule type="expression" dxfId="30" priority="1">
-      <formula>$G265&lt;&gt;""</formula>
+      <formula>$G266&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97DAB38-93D6-0E49-B45F-E8F76C70E7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F76CB9-9FF0-3C4E-9ECA-237D1223ECD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35860" yWindow="2320" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="List" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">message!$A$4:$J$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">message!$A$4:$J$209</definedName>
     <definedName name="実施結果">List!$A$3:$A$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="1118">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -430,10 +430,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${subject}.class is "${expected}"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>displayedIs</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -870,58 +866,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Flick from bottom to top</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>flickCenterToBottom</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Flick from center to bottom</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>flickCenterToTop</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Flick center to top</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>flickCenterToLeft</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Flick center to left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>flickCenterToRight</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Flick center to right</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>flickLeftToRight</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Flick left to right</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>flickRightToLeft</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Flick right to left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>flickToBottom</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -942,10 +910,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Flick top to bottom</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>flickToRight</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -966,50 +930,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Swipe bottom to top</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>swipeTopToBottom</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Swipe top to bottom</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>swipeCenterToBottom</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Swipe center to bottom</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>swipeCenterToTop</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Swipe center to top</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>swipeCenterToLeft</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Swipe center to left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>swipeCenterToRight</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Swipe center to right</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>swipeElementToElement</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1022,18 +962,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Swipe left to right</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>swipeRightToLeft</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Swipe right to left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Swipe from ${from} to ${to} (endOffsetY=${arg1})</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1901,38 +1833,6 @@
         <family val="2"/>
       </rPr>
       <t>ON</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tsukushi A Round Gothic Bold"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>であること</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>${subject}.class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tsukushi A Round Gothic Bold"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"${expected}"</t>
     </r>
     <r>
       <rPr>
@@ -9554,6 +9454,156 @@
   </si>
   <si>
     <t>writeClipboard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testListDirNotFound</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testListDir not found. (${file})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testListDirが存在しません。(${file})</t>
+    <rPh sb="12" eb="14">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flick bottom to top</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flick top to bottom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flick center to bottom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flick center to top</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flick center to left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flick center to right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flick left to right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flick right to left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Swipe bottom to top</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Swipe top to bottom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Swipe center to bottom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Swipe center to top</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Swipe center to left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Swipe center to right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Swipe left to right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Swipe right to left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>classIsNot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select("${subject}").classIsNot("${expected}")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${subject}.classOrType is not "${expected}"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${subject}.classOrType is "${expected}"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>${subject}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.classOrTypeが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"${expected}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ではないこと</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>${subject}.classOrTypeが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"${expected}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>であること</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11132,11 +11182,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I384"/>
+  <dimension ref="A1:I386"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>
@@ -11155,16 +11205,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:9" ht="19" customHeight="1" thickBot="1">
       <c r="C3" s="14" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="16" customFormat="1" ht="19" customHeight="1">
@@ -11172,13 +11222,13 @@
         <v>18</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -11188,7 +11238,7 @@
     </row>
     <row r="5" spans="1:9" ht="19" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -11201,16 +11251,16 @@
     </row>
     <row r="6" spans="1:9" ht="19" customHeight="1">
       <c r="A6" s="19" t="s">
-        <v>901</v>
+        <v>883</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>904</v>
+        <v>886</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>905</v>
+        <v>887</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
@@ -11220,16 +11270,16 @@
     </row>
     <row r="7" spans="1:9" ht="19" customHeight="1">
       <c r="A7" s="19" t="s">
-        <v>902</v>
+        <v>884</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>903</v>
+        <v>885</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>906</v>
+        <v>888</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>908</v>
+        <v>890</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -11242,13 +11292,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -11261,13 +11311,13 @@
         <v>22</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -11280,13 +11330,13 @@
         <v>24</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -11299,13 +11349,13 @@
         <v>26</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -11318,13 +11368,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
@@ -11337,13 +11387,13 @@
         <v>30</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -11356,13 +11406,13 @@
         <v>32</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>835</v>
+        <v>817</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -11375,13 +11425,13 @@
         <v>34</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -11394,13 +11444,13 @@
         <v>36</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
@@ -11413,13 +11463,13 @@
         <v>38</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
@@ -11432,13 +11482,13 @@
         <v>40</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
@@ -11451,13 +11501,13 @@
         <v>42</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
@@ -11470,13 +11520,13 @@
         <v>44</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>845</v>
+        <v>827</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -11489,13 +11539,13 @@
         <v>46</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -11508,13 +11558,13 @@
         <v>48</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
@@ -11527,13 +11577,13 @@
         <v>50</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
@@ -11546,13 +11596,13 @@
         <v>52</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
@@ -11562,16 +11612,16 @@
     </row>
     <row r="25" spans="1:9" ht="19" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>944</v>
+        <v>926</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>946</v>
+        <v>928</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>948</v>
+        <v>930</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>953</v>
+        <v>935</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
@@ -11581,16 +11631,16 @@
     </row>
     <row r="26" spans="1:9" ht="19" customHeight="1">
       <c r="A26" s="19" t="s">
-        <v>945</v>
+        <v>927</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>947</v>
+        <v>929</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>949</v>
+        <v>931</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>949</v>
+        <v>931</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -11600,16 +11650,16 @@
     </row>
     <row r="27" spans="1:9" ht="19" customHeight="1">
       <c r="A27" s="19" t="s">
-        <v>937</v>
+        <v>919</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>938</v>
+        <v>920</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>939</v>
+        <v>921</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>940</v>
+        <v>922</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
@@ -11622,13 +11672,13 @@
         <v>98</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>99</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -11641,13 +11691,13 @@
         <v>54</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -11660,13 +11710,13 @@
         <v>56</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>935</v>
+        <v>917</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
@@ -11679,13 +11729,13 @@
         <v>57</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
@@ -11698,13 +11748,13 @@
         <v>59</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
@@ -11717,13 +11767,13 @@
         <v>100</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>101</v>
+        <v>1115</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>327</v>
+        <v>1117</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -11733,16 +11783,16 @@
     </row>
     <row r="34" spans="1:9" ht="19" customHeight="1">
       <c r="A34" s="19" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>1107</v>
+        <v>1112</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>1113</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>1109</v>
+        <v>1114</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>1116</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -11752,16 +11802,16 @@
     </row>
     <row r="35" spans="1:9" ht="19" customHeight="1">
       <c r="A35" s="19" t="s">
-        <v>958</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>959</v>
+        <v>1088</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>1089</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>960</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>960</v>
+        <v>1090</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>1091</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -11771,16 +11821,16 @@
     </row>
     <row r="36" spans="1:9" ht="19" customHeight="1">
       <c r="A36" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>832</v>
+        <v>940</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>941</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>103</v>
+        <v>942</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>328</v>
+        <v>942</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
@@ -11790,16 +11840,16 @@
     </row>
     <row r="37" spans="1:9" ht="19" customHeight="1">
       <c r="A37" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>449</v>
+        <v>814</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
@@ -11809,16 +11859,16 @@
     </row>
     <row r="38" spans="1:9" ht="19" customHeight="1">
       <c r="A38" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
@@ -11828,16 +11878,16 @@
     </row>
     <row r="39" spans="1:9" ht="19" customHeight="1">
       <c r="A39" s="19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>829</v>
+        <v>432</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
@@ -11847,16 +11897,16 @@
     </row>
     <row r="40" spans="1:9" ht="19" customHeight="1">
       <c r="A40" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>456</v>
+        <v>811</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
@@ -11866,16 +11916,16 @@
     </row>
     <row r="41" spans="1:9" ht="19" customHeight="1">
       <c r="A41" s="19" t="s">
-        <v>1095</v>
+        <v>109</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>1097</v>
+        <v>438</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>1099</v>
+        <v>110</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>1101</v>
+        <v>314</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
@@ -11885,16 +11935,16 @@
     </row>
     <row r="42" spans="1:9" ht="19" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>1096</v>
+        <v>1077</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>1098</v>
+        <v>1079</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>1100</v>
+        <v>1081</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>1102</v>
+        <v>1083</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -11904,16 +11954,16 @@
     </row>
     <row r="43" spans="1:9" ht="19" customHeight="1">
       <c r="A43" s="19" t="s">
-        <v>112</v>
+        <v>1078</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>826</v>
+        <v>1080</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>113</v>
+        <v>1082</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>333</v>
+        <v>1084</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -11923,16 +11973,16 @@
     </row>
     <row r="44" spans="1:9" ht="19" customHeight="1">
       <c r="A44" s="19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
@@ -11942,16 +11992,16 @@
     </row>
     <row r="45" spans="1:9" ht="19" customHeight="1">
       <c r="A45" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
@@ -11961,16 +12011,16 @@
     </row>
     <row r="46" spans="1:9" ht="19" customHeight="1">
       <c r="A46" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>451</v>
+        <v>810</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -11980,16 +12030,16 @@
     </row>
     <row r="47" spans="1:9" ht="19" customHeight="1">
       <c r="A47" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
@@ -11999,16 +12049,16 @@
     </row>
     <row r="48" spans="1:9" ht="19" customHeight="1">
       <c r="A48" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
@@ -12018,16 +12068,16 @@
     </row>
     <row r="49" spans="1:9" ht="19" customHeight="1">
       <c r="A49" s="19" t="s">
-        <v>1087</v>
+        <v>121</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>1089</v>
+        <v>435</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>1091</v>
+        <v>122</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>1093</v>
+        <v>320</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
@@ -12037,16 +12087,16 @@
     </row>
     <row r="50" spans="1:9" ht="19" customHeight="1">
       <c r="A50" s="19" t="s">
-        <v>1088</v>
+        <v>1069</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1090</v>
+        <v>1071</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>1092</v>
+        <v>1073</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>1094</v>
+        <v>1075</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -12056,16 +12106,16 @@
     </row>
     <row r="51" spans="1:9" ht="19" customHeight="1">
       <c r="A51" s="19" t="s">
-        <v>124</v>
+        <v>1070</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>456</v>
+        <v>1072</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>119</v>
+        <v>1074</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>336</v>
+        <v>1076</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -12075,16 +12125,16 @@
     </row>
     <row r="52" spans="1:9" ht="19" customHeight="1">
       <c r="A52" s="19" t="s">
-        <v>990</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>991</v>
+        <v>123</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>438</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>992</v>
+        <v>118</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>993</v>
+        <v>318</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
@@ -12094,16 +12144,16 @@
     </row>
     <row r="53" spans="1:9" ht="19" customHeight="1">
       <c r="A53" s="19" t="s">
-        <v>994</v>
+        <v>972</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>995</v>
+        <v>973</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>996</v>
+        <v>974</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>997</v>
+        <v>975</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
@@ -12113,16 +12163,16 @@
     </row>
     <row r="54" spans="1:9" ht="19" customHeight="1">
       <c r="A54" s="19" t="s">
-        <v>998</v>
+        <v>976</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>1001</v>
+        <v>977</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>1004</v>
+        <v>978</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>1007</v>
+        <v>979</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -12132,16 +12182,16 @@
     </row>
     <row r="55" spans="1:9" ht="19" customHeight="1">
       <c r="A55" s="19" t="s">
-        <v>999</v>
+        <v>980</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>1002</v>
+        <v>983</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>1005</v>
+        <v>986</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>1008</v>
+        <v>989</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
@@ -12151,16 +12201,16 @@
     </row>
     <row r="56" spans="1:9" ht="19" customHeight="1">
       <c r="A56" s="19" t="s">
-        <v>1000</v>
+        <v>981</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>1003</v>
+        <v>984</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>1006</v>
+        <v>987</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>1009</v>
+        <v>990</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
@@ -12170,16 +12220,16 @@
     </row>
     <row r="57" spans="1:9" ht="19" customHeight="1">
       <c r="A57" s="19" t="s">
-        <v>61</v>
+        <v>982</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>844</v>
+        <v>985</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>309</v>
+        <v>988</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>991</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
@@ -12189,16 +12239,16 @@
     </row>
     <row r="58" spans="1:9" ht="19" customHeight="1">
       <c r="A58" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>432</v>
+        <v>826</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>310</v>
+        <v>62</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>292</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
@@ -12208,16 +12258,16 @@
     </row>
     <row r="59" spans="1:9" ht="19" customHeight="1">
       <c r="A59" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>311</v>
+        <v>64</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>293</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
@@ -12227,16 +12277,16 @@
     </row>
     <row r="60" spans="1:9" ht="19" customHeight="1">
       <c r="A60" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
@@ -12246,16 +12296,16 @@
     </row>
     <row r="61" spans="1:9" ht="19" customHeight="1">
       <c r="A61" s="19" t="s">
-        <v>950</v>
+        <v>67</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>951</v>
+        <v>416</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>952</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>952</v>
+        <v>68</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>295</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -12265,16 +12315,16 @@
     </row>
     <row r="62" spans="1:9" ht="19" customHeight="1">
       <c r="A62" s="19" t="s">
-        <v>849</v>
+        <v>932</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>851</v>
+        <v>933</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>852</v>
+        <v>934</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>853</v>
+        <v>934</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
@@ -12284,16 +12334,16 @@
     </row>
     <row r="63" spans="1:9" ht="19" customHeight="1">
       <c r="A63" s="19" t="s">
-        <v>850</v>
+        <v>831</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>855</v>
+        <v>833</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>856</v>
+        <v>834</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>857</v>
+        <v>835</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
@@ -12303,16 +12353,16 @@
     </row>
     <row r="64" spans="1:9" ht="19" customHeight="1">
       <c r="A64" s="19" t="s">
-        <v>1110</v>
+        <v>832</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>919</v>
+        <v>837</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>918</v>
+        <v>838</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
@@ -12322,16 +12372,16 @@
     </row>
     <row r="65" spans="1:9" ht="19" customHeight="1">
       <c r="A65" s="19" t="s">
-        <v>847</v>
+        <v>1092</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>848</v>
+        <v>901</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>917</v>
+        <v>836</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
@@ -12341,16 +12391,16 @@
     </row>
     <row r="66" spans="1:9" ht="19" customHeight="1">
       <c r="A66" s="19" t="s">
-        <v>862</v>
+        <v>829</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>865</v>
+        <v>830</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>866</v>
+        <v>902</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>867</v>
+        <v>899</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
@@ -12360,16 +12410,16 @@
     </row>
     <row r="67" spans="1:9" ht="19" customHeight="1">
       <c r="A67" s="19" t="s">
-        <v>863</v>
+        <v>844</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>910</v>
+        <v>848</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>912</v>
+        <v>849</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
@@ -12379,16 +12429,16 @@
     </row>
     <row r="68" spans="1:9" ht="19" customHeight="1">
       <c r="A68" s="19" t="s">
-        <v>864</v>
+        <v>845</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>869</v>
+        <v>850</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>911</v>
+        <v>892</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>913</v>
+        <v>894</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
@@ -12398,16 +12448,16 @@
     </row>
     <row r="69" spans="1:9" ht="19" customHeight="1">
       <c r="A69" s="19" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>914</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>915</v>
+        <v>893</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>895</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
@@ -12417,16 +12467,16 @@
     </row>
     <row r="70" spans="1:9" ht="19" customHeight="1">
       <c r="A70" s="19" t="s">
-        <v>69</v>
+        <v>842</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>435</v>
+        <v>843</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>932</v>
+        <v>896</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>897</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
@@ -12436,16 +12486,16 @@
     </row>
     <row r="71" spans="1:9" ht="19" customHeight="1">
       <c r="A71" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>313</v>
+        <v>914</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
@@ -12455,16 +12505,16 @@
     </row>
     <row r="72" spans="1:9" ht="19" customHeight="1">
       <c r="A72" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>933</v>
+        <v>296</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
@@ -12474,16 +12524,16 @@
     </row>
     <row r="73" spans="1:9" ht="19" customHeight="1">
       <c r="A73" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>314</v>
+        <v>915</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
@@ -12493,16 +12543,16 @@
     </row>
     <row r="74" spans="1:9" ht="19" customHeight="1">
       <c r="A74" s="19" t="s">
-        <v>961</v>
+        <v>75</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>962</v>
+        <v>420</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>963</v>
+        <v>76</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>964</v>
+        <v>297</v>
       </c>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
@@ -12512,16 +12562,16 @@
     </row>
     <row r="75" spans="1:9" ht="19" customHeight="1">
       <c r="A75" s="19" t="s">
-        <v>77</v>
+        <v>943</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>439</v>
+        <v>944</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" s="22" t="s">
-        <v>315</v>
+        <v>945</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>946</v>
       </c>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
@@ -12531,16 +12581,16 @@
     </row>
     <row r="76" spans="1:9" ht="19" customHeight="1">
       <c r="A76" s="19" t="s">
-        <v>929</v>
+        <v>77</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>930</v>
+        <v>421</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>931</v>
+        <v>78</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>934</v>
+        <v>298</v>
       </c>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
@@ -12550,16 +12600,16 @@
     </row>
     <row r="77" spans="1:9" ht="19" customHeight="1">
       <c r="A77" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>440</v>
+        <v>911</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>912</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>316</v>
+        <v>913</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>916</v>
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="20"/>
@@ -12569,16 +12619,16 @@
     </row>
     <row r="78" spans="1:9" ht="19" customHeight="1">
       <c r="A78" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>441</v>
+        <v>79</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>422</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>317</v>
+        <v>80</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>299</v>
       </c>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
@@ -12588,16 +12638,16 @@
     </row>
     <row r="79" spans="1:9" ht="19" customHeight="1">
       <c r="A79" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>443</v>
+        <v>81</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>423</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>318</v>
+        <v>82</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>300</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
@@ -12607,16 +12657,16 @@
     </row>
     <row r="80" spans="1:9" ht="19" customHeight="1">
       <c r="A80" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>319</v>
+        <v>424</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>301</v>
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
@@ -12626,16 +12676,16 @@
     </row>
     <row r="81" spans="1:9" ht="19" customHeight="1">
       <c r="A81" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
@@ -12645,16 +12695,16 @@
     </row>
     <row r="82" spans="1:9" ht="19" customHeight="1">
       <c r="A82" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
@@ -12664,16 +12714,16 @@
     </row>
     <row r="83" spans="1:9" ht="19" customHeight="1">
       <c r="A83" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
@@ -12683,16 +12733,16 @@
     </row>
     <row r="84" spans="1:9" ht="19" customHeight="1">
       <c r="A84" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
@@ -12702,16 +12752,16 @@
     </row>
     <row r="85" spans="1:9" ht="19" customHeight="1">
       <c r="A85" s="19" t="s">
-        <v>954</v>
+        <v>92</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>955</v>
+        <v>430</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>956</v>
-      </c>
-      <c r="D85" s="22" t="s">
-        <v>957</v>
+        <v>93</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>306</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
@@ -12721,16 +12771,16 @@
     </row>
     <row r="86" spans="1:9" ht="19" customHeight="1">
       <c r="A86" s="19" t="s">
-        <v>94</v>
+        <v>936</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>94</v>
+        <v>937</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>95</v>
+        <v>938</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>324</v>
+        <v>939</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -12740,16 +12790,16 @@
     </row>
     <row r="87" spans="1:9" ht="19" customHeight="1">
       <c r="A87" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>846</v>
+        <v>94</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
@@ -12759,16 +12809,16 @@
     </row>
     <row r="88" spans="1:9" ht="19" customHeight="1">
       <c r="A88" s="19" t="s">
-        <v>870</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>872</v>
+        <v>96</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>828</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>1036</v>
+        <v>97</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>308</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
@@ -12778,16 +12828,16 @@
     </row>
     <row r="89" spans="1:9" ht="19" customHeight="1">
       <c r="A89" s="19" t="s">
-        <v>871</v>
+        <v>852</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>1043</v>
+        <v>1024</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>1037</v>
+        <v>1018</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
@@ -12797,16 +12847,16 @@
     </row>
     <row r="90" spans="1:9" ht="19" customHeight="1">
       <c r="A90" s="19" t="s">
-        <v>874</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>887</v>
+        <v>853</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>855</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D90" s="22" t="s">
-        <v>1050</v>
+        <v>1025</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>1019</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
@@ -12816,16 +12866,16 @@
     </row>
     <row r="91" spans="1:9" ht="19" customHeight="1">
       <c r="A91" s="19" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>909</v>
+        <v>869</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>1045</v>
+        <v>1026</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>1051</v>
+        <v>1032</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
@@ -12835,16 +12885,16 @@
     </row>
     <row r="92" spans="1:9" ht="19" customHeight="1">
       <c r="A92" s="19" t="s">
-        <v>875</v>
+        <v>858</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>1046</v>
+        <v>1027</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>1049</v>
+        <v>1033</v>
       </c>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
@@ -12854,16 +12904,16 @@
     </row>
     <row r="93" spans="1:9" ht="19" customHeight="1">
       <c r="A93" s="19" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>885</v>
+        <v>868</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>1048</v>
+        <v>1031</v>
       </c>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
@@ -12873,16 +12923,16 @@
     </row>
     <row r="94" spans="1:9" ht="19" customHeight="1">
       <c r="A94" s="19" t="s">
-        <v>1014</v>
+        <v>859</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>1017</v>
+        <v>867</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>1013</v>
+        <v>1029</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>1030</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -12892,16 +12942,16 @@
     </row>
     <row r="95" spans="1:9" ht="19" customHeight="1">
       <c r="A95" s="19" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>1018</v>
+        <v>994</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>1019</v>
+        <v>995</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
@@ -12911,16 +12961,16 @@
     </row>
     <row r="96" spans="1:9" ht="19" customHeight="1">
       <c r="A96" s="19" t="s">
-        <v>888</v>
+        <v>997</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>884</v>
+        <v>998</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>1029</v>
+        <v>1000</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>1025</v>
+        <v>1001</v>
       </c>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
@@ -12930,16 +12980,16 @@
     </row>
     <row r="97" spans="1:9" ht="19" customHeight="1">
       <c r="A97" s="19" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>883</v>
+        <v>866</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>1030</v>
+        <v>1011</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>1026</v>
+        <v>1007</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
@@ -12949,16 +12999,16 @@
     </row>
     <row r="98" spans="1:9" ht="19" customHeight="1">
       <c r="A98" s="19" t="s">
-        <v>879</v>
+        <v>860</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>882</v>
+        <v>865</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>1031</v>
+        <v>1012</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>1027</v>
+        <v>1008</v>
       </c>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
@@ -12968,16 +13018,16 @@
     </row>
     <row r="99" spans="1:9" ht="19" customHeight="1">
       <c r="A99" s="19" t="s">
-        <v>880</v>
+        <v>861</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>1032</v>
+        <v>1013</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>1028</v>
+        <v>1009</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
@@ -12987,16 +13037,16 @@
     </row>
     <row r="100" spans="1:9" ht="19" customHeight="1">
       <c r="A100" s="19" t="s">
-        <v>889</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>893</v>
+        <v>862</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>863</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
@@ -13006,16 +13056,16 @@
     </row>
     <row r="101" spans="1:9" ht="19" customHeight="1">
       <c r="A101" s="19" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>1033</v>
+        <v>1002</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>1022</v>
+        <v>1003</v>
       </c>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
@@ -13025,16 +13075,16 @@
     </row>
     <row r="102" spans="1:9" ht="19" customHeight="1">
       <c r="A102" s="19" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>1034</v>
+        <v>1015</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>1023</v>
+        <v>1004</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
@@ -13044,16 +13094,16 @@
     </row>
     <row r="103" spans="1:9" ht="19" customHeight="1">
       <c r="A103" s="19" t="s">
-        <v>892</v>
-      </c>
-      <c r="B103" s="19" t="s">
-        <v>896</v>
+        <v>873</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>877</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>1035</v>
+        <v>1016</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>1024</v>
+        <v>1005</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
@@ -13063,16 +13113,16 @@
     </row>
     <row r="104" spans="1:9" ht="19" customHeight="1">
       <c r="A104" s="19" t="s">
-        <v>897</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>899</v>
+        <v>874</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>878</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>1038</v>
+        <v>1017</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>1040</v>
+        <v>1006</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
@@ -13082,16 +13132,16 @@
     </row>
     <row r="105" spans="1:9" ht="19" customHeight="1">
       <c r="A105" s="19" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>900</v>
+        <v>881</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>1039</v>
+        <v>1020</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>1041</v>
+        <v>1022</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
@@ -13101,16 +13151,16 @@
     </row>
     <row r="106" spans="1:9" ht="19" customHeight="1">
       <c r="A106" s="19" t="s">
-        <v>125</v>
+        <v>880</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>825</v>
+        <v>882</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>126</v>
+        <v>1021</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>344</v>
+        <v>1023</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
@@ -13120,16 +13170,16 @@
     </row>
     <row r="107" spans="1:9" ht="19" customHeight="1">
       <c r="A107" s="19" t="s">
-        <v>1052</v>
+        <v>124</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>1053</v>
+        <v>807</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>1010</v>
+        <v>125</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>1011</v>
+        <v>326</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
@@ -13139,16 +13189,16 @@
     </row>
     <row r="108" spans="1:9" ht="19" customHeight="1">
       <c r="A108" s="19" t="s">
-        <v>968</v>
+        <v>1034</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>969</v>
+        <v>1035</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>971</v>
+        <v>992</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>970</v>
+        <v>993</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
@@ -13158,16 +13208,16 @@
     </row>
     <row r="109" spans="1:9" ht="19" customHeight="1">
       <c r="A109" s="19" t="s">
-        <v>972</v>
+        <v>950</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>973</v>
+        <v>951</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
@@ -13177,16 +13227,16 @@
     </row>
     <row r="110" spans="1:9" ht="19" customHeight="1">
       <c r="A110" s="19" t="s">
-        <v>127</v>
+        <v>954</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>454</v>
+        <v>955</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>128</v>
+        <v>956</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>339</v>
+        <v>957</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
@@ -13196,16 +13246,16 @@
     </row>
     <row r="111" spans="1:9" ht="19" customHeight="1">
       <c r="A111" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B111" s="19" t="s">
-        <v>455</v>
+        <v>126</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>436</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
@@ -13215,16 +13265,16 @@
     </row>
     <row r="112" spans="1:9" ht="19" customHeight="1">
       <c r="A112" s="19" t="s">
-        <v>921</v>
+        <v>128</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>922</v>
+        <v>437</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>924</v>
+        <v>129</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>923</v>
+        <v>322</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
@@ -13234,16 +13284,16 @@
     </row>
     <row r="113" spans="1:9" ht="19" customHeight="1">
       <c r="A113" s="19" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>928</v>
+        <v>904</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>926</v>
+        <v>906</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
@@ -13253,16 +13303,16 @@
     </row>
     <row r="114" spans="1:9" ht="19" customHeight="1">
       <c r="A114" s="19" t="s">
-        <v>131</v>
+        <v>907</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>824</v>
+        <v>910</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>132</v>
+        <v>908</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>341</v>
+        <v>909</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
@@ -13272,16 +13322,16 @@
     </row>
     <row r="115" spans="1:9" ht="19" customHeight="1">
       <c r="A115" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
@@ -13291,16 +13341,16 @@
     </row>
     <row r="116" spans="1:9" ht="19" customHeight="1">
       <c r="A116" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
@@ -13310,16 +13360,16 @@
     </row>
     <row r="117" spans="1:9" ht="19" customHeight="1">
       <c r="A117" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
@@ -13329,16 +13379,16 @@
     </row>
     <row r="118" spans="1:9" ht="19" customHeight="1">
       <c r="A118" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
@@ -13348,16 +13398,16 @@
     </row>
     <row r="119" spans="1:9" ht="19" customHeight="1">
       <c r="A119" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -13367,16 +13417,16 @@
     </row>
     <row r="120" spans="1:9" ht="19" customHeight="1">
       <c r="A120" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
@@ -13386,16 +13436,16 @@
     </row>
     <row r="121" spans="1:9" ht="19" customHeight="1">
       <c r="A121" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>345</v>
+        <v>276</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
@@ -13405,16 +13455,16 @@
     </row>
     <row r="122" spans="1:9" ht="19" customHeight="1">
       <c r="A122" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
@@ -13424,16 +13474,16 @@
     </row>
     <row r="123" spans="1:9" ht="19" customHeight="1">
       <c r="A123" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>346</v>
+        <v>277</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
@@ -13443,16 +13493,16 @@
     </row>
     <row r="124" spans="1:9" ht="19" customHeight="1">
       <c r="A124" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
@@ -13462,16 +13512,16 @@
     </row>
     <row r="125" spans="1:9" ht="19" customHeight="1">
       <c r="A125" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
@@ -13481,16 +13531,16 @@
     </row>
     <row r="126" spans="1:9" ht="19" customHeight="1">
       <c r="A126" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
@@ -13500,16 +13550,16 @@
     </row>
     <row r="127" spans="1:9" ht="19" customHeight="1">
       <c r="A127" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="20"/>
@@ -13519,16 +13569,16 @@
     </row>
     <row r="128" spans="1:9" ht="19" customHeight="1">
       <c r="A128" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="20"/>
@@ -13538,16 +13588,16 @@
     </row>
     <row r="129" spans="1:9" ht="19" customHeight="1">
       <c r="A129" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>347</v>
+        <v>282</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
@@ -13557,16 +13607,16 @@
     </row>
     <row r="130" spans="1:9" ht="19" customHeight="1">
       <c r="A130" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
@@ -13576,16 +13626,16 @@
     </row>
     <row r="131" spans="1:9" ht="19" customHeight="1">
       <c r="A131" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="20"/>
@@ -13595,16 +13645,16 @@
     </row>
     <row r="132" spans="1:9" ht="19" customHeight="1">
       <c r="A132" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
@@ -13614,16 +13664,16 @@
     </row>
     <row r="133" spans="1:9" ht="19" customHeight="1">
       <c r="A133" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="20"/>
@@ -13633,16 +13683,16 @@
     </row>
     <row r="134" spans="1:9" ht="19" customHeight="1">
       <c r="A134" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
@@ -13652,16 +13702,16 @@
     </row>
     <row r="135" spans="1:9" ht="19" customHeight="1">
       <c r="A135" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="20"/>
@@ -13671,16 +13721,16 @@
     </row>
     <row r="136" spans="1:9" ht="19" customHeight="1">
       <c r="A136" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
@@ -13690,16 +13740,16 @@
     </row>
     <row r="137" spans="1:9" ht="19" customHeight="1">
       <c r="A137" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
@@ -13709,16 +13759,16 @@
     </row>
     <row r="138" spans="1:9" ht="19" customHeight="1">
       <c r="A138" s="19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
@@ -13728,16 +13778,16 @@
     </row>
     <row r="139" spans="1:9" ht="19" customHeight="1">
       <c r="A139" s="19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="20"/>
@@ -13747,16 +13797,16 @@
     </row>
     <row r="140" spans="1:9" ht="19" customHeight="1">
       <c r="A140" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="E140" s="20"/>
       <c r="F140" s="20"/>
@@ -13766,16 +13816,16 @@
     </row>
     <row r="141" spans="1:9" ht="19" customHeight="1">
       <c r="A141" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B141" s="20" t="s">
-        <v>456</v>
+        <v>180</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>799</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>184</v>
+        <v>340</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="20"/>
@@ -13785,16 +13835,16 @@
     </row>
     <row r="142" spans="1:9" ht="19" customHeight="1">
       <c r="A142" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="20"/>
@@ -13804,16 +13854,16 @@
     </row>
     <row r="143" spans="1:9" ht="19" customHeight="1">
       <c r="A143" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E143" s="20"/>
       <c r="F143" s="20"/>
@@ -13823,16 +13873,16 @@
     </row>
     <row r="144" spans="1:9" ht="19" customHeight="1">
       <c r="A144" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="20"/>
@@ -13842,16 +13892,16 @@
     </row>
     <row r="145" spans="1:9" ht="19" customHeight="1">
       <c r="A145" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B145" s="19" t="s">
-        <v>457</v>
+        <v>186</v>
+      </c>
+      <c r="B145" s="20" t="s">
+        <v>438</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D145" s="22" t="s">
-        <v>359</v>
+        <v>183</v>
+      </c>
+      <c r="D145" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="20"/>
@@ -13861,16 +13911,16 @@
     </row>
     <row r="146" spans="1:9" ht="19" customHeight="1">
       <c r="A146" s="19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D146" s="22" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="20"/>
@@ -13880,16 +13930,16 @@
     </row>
     <row r="147" spans="1:9" ht="19" customHeight="1">
       <c r="A147" s="19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D147" s="22" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="E147" s="20"/>
       <c r="F147" s="20"/>
@@ -13899,16 +13949,16 @@
     </row>
     <row r="148" spans="1:9" ht="19" customHeight="1">
       <c r="A148" s="19" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D148" s="22" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="20"/>
@@ -13918,16 +13968,16 @@
     </row>
     <row r="149" spans="1:9" ht="19" customHeight="1">
       <c r="A149" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="20"/>
@@ -13937,16 +13987,16 @@
     </row>
     <row r="150" spans="1:9" ht="19" customHeight="1">
       <c r="A150" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="E150" s="20"/>
       <c r="F150" s="20"/>
@@ -13956,16 +14006,16 @@
     </row>
     <row r="151" spans="1:9" ht="19" customHeight="1">
       <c r="A151" s="19" t="s">
-        <v>1065</v>
+        <v>197</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>1066</v>
+        <v>444</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>1067</v>
+        <v>198</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
@@ -13975,16 +14025,16 @@
     </row>
     <row r="152" spans="1:9" ht="19" customHeight="1">
       <c r="A152" s="19" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>1069</v>
+        <v>1048</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>1070</v>
+        <v>1049</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="E152" s="20"/>
       <c r="F152" s="20"/>
@@ -13994,16 +14044,16 @@
     </row>
     <row r="153" spans="1:9" ht="19" customHeight="1">
       <c r="A153" s="19" t="s">
-        <v>200</v>
+        <v>1050</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>463</v>
+        <v>1051</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D153" s="21" t="s">
-        <v>379</v>
+        <v>1052</v>
+      </c>
+      <c r="D153" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="20"/>
@@ -14013,16 +14063,16 @@
     </row>
     <row r="154" spans="1:9" ht="19" customHeight="1">
       <c r="A154" s="19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D154" s="22" t="s">
-        <v>380</v>
+        <v>200</v>
+      </c>
+      <c r="D154" s="21" t="s">
+        <v>361</v>
       </c>
       <c r="E154" s="20"/>
       <c r="F154" s="20"/>
@@ -14032,16 +14082,16 @@
     </row>
     <row r="155" spans="1:9" ht="19" customHeight="1">
       <c r="A155" s="19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="E155" s="20"/>
       <c r="F155" s="20"/>
@@ -14051,16 +14101,16 @@
     </row>
     <row r="156" spans="1:9" ht="19" customHeight="1">
       <c r="A156" s="19" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
@@ -14070,16 +14120,16 @@
     </row>
     <row r="157" spans="1:9" ht="19" customHeight="1">
       <c r="A157" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="E157" s="20"/>
       <c r="F157" s="20"/>
@@ -14089,16 +14139,16 @@
     </row>
     <row r="158" spans="1:9" ht="19" customHeight="1">
       <c r="A158" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="E158" s="20"/>
       <c r="F158" s="20"/>
@@ -14108,16 +14158,16 @@
     </row>
     <row r="159" spans="1:9" ht="19" customHeight="1">
       <c r="A159" s="19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>213</v>
+        <v>1096</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="E159" s="20"/>
       <c r="F159" s="20"/>
@@ -14127,16 +14177,16 @@
     </row>
     <row r="160" spans="1:9" ht="19" customHeight="1">
       <c r="A160" s="19" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>215</v>
+        <v>1097</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="E160" s="20"/>
       <c r="F160" s="20"/>
@@ -14146,16 +14196,16 @@
     </row>
     <row r="161" spans="1:9" ht="19" customHeight="1">
       <c r="A161" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>217</v>
+        <v>1098</v>
       </c>
       <c r="D161" s="22" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="E161" s="20"/>
       <c r="F161" s="20"/>
@@ -14165,16 +14215,16 @@
     </row>
     <row r="162" spans="1:9" ht="19" customHeight="1">
       <c r="A162" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>219</v>
+        <v>1099</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="E162" s="20"/>
       <c r="F162" s="20"/>
@@ -14184,16 +14234,16 @@
     </row>
     <row r="163" spans="1:9" ht="19" customHeight="1">
       <c r="A163" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>221</v>
+        <v>1100</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="E163" s="20"/>
       <c r="F163" s="20"/>
@@ -14203,16 +14253,16 @@
     </row>
     <row r="164" spans="1:9" ht="19" customHeight="1">
       <c r="A164" s="19" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>223</v>
+        <v>1101</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="E164" s="20"/>
       <c r="F164" s="20"/>
@@ -14222,16 +14272,16 @@
     </row>
     <row r="165" spans="1:9" ht="19" customHeight="1">
       <c r="A165" s="19" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="D165" s="20" t="s">
-        <v>384</v>
+        <v>1102</v>
+      </c>
+      <c r="D165" s="22" t="s">
+        <v>373</v>
       </c>
       <c r="E165" s="20"/>
       <c r="F165" s="20"/>
@@ -14241,16 +14291,16 @@
     </row>
     <row r="166" spans="1:9" ht="19" customHeight="1">
       <c r="A166" s="19" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="D166" s="20" t="s">
-        <v>385</v>
+        <v>1103</v>
+      </c>
+      <c r="D166" s="22" t="s">
+        <v>374</v>
       </c>
       <c r="E166" s="20"/>
       <c r="F166" s="20"/>
@@ -14260,16 +14310,16 @@
     </row>
     <row r="167" spans="1:9" ht="19" customHeight="1">
       <c r="A167" s="19" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="D167" s="22" t="s">
-        <v>393</v>
+        <v>217</v>
+      </c>
+      <c r="D167" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E167" s="20"/>
       <c r="F167" s="20"/>
@@ -14279,16 +14329,16 @@
     </row>
     <row r="168" spans="1:9" ht="19" customHeight="1">
       <c r="A168" s="19" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="E168" s="20"/>
       <c r="F168" s="20"/>
@@ -14298,16 +14348,16 @@
     </row>
     <row r="169" spans="1:9" ht="19" customHeight="1">
       <c r="A169" s="19" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="E169" s="20"/>
       <c r="F169" s="20"/>
@@ -14317,16 +14367,16 @@
     </row>
     <row r="170" spans="1:9" ht="19" customHeight="1">
       <c r="A170" s="19" t="s">
-        <v>1083</v>
+        <v>223</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>1084</v>
+        <v>461</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>1085</v>
+        <v>224</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>1086</v>
+        <v>377</v>
       </c>
       <c r="E170" s="20"/>
       <c r="F170" s="20"/>
@@ -14336,16 +14386,16 @@
     </row>
     <row r="171" spans="1:9" ht="19" customHeight="1">
       <c r="A171" s="19" t="s">
-        <v>234</v>
+        <v>1065</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>480</v>
+        <v>1066</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="D171" s="22" t="s">
-        <v>396</v>
+        <v>1067</v>
+      </c>
+      <c r="D171" s="20" t="s">
+        <v>1068</v>
       </c>
       <c r="E171" s="20"/>
       <c r="F171" s="20"/>
@@ -14355,16 +14405,16 @@
     </row>
     <row r="172" spans="1:9" ht="19" customHeight="1">
       <c r="A172" s="19" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>237</v>
+        <v>1104</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>916</v>
+        <v>378</v>
       </c>
       <c r="E172" s="20"/>
       <c r="F172" s="20"/>
@@ -14374,16 +14424,16 @@
     </row>
     <row r="173" spans="1:9" ht="19" customHeight="1">
       <c r="A173" s="19" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>239</v>
+        <v>1105</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>397</v>
+        <v>898</v>
       </c>
       <c r="E173" s="20"/>
       <c r="F173" s="20"/>
@@ -14393,16 +14443,16 @@
     </row>
     <row r="174" spans="1:9" ht="19" customHeight="1">
       <c r="A174" s="19" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>241</v>
+        <v>1110</v>
       </c>
       <c r="D174" s="22" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="E174" s="20"/>
       <c r="F174" s="20"/>
@@ -14412,16 +14462,16 @@
     </row>
     <row r="175" spans="1:9" ht="19" customHeight="1">
       <c r="A175" s="19" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>243</v>
+        <v>1111</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="E175" s="20"/>
       <c r="F175" s="20"/>
@@ -14431,16 +14481,16 @@
     </row>
     <row r="176" spans="1:9" ht="19" customHeight="1">
       <c r="A176" s="19" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>245</v>
+        <v>1106</v>
       </c>
       <c r="D176" s="22" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="E176" s="20"/>
       <c r="F176" s="20"/>
@@ -14450,16 +14500,16 @@
     </row>
     <row r="177" spans="1:9" ht="19" customHeight="1">
       <c r="A177" s="19" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="D177" s="20" t="s">
-        <v>401</v>
+        <v>1107</v>
+      </c>
+      <c r="D177" s="22" t="s">
+        <v>380</v>
       </c>
       <c r="E177" s="20"/>
       <c r="F177" s="20"/>
@@ -14469,16 +14519,16 @@
     </row>
     <row r="178" spans="1:9" ht="19" customHeight="1">
       <c r="A178" s="19" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>249</v>
+        <v>1108</v>
       </c>
       <c r="D178" s="22" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="E178" s="20"/>
       <c r="F178" s="20"/>
@@ -14488,16 +14538,16 @@
     </row>
     <row r="179" spans="1:9" ht="19" customHeight="1">
       <c r="A179" s="19" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>251</v>
+        <v>1109</v>
       </c>
       <c r="D179" s="22" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="E179" s="20"/>
       <c r="F179" s="20"/>
@@ -14507,16 +14557,16 @@
     </row>
     <row r="180" spans="1:9" ht="19" customHeight="1">
       <c r="A180" s="19" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="E180" s="20"/>
       <c r="F180" s="20"/>
@@ -14526,16 +14576,16 @@
     </row>
     <row r="181" spans="1:9" ht="19" customHeight="1">
       <c r="A181" s="19" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>488</v>
+        <v>438</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="E181" s="20"/>
       <c r="F181" s="20"/>
@@ -14545,16 +14595,16 @@
     </row>
     <row r="182" spans="1:9" ht="19" customHeight="1">
       <c r="A182" s="19" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="D182" s="20" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="E182" s="20"/>
       <c r="F182" s="20"/>
@@ -14564,16 +14614,16 @@
     </row>
     <row r="183" spans="1:9" ht="19" customHeight="1">
       <c r="A183" s="19" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="D183" s="20" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="E183" s="20"/>
       <c r="F183" s="20"/>
@@ -14583,16 +14633,16 @@
     </row>
     <row r="184" spans="1:9" ht="19" customHeight="1">
       <c r="A184" s="19" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="D184" s="20" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="E184" s="20"/>
       <c r="F184" s="20"/>
@@ -14602,16 +14652,16 @@
     </row>
     <row r="185" spans="1:9" ht="19" customHeight="1">
       <c r="A185" s="19" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D185" s="20" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="E185" s="20"/>
       <c r="F185" s="20"/>
@@ -14621,16 +14671,16 @@
     </row>
     <row r="186" spans="1:9" ht="19" customHeight="1">
       <c r="A186" s="19" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E186" s="20"/>
       <c r="F186" s="20"/>
@@ -14640,16 +14690,16 @@
     </row>
     <row r="187" spans="1:9" ht="19" customHeight="1">
       <c r="A187" s="19" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>859</v>
+        <v>475</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="E187" s="20"/>
       <c r="F187" s="20"/>
@@ -14659,16 +14709,16 @@
     </row>
     <row r="188" spans="1:9" ht="19" customHeight="1">
       <c r="A188" s="19" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="E188" s="20"/>
       <c r="F188" s="20"/>
@@ -14678,16 +14728,16 @@
     </row>
     <row r="189" spans="1:9" ht="19" customHeight="1">
       <c r="A189" s="19" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>494</v>
+        <v>840</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="D189" s="21" t="s">
-        <v>412</v>
+        <v>251</v>
+      </c>
+      <c r="D189" s="20" t="s">
+        <v>393</v>
       </c>
       <c r="E189" s="20"/>
       <c r="F189" s="20"/>
@@ -14697,16 +14747,16 @@
     </row>
     <row r="190" spans="1:9" ht="19" customHeight="1">
       <c r="A190" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="B190" s="20" t="s">
-        <v>495</v>
+        <v>252</v>
+      </c>
+      <c r="B190" s="19" t="s">
+        <v>476</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="D190" s="20" t="s">
-        <v>502</v>
+        <v>253</v>
+      </c>
+      <c r="D190" s="21" t="s">
+        <v>394</v>
       </c>
       <c r="E190" s="20"/>
       <c r="F190" s="20"/>
@@ -14716,16 +14766,16 @@
     </row>
     <row r="191" spans="1:9" ht="19" customHeight="1">
       <c r="A191" s="19" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>413</v>
+        <v>484</v>
       </c>
       <c r="E191" s="20"/>
       <c r="F191" s="20"/>
@@ -14735,16 +14785,16 @@
     </row>
     <row r="192" spans="1:9" ht="19" customHeight="1">
       <c r="A192" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="B192" s="19" t="s">
-        <v>497</v>
+        <v>256</v>
+      </c>
+      <c r="B192" s="20" t="s">
+        <v>478</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D192" s="21" t="s">
-        <v>414</v>
+        <v>257</v>
+      </c>
+      <c r="D192" s="20" t="s">
+        <v>395</v>
       </c>
       <c r="E192" s="20"/>
       <c r="F192" s="20"/>
@@ -14754,16 +14804,16 @@
     </row>
     <row r="193" spans="1:9" ht="19" customHeight="1">
       <c r="A193" s="19" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>277</v>
+        <v>479</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="E193" s="20"/>
       <c r="F193" s="20"/>
@@ -14773,16 +14823,16 @@
     </row>
     <row r="194" spans="1:9" ht="19" customHeight="1">
       <c r="A194" s="19" t="s">
-        <v>1071</v>
+        <v>260</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>456</v>
+        <v>260</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D194" s="20" t="s">
-        <v>1073</v>
+        <v>261</v>
+      </c>
+      <c r="D194" s="21" t="s">
+        <v>397</v>
       </c>
       <c r="E194" s="20"/>
       <c r="F194" s="20"/>
@@ -14792,16 +14842,16 @@
     </row>
     <row r="195" spans="1:9" ht="19" customHeight="1">
       <c r="A195" s="19" t="s">
-        <v>1074</v>
+        <v>1053</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>1077</v>
+        <v>1054</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>1080</v>
+        <v>1055</v>
       </c>
       <c r="E195" s="20"/>
       <c r="F195" s="20"/>
@@ -14811,16 +14861,16 @@
     </row>
     <row r="196" spans="1:9" ht="19" customHeight="1">
       <c r="A196" s="19" t="s">
-        <v>1075</v>
+        <v>1056</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>1078</v>
+        <v>1059</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>1081</v>
+        <v>1062</v>
       </c>
       <c r="E196" s="20"/>
       <c r="F196" s="20"/>
@@ -14830,16 +14880,16 @@
     </row>
     <row r="197" spans="1:9" ht="19" customHeight="1">
       <c r="A197" s="19" t="s">
-        <v>1076</v>
+        <v>1057</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>1079</v>
+        <v>1060</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>1082</v>
+        <v>1063</v>
       </c>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
@@ -14849,16 +14899,16 @@
     </row>
     <row r="198" spans="1:9" ht="19" customHeight="1">
       <c r="A198" s="19" t="s">
-        <v>279</v>
+        <v>1058</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D198" s="22" t="s">
-        <v>416</v>
+        <v>1061</v>
+      </c>
+      <c r="D198" s="20" t="s">
+        <v>1064</v>
       </c>
       <c r="E198" s="20"/>
       <c r="F198" s="20"/>
@@ -14868,16 +14918,16 @@
     </row>
     <row r="199" spans="1:9" ht="19" customHeight="1">
       <c r="A199" s="19" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="D199" s="22" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="E199" s="20"/>
       <c r="F199" s="20"/>
@@ -14887,16 +14937,16 @@
     </row>
     <row r="200" spans="1:9" ht="19" customHeight="1">
       <c r="A200" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="B200" s="20" t="s">
-        <v>456</v>
+        <v>263</v>
+      </c>
+      <c r="B200" s="19" t="s">
+        <v>438</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D200" s="20" t="s">
-        <v>281</v>
+        <v>263</v>
+      </c>
+      <c r="D200" s="22" t="s">
+        <v>399</v>
       </c>
       <c r="E200" s="20"/>
       <c r="F200" s="20"/>
@@ -14906,16 +14956,16 @@
     </row>
     <row r="201" spans="1:9" ht="19" customHeight="1">
       <c r="A201" s="19" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E201" s="20"/>
       <c r="F201" s="20"/>
@@ -14925,16 +14975,16 @@
     </row>
     <row r="202" spans="1:9" ht="19" customHeight="1">
       <c r="A202" s="19" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="D202" s="20" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="E202" s="20"/>
       <c r="F202" s="20"/>
@@ -14944,16 +14994,16 @@
     </row>
     <row r="203" spans="1:9" ht="19" customHeight="1">
       <c r="A203" s="19" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>422</v>
+        <v>266</v>
       </c>
       <c r="D203" s="20" t="s">
-        <v>428</v>
+        <v>266</v>
       </c>
       <c r="E203" s="20"/>
       <c r="F203" s="20"/>
@@ -14963,16 +15013,16 @@
     </row>
     <row r="204" spans="1:9" ht="19" customHeight="1">
       <c r="A204" s="19" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="D204" s="20" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="E204" s="20"/>
       <c r="F204" s="20"/>
@@ -14982,16 +15032,16 @@
     </row>
     <row r="205" spans="1:9" ht="19" customHeight="1">
       <c r="A205" s="19" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="D205" s="20" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E205" s="20"/>
       <c r="F205" s="20"/>
@@ -15001,16 +15051,16 @@
     </row>
     <row r="206" spans="1:9" ht="19" customHeight="1">
       <c r="A206" s="19" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="D206" s="20" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="E206" s="20"/>
       <c r="F206" s="20"/>
@@ -15020,16 +15070,16 @@
     </row>
     <row r="207" spans="1:9" ht="19" customHeight="1">
       <c r="A207" s="19" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="D207" s="21" t="s">
-        <v>420</v>
+        <v>407</v>
+      </c>
+      <c r="D207" s="20" t="s">
+        <v>400</v>
       </c>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
@@ -15039,16 +15089,16 @@
     </row>
     <row r="208" spans="1:9" ht="19" customHeight="1">
       <c r="A208" s="19" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="D208" s="21" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="E208" s="20"/>
       <c r="F208" s="20"/>
@@ -15057,10 +15107,18 @@
       <c r="I208" s="18"/>
     </row>
     <row r="209" spans="1:9" ht="19" customHeight="1">
-      <c r="A209" s="19"/>
-      <c r="B209" s="20"/>
-      <c r="C209" s="20"/>
-      <c r="D209" s="20"/>
+      <c r="A209" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B209" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="C209" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="D209" s="21" t="s">
+        <v>403</v>
+      </c>
       <c r="E209" s="20"/>
       <c r="F209" s="20"/>
       <c r="G209" s="18"/>
@@ -15101,45 +15159,39 @@
       <c r="I212" s="18"/>
     </row>
     <row r="213" spans="1:9" ht="19" customHeight="1">
-      <c r="A213" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="B213" s="23"/>
-      <c r="C213" s="23"/>
-      <c r="D213" s="23"/>
-      <c r="E213" s="23"/>
-      <c r="F213" s="23"/>
-      <c r="G213" s="24"/>
-      <c r="H213" s="25"/>
-      <c r="I213" s="24"/>
+      <c r="A213" s="19"/>
+      <c r="B213" s="20"/>
+      <c r="C213" s="20"/>
+      <c r="D213" s="20"/>
+      <c r="E213" s="20"/>
+      <c r="F213" s="20"/>
+      <c r="G213" s="18"/>
+      <c r="H213" s="17"/>
+      <c r="I213" s="18"/>
     </row>
     <row r="214" spans="1:9" ht="19" customHeight="1">
-      <c r="A214" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="D214" s="20" t="s">
-        <v>696</v>
-      </c>
-      <c r="E214" s="20"/>
-      <c r="F214" s="20"/>
-      <c r="G214" s="18"/>
-      <c r="H214" s="17"/>
-      <c r="I214" s="18"/>
+      <c r="A214" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
+      <c r="D214" s="23"/>
+      <c r="E214" s="23"/>
+      <c r="F214" s="23"/>
+      <c r="G214" s="24"/>
+      <c r="H214" s="25"/>
+      <c r="I214" s="24"/>
     </row>
     <row r="215" spans="1:9" ht="19" customHeight="1">
       <c r="A215" s="19" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="B215" s="20"/>
       <c r="C215" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="D215" s="22" t="s">
-        <v>697</v>
+        <v>487</v>
+      </c>
+      <c r="D215" s="20" t="s">
+        <v>678</v>
       </c>
       <c r="E215" s="20"/>
       <c r="F215" s="20"/>
@@ -15149,14 +15201,14 @@
     </row>
     <row r="216" spans="1:9" ht="19" customHeight="1">
       <c r="A216" s="19" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="B216" s="20"/>
       <c r="C216" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="D216" s="20" t="s">
-        <v>698</v>
+        <v>488</v>
+      </c>
+      <c r="D216" s="22" t="s">
+        <v>679</v>
       </c>
       <c r="E216" s="20"/>
       <c r="F216" s="20"/>
@@ -15166,14 +15218,14 @@
     </row>
     <row r="217" spans="1:9" ht="19" customHeight="1">
       <c r="A217" s="19" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="D217" s="22" t="s">
-        <v>699</v>
+        <v>489</v>
+      </c>
+      <c r="D217" s="20" t="s">
+        <v>680</v>
       </c>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
@@ -15183,14 +15235,14 @@
     </row>
     <row r="218" spans="1:9" ht="19" customHeight="1">
       <c r="A218" s="19" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="B218" s="20"/>
       <c r="C218" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="D218" s="20" t="s">
-        <v>700</v>
+        <v>491</v>
+      </c>
+      <c r="D218" s="22" t="s">
+        <v>681</v>
       </c>
       <c r="E218" s="20"/>
       <c r="F218" s="20"/>
@@ -15200,14 +15252,14 @@
     </row>
     <row r="219" spans="1:9" ht="19" customHeight="1">
       <c r="A219" s="19" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="20" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="D219" s="20" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="E219" s="20"/>
       <c r="F219" s="20"/>
@@ -15217,14 +15269,14 @@
     </row>
     <row r="220" spans="1:9" ht="19" customHeight="1">
       <c r="A220" s="19" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="D220" s="21" t="s">
-        <v>702</v>
+        <v>495</v>
+      </c>
+      <c r="D220" s="20" t="s">
+        <v>683</v>
       </c>
       <c r="E220" s="20"/>
       <c r="F220" s="20"/>
@@ -15234,14 +15286,14 @@
     </row>
     <row r="221" spans="1:9" ht="19" customHeight="1">
       <c r="A221" s="19" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="D221" s="22" t="s">
-        <v>703</v>
+        <v>497</v>
+      </c>
+      <c r="D221" s="21" t="s">
+        <v>684</v>
       </c>
       <c r="E221" s="20"/>
       <c r="F221" s="20"/>
@@ -15251,14 +15303,14 @@
     </row>
     <row r="222" spans="1:9" ht="19" customHeight="1">
       <c r="A222" s="19" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="B222" s="20"/>
       <c r="C222" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="D222" s="21" t="s">
-        <v>704</v>
+        <v>499</v>
+      </c>
+      <c r="D222" s="22" t="s">
+        <v>685</v>
       </c>
       <c r="E222" s="20"/>
       <c r="F222" s="20"/>
@@ -15268,14 +15320,14 @@
     </row>
     <row r="223" spans="1:9" ht="19" customHeight="1">
       <c r="A223" s="19" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="20" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="E223" s="20"/>
       <c r="F223" s="20"/>
@@ -15285,14 +15337,14 @@
     </row>
     <row r="224" spans="1:9" ht="19" customHeight="1">
       <c r="A224" s="19" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="20" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="E224" s="20"/>
       <c r="F224" s="20"/>
@@ -15302,14 +15354,14 @@
     </row>
     <row r="225" spans="1:9" ht="19" customHeight="1">
       <c r="A225" s="19" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="20" t="s">
-        <v>965</v>
+        <v>505</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>966</v>
+        <v>688</v>
       </c>
       <c r="E225" s="20"/>
       <c r="F225" s="20"/>
@@ -15319,14 +15371,14 @@
     </row>
     <row r="226" spans="1:9" ht="19" customHeight="1">
       <c r="A226" s="19" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="20" t="s">
-        <v>526</v>
+        <v>947</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>707</v>
+        <v>948</v>
       </c>
       <c r="E226" s="20"/>
       <c r="F226" s="20"/>
@@ -15336,14 +15388,14 @@
     </row>
     <row r="227" spans="1:9" ht="19" customHeight="1">
       <c r="A227" s="19" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="20" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="E227" s="20"/>
       <c r="F227" s="20"/>
@@ -15353,14 +15405,14 @@
     </row>
     <row r="228" spans="1:9" ht="19" customHeight="1">
       <c r="A228" s="19" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="B228" s="20"/>
       <c r="C228" s="20" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D228" s="21" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="E228" s="20"/>
       <c r="F228" s="20"/>
@@ -15370,14 +15422,14 @@
     </row>
     <row r="229" spans="1:9" ht="19" customHeight="1">
       <c r="A229" s="19" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="B229" s="20"/>
       <c r="C229" s="20" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
       <c r="E229" s="20"/>
       <c r="F229" s="20"/>
@@ -15387,14 +15439,14 @@
     </row>
     <row r="230" spans="1:9" ht="19" customHeight="1">
       <c r="A230" s="19" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="20" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="E230" s="20"/>
       <c r="F230" s="20"/>
@@ -15404,14 +15456,14 @@
     </row>
     <row r="231" spans="1:9" ht="19" customHeight="1">
       <c r="A231" s="19" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="B231" s="20"/>
       <c r="C231" s="20" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="E231" s="20"/>
       <c r="F231" s="20"/>
@@ -15421,14 +15473,14 @@
     </row>
     <row r="232" spans="1:9" ht="19" customHeight="1">
       <c r="A232" s="19" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="20" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="E232" s="20"/>
       <c r="F232" s="20"/>
@@ -15438,14 +15490,14 @@
     </row>
     <row r="233" spans="1:9" ht="19" customHeight="1">
       <c r="A233" s="19" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="D233" s="20" t="s">
-        <v>714</v>
+        <v>520</v>
+      </c>
+      <c r="D233" s="21" t="s">
+        <v>695</v>
       </c>
       <c r="E233" s="20"/>
       <c r="F233" s="20"/>
@@ -15455,14 +15507,14 @@
     </row>
     <row r="234" spans="1:9" ht="19" customHeight="1">
       <c r="A234" s="19" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="20" t="s">
-        <v>542</v>
-      </c>
-      <c r="D234" s="22" t="s">
-        <v>715</v>
+        <v>522</v>
+      </c>
+      <c r="D234" s="20" t="s">
+        <v>696</v>
       </c>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
@@ -15472,14 +15524,14 @@
     </row>
     <row r="235" spans="1:9" ht="19" customHeight="1">
       <c r="A235" s="19" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="B235" s="20"/>
       <c r="C235" s="20" t="s">
-        <v>544</v>
-      </c>
-      <c r="D235" s="21" t="s">
-        <v>716</v>
+        <v>524</v>
+      </c>
+      <c r="D235" s="22" t="s">
+        <v>697</v>
       </c>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
@@ -15489,14 +15541,14 @@
     </row>
     <row r="236" spans="1:9" ht="19" customHeight="1">
       <c r="A236" s="19" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="B236" s="20"/>
       <c r="C236" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="D236" s="20" t="s">
-        <v>717</v>
+        <v>526</v>
+      </c>
+      <c r="D236" s="21" t="s">
+        <v>698</v>
       </c>
       <c r="E236" s="20"/>
       <c r="F236" s="20"/>
@@ -15506,14 +15558,14 @@
     </row>
     <row r="237" spans="1:9" ht="19" customHeight="1">
       <c r="A237" s="19" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="B237" s="20"/>
       <c r="C237" s="20" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="D237" s="20" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="E237" s="20"/>
       <c r="F237" s="20"/>
@@ -15523,14 +15575,14 @@
     </row>
     <row r="238" spans="1:9" ht="19" customHeight="1">
       <c r="A238" s="19" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="B238" s="20"/>
       <c r="C238" s="20" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="D238" s="20" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="E238" s="20"/>
       <c r="F238" s="20"/>
@@ -15540,14 +15592,14 @@
     </row>
     <row r="239" spans="1:9" ht="19" customHeight="1">
       <c r="A239" s="19" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="20" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="D239" s="20" t="s">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="E239" s="20"/>
       <c r="F239" s="20"/>
@@ -15557,14 +15609,14 @@
     </row>
     <row r="240" spans="1:9" ht="19" customHeight="1">
       <c r="A240" s="19" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="B240" s="20"/>
       <c r="C240" s="20" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="E240" s="20"/>
       <c r="F240" s="20"/>
@@ -15574,14 +15626,14 @@
     </row>
     <row r="241" spans="1:9" ht="19" customHeight="1">
       <c r="A241" s="19" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="B241" s="20"/>
       <c r="C241" s="20" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="E241" s="20"/>
       <c r="F241" s="20"/>
@@ -15591,14 +15643,14 @@
     </row>
     <row r="242" spans="1:9" ht="19" customHeight="1">
       <c r="A242" s="19" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="B242" s="20"/>
       <c r="C242" s="20" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="E242" s="20"/>
       <c r="F242" s="20"/>
@@ -15608,14 +15660,14 @@
     </row>
     <row r="243" spans="1:9" ht="19" customHeight="1">
       <c r="A243" s="19" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="D243" s="21" t="s">
-        <v>724</v>
+        <v>540</v>
+      </c>
+      <c r="D243" s="20" t="s">
+        <v>705</v>
       </c>
       <c r="E243" s="20"/>
       <c r="F243" s="20"/>
@@ -15625,14 +15677,14 @@
     </row>
     <row r="244" spans="1:9" ht="19" customHeight="1">
       <c r="A244" s="19" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="20" t="s">
-        <v>562</v>
-      </c>
-      <c r="D244" s="20" t="s">
-        <v>725</v>
+        <v>542</v>
+      </c>
+      <c r="D244" s="21" t="s">
+        <v>706</v>
       </c>
       <c r="E244" s="20"/>
       <c r="F244" s="20"/>
@@ -15642,14 +15694,14 @@
     </row>
     <row r="245" spans="1:9" ht="19" customHeight="1">
       <c r="A245" s="19" t="s">
-        <v>1057</v>
+        <v>543</v>
       </c>
       <c r="B245" s="20"/>
       <c r="C245" s="20" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="E245" s="20"/>
       <c r="F245" s="20"/>
@@ -15659,14 +15711,14 @@
     </row>
     <row r="246" spans="1:9" ht="19" customHeight="1">
       <c r="A246" s="19" t="s">
-        <v>1058</v>
+        <v>1039</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="20" t="s">
-        <v>564</v>
-      </c>
-      <c r="D246" s="21" t="s">
-        <v>727</v>
+        <v>545</v>
+      </c>
+      <c r="D246" s="20" t="s">
+        <v>708</v>
       </c>
       <c r="E246" s="20"/>
       <c r="F246" s="20"/>
@@ -15676,14 +15728,14 @@
     </row>
     <row r="247" spans="1:9" ht="19" customHeight="1">
       <c r="A247" s="19" t="s">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="20" t="s">
-        <v>1060</v>
+        <v>546</v>
       </c>
       <c r="D247" s="21" t="s">
-        <v>1061</v>
+        <v>709</v>
       </c>
       <c r="E247" s="20"/>
       <c r="F247" s="20"/>
@@ -15693,14 +15745,14 @@
     </row>
     <row r="248" spans="1:9" ht="19" customHeight="1">
       <c r="A248" s="19" t="s">
-        <v>565</v>
+        <v>1041</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="D248" s="20" t="s">
-        <v>728</v>
+        <v>1042</v>
+      </c>
+      <c r="D248" s="21" t="s">
+        <v>1043</v>
       </c>
       <c r="E248" s="20"/>
       <c r="F248" s="20"/>
@@ -15710,14 +15762,14 @@
     </row>
     <row r="249" spans="1:9" ht="19" customHeight="1">
       <c r="A249" s="19" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="20" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="E249" s="20"/>
       <c r="F249" s="20"/>
@@ -15727,14 +15779,14 @@
     </row>
     <row r="250" spans="1:9" ht="19" customHeight="1">
       <c r="A250" s="19" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="D250" s="21" t="s">
-        <v>730</v>
+        <v>550</v>
+      </c>
+      <c r="D250" s="20" t="s">
+        <v>711</v>
       </c>
       <c r="E250" s="20"/>
       <c r="F250" s="20"/>
@@ -15744,14 +15796,14 @@
     </row>
     <row r="251" spans="1:9" ht="19" customHeight="1">
       <c r="A251" s="19" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="D251" s="20" t="s">
-        <v>731</v>
+        <v>552</v>
+      </c>
+      <c r="D251" s="21" t="s">
+        <v>712</v>
       </c>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
@@ -15761,14 +15813,14 @@
     </row>
     <row r="252" spans="1:9" ht="19" customHeight="1">
       <c r="A252" s="19" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="20" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="E252" s="20"/>
       <c r="F252" s="20"/>
@@ -15778,14 +15830,14 @@
     </row>
     <row r="253" spans="1:9" ht="19" customHeight="1">
       <c r="A253" s="19" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="20" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
       <c r="E253" s="20"/>
       <c r="F253" s="20"/>
@@ -15795,14 +15847,14 @@
     </row>
     <row r="254" spans="1:9" ht="19" customHeight="1">
       <c r="A254" s="19" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="B254" s="20"/>
       <c r="C254" s="20" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="E254" s="20"/>
       <c r="F254" s="20"/>
@@ -15812,14 +15864,14 @@
     </row>
     <row r="255" spans="1:9" ht="19" customHeight="1">
       <c r="A255" s="19" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="B255" s="20"/>
       <c r="C255" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="D255" s="21" t="s">
-        <v>735</v>
+        <v>560</v>
+      </c>
+      <c r="D255" s="20" t="s">
+        <v>716</v>
       </c>
       <c r="E255" s="20"/>
       <c r="F255" s="20"/>
@@ -15829,14 +15881,14 @@
     </row>
     <row r="256" spans="1:9" ht="19" customHeight="1">
       <c r="A256" s="19" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="20" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="D256" s="21" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
       <c r="E256" s="20"/>
       <c r="F256" s="20"/>
@@ -15846,14 +15898,14 @@
     </row>
     <row r="257" spans="1:9" ht="19" customHeight="1">
       <c r="A257" s="19" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="D257" s="20" t="s">
-        <v>737</v>
+        <v>564</v>
+      </c>
+      <c r="D257" s="21" t="s">
+        <v>718</v>
       </c>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
@@ -15863,14 +15915,14 @@
     </row>
     <row r="258" spans="1:9" ht="19" customHeight="1">
       <c r="A258" s="19" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="20" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="D258" s="20" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
       <c r="E258" s="20"/>
       <c r="F258" s="20"/>
@@ -15880,14 +15932,14 @@
     </row>
     <row r="259" spans="1:9" ht="19" customHeight="1">
       <c r="A259" s="19" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="20" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
       <c r="E259" s="20"/>
       <c r="F259" s="20"/>
@@ -15897,14 +15949,14 @@
     </row>
     <row r="260" spans="1:9" ht="19" customHeight="1">
       <c r="A260" s="19" t="s">
-        <v>941</v>
+        <v>569</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="20" t="s">
-        <v>943</v>
+        <v>570</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>942</v>
+        <v>721</v>
       </c>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
@@ -15914,14 +15966,14 @@
     </row>
     <row r="261" spans="1:9" ht="19" customHeight="1">
       <c r="A261" s="19" t="s">
-        <v>589</v>
+        <v>923</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="D261" s="21" t="s">
-        <v>740</v>
+        <v>925</v>
+      </c>
+      <c r="D261" s="20" t="s">
+        <v>924</v>
       </c>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
@@ -15931,14 +15983,14 @@
     </row>
     <row r="262" spans="1:9" ht="19" customHeight="1">
       <c r="A262" s="19" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="20" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
@@ -15948,14 +16000,14 @@
     </row>
     <row r="263" spans="1:9" ht="19" customHeight="1">
       <c r="A263" s="19" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="D263" s="20" t="s">
-        <v>742</v>
+        <v>574</v>
+      </c>
+      <c r="D263" s="21" t="s">
+        <v>723</v>
       </c>
       <c r="E263" s="20"/>
       <c r="F263" s="20"/>
@@ -15965,14 +16017,14 @@
     </row>
     <row r="264" spans="1:9" ht="19" customHeight="1">
       <c r="A264" s="19" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="20" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="D264" s="20" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
       <c r="E264" s="20"/>
       <c r="F264" s="20"/>
@@ -15982,14 +16034,14 @@
     </row>
     <row r="265" spans="1:9" ht="19" customHeight="1">
       <c r="A265" s="19" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="20" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="D265" s="20" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
@@ -15999,14 +16051,14 @@
     </row>
     <row r="266" spans="1:9" ht="19" customHeight="1">
       <c r="A266" s="19" t="s">
-        <v>1062</v>
+        <v>579</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="20" t="s">
-        <v>1063</v>
+        <v>580</v>
       </c>
       <c r="D266" s="20" t="s">
-        <v>1064</v>
+        <v>726</v>
       </c>
       <c r="E266" s="20"/>
       <c r="F266" s="20"/>
@@ -16016,14 +16068,14 @@
     </row>
     <row r="267" spans="1:9" ht="19" customHeight="1">
       <c r="A267" s="19" t="s">
-        <v>599</v>
+        <v>1044</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="20" t="s">
-        <v>600</v>
+        <v>1045</v>
       </c>
       <c r="D267" s="20" t="s">
-        <v>745</v>
+        <v>1046</v>
       </c>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
@@ -16033,14 +16085,14 @@
     </row>
     <row r="268" spans="1:9" ht="19" customHeight="1">
       <c r="A268" s="19" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="20" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="D268" s="20" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="E268" s="20"/>
       <c r="F268" s="20"/>
@@ -16050,14 +16102,14 @@
     </row>
     <row r="269" spans="1:9" ht="19" customHeight="1">
       <c r="A269" s="19" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="20" t="s">
-        <v>604</v>
-      </c>
-      <c r="D269" s="21" t="s">
-        <v>747</v>
+        <v>584</v>
+      </c>
+      <c r="D269" s="20" t="s">
+        <v>728</v>
       </c>
       <c r="E269" s="20"/>
       <c r="F269" s="20"/>
@@ -16067,14 +16119,14 @@
     </row>
     <row r="270" spans="1:9" ht="19" customHeight="1">
       <c r="A270" s="19" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="20" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="D270" s="21" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="E270" s="20"/>
       <c r="F270" s="20"/>
@@ -16084,14 +16136,14 @@
     </row>
     <row r="271" spans="1:9" ht="19" customHeight="1">
       <c r="A271" s="19" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="D271" s="20" t="s">
-        <v>749</v>
+        <v>588</v>
+      </c>
+      <c r="D271" s="21" t="s">
+        <v>730</v>
       </c>
       <c r="E271" s="20"/>
       <c r="F271" s="20"/>
@@ -16101,14 +16153,14 @@
     </row>
     <row r="272" spans="1:9" ht="19" customHeight="1">
       <c r="A272" s="19" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="20" t="s">
-        <v>610</v>
-      </c>
-      <c r="D272" s="21" t="s">
-        <v>750</v>
+        <v>590</v>
+      </c>
+      <c r="D272" s="20" t="s">
+        <v>731</v>
       </c>
       <c r="E272" s="20"/>
       <c r="F272" s="20"/>
@@ -16118,14 +16170,14 @@
     </row>
     <row r="273" spans="1:9" ht="19" customHeight="1">
       <c r="A273" s="19" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="20" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="D273" s="21" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="E273" s="20"/>
       <c r="F273" s="20"/>
@@ -16135,14 +16187,14 @@
     </row>
     <row r="274" spans="1:9" ht="19" customHeight="1">
       <c r="A274" s="19" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="20" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="D274" s="21" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -16152,14 +16204,14 @@
     </row>
     <row r="275" spans="1:9" ht="19" customHeight="1">
       <c r="A275" s="19" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="20" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="D275" s="21" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
@@ -16169,14 +16221,14 @@
     </row>
     <row r="276" spans="1:9" ht="19" customHeight="1">
       <c r="A276" s="19" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="20" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="D276" s="21" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -16186,14 +16238,14 @@
     </row>
     <row r="277" spans="1:9" ht="19" customHeight="1">
       <c r="A277" s="19" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="D277" s="20" t="s">
-        <v>755</v>
+        <v>600</v>
+      </c>
+      <c r="D277" s="21" t="s">
+        <v>736</v>
       </c>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
@@ -16203,14 +16255,14 @@
     </row>
     <row r="278" spans="1:9" ht="19" customHeight="1">
       <c r="A278" s="19" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="D278" s="21" t="s">
-        <v>756</v>
+        <v>602</v>
+      </c>
+      <c r="D278" s="20" t="s">
+        <v>737</v>
       </c>
       <c r="E278" s="20"/>
       <c r="F278" s="20"/>
@@ -16220,14 +16272,14 @@
     </row>
     <row r="279" spans="1:9" ht="19" customHeight="1">
       <c r="A279" s="19" t="s">
-        <v>982</v>
+        <v>603</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="20" t="s">
-        <v>983</v>
-      </c>
-      <c r="D279" s="20" t="s">
-        <v>984</v>
+        <v>604</v>
+      </c>
+      <c r="D279" s="21" t="s">
+        <v>738</v>
       </c>
       <c r="E279" s="20"/>
       <c r="F279" s="20"/>
@@ -16237,14 +16289,14 @@
     </row>
     <row r="280" spans="1:9" ht="19" customHeight="1">
       <c r="A280" s="19" t="s">
-        <v>623</v>
+        <v>964</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="D280" s="21" t="s">
-        <v>757</v>
+        <v>965</v>
+      </c>
+      <c r="D280" s="20" t="s">
+        <v>966</v>
       </c>
       <c r="E280" s="20"/>
       <c r="F280" s="20"/>
@@ -16254,14 +16306,14 @@
     </row>
     <row r="281" spans="1:9" ht="19" customHeight="1">
       <c r="A281" s="19" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="20" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
@@ -16271,14 +16323,14 @@
     </row>
     <row r="282" spans="1:9" ht="19" customHeight="1">
       <c r="A282" s="19" t="s">
-        <v>1054</v>
+        <v>607</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="20" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D282" s="20" t="s">
-        <v>1056</v>
+        <v>608</v>
+      </c>
+      <c r="D282" s="21" t="s">
+        <v>740</v>
       </c>
       <c r="E282" s="20"/>
       <c r="F282" s="20"/>
@@ -16288,14 +16340,14 @@
     </row>
     <row r="283" spans="1:9" ht="19" customHeight="1">
       <c r="A283" s="19" t="s">
-        <v>627</v>
+        <v>1036</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="20" t="s">
-        <v>628</v>
-      </c>
-      <c r="D283" s="21" t="s">
-        <v>759</v>
+        <v>1037</v>
+      </c>
+      <c r="D283" s="20" t="s">
+        <v>1038</v>
       </c>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
@@ -16305,14 +16357,14 @@
     </row>
     <row r="284" spans="1:9" ht="19" customHeight="1">
       <c r="A284" s="19" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="20" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="D284" s="21" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="E284" s="20"/>
       <c r="F284" s="20"/>
@@ -16322,14 +16374,14 @@
     </row>
     <row r="285" spans="1:9" ht="19" customHeight="1">
       <c r="A285" s="19" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="20" t="s">
-        <v>632</v>
-      </c>
-      <c r="D285" s="20" t="s">
-        <v>761</v>
+        <v>612</v>
+      </c>
+      <c r="D285" s="21" t="s">
+        <v>742</v>
       </c>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
@@ -16339,14 +16391,14 @@
     </row>
     <row r="286" spans="1:9" ht="19" customHeight="1">
       <c r="A286" s="19" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="20" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="D286" s="20" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
       <c r="E286" s="20"/>
       <c r="F286" s="20"/>
@@ -16356,14 +16408,14 @@
     </row>
     <row r="287" spans="1:9" ht="19" customHeight="1">
       <c r="A287" s="19" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="20" t="s">
-        <v>636</v>
-      </c>
-      <c r="D287" s="21" t="s">
-        <v>763</v>
+        <v>616</v>
+      </c>
+      <c r="D287" s="20" t="s">
+        <v>744</v>
       </c>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
@@ -16373,14 +16425,14 @@
     </row>
     <row r="288" spans="1:9" ht="19" customHeight="1">
       <c r="A288" s="19" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="20" t="s">
-        <v>638</v>
-      </c>
-      <c r="D288" s="22" t="s">
-        <v>764</v>
+        <v>618</v>
+      </c>
+      <c r="D288" s="21" t="s">
+        <v>745</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -16390,14 +16442,14 @@
     </row>
     <row r="289" spans="1:9" ht="19" customHeight="1">
       <c r="A289" s="19" t="s">
-        <v>639</v>
+        <v>1093</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="20" t="s">
-        <v>640</v>
+        <v>1094</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>967</v>
+        <v>1095</v>
       </c>
       <c r="E289" s="20"/>
       <c r="F289" s="20"/>
@@ -16407,14 +16459,14 @@
     </row>
     <row r="290" spans="1:9" ht="19" customHeight="1">
       <c r="A290" s="19" t="s">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="20" t="s">
-        <v>642</v>
-      </c>
-      <c r="D290" s="21" t="s">
-        <v>765</v>
+        <v>620</v>
+      </c>
+      <c r="D290" s="22" t="s">
+        <v>746</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -16424,14 +16476,14 @@
     </row>
     <row r="291" spans="1:9" ht="19" customHeight="1">
       <c r="A291" s="19" t="s">
-        <v>643</v>
+        <v>621</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="20" t="s">
-        <v>644</v>
-      </c>
-      <c r="D291" s="20" t="s">
-        <v>766</v>
+        <v>622</v>
+      </c>
+      <c r="D291" s="21" t="s">
+        <v>949</v>
       </c>
       <c r="E291" s="20"/>
       <c r="F291" s="20"/>
@@ -16441,14 +16493,14 @@
     </row>
     <row r="292" spans="1:9" ht="19" customHeight="1">
       <c r="A292" s="19" t="s">
-        <v>979</v>
+        <v>623</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="20" t="s">
-        <v>980</v>
-      </c>
-      <c r="D292" s="20" t="s">
-        <v>981</v>
+        <v>624</v>
+      </c>
+      <c r="D292" s="21" t="s">
+        <v>747</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -16458,14 +16510,14 @@
     </row>
     <row r="293" spans="1:9" ht="19" customHeight="1">
       <c r="A293" s="19" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="20" t="s">
-        <v>646</v>
-      </c>
-      <c r="D293" s="21" t="s">
-        <v>767</v>
+        <v>626</v>
+      </c>
+      <c r="D293" s="20" t="s">
+        <v>748</v>
       </c>
       <c r="E293" s="20"/>
       <c r="F293" s="20"/>
@@ -16475,14 +16527,14 @@
     </row>
     <row r="294" spans="1:9" ht="19" customHeight="1">
       <c r="A294" s="19" t="s">
-        <v>647</v>
+        <v>961</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="20" t="s">
-        <v>648</v>
-      </c>
-      <c r="D294" s="21" t="s">
-        <v>768</v>
+        <v>962</v>
+      </c>
+      <c r="D294" s="20" t="s">
+        <v>963</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -16492,14 +16544,14 @@
     </row>
     <row r="295" spans="1:9" ht="19" customHeight="1">
       <c r="A295" s="19" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="20" t="s">
-        <v>985</v>
+        <v>628</v>
       </c>
       <c r="D295" s="21" t="s">
-        <v>986</v>
+        <v>749</v>
       </c>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
@@ -16509,14 +16561,14 @@
     </row>
     <row r="296" spans="1:9" ht="19" customHeight="1">
       <c r="A296" s="19" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="20" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="D296" s="21" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -16526,14 +16578,14 @@
     </row>
     <row r="297" spans="1:9" ht="19" customHeight="1">
       <c r="A297" s="19" t="s">
-        <v>987</v>
+        <v>631</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="20" t="s">
-        <v>988</v>
-      </c>
-      <c r="D297" s="20" t="s">
-        <v>989</v>
+        <v>967</v>
+      </c>
+      <c r="D297" s="21" t="s">
+        <v>968</v>
       </c>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
@@ -16543,14 +16595,14 @@
     </row>
     <row r="298" spans="1:9" ht="19" customHeight="1">
       <c r="A298" s="19" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="20" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="D298" s="21" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -16560,14 +16612,14 @@
     </row>
     <row r="299" spans="1:9" ht="19" customHeight="1">
       <c r="A299" s="19" t="s">
-        <v>654</v>
+        <v>969</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="20" t="s">
-        <v>655</v>
-      </c>
-      <c r="D299" s="21" t="s">
-        <v>771</v>
+        <v>970</v>
+      </c>
+      <c r="D299" s="20" t="s">
+        <v>971</v>
       </c>
       <c r="E299" s="20"/>
       <c r="F299" s="20"/>
@@ -16577,14 +16629,14 @@
     </row>
     <row r="300" spans="1:9" ht="19" customHeight="1">
       <c r="A300" s="19" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="20" t="s">
-        <v>657</v>
-      </c>
-      <c r="D300" s="20" t="s">
-        <v>772</v>
+        <v>635</v>
+      </c>
+      <c r="D300" s="21" t="s">
+        <v>752</v>
       </c>
       <c r="E300" s="20"/>
       <c r="F300" s="20"/>
@@ -16594,14 +16646,14 @@
     </row>
     <row r="301" spans="1:9" ht="19" customHeight="1">
       <c r="A301" s="19" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="20" t="s">
-        <v>659</v>
+        <v>637</v>
       </c>
       <c r="D301" s="21" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
@@ -16611,14 +16663,14 @@
     </row>
     <row r="302" spans="1:9" ht="19" customHeight="1">
       <c r="A302" s="19" t="s">
-        <v>660</v>
+        <v>638</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="20" t="s">
-        <v>661</v>
-      </c>
-      <c r="D302" s="21" t="s">
-        <v>774</v>
+        <v>639</v>
+      </c>
+      <c r="D302" s="20" t="s">
+        <v>754</v>
       </c>
       <c r="E302" s="20"/>
       <c r="F302" s="20"/>
@@ -16628,14 +16680,14 @@
     </row>
     <row r="303" spans="1:9" ht="19" customHeight="1">
       <c r="A303" s="19" t="s">
-        <v>662</v>
+        <v>640</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="20" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="D303" s="21" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="E303" s="20"/>
       <c r="F303" s="20"/>
@@ -16645,14 +16697,14 @@
     </row>
     <row r="304" spans="1:9" ht="19" customHeight="1">
       <c r="A304" s="19" t="s">
-        <v>664</v>
+        <v>642</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="D304" s="22" t="s">
-        <v>776</v>
+        <v>643</v>
+      </c>
+      <c r="D304" s="21" t="s">
+        <v>756</v>
       </c>
       <c r="E304" s="20"/>
       <c r="F304" s="20"/>
@@ -16662,14 +16714,14 @@
     </row>
     <row r="305" spans="1:9" ht="19" customHeight="1">
       <c r="A305" s="19" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="20" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="D305" s="21" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
@@ -16679,14 +16731,14 @@
     </row>
     <row r="306" spans="1:9" ht="19" customHeight="1">
       <c r="A306" s="19" t="s">
-        <v>669</v>
+        <v>646</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="20" t="s">
-        <v>668</v>
-      </c>
-      <c r="D306" s="21" t="s">
-        <v>778</v>
+        <v>647</v>
+      </c>
+      <c r="D306" s="22" t="s">
+        <v>758</v>
       </c>
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
@@ -16696,14 +16748,14 @@
     </row>
     <row r="307" spans="1:9" ht="19" customHeight="1">
       <c r="A307" s="19" t="s">
-        <v>670</v>
+        <v>648</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="20" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="E307" s="20"/>
       <c r="F307" s="20"/>
@@ -16713,14 +16765,14 @@
     </row>
     <row r="308" spans="1:9" ht="19" customHeight="1">
       <c r="A308" s="19" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="20" t="s">
-        <v>673</v>
+        <v>650</v>
       </c>
       <c r="D308" s="21" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -16730,14 +16782,14 @@
     </row>
     <row r="309" spans="1:9" ht="19" customHeight="1">
       <c r="A309" s="19" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="20" t="s">
-        <v>675</v>
+        <v>653</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="E309" s="20"/>
       <c r="F309" s="20"/>
@@ -16747,14 +16799,14 @@
     </row>
     <row r="310" spans="1:9" ht="19" customHeight="1">
       <c r="A310" s="19" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="20" t="s">
-        <v>677</v>
-      </c>
-      <c r="D310" s="20" t="s">
-        <v>782</v>
+        <v>655</v>
+      </c>
+      <c r="D310" s="21" t="s">
+        <v>762</v>
       </c>
       <c r="E310" s="20"/>
       <c r="F310" s="20"/>
@@ -16764,14 +16816,14 @@
     </row>
     <row r="311" spans="1:9" ht="19" customHeight="1">
       <c r="A311" s="19" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="B311" s="20"/>
-      <c r="C311" s="27" t="s">
-        <v>679</v>
-      </c>
-      <c r="D311" s="27" t="s">
-        <v>783</v>
+      <c r="C311" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="D311" s="21" t="s">
+        <v>763</v>
       </c>
       <c r="E311" s="20"/>
       <c r="F311" s="20"/>
@@ -16781,14 +16833,14 @@
     </row>
     <row r="312" spans="1:9" ht="19" customHeight="1">
       <c r="A312" s="19" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="20" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
       <c r="D312" s="20" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="E312" s="20"/>
       <c r="F312" s="20"/>
@@ -16798,14 +16850,14 @@
     </row>
     <row r="313" spans="1:9" ht="19" customHeight="1">
       <c r="A313" s="19" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="B313" s="20"/>
-      <c r="C313" s="20" t="s">
-        <v>683</v>
-      </c>
-      <c r="D313" s="21" t="s">
-        <v>785</v>
+      <c r="C313" s="27" t="s">
+        <v>661</v>
+      </c>
+      <c r="D313" s="27" t="s">
+        <v>765</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -16815,14 +16867,14 @@
     </row>
     <row r="314" spans="1:9" ht="19" customHeight="1">
       <c r="A314" s="19" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="20" t="s">
-        <v>685</v>
-      </c>
-      <c r="D314" s="21" t="s">
-        <v>786</v>
+        <v>663</v>
+      </c>
+      <c r="D314" s="20" t="s">
+        <v>766</v>
       </c>
       <c r="E314" s="20"/>
       <c r="F314" s="20"/>
@@ -16832,14 +16884,14 @@
     </row>
     <row r="315" spans="1:9" ht="19" customHeight="1">
       <c r="A315" s="19" t="s">
-        <v>686</v>
+        <v>664</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="20" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="E315" s="20"/>
       <c r="F315" s="20"/>
@@ -16849,14 +16901,14 @@
     </row>
     <row r="316" spans="1:9" ht="19" customHeight="1">
       <c r="A316" s="19" t="s">
-        <v>688</v>
+        <v>666</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="20" t="s">
-        <v>689</v>
-      </c>
-      <c r="D316" s="20" t="s">
-        <v>788</v>
+        <v>667</v>
+      </c>
+      <c r="D316" s="21" t="s">
+        <v>768</v>
       </c>
       <c r="E316" s="20"/>
       <c r="F316" s="20"/>
@@ -16866,14 +16918,14 @@
     </row>
     <row r="317" spans="1:9" ht="19" customHeight="1">
       <c r="A317" s="19" t="s">
-        <v>690</v>
+        <v>668</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="20" t="s">
-        <v>691</v>
-      </c>
-      <c r="D317" s="22" t="s">
-        <v>789</v>
+        <v>669</v>
+      </c>
+      <c r="D317" s="21" t="s">
+        <v>769</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -16883,14 +16935,14 @@
     </row>
     <row r="318" spans="1:9" ht="19" customHeight="1">
       <c r="A318" s="19" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="20" t="s">
-        <v>693</v>
+        <v>671</v>
       </c>
       <c r="D318" s="20" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="E318" s="20"/>
       <c r="F318" s="20"/>
@@ -16900,14 +16952,14 @@
     </row>
     <row r="319" spans="1:9" ht="19" customHeight="1">
       <c r="A319" s="19" t="s">
-        <v>694</v>
+        <v>672</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="20" t="s">
-        <v>695</v>
-      </c>
-      <c r="D319" s="20" t="s">
-        <v>791</v>
+        <v>673</v>
+      </c>
+      <c r="D319" s="22" t="s">
+        <v>771</v>
       </c>
       <c r="E319" s="20"/>
       <c r="F319" s="20"/>
@@ -16917,14 +16969,14 @@
     </row>
     <row r="320" spans="1:9" ht="19" customHeight="1">
       <c r="A320" s="19" t="s">
-        <v>976</v>
+        <v>674</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="20" t="s">
-        <v>977</v>
+        <v>675</v>
       </c>
       <c r="D320" s="20" t="s">
-        <v>978</v>
+        <v>772</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -16934,14 +16986,14 @@
     </row>
     <row r="321" spans="1:9" ht="19" customHeight="1">
       <c r="A321" s="19" t="s">
-        <v>1103</v>
+        <v>676</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="20" t="s">
-        <v>1104</v>
+        <v>677</v>
       </c>
       <c r="D321" s="20" t="s">
-        <v>1105</v>
+        <v>773</v>
       </c>
       <c r="E321" s="20"/>
       <c r="F321" s="20"/>
@@ -16950,10 +17002,16 @@
       <c r="I321" s="18"/>
     </row>
     <row r="322" spans="1:9" ht="19" customHeight="1">
-      <c r="A322" s="19"/>
+      <c r="A322" s="19" t="s">
+        <v>958</v>
+      </c>
       <c r="B322" s="20"/>
-      <c r="C322" s="20"/>
-      <c r="D322" s="20"/>
+      <c r="C322" s="20" t="s">
+        <v>959</v>
+      </c>
+      <c r="D322" s="20" t="s">
+        <v>960</v>
+      </c>
       <c r="E322" s="20"/>
       <c r="F322" s="20"/>
       <c r="G322" s="18"/>
@@ -16961,10 +17019,16 @@
       <c r="I322" s="18"/>
     </row>
     <row r="323" spans="1:9" ht="19" customHeight="1">
-      <c r="A323" s="19"/>
+      <c r="A323" s="19" t="s">
+        <v>1085</v>
+      </c>
       <c r="B323" s="20"/>
-      <c r="C323" s="20"/>
-      <c r="D323" s="20"/>
+      <c r="C323" s="20" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D323" s="20" t="s">
+        <v>1087</v>
+      </c>
       <c r="E323" s="20"/>
       <c r="F323" s="20"/>
       <c r="G323" s="18"/>
@@ -17642,15 +17706,37 @@
       <c r="H384" s="17"/>
       <c r="I384" s="18"/>
     </row>
+    <row r="385" spans="1:9" ht="19" customHeight="1">
+      <c r="A385" s="19"/>
+      <c r="B385" s="20"/>
+      <c r="C385" s="20"/>
+      <c r="D385" s="20"/>
+      <c r="E385" s="20"/>
+      <c r="F385" s="20"/>
+      <c r="G385" s="18"/>
+      <c r="H385" s="17"/>
+      <c r="I385" s="18"/>
+    </row>
+    <row r="386" spans="1:9" ht="19" customHeight="1">
+      <c r="A386" s="19"/>
+      <c r="B386" s="20"/>
+      <c r="C386" s="20"/>
+      <c r="D386" s="20"/>
+      <c r="E386" s="20"/>
+      <c r="F386" s="20"/>
+      <c r="G386" s="18"/>
+      <c r="H386" s="17"/>
+      <c r="I386" s="18"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:J208" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
+  <autoFilter ref="A4:J209" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A233:E234 E220:G220 A220:C232 A256:E257 A283:E284 A258:C282 E258:E282 A305:E306 E285:E304 A322:G384 A320:E321 A307:C319 E307:E319 E221:E232 B64:G64 D114:D132 A214:G219 I8:I28 A8:G28 A285:C304 A65:G113 A235:C255 E235:E255 G221:G321 I214:I384 F221:F270 A114:C140 E114:G140 D137:D140 A141:G212 I30:I212 A30:G63">
+  <conditionalFormatting sqref="A234:E235 E221:G221 A221:C233 A257:E258 A284:E285 A259:C283 E259:E283 A307:E308 E286:E306 A324:G386 A322:E323 A309:C321 E309:E321 E222:E233 B65:G65 D115:D133 A215:G220 I8:I28 A8:G28 A286:C306 A66:G114 A236:C256 E236:E256 G222:G323 I215:I386 F222:F271 A115:C141 E115:G141 D138:D141 A142:G213 I30:I213 A30:G64">
     <cfRule type="expression" dxfId="130" priority="260">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H86:H111 H214:H384 H114:H212 H30:H84">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H215:H386 H30:H85 H115:H213">
     <cfRule type="cellIs" dxfId="129" priority="215" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
@@ -17664,7 +17750,7 @@
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H86:H111 H214:H384 H114:H212 H30:H84">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H215:H386 H30:H85 H115:H213">
     <cfRule type="cellIs" dxfId="125" priority="216" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -17681,19 +17767,19 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H86:H111 H214:H384 H114:H212 H30:H84">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H215:H386 H30:H85 H115:H213">
     <cfRule type="cellIs" dxfId="120" priority="218" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D133:D134">
+  <conditionalFormatting sqref="D134:D135">
     <cfRule type="expression" dxfId="119" priority="139">
-      <formula>$G133&lt;&gt;""</formula>
+      <formula>$G134&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D135:D136">
+  <conditionalFormatting sqref="D136:D137">
     <cfRule type="expression" dxfId="118" priority="138">
-      <formula>$G135&lt;&gt;""</formula>
+      <formula>$G136&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5 I5 A5">
@@ -17742,26 +17828,26 @@
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C213:G213 I213 A213">
+  <conditionalFormatting sqref="C214:G214 I214 A214">
     <cfRule type="expression" dxfId="105" priority="120">
-      <formula>$G213&lt;&gt;""</formula>
+      <formula>$G214&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H213">
+  <conditionalFormatting sqref="H214">
     <cfRule type="cellIs" dxfId="104" priority="110" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="103" priority="117" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",H213)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",H214)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="102" priority="118" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",H213)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",H214)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="101" priority="119" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H213)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H214)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H213">
+  <conditionalFormatting sqref="H214">
     <cfRule type="cellIs" dxfId="100" priority="111" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -17778,24 +17864,24 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H213">
+  <conditionalFormatting sqref="H214">
     <cfRule type="cellIs" dxfId="95" priority="113" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B213">
+  <conditionalFormatting sqref="B214">
     <cfRule type="expression" dxfId="94" priority="109">
-      <formula>$G213&lt;&gt;""</formula>
+      <formula>$G214&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D293:D294 D298:D319 D283:D289 D220:D241 D244 D248:D257 D261:D263 D267:D276">
+  <conditionalFormatting sqref="D295:D296 D300:D321 D221:D242 D245 D249:D258 D262:D264 D268:D277 D284:D286 D290:D291">
     <cfRule type="expression" dxfId="93" priority="262">
-      <formula>$G222&lt;&gt;""</formula>
+      <formula>$G223&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F271:F321">
+  <conditionalFormatting sqref="F272:F323">
     <cfRule type="expression" dxfId="92" priority="108">
-      <formula>$G271&lt;&gt;""</formula>
+      <formula>$G272&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6 I6 C6:G6">
@@ -17895,26 +17981,26 @@
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
+  <conditionalFormatting sqref="A65">
     <cfRule type="expression" dxfId="66" priority="57">
-      <formula>$G64&lt;&gt;""</formula>
+      <formula>$G65&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H112:H113">
+  <conditionalFormatting sqref="H113:H114">
     <cfRule type="cellIs" dxfId="65" priority="46" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="64" priority="53" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",H112)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",H113)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="63" priority="54" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",H112)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",H113)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="62" priority="55" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H112)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H113)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H112:H113">
+  <conditionalFormatting sqref="H113:H114">
     <cfRule type="cellIs" dxfId="61" priority="47" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -17931,7 +18017,7 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H112:H113">
+  <conditionalFormatting sqref="H113:H114">
     <cfRule type="cellIs" dxfId="56" priority="49" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
@@ -17977,26 +18063,26 @@
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D258:D260 D290:D292 D295:D297 D280:D282 D277:D278 D245:D247 D264:D265">
+  <conditionalFormatting sqref="D259:D261 D292:D294 D297:D299 D281:D283 D278:D279 D246:D248 D265:D266 D287:D289">
     <cfRule type="expression" dxfId="44" priority="265">
-      <formula>$G248&lt;&gt;""</formula>
+      <formula>$G249&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
+  <conditionalFormatting sqref="H86">
     <cfRule type="cellIs" dxfId="43" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="9" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",H85)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",H86)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="41" priority="10" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",H85)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",H86)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="40" priority="11" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H85)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H86)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
+  <conditionalFormatting sqref="H86">
     <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -18013,29 +18099,29 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
+  <conditionalFormatting sqref="H86">
     <cfRule type="cellIs" dxfId="34" priority="5" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D279">
+  <conditionalFormatting sqref="D280">
     <cfRule type="expression" dxfId="33" priority="269">
-      <formula>$G283&lt;&gt;""</formula>
+      <formula>$G284&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D244">
+    <cfRule type="expression" dxfId="32" priority="300">
+      <formula>$G245&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243">
-    <cfRule type="expression" dxfId="32" priority="300">
-      <formula>$G244&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D242">
     <cfRule type="expression" dxfId="31" priority="301">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D266">
+  <conditionalFormatting sqref="D267">
     <cfRule type="expression" dxfId="30" priority="1">
-      <formula>$G266&lt;&gt;""</formula>
+      <formula>$G267&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F76CB9-9FF0-3C4E-9ECA-237D1223ECD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF4CA8F-C5FE-EF41-962F-A83B773FD213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35860" yWindow="2320" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -3964,18 +3964,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>case skipped.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SKIP_SCENARIO</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>scenario skipped.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>elementNotFound</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4716,36 +4708,6 @@
   </si>
   <si>
     <t>テストが実装されていないか不完全です。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>case</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tsukushi A Round Gothic Bold"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>がスキップされました。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>scenario</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tsukushi A Round Gothic Bold"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>がスキップされました。</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -9603,6 +9565,44 @@
         <charset val="128"/>
       </rPr>
       <t>であること</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skipping case</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skipping scenario</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をスキップする</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をスキップする</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -11251,16 +11251,16 @@
     </row>
     <row r="6" spans="1:9" ht="19" customHeight="1">
       <c r="A6" s="19" t="s">
+        <v>879</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>883</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>886</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>887</v>
-      </c>
       <c r="D6" s="20" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
@@ -11270,16 +11270,16 @@
     </row>
     <row r="7" spans="1:9" ht="19" customHeight="1">
       <c r="A7" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>881</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>884</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>885</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>888</v>
-      </c>
       <c r="D7" s="20" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -11292,7 +11292,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>21</v>
@@ -11311,7 +11311,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>23</v>
@@ -11330,7 +11330,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>25</v>
@@ -11349,7 +11349,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>27</v>
@@ -11368,7 +11368,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>29</v>
@@ -11387,7 +11387,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>31</v>
@@ -11406,7 +11406,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>33</v>
@@ -11425,7 +11425,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>35</v>
@@ -11444,7 +11444,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>37</v>
@@ -11463,7 +11463,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>39</v>
@@ -11482,7 +11482,7 @@
         <v>40</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>41</v>
@@ -11501,7 +11501,7 @@
         <v>42</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>43</v>
@@ -11520,7 +11520,7 @@
         <v>44</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>45</v>
@@ -11539,7 +11539,7 @@
         <v>46</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>47</v>
@@ -11558,7 +11558,7 @@
         <v>48</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>49</v>
@@ -11577,7 +11577,7 @@
         <v>50</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>51</v>
@@ -11596,7 +11596,7 @@
         <v>52</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>53</v>
@@ -11612,16 +11612,16 @@
     </row>
     <row r="25" spans="1:9" ht="19" customHeight="1">
       <c r="A25" s="19" t="s">
+        <v>922</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>924</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>926</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>928</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>930</v>
-      </c>
       <c r="D25" s="20" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
@@ -11631,16 +11631,16 @@
     </row>
     <row r="26" spans="1:9" ht="19" customHeight="1">
       <c r="A26" s="19" t="s">
+        <v>923</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>925</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>927</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>929</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>931</v>
-      </c>
       <c r="D26" s="20" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -11650,16 +11650,16 @@
     </row>
     <row r="27" spans="1:9" ht="19" customHeight="1">
       <c r="A27" s="19" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
@@ -11672,7 +11672,7 @@
         <v>98</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>99</v>
@@ -11691,7 +11691,7 @@
         <v>54</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>55</v>
@@ -11710,10 +11710,10 @@
         <v>56</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>289</v>
@@ -11767,13 +11767,13 @@
         <v>100</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -11783,16 +11783,16 @@
     </row>
     <row r="34" spans="1:9" ht="19" customHeight="1">
       <c r="A34" s="19" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>1112</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>1116</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -11802,16 +11802,16 @@
     </row>
     <row r="35" spans="1:9" ht="19" customHeight="1">
       <c r="A35" s="19" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -11821,16 +11821,16 @@
     </row>
     <row r="36" spans="1:9" ht="19" customHeight="1">
       <c r="A36" s="19" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
@@ -11843,7 +11843,7 @@
         <v>101</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>102</v>
@@ -11900,7 +11900,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>108</v>
@@ -11935,16 +11935,16 @@
     </row>
     <row r="42" spans="1:9" ht="19" customHeight="1">
       <c r="A42" s="19" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C42" s="20" t="s">
         <v>1077</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="D42" s="20" t="s">
         <v>1079</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>1083</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -11954,16 +11954,16 @@
     </row>
     <row r="43" spans="1:9" ht="19" customHeight="1">
       <c r="A43" s="19" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>1078</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="D43" s="20" t="s">
         <v>1080</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>1084</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -11976,7 +11976,7 @@
         <v>111</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>112</v>
@@ -11995,7 +11995,7 @@
         <v>113</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>114</v>
@@ -12014,7 +12014,7 @@
         <v>115</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>116</v>
@@ -12087,16 +12087,16 @@
     </row>
     <row r="50" spans="1:9" ht="19" customHeight="1">
       <c r="A50" s="19" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C50" s="20" t="s">
         <v>1069</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="D50" s="20" t="s">
         <v>1071</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>1075</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -12106,16 +12106,16 @@
     </row>
     <row r="51" spans="1:9" ht="19" customHeight="1">
       <c r="A51" s="19" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C51" s="20" t="s">
         <v>1070</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="D51" s="20" t="s">
         <v>1072</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>1076</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -12144,16 +12144,16 @@
     </row>
     <row r="53" spans="1:9" ht="19" customHeight="1">
       <c r="A53" s="19" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
@@ -12163,16 +12163,16 @@
     </row>
     <row r="54" spans="1:9" ht="19" customHeight="1">
       <c r="A54" s="19" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -12182,16 +12182,16 @@
     </row>
     <row r="55" spans="1:9" ht="19" customHeight="1">
       <c r="A55" s="19" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
@@ -12201,16 +12201,16 @@
     </row>
     <row r="56" spans="1:9" ht="19" customHeight="1">
       <c r="A56" s="19" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
@@ -12220,16 +12220,16 @@
     </row>
     <row r="57" spans="1:9" ht="19" customHeight="1">
       <c r="A57" s="19" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
@@ -12242,7 +12242,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>62</v>
@@ -12315,16 +12315,16 @@
     </row>
     <row r="62" spans="1:9" ht="19" customHeight="1">
       <c r="A62" s="19" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
@@ -12334,16 +12334,16 @@
     </row>
     <row r="63" spans="1:9" ht="19" customHeight="1">
       <c r="A63" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>829</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="D63" s="20" t="s">
         <v>831</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>833</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>834</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>835</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
@@ -12353,16 +12353,16 @@
     </row>
     <row r="64" spans="1:9" ht="19" customHeight="1">
       <c r="A64" s="19" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
@@ -12372,16 +12372,16 @@
     </row>
     <row r="65" spans="1:9" ht="19" customHeight="1">
       <c r="A65" s="19" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
@@ -12391,16 +12391,16 @@
     </row>
     <row r="66" spans="1:9" ht="19" customHeight="1">
       <c r="A66" s="19" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
@@ -12410,16 +12410,16 @@
     </row>
     <row r="67" spans="1:9" ht="19" customHeight="1">
       <c r="A67" s="19" t="s">
+        <v>840</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>843</v>
+      </c>
+      <c r="C67" s="20" t="s">
         <v>844</v>
       </c>
-      <c r="B67" s="20" t="s">
-        <v>847</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>848</v>
-      </c>
       <c r="D67" s="20" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
@@ -12429,16 +12429,16 @@
     </row>
     <row r="68" spans="1:9" ht="19" customHeight="1">
       <c r="A68" s="19" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
@@ -12448,16 +12448,16 @@
     </row>
     <row r="69" spans="1:9" ht="19" customHeight="1">
       <c r="A69" s="19" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
@@ -12467,16 +12467,16 @@
     </row>
     <row r="70" spans="1:9" ht="19" customHeight="1">
       <c r="A70" s="19" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
@@ -12495,7 +12495,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
@@ -12533,7 +12533,7 @@
         <v>74</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
@@ -12562,16 +12562,16 @@
     </row>
     <row r="75" spans="1:9" ht="19" customHeight="1">
       <c r="A75" s="19" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
@@ -12600,16 +12600,16 @@
     </row>
     <row r="77" spans="1:9" ht="19" customHeight="1">
       <c r="A77" s="19" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B77" s="20" t="s">
+        <v>908</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="D77" s="22" t="s">
         <v>912</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>913</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>916</v>
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="20"/>
@@ -12771,16 +12771,16 @@
     </row>
     <row r="86" spans="1:9" ht="19" customHeight="1">
       <c r="A86" s="19" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -12812,7 +12812,7 @@
         <v>96</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C88" s="20" t="s">
         <v>97</v>
@@ -12828,16 +12828,16 @@
     </row>
     <row r="89" spans="1:9" ht="19" customHeight="1">
       <c r="A89" s="19" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
@@ -12847,16 +12847,16 @@
     </row>
     <row r="90" spans="1:9" ht="19" customHeight="1">
       <c r="A90" s="19" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
@@ -12866,16 +12866,16 @@
     </row>
     <row r="91" spans="1:9" ht="19" customHeight="1">
       <c r="A91" s="19" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
@@ -12885,16 +12885,16 @@
     </row>
     <row r="92" spans="1:9" ht="19" customHeight="1">
       <c r="A92" s="19" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
@@ -12904,16 +12904,16 @@
     </row>
     <row r="93" spans="1:9" ht="19" customHeight="1">
       <c r="A93" s="19" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
@@ -12923,16 +12923,16 @@
     </row>
     <row r="94" spans="1:9" ht="19" customHeight="1">
       <c r="A94" s="19" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -12942,16 +12942,16 @@
     </row>
     <row r="95" spans="1:9" ht="19" customHeight="1">
       <c r="A95" s="19" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
@@ -12961,16 +12961,16 @@
     </row>
     <row r="96" spans="1:9" ht="19" customHeight="1">
       <c r="A96" s="19" t="s">
+        <v>993</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>994</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="D96" s="20" t="s">
         <v>997</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>998</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>1001</v>
       </c>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
@@ -12980,16 +12980,16 @@
     </row>
     <row r="97" spans="1:9" ht="19" customHeight="1">
       <c r="A97" s="19" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
@@ -12999,16 +12999,16 @@
     </row>
     <row r="98" spans="1:9" ht="19" customHeight="1">
       <c r="A98" s="19" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
@@ -13018,16 +13018,16 @@
     </row>
     <row r="99" spans="1:9" ht="19" customHeight="1">
       <c r="A99" s="19" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
@@ -13037,16 +13037,16 @@
     </row>
     <row r="100" spans="1:9" ht="19" customHeight="1">
       <c r="A100" s="19" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
@@ -13056,16 +13056,16 @@
     </row>
     <row r="101" spans="1:9" ht="19" customHeight="1">
       <c r="A101" s="19" t="s">
+        <v>867</v>
+      </c>
+      <c r="B101" s="20" t="s">
         <v>871</v>
       </c>
-      <c r="B101" s="20" t="s">
-        <v>875</v>
-      </c>
       <c r="C101" s="20" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
@@ -13075,16 +13075,16 @@
     </row>
     <row r="102" spans="1:9" ht="19" customHeight="1">
       <c r="A102" s="19" t="s">
+        <v>868</v>
+      </c>
+      <c r="B102" s="20" t="s">
         <v>872</v>
       </c>
-      <c r="B102" s="20" t="s">
-        <v>876</v>
-      </c>
       <c r="C102" s="20" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
@@ -13094,16 +13094,16 @@
     </row>
     <row r="103" spans="1:9" ht="19" customHeight="1">
       <c r="A103" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="B103" s="20" t="s">
         <v>873</v>
       </c>
-      <c r="B103" s="20" t="s">
-        <v>877</v>
-      </c>
       <c r="C103" s="20" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
@@ -13113,16 +13113,16 @@
     </row>
     <row r="104" spans="1:9" ht="19" customHeight="1">
       <c r="A104" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="B104" s="19" t="s">
         <v>874</v>
       </c>
-      <c r="B104" s="19" t="s">
-        <v>878</v>
-      </c>
       <c r="C104" s="20" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
@@ -13132,16 +13132,16 @@
     </row>
     <row r="105" spans="1:9" ht="19" customHeight="1">
       <c r="A105" s="19" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
@@ -13151,16 +13151,16 @@
     </row>
     <row r="106" spans="1:9" ht="19" customHeight="1">
       <c r="A106" s="19" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
@@ -13173,7 +13173,7 @@
         <v>124</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C107" s="20" t="s">
         <v>125</v>
@@ -13189,16 +13189,16 @@
     </row>
     <row r="108" spans="1:9" ht="19" customHeight="1">
       <c r="A108" s="19" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
@@ -13208,16 +13208,16 @@
     </row>
     <row r="109" spans="1:9" ht="19" customHeight="1">
       <c r="A109" s="19" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
@@ -13227,16 +13227,16 @@
     </row>
     <row r="110" spans="1:9" ht="19" customHeight="1">
       <c r="A110" s="19" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
@@ -13284,16 +13284,16 @@
     </row>
     <row r="113" spans="1:9" ht="19" customHeight="1">
       <c r="A113" s="19" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
@@ -13303,16 +13303,16 @@
     </row>
     <row r="114" spans="1:9" ht="19" customHeight="1">
       <c r="A114" s="19" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
@@ -13325,7 +13325,7 @@
         <v>130</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C115" s="20" t="s">
         <v>131</v>
@@ -13344,7 +13344,7 @@
         <v>132</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C116" s="20" t="s">
         <v>133</v>
@@ -13363,7 +13363,7 @@
         <v>134</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C117" s="20" t="s">
         <v>135</v>
@@ -13382,7 +13382,7 @@
         <v>136</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C118" s="20" t="s">
         <v>137</v>
@@ -13401,7 +13401,7 @@
         <v>138</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C119" s="20" t="s">
         <v>139</v>
@@ -13420,7 +13420,7 @@
         <v>140</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C120" s="20" t="s">
         <v>141</v>
@@ -13439,7 +13439,7 @@
         <v>142</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>143</v>
@@ -13458,7 +13458,7 @@
         <v>144</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>17</v>
@@ -13477,7 +13477,7 @@
         <v>145</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C123" s="20" t="s">
         <v>146</v>
@@ -13496,7 +13496,7 @@
         <v>147</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C124" s="20" t="s">
         <v>19</v>
@@ -13515,7 +13515,7 @@
         <v>148</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C125" s="20" t="s">
         <v>149</v>
@@ -13534,7 +13534,7 @@
         <v>150</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>151</v>
@@ -13553,7 +13553,7 @@
         <v>152</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C127" s="20" t="s">
         <v>153</v>
@@ -13572,7 +13572,7 @@
         <v>154</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C128" s="20" t="s">
         <v>155</v>
@@ -13591,7 +13591,7 @@
         <v>156</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C129" s="20" t="s">
         <v>157</v>
@@ -13610,7 +13610,7 @@
         <v>158</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C130" s="20" t="s">
         <v>159</v>
@@ -13629,7 +13629,7 @@
         <v>160</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>161</v>
@@ -13648,7 +13648,7 @@
         <v>162</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>163</v>
@@ -13667,7 +13667,7 @@
         <v>164</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C133" s="20" t="s">
         <v>165</v>
@@ -13686,7 +13686,7 @@
         <v>166</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C134" s="20" t="s">
         <v>167</v>
@@ -13705,7 +13705,7 @@
         <v>168</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C135" s="20" t="s">
         <v>169</v>
@@ -13724,7 +13724,7 @@
         <v>170</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C136" s="20" t="s">
         <v>171</v>
@@ -13743,7 +13743,7 @@
         <v>172</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C137" s="20" t="s">
         <v>173</v>
@@ -13762,7 +13762,7 @@
         <v>174</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C138" s="20" t="s">
         <v>175</v>
@@ -13781,7 +13781,7 @@
         <v>176</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C139" s="20" t="s">
         <v>177</v>
@@ -13800,7 +13800,7 @@
         <v>178</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C140" s="20" t="s">
         <v>179</v>
@@ -13819,7 +13819,7 @@
         <v>180</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C141" s="20" t="s">
         <v>181</v>
@@ -14025,13 +14025,13 @@
     </row>
     <row r="152" spans="1:9" ht="19" customHeight="1">
       <c r="A152" s="19" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="D152" s="22" t="s">
         <v>359</v>
@@ -14044,13 +14044,13 @@
     </row>
     <row r="153" spans="1:9" ht="19" customHeight="1">
       <c r="A153" s="19" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="D153" s="22" t="s">
         <v>360</v>
@@ -14164,7 +14164,7 @@
         <v>450</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="D159" s="22" t="s">
         <v>368</v>
@@ -14183,7 +14183,7 @@
         <v>457</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="D160" s="22" t="s">
         <v>375</v>
@@ -14202,7 +14202,7 @@
         <v>451</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D161" s="22" t="s">
         <v>369</v>
@@ -14221,7 +14221,7 @@
         <v>452</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="D162" s="22" t="s">
         <v>370</v>
@@ -14240,7 +14240,7 @@
         <v>453</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D163" s="22" t="s">
         <v>371</v>
@@ -14259,7 +14259,7 @@
         <v>454</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D164" s="22" t="s">
         <v>372</v>
@@ -14278,7 +14278,7 @@
         <v>455</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D165" s="22" t="s">
         <v>373</v>
@@ -14297,7 +14297,7 @@
         <v>456</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="D166" s="22" t="s">
         <v>374</v>
@@ -14386,16 +14386,16 @@
     </row>
     <row r="171" spans="1:9" ht="19" customHeight="1">
       <c r="A171" s="19" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="E171" s="20"/>
       <c r="F171" s="20"/>
@@ -14411,7 +14411,7 @@
         <v>462</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="D172" s="22" t="s">
         <v>378</v>
@@ -14430,10 +14430,10 @@
         <v>463</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="E173" s="20"/>
       <c r="F173" s="20"/>
@@ -14449,7 +14449,7 @@
         <v>468</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="D174" s="22" t="s">
         <v>384</v>
@@ -14468,7 +14468,7 @@
         <v>469</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="D175" s="22" t="s">
         <v>385</v>
@@ -14487,7 +14487,7 @@
         <v>464</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D176" s="22" t="s">
         <v>379</v>
@@ -14506,7 +14506,7 @@
         <v>465</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="D177" s="22" t="s">
         <v>380</v>
@@ -14525,7 +14525,7 @@
         <v>466</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="D178" s="22" t="s">
         <v>381</v>
@@ -14544,7 +14544,7 @@
         <v>467</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="D179" s="22" t="s">
         <v>382</v>
@@ -14712,7 +14712,7 @@
         <v>248</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C188" s="20" t="s">
         <v>249</v>
@@ -14731,7 +14731,7 @@
         <v>250</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C189" s="20" t="s">
         <v>251</v>
@@ -14842,16 +14842,16 @@
     </row>
     <row r="195" spans="1:9" ht="19" customHeight="1">
       <c r="A195" s="19" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>438</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="E195" s="20"/>
       <c r="F195" s="20"/>
@@ -14861,16 +14861,16 @@
     </row>
     <row r="196" spans="1:9" ht="19" customHeight="1">
       <c r="A196" s="19" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="B196" s="19" t="s">
         <v>438</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="E196" s="20"/>
       <c r="F196" s="20"/>
@@ -14880,16 +14880,16 @@
     </row>
     <row r="197" spans="1:9" ht="19" customHeight="1">
       <c r="A197" s="19" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B197" s="19" t="s">
         <v>438</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
@@ -14899,16 +14899,16 @@
     </row>
     <row r="198" spans="1:9" ht="19" customHeight="1">
       <c r="A198" s="19" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="B198" s="19" t="s">
         <v>438</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="D198" s="20" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="E198" s="20"/>
       <c r="F198" s="20"/>
@@ -15126,10 +15126,16 @@
       <c r="I209" s="18"/>
     </row>
     <row r="210" spans="1:9" ht="19" customHeight="1">
-      <c r="A210" s="19"/>
+      <c r="A210" s="19" t="s">
+        <v>492</v>
+      </c>
       <c r="B210" s="20"/>
-      <c r="C210" s="20"/>
-      <c r="D210" s="20"/>
+      <c r="C210" s="20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D210" s="20" t="s">
+        <v>1116</v>
+      </c>
       <c r="E210" s="20"/>
       <c r="F210" s="20"/>
       <c r="G210" s="18"/>
@@ -15137,10 +15143,16 @@
       <c r="I210" s="18"/>
     </row>
     <row r="211" spans="1:9" ht="19" customHeight="1">
-      <c r="A211" s="19"/>
+      <c r="A211" s="19" t="s">
+        <v>493</v>
+      </c>
       <c r="B211" s="20"/>
-      <c r="C211" s="20"/>
-      <c r="D211" s="20"/>
+      <c r="C211" s="20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D211" s="20" t="s">
+        <v>1117</v>
+      </c>
       <c r="E211" s="20"/>
       <c r="F211" s="20"/>
       <c r="G211" s="18"/>
@@ -15170,29 +15182,21 @@
       <c r="I213" s="18"/>
     </row>
     <row r="214" spans="1:9" ht="19" customHeight="1">
-      <c r="A214" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
-      <c r="D214" s="23"/>
-      <c r="E214" s="23"/>
-      <c r="F214" s="23"/>
-      <c r="G214" s="24"/>
-      <c r="H214" s="25"/>
-      <c r="I214" s="24"/>
+      <c r="A214" s="19"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
+      <c r="D214" s="20"/>
+      <c r="E214" s="20"/>
+      <c r="F214" s="20"/>
+      <c r="G214" s="18"/>
+      <c r="H214" s="17"/>
+      <c r="I214" s="18"/>
     </row>
     <row r="215" spans="1:9" ht="19" customHeight="1">
-      <c r="A215" s="19" t="s">
-        <v>487</v>
-      </c>
+      <c r="A215" s="19"/>
       <c r="B215" s="20"/>
-      <c r="C215" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="D215" s="20" t="s">
-        <v>678</v>
-      </c>
+      <c r="C215" s="20"/>
+      <c r="D215" s="20"/>
       <c r="E215" s="20"/>
       <c r="F215" s="20"/>
       <c r="G215" s="18"/>
@@ -15200,32 +15204,28 @@
       <c r="I215" s="18"/>
     </row>
     <row r="216" spans="1:9" ht="19" customHeight="1">
-      <c r="A216" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="B216" s="20"/>
-      <c r="C216" s="20" t="s">
-        <v>488</v>
-      </c>
-      <c r="D216" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="E216" s="20"/>
-      <c r="F216" s="20"/>
-      <c r="G216" s="18"/>
-      <c r="H216" s="17"/>
-      <c r="I216" s="18"/>
+      <c r="A216" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="B216" s="23"/>
+      <c r="C216" s="23"/>
+      <c r="D216" s="23"/>
+      <c r="E216" s="23"/>
+      <c r="F216" s="23"/>
+      <c r="G216" s="24"/>
+      <c r="H216" s="25"/>
+      <c r="I216" s="24"/>
     </row>
     <row r="217" spans="1:9" ht="19" customHeight="1">
       <c r="A217" s="19" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="20" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
@@ -15235,14 +15235,14 @@
     </row>
     <row r="218" spans="1:9" ht="19" customHeight="1">
       <c r="A218" s="19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B218" s="20"/>
       <c r="C218" s="20" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D218" s="22" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E218" s="20"/>
       <c r="F218" s="20"/>
@@ -15252,14 +15252,14 @@
     </row>
     <row r="219" spans="1:9" ht="19" customHeight="1">
       <c r="A219" s="19" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="20" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D219" s="20" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E219" s="20"/>
       <c r="F219" s="20"/>
@@ -15269,14 +15269,14 @@
     </row>
     <row r="220" spans="1:9" ht="19" customHeight="1">
       <c r="A220" s="19" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="D220" s="20" t="s">
-        <v>683</v>
+        <v>491</v>
+      </c>
+      <c r="D220" s="22" t="s">
+        <v>679</v>
       </c>
       <c r="E220" s="20"/>
       <c r="F220" s="20"/>
@@ -15286,14 +15286,14 @@
     </row>
     <row r="221" spans="1:9" ht="19" customHeight="1">
       <c r="A221" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D221" s="21" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E221" s="20"/>
       <c r="F221" s="20"/>
@@ -15303,14 +15303,14 @@
     </row>
     <row r="222" spans="1:9" ht="19" customHeight="1">
       <c r="A222" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B222" s="20"/>
       <c r="C222" s="20" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D222" s="22" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E222" s="20"/>
       <c r="F222" s="20"/>
@@ -15320,14 +15320,14 @@
     </row>
     <row r="223" spans="1:9" ht="19" customHeight="1">
       <c r="A223" s="19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E223" s="20"/>
       <c r="F223" s="20"/>
@@ -15337,14 +15337,14 @@
     </row>
     <row r="224" spans="1:9" ht="19" customHeight="1">
       <c r="A224" s="19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E224" s="20"/>
       <c r="F224" s="20"/>
@@ -15354,14 +15354,14 @@
     </row>
     <row r="225" spans="1:9" ht="19" customHeight="1">
       <c r="A225" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="20" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E225" s="20"/>
       <c r="F225" s="20"/>
@@ -15371,14 +15371,14 @@
     </row>
     <row r="226" spans="1:9" ht="19" customHeight="1">
       <c r="A226" s="19" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="20" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="E226" s="20"/>
       <c r="F226" s="20"/>
@@ -15388,14 +15388,14 @@
     </row>
     <row r="227" spans="1:9" ht="19" customHeight="1">
       <c r="A227" s="19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="20" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E227" s="20"/>
       <c r="F227" s="20"/>
@@ -15405,14 +15405,14 @@
     </row>
     <row r="228" spans="1:9" ht="19" customHeight="1">
       <c r="A228" s="19" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B228" s="20"/>
       <c r="C228" s="20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D228" s="21" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E228" s="20"/>
       <c r="F228" s="20"/>
@@ -15422,14 +15422,14 @@
     </row>
     <row r="229" spans="1:9" ht="19" customHeight="1">
       <c r="A229" s="19" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B229" s="20"/>
       <c r="C229" s="20" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E229" s="20"/>
       <c r="F229" s="20"/>
@@ -15439,14 +15439,14 @@
     </row>
     <row r="230" spans="1:9" ht="19" customHeight="1">
       <c r="A230" s="19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E230" s="20"/>
       <c r="F230" s="20"/>
@@ -15456,14 +15456,14 @@
     </row>
     <row r="231" spans="1:9" ht="19" customHeight="1">
       <c r="A231" s="19" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B231" s="20"/>
       <c r="C231" s="20" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E231" s="20"/>
       <c r="F231" s="20"/>
@@ -15473,14 +15473,14 @@
     </row>
     <row r="232" spans="1:9" ht="19" customHeight="1">
       <c r="A232" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="20" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E232" s="20"/>
       <c r="F232" s="20"/>
@@ -15490,14 +15490,14 @@
     </row>
     <row r="233" spans="1:9" ht="19" customHeight="1">
       <c r="A233" s="19" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="20" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E233" s="20"/>
       <c r="F233" s="20"/>
@@ -15507,14 +15507,14 @@
     </row>
     <row r="234" spans="1:9" ht="19" customHeight="1">
       <c r="A234" s="19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="20" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D234" s="20" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
@@ -15524,14 +15524,14 @@
     </row>
     <row r="235" spans="1:9" ht="19" customHeight="1">
       <c r="A235" s="19" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B235" s="20"/>
       <c r="C235" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D235" s="22" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
@@ -15541,14 +15541,14 @@
     </row>
     <row r="236" spans="1:9" ht="19" customHeight="1">
       <c r="A236" s="19" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B236" s="20"/>
       <c r="C236" s="20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D236" s="21" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E236" s="20"/>
       <c r="F236" s="20"/>
@@ -15558,14 +15558,14 @@
     </row>
     <row r="237" spans="1:9" ht="19" customHeight="1">
       <c r="A237" s="19" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B237" s="20"/>
       <c r="C237" s="20" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D237" s="20" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E237" s="20"/>
       <c r="F237" s="20"/>
@@ -15575,14 +15575,14 @@
     </row>
     <row r="238" spans="1:9" ht="19" customHeight="1">
       <c r="A238" s="19" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B238" s="20"/>
       <c r="C238" s="20" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D238" s="20" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E238" s="20"/>
       <c r="F238" s="20"/>
@@ -15592,14 +15592,14 @@
     </row>
     <row r="239" spans="1:9" ht="19" customHeight="1">
       <c r="A239" s="19" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="20" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D239" s="20" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E239" s="20"/>
       <c r="F239" s="20"/>
@@ -15609,14 +15609,14 @@
     </row>
     <row r="240" spans="1:9" ht="19" customHeight="1">
       <c r="A240" s="19" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B240" s="20"/>
       <c r="C240" s="20" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E240" s="20"/>
       <c r="F240" s="20"/>
@@ -15626,14 +15626,14 @@
     </row>
     <row r="241" spans="1:9" ht="19" customHeight="1">
       <c r="A241" s="19" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B241" s="20"/>
       <c r="C241" s="20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E241" s="20"/>
       <c r="F241" s="20"/>
@@ -15643,14 +15643,14 @@
     </row>
     <row r="242" spans="1:9" ht="19" customHeight="1">
       <c r="A242" s="19" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B242" s="20"/>
       <c r="C242" s="20" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E242" s="20"/>
       <c r="F242" s="20"/>
@@ -15660,14 +15660,14 @@
     </row>
     <row r="243" spans="1:9" ht="19" customHeight="1">
       <c r="A243" s="19" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="20" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E243" s="20"/>
       <c r="F243" s="20"/>
@@ -15677,14 +15677,14 @@
     </row>
     <row r="244" spans="1:9" ht="19" customHeight="1">
       <c r="A244" s="19" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E244" s="20"/>
       <c r="F244" s="20"/>
@@ -15694,14 +15694,14 @@
     </row>
     <row r="245" spans="1:9" ht="19" customHeight="1">
       <c r="A245" s="19" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B245" s="20"/>
       <c r="C245" s="20" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E245" s="20"/>
       <c r="F245" s="20"/>
@@ -15711,14 +15711,14 @@
     </row>
     <row r="246" spans="1:9" ht="19" customHeight="1">
       <c r="A246" s="19" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E246" s="20"/>
       <c r="F246" s="20"/>
@@ -15728,14 +15728,14 @@
     </row>
     <row r="247" spans="1:9" ht="19" customHeight="1">
       <c r="A247" s="19" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="20" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D247" s="21" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E247" s="20"/>
       <c r="F247" s="20"/>
@@ -15745,14 +15745,14 @@
     </row>
     <row r="248" spans="1:9" ht="19" customHeight="1">
       <c r="A248" s="19" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="20" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="D248" s="21" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="E248" s="20"/>
       <c r="F248" s="20"/>
@@ -15762,14 +15762,14 @@
     </row>
     <row r="249" spans="1:9" ht="19" customHeight="1">
       <c r="A249" s="19" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="20" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E249" s="20"/>
       <c r="F249" s="20"/>
@@ -15779,14 +15779,14 @@
     </row>
     <row r="250" spans="1:9" ht="19" customHeight="1">
       <c r="A250" s="19" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="20" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D250" s="20" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E250" s="20"/>
       <c r="F250" s="20"/>
@@ -15796,14 +15796,14 @@
     </row>
     <row r="251" spans="1:9" ht="19" customHeight="1">
       <c r="A251" s="19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D251" s="21" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
@@ -15813,14 +15813,14 @@
     </row>
     <row r="252" spans="1:9" ht="19" customHeight="1">
       <c r="A252" s="19" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="20" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="E252" s="20"/>
       <c r="F252" s="20"/>
@@ -15830,14 +15830,14 @@
     </row>
     <row r="253" spans="1:9" ht="19" customHeight="1">
       <c r="A253" s="19" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="20" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E253" s="20"/>
       <c r="F253" s="20"/>
@@ -15847,14 +15847,14 @@
     </row>
     <row r="254" spans="1:9" ht="19" customHeight="1">
       <c r="A254" s="19" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B254" s="20"/>
       <c r="C254" s="20" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E254" s="20"/>
       <c r="F254" s="20"/>
@@ -15864,14 +15864,14 @@
     </row>
     <row r="255" spans="1:9" ht="19" customHeight="1">
       <c r="A255" s="19" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B255" s="20"/>
       <c r="C255" s="20" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E255" s="20"/>
       <c r="F255" s="20"/>
@@ -15881,14 +15881,14 @@
     </row>
     <row r="256" spans="1:9" ht="19" customHeight="1">
       <c r="A256" s="19" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="20" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D256" s="21" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E256" s="20"/>
       <c r="F256" s="20"/>
@@ -15898,14 +15898,14 @@
     </row>
     <row r="257" spans="1:9" ht="19" customHeight="1">
       <c r="A257" s="19" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="20" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D257" s="21" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
@@ -15915,14 +15915,14 @@
     </row>
     <row r="258" spans="1:9" ht="19" customHeight="1">
       <c r="A258" s="19" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="20" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D258" s="20" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E258" s="20"/>
       <c r="F258" s="20"/>
@@ -15932,14 +15932,14 @@
     </row>
     <row r="259" spans="1:9" ht="19" customHeight="1">
       <c r="A259" s="19" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="20" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E259" s="20"/>
       <c r="F259" s="20"/>
@@ -15949,14 +15949,14 @@
     </row>
     <row r="260" spans="1:9" ht="19" customHeight="1">
       <c r="A260" s="19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="20" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
@@ -15966,14 +15966,14 @@
     </row>
     <row r="261" spans="1:9" ht="19" customHeight="1">
       <c r="A261" s="19" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="20" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D261" s="20" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
@@ -15983,14 +15983,14 @@
     </row>
     <row r="262" spans="1:9" ht="19" customHeight="1">
       <c r="A262" s="19" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
@@ -16000,14 +16000,14 @@
     </row>
     <row r="263" spans="1:9" ht="19" customHeight="1">
       <c r="A263" s="19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="20" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D263" s="21" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E263" s="20"/>
       <c r="F263" s="20"/>
@@ -16017,14 +16017,14 @@
     </row>
     <row r="264" spans="1:9" ht="19" customHeight="1">
       <c r="A264" s="19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="20" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D264" s="20" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E264" s="20"/>
       <c r="F264" s="20"/>
@@ -16034,14 +16034,14 @@
     </row>
     <row r="265" spans="1:9" ht="19" customHeight="1">
       <c r="A265" s="19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D265" s="20" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
@@ -16051,14 +16051,14 @@
     </row>
     <row r="266" spans="1:9" ht="19" customHeight="1">
       <c r="A266" s="19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D266" s="20" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E266" s="20"/>
       <c r="F266" s="20"/>
@@ -16068,14 +16068,14 @@
     </row>
     <row r="267" spans="1:9" ht="19" customHeight="1">
       <c r="A267" s="19" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="20" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="D267" s="20" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
@@ -16085,14 +16085,14 @@
     </row>
     <row r="268" spans="1:9" ht="19" customHeight="1">
       <c r="A268" s="19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="20" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D268" s="20" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E268" s="20"/>
       <c r="F268" s="20"/>
@@ -16102,14 +16102,14 @@
     </row>
     <row r="269" spans="1:9" ht="19" customHeight="1">
       <c r="A269" s="19" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D269" s="20" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E269" s="20"/>
       <c r="F269" s="20"/>
@@ -16119,14 +16119,14 @@
     </row>
     <row r="270" spans="1:9" ht="19" customHeight="1">
       <c r="A270" s="19" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="20" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D270" s="21" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E270" s="20"/>
       <c r="F270" s="20"/>
@@ -16136,14 +16136,14 @@
     </row>
     <row r="271" spans="1:9" ht="19" customHeight="1">
       <c r="A271" s="19" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="20" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D271" s="21" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E271" s="20"/>
       <c r="F271" s="20"/>
@@ -16153,14 +16153,14 @@
     </row>
     <row r="272" spans="1:9" ht="19" customHeight="1">
       <c r="A272" s="19" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="20" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D272" s="20" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E272" s="20"/>
       <c r="F272" s="20"/>
@@ -16170,14 +16170,14 @@
     </row>
     <row r="273" spans="1:9" ht="19" customHeight="1">
       <c r="A273" s="19" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D273" s="21" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E273" s="20"/>
       <c r="F273" s="20"/>
@@ -16187,14 +16187,14 @@
     </row>
     <row r="274" spans="1:9" ht="19" customHeight="1">
       <c r="A274" s="19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="20" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D274" s="21" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -16204,14 +16204,14 @@
     </row>
     <row r="275" spans="1:9" ht="19" customHeight="1">
       <c r="A275" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="20" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D275" s="21" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
@@ -16221,14 +16221,14 @@
     </row>
     <row r="276" spans="1:9" ht="19" customHeight="1">
       <c r="A276" s="19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="20" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D276" s="21" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -16238,14 +16238,14 @@
     </row>
     <row r="277" spans="1:9" ht="19" customHeight="1">
       <c r="A277" s="19" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="20" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D277" s="21" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
@@ -16255,14 +16255,14 @@
     </row>
     <row r="278" spans="1:9" ht="19" customHeight="1">
       <c r="A278" s="19" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="20" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D278" s="20" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E278" s="20"/>
       <c r="F278" s="20"/>
@@ -16272,14 +16272,14 @@
     </row>
     <row r="279" spans="1:9" ht="19" customHeight="1">
       <c r="A279" s="19" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="20" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E279" s="20"/>
       <c r="F279" s="20"/>
@@ -16289,14 +16289,14 @@
     </row>
     <row r="280" spans="1:9" ht="19" customHeight="1">
       <c r="A280" s="19" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="20" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="D280" s="20" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="E280" s="20"/>
       <c r="F280" s="20"/>
@@ -16306,14 +16306,14 @@
     </row>
     <row r="281" spans="1:9" ht="19" customHeight="1">
       <c r="A281" s="19" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="20" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
@@ -16323,14 +16323,14 @@
     </row>
     <row r="282" spans="1:9" ht="19" customHeight="1">
       <c r="A282" s="19" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="20" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E282" s="20"/>
       <c r="F282" s="20"/>
@@ -16340,14 +16340,14 @@
     </row>
     <row r="283" spans="1:9" ht="19" customHeight="1">
       <c r="A283" s="19" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="20" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="D283" s="20" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
@@ -16357,14 +16357,14 @@
     </row>
     <row r="284" spans="1:9" ht="19" customHeight="1">
       <c r="A284" s="19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="20" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D284" s="21" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E284" s="20"/>
       <c r="F284" s="20"/>
@@ -16374,14 +16374,14 @@
     </row>
     <row r="285" spans="1:9" ht="19" customHeight="1">
       <c r="A285" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="20" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D285" s="21" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
@@ -16391,14 +16391,14 @@
     </row>
     <row r="286" spans="1:9" ht="19" customHeight="1">
       <c r="A286" s="19" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="20" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D286" s="20" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E286" s="20"/>
       <c r="F286" s="20"/>
@@ -16408,14 +16408,14 @@
     </row>
     <row r="287" spans="1:9" ht="19" customHeight="1">
       <c r="A287" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="20" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D287" s="20" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
@@ -16425,14 +16425,14 @@
     </row>
     <row r="288" spans="1:9" ht="19" customHeight="1">
       <c r="A288" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="20" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D288" s="21" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -16442,14 +16442,14 @@
     </row>
     <row r="289" spans="1:9" ht="19" customHeight="1">
       <c r="A289" s="19" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="20" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="E289" s="20"/>
       <c r="F289" s="20"/>
@@ -16459,14 +16459,14 @@
     </row>
     <row r="290" spans="1:9" ht="19" customHeight="1">
       <c r="A290" s="19" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="20" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D290" s="22" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -16476,14 +16476,14 @@
     </row>
     <row r="291" spans="1:9" ht="19" customHeight="1">
       <c r="A291" s="19" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="20" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="E291" s="20"/>
       <c r="F291" s="20"/>
@@ -16493,14 +16493,14 @@
     </row>
     <row r="292" spans="1:9" ht="19" customHeight="1">
       <c r="A292" s="19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="20" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D292" s="21" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -16510,14 +16510,14 @@
     </row>
     <row r="293" spans="1:9" ht="19" customHeight="1">
       <c r="A293" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="20" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D293" s="20" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E293" s="20"/>
       <c r="F293" s="20"/>
@@ -16527,14 +16527,14 @@
     </row>
     <row r="294" spans="1:9" ht="19" customHeight="1">
       <c r="A294" s="19" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="20" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D294" s="20" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -16544,14 +16544,14 @@
     </row>
     <row r="295" spans="1:9" ht="19" customHeight="1">
       <c r="A295" s="19" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D295" s="21" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
@@ -16561,14 +16561,14 @@
     </row>
     <row r="296" spans="1:9" ht="19" customHeight="1">
       <c r="A296" s="19" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="20" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D296" s="21" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -16578,14 +16578,14 @@
     </row>
     <row r="297" spans="1:9" ht="19" customHeight="1">
       <c r="A297" s="19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="20" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
@@ -16595,14 +16595,14 @@
     </row>
     <row r="298" spans="1:9" ht="19" customHeight="1">
       <c r="A298" s="19" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="20" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D298" s="21" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -16612,14 +16612,14 @@
     </row>
     <row r="299" spans="1:9" ht="19" customHeight="1">
       <c r="A299" s="19" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="20" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="D299" s="20" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="E299" s="20"/>
       <c r="F299" s="20"/>
@@ -16629,14 +16629,14 @@
     </row>
     <row r="300" spans="1:9" ht="19" customHeight="1">
       <c r="A300" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="20" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D300" s="21" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E300" s="20"/>
       <c r="F300" s="20"/>
@@ -16646,14 +16646,14 @@
     </row>
     <row r="301" spans="1:9" ht="19" customHeight="1">
       <c r="A301" s="19" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="20" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D301" s="21" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
@@ -16663,14 +16663,14 @@
     </row>
     <row r="302" spans="1:9" ht="19" customHeight="1">
       <c r="A302" s="19" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="20" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D302" s="20" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E302" s="20"/>
       <c r="F302" s="20"/>
@@ -16680,14 +16680,14 @@
     </row>
     <row r="303" spans="1:9" ht="19" customHeight="1">
       <c r="A303" s="19" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="20" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D303" s="21" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E303" s="20"/>
       <c r="F303" s="20"/>
@@ -16697,14 +16697,14 @@
     </row>
     <row r="304" spans="1:9" ht="19" customHeight="1">
       <c r="A304" s="19" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="20" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D304" s="21" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E304" s="20"/>
       <c r="F304" s="20"/>
@@ -16714,14 +16714,14 @@
     </row>
     <row r="305" spans="1:9" ht="19" customHeight="1">
       <c r="A305" s="19" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="20" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D305" s="21" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
@@ -16731,14 +16731,14 @@
     </row>
     <row r="306" spans="1:9" ht="19" customHeight="1">
       <c r="A306" s="19" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="20" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D306" s="22" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
@@ -16748,14 +16748,14 @@
     </row>
     <row r="307" spans="1:9" ht="19" customHeight="1">
       <c r="A307" s="19" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="20" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E307" s="20"/>
       <c r="F307" s="20"/>
@@ -16765,14 +16765,14 @@
     </row>
     <row r="308" spans="1:9" ht="19" customHeight="1">
       <c r="A308" s="19" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="20" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D308" s="21" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -16782,14 +16782,14 @@
     </row>
     <row r="309" spans="1:9" ht="19" customHeight="1">
       <c r="A309" s="19" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="20" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="E309" s="20"/>
       <c r="F309" s="20"/>
@@ -16799,14 +16799,14 @@
     </row>
     <row r="310" spans="1:9" ht="19" customHeight="1">
       <c r="A310" s="19" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="20" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D310" s="21" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E310" s="20"/>
       <c r="F310" s="20"/>
@@ -16816,14 +16816,14 @@
     </row>
     <row r="311" spans="1:9" ht="19" customHeight="1">
       <c r="A311" s="19" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="20" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D311" s="21" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E311" s="20"/>
       <c r="F311" s="20"/>
@@ -16833,14 +16833,14 @@
     </row>
     <row r="312" spans="1:9" ht="19" customHeight="1">
       <c r="A312" s="19" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="20" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D312" s="20" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="E312" s="20"/>
       <c r="F312" s="20"/>
@@ -16850,14 +16850,14 @@
     </row>
     <row r="313" spans="1:9" ht="19" customHeight="1">
       <c r="A313" s="19" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="27" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D313" s="27" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -16867,14 +16867,14 @@
     </row>
     <row r="314" spans="1:9" ht="19" customHeight="1">
       <c r="A314" s="19" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="20" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D314" s="20" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E314" s="20"/>
       <c r="F314" s="20"/>
@@ -16884,14 +16884,14 @@
     </row>
     <row r="315" spans="1:9" ht="19" customHeight="1">
       <c r="A315" s="19" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="20" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="E315" s="20"/>
       <c r="F315" s="20"/>
@@ -16901,14 +16901,14 @@
     </row>
     <row r="316" spans="1:9" ht="19" customHeight="1">
       <c r="A316" s="19" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="20" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D316" s="21" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E316" s="20"/>
       <c r="F316" s="20"/>
@@ -16918,14 +16918,14 @@
     </row>
     <row r="317" spans="1:9" ht="19" customHeight="1">
       <c r="A317" s="19" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="20" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -16935,14 +16935,14 @@
     </row>
     <row r="318" spans="1:9" ht="19" customHeight="1">
       <c r="A318" s="19" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="20" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D318" s="20" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E318" s="20"/>
       <c r="F318" s="20"/>
@@ -16952,14 +16952,14 @@
     </row>
     <row r="319" spans="1:9" ht="19" customHeight="1">
       <c r="A319" s="19" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="20" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D319" s="22" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E319" s="20"/>
       <c r="F319" s="20"/>
@@ -16969,14 +16969,14 @@
     </row>
     <row r="320" spans="1:9" ht="19" customHeight="1">
       <c r="A320" s="19" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="20" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D320" s="20" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -16986,14 +16986,14 @@
     </row>
     <row r="321" spans="1:9" ht="19" customHeight="1">
       <c r="A321" s="19" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="20" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D321" s="20" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E321" s="20"/>
       <c r="F321" s="20"/>
@@ -17003,14 +17003,14 @@
     </row>
     <row r="322" spans="1:9" ht="19" customHeight="1">
       <c r="A322" s="19" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="20" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D322" s="20" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="E322" s="20"/>
       <c r="F322" s="20"/>
@@ -17020,14 +17020,14 @@
     </row>
     <row r="323" spans="1:9" ht="19" customHeight="1">
       <c r="A323" s="19" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="20" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="D323" s="20" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="E323" s="20"/>
       <c r="F323" s="20"/>
@@ -17731,12 +17731,12 @@
   </sheetData>
   <autoFilter ref="A4:J209" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A234:E235 E221:G221 A221:C233 A257:E258 A284:E285 A259:C283 E259:E283 A307:E308 E286:E306 A324:G386 A322:E323 A309:C321 E309:E321 E222:E233 B65:G65 D115:D133 A215:G220 I8:I28 A8:G28 A286:C306 A66:G114 A236:C256 E236:E256 G222:G323 I215:I386 F222:F271 A115:C141 E115:G141 D138:D141 A142:G213 I30:I213 A30:G64">
+  <conditionalFormatting sqref="A234:E235 E221:G221 A221:C233 A257:E258 A284:E285 A259:C283 E259:E283 A307:E308 E286:E306 A324:G386 A322:E323 A309:C321 E309:E321 E222:E233 B65:G65 D115:D133 I8:I28 A8:G28 A286:C306 A66:G114 A236:C256 E236:E256 G222:G323 F222:F271 A115:C141 E115:G141 D138:D141 A30:G64 A217:G220 I217:I386 A142:G215 I30:I215">
     <cfRule type="expression" dxfId="130" priority="260">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H215:H386 H30:H85 H115:H213">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H217:H386 H115:H215">
     <cfRule type="cellIs" dxfId="129" priority="215" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
@@ -17750,7 +17750,7 @@
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H215:H386 H30:H85 H115:H213">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H217:H386 H115:H215">
     <cfRule type="cellIs" dxfId="125" priority="216" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -17767,7 +17767,7 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H215:H386 H30:H85 H115:H213">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H217:H386 H115:H215">
     <cfRule type="cellIs" dxfId="120" priority="218" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
@@ -17828,26 +17828,26 @@
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C214:G214 I214 A214">
+  <conditionalFormatting sqref="C216:G216 I216 A216">
     <cfRule type="expression" dxfId="105" priority="120">
-      <formula>$G214&lt;&gt;""</formula>
+      <formula>$G216&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H214">
+  <conditionalFormatting sqref="H216">
     <cfRule type="cellIs" dxfId="104" priority="110" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="103" priority="117" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",H214)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",H216)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="102" priority="118" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",H214)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",H216)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="101" priority="119" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H214)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H216)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H214">
+  <conditionalFormatting sqref="H216">
     <cfRule type="cellIs" dxfId="100" priority="111" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -17864,14 +17864,14 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H214">
+  <conditionalFormatting sqref="H216">
     <cfRule type="cellIs" dxfId="95" priority="113" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B214">
+  <conditionalFormatting sqref="B216">
     <cfRule type="expression" dxfId="94" priority="109">
-      <formula>$G214&lt;&gt;""</formula>
+      <formula>$G216&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D295:D296 D300:D321 D221:D242 D245 D249:D258 D262:D264 D268:D277 D284:D286 D290:D291">

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF4CA8F-C5FE-EF41-962F-A83B773FD213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45899F34-F1B3-A842-9766-D047B9982876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35860" yWindow="2320" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="1124">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -9604,6 +9604,52 @@
       </rPr>
       <t>をスキップする</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>couldNotFindConnectedAndroidDeviceByUdid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Android</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>端末を検出できません。(udid=${subject})</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>couldNotFindConnectedAndroidDeviceByVersion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Could not find a connected Android device. (platformVersion=${subject})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Android</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>端末を検出できません。(platformVersion=${subject})</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Could not find the connected Android device. (udid=${subject})</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9948,7 +9994,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{C40AA10B-FA57-1748-8D8E-3E12991DC054}"/>
   </cellStyles>
-  <dxfs count="131">
+  <dxfs count="132">
     <dxf>
       <fill>
         <patternFill>
@@ -10156,6 +10202,13 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11182,7 +11235,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I386"/>
+  <dimension ref="A1:I388"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -15966,14 +16019,14 @@
     </row>
     <row r="261" spans="1:9" ht="19" customHeight="1">
       <c r="A261" s="19" t="s">
-        <v>919</v>
+        <v>1118</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="20" t="s">
-        <v>921</v>
+        <v>1123</v>
       </c>
       <c r="D261" s="20" t="s">
-        <v>920</v>
+        <v>1119</v>
       </c>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
@@ -15983,14 +16036,14 @@
     </row>
     <row r="262" spans="1:9" ht="19" customHeight="1">
       <c r="A262" s="19" t="s">
-        <v>569</v>
+        <v>1120</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="D262" s="21" t="s">
-        <v>718</v>
+        <v>1121</v>
+      </c>
+      <c r="D262" s="20" t="s">
+        <v>1122</v>
       </c>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
@@ -16000,14 +16053,14 @@
     </row>
     <row r="263" spans="1:9" ht="19" customHeight="1">
       <c r="A263" s="19" t="s">
-        <v>571</v>
+        <v>919</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="D263" s="21" t="s">
-        <v>719</v>
+        <v>921</v>
+      </c>
+      <c r="D263" s="20" t="s">
+        <v>920</v>
       </c>
       <c r="E263" s="20"/>
       <c r="F263" s="20"/>
@@ -16017,14 +16070,14 @@
     </row>
     <row r="264" spans="1:9" ht="19" customHeight="1">
       <c r="A264" s="19" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="20" t="s">
-        <v>574</v>
-      </c>
-      <c r="D264" s="20" t="s">
-        <v>720</v>
+        <v>570</v>
+      </c>
+      <c r="D264" s="21" t="s">
+        <v>718</v>
       </c>
       <c r="E264" s="20"/>
       <c r="F264" s="20"/>
@@ -16034,14 +16087,14 @@
     </row>
     <row r="265" spans="1:9" ht="19" customHeight="1">
       <c r="A265" s="19" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="D265" s="20" t="s">
-        <v>721</v>
+        <v>572</v>
+      </c>
+      <c r="D265" s="21" t="s">
+        <v>719</v>
       </c>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
@@ -16051,14 +16104,14 @@
     </row>
     <row r="266" spans="1:9" ht="19" customHeight="1">
       <c r="A266" s="19" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="20" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D266" s="20" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E266" s="20"/>
       <c r="F266" s="20"/>
@@ -16068,14 +16121,14 @@
     </row>
     <row r="267" spans="1:9" ht="19" customHeight="1">
       <c r="A267" s="19" t="s">
-        <v>1040</v>
+        <v>575</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="20" t="s">
-        <v>1041</v>
+        <v>576</v>
       </c>
       <c r="D267" s="20" t="s">
-        <v>1042</v>
+        <v>721</v>
       </c>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
@@ -16085,14 +16138,14 @@
     </row>
     <row r="268" spans="1:9" ht="19" customHeight="1">
       <c r="A268" s="19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D268" s="20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E268" s="20"/>
       <c r="F268" s="20"/>
@@ -16102,14 +16155,14 @@
     </row>
     <row r="269" spans="1:9" ht="19" customHeight="1">
       <c r="A269" s="19" t="s">
-        <v>581</v>
+        <v>1040</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="20" t="s">
-        <v>582</v>
+        <v>1041</v>
       </c>
       <c r="D269" s="20" t="s">
-        <v>724</v>
+        <v>1042</v>
       </c>
       <c r="E269" s="20"/>
       <c r="F269" s="20"/>
@@ -16119,14 +16172,14 @@
     </row>
     <row r="270" spans="1:9" ht="19" customHeight="1">
       <c r="A270" s="19" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="D270" s="21" t="s">
-        <v>725</v>
+        <v>580</v>
+      </c>
+      <c r="D270" s="20" t="s">
+        <v>723</v>
       </c>
       <c r="E270" s="20"/>
       <c r="F270" s="20"/>
@@ -16136,14 +16189,14 @@
     </row>
     <row r="271" spans="1:9" ht="19" customHeight="1">
       <c r="A271" s="19" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="D271" s="21" t="s">
-        <v>726</v>
+        <v>582</v>
+      </c>
+      <c r="D271" s="20" t="s">
+        <v>724</v>
       </c>
       <c r="E271" s="20"/>
       <c r="F271" s="20"/>
@@ -16153,14 +16206,14 @@
     </row>
     <row r="272" spans="1:9" ht="19" customHeight="1">
       <c r="A272" s="19" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="20" t="s">
-        <v>588</v>
-      </c>
-      <c r="D272" s="20" t="s">
-        <v>727</v>
+        <v>584</v>
+      </c>
+      <c r="D272" s="21" t="s">
+        <v>725</v>
       </c>
       <c r="E272" s="20"/>
       <c r="F272" s="20"/>
@@ -16170,14 +16223,14 @@
     </row>
     <row r="273" spans="1:9" ht="19" customHeight="1">
       <c r="A273" s="19" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="20" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D273" s="21" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E273" s="20"/>
       <c r="F273" s="20"/>
@@ -16187,14 +16240,14 @@
     </row>
     <row r="274" spans="1:9" ht="19" customHeight="1">
       <c r="A274" s="19" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="20" t="s">
-        <v>592</v>
-      </c>
-      <c r="D274" s="21" t="s">
-        <v>729</v>
+        <v>588</v>
+      </c>
+      <c r="D274" s="20" t="s">
+        <v>727</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -16204,14 +16257,14 @@
     </row>
     <row r="275" spans="1:9" ht="19" customHeight="1">
       <c r="A275" s="19" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="20" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D275" s="21" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
@@ -16221,14 +16274,14 @@
     </row>
     <row r="276" spans="1:9" ht="19" customHeight="1">
       <c r="A276" s="19" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="20" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D276" s="21" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -16238,14 +16291,14 @@
     </row>
     <row r="277" spans="1:9" ht="19" customHeight="1">
       <c r="A277" s="19" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="20" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D277" s="21" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
@@ -16255,14 +16308,14 @@
     </row>
     <row r="278" spans="1:9" ht="19" customHeight="1">
       <c r="A278" s="19" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="20" t="s">
-        <v>600</v>
-      </c>
-      <c r="D278" s="20" t="s">
-        <v>733</v>
+        <v>596</v>
+      </c>
+      <c r="D278" s="21" t="s">
+        <v>731</v>
       </c>
       <c r="E278" s="20"/>
       <c r="F278" s="20"/>
@@ -16272,14 +16325,14 @@
     </row>
     <row r="279" spans="1:9" ht="19" customHeight="1">
       <c r="A279" s="19" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="20" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E279" s="20"/>
       <c r="F279" s="20"/>
@@ -16289,14 +16342,14 @@
     </row>
     <row r="280" spans="1:9" ht="19" customHeight="1">
       <c r="A280" s="19" t="s">
-        <v>960</v>
+        <v>599</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="20" t="s">
-        <v>961</v>
+        <v>600</v>
       </c>
       <c r="D280" s="20" t="s">
-        <v>962</v>
+        <v>733</v>
       </c>
       <c r="E280" s="20"/>
       <c r="F280" s="20"/>
@@ -16306,14 +16359,14 @@
     </row>
     <row r="281" spans="1:9" ht="19" customHeight="1">
       <c r="A281" s="19" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="20" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
@@ -16323,14 +16376,14 @@
     </row>
     <row r="282" spans="1:9" ht="19" customHeight="1">
       <c r="A282" s="19" t="s">
-        <v>605</v>
+        <v>960</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="20" t="s">
-        <v>606</v>
-      </c>
-      <c r="D282" s="21" t="s">
-        <v>736</v>
+        <v>961</v>
+      </c>
+      <c r="D282" s="20" t="s">
+        <v>962</v>
       </c>
       <c r="E282" s="20"/>
       <c r="F282" s="20"/>
@@ -16340,14 +16393,14 @@
     </row>
     <row r="283" spans="1:9" ht="19" customHeight="1">
       <c r="A283" s="19" t="s">
-        <v>1032</v>
+        <v>603</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="20" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D283" s="20" t="s">
-        <v>1034</v>
+        <v>604</v>
+      </c>
+      <c r="D283" s="21" t="s">
+        <v>735</v>
       </c>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
@@ -16357,14 +16410,14 @@
     </row>
     <row r="284" spans="1:9" ht="19" customHeight="1">
       <c r="A284" s="19" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="20" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D284" s="21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E284" s="20"/>
       <c r="F284" s="20"/>
@@ -16374,14 +16427,14 @@
     </row>
     <row r="285" spans="1:9" ht="19" customHeight="1">
       <c r="A285" s="19" t="s">
-        <v>609</v>
+        <v>1032</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="20" t="s">
-        <v>610</v>
-      </c>
-      <c r="D285" s="21" t="s">
-        <v>738</v>
+        <v>1033</v>
+      </c>
+      <c r="D285" s="20" t="s">
+        <v>1034</v>
       </c>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
@@ -16391,14 +16444,14 @@
     </row>
     <row r="286" spans="1:9" ht="19" customHeight="1">
       <c r="A286" s="19" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="20" t="s">
-        <v>612</v>
-      </c>
-      <c r="D286" s="20" t="s">
-        <v>739</v>
+        <v>608</v>
+      </c>
+      <c r="D286" s="21" t="s">
+        <v>737</v>
       </c>
       <c r="E286" s="20"/>
       <c r="F286" s="20"/>
@@ -16408,14 +16461,14 @@
     </row>
     <row r="287" spans="1:9" ht="19" customHeight="1">
       <c r="A287" s="19" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="D287" s="20" t="s">
-        <v>740</v>
+        <v>610</v>
+      </c>
+      <c r="D287" s="21" t="s">
+        <v>738</v>
       </c>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
@@ -16425,14 +16478,14 @@
     </row>
     <row r="288" spans="1:9" ht="19" customHeight="1">
       <c r="A288" s="19" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="D288" s="21" t="s">
-        <v>741</v>
+        <v>612</v>
+      </c>
+      <c r="D288" s="20" t="s">
+        <v>739</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -16442,14 +16495,14 @@
     </row>
     <row r="289" spans="1:9" ht="19" customHeight="1">
       <c r="A289" s="19" t="s">
-        <v>1089</v>
+        <v>613</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="20" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D289" s="21" t="s">
-        <v>1091</v>
+        <v>614</v>
+      </c>
+      <c r="D289" s="20" t="s">
+        <v>740</v>
       </c>
       <c r="E289" s="20"/>
       <c r="F289" s="20"/>
@@ -16459,14 +16512,14 @@
     </row>
     <row r="290" spans="1:9" ht="19" customHeight="1">
       <c r="A290" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="20" t="s">
-        <v>618</v>
-      </c>
-      <c r="D290" s="22" t="s">
-        <v>742</v>
+        <v>616</v>
+      </c>
+      <c r="D290" s="21" t="s">
+        <v>741</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -16476,14 +16529,14 @@
     </row>
     <row r="291" spans="1:9" ht="19" customHeight="1">
       <c r="A291" s="19" t="s">
-        <v>619</v>
+        <v>1089</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="20" t="s">
-        <v>620</v>
+        <v>1090</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>945</v>
+        <v>1091</v>
       </c>
       <c r="E291" s="20"/>
       <c r="F291" s="20"/>
@@ -16493,14 +16546,14 @@
     </row>
     <row r="292" spans="1:9" ht="19" customHeight="1">
       <c r="A292" s="19" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="D292" s="21" t="s">
-        <v>743</v>
+        <v>618</v>
+      </c>
+      <c r="D292" s="22" t="s">
+        <v>742</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -16510,14 +16563,14 @@
     </row>
     <row r="293" spans="1:9" ht="19" customHeight="1">
       <c r="A293" s="19" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="D293" s="20" t="s">
-        <v>744</v>
+        <v>620</v>
+      </c>
+      <c r="D293" s="21" t="s">
+        <v>945</v>
       </c>
       <c r="E293" s="20"/>
       <c r="F293" s="20"/>
@@ -16527,14 +16580,14 @@
     </row>
     <row r="294" spans="1:9" ht="19" customHeight="1">
       <c r="A294" s="19" t="s">
-        <v>957</v>
+        <v>621</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="20" t="s">
-        <v>958</v>
-      </c>
-      <c r="D294" s="20" t="s">
-        <v>959</v>
+        <v>622</v>
+      </c>
+      <c r="D294" s="21" t="s">
+        <v>743</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -16544,14 +16597,14 @@
     </row>
     <row r="295" spans="1:9" ht="19" customHeight="1">
       <c r="A295" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="20" t="s">
-        <v>626</v>
-      </c>
-      <c r="D295" s="21" t="s">
-        <v>745</v>
+        <v>624</v>
+      </c>
+      <c r="D295" s="20" t="s">
+        <v>744</v>
       </c>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
@@ -16561,14 +16614,14 @@
     </row>
     <row r="296" spans="1:9" ht="19" customHeight="1">
       <c r="A296" s="19" t="s">
-        <v>627</v>
+        <v>957</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="20" t="s">
-        <v>628</v>
-      </c>
-      <c r="D296" s="21" t="s">
-        <v>746</v>
+        <v>958</v>
+      </c>
+      <c r="D296" s="20" t="s">
+        <v>959</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -16578,14 +16631,14 @@
     </row>
     <row r="297" spans="1:9" ht="19" customHeight="1">
       <c r="A297" s="19" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="20" t="s">
-        <v>963</v>
+        <v>626</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>964</v>
+        <v>745</v>
       </c>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
@@ -16595,14 +16648,14 @@
     </row>
     <row r="298" spans="1:9" ht="19" customHeight="1">
       <c r="A298" s="19" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D298" s="21" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -16612,14 +16665,14 @@
     </row>
     <row r="299" spans="1:9" ht="19" customHeight="1">
       <c r="A299" s="19" t="s">
-        <v>965</v>
+        <v>629</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="20" t="s">
-        <v>966</v>
-      </c>
-      <c r="D299" s="20" t="s">
-        <v>967</v>
+        <v>963</v>
+      </c>
+      <c r="D299" s="21" t="s">
+        <v>964</v>
       </c>
       <c r="E299" s="20"/>
       <c r="F299" s="20"/>
@@ -16629,14 +16682,14 @@
     </row>
     <row r="300" spans="1:9" ht="19" customHeight="1">
       <c r="A300" s="19" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="20" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D300" s="21" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E300" s="20"/>
       <c r="F300" s="20"/>
@@ -16646,14 +16699,14 @@
     </row>
     <row r="301" spans="1:9" ht="19" customHeight="1">
       <c r="A301" s="19" t="s">
-        <v>634</v>
+        <v>965</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="20" t="s">
-        <v>635</v>
-      </c>
-      <c r="D301" s="21" t="s">
-        <v>749</v>
+        <v>966</v>
+      </c>
+      <c r="D301" s="20" t="s">
+        <v>967</v>
       </c>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
@@ -16663,14 +16716,14 @@
     </row>
     <row r="302" spans="1:9" ht="19" customHeight="1">
       <c r="A302" s="19" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="20" t="s">
-        <v>637</v>
-      </c>
-      <c r="D302" s="20" t="s">
-        <v>750</v>
+        <v>633</v>
+      </c>
+      <c r="D302" s="21" t="s">
+        <v>748</v>
       </c>
       <c r="E302" s="20"/>
       <c r="F302" s="20"/>
@@ -16680,14 +16733,14 @@
     </row>
     <row r="303" spans="1:9" ht="19" customHeight="1">
       <c r="A303" s="19" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="20" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D303" s="21" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E303" s="20"/>
       <c r="F303" s="20"/>
@@ -16697,14 +16750,14 @@
     </row>
     <row r="304" spans="1:9" ht="19" customHeight="1">
       <c r="A304" s="19" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="20" t="s">
-        <v>641</v>
-      </c>
-      <c r="D304" s="21" t="s">
-        <v>752</v>
+        <v>637</v>
+      </c>
+      <c r="D304" s="20" t="s">
+        <v>750</v>
       </c>
       <c r="E304" s="20"/>
       <c r="F304" s="20"/>
@@ -16714,14 +16767,14 @@
     </row>
     <row r="305" spans="1:9" ht="19" customHeight="1">
       <c r="A305" s="19" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="20" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D305" s="21" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
@@ -16731,14 +16784,14 @@
     </row>
     <row r="306" spans="1:9" ht="19" customHeight="1">
       <c r="A306" s="19" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="20" t="s">
-        <v>645</v>
-      </c>
-      <c r="D306" s="22" t="s">
-        <v>754</v>
+        <v>641</v>
+      </c>
+      <c r="D306" s="21" t="s">
+        <v>752</v>
       </c>
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
@@ -16748,14 +16801,14 @@
     </row>
     <row r="307" spans="1:9" ht="19" customHeight="1">
       <c r="A307" s="19" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="20" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E307" s="20"/>
       <c r="F307" s="20"/>
@@ -16765,14 +16818,14 @@
     </row>
     <row r="308" spans="1:9" ht="19" customHeight="1">
       <c r="A308" s="19" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="20" t="s">
-        <v>648</v>
-      </c>
-      <c r="D308" s="21" t="s">
-        <v>756</v>
+        <v>645</v>
+      </c>
+      <c r="D308" s="22" t="s">
+        <v>754</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -16782,14 +16835,14 @@
     </row>
     <row r="309" spans="1:9" ht="19" customHeight="1">
       <c r="A309" s="19" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="20" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E309" s="20"/>
       <c r="F309" s="20"/>
@@ -16799,14 +16852,14 @@
     </row>
     <row r="310" spans="1:9" ht="19" customHeight="1">
       <c r="A310" s="19" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="20" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D310" s="21" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E310" s="20"/>
       <c r="F310" s="20"/>
@@ -16816,14 +16869,14 @@
     </row>
     <row r="311" spans="1:9" ht="19" customHeight="1">
       <c r="A311" s="19" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="20" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D311" s="21" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E311" s="20"/>
       <c r="F311" s="20"/>
@@ -16833,14 +16886,14 @@
     </row>
     <row r="312" spans="1:9" ht="19" customHeight="1">
       <c r="A312" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="20" t="s">
-        <v>657</v>
-      </c>
-      <c r="D312" s="20" t="s">
-        <v>760</v>
+        <v>653</v>
+      </c>
+      <c r="D312" s="21" t="s">
+        <v>758</v>
       </c>
       <c r="E312" s="20"/>
       <c r="F312" s="20"/>
@@ -16850,14 +16903,14 @@
     </row>
     <row r="313" spans="1:9" ht="19" customHeight="1">
       <c r="A313" s="19" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B313" s="20"/>
-      <c r="C313" s="27" t="s">
-        <v>659</v>
-      </c>
-      <c r="D313" s="27" t="s">
-        <v>761</v>
+      <c r="C313" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="D313" s="21" t="s">
+        <v>759</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -16867,14 +16920,14 @@
     </row>
     <row r="314" spans="1:9" ht="19" customHeight="1">
       <c r="A314" s="19" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="20" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D314" s="20" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E314" s="20"/>
       <c r="F314" s="20"/>
@@ -16884,14 +16937,14 @@
     </row>
     <row r="315" spans="1:9" ht="19" customHeight="1">
       <c r="A315" s="19" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B315" s="20"/>
-      <c r="C315" s="20" t="s">
-        <v>663</v>
-      </c>
-      <c r="D315" s="21" t="s">
-        <v>763</v>
+      <c r="C315" s="27" t="s">
+        <v>659</v>
+      </c>
+      <c r="D315" s="27" t="s">
+        <v>761</v>
       </c>
       <c r="E315" s="20"/>
       <c r="F315" s="20"/>
@@ -16901,14 +16954,14 @@
     </row>
     <row r="316" spans="1:9" ht="19" customHeight="1">
       <c r="A316" s="19" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="D316" s="21" t="s">
-        <v>764</v>
+        <v>661</v>
+      </c>
+      <c r="D316" s="20" t="s">
+        <v>762</v>
       </c>
       <c r="E316" s="20"/>
       <c r="F316" s="20"/>
@@ -16918,14 +16971,14 @@
     </row>
     <row r="317" spans="1:9" ht="19" customHeight="1">
       <c r="A317" s="19" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="20" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -16935,14 +16988,14 @@
     </row>
     <row r="318" spans="1:9" ht="19" customHeight="1">
       <c r="A318" s="19" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="20" t="s">
-        <v>669</v>
-      </c>
-      <c r="D318" s="20" t="s">
-        <v>766</v>
+        <v>665</v>
+      </c>
+      <c r="D318" s="21" t="s">
+        <v>764</v>
       </c>
       <c r="E318" s="20"/>
       <c r="F318" s="20"/>
@@ -16952,14 +17005,14 @@
     </row>
     <row r="319" spans="1:9" ht="19" customHeight="1">
       <c r="A319" s="19" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="20" t="s">
-        <v>671</v>
-      </c>
-      <c r="D319" s="22" t="s">
-        <v>767</v>
+        <v>667</v>
+      </c>
+      <c r="D319" s="21" t="s">
+        <v>765</v>
       </c>
       <c r="E319" s="20"/>
       <c r="F319" s="20"/>
@@ -16969,14 +17022,14 @@
     </row>
     <row r="320" spans="1:9" ht="19" customHeight="1">
       <c r="A320" s="19" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="20" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D320" s="20" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -16986,14 +17039,14 @@
     </row>
     <row r="321" spans="1:9" ht="19" customHeight="1">
       <c r="A321" s="19" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="20" t="s">
-        <v>675</v>
-      </c>
-      <c r="D321" s="20" t="s">
-        <v>769</v>
+        <v>671</v>
+      </c>
+      <c r="D321" s="22" t="s">
+        <v>767</v>
       </c>
       <c r="E321" s="20"/>
       <c r="F321" s="20"/>
@@ -17003,14 +17056,14 @@
     </row>
     <row r="322" spans="1:9" ht="19" customHeight="1">
       <c r="A322" s="19" t="s">
-        <v>954</v>
+        <v>672</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="20" t="s">
-        <v>955</v>
+        <v>673</v>
       </c>
       <c r="D322" s="20" t="s">
-        <v>956</v>
+        <v>768</v>
       </c>
       <c r="E322" s="20"/>
       <c r="F322" s="20"/>
@@ -17020,14 +17073,14 @@
     </row>
     <row r="323" spans="1:9" ht="19" customHeight="1">
       <c r="A323" s="19" t="s">
-        <v>1081</v>
+        <v>674</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="20" t="s">
-        <v>1082</v>
+        <v>675</v>
       </c>
       <c r="D323" s="20" t="s">
-        <v>1083</v>
+        <v>769</v>
       </c>
       <c r="E323" s="20"/>
       <c r="F323" s="20"/>
@@ -17036,10 +17089,16 @@
       <c r="I323" s="18"/>
     </row>
     <row r="324" spans="1:9" ht="19" customHeight="1">
-      <c r="A324" s="19"/>
+      <c r="A324" s="19" t="s">
+        <v>954</v>
+      </c>
       <c r="B324" s="20"/>
-      <c r="C324" s="20"/>
-      <c r="D324" s="20"/>
+      <c r="C324" s="20" t="s">
+        <v>955</v>
+      </c>
+      <c r="D324" s="20" t="s">
+        <v>956</v>
+      </c>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
       <c r="G324" s="18"/>
@@ -17047,10 +17106,16 @@
       <c r="I324" s="18"/>
     </row>
     <row r="325" spans="1:9" ht="19" customHeight="1">
-      <c r="A325" s="19"/>
+      <c r="A325" s="19" t="s">
+        <v>1081</v>
+      </c>
       <c r="B325" s="20"/>
-      <c r="C325" s="20"/>
-      <c r="D325" s="20"/>
+      <c r="C325" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D325" s="20" t="s">
+        <v>1083</v>
+      </c>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
       <c r="G325" s="18"/>
@@ -17728,400 +17793,427 @@
       <c r="H386" s="17"/>
       <c r="I386" s="18"/>
     </row>
+    <row r="387" spans="1:9" ht="19" customHeight="1">
+      <c r="A387" s="19"/>
+      <c r="B387" s="20"/>
+      <c r="C387" s="20"/>
+      <c r="D387" s="20"/>
+      <c r="E387" s="20"/>
+      <c r="F387" s="20"/>
+      <c r="G387" s="18"/>
+      <c r="H387" s="17"/>
+      <c r="I387" s="18"/>
+    </row>
+    <row r="388" spans="1:9" ht="19" customHeight="1">
+      <c r="A388" s="19"/>
+      <c r="B388" s="20"/>
+      <c r="C388" s="20"/>
+      <c r="D388" s="20"/>
+      <c r="E388" s="20"/>
+      <c r="F388" s="20"/>
+      <c r="G388" s="18"/>
+      <c r="H388" s="17"/>
+      <c r="I388" s="18"/>
+    </row>
   </sheetData>
   <autoFilter ref="A4:J209" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A234:E235 E221:G221 A221:C233 A257:E258 A284:E285 A259:C283 E259:E283 A307:E308 E286:E306 A324:G386 A322:E323 A309:C321 E309:E321 E222:E233 B65:G65 D115:D133 I8:I28 A8:G28 A286:C306 A66:G114 A236:C256 E236:E256 G222:G323 F222:F271 A115:C141 E115:G141 D138:D141 A30:G64 A217:G220 I217:I386 A142:G215 I30:I215">
-    <cfRule type="expression" dxfId="130" priority="260">
+  <conditionalFormatting sqref="A234:E235 E221:G221 A221:C233 A257:E258 A286:E287 A309:E310 E288:E308 A326:G388 A324:E325 A311:C323 E311:E323 E222:E233 B65:G65 D115:D133 I8:I28 A8:G28 A288:C308 A66:G114 A236:C256 E236:E256 A115:C141 E115:G141 D138:D141 A30:G64 A217:G220 A142:G215 I30:I215 E259 F222:G259 F263:F273 G263:G325 E263:E285 E260:G262 A259:C285 I217:I388">
+    <cfRule type="expression" dxfId="131" priority="260">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H217:H386 H115:H215">
-    <cfRule type="cellIs" dxfId="129" priority="215" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H388">
+    <cfRule type="cellIs" dxfId="130" priority="215" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="222" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="129" priority="222" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="223" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="128" priority="223" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="224" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="127" priority="224" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H217:H386 H115:H215">
-    <cfRule type="cellIs" dxfId="125" priority="216" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H388">
+    <cfRule type="cellIs" dxfId="126" priority="216" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="217" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="217" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="219" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="219" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="220" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="220" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="221" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="221" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H217:H386 H115:H215">
-    <cfRule type="cellIs" dxfId="120" priority="218" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H388">
+    <cfRule type="cellIs" dxfId="121" priority="218" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134:D135">
-    <cfRule type="expression" dxfId="119" priority="139">
+    <cfRule type="expression" dxfId="120" priority="139">
       <formula>$G134&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136:D137">
-    <cfRule type="expression" dxfId="118" priority="138">
+    <cfRule type="expression" dxfId="119" priority="138">
       <formula>$G136&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5 I5 A5">
-    <cfRule type="expression" dxfId="117" priority="132">
+    <cfRule type="expression" dxfId="118" priority="132">
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="116" priority="122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="122" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="129" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="116" priority="129" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="130" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="115" priority="130" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="131" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="114" priority="131" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="112" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="123" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="124" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="126" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="127" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="128" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="107" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="125" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="106" priority="121">
+    <cfRule type="expression" dxfId="107" priority="121">
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C216:G216 I216 A216">
-    <cfRule type="expression" dxfId="105" priority="120">
+    <cfRule type="expression" dxfId="106" priority="120">
       <formula>$G216&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H216">
-    <cfRule type="cellIs" dxfId="104" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="110" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="117" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="104" priority="117" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="118" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="103" priority="118" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="119" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="102" priority="119" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H216)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H216">
-    <cfRule type="cellIs" dxfId="100" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="111" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="112" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="114" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="115" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="116" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H216">
-    <cfRule type="cellIs" dxfId="95" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="113" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B216">
-    <cfRule type="expression" dxfId="94" priority="109">
+    <cfRule type="expression" dxfId="95" priority="109">
       <formula>$G216&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D295:D296 D300:D321 D221:D242 D245 D249:D258 D262:D264 D268:D277 D284:D286 D290:D291">
-    <cfRule type="expression" dxfId="93" priority="262">
+  <conditionalFormatting sqref="D297:D298 D302:D323 D221:D242 D245 D264:D266 D270:D279 D286:D288 D292:D293 D249:D258">
+    <cfRule type="expression" dxfId="94" priority="262">
       <formula>$G223&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F272:F323">
-    <cfRule type="expression" dxfId="92" priority="108">
-      <formula>$G272&lt;&gt;""</formula>
+  <conditionalFormatting sqref="F274:F325">
+    <cfRule type="expression" dxfId="93" priority="108">
+      <formula>$G274&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6 I6 C6:G6">
-    <cfRule type="expression" dxfId="91" priority="93">
+    <cfRule type="expression" dxfId="92" priority="93">
       <formula>$G6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="90" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="83" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="90" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="90" priority="90" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="91" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="89" priority="91" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="92" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="88" priority="92" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="86" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="84" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="85" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="87" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="88" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="89" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="81" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="86" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7 I7 E7:G7">
-    <cfRule type="expression" dxfId="80" priority="82">
+    <cfRule type="expression" dxfId="81" priority="82">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="79" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="72" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="79" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="79" priority="79" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="80" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="78" priority="80" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="81" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="77" priority="81" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="73" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="74" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="76" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="77" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="78" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="70" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="75" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="69" priority="71">
+    <cfRule type="expression" dxfId="70" priority="71">
       <formula>$G6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="68" priority="70">
+    <cfRule type="expression" dxfId="69" priority="70">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="67" priority="69">
+    <cfRule type="expression" dxfId="68" priority="69">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="expression" dxfId="66" priority="57">
+    <cfRule type="expression" dxfId="67" priority="57">
       <formula>$G65&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114">
-    <cfRule type="cellIs" dxfId="65" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="46" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="53" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="65" priority="53" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="54" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="64" priority="54" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="55" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="63" priority="55" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114">
-    <cfRule type="cellIs" dxfId="61" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="47" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="48" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="50" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="51" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="52" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114">
-    <cfRule type="cellIs" dxfId="56" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="49" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:G29 I29">
-    <cfRule type="expression" dxfId="55" priority="23">
+    <cfRule type="expression" dxfId="56" priority="23">
       <formula>$G29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="54" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="20" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="54" priority="20" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="21" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="53" priority="21" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="22" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="52" priority="22" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="50" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="14" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="15" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="17" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="18" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="19" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="45" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="16" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D259:D261 D292:D294 D297:D299 D281:D283 D278:D279 D246:D248 D265:D266 D287:D289">
-    <cfRule type="expression" dxfId="44" priority="265">
+  <conditionalFormatting sqref="D294:D296 D299:D301 D283:D285 D280:D281 D246:D248 D267:D268 D289:D291 D261:D263">
+    <cfRule type="expression" dxfId="45" priority="265">
       <formula>$G249&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="43" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="9" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="43" priority="9" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="10" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="42" priority="10" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="11" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="41" priority="11" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="3" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="6" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="7" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="8" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="34" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D280">
-    <cfRule type="expression" dxfId="33" priority="269">
-      <formula>$G284&lt;&gt;""</formula>
+  <conditionalFormatting sqref="D282">
+    <cfRule type="expression" dxfId="34" priority="269">
+      <formula>$G286&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D244">
-    <cfRule type="expression" dxfId="32" priority="300">
+    <cfRule type="expression" dxfId="33" priority="300">
       <formula>$G245&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243">
-    <cfRule type="expression" dxfId="31" priority="301">
+    <cfRule type="expression" dxfId="32" priority="301">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D267">
-    <cfRule type="expression" dxfId="30" priority="1">
-      <formula>$G267&lt;&gt;""</formula>
+  <conditionalFormatting sqref="D269">
+    <cfRule type="expression" dxfId="31" priority="1">
+      <formula>$G269&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D259:D260">
+    <cfRule type="expression" dxfId="30" priority="303">
+      <formula>$G264&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45899F34-F1B3-A842-9766-D047B9982876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B794484-2A38-354C-A27E-2D0B77B2C0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35860" yWindow="2320" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">message!$A$4:$J$209</definedName>
     <definedName name="実施結果">List!$A$3:$A$12</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="1133">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -9650,6 +9650,65 @@
   </si>
   <si>
     <t>Could not find the connected Android device. (udid=${subject})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>couldNotFindIosDevice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>searchingDeviceForProfile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Searching device for (profileName=${subject})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末を検索しています。 (profileName=${subject})</t>
+    <rPh sb="0" eb="2">
+      <t>タンマテゥ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deviceFound</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Device found. (${subject})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末が見つかりました。(${subject})</t>
+    <rPh sb="0" eb="2">
+      <t>タンマテゥ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミツカリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Could not find iOS device. (${subject})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>iOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>端末を検出できません。(${subject})</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9994,7 +10053,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{C40AA10B-FA57-1748-8D8E-3E12991DC054}"/>
   </cellStyles>
-  <dxfs count="132">
+  <dxfs count="135">
     <dxf>
       <fill>
         <patternFill>
@@ -10202,6 +10261,27 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11235,7 +11315,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I388"/>
+  <dimension ref="A1:I391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -16053,14 +16133,14 @@
     </row>
     <row r="263" spans="1:9" ht="19" customHeight="1">
       <c r="A263" s="19" t="s">
-        <v>919</v>
+        <v>1124</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="20" t="s">
-        <v>921</v>
+        <v>1131</v>
       </c>
       <c r="D263" s="20" t="s">
-        <v>920</v>
+        <v>1132</v>
       </c>
       <c r="E263" s="20"/>
       <c r="F263" s="20"/>
@@ -16070,14 +16150,14 @@
     </row>
     <row r="264" spans="1:9" ht="19" customHeight="1">
       <c r="A264" s="19" t="s">
-        <v>569</v>
+        <v>919</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="D264" s="21" t="s">
-        <v>718</v>
+        <v>921</v>
+      </c>
+      <c r="D264" s="20" t="s">
+        <v>920</v>
       </c>
       <c r="E264" s="20"/>
       <c r="F264" s="20"/>
@@ -16087,14 +16167,14 @@
     </row>
     <row r="265" spans="1:9" ht="19" customHeight="1">
       <c r="A265" s="19" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D265" s="21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
@@ -16104,14 +16184,14 @@
     </row>
     <row r="266" spans="1:9" ht="19" customHeight="1">
       <c r="A266" s="19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="20" t="s">
-        <v>574</v>
-      </c>
-      <c r="D266" s="20" t="s">
-        <v>720</v>
+        <v>572</v>
+      </c>
+      <c r="D266" s="21" t="s">
+        <v>719</v>
       </c>
       <c r="E266" s="20"/>
       <c r="F266" s="20"/>
@@ -16121,14 +16201,14 @@
     </row>
     <row r="267" spans="1:9" ht="19" customHeight="1">
       <c r="A267" s="19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="20" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D267" s="20" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
@@ -16138,14 +16218,14 @@
     </row>
     <row r="268" spans="1:9" ht="19" customHeight="1">
       <c r="A268" s="19" t="s">
-        <v>577</v>
+        <v>1125</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="20" t="s">
-        <v>578</v>
+        <v>1126</v>
       </c>
       <c r="D268" s="20" t="s">
-        <v>722</v>
+        <v>1127</v>
       </c>
       <c r="E268" s="20"/>
       <c r="F268" s="20"/>
@@ -16155,14 +16235,14 @@
     </row>
     <row r="269" spans="1:9" ht="19" customHeight="1">
       <c r="A269" s="19" t="s">
-        <v>1040</v>
+        <v>1128</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="20" t="s">
-        <v>1041</v>
+        <v>1129</v>
       </c>
       <c r="D269" s="20" t="s">
-        <v>1042</v>
+        <v>1130</v>
       </c>
       <c r="E269" s="20"/>
       <c r="F269" s="20"/>
@@ -16172,14 +16252,14 @@
     </row>
     <row r="270" spans="1:9" ht="19" customHeight="1">
       <c r="A270" s="19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D270" s="20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E270" s="20"/>
       <c r="F270" s="20"/>
@@ -16189,14 +16269,14 @@
     </row>
     <row r="271" spans="1:9" ht="19" customHeight="1">
       <c r="A271" s="19" t="s">
-        <v>581</v>
+        <v>1040</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="20" t="s">
-        <v>582</v>
+        <v>1041</v>
       </c>
       <c r="D271" s="20" t="s">
-        <v>724</v>
+        <v>1042</v>
       </c>
       <c r="E271" s="20"/>
       <c r="F271" s="20"/>
@@ -16206,14 +16286,14 @@
     </row>
     <row r="272" spans="1:9" ht="19" customHeight="1">
       <c r="A272" s="19" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="D272" s="21" t="s">
-        <v>725</v>
+        <v>576</v>
+      </c>
+      <c r="D272" s="20" t="s">
+        <v>721</v>
       </c>
       <c r="E272" s="20"/>
       <c r="F272" s="20"/>
@@ -16223,14 +16303,14 @@
     </row>
     <row r="273" spans="1:9" ht="19" customHeight="1">
       <c r="A273" s="19" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="D273" s="21" t="s">
-        <v>726</v>
+        <v>580</v>
+      </c>
+      <c r="D273" s="20" t="s">
+        <v>723</v>
       </c>
       <c r="E273" s="20"/>
       <c r="F273" s="20"/>
@@ -16240,14 +16320,14 @@
     </row>
     <row r="274" spans="1:9" ht="19" customHeight="1">
       <c r="A274" s="19" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="20" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -16257,14 +16337,14 @@
     </row>
     <row r="275" spans="1:9" ht="19" customHeight="1">
       <c r="A275" s="19" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="20" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D275" s="21" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
@@ -16274,14 +16354,14 @@
     </row>
     <row r="276" spans="1:9" ht="19" customHeight="1">
       <c r="A276" s="19" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="20" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D276" s="21" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -16291,14 +16371,14 @@
     </row>
     <row r="277" spans="1:9" ht="19" customHeight="1">
       <c r="A277" s="19" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="D277" s="21" t="s">
-        <v>730</v>
+        <v>588</v>
+      </c>
+      <c r="D277" s="20" t="s">
+        <v>727</v>
       </c>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
@@ -16308,14 +16388,14 @@
     </row>
     <row r="278" spans="1:9" ht="19" customHeight="1">
       <c r="A278" s="19" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="20" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D278" s="21" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E278" s="20"/>
       <c r="F278" s="20"/>
@@ -16325,14 +16405,14 @@
     </row>
     <row r="279" spans="1:9" ht="19" customHeight="1">
       <c r="A279" s="19" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="20" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E279" s="20"/>
       <c r="F279" s="20"/>
@@ -16342,14 +16422,14 @@
     </row>
     <row r="280" spans="1:9" ht="19" customHeight="1">
       <c r="A280" s="19" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="20" t="s">
-        <v>600</v>
-      </c>
-      <c r="D280" s="20" t="s">
-        <v>733</v>
+        <v>594</v>
+      </c>
+      <c r="D280" s="21" t="s">
+        <v>730</v>
       </c>
       <c r="E280" s="20"/>
       <c r="F280" s="20"/>
@@ -16359,14 +16439,14 @@
     </row>
     <row r="281" spans="1:9" ht="19" customHeight="1">
       <c r="A281" s="19" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="20" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
@@ -16376,14 +16456,14 @@
     </row>
     <row r="282" spans="1:9" ht="19" customHeight="1">
       <c r="A282" s="19" t="s">
-        <v>960</v>
+        <v>597</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="20" t="s">
-        <v>961</v>
-      </c>
-      <c r="D282" s="20" t="s">
-        <v>962</v>
+        <v>598</v>
+      </c>
+      <c r="D282" s="21" t="s">
+        <v>732</v>
       </c>
       <c r="E282" s="20"/>
       <c r="F282" s="20"/>
@@ -16393,14 +16473,14 @@
     </row>
     <row r="283" spans="1:9" ht="19" customHeight="1">
       <c r="A283" s="19" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="20" t="s">
-        <v>604</v>
-      </c>
-      <c r="D283" s="21" t="s">
-        <v>735</v>
+        <v>600</v>
+      </c>
+      <c r="D283" s="20" t="s">
+        <v>733</v>
       </c>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
@@ -16410,14 +16490,14 @@
     </row>
     <row r="284" spans="1:9" ht="19" customHeight="1">
       <c r="A284" s="19" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="20" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D284" s="21" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E284" s="20"/>
       <c r="F284" s="20"/>
@@ -16427,14 +16507,14 @@
     </row>
     <row r="285" spans="1:9" ht="19" customHeight="1">
       <c r="A285" s="19" t="s">
-        <v>1032</v>
+        <v>960</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="20" t="s">
-        <v>1033</v>
+        <v>961</v>
       </c>
       <c r="D285" s="20" t="s">
-        <v>1034</v>
+        <v>962</v>
       </c>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
@@ -16444,14 +16524,14 @@
     </row>
     <row r="286" spans="1:9" ht="19" customHeight="1">
       <c r="A286" s="19" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="20" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D286" s="21" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E286" s="20"/>
       <c r="F286" s="20"/>
@@ -16461,14 +16541,14 @@
     </row>
     <row r="287" spans="1:9" ht="19" customHeight="1">
       <c r="A287" s="19" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="20" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D287" s="21" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
@@ -16478,14 +16558,14 @@
     </row>
     <row r="288" spans="1:9" ht="19" customHeight="1">
       <c r="A288" s="19" t="s">
-        <v>611</v>
+        <v>1032</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="20" t="s">
-        <v>612</v>
+        <v>1033</v>
       </c>
       <c r="D288" s="20" t="s">
-        <v>739</v>
+        <v>1034</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -16495,14 +16575,14 @@
     </row>
     <row r="289" spans="1:9" ht="19" customHeight="1">
       <c r="A289" s="19" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="D289" s="20" t="s">
-        <v>740</v>
+        <v>608</v>
+      </c>
+      <c r="D289" s="21" t="s">
+        <v>737</v>
       </c>
       <c r="E289" s="20"/>
       <c r="F289" s="20"/>
@@ -16512,14 +16592,14 @@
     </row>
     <row r="290" spans="1:9" ht="19" customHeight="1">
       <c r="A290" s="19" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="20" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D290" s="21" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -16529,14 +16609,14 @@
     </row>
     <row r="291" spans="1:9" ht="19" customHeight="1">
       <c r="A291" s="19" t="s">
-        <v>1089</v>
+        <v>611</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="20" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D291" s="21" t="s">
-        <v>1091</v>
+        <v>612</v>
+      </c>
+      <c r="D291" s="20" t="s">
+        <v>739</v>
       </c>
       <c r="E291" s="20"/>
       <c r="F291" s="20"/>
@@ -16546,14 +16626,14 @@
     </row>
     <row r="292" spans="1:9" ht="19" customHeight="1">
       <c r="A292" s="19" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="20" t="s">
-        <v>618</v>
-      </c>
-      <c r="D292" s="22" t="s">
-        <v>742</v>
+        <v>614</v>
+      </c>
+      <c r="D292" s="20" t="s">
+        <v>740</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -16563,14 +16643,14 @@
     </row>
     <row r="293" spans="1:9" ht="19" customHeight="1">
       <c r="A293" s="19" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="20" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D293" s="21" t="s">
-        <v>945</v>
+        <v>741</v>
       </c>
       <c r="E293" s="20"/>
       <c r="F293" s="20"/>
@@ -16580,14 +16660,14 @@
     </row>
     <row r="294" spans="1:9" ht="19" customHeight="1">
       <c r="A294" s="19" t="s">
-        <v>621</v>
+        <v>1089</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="20" t="s">
-        <v>622</v>
+        <v>1090</v>
       </c>
       <c r="D294" s="21" t="s">
-        <v>743</v>
+        <v>1091</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -16597,14 +16677,14 @@
     </row>
     <row r="295" spans="1:9" ht="19" customHeight="1">
       <c r="A295" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="D295" s="20" t="s">
-        <v>744</v>
+        <v>618</v>
+      </c>
+      <c r="D295" s="22" t="s">
+        <v>742</v>
       </c>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
@@ -16614,14 +16694,14 @@
     </row>
     <row r="296" spans="1:9" ht="19" customHeight="1">
       <c r="A296" s="19" t="s">
-        <v>957</v>
+        <v>619</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="20" t="s">
-        <v>958</v>
-      </c>
-      <c r="D296" s="20" t="s">
-        <v>959</v>
+        <v>620</v>
+      </c>
+      <c r="D296" s="21" t="s">
+        <v>945</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -16631,14 +16711,14 @@
     </row>
     <row r="297" spans="1:9" ht="19" customHeight="1">
       <c r="A297" s="19" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="20" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
@@ -16648,14 +16728,14 @@
     </row>
     <row r="298" spans="1:9" ht="19" customHeight="1">
       <c r="A298" s="19" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="20" t="s">
-        <v>628</v>
-      </c>
-      <c r="D298" s="21" t="s">
-        <v>746</v>
+        <v>624</v>
+      </c>
+      <c r="D298" s="20" t="s">
+        <v>744</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -16665,14 +16745,14 @@
     </row>
     <row r="299" spans="1:9" ht="19" customHeight="1">
       <c r="A299" s="19" t="s">
-        <v>629</v>
+        <v>957</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="20" t="s">
-        <v>963</v>
-      </c>
-      <c r="D299" s="21" t="s">
-        <v>964</v>
+        <v>958</v>
+      </c>
+      <c r="D299" s="20" t="s">
+        <v>959</v>
       </c>
       <c r="E299" s="20"/>
       <c r="F299" s="20"/>
@@ -16682,14 +16762,14 @@
     </row>
     <row r="300" spans="1:9" ht="19" customHeight="1">
       <c r="A300" s="19" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="20" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D300" s="21" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E300" s="20"/>
       <c r="F300" s="20"/>
@@ -16699,14 +16779,14 @@
     </row>
     <row r="301" spans="1:9" ht="19" customHeight="1">
       <c r="A301" s="19" t="s">
-        <v>965</v>
+        <v>627</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="20" t="s">
-        <v>966</v>
-      </c>
-      <c r="D301" s="20" t="s">
-        <v>967</v>
+        <v>628</v>
+      </c>
+      <c r="D301" s="21" t="s">
+        <v>746</v>
       </c>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
@@ -16716,14 +16796,14 @@
     </row>
     <row r="302" spans="1:9" ht="19" customHeight="1">
       <c r="A302" s="19" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="20" t="s">
-        <v>633</v>
+        <v>963</v>
       </c>
       <c r="D302" s="21" t="s">
-        <v>748</v>
+        <v>964</v>
       </c>
       <c r="E302" s="20"/>
       <c r="F302" s="20"/>
@@ -16733,14 +16813,14 @@
     </row>
     <row r="303" spans="1:9" ht="19" customHeight="1">
       <c r="A303" s="19" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="20" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D303" s="21" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E303" s="20"/>
       <c r="F303" s="20"/>
@@ -16750,14 +16830,14 @@
     </row>
     <row r="304" spans="1:9" ht="19" customHeight="1">
       <c r="A304" s="19" t="s">
-        <v>636</v>
+        <v>965</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="20" t="s">
-        <v>637</v>
+        <v>966</v>
       </c>
       <c r="D304" s="20" t="s">
-        <v>750</v>
+        <v>967</v>
       </c>
       <c r="E304" s="20"/>
       <c r="F304" s="20"/>
@@ -16767,14 +16847,14 @@
     </row>
     <row r="305" spans="1:9" ht="19" customHeight="1">
       <c r="A305" s="19" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="20" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D305" s="21" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
@@ -16784,14 +16864,14 @@
     </row>
     <row r="306" spans="1:9" ht="19" customHeight="1">
       <c r="A306" s="19" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="20" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
@@ -16801,14 +16881,14 @@
     </row>
     <row r="307" spans="1:9" ht="19" customHeight="1">
       <c r="A307" s="19" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="20" t="s">
-        <v>643</v>
-      </c>
-      <c r="D307" s="21" t="s">
-        <v>753</v>
+        <v>637</v>
+      </c>
+      <c r="D307" s="20" t="s">
+        <v>750</v>
       </c>
       <c r="E307" s="20"/>
       <c r="F307" s="20"/>
@@ -16818,14 +16898,14 @@
     </row>
     <row r="308" spans="1:9" ht="19" customHeight="1">
       <c r="A308" s="19" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="20" t="s">
-        <v>645</v>
-      </c>
-      <c r="D308" s="22" t="s">
-        <v>754</v>
+        <v>639</v>
+      </c>
+      <c r="D308" s="21" t="s">
+        <v>751</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -16835,14 +16915,14 @@
     </row>
     <row r="309" spans="1:9" ht="19" customHeight="1">
       <c r="A309" s="19" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="20" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E309" s="20"/>
       <c r="F309" s="20"/>
@@ -16852,14 +16932,14 @@
     </row>
     <row r="310" spans="1:9" ht="19" customHeight="1">
       <c r="A310" s="19" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="20" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D310" s="21" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E310" s="20"/>
       <c r="F310" s="20"/>
@@ -16869,14 +16949,14 @@
     </row>
     <row r="311" spans="1:9" ht="19" customHeight="1">
       <c r="A311" s="19" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="20" t="s">
-        <v>651</v>
-      </c>
-      <c r="D311" s="21" t="s">
-        <v>757</v>
+        <v>645</v>
+      </c>
+      <c r="D311" s="22" t="s">
+        <v>754</v>
       </c>
       <c r="E311" s="20"/>
       <c r="F311" s="20"/>
@@ -16886,14 +16966,14 @@
     </row>
     <row r="312" spans="1:9" ht="19" customHeight="1">
       <c r="A312" s="19" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="20" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D312" s="21" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E312" s="20"/>
       <c r="F312" s="20"/>
@@ -16903,14 +16983,14 @@
     </row>
     <row r="313" spans="1:9" ht="19" customHeight="1">
       <c r="A313" s="19" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="20" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="D313" s="21" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -16920,14 +17000,14 @@
     </row>
     <row r="314" spans="1:9" ht="19" customHeight="1">
       <c r="A314" s="19" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="20" t="s">
-        <v>657</v>
-      </c>
-      <c r="D314" s="20" t="s">
-        <v>760</v>
+        <v>651</v>
+      </c>
+      <c r="D314" s="21" t="s">
+        <v>757</v>
       </c>
       <c r="E314" s="20"/>
       <c r="F314" s="20"/>
@@ -16937,14 +17017,14 @@
     </row>
     <row r="315" spans="1:9" ht="19" customHeight="1">
       <c r="A315" s="19" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B315" s="20"/>
-      <c r="C315" s="27" t="s">
-        <v>659</v>
-      </c>
-      <c r="D315" s="27" t="s">
-        <v>761</v>
+      <c r="C315" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="D315" s="21" t="s">
+        <v>758</v>
       </c>
       <c r="E315" s="20"/>
       <c r="F315" s="20"/>
@@ -16954,14 +17034,14 @@
     </row>
     <row r="316" spans="1:9" ht="19" customHeight="1">
       <c r="A316" s="19" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="20" t="s">
-        <v>661</v>
-      </c>
-      <c r="D316" s="20" t="s">
-        <v>762</v>
+        <v>655</v>
+      </c>
+      <c r="D316" s="21" t="s">
+        <v>759</v>
       </c>
       <c r="E316" s="20"/>
       <c r="F316" s="20"/>
@@ -16971,14 +17051,14 @@
     </row>
     <row r="317" spans="1:9" ht="19" customHeight="1">
       <c r="A317" s="19" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="20" t="s">
-        <v>663</v>
-      </c>
-      <c r="D317" s="21" t="s">
-        <v>763</v>
+        <v>657</v>
+      </c>
+      <c r="D317" s="20" t="s">
+        <v>760</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -16988,14 +17068,14 @@
     </row>
     <row r="318" spans="1:9" ht="19" customHeight="1">
       <c r="A318" s="19" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B318" s="20"/>
-      <c r="C318" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="D318" s="21" t="s">
-        <v>764</v>
+      <c r="C318" s="27" t="s">
+        <v>659</v>
+      </c>
+      <c r="D318" s="27" t="s">
+        <v>761</v>
       </c>
       <c r="E318" s="20"/>
       <c r="F318" s="20"/>
@@ -17005,14 +17085,14 @@
     </row>
     <row r="319" spans="1:9" ht="19" customHeight="1">
       <c r="A319" s="19" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="20" t="s">
-        <v>667</v>
-      </c>
-      <c r="D319" s="21" t="s">
-        <v>765</v>
+        <v>661</v>
+      </c>
+      <c r="D319" s="20" t="s">
+        <v>762</v>
       </c>
       <c r="E319" s="20"/>
       <c r="F319" s="20"/>
@@ -17022,14 +17102,14 @@
     </row>
     <row r="320" spans="1:9" ht="19" customHeight="1">
       <c r="A320" s="19" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="20" t="s">
-        <v>669</v>
-      </c>
-      <c r="D320" s="20" t="s">
-        <v>766</v>
+        <v>663</v>
+      </c>
+      <c r="D320" s="21" t="s">
+        <v>763</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -17039,14 +17119,14 @@
     </row>
     <row r="321" spans="1:9" ht="19" customHeight="1">
       <c r="A321" s="19" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="20" t="s">
-        <v>671</v>
-      </c>
-      <c r="D321" s="22" t="s">
-        <v>767</v>
+        <v>665</v>
+      </c>
+      <c r="D321" s="21" t="s">
+        <v>764</v>
       </c>
       <c r="E321" s="20"/>
       <c r="F321" s="20"/>
@@ -17056,14 +17136,14 @@
     </row>
     <row r="322" spans="1:9" ht="19" customHeight="1">
       <c r="A322" s="19" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="D322" s="20" t="s">
-        <v>768</v>
+        <v>667</v>
+      </c>
+      <c r="D322" s="21" t="s">
+        <v>765</v>
       </c>
       <c r="E322" s="20"/>
       <c r="F322" s="20"/>
@@ -17073,14 +17153,14 @@
     </row>
     <row r="323" spans="1:9" ht="19" customHeight="1">
       <c r="A323" s="19" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="20" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D323" s="20" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E323" s="20"/>
       <c r="F323" s="20"/>
@@ -17090,14 +17170,14 @@
     </row>
     <row r="324" spans="1:9" ht="19" customHeight="1">
       <c r="A324" s="19" t="s">
-        <v>954</v>
+        <v>670</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="20" t="s">
-        <v>955</v>
-      </c>
-      <c r="D324" s="20" t="s">
-        <v>956</v>
+        <v>671</v>
+      </c>
+      <c r="D324" s="22" t="s">
+        <v>767</v>
       </c>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
@@ -17107,14 +17187,14 @@
     </row>
     <row r="325" spans="1:9" ht="19" customHeight="1">
       <c r="A325" s="19" t="s">
-        <v>1081</v>
+        <v>672</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="20" t="s">
-        <v>1082</v>
+        <v>673</v>
       </c>
       <c r="D325" s="20" t="s">
-        <v>1083</v>
+        <v>768</v>
       </c>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
@@ -17123,10 +17203,16 @@
       <c r="I325" s="18"/>
     </row>
     <row r="326" spans="1:9" ht="19" customHeight="1">
-      <c r="A326" s="19"/>
+      <c r="A326" s="19" t="s">
+        <v>674</v>
+      </c>
       <c r="B326" s="20"/>
-      <c r="C326" s="20"/>
-      <c r="D326" s="20"/>
+      <c r="C326" s="20" t="s">
+        <v>675</v>
+      </c>
+      <c r="D326" s="20" t="s">
+        <v>769</v>
+      </c>
       <c r="E326" s="20"/>
       <c r="F326" s="20"/>
       <c r="G326" s="18"/>
@@ -17134,10 +17220,16 @@
       <c r="I326" s="18"/>
     </row>
     <row r="327" spans="1:9" ht="19" customHeight="1">
-      <c r="A327" s="19"/>
+      <c r="A327" s="19" t="s">
+        <v>954</v>
+      </c>
       <c r="B327" s="20"/>
-      <c r="C327" s="20"/>
-      <c r="D327" s="20"/>
+      <c r="C327" s="20" t="s">
+        <v>955</v>
+      </c>
+      <c r="D327" s="20" t="s">
+        <v>956</v>
+      </c>
       <c r="E327" s="20"/>
       <c r="F327" s="20"/>
       <c r="G327" s="18"/>
@@ -17145,10 +17237,16 @@
       <c r="I327" s="18"/>
     </row>
     <row r="328" spans="1:9" ht="19" customHeight="1">
-      <c r="A328" s="19"/>
+      <c r="A328" s="19" t="s">
+        <v>1081</v>
+      </c>
       <c r="B328" s="20"/>
-      <c r="C328" s="20"/>
-      <c r="D328" s="20"/>
+      <c r="C328" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D328" s="20" t="s">
+        <v>1083</v>
+      </c>
       <c r="E328" s="20"/>
       <c r="F328" s="20"/>
       <c r="G328" s="18"/>
@@ -17815,405 +17913,453 @@
       <c r="H388" s="17"/>
       <c r="I388" s="18"/>
     </row>
+    <row r="389" spans="1:9" ht="19" customHeight="1">
+      <c r="A389" s="19"/>
+      <c r="B389" s="20"/>
+      <c r="C389" s="20"/>
+      <c r="D389" s="20"/>
+      <c r="E389" s="20"/>
+      <c r="F389" s="20"/>
+      <c r="G389" s="18"/>
+      <c r="H389" s="17"/>
+      <c r="I389" s="18"/>
+    </row>
+    <row r="390" spans="1:9" ht="19" customHeight="1">
+      <c r="A390" s="19"/>
+      <c r="B390" s="20"/>
+      <c r="C390" s="20"/>
+      <c r="D390" s="20"/>
+      <c r="E390" s="20"/>
+      <c r="F390" s="20"/>
+      <c r="G390" s="18"/>
+      <c r="H390" s="17"/>
+      <c r="I390" s="18"/>
+    </row>
+    <row r="391" spans="1:9" ht="19" customHeight="1">
+      <c r="A391" s="19"/>
+      <c r="B391" s="20"/>
+      <c r="C391" s="20"/>
+      <c r="D391" s="20"/>
+      <c r="E391" s="20"/>
+      <c r="F391" s="20"/>
+      <c r="G391" s="18"/>
+      <c r="H391" s="17"/>
+      <c r="I391" s="18"/>
+    </row>
   </sheetData>
   <autoFilter ref="A4:J209" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A234:E235 E221:G221 A221:C233 A257:E258 A286:E287 A309:E310 E288:E308 A326:G388 A324:E325 A311:C323 E311:E323 E222:E233 B65:G65 D115:D133 I8:I28 A8:G28 A288:C308 A66:G114 A236:C256 E236:E256 A115:C141 E115:G141 D138:D141 A30:G64 A217:G220 A142:G215 I30:I215 E259 F222:G259 F263:F273 G263:G325 E263:E285 E260:G262 A259:C285 I217:I388">
-    <cfRule type="expression" dxfId="131" priority="260">
+  <conditionalFormatting sqref="A234:E235 E221:G221 A221:C233 A257:E258 A289:E290 A312:E313 E291:E311 A329:G391 A327:E328 A314:C326 E314:E326 E222:E233 B65:G65 D115:D133 I8:I28 A8:G28 A291:C311 A66:G114 A236:C256 E236:E256 A115:C141 E115:G141 D138:D141 A30:G64 A217:G220 A142:G215 I30:I215 E259 F222:G259 F270:F276 G270:G328 E270:E288 D271 E260:G269 I217:I391 A259:C288">
+    <cfRule type="expression" dxfId="134" priority="262">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H388">
-    <cfRule type="cellIs" dxfId="130" priority="215" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H391">
+    <cfRule type="cellIs" dxfId="133" priority="217" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="222" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="132" priority="224" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="223" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="131" priority="225" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="224" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="130" priority="226" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H388">
-    <cfRule type="cellIs" dxfId="126" priority="216" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H391">
+    <cfRule type="cellIs" dxfId="129" priority="218" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="217" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="219" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="219" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="221" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="220" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="222" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="221" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="223" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H388">
-    <cfRule type="cellIs" dxfId="121" priority="218" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H391">
+    <cfRule type="cellIs" dxfId="124" priority="220" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134:D135">
-    <cfRule type="expression" dxfId="120" priority="139">
+    <cfRule type="expression" dxfId="123" priority="141">
       <formula>$G134&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136:D137">
-    <cfRule type="expression" dxfId="119" priority="138">
+    <cfRule type="expression" dxfId="122" priority="140">
       <formula>$G136&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5 I5 A5">
-    <cfRule type="expression" dxfId="118" priority="132">
+    <cfRule type="expression" dxfId="121" priority="134">
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="117" priority="122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="124" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="129" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="119" priority="131" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="130" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="118" priority="132" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="131" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="117" priority="133" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="113" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="125" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="126" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="128" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="129" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="130" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="108" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="127" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="107" priority="121">
+    <cfRule type="expression" dxfId="110" priority="123">
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C216:G216 I216 A216">
-    <cfRule type="expression" dxfId="106" priority="120">
+    <cfRule type="expression" dxfId="109" priority="122">
       <formula>$G216&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H216">
-    <cfRule type="cellIs" dxfId="105" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="112" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="117" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="107" priority="119" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="118" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="106" priority="120" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="119" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="105" priority="121" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H216)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H216">
-    <cfRule type="cellIs" dxfId="101" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="113" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="114" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="116" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="117" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="118" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H216">
-    <cfRule type="cellIs" dxfId="96" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="115" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B216">
-    <cfRule type="expression" dxfId="95" priority="109">
+    <cfRule type="expression" dxfId="98" priority="111">
       <formula>$G216&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D297:D298 D302:D323 D221:D242 D245 D264:D266 D270:D279 D286:D288 D292:D293 D249:D258">
-    <cfRule type="expression" dxfId="94" priority="262">
+  <conditionalFormatting sqref="D300:D301 D305:D326 D221:D242 D245 D273:D282 D289:D291 D295:D296 D249:D258 D265">
+    <cfRule type="expression" dxfId="97" priority="264">
       <formula>$G223&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F274:F325">
-    <cfRule type="expression" dxfId="93" priority="108">
-      <formula>$G274&lt;&gt;""</formula>
+  <conditionalFormatting sqref="F277:F328">
+    <cfRule type="expression" dxfId="96" priority="110">
+      <formula>$G277&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6 I6 C6:G6">
-    <cfRule type="expression" dxfId="92" priority="93">
+    <cfRule type="expression" dxfId="95" priority="95">
       <formula>$G6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="91" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="85" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="90" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="93" priority="92" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="91" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="92" priority="93" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="92" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="91" priority="94" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="87" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="86" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="87" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="89" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="90" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="91" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="82" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="88" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7 I7 E7:G7">
-    <cfRule type="expression" dxfId="81" priority="82">
+    <cfRule type="expression" dxfId="84" priority="84">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="80" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="74" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="79" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="82" priority="81" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="80" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="81" priority="82" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="81" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="80" priority="83" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="76" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="75" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="76" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="78" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="79" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="80" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="71" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="77" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="70" priority="71">
+    <cfRule type="expression" dxfId="73" priority="73">
       <formula>$G6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="69" priority="70">
+    <cfRule type="expression" dxfId="72" priority="72">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="68" priority="69">
+    <cfRule type="expression" dxfId="71" priority="71">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="expression" dxfId="67" priority="57">
+    <cfRule type="expression" dxfId="70" priority="59">
       <formula>$G65&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114">
-    <cfRule type="cellIs" dxfId="66" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="48" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="53" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="68" priority="55" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="54" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="67" priority="56" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="55" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="66" priority="57" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114">
-    <cfRule type="cellIs" dxfId="62" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="49" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="50" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="52" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="53" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="54" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114">
-    <cfRule type="cellIs" dxfId="57" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="51" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:G29 I29">
-    <cfRule type="expression" dxfId="56" priority="23">
+    <cfRule type="expression" dxfId="59" priority="25">
       <formula>$G29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="55" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="20" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="57" priority="22" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="21" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="56" priority="23" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="22" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="55" priority="24" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="51" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="16" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="17" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="19" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="20" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="21" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="46" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="18" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D294:D296 D299:D301 D283:D285 D280:D281 D246:D248 D267:D268 D289:D291 D261:D263">
-    <cfRule type="expression" dxfId="45" priority="265">
+  <conditionalFormatting sqref="D297:D299 D302:D304 D286:D288 D283:D284 D246:D248 D292:D294 D264 D267">
+    <cfRule type="expression" dxfId="48" priority="267">
       <formula>$G249&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="44" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="9" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="46" priority="11" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="10" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="45" priority="12" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="11" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="44" priority="13" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="40" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="5" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="6" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="8" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="9" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="10" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="35" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="7" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D282">
-    <cfRule type="expression" dxfId="34" priority="269">
-      <formula>$G286&lt;&gt;""</formula>
+  <conditionalFormatting sqref="D285 D270">
+    <cfRule type="expression" dxfId="37" priority="271">
+      <formula>$G274&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D244">
-    <cfRule type="expression" dxfId="33" priority="300">
+  <conditionalFormatting sqref="D244 D272">
+    <cfRule type="expression" dxfId="36" priority="302">
       <formula>$G245&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243">
-    <cfRule type="expression" dxfId="32" priority="301">
+    <cfRule type="expression" dxfId="35" priority="303">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D269">
-    <cfRule type="expression" dxfId="31" priority="1">
-      <formula>$G269&lt;&gt;""</formula>
+  <conditionalFormatting sqref="D259:D260">
+    <cfRule type="expression" dxfId="34" priority="305">
+      <formula>$G265&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D259:D260">
-    <cfRule type="expression" dxfId="30" priority="303">
-      <formula>$G264&lt;&gt;""</formula>
+  <conditionalFormatting sqref="D261:D263">
+    <cfRule type="expression" dxfId="33" priority="307">
+      <formula>$G265&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D266">
+    <cfRule type="expression" dxfId="32" priority="339">
+      <formula>$G272&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D268">
+    <cfRule type="expression" dxfId="31" priority="2">
+      <formula>$G268&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D269">
+    <cfRule type="expression" dxfId="30" priority="1">
+      <formula>$G269&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B794484-2A38-354C-A27E-2D0B77B2C0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DBF336-B1CB-7E4C-AEC8-53E0D27163D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35860" yWindow="2320" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">message!$A$4:$J$209</definedName>
     <definedName name="実施結果">List!$A$3:$A$12</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="1130">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -4492,14 +4492,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>profileNotFound</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Profile not found in config file. (profileName=${key}, configPath=${file})</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>activeElementNotFound</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6580,26 +6572,6 @@
         <family val="2"/>
       </rPr>
       <t>(value=${value})</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tsukushi A Round Gothic Bold"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>プロファイルが見つかりません。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(profileName=${key}, configPath=${file})</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -10054,6 +10026,13 @@
     <cellStyle name="標準 2" xfId="1" xr:uid="{C40AA10B-FA57-1748-8D8E-3E12991DC054}"/>
   </cellStyles>
   <dxfs count="135">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -10743,13 +10722,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFBDD7EE"/>
         </patternFill>
       </fill>
@@ -11315,7 +11287,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I391"/>
+  <dimension ref="A1:I390"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -11384,16 +11356,16 @@
     </row>
     <row r="6" spans="1:9" ht="19" customHeight="1">
       <c r="A6" s="19" t="s">
+        <v>876</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>879</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="20" t="s">
+        <v>880</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>882</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>883</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>885</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
@@ -11403,16 +11375,16 @@
     </row>
     <row r="7" spans="1:9" ht="19" customHeight="1">
       <c r="A7" s="19" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>878</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>881</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>884</v>
-      </c>
       <c r="D7" s="20" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -11425,7 +11397,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>21</v>
@@ -11444,7 +11416,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>23</v>
@@ -11463,7 +11435,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>25</v>
@@ -11482,7 +11454,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>27</v>
@@ -11501,7 +11473,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>29</v>
@@ -11520,7 +11492,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>31</v>
@@ -11539,7 +11511,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>33</v>
@@ -11558,7 +11530,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>35</v>
@@ -11577,7 +11549,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>37</v>
@@ -11596,7 +11568,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>39</v>
@@ -11615,7 +11587,7 @@
         <v>40</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>41</v>
@@ -11634,7 +11606,7 @@
         <v>42</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>43</v>
@@ -11653,7 +11625,7 @@
         <v>44</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>45</v>
@@ -11672,7 +11644,7 @@
         <v>46</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>47</v>
@@ -11691,7 +11663,7 @@
         <v>48</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>49</v>
@@ -11710,7 +11682,7 @@
         <v>50</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>51</v>
@@ -11729,7 +11701,7 @@
         <v>52</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>53</v>
@@ -11745,16 +11717,16 @@
     </row>
     <row r="25" spans="1:9" ht="19" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
@@ -11764,16 +11736,16 @@
     </row>
     <row r="26" spans="1:9" ht="19" customHeight="1">
       <c r="A26" s="19" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -11783,16 +11755,16 @@
     </row>
     <row r="27" spans="1:9" ht="19" customHeight="1">
       <c r="A27" s="19" t="s">
+        <v>912</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>913</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>914</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>915</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>916</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>917</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>918</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
@@ -11805,7 +11777,7 @@
         <v>98</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>99</v>
@@ -11824,7 +11796,7 @@
         <v>54</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>55</v>
@@ -11843,10 +11815,10 @@
         <v>56</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>289</v>
@@ -11900,13 +11872,13 @@
         <v>100</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -11916,16 +11888,16 @@
     </row>
     <row r="34" spans="1:9" ht="19" customHeight="1">
       <c r="A34" s="19" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>1109</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>1112</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -11935,16 +11907,16 @@
     </row>
     <row r="35" spans="1:9" ht="19" customHeight="1">
       <c r="A35" s="19" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D35" s="22" t="s">
         <v>1084</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>1087</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -11954,16 +11926,16 @@
     </row>
     <row r="36" spans="1:9" ht="19" customHeight="1">
       <c r="A36" s="19" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
@@ -11976,7 +11948,7 @@
         <v>101</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>102</v>
@@ -12033,7 +12005,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>108</v>
@@ -12068,16 +12040,16 @@
     </row>
     <row r="42" spans="1:9" ht="19" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -12087,16 +12059,16 @@
     </row>
     <row r="43" spans="1:9" ht="19" customHeight="1">
       <c r="A43" s="19" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -12109,7 +12081,7 @@
         <v>111</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>112</v>
@@ -12128,7 +12100,7 @@
         <v>113</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>114</v>
@@ -12147,7 +12119,7 @@
         <v>115</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>116</v>
@@ -12220,16 +12192,16 @@
     </row>
     <row r="50" spans="1:9" ht="19" customHeight="1">
       <c r="A50" s="19" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -12239,16 +12211,16 @@
     </row>
     <row r="51" spans="1:9" ht="19" customHeight="1">
       <c r="A51" s="19" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -12277,16 +12249,16 @@
     </row>
     <row r="53" spans="1:9" ht="19" customHeight="1">
       <c r="A53" s="19" t="s">
+        <v>965</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>966</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>967</v>
+      </c>
+      <c r="D53" s="20" t="s">
         <v>968</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>969</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>970</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>971</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
@@ -12296,16 +12268,16 @@
     </row>
     <row r="54" spans="1:9" ht="19" customHeight="1">
       <c r="A54" s="19" t="s">
+        <v>969</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>970</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>971</v>
+      </c>
+      <c r="D54" s="20" t="s">
         <v>972</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>973</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>974</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>975</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -12315,16 +12287,16 @@
     </row>
     <row r="55" spans="1:9" ht="19" customHeight="1">
       <c r="A55" s="19" t="s">
+        <v>973</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>976</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="C55" s="20" t="s">
         <v>979</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="D55" s="20" t="s">
         <v>982</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>985</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
@@ -12334,16 +12306,16 @@
     </row>
     <row r="56" spans="1:9" ht="19" customHeight="1">
       <c r="A56" s="19" t="s">
+        <v>974</v>
+      </c>
+      <c r="B56" s="20" t="s">
         <v>977</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="C56" s="20" t="s">
         <v>980</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="D56" s="20" t="s">
         <v>983</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>986</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
@@ -12353,16 +12325,16 @@
     </row>
     <row r="57" spans="1:9" ht="19" customHeight="1">
       <c r="A57" s="19" t="s">
+        <v>975</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>978</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="C57" s="20" t="s">
         <v>981</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="D57" s="20" t="s">
         <v>984</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>987</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
@@ -12375,7 +12347,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>62</v>
@@ -12448,16 +12420,16 @@
     </row>
     <row r="62" spans="1:9" ht="19" customHeight="1">
       <c r="A62" s="19" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
@@ -12467,16 +12439,16 @@
     </row>
     <row r="63" spans="1:9" ht="19" customHeight="1">
       <c r="A63" s="19" t="s">
+        <v>824</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>826</v>
+      </c>
+      <c r="C63" s="20" t="s">
         <v>827</v>
       </c>
-      <c r="B63" s="20" t="s">
-        <v>829</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>830</v>
-      </c>
       <c r="D63" s="20" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
@@ -12486,16 +12458,16 @@
     </row>
     <row r="64" spans="1:9" ht="19" customHeight="1">
       <c r="A64" s="19" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
@@ -12505,16 +12477,16 @@
     </row>
     <row r="65" spans="1:9" ht="19" customHeight="1">
       <c r="A65" s="19" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
@@ -12524,16 +12496,16 @@
     </row>
     <row r="66" spans="1:9" ht="19" customHeight="1">
       <c r="A66" s="19" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
@@ -12543,16 +12515,16 @@
     </row>
     <row r="67" spans="1:9" ht="19" customHeight="1">
       <c r="A67" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="B67" s="20" t="s">
         <v>840</v>
       </c>
-      <c r="B67" s="20" t="s">
-        <v>843</v>
-      </c>
       <c r="C67" s="20" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
@@ -12562,16 +12534,16 @@
     </row>
     <row r="68" spans="1:9" ht="19" customHeight="1">
       <c r="A68" s="19" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
@@ -12581,16 +12553,16 @@
     </row>
     <row r="69" spans="1:9" ht="19" customHeight="1">
       <c r="A69" s="19" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
@@ -12600,16 +12572,16 @@
     </row>
     <row r="70" spans="1:9" ht="19" customHeight="1">
       <c r="A70" s="19" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
@@ -12628,7 +12600,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
@@ -12666,7 +12638,7 @@
         <v>74</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
@@ -12695,16 +12667,16 @@
     </row>
     <row r="75" spans="1:9" ht="19" customHeight="1">
       <c r="A75" s="19" t="s">
+        <v>936</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>937</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>938</v>
+      </c>
+      <c r="D75" s="20" t="s">
         <v>939</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>940</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>941</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>942</v>
       </c>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
@@ -12733,16 +12705,16 @@
     </row>
     <row r="77" spans="1:9" ht="19" customHeight="1">
       <c r="A77" s="19" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C77" s="20" t="s">
+        <v>906</v>
+      </c>
+      <c r="D77" s="22" t="s">
         <v>909</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>912</v>
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="20"/>
@@ -12904,16 +12876,16 @@
     </row>
     <row r="86" spans="1:9" ht="19" customHeight="1">
       <c r="A86" s="19" t="s">
+        <v>929</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>930</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>931</v>
+      </c>
+      <c r="D86" s="22" t="s">
         <v>932</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>933</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>934</v>
-      </c>
-      <c r="D86" s="22" t="s">
-        <v>935</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -12945,7 +12917,7 @@
         <v>96</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C88" s="20" t="s">
         <v>97</v>
@@ -12961,16 +12933,16 @@
     </row>
     <row r="89" spans="1:9" ht="19" customHeight="1">
       <c r="A89" s="19" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
@@ -12980,16 +12952,16 @@
     </row>
     <row r="90" spans="1:9" ht="19" customHeight="1">
       <c r="A90" s="19" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
@@ -12999,16 +12971,16 @@
     </row>
     <row r="91" spans="1:9" ht="19" customHeight="1">
       <c r="A91" s="19" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
@@ -13018,16 +12990,16 @@
     </row>
     <row r="92" spans="1:9" ht="19" customHeight="1">
       <c r="A92" s="19" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
@@ -13037,16 +13009,16 @@
     </row>
     <row r="93" spans="1:9" ht="19" customHeight="1">
       <c r="A93" s="19" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C93" s="20" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D93" s="22" t="s">
         <v>1024</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>1027</v>
       </c>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
@@ -13056,16 +13028,16 @@
     </row>
     <row r="94" spans="1:9" ht="19" customHeight="1">
       <c r="A94" s="19" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -13075,16 +13047,16 @@
     </row>
     <row r="95" spans="1:9" ht="19" customHeight="1">
       <c r="A95" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="B95" s="19" t="s">
         <v>992</v>
       </c>
-      <c r="B95" s="19" t="s">
-        <v>995</v>
-      </c>
       <c r="C95" s="20" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
@@ -13094,16 +13066,16 @@
     </row>
     <row r="96" spans="1:9" ht="19" customHeight="1">
       <c r="A96" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="C96" s="20" t="s">
         <v>993</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="D96" s="20" t="s">
         <v>994</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>996</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>997</v>
       </c>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
@@ -13113,16 +13085,16 @@
     </row>
     <row r="97" spans="1:9" ht="19" customHeight="1">
       <c r="A97" s="19" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
@@ -13132,16 +13104,16 @@
     </row>
     <row r="98" spans="1:9" ht="19" customHeight="1">
       <c r="A98" s="19" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
@@ -13151,16 +13123,16 @@
     </row>
     <row r="99" spans="1:9" ht="19" customHeight="1">
       <c r="A99" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="B99" s="19" t="s">
         <v>857</v>
       </c>
-      <c r="B99" s="19" t="s">
-        <v>860</v>
-      </c>
       <c r="C99" s="20" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
@@ -13170,16 +13142,16 @@
     </row>
     <row r="100" spans="1:9" ht="19" customHeight="1">
       <c r="A100" s="19" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
@@ -13189,16 +13161,16 @@
     </row>
     <row r="101" spans="1:9" ht="19" customHeight="1">
       <c r="A101" s="19" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
@@ -13208,16 +13180,16 @@
     </row>
     <row r="102" spans="1:9" ht="19" customHeight="1">
       <c r="A102" s="19" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
@@ -13227,16 +13199,16 @@
     </row>
     <row r="103" spans="1:9" ht="19" customHeight="1">
       <c r="A103" s="19" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
@@ -13246,16 +13218,16 @@
     </row>
     <row r="104" spans="1:9" ht="19" customHeight="1">
       <c r="A104" s="19" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
@@ -13265,16 +13237,16 @@
     </row>
     <row r="105" spans="1:9" ht="19" customHeight="1">
       <c r="A105" s="19" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
@@ -13284,16 +13256,16 @@
     </row>
     <row r="106" spans="1:9" ht="19" customHeight="1">
       <c r="A106" s="19" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
@@ -13306,7 +13278,7 @@
         <v>124</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C107" s="20" t="s">
         <v>125</v>
@@ -13322,16 +13294,16 @@
     </row>
     <row r="108" spans="1:9" ht="19" customHeight="1">
       <c r="A108" s="19" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
@@ -13341,16 +13313,16 @@
     </row>
     <row r="109" spans="1:9" ht="19" customHeight="1">
       <c r="A109" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="C109" s="20" t="s">
         <v>946</v>
       </c>
-      <c r="B109" s="20" t="s">
-        <v>947</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>949</v>
-      </c>
       <c r="D109" s="20" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
@@ -13360,16 +13332,16 @@
     </row>
     <row r="110" spans="1:9" ht="19" customHeight="1">
       <c r="A110" s="19" t="s">
+        <v>947</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>948</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>949</v>
+      </c>
+      <c r="D110" s="20" t="s">
         <v>950</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>951</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>952</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>953</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
@@ -13417,16 +13389,16 @@
     </row>
     <row r="113" spans="1:9" ht="19" customHeight="1">
       <c r="A113" s="19" t="s">
+        <v>896</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>897</v>
+      </c>
+      <c r="C113" s="20" t="s">
         <v>899</v>
       </c>
-      <c r="B113" s="19" t="s">
-        <v>900</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>902</v>
-      </c>
       <c r="D113" s="20" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
@@ -13436,16 +13408,16 @@
     </row>
     <row r="114" spans="1:9" ht="19" customHeight="1">
       <c r="A114" s="19" t="s">
+        <v>900</v>
+      </c>
+      <c r="B114" s="19" t="s">
         <v>903</v>
       </c>
-      <c r="B114" s="19" t="s">
-        <v>906</v>
-      </c>
       <c r="C114" s="20" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
@@ -13458,7 +13430,7 @@
         <v>130</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C115" s="20" t="s">
         <v>131</v>
@@ -13477,7 +13449,7 @@
         <v>132</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C116" s="20" t="s">
         <v>133</v>
@@ -13496,7 +13468,7 @@
         <v>134</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C117" s="20" t="s">
         <v>135</v>
@@ -13515,7 +13487,7 @@
         <v>136</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C118" s="20" t="s">
         <v>137</v>
@@ -13534,7 +13506,7 @@
         <v>138</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C119" s="20" t="s">
         <v>139</v>
@@ -13553,7 +13525,7 @@
         <v>140</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C120" s="20" t="s">
         <v>141</v>
@@ -13572,7 +13544,7 @@
         <v>142</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>143</v>
@@ -13591,7 +13563,7 @@
         <v>144</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>17</v>
@@ -13610,7 +13582,7 @@
         <v>145</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C123" s="20" t="s">
         <v>146</v>
@@ -13629,7 +13601,7 @@
         <v>147</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C124" s="20" t="s">
         <v>19</v>
@@ -13648,7 +13620,7 @@
         <v>148</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C125" s="20" t="s">
         <v>149</v>
@@ -13667,7 +13639,7 @@
         <v>150</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>151</v>
@@ -13686,7 +13658,7 @@
         <v>152</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C127" s="20" t="s">
         <v>153</v>
@@ -13705,7 +13677,7 @@
         <v>154</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C128" s="20" t="s">
         <v>155</v>
@@ -13724,7 +13696,7 @@
         <v>156</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C129" s="20" t="s">
         <v>157</v>
@@ -13743,7 +13715,7 @@
         <v>158</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C130" s="20" t="s">
         <v>159</v>
@@ -13762,7 +13734,7 @@
         <v>160</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>161</v>
@@ -13781,7 +13753,7 @@
         <v>162</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>163</v>
@@ -13800,7 +13772,7 @@
         <v>164</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C133" s="20" t="s">
         <v>165</v>
@@ -13819,7 +13791,7 @@
         <v>166</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C134" s="20" t="s">
         <v>167</v>
@@ -13838,7 +13810,7 @@
         <v>168</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C135" s="20" t="s">
         <v>169</v>
@@ -13857,7 +13829,7 @@
         <v>170</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C136" s="20" t="s">
         <v>171</v>
@@ -13876,7 +13848,7 @@
         <v>172</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C137" s="20" t="s">
         <v>173</v>
@@ -13895,7 +13867,7 @@
         <v>174</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C138" s="20" t="s">
         <v>175</v>
@@ -13914,7 +13886,7 @@
         <v>176</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C139" s="20" t="s">
         <v>177</v>
@@ -13933,7 +13905,7 @@
         <v>178</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C140" s="20" t="s">
         <v>179</v>
@@ -13952,7 +13924,7 @@
         <v>180</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C141" s="20" t="s">
         <v>181</v>
@@ -14158,13 +14130,13 @@
     </row>
     <row r="152" spans="1:9" ht="19" customHeight="1">
       <c r="A152" s="19" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D152" s="22" t="s">
         <v>359</v>
@@ -14177,13 +14149,13 @@
     </row>
     <row r="153" spans="1:9" ht="19" customHeight="1">
       <c r="A153" s="19" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D153" s="22" t="s">
         <v>360</v>
@@ -14297,7 +14269,7 @@
         <v>450</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D159" s="22" t="s">
         <v>368</v>
@@ -14316,7 +14288,7 @@
         <v>457</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D160" s="22" t="s">
         <v>375</v>
@@ -14335,7 +14307,7 @@
         <v>451</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="D161" s="22" t="s">
         <v>369</v>
@@ -14354,7 +14326,7 @@
         <v>452</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D162" s="22" t="s">
         <v>370</v>
@@ -14373,7 +14345,7 @@
         <v>453</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D163" s="22" t="s">
         <v>371</v>
@@ -14392,7 +14364,7 @@
         <v>454</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D164" s="22" t="s">
         <v>372</v>
@@ -14411,7 +14383,7 @@
         <v>455</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="D165" s="22" t="s">
         <v>373</v>
@@ -14430,7 +14402,7 @@
         <v>456</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="D166" s="22" t="s">
         <v>374</v>
@@ -14519,16 +14491,16 @@
     </row>
     <row r="171" spans="1:9" ht="19" customHeight="1">
       <c r="A171" s="19" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D171" s="20" t="s">
         <v>1061</v>
-      </c>
-      <c r="B171" s="19" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D171" s="20" t="s">
-        <v>1064</v>
       </c>
       <c r="E171" s="20"/>
       <c r="F171" s="20"/>
@@ -14544,7 +14516,7 @@
         <v>462</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D172" s="22" t="s">
         <v>378</v>
@@ -14563,10 +14535,10 @@
         <v>463</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E173" s="20"/>
       <c r="F173" s="20"/>
@@ -14582,7 +14554,7 @@
         <v>468</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="D174" s="22" t="s">
         <v>384</v>
@@ -14601,7 +14573,7 @@
         <v>469</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D175" s="22" t="s">
         <v>385</v>
@@ -14620,7 +14592,7 @@
         <v>464</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="D176" s="22" t="s">
         <v>379</v>
@@ -14639,7 +14611,7 @@
         <v>465</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="D177" s="22" t="s">
         <v>380</v>
@@ -14658,7 +14630,7 @@
         <v>466</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D178" s="22" t="s">
         <v>381</v>
@@ -14677,7 +14649,7 @@
         <v>467</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D179" s="22" t="s">
         <v>382</v>
@@ -14845,7 +14817,7 @@
         <v>248</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C188" s="20" t="s">
         <v>249</v>
@@ -14864,7 +14836,7 @@
         <v>250</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C189" s="20" t="s">
         <v>251</v>
@@ -14975,16 +14947,16 @@
     </row>
     <row r="195" spans="1:9" ht="19" customHeight="1">
       <c r="A195" s="19" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>438</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="E195" s="20"/>
       <c r="F195" s="20"/>
@@ -14994,16 +14966,16 @@
     </row>
     <row r="196" spans="1:9" ht="19" customHeight="1">
       <c r="A196" s="19" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B196" s="19" t="s">
         <v>438</v>
       </c>
       <c r="C196" s="20" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D196" s="20" t="s">
         <v>1055</v>
-      </c>
-      <c r="D196" s="20" t="s">
-        <v>1058</v>
       </c>
       <c r="E196" s="20"/>
       <c r="F196" s="20"/>
@@ -15013,16 +14985,16 @@
     </row>
     <row r="197" spans="1:9" ht="19" customHeight="1">
       <c r="A197" s="19" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B197" s="19" t="s">
         <v>438</v>
       </c>
       <c r="C197" s="20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D197" s="20" t="s">
         <v>1056</v>
-      </c>
-      <c r="D197" s="20" t="s">
-        <v>1059</v>
       </c>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
@@ -15032,16 +15004,16 @@
     </row>
     <row r="198" spans="1:9" ht="19" customHeight="1">
       <c r="A198" s="19" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B198" s="19" t="s">
         <v>438</v>
       </c>
       <c r="C198" s="20" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D198" s="20" t="s">
         <v>1057</v>
-      </c>
-      <c r="D198" s="20" t="s">
-        <v>1060</v>
       </c>
       <c r="E198" s="20"/>
       <c r="F198" s="20"/>
@@ -15264,10 +15236,10 @@
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="20" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D210" s="20" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="E210" s="20"/>
       <c r="F210" s="20"/>
@@ -15281,10 +15253,10 @@
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="20" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="E211" s="20"/>
       <c r="F211" s="20"/>
@@ -15358,7 +15330,7 @@
         <v>487</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
@@ -15375,7 +15347,7 @@
         <v>488</v>
       </c>
       <c r="D218" s="22" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E218" s="20"/>
       <c r="F218" s="20"/>
@@ -15392,7 +15364,7 @@
         <v>489</v>
       </c>
       <c r="D219" s="20" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E219" s="20"/>
       <c r="F219" s="20"/>
@@ -15409,7 +15381,7 @@
         <v>491</v>
       </c>
       <c r="D220" s="22" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E220" s="20"/>
       <c r="F220" s="20"/>
@@ -15426,7 +15398,7 @@
         <v>495</v>
       </c>
       <c r="D221" s="21" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E221" s="20"/>
       <c r="F221" s="20"/>
@@ -15443,7 +15415,7 @@
         <v>497</v>
       </c>
       <c r="D222" s="22" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E222" s="20"/>
       <c r="F222" s="20"/>
@@ -15460,7 +15432,7 @@
         <v>499</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E223" s="20"/>
       <c r="F223" s="20"/>
@@ -15477,7 +15449,7 @@
         <v>501</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E224" s="20"/>
       <c r="F224" s="20"/>
@@ -15494,7 +15466,7 @@
         <v>503</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E225" s="20"/>
       <c r="F225" s="20"/>
@@ -15508,10 +15480,10 @@
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="20" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E226" s="20"/>
       <c r="F226" s="20"/>
@@ -15528,7 +15500,7 @@
         <v>506</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E227" s="20"/>
       <c r="F227" s="20"/>
@@ -15545,7 +15517,7 @@
         <v>508</v>
       </c>
       <c r="D228" s="21" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E228" s="20"/>
       <c r="F228" s="20"/>
@@ -15562,7 +15534,7 @@
         <v>510</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E229" s="20"/>
       <c r="F229" s="20"/>
@@ -15579,7 +15551,7 @@
         <v>512</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E230" s="20"/>
       <c r="F230" s="20"/>
@@ -15596,7 +15568,7 @@
         <v>514</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E231" s="20"/>
       <c r="F231" s="20"/>
@@ -15613,7 +15585,7 @@
         <v>516</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E232" s="20"/>
       <c r="F232" s="20"/>
@@ -15630,7 +15602,7 @@
         <v>518</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E233" s="20"/>
       <c r="F233" s="20"/>
@@ -15647,7 +15619,7 @@
         <v>520</v>
       </c>
       <c r="D234" s="20" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
@@ -15664,7 +15636,7 @@
         <v>522</v>
       </c>
       <c r="D235" s="22" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
@@ -15681,7 +15653,7 @@
         <v>524</v>
       </c>
       <c r="D236" s="21" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E236" s="20"/>
       <c r="F236" s="20"/>
@@ -15698,7 +15670,7 @@
         <v>526</v>
       </c>
       <c r="D237" s="20" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E237" s="20"/>
       <c r="F237" s="20"/>
@@ -15715,7 +15687,7 @@
         <v>528</v>
       </c>
       <c r="D238" s="20" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E238" s="20"/>
       <c r="F238" s="20"/>
@@ -15732,7 +15704,7 @@
         <v>530</v>
       </c>
       <c r="D239" s="20" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E239" s="20"/>
       <c r="F239" s="20"/>
@@ -15749,7 +15721,7 @@
         <v>532</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E240" s="20"/>
       <c r="F240" s="20"/>
@@ -15766,7 +15738,7 @@
         <v>534</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E241" s="20"/>
       <c r="F241" s="20"/>
@@ -15783,7 +15755,7 @@
         <v>536</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E242" s="20"/>
       <c r="F242" s="20"/>
@@ -15800,7 +15772,7 @@
         <v>538</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E243" s="20"/>
       <c r="F243" s="20"/>
@@ -15817,7 +15789,7 @@
         <v>540</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E244" s="20"/>
       <c r="F244" s="20"/>
@@ -15834,7 +15806,7 @@
         <v>542</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E245" s="20"/>
       <c r="F245" s="20"/>
@@ -15844,14 +15816,14 @@
     </row>
     <row r="246" spans="1:9" ht="19" customHeight="1">
       <c r="A246" s="19" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="20" t="s">
         <v>543</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E246" s="20"/>
       <c r="F246" s="20"/>
@@ -15861,14 +15833,14 @@
     </row>
     <row r="247" spans="1:9" ht="19" customHeight="1">
       <c r="A247" s="19" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="20" t="s">
         <v>544</v>
       </c>
       <c r="D247" s="21" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E247" s="20"/>
       <c r="F247" s="20"/>
@@ -15878,14 +15850,14 @@
     </row>
     <row r="248" spans="1:9" ht="19" customHeight="1">
       <c r="A248" s="19" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="20" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D248" s="21" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E248" s="20"/>
       <c r="F248" s="20"/>
@@ -15902,7 +15874,7 @@
         <v>546</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E249" s="20"/>
       <c r="F249" s="20"/>
@@ -15919,7 +15891,7 @@
         <v>548</v>
       </c>
       <c r="D250" s="20" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E250" s="20"/>
       <c r="F250" s="20"/>
@@ -15936,7 +15908,7 @@
         <v>550</v>
       </c>
       <c r="D251" s="21" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
@@ -15953,7 +15925,7 @@
         <v>552</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E252" s="20"/>
       <c r="F252" s="20"/>
@@ -15970,7 +15942,7 @@
         <v>554</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E253" s="20"/>
       <c r="F253" s="20"/>
@@ -15987,7 +15959,7 @@
         <v>556</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E254" s="20"/>
       <c r="F254" s="20"/>
@@ -16004,7 +15976,7 @@
         <v>558</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E255" s="20"/>
       <c r="F255" s="20"/>
@@ -16021,7 +15993,7 @@
         <v>560</v>
       </c>
       <c r="D256" s="21" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E256" s="20"/>
       <c r="F256" s="20"/>
@@ -16038,7 +16010,7 @@
         <v>562</v>
       </c>
       <c r="D257" s="21" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
@@ -16055,7 +16027,7 @@
         <v>564</v>
       </c>
       <c r="D258" s="20" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E258" s="20"/>
       <c r="F258" s="20"/>
@@ -16072,7 +16044,7 @@
         <v>566</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E259" s="20"/>
       <c r="F259" s="20"/>
@@ -16089,7 +16061,7 @@
         <v>568</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
@@ -16099,14 +16071,14 @@
     </row>
     <row r="261" spans="1:9" ht="19" customHeight="1">
       <c r="A261" s="19" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="20" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="D261" s="20" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
@@ -16116,14 +16088,14 @@
     </row>
     <row r="262" spans="1:9" ht="19" customHeight="1">
       <c r="A262" s="19" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="20" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="D262" s="20" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
@@ -16133,14 +16105,14 @@
     </row>
     <row r="263" spans="1:9" ht="19" customHeight="1">
       <c r="A263" s="19" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="20" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D263" s="20" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="E263" s="20"/>
       <c r="F263" s="20"/>
@@ -16150,14 +16122,14 @@
     </row>
     <row r="264" spans="1:9" ht="19" customHeight="1">
       <c r="A264" s="19" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="20" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D264" s="20" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E264" s="20"/>
       <c r="F264" s="20"/>
@@ -16174,7 +16146,7 @@
         <v>570</v>
       </c>
       <c r="D265" s="21" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
@@ -16191,7 +16163,7 @@
         <v>572</v>
       </c>
       <c r="D266" s="21" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E266" s="20"/>
       <c r="F266" s="20"/>
@@ -16208,7 +16180,7 @@
         <v>574</v>
       </c>
       <c r="D267" s="20" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
@@ -16218,14 +16190,14 @@
     </row>
     <row r="268" spans="1:9" ht="19" customHeight="1">
       <c r="A268" s="19" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="20" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="D268" s="20" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="E268" s="20"/>
       <c r="F268" s="20"/>
@@ -16235,14 +16207,14 @@
     </row>
     <row r="269" spans="1:9" ht="19" customHeight="1">
       <c r="A269" s="19" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="20" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="D269" s="20" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E269" s="20"/>
       <c r="F269" s="20"/>
@@ -16259,7 +16231,7 @@
         <v>578</v>
       </c>
       <c r="D270" s="20" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E270" s="20"/>
       <c r="F270" s="20"/>
@@ -16269,14 +16241,14 @@
     </row>
     <row r="271" spans="1:9" ht="19" customHeight="1">
       <c r="A271" s="19" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="20" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D271" s="20" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E271" s="20"/>
       <c r="F271" s="20"/>
@@ -16293,7 +16265,7 @@
         <v>576</v>
       </c>
       <c r="D272" s="20" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E272" s="20"/>
       <c r="F272" s="20"/>
@@ -16310,7 +16282,7 @@
         <v>580</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E273" s="20"/>
       <c r="F273" s="20"/>
@@ -16327,7 +16299,7 @@
         <v>582</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -16344,7 +16316,7 @@
         <v>584</v>
       </c>
       <c r="D275" s="21" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
@@ -16361,7 +16333,7 @@
         <v>586</v>
       </c>
       <c r="D276" s="21" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -16378,7 +16350,7 @@
         <v>588</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
@@ -16395,7 +16367,7 @@
         <v>590</v>
       </c>
       <c r="D278" s="21" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E278" s="20"/>
       <c r="F278" s="20"/>
@@ -16412,7 +16384,7 @@
         <v>592</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E279" s="20"/>
       <c r="F279" s="20"/>
@@ -16429,7 +16401,7 @@
         <v>594</v>
       </c>
       <c r="D280" s="21" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E280" s="20"/>
       <c r="F280" s="20"/>
@@ -16446,7 +16418,7 @@
         <v>596</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
@@ -16463,7 +16435,7 @@
         <v>598</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E282" s="20"/>
       <c r="F282" s="20"/>
@@ -16480,7 +16452,7 @@
         <v>600</v>
       </c>
       <c r="D283" s="20" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
@@ -16497,7 +16469,7 @@
         <v>602</v>
       </c>
       <c r="D284" s="21" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E284" s="20"/>
       <c r="F284" s="20"/>
@@ -16507,14 +16479,14 @@
     </row>
     <row r="285" spans="1:9" ht="19" customHeight="1">
       <c r="A285" s="19" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="20" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="D285" s="20" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
@@ -16531,7 +16503,7 @@
         <v>604</v>
       </c>
       <c r="D286" s="21" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E286" s="20"/>
       <c r="F286" s="20"/>
@@ -16548,7 +16520,7 @@
         <v>606</v>
       </c>
       <c r="D287" s="21" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
@@ -16558,14 +16530,14 @@
     </row>
     <row r="288" spans="1:9" ht="19" customHeight="1">
       <c r="A288" s="19" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="20" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D288" s="20" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -16582,7 +16554,7 @@
         <v>608</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E289" s="20"/>
       <c r="F289" s="20"/>
@@ -16599,7 +16571,7 @@
         <v>610</v>
       </c>
       <c r="D290" s="21" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -16616,7 +16588,7 @@
         <v>612</v>
       </c>
       <c r="D291" s="20" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E291" s="20"/>
       <c r="F291" s="20"/>
@@ -16633,7 +16605,7 @@
         <v>614</v>
       </c>
       <c r="D292" s="20" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -16650,7 +16622,7 @@
         <v>616</v>
       </c>
       <c r="D293" s="21" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E293" s="20"/>
       <c r="F293" s="20"/>
@@ -16660,14 +16632,14 @@
     </row>
     <row r="294" spans="1:9" ht="19" customHeight="1">
       <c r="A294" s="19" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="20" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D294" s="21" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -16684,7 +16656,7 @@
         <v>618</v>
       </c>
       <c r="D295" s="22" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
@@ -16701,7 +16673,7 @@
         <v>620</v>
       </c>
       <c r="D296" s="21" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -16718,7 +16690,7 @@
         <v>622</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
@@ -16735,7 +16707,7 @@
         <v>624</v>
       </c>
       <c r="D298" s="20" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -16745,14 +16717,14 @@
     </row>
     <row r="299" spans="1:9" ht="19" customHeight="1">
       <c r="A299" s="19" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="20" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D299" s="20" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E299" s="20"/>
       <c r="F299" s="20"/>
@@ -16769,7 +16741,7 @@
         <v>626</v>
       </c>
       <c r="D300" s="21" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E300" s="20"/>
       <c r="F300" s="20"/>
@@ -16783,10 +16755,10 @@
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="20" t="s">
-        <v>628</v>
+        <v>960</v>
       </c>
       <c r="D301" s="21" t="s">
-        <v>746</v>
+        <v>961</v>
       </c>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
@@ -16796,14 +16768,14 @@
     </row>
     <row r="302" spans="1:9" ht="19" customHeight="1">
       <c r="A302" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="20" t="s">
-        <v>963</v>
+        <v>629</v>
       </c>
       <c r="D302" s="21" t="s">
-        <v>964</v>
+        <v>744</v>
       </c>
       <c r="E302" s="20"/>
       <c r="F302" s="20"/>
@@ -16813,14 +16785,14 @@
     </row>
     <row r="303" spans="1:9" ht="19" customHeight="1">
       <c r="A303" s="19" t="s">
-        <v>630</v>
+        <v>962</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="20" t="s">
-        <v>631</v>
-      </c>
-      <c r="D303" s="21" t="s">
-        <v>747</v>
+        <v>963</v>
+      </c>
+      <c r="D303" s="20" t="s">
+        <v>964</v>
       </c>
       <c r="E303" s="20"/>
       <c r="F303" s="20"/>
@@ -16830,14 +16802,14 @@
     </row>
     <row r="304" spans="1:9" ht="19" customHeight="1">
       <c r="A304" s="19" t="s">
-        <v>965</v>
+        <v>630</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="20" t="s">
-        <v>966</v>
-      </c>
-      <c r="D304" s="20" t="s">
-        <v>967</v>
+        <v>631</v>
+      </c>
+      <c r="D304" s="21" t="s">
+        <v>745</v>
       </c>
       <c r="E304" s="20"/>
       <c r="F304" s="20"/>
@@ -16854,7 +16826,7 @@
         <v>633</v>
       </c>
       <c r="D305" s="21" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
@@ -16870,8 +16842,8 @@
       <c r="C306" s="20" t="s">
         <v>635</v>
       </c>
-      <c r="D306" s="21" t="s">
-        <v>749</v>
+      <c r="D306" s="20" t="s">
+        <v>747</v>
       </c>
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
@@ -16887,8 +16859,8 @@
       <c r="C307" s="20" t="s">
         <v>637</v>
       </c>
-      <c r="D307" s="20" t="s">
-        <v>750</v>
+      <c r="D307" s="21" t="s">
+        <v>748</v>
       </c>
       <c r="E307" s="20"/>
       <c r="F307" s="20"/>
@@ -16905,7 +16877,7 @@
         <v>639</v>
       </c>
       <c r="D308" s="21" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -16922,7 +16894,7 @@
         <v>641</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E309" s="20"/>
       <c r="F309" s="20"/>
@@ -16938,8 +16910,8 @@
       <c r="C310" s="20" t="s">
         <v>643</v>
       </c>
-      <c r="D310" s="21" t="s">
-        <v>753</v>
+      <c r="D310" s="22" t="s">
+        <v>751</v>
       </c>
       <c r="E310" s="20"/>
       <c r="F310" s="20"/>
@@ -16955,8 +16927,8 @@
       <c r="C311" s="20" t="s">
         <v>645</v>
       </c>
-      <c r="D311" s="22" t="s">
-        <v>754</v>
+      <c r="D311" s="21" t="s">
+        <v>752</v>
       </c>
       <c r="E311" s="20"/>
       <c r="F311" s="20"/>
@@ -16966,14 +16938,14 @@
     </row>
     <row r="312" spans="1:9" ht="19" customHeight="1">
       <c r="A312" s="19" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="20" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D312" s="21" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E312" s="20"/>
       <c r="F312" s="20"/>
@@ -16983,14 +16955,14 @@
     </row>
     <row r="313" spans="1:9" ht="19" customHeight="1">
       <c r="A313" s="19" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="20" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D313" s="21" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -17007,7 +16979,7 @@
         <v>651</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E314" s="20"/>
       <c r="F314" s="20"/>
@@ -17024,7 +16996,7 @@
         <v>653</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E315" s="20"/>
       <c r="F315" s="20"/>
@@ -17040,8 +17012,8 @@
       <c r="C316" s="20" t="s">
         <v>655</v>
       </c>
-      <c r="D316" s="21" t="s">
-        <v>759</v>
+      <c r="D316" s="20" t="s">
+        <v>757</v>
       </c>
       <c r="E316" s="20"/>
       <c r="F316" s="20"/>
@@ -17054,11 +17026,11 @@
         <v>656</v>
       </c>
       <c r="B317" s="20"/>
-      <c r="C317" s="20" t="s">
+      <c r="C317" s="27" t="s">
         <v>657</v>
       </c>
-      <c r="D317" s="20" t="s">
-        <v>760</v>
+      <c r="D317" s="27" t="s">
+        <v>758</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -17071,11 +17043,11 @@
         <v>658</v>
       </c>
       <c r="B318" s="20"/>
-      <c r="C318" s="27" t="s">
+      <c r="C318" s="20" t="s">
         <v>659</v>
       </c>
-      <c r="D318" s="27" t="s">
-        <v>761</v>
+      <c r="D318" s="20" t="s">
+        <v>759</v>
       </c>
       <c r="E318" s="20"/>
       <c r="F318" s="20"/>
@@ -17091,8 +17063,8 @@
       <c r="C319" s="20" t="s">
         <v>661</v>
       </c>
-      <c r="D319" s="20" t="s">
-        <v>762</v>
+      <c r="D319" s="21" t="s">
+        <v>760</v>
       </c>
       <c r="E319" s="20"/>
       <c r="F319" s="20"/>
@@ -17109,7 +17081,7 @@
         <v>663</v>
       </c>
       <c r="D320" s="21" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -17126,7 +17098,7 @@
         <v>665</v>
       </c>
       <c r="D321" s="21" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E321" s="20"/>
       <c r="F321" s="20"/>
@@ -17142,8 +17114,8 @@
       <c r="C322" s="20" t="s">
         <v>667</v>
       </c>
-      <c r="D322" s="21" t="s">
-        <v>765</v>
+      <c r="D322" s="20" t="s">
+        <v>763</v>
       </c>
       <c r="E322" s="20"/>
       <c r="F322" s="20"/>
@@ -17159,8 +17131,8 @@
       <c r="C323" s="20" t="s">
         <v>669</v>
       </c>
-      <c r="D323" s="20" t="s">
-        <v>766</v>
+      <c r="D323" s="22" t="s">
+        <v>764</v>
       </c>
       <c r="E323" s="20"/>
       <c r="F323" s="20"/>
@@ -17176,8 +17148,8 @@
       <c r="C324" s="20" t="s">
         <v>671</v>
       </c>
-      <c r="D324" s="22" t="s">
-        <v>767</v>
+      <c r="D324" s="20" t="s">
+        <v>765</v>
       </c>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
@@ -17194,7 +17166,7 @@
         <v>673</v>
       </c>
       <c r="D325" s="20" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
@@ -17204,14 +17176,14 @@
     </row>
     <row r="326" spans="1:9" ht="19" customHeight="1">
       <c r="A326" s="19" t="s">
-        <v>674</v>
+        <v>951</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="20" t="s">
-        <v>675</v>
+        <v>952</v>
       </c>
       <c r="D326" s="20" t="s">
-        <v>769</v>
+        <v>953</v>
       </c>
       <c r="E326" s="20"/>
       <c r="F326" s="20"/>
@@ -17221,14 +17193,14 @@
     </row>
     <row r="327" spans="1:9" ht="19" customHeight="1">
       <c r="A327" s="19" t="s">
-        <v>954</v>
+        <v>1078</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="20" t="s">
-        <v>955</v>
+        <v>1079</v>
       </c>
       <c r="D327" s="20" t="s">
-        <v>956</v>
+        <v>1080</v>
       </c>
       <c r="E327" s="20"/>
       <c r="F327" s="20"/>
@@ -17237,16 +17209,10 @@
       <c r="I327" s="18"/>
     </row>
     <row r="328" spans="1:9" ht="19" customHeight="1">
-      <c r="A328" s="19" t="s">
-        <v>1081</v>
-      </c>
+      <c r="A328" s="19"/>
       <c r="B328" s="20"/>
-      <c r="C328" s="20" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D328" s="20" t="s">
-        <v>1083</v>
-      </c>
+      <c r="C328" s="20"/>
+      <c r="D328" s="20"/>
       <c r="E328" s="20"/>
       <c r="F328" s="20"/>
       <c r="G328" s="18"/>
@@ -17935,26 +17901,15 @@
       <c r="H390" s="17"/>
       <c r="I390" s="18"/>
     </row>
-    <row r="391" spans="1:9" ht="19" customHeight="1">
-      <c r="A391" s="19"/>
-      <c r="B391" s="20"/>
-      <c r="C391" s="20"/>
-      <c r="D391" s="20"/>
-      <c r="E391" s="20"/>
-      <c r="F391" s="20"/>
-      <c r="G391" s="18"/>
-      <c r="H391" s="17"/>
-      <c r="I391" s="18"/>
-    </row>
   </sheetData>
   <autoFilter ref="A4:J209" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A234:E235 E221:G221 A221:C233 A257:E258 A289:E290 A312:E313 E291:E311 A329:G391 A327:E328 A314:C326 E314:E326 E222:E233 B65:G65 D115:D133 I8:I28 A8:G28 A291:C311 A66:G114 A236:C256 E236:E256 A115:C141 E115:G141 D138:D141 A30:G64 A217:G220 A142:G215 I30:I215 E259 F222:G259 F270:F276 G270:G328 E270:E288 D271 E260:G269 I217:I391 A259:C288">
+  <conditionalFormatting sqref="A234:E235 E221:G221 A221:C233 A257:E258 A289:E290 A311:E312 A328:G390 A326:E327 A313:C325 E313:E325 E222:E233 B65:G65 D115:D133 I8:I28 A8:G28 A66:G114 A236:C256 E236:E256 A115:C141 E115:G141 D138:D141 A30:G64 A217:G220 A142:G215 I30:I215 E259 F222:G259 E270:E288 D271 E260:G269 A259:C288 E291:E310 A291:C310 F270:G327 I217:I390">
     <cfRule type="expression" dxfId="134" priority="262">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H391">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H390">
     <cfRule type="cellIs" dxfId="133" priority="217" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
@@ -17968,7 +17923,7 @@
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H391">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H390">
     <cfRule type="cellIs" dxfId="129" priority="218" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -17985,7 +17940,7 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H391">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H390">
     <cfRule type="cellIs" dxfId="124" priority="220" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
@@ -18092,274 +18047,274 @@
       <formula>$G216&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D300:D301 D305:D326 D221:D242 D245 D273:D282 D289:D291 D295:D296 D249:D258 D265">
+  <conditionalFormatting sqref="D304:D325 D221:D242 D245 D273:D282 D289:D291 D295:D296 D249:D258 D265 D298:D300">
     <cfRule type="expression" dxfId="97" priority="264">
       <formula>$G223&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F277:F328">
-    <cfRule type="expression" dxfId="96" priority="110">
-      <formula>$G277&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A6 I6 C6:G6">
-    <cfRule type="expression" dxfId="95" priority="95">
+    <cfRule type="expression" dxfId="96" priority="95">
       <formula>$G6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="94" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="85" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="92" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="94" priority="92" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="93" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="93" priority="93" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="94" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="92" priority="94" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="90" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="86" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="87" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="89" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="90" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="91" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="85" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="88" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7 I7 E7:G7">
-    <cfRule type="expression" dxfId="84" priority="84">
+    <cfRule type="expression" dxfId="85" priority="84">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="83" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="74" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="81" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="83" priority="81" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="82" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="82" priority="82" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="83" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="81" priority="83" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="79" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="75" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="76" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="78" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="79" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="80" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="74" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="77" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="73" priority="73">
+    <cfRule type="expression" dxfId="74" priority="73">
       <formula>$G6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="72" priority="72">
+    <cfRule type="expression" dxfId="73" priority="72">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="71" priority="71">
+    <cfRule type="expression" dxfId="72" priority="71">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="expression" dxfId="70" priority="59">
+    <cfRule type="expression" dxfId="71" priority="59">
       <formula>$G65&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114">
-    <cfRule type="cellIs" dxfId="69" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="48" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="55" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="69" priority="55" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="56" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="68" priority="56" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="57" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="67" priority="57" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114">
-    <cfRule type="cellIs" dxfId="65" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="49" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="50" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="52" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="53" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="54" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114">
-    <cfRule type="cellIs" dxfId="60" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="51" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:G29 I29">
-    <cfRule type="expression" dxfId="59" priority="25">
+    <cfRule type="expression" dxfId="60" priority="25">
       <formula>$G29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="58" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="22" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="58" priority="22" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="23" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="57" priority="23" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="24" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="56" priority="24" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="54" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="16" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="17" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="19" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="20" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="21" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="49" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="18" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D297:D299 D302:D304 D286:D288 D283:D284 D246:D248 D292:D294 D264 D267">
-    <cfRule type="expression" dxfId="48" priority="267">
+  <conditionalFormatting sqref="D301:D303 D286:D288 D283:D284 D246:D248 D292:D294 D264 D267">
+    <cfRule type="expression" dxfId="49" priority="267">
       <formula>$G249&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="47" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="11" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="47" priority="11" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="12" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="46" priority="12" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="13" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="45" priority="13" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="43" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="5" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="6" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="8" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="9" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="10" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="38" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="7" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D285 D270">
-    <cfRule type="expression" dxfId="37" priority="271">
+    <cfRule type="expression" dxfId="38" priority="271">
       <formula>$G274&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D244 D272">
-    <cfRule type="expression" dxfId="36" priority="302">
+    <cfRule type="expression" dxfId="37" priority="302">
       <formula>$G245&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243">
-    <cfRule type="expression" dxfId="35" priority="303">
+    <cfRule type="expression" dxfId="36" priority="303">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D259:D260">
-    <cfRule type="expression" dxfId="34" priority="305">
+    <cfRule type="expression" dxfId="35" priority="305">
       <formula>$G265&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D261:D263">
-    <cfRule type="expression" dxfId="33" priority="307">
+    <cfRule type="expression" dxfId="34" priority="307">
       <formula>$G265&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D266">
-    <cfRule type="expression" dxfId="32" priority="339">
+    <cfRule type="expression" dxfId="33" priority="339">
       <formula>$G272&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D268">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>$G268&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D269">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>$G269&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D297">
+    <cfRule type="expression" dxfId="0" priority="371">
+      <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18472,102 +18427,102 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A3:A8">
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DBF336-B1CB-7E4C-AEC8-53E0D27163D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E5AD2B-EA85-3C46-A8BE-D801EAC11A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35860" yWindow="2320" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="1133">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -9681,6 +9681,30 @@
       </rPr>
       <t>端末を検出できません。(${subject})</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>initializingIosDriverMayTakeMinutes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注意：iOSDriverの初期化はWebDriverAgentのビルドとインストールのため数分かかる場合があります。</t>
+    <rPh sb="0" eb="2">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>スウフn</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: Initializing IOSDriver may take a few minutes to build and install WebDriverAgent.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10025,7 +10049,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{C40AA10B-FA57-1748-8D8E-3E12991DC054}"/>
   </cellStyles>
-  <dxfs count="135">
+  <dxfs count="136">
     <dxf>
       <fill>
         <patternFill>
@@ -10240,6 +10264,13 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11287,11 +11318,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I390"/>
+  <dimension ref="A1:I391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="4" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>
@@ -16275,14 +16306,14 @@
     </row>
     <row r="273" spans="1:9" ht="19" customHeight="1">
       <c r="A273" s="19" t="s">
-        <v>579</v>
+        <v>1130</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="20" t="s">
-        <v>580</v>
+        <v>1132</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>721</v>
+        <v>1131</v>
       </c>
       <c r="E273" s="20"/>
       <c r="F273" s="20"/>
@@ -16292,14 +16323,14 @@
     </row>
     <row r="274" spans="1:9" ht="19" customHeight="1">
       <c r="A274" s="19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="20" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -16309,14 +16340,14 @@
     </row>
     <row r="275" spans="1:9" ht="19" customHeight="1">
       <c r="A275" s="19" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="D275" s="21" t="s">
-        <v>723</v>
+        <v>582</v>
+      </c>
+      <c r="D275" s="20" t="s">
+        <v>722</v>
       </c>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
@@ -16326,14 +16357,14 @@
     </row>
     <row r="276" spans="1:9" ht="19" customHeight="1">
       <c r="A276" s="19" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="20" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D276" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -16343,14 +16374,14 @@
     </row>
     <row r="277" spans="1:9" ht="19" customHeight="1">
       <c r="A277" s="19" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="20" t="s">
-        <v>588</v>
-      </c>
-      <c r="D277" s="20" t="s">
-        <v>725</v>
+        <v>586</v>
+      </c>
+      <c r="D277" s="21" t="s">
+        <v>724</v>
       </c>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
@@ -16360,14 +16391,14 @@
     </row>
     <row r="278" spans="1:9" ht="19" customHeight="1">
       <c r="A278" s="19" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="D278" s="21" t="s">
-        <v>726</v>
+        <v>588</v>
+      </c>
+      <c r="D278" s="20" t="s">
+        <v>725</v>
       </c>
       <c r="E278" s="20"/>
       <c r="F278" s="20"/>
@@ -16377,14 +16408,14 @@
     </row>
     <row r="279" spans="1:9" ht="19" customHeight="1">
       <c r="A279" s="19" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E279" s="20"/>
       <c r="F279" s="20"/>
@@ -16394,14 +16425,14 @@
     </row>
     <row r="280" spans="1:9" ht="19" customHeight="1">
       <c r="A280" s="19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="20" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D280" s="21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E280" s="20"/>
       <c r="F280" s="20"/>
@@ -16411,14 +16442,14 @@
     </row>
     <row r="281" spans="1:9" ht="19" customHeight="1">
       <c r="A281" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="20" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
@@ -16428,14 +16459,14 @@
     </row>
     <row r="282" spans="1:9" ht="19" customHeight="1">
       <c r="A282" s="19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="20" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E282" s="20"/>
       <c r="F282" s="20"/>
@@ -16445,14 +16476,14 @@
     </row>
     <row r="283" spans="1:9" ht="19" customHeight="1">
       <c r="A283" s="19" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="20" t="s">
-        <v>600</v>
-      </c>
-      <c r="D283" s="20" t="s">
-        <v>731</v>
+        <v>598</v>
+      </c>
+      <c r="D283" s="21" t="s">
+        <v>730</v>
       </c>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
@@ -16462,14 +16493,14 @@
     </row>
     <row r="284" spans="1:9" ht="19" customHeight="1">
       <c r="A284" s="19" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="20" t="s">
-        <v>602</v>
-      </c>
-      <c r="D284" s="21" t="s">
-        <v>732</v>
+        <v>600</v>
+      </c>
+      <c r="D284" s="20" t="s">
+        <v>731</v>
       </c>
       <c r="E284" s="20"/>
       <c r="F284" s="20"/>
@@ -16479,14 +16510,14 @@
     </row>
     <row r="285" spans="1:9" ht="19" customHeight="1">
       <c r="A285" s="19" t="s">
-        <v>957</v>
+        <v>601</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="20" t="s">
-        <v>958</v>
-      </c>
-      <c r="D285" s="20" t="s">
-        <v>959</v>
+        <v>602</v>
+      </c>
+      <c r="D285" s="21" t="s">
+        <v>732</v>
       </c>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
@@ -16496,14 +16527,14 @@
     </row>
     <row r="286" spans="1:9" ht="19" customHeight="1">
       <c r="A286" s="19" t="s">
-        <v>603</v>
+        <v>957</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="20" t="s">
-        <v>604</v>
-      </c>
-      <c r="D286" s="21" t="s">
-        <v>733</v>
+        <v>958</v>
+      </c>
+      <c r="D286" s="20" t="s">
+        <v>959</v>
       </c>
       <c r="E286" s="20"/>
       <c r="F286" s="20"/>
@@ -16513,14 +16544,14 @@
     </row>
     <row r="287" spans="1:9" ht="19" customHeight="1">
       <c r="A287" s="19" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="20" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D287" s="21" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
@@ -16530,14 +16561,14 @@
     </row>
     <row r="288" spans="1:9" ht="19" customHeight="1">
       <c r="A288" s="19" t="s">
-        <v>1029</v>
+        <v>605</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="20" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D288" s="20" t="s">
-        <v>1031</v>
+        <v>606</v>
+      </c>
+      <c r="D288" s="21" t="s">
+        <v>734</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -16547,14 +16578,14 @@
     </row>
     <row r="289" spans="1:9" ht="19" customHeight="1">
       <c r="A289" s="19" t="s">
-        <v>607</v>
+        <v>1029</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="D289" s="21" t="s">
-        <v>735</v>
+        <v>1030</v>
+      </c>
+      <c r="D289" s="20" t="s">
+        <v>1031</v>
       </c>
       <c r="E289" s="20"/>
       <c r="F289" s="20"/>
@@ -16564,14 +16595,14 @@
     </row>
     <row r="290" spans="1:9" ht="19" customHeight="1">
       <c r="A290" s="19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="20" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D290" s="21" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -16581,14 +16612,14 @@
     </row>
     <row r="291" spans="1:9" ht="19" customHeight="1">
       <c r="A291" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="20" t="s">
-        <v>612</v>
-      </c>
-      <c r="D291" s="20" t="s">
-        <v>737</v>
+        <v>610</v>
+      </c>
+      <c r="D291" s="21" t="s">
+        <v>736</v>
       </c>
       <c r="E291" s="20"/>
       <c r="F291" s="20"/>
@@ -16598,14 +16629,14 @@
     </row>
     <row r="292" spans="1:9" ht="19" customHeight="1">
       <c r="A292" s="19" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="20" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D292" s="20" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -16615,14 +16646,14 @@
     </row>
     <row r="293" spans="1:9" ht="19" customHeight="1">
       <c r="A293" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="D293" s="21" t="s">
-        <v>739</v>
+        <v>614</v>
+      </c>
+      <c r="D293" s="20" t="s">
+        <v>738</v>
       </c>
       <c r="E293" s="20"/>
       <c r="F293" s="20"/>
@@ -16632,14 +16663,14 @@
     </row>
     <row r="294" spans="1:9" ht="19" customHeight="1">
       <c r="A294" s="19" t="s">
-        <v>1086</v>
+        <v>615</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="20" t="s">
-        <v>1087</v>
+        <v>616</v>
       </c>
       <c r="D294" s="21" t="s">
-        <v>1088</v>
+        <v>739</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -16649,14 +16680,14 @@
     </row>
     <row r="295" spans="1:9" ht="19" customHeight="1">
       <c r="A295" s="19" t="s">
-        <v>617</v>
+        <v>1086</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="20" t="s">
-        <v>618</v>
-      </c>
-      <c r="D295" s="22" t="s">
-        <v>740</v>
+        <v>1087</v>
+      </c>
+      <c r="D295" s="21" t="s">
+        <v>1088</v>
       </c>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
@@ -16666,14 +16697,14 @@
     </row>
     <row r="296" spans="1:9" ht="19" customHeight="1">
       <c r="A296" s="19" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="D296" s="21" t="s">
-        <v>942</v>
+        <v>618</v>
+      </c>
+      <c r="D296" s="22" t="s">
+        <v>740</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -16683,14 +16714,14 @@
     </row>
     <row r="297" spans="1:9" ht="19" customHeight="1">
       <c r="A297" s="19" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="20" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>741</v>
+        <v>942</v>
       </c>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
@@ -16700,14 +16731,14 @@
     </row>
     <row r="298" spans="1:9" ht="19" customHeight="1">
       <c r="A298" s="19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="D298" s="20" t="s">
-        <v>742</v>
+        <v>622</v>
+      </c>
+      <c r="D298" s="21" t="s">
+        <v>741</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -16717,14 +16748,14 @@
     </row>
     <row r="299" spans="1:9" ht="19" customHeight="1">
       <c r="A299" s="19" t="s">
-        <v>954</v>
+        <v>623</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="20" t="s">
-        <v>955</v>
+        <v>624</v>
       </c>
       <c r="D299" s="20" t="s">
-        <v>956</v>
+        <v>742</v>
       </c>
       <c r="E299" s="20"/>
       <c r="F299" s="20"/>
@@ -16734,14 +16765,14 @@
     </row>
     <row r="300" spans="1:9" ht="19" customHeight="1">
       <c r="A300" s="19" t="s">
-        <v>625</v>
+        <v>954</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="20" t="s">
-        <v>626</v>
-      </c>
-      <c r="D300" s="21" t="s">
-        <v>743</v>
+        <v>955</v>
+      </c>
+      <c r="D300" s="20" t="s">
+        <v>956</v>
       </c>
       <c r="E300" s="20"/>
       <c r="F300" s="20"/>
@@ -16751,14 +16782,14 @@
     </row>
     <row r="301" spans="1:9" ht="19" customHeight="1">
       <c r="A301" s="19" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="20" t="s">
-        <v>960</v>
+        <v>626</v>
       </c>
       <c r="D301" s="21" t="s">
-        <v>961</v>
+        <v>743</v>
       </c>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
@@ -16768,14 +16799,14 @@
     </row>
     <row r="302" spans="1:9" ht="19" customHeight="1">
       <c r="A302" s="19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="20" t="s">
-        <v>629</v>
+        <v>960</v>
       </c>
       <c r="D302" s="21" t="s">
-        <v>744</v>
+        <v>961</v>
       </c>
       <c r="E302" s="20"/>
       <c r="F302" s="20"/>
@@ -16785,14 +16816,14 @@
     </row>
     <row r="303" spans="1:9" ht="19" customHeight="1">
       <c r="A303" s="19" t="s">
-        <v>962</v>
+        <v>628</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="20" t="s">
-        <v>963</v>
-      </c>
-      <c r="D303" s="20" t="s">
-        <v>964</v>
+        <v>629</v>
+      </c>
+      <c r="D303" s="21" t="s">
+        <v>744</v>
       </c>
       <c r="E303" s="20"/>
       <c r="F303" s="20"/>
@@ -16802,14 +16833,14 @@
     </row>
     <row r="304" spans="1:9" ht="19" customHeight="1">
       <c r="A304" s="19" t="s">
-        <v>630</v>
+        <v>962</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="20" t="s">
-        <v>631</v>
-      </c>
-      <c r="D304" s="21" t="s">
-        <v>745</v>
+        <v>963</v>
+      </c>
+      <c r="D304" s="20" t="s">
+        <v>964</v>
       </c>
       <c r="E304" s="20"/>
       <c r="F304" s="20"/>
@@ -16819,14 +16850,14 @@
     </row>
     <row r="305" spans="1:9" ht="19" customHeight="1">
       <c r="A305" s="19" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="20" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D305" s="21" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
@@ -16836,14 +16867,14 @@
     </row>
     <row r="306" spans="1:9" ht="19" customHeight="1">
       <c r="A306" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="20" t="s">
-        <v>635</v>
-      </c>
-      <c r="D306" s="20" t="s">
-        <v>747</v>
+        <v>633</v>
+      </c>
+      <c r="D306" s="21" t="s">
+        <v>746</v>
       </c>
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
@@ -16853,14 +16884,14 @@
     </row>
     <row r="307" spans="1:9" ht="19" customHeight="1">
       <c r="A307" s="19" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="20" t="s">
-        <v>637</v>
-      </c>
-      <c r="D307" s="21" t="s">
-        <v>748</v>
+        <v>635</v>
+      </c>
+      <c r="D307" s="20" t="s">
+        <v>747</v>
       </c>
       <c r="E307" s="20"/>
       <c r="F307" s="20"/>
@@ -16870,14 +16901,14 @@
     </row>
     <row r="308" spans="1:9" ht="19" customHeight="1">
       <c r="A308" s="19" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="20" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D308" s="21" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -16887,14 +16918,14 @@
     </row>
     <row r="309" spans="1:9" ht="19" customHeight="1">
       <c r="A309" s="19" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="20" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E309" s="20"/>
       <c r="F309" s="20"/>
@@ -16904,14 +16935,14 @@
     </row>
     <row r="310" spans="1:9" ht="19" customHeight="1">
       <c r="A310" s="19" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="20" t="s">
-        <v>643</v>
-      </c>
-      <c r="D310" s="22" t="s">
-        <v>751</v>
+        <v>641</v>
+      </c>
+      <c r="D310" s="21" t="s">
+        <v>750</v>
       </c>
       <c r="E310" s="20"/>
       <c r="F310" s="20"/>
@@ -16921,14 +16952,14 @@
     </row>
     <row r="311" spans="1:9" ht="19" customHeight="1">
       <c r="A311" s="19" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="20" t="s">
-        <v>645</v>
-      </c>
-      <c r="D311" s="21" t="s">
-        <v>752</v>
+        <v>643</v>
+      </c>
+      <c r="D311" s="22" t="s">
+        <v>751</v>
       </c>
       <c r="E311" s="20"/>
       <c r="F311" s="20"/>
@@ -16938,14 +16969,14 @@
     </row>
     <row r="312" spans="1:9" ht="19" customHeight="1">
       <c r="A312" s="19" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="20" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D312" s="21" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E312" s="20"/>
       <c r="F312" s="20"/>
@@ -16955,14 +16986,14 @@
     </row>
     <row r="313" spans="1:9" ht="19" customHeight="1">
       <c r="A313" s="19" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="20" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D313" s="21" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -16972,14 +17003,14 @@
     </row>
     <row r="314" spans="1:9" ht="19" customHeight="1">
       <c r="A314" s="19" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="20" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E314" s="20"/>
       <c r="F314" s="20"/>
@@ -16989,14 +17020,14 @@
     </row>
     <row r="315" spans="1:9" ht="19" customHeight="1">
       <c r="A315" s="19" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="20" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E315" s="20"/>
       <c r="F315" s="20"/>
@@ -17006,14 +17037,14 @@
     </row>
     <row r="316" spans="1:9" ht="19" customHeight="1">
       <c r="A316" s="19" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="20" t="s">
-        <v>655</v>
-      </c>
-      <c r="D316" s="20" t="s">
-        <v>757</v>
+        <v>653</v>
+      </c>
+      <c r="D316" s="21" t="s">
+        <v>756</v>
       </c>
       <c r="E316" s="20"/>
       <c r="F316" s="20"/>
@@ -17023,14 +17054,14 @@
     </row>
     <row r="317" spans="1:9" ht="19" customHeight="1">
       <c r="A317" s="19" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B317" s="20"/>
-      <c r="C317" s="27" t="s">
-        <v>657</v>
-      </c>
-      <c r="D317" s="27" t="s">
-        <v>758</v>
+      <c r="C317" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="D317" s="20" t="s">
+        <v>757</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -17040,14 +17071,14 @@
     </row>
     <row r="318" spans="1:9" ht="19" customHeight="1">
       <c r="A318" s="19" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B318" s="20"/>
-      <c r="C318" s="20" t="s">
-        <v>659</v>
-      </c>
-      <c r="D318" s="20" t="s">
-        <v>759</v>
+      <c r="C318" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="D318" s="27" t="s">
+        <v>758</v>
       </c>
       <c r="E318" s="20"/>
       <c r="F318" s="20"/>
@@ -17057,14 +17088,14 @@
     </row>
     <row r="319" spans="1:9" ht="19" customHeight="1">
       <c r="A319" s="19" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="20" t="s">
-        <v>661</v>
-      </c>
-      <c r="D319" s="21" t="s">
-        <v>760</v>
+        <v>659</v>
+      </c>
+      <c r="D319" s="20" t="s">
+        <v>759</v>
       </c>
       <c r="E319" s="20"/>
       <c r="F319" s="20"/>
@@ -17074,14 +17105,14 @@
     </row>
     <row r="320" spans="1:9" ht="19" customHeight="1">
       <c r="A320" s="19" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="20" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D320" s="21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -17091,14 +17122,14 @@
     </row>
     <row r="321" spans="1:9" ht="19" customHeight="1">
       <c r="A321" s="19" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="20" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D321" s="21" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E321" s="20"/>
       <c r="F321" s="20"/>
@@ -17108,14 +17139,14 @@
     </row>
     <row r="322" spans="1:9" ht="19" customHeight="1">
       <c r="A322" s="19" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="20" t="s">
-        <v>667</v>
-      </c>
-      <c r="D322" s="20" t="s">
-        <v>763</v>
+        <v>665</v>
+      </c>
+      <c r="D322" s="21" t="s">
+        <v>762</v>
       </c>
       <c r="E322" s="20"/>
       <c r="F322" s="20"/>
@@ -17125,14 +17156,14 @@
     </row>
     <row r="323" spans="1:9" ht="19" customHeight="1">
       <c r="A323" s="19" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="20" t="s">
-        <v>669</v>
-      </c>
-      <c r="D323" s="22" t="s">
-        <v>764</v>
+        <v>667</v>
+      </c>
+      <c r="D323" s="20" t="s">
+        <v>763</v>
       </c>
       <c r="E323" s="20"/>
       <c r="F323" s="20"/>
@@ -17142,14 +17173,14 @@
     </row>
     <row r="324" spans="1:9" ht="19" customHeight="1">
       <c r="A324" s="19" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="20" t="s">
-        <v>671</v>
-      </c>
-      <c r="D324" s="20" t="s">
-        <v>765</v>
+        <v>669</v>
+      </c>
+      <c r="D324" s="22" t="s">
+        <v>764</v>
       </c>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
@@ -17159,14 +17190,14 @@
     </row>
     <row r="325" spans="1:9" ht="19" customHeight="1">
       <c r="A325" s="19" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="20" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D325" s="20" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
@@ -17176,14 +17207,14 @@
     </row>
     <row r="326" spans="1:9" ht="19" customHeight="1">
       <c r="A326" s="19" t="s">
-        <v>951</v>
+        <v>672</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="20" t="s">
-        <v>952</v>
+        <v>673</v>
       </c>
       <c r="D326" s="20" t="s">
-        <v>953</v>
+        <v>766</v>
       </c>
       <c r="E326" s="20"/>
       <c r="F326" s="20"/>
@@ -17193,14 +17224,14 @@
     </row>
     <row r="327" spans="1:9" ht="19" customHeight="1">
       <c r="A327" s="19" t="s">
-        <v>1078</v>
+        <v>951</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="20" t="s">
-        <v>1079</v>
+        <v>952</v>
       </c>
       <c r="D327" s="20" t="s">
-        <v>1080</v>
+        <v>953</v>
       </c>
       <c r="E327" s="20"/>
       <c r="F327" s="20"/>
@@ -17209,10 +17240,16 @@
       <c r="I327" s="18"/>
     </row>
     <row r="328" spans="1:9" ht="19" customHeight="1">
-      <c r="A328" s="19"/>
+      <c r="A328" s="19" t="s">
+        <v>1078</v>
+      </c>
       <c r="B328" s="20"/>
-      <c r="C328" s="20"/>
-      <c r="D328" s="20"/>
+      <c r="C328" s="20" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D328" s="20" t="s">
+        <v>1080</v>
+      </c>
       <c r="E328" s="20"/>
       <c r="F328" s="20"/>
       <c r="G328" s="18"/>
@@ -17901,420 +17938,436 @@
       <c r="H390" s="17"/>
       <c r="I390" s="18"/>
     </row>
+    <row r="391" spans="1:9" ht="19" customHeight="1">
+      <c r="A391" s="19"/>
+      <c r="B391" s="20"/>
+      <c r="C391" s="20"/>
+      <c r="D391" s="20"/>
+      <c r="E391" s="20"/>
+      <c r="F391" s="20"/>
+      <c r="G391" s="18"/>
+      <c r="H391" s="17"/>
+      <c r="I391" s="18"/>
+    </row>
   </sheetData>
   <autoFilter ref="A4:J209" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A234:E235 E221:G221 A221:C233 A257:E258 A289:E290 A311:E312 A328:G390 A326:E327 A313:C325 E313:E325 E222:E233 B65:G65 D115:D133 I8:I28 A8:G28 A66:G114 A236:C256 E236:E256 A115:C141 E115:G141 D138:D141 A30:G64 A217:G220 A142:G215 I30:I215 E259 F222:G259 E270:E288 D271 E260:G269 A259:C288 E291:E310 A291:C310 F270:G327 I217:I390">
-    <cfRule type="expression" dxfId="134" priority="262">
+  <conditionalFormatting sqref="A234:E235 E221:G221 A221:C233 A257:E258 A290:E291 A312:E313 A329:G391 A327:E328 A314:C326 E314:E326 E222:E233 B65:G65 D115:D133 I8:I28 A8:G28 A66:G114 A236:C256 E236:E256 A115:C141 E115:G141 D138:D141 A30:G64 A217:G220 A142:G215 I30:I215 E259 F222:G259 E270:E289 D271 E260:G269 A259:C289 E292:E311 A292:C311 F270:G328 I217:I391">
+    <cfRule type="expression" dxfId="135" priority="262">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H390">
-    <cfRule type="cellIs" dxfId="133" priority="217" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H391">
+    <cfRule type="cellIs" dxfId="134" priority="217" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="224" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="133" priority="224" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="225" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="132" priority="225" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="226" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="131" priority="226" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H390">
-    <cfRule type="cellIs" dxfId="129" priority="218" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H391">
+    <cfRule type="cellIs" dxfId="130" priority="218" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="219" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="219" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="221" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="221" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="222" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="222" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="223" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="223" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H390">
-    <cfRule type="cellIs" dxfId="124" priority="220" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H391">
+    <cfRule type="cellIs" dxfId="125" priority="220" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134:D135">
-    <cfRule type="expression" dxfId="123" priority="141">
+    <cfRule type="expression" dxfId="124" priority="141">
       <formula>$G134&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136:D137">
-    <cfRule type="expression" dxfId="122" priority="140">
+    <cfRule type="expression" dxfId="123" priority="140">
       <formula>$G136&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5 I5 A5">
-    <cfRule type="expression" dxfId="121" priority="134">
+    <cfRule type="expression" dxfId="122" priority="134">
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="120" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="124" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="131" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="120" priority="131" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="132" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="119" priority="132" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="133" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="118" priority="133" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="116" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="125" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="126" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="128" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="129" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="130" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="111" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="127" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="110" priority="123">
+    <cfRule type="expression" dxfId="111" priority="123">
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C216:G216 I216 A216">
-    <cfRule type="expression" dxfId="109" priority="122">
+    <cfRule type="expression" dxfId="110" priority="122">
       <formula>$G216&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H216">
-    <cfRule type="cellIs" dxfId="108" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="112" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="119" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="108" priority="119" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="120" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="107" priority="120" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="121" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="106" priority="121" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H216)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H216">
-    <cfRule type="cellIs" dxfId="104" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="113" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="114" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="116" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="117" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="118" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H216">
-    <cfRule type="cellIs" dxfId="99" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="115" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B216">
-    <cfRule type="expression" dxfId="98" priority="111">
+    <cfRule type="expression" dxfId="99" priority="111">
       <formula>$G216&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D304:D325 D221:D242 D245 D273:D282 D289:D291 D295:D296 D249:D258 D265 D298:D300">
-    <cfRule type="expression" dxfId="97" priority="264">
+  <conditionalFormatting sqref="D305:D326 D221:D242 D245 D290:D292 D296:D297 D249:D258 D265 D299:D301 D272:D283">
+    <cfRule type="expression" dxfId="98" priority="264">
       <formula>$G223&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6 I6 C6:G6">
-    <cfRule type="expression" dxfId="96" priority="95">
+    <cfRule type="expression" dxfId="97" priority="95">
       <formula>$G6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="95" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="85" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="92" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="95" priority="92" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="93" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="94" priority="93" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="94" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="93" priority="94" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="91" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="86" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="87" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="89" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="90" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="91" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="86" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="88" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7 I7 E7:G7">
-    <cfRule type="expression" dxfId="85" priority="84">
+    <cfRule type="expression" dxfId="86" priority="84">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="84" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="74" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="81" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="84" priority="81" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="82" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="83" priority="82" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="83" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="82" priority="83" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="80" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="75" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="76" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="78" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="79" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="80" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="75" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="77" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="74" priority="73">
+    <cfRule type="expression" dxfId="75" priority="73">
       <formula>$G6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="73" priority="72">
+    <cfRule type="expression" dxfId="74" priority="72">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="72" priority="71">
+    <cfRule type="expression" dxfId="73" priority="71">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="expression" dxfId="71" priority="59">
+    <cfRule type="expression" dxfId="72" priority="59">
       <formula>$G65&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114">
-    <cfRule type="cellIs" dxfId="70" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="48" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="55" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="70" priority="55" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="56" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="69" priority="56" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="57" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="68" priority="57" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114">
-    <cfRule type="cellIs" dxfId="66" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="49" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="50" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="52" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="53" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="54" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114">
-    <cfRule type="cellIs" dxfId="61" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="51" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:G29 I29">
-    <cfRule type="expression" dxfId="60" priority="25">
+    <cfRule type="expression" dxfId="61" priority="25">
       <formula>$G29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="59" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="22" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="59" priority="22" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="23" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="58" priority="23" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="24" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="57" priority="24" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="55" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="16" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="17" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="19" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="20" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="21" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="50" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="18" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D301:D303 D286:D288 D283:D284 D246:D248 D292:D294 D264 D267">
-    <cfRule type="expression" dxfId="49" priority="267">
+  <conditionalFormatting sqref="D302:D304 D287:D289 D284:D285 D246:D248 D293:D295 D264 D267">
+    <cfRule type="expression" dxfId="50" priority="267">
       <formula>$G249&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="48" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="11" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="48" priority="11" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="12" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="47" priority="12" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="13" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="46" priority="13" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="44" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="5" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="6" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="8" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="9" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="10" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="39" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="7" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D285 D270">
-    <cfRule type="expression" dxfId="38" priority="271">
-      <formula>$G274&lt;&gt;""</formula>
+  <conditionalFormatting sqref="D286">
+    <cfRule type="expression" dxfId="39" priority="271">
+      <formula>$G290&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D244 D272">
-    <cfRule type="expression" dxfId="37" priority="302">
+  <conditionalFormatting sqref="D244">
+    <cfRule type="expression" dxfId="38" priority="302">
       <formula>$G245&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243">
-    <cfRule type="expression" dxfId="36" priority="303">
+    <cfRule type="expression" dxfId="37" priority="303">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D259:D260">
-    <cfRule type="expression" dxfId="35" priority="305">
+    <cfRule type="expression" dxfId="36" priority="305">
       <formula>$G265&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D261:D263">
-    <cfRule type="expression" dxfId="34" priority="307">
+    <cfRule type="expression" dxfId="35" priority="307">
       <formula>$G265&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D266">
-    <cfRule type="expression" dxfId="33" priority="339">
+    <cfRule type="expression" dxfId="34" priority="339">
       <formula>$G272&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D268">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="33" priority="2">
       <formula>$G268&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D269">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>$G269&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D297">
-    <cfRule type="expression" dxfId="0" priority="371">
+  <conditionalFormatting sqref="D298">
+    <cfRule type="expression" dxfId="31" priority="371">
       <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D270">
+    <cfRule type="expression" dxfId="0" priority="372">
+      <formula>$G275&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E5AD2B-EA85-3C46-A8BE-D801EAC11A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC5F8BC-97DA-0E44-ACD9-7F48C51F31CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35860" yWindow="2320" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="1142">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -4261,10 +4261,6 @@
   </si>
   <si>
     <t>couldNotFindConnectedAndroidDevice</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Could not find a connected Android device. Connect a device or start an emulator. Enable USB debug option on Android device.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -9579,52 +9575,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>couldNotFindConnectedAndroidDeviceByUdid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>Android</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tsukushi A Round Gothic Bold"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>端末を検出できません。(udid=${subject})</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>couldNotFindConnectedAndroidDeviceByVersion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Could not find a connected Android device. (platformVersion=${subject})</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>Android</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tsukushi A Round Gothic Bold"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>端末を検出できません。(platformVersion=${subject})</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Could not find the connected Android device. (udid=${subject})</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>couldNotFindIosDevice</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -9633,35 +9583,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Searching device for (profileName=${subject})</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>端末を検索しています。 (profileName=${subject})</t>
-    <rPh sb="0" eb="2">
-      <t>タンマテゥ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>deviceFound</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Device found. (${subject})</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>端末が見つかりました。(${subject})</t>
-    <rPh sb="0" eb="2">
-      <t>タンマテゥ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ミツカリ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -9705,6 +9631,106 @@
   </si>
   <si>
     <t>Note: Initializing IOSDriver may take a few minutes to build and install WebDriverAgent.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Could not find connected Android device. Connect a device or start an emulator. Enable USB debug option on Android device.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末が見つかりました。(${subject})</t>
+    <rPh sb="6" eb="8">
+      <t>タンマテゥ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミツカリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>connectedDeviceFound</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Connected device found. (${subject})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続された端末が見つかりました。(${subject})</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タンマテゥ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミツカリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>couldNotFindConnectedDeviceByUdid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>couldNotFindConnectedDeviceByModelAndVersion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>couldNotFindConnectedDeviceByVersion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>couldNotFindConnectedDeviceByProfile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Could not find connected device. (profile=${subject})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末を検出できません。(profile=${subject})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Could not find connected device. (platformVersion=${subject})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末を検出できません。(platformVersion=${subject})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Could not find connected device. (model=${arg1},platformVersion=${arg2})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末を検出できません。(model=${arg1},platformVersion=${arg2})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Could not find connected device. (udid=${subject})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末を検出できません。(udid=${subject})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Searching device for the profile. (profileName=${subject})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロファイルに対応する端末を検索しています。 (profileName=${subject})</t>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タンマテゥ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10008,22 +10034,22 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -10034,14 +10060,14 @@
     <xf numFmtId="49" fontId="8" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10049,14 +10075,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{C40AA10B-FA57-1748-8D8E-3E12991DC054}"/>
   </cellStyles>
-  <dxfs count="136">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="138">
     <dxf>
       <fill>
         <patternFill>
@@ -10264,6 +10283,27 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11318,11 +11358,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I391"/>
+  <dimension ref="A1:I394"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="4" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A270" sqref="A270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>
@@ -11387,16 +11427,16 @@
     </row>
     <row r="6" spans="1:9" ht="19" customHeight="1">
       <c r="A6" s="19" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>878</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>879</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>880</v>
-      </c>
       <c r="D6" s="20" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
@@ -11406,16 +11446,16 @@
     </row>
     <row r="7" spans="1:9" ht="19" customHeight="1">
       <c r="A7" s="19" t="s">
+        <v>876</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>877</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>878</v>
-      </c>
       <c r="C7" s="20" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -11428,7 +11468,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>21</v>
@@ -11447,7 +11487,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>23</v>
@@ -11466,7 +11506,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>25</v>
@@ -11485,7 +11525,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>27</v>
@@ -11504,7 +11544,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>29</v>
@@ -11523,7 +11563,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>31</v>
@@ -11542,7 +11582,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>33</v>
@@ -11561,7 +11601,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>35</v>
@@ -11580,7 +11620,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>37</v>
@@ -11599,7 +11639,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>39</v>
@@ -11618,7 +11658,7 @@
         <v>40</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>41</v>
@@ -11637,7 +11677,7 @@
         <v>42</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>43</v>
@@ -11656,7 +11696,7 @@
         <v>44</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>45</v>
@@ -11675,7 +11715,7 @@
         <v>46</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>47</v>
@@ -11694,7 +11734,7 @@
         <v>48</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>49</v>
@@ -11713,7 +11753,7 @@
         <v>50</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>51</v>
@@ -11732,7 +11772,7 @@
         <v>52</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>53</v>
@@ -11748,16 +11788,16 @@
     </row>
     <row r="25" spans="1:9" ht="19" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
@@ -11767,16 +11807,16 @@
     </row>
     <row r="26" spans="1:9" ht="19" customHeight="1">
       <c r="A26" s="19" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -11786,16 +11826,16 @@
     </row>
     <row r="27" spans="1:9" ht="19" customHeight="1">
       <c r="A27" s="19" t="s">
+        <v>911</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>912</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="C27" s="20" t="s">
         <v>913</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="D27" s="20" t="s">
         <v>914</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>915</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
@@ -11808,7 +11848,7 @@
         <v>98</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>99</v>
@@ -11827,7 +11867,7 @@
         <v>54</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>55</v>
@@ -11846,10 +11886,10 @@
         <v>56</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>910</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>911</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>289</v>
@@ -11903,13 +11943,13 @@
         <v>100</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -11919,16 +11959,16 @@
     </row>
     <row r="34" spans="1:9" ht="19" customHeight="1">
       <c r="A34" s="19" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B34" s="20" t="s">
         <v>1105</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="C34" s="20" t="s">
         <v>1106</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>1107</v>
-      </c>
       <c r="D34" s="20" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -11938,16 +11978,16 @@
     </row>
     <row r="35" spans="1:9" ht="19" customHeight="1">
       <c r="A35" s="19" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>1081</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="C35" s="20" t="s">
         <v>1082</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="D35" s="22" t="s">
         <v>1083</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>1084</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -11957,16 +11997,16 @@
     </row>
     <row r="36" spans="1:9" ht="19" customHeight="1">
       <c r="A36" s="19" t="s">
+        <v>932</v>
+      </c>
+      <c r="B36" s="20" t="s">
         <v>933</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="C36" s="20" t="s">
         <v>934</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>935</v>
-      </c>
       <c r="D36" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
@@ -11979,7 +12019,7 @@
         <v>101</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>102</v>
@@ -12036,7 +12076,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>108</v>
@@ -12071,16 +12111,16 @@
     </row>
     <row r="42" spans="1:9" ht="19" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -12090,16 +12130,16 @@
     </row>
     <row r="43" spans="1:9" ht="19" customHeight="1">
       <c r="A43" s="19" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -12112,7 +12152,7 @@
         <v>111</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>112</v>
@@ -12131,7 +12171,7 @@
         <v>113</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>114</v>
@@ -12150,7 +12190,7 @@
         <v>115</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>116</v>
@@ -12223,16 +12263,16 @@
     </row>
     <row r="50" spans="1:9" ht="19" customHeight="1">
       <c r="A50" s="19" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -12242,16 +12282,16 @@
     </row>
     <row r="51" spans="1:9" ht="19" customHeight="1">
       <c r="A51" s="19" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -12280,16 +12320,16 @@
     </row>
     <row r="53" spans="1:9" ht="19" customHeight="1">
       <c r="A53" s="19" t="s">
+        <v>964</v>
+      </c>
+      <c r="B53" s="20" t="s">
         <v>965</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="C53" s="20" t="s">
         <v>966</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="D53" s="20" t="s">
         <v>967</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>968</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
@@ -12299,16 +12339,16 @@
     </row>
     <row r="54" spans="1:9" ht="19" customHeight="1">
       <c r="A54" s="19" t="s">
+        <v>968</v>
+      </c>
+      <c r="B54" s="20" t="s">
         <v>969</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="C54" s="20" t="s">
         <v>970</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="D54" s="20" t="s">
         <v>971</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>972</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -12318,16 +12358,16 @@
     </row>
     <row r="55" spans="1:9" ht="19" customHeight="1">
       <c r="A55" s="19" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
@@ -12337,16 +12377,16 @@
     </row>
     <row r="56" spans="1:9" ht="19" customHeight="1">
       <c r="A56" s="19" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
@@ -12356,16 +12396,16 @@
     </row>
     <row r="57" spans="1:9" ht="19" customHeight="1">
       <c r="A57" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
@@ -12378,7 +12418,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>62</v>
@@ -12451,16 +12491,16 @@
     </row>
     <row r="62" spans="1:9" ht="19" customHeight="1">
       <c r="A62" s="19" t="s">
+        <v>924</v>
+      </c>
+      <c r="B62" s="20" t="s">
         <v>925</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="C62" s="20" t="s">
         <v>926</v>
       </c>
-      <c r="C62" s="20" t="s">
-        <v>927</v>
-      </c>
       <c r="D62" s="20" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
@@ -12470,16 +12510,16 @@
     </row>
     <row r="63" spans="1:9" ht="19" customHeight="1">
       <c r="A63" s="19" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B63" s="20" t="s">
+        <v>825</v>
+      </c>
+      <c r="C63" s="20" t="s">
         <v>826</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="D63" s="20" t="s">
         <v>827</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>828</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
@@ -12489,16 +12529,16 @@
     </row>
     <row r="64" spans="1:9" ht="19" customHeight="1">
       <c r="A64" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B64" s="20" t="s">
+        <v>829</v>
+      </c>
+      <c r="C64" s="20" t="s">
         <v>830</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="D64" s="20" t="s">
         <v>831</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>832</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
@@ -12508,16 +12548,16 @@
     </row>
     <row r="65" spans="1:9" ht="19" customHeight="1">
       <c r="A65" s="19" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
@@ -12527,16 +12567,16 @@
     </row>
     <row r="66" spans="1:9" ht="19" customHeight="1">
       <c r="A66" s="19" t="s">
+        <v>821</v>
+      </c>
+      <c r="B66" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B66" s="20" t="s">
-        <v>823</v>
-      </c>
       <c r="C66" s="20" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
@@ -12546,16 +12586,16 @@
     </row>
     <row r="67" spans="1:9" ht="19" customHeight="1">
       <c r="A67" s="19" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B67" s="20" t="s">
+        <v>839</v>
+      </c>
+      <c r="C67" s="20" t="s">
         <v>840</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="D67" s="20" t="s">
         <v>841</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>842</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
@@ -12565,16 +12605,16 @@
     </row>
     <row r="68" spans="1:9" ht="19" customHeight="1">
       <c r="A68" s="19" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
@@ -12584,16 +12624,16 @@
     </row>
     <row r="69" spans="1:9" ht="19" customHeight="1">
       <c r="A69" s="19" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
@@ -12603,16 +12643,16 @@
     </row>
     <row r="70" spans="1:9" ht="19" customHeight="1">
       <c r="A70" s="19" t="s">
+        <v>834</v>
+      </c>
+      <c r="B70" s="20" t="s">
         <v>835</v>
       </c>
-      <c r="B70" s="20" t="s">
-        <v>836</v>
-      </c>
       <c r="C70" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="D70" s="21" t="s">
         <v>889</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>890</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
@@ -12631,7 +12671,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
@@ -12669,7 +12709,7 @@
         <v>74</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
@@ -12698,16 +12738,16 @@
     </row>
     <row r="75" spans="1:9" ht="19" customHeight="1">
       <c r="A75" s="19" t="s">
+        <v>935</v>
+      </c>
+      <c r="B75" s="20" t="s">
         <v>936</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="C75" s="20" t="s">
         <v>937</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="D75" s="20" t="s">
         <v>938</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>939</v>
       </c>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
@@ -12736,16 +12776,16 @@
     </row>
     <row r="77" spans="1:9" ht="19" customHeight="1">
       <c r="A77" s="19" t="s">
+        <v>903</v>
+      </c>
+      <c r="B77" s="20" t="s">
         <v>904</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="C77" s="20" t="s">
         <v>905</v>
       </c>
-      <c r="C77" s="20" t="s">
-        <v>906</v>
-      </c>
       <c r="D77" s="22" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="20"/>
@@ -12907,16 +12947,16 @@
     </row>
     <row r="86" spans="1:9" ht="19" customHeight="1">
       <c r="A86" s="19" t="s">
+        <v>928</v>
+      </c>
+      <c r="B86" s="19" t="s">
         <v>929</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="C86" s="20" t="s">
         <v>930</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="D86" s="22" t="s">
         <v>931</v>
-      </c>
-      <c r="D86" s="22" t="s">
-        <v>932</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -12948,7 +12988,7 @@
         <v>96</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C88" s="20" t="s">
         <v>97</v>
@@ -12964,16 +13004,16 @@
     </row>
     <row r="89" spans="1:9" ht="19" customHeight="1">
       <c r="A89" s="19" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
@@ -12983,16 +13023,16 @@
     </row>
     <row r="90" spans="1:9" ht="19" customHeight="1">
       <c r="A90" s="19" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
@@ -13002,16 +13042,16 @@
     </row>
     <row r="91" spans="1:9" ht="19" customHeight="1">
       <c r="A91" s="19" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
@@ -13021,16 +13061,16 @@
     </row>
     <row r="92" spans="1:9" ht="19" customHeight="1">
       <c r="A92" s="19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
@@ -13040,16 +13080,16 @@
     </row>
     <row r="93" spans="1:9" ht="19" customHeight="1">
       <c r="A93" s="19" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
@@ -13059,16 +13099,16 @@
     </row>
     <row r="94" spans="1:9" ht="19" customHeight="1">
       <c r="A94" s="19" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C94" s="20" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D94" s="22" t="s">
         <v>1022</v>
-      </c>
-      <c r="D94" s="22" t="s">
-        <v>1023</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -13078,16 +13118,16 @@
     </row>
     <row r="95" spans="1:9" ht="19" customHeight="1">
       <c r="A95" s="19" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C95" s="20" t="s">
+        <v>986</v>
+      </c>
+      <c r="D95" s="20" t="s">
         <v>987</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>988</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
@@ -13097,16 +13137,16 @@
     </row>
     <row r="96" spans="1:9" ht="19" customHeight="1">
       <c r="A96" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="B96" s="19" t="s">
         <v>990</v>
       </c>
-      <c r="B96" s="19" t="s">
-        <v>991</v>
-      </c>
       <c r="C96" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="D96" s="20" t="s">
         <v>993</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>994</v>
       </c>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
@@ -13116,16 +13156,16 @@
     </row>
     <row r="97" spans="1:9" ht="19" customHeight="1">
       <c r="A97" s="19" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
@@ -13135,16 +13175,16 @@
     </row>
     <row r="98" spans="1:9" ht="19" customHeight="1">
       <c r="A98" s="19" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
@@ -13154,16 +13194,16 @@
     </row>
     <row r="99" spans="1:9" ht="19" customHeight="1">
       <c r="A99" s="19" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
@@ -13173,16 +13213,16 @@
     </row>
     <row r="100" spans="1:9" ht="19" customHeight="1">
       <c r="A100" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="B100" s="19" t="s">
         <v>855</v>
       </c>
-      <c r="B100" s="19" t="s">
-        <v>856</v>
-      </c>
       <c r="C100" s="20" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
@@ -13192,16 +13232,16 @@
     </row>
     <row r="101" spans="1:9" ht="19" customHeight="1">
       <c r="A101" s="19" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C101" s="20" t="s">
+        <v>994</v>
+      </c>
+      <c r="D101" s="20" t="s">
         <v>995</v>
-      </c>
-      <c r="D101" s="20" t="s">
-        <v>996</v>
       </c>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
@@ -13211,16 +13251,16 @@
     </row>
     <row r="102" spans="1:9" ht="19" customHeight="1">
       <c r="A102" s="19" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
@@ -13230,16 +13270,16 @@
     </row>
     <row r="103" spans="1:9" ht="19" customHeight="1">
       <c r="A103" s="19" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
@@ -13249,16 +13289,16 @@
     </row>
     <row r="104" spans="1:9" ht="19" customHeight="1">
       <c r="A104" s="19" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
@@ -13268,16 +13308,16 @@
     </row>
     <row r="105" spans="1:9" ht="19" customHeight="1">
       <c r="A105" s="19" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
@@ -13287,16 +13327,16 @@
     </row>
     <row r="106" spans="1:9" ht="19" customHeight="1">
       <c r="A106" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
@@ -13309,7 +13349,7 @@
         <v>124</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C107" s="20" t="s">
         <v>125</v>
@@ -13325,16 +13365,16 @@
     </row>
     <row r="108" spans="1:9" ht="19" customHeight="1">
       <c r="A108" s="19" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B108" s="20" t="s">
         <v>1027</v>
       </c>
-      <c r="B108" s="20" t="s">
-        <v>1028</v>
-      </c>
       <c r="C108" s="20" t="s">
+        <v>984</v>
+      </c>
+      <c r="D108" s="20" t="s">
         <v>985</v>
-      </c>
-      <c r="D108" s="20" t="s">
-        <v>986</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
@@ -13344,16 +13384,16 @@
     </row>
     <row r="109" spans="1:9" ht="19" customHeight="1">
       <c r="A109" s="19" t="s">
+        <v>942</v>
+      </c>
+      <c r="B109" s="20" t="s">
         <v>943</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="C109" s="20" t="s">
+        <v>945</v>
+      </c>
+      <c r="D109" s="20" t="s">
         <v>944</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>946</v>
-      </c>
-      <c r="D109" s="20" t="s">
-        <v>945</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
@@ -13363,16 +13403,16 @@
     </row>
     <row r="110" spans="1:9" ht="19" customHeight="1">
       <c r="A110" s="19" t="s">
+        <v>946</v>
+      </c>
+      <c r="B110" s="20" t="s">
         <v>947</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="C110" s="20" t="s">
         <v>948</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="D110" s="20" t="s">
         <v>949</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>950</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
@@ -13420,16 +13460,16 @@
     </row>
     <row r="113" spans="1:9" ht="19" customHeight="1">
       <c r="A113" s="19" t="s">
+        <v>895</v>
+      </c>
+      <c r="B113" s="19" t="s">
         <v>896</v>
       </c>
-      <c r="B113" s="19" t="s">
+      <c r="C113" s="20" t="s">
+        <v>898</v>
+      </c>
+      <c r="D113" s="20" t="s">
         <v>897</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>899</v>
-      </c>
-      <c r="D113" s="20" t="s">
-        <v>898</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
@@ -13439,16 +13479,16 @@
     </row>
     <row r="114" spans="1:9" ht="19" customHeight="1">
       <c r="A114" s="19" t="s">
+        <v>899</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>902</v>
+      </c>
+      <c r="C114" s="20" t="s">
         <v>900</v>
       </c>
-      <c r="B114" s="19" t="s">
-        <v>903</v>
-      </c>
-      <c r="C114" s="20" t="s">
+      <c r="D114" s="20" t="s">
         <v>901</v>
-      </c>
-      <c r="D114" s="20" t="s">
-        <v>902</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
@@ -13461,7 +13501,7 @@
         <v>130</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C115" s="20" t="s">
         <v>131</v>
@@ -13480,7 +13520,7 @@
         <v>132</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C116" s="20" t="s">
         <v>133</v>
@@ -13499,7 +13539,7 @@
         <v>134</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C117" s="20" t="s">
         <v>135</v>
@@ -13518,7 +13558,7 @@
         <v>136</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C118" s="20" t="s">
         <v>137</v>
@@ -13537,7 +13577,7 @@
         <v>138</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C119" s="20" t="s">
         <v>139</v>
@@ -13556,7 +13596,7 @@
         <v>140</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C120" s="20" t="s">
         <v>141</v>
@@ -13575,7 +13615,7 @@
         <v>142</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>143</v>
@@ -13594,7 +13634,7 @@
         <v>144</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>17</v>
@@ -13613,7 +13653,7 @@
         <v>145</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C123" s="20" t="s">
         <v>146</v>
@@ -13632,7 +13672,7 @@
         <v>147</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C124" s="20" t="s">
         <v>19</v>
@@ -13651,7 +13691,7 @@
         <v>148</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C125" s="20" t="s">
         <v>149</v>
@@ -13670,7 +13710,7 @@
         <v>150</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>151</v>
@@ -13689,7 +13729,7 @@
         <v>152</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C127" s="20" t="s">
         <v>153</v>
@@ -13708,7 +13748,7 @@
         <v>154</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C128" s="20" t="s">
         <v>155</v>
@@ -13727,7 +13767,7 @@
         <v>156</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C129" s="20" t="s">
         <v>157</v>
@@ -13746,7 +13786,7 @@
         <v>158</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C130" s="20" t="s">
         <v>159</v>
@@ -13765,7 +13805,7 @@
         <v>160</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>161</v>
@@ -13784,7 +13824,7 @@
         <v>162</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>163</v>
@@ -13803,7 +13843,7 @@
         <v>164</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C133" s="20" t="s">
         <v>165</v>
@@ -13822,7 +13862,7 @@
         <v>166</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C134" s="20" t="s">
         <v>167</v>
@@ -13841,7 +13881,7 @@
         <v>168</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C135" s="20" t="s">
         <v>169</v>
@@ -13860,7 +13900,7 @@
         <v>170</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C136" s="20" t="s">
         <v>171</v>
@@ -13879,7 +13919,7 @@
         <v>172</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C137" s="20" t="s">
         <v>173</v>
@@ -13898,7 +13938,7 @@
         <v>174</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C138" s="20" t="s">
         <v>175</v>
@@ -13917,7 +13957,7 @@
         <v>176</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C139" s="20" t="s">
         <v>177</v>
@@ -13936,7 +13976,7 @@
         <v>178</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C140" s="20" t="s">
         <v>179</v>
@@ -13955,7 +13995,7 @@
         <v>180</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C141" s="20" t="s">
         <v>181</v>
@@ -14161,13 +14201,13 @@
     </row>
     <row r="152" spans="1:9" ht="19" customHeight="1">
       <c r="A152" s="19" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B152" s="19" t="s">
         <v>1040</v>
       </c>
-      <c r="B152" s="19" t="s">
+      <c r="C152" s="20" t="s">
         <v>1041</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>1042</v>
       </c>
       <c r="D152" s="22" t="s">
         <v>359</v>
@@ -14180,13 +14220,13 @@
     </row>
     <row r="153" spans="1:9" ht="19" customHeight="1">
       <c r="A153" s="19" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B153" s="19" t="s">
         <v>1043</v>
       </c>
-      <c r="B153" s="19" t="s">
+      <c r="C153" s="20" t="s">
         <v>1044</v>
-      </c>
-      <c r="C153" s="20" t="s">
-        <v>1045</v>
       </c>
       <c r="D153" s="22" t="s">
         <v>360</v>
@@ -14300,7 +14340,7 @@
         <v>450</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D159" s="22" t="s">
         <v>368</v>
@@ -14319,7 +14359,7 @@
         <v>457</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D160" s="22" t="s">
         <v>375</v>
@@ -14338,7 +14378,7 @@
         <v>451</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D161" s="22" t="s">
         <v>369</v>
@@ -14357,7 +14397,7 @@
         <v>452</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D162" s="22" t="s">
         <v>370</v>
@@ -14376,7 +14416,7 @@
         <v>453</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D163" s="22" t="s">
         <v>371</v>
@@ -14395,7 +14435,7 @@
         <v>454</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D164" s="22" t="s">
         <v>372</v>
@@ -14414,7 +14454,7 @@
         <v>455</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D165" s="22" t="s">
         <v>373</v>
@@ -14433,7 +14473,7 @@
         <v>456</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D166" s="22" t="s">
         <v>374</v>
@@ -14522,16 +14562,16 @@
     </row>
     <row r="171" spans="1:9" ht="19" customHeight="1">
       <c r="A171" s="19" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B171" s="19" t="s">
         <v>1058</v>
       </c>
-      <c r="B171" s="19" t="s">
+      <c r="C171" s="20" t="s">
         <v>1059</v>
       </c>
-      <c r="C171" s="20" t="s">
+      <c r="D171" s="20" t="s">
         <v>1060</v>
-      </c>
-      <c r="D171" s="20" t="s">
-        <v>1061</v>
       </c>
       <c r="E171" s="20"/>
       <c r="F171" s="20"/>
@@ -14547,7 +14587,7 @@
         <v>462</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D172" s="22" t="s">
         <v>378</v>
@@ -14566,10 +14606,10 @@
         <v>463</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E173" s="20"/>
       <c r="F173" s="20"/>
@@ -14585,7 +14625,7 @@
         <v>468</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D174" s="22" t="s">
         <v>384</v>
@@ -14604,7 +14644,7 @@
         <v>469</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D175" s="22" t="s">
         <v>385</v>
@@ -14623,7 +14663,7 @@
         <v>464</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D176" s="22" t="s">
         <v>379</v>
@@ -14642,7 +14682,7 @@
         <v>465</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D177" s="22" t="s">
         <v>380</v>
@@ -14661,7 +14701,7 @@
         <v>466</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D178" s="22" t="s">
         <v>381</v>
@@ -14680,7 +14720,7 @@
         <v>467</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D179" s="22" t="s">
         <v>382</v>
@@ -14848,7 +14888,7 @@
         <v>248</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C188" s="20" t="s">
         <v>249</v>
@@ -14867,7 +14907,7 @@
         <v>250</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C189" s="20" t="s">
         <v>251</v>
@@ -14978,16 +15018,16 @@
     </row>
     <row r="195" spans="1:9" ht="19" customHeight="1">
       <c r="A195" s="19" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>438</v>
       </c>
       <c r="C195" s="20" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D195" s="20" t="s">
         <v>1047</v>
-      </c>
-      <c r="D195" s="20" t="s">
-        <v>1048</v>
       </c>
       <c r="E195" s="20"/>
       <c r="F195" s="20"/>
@@ -14997,16 +15037,16 @@
     </row>
     <row r="196" spans="1:9" ht="19" customHeight="1">
       <c r="A196" s="19" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B196" s="19" t="s">
         <v>438</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E196" s="20"/>
       <c r="F196" s="20"/>
@@ -15016,16 +15056,16 @@
     </row>
     <row r="197" spans="1:9" ht="19" customHeight="1">
       <c r="A197" s="19" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B197" s="19" t="s">
         <v>438</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
@@ -15035,16 +15075,16 @@
     </row>
     <row r="198" spans="1:9" ht="19" customHeight="1">
       <c r="A198" s="19" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B198" s="19" t="s">
         <v>438</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D198" s="20" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E198" s="20"/>
       <c r="F198" s="20"/>
@@ -15267,10 +15307,10 @@
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="20" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D210" s="20" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E210" s="20"/>
       <c r="F210" s="20"/>
@@ -15284,10 +15324,10 @@
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="20" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E211" s="20"/>
       <c r="F211" s="20"/>
@@ -15361,7 +15401,7 @@
         <v>487</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
@@ -15378,7 +15418,7 @@
         <v>488</v>
       </c>
       <c r="D218" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E218" s="20"/>
       <c r="F218" s="20"/>
@@ -15395,7 +15435,7 @@
         <v>489</v>
       </c>
       <c r="D219" s="20" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E219" s="20"/>
       <c r="F219" s="20"/>
@@ -15412,7 +15452,7 @@
         <v>491</v>
       </c>
       <c r="D220" s="22" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E220" s="20"/>
       <c r="F220" s="20"/>
@@ -15429,7 +15469,7 @@
         <v>495</v>
       </c>
       <c r="D221" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E221" s="20"/>
       <c r="F221" s="20"/>
@@ -15446,7 +15486,7 @@
         <v>497</v>
       </c>
       <c r="D222" s="22" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E222" s="20"/>
       <c r="F222" s="20"/>
@@ -15463,7 +15503,7 @@
         <v>499</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E223" s="20"/>
       <c r="F223" s="20"/>
@@ -15480,7 +15520,7 @@
         <v>501</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E224" s="20"/>
       <c r="F224" s="20"/>
@@ -15497,7 +15537,7 @@
         <v>503</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E225" s="20"/>
       <c r="F225" s="20"/>
@@ -15511,10 +15551,10 @@
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="20" t="s">
+        <v>939</v>
+      </c>
+      <c r="D226" s="21" t="s">
         <v>940</v>
-      </c>
-      <c r="D226" s="21" t="s">
-        <v>941</v>
       </c>
       <c r="E226" s="20"/>
       <c r="F226" s="20"/>
@@ -15531,7 +15571,7 @@
         <v>506</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E227" s="20"/>
       <c r="F227" s="20"/>
@@ -15548,7 +15588,7 @@
         <v>508</v>
       </c>
       <c r="D228" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E228" s="20"/>
       <c r="F228" s="20"/>
@@ -15565,7 +15605,7 @@
         <v>510</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E229" s="20"/>
       <c r="F229" s="20"/>
@@ -15582,7 +15622,7 @@
         <v>512</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E230" s="20"/>
       <c r="F230" s="20"/>
@@ -15599,7 +15639,7 @@
         <v>514</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E231" s="20"/>
       <c r="F231" s="20"/>
@@ -15616,7 +15656,7 @@
         <v>516</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E232" s="20"/>
       <c r="F232" s="20"/>
@@ -15633,7 +15673,7 @@
         <v>518</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E233" s="20"/>
       <c r="F233" s="20"/>
@@ -15650,7 +15690,7 @@
         <v>520</v>
       </c>
       <c r="D234" s="20" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
@@ -15667,7 +15707,7 @@
         <v>522</v>
       </c>
       <c r="D235" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
@@ -15684,7 +15724,7 @@
         <v>524</v>
       </c>
       <c r="D236" s="21" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E236" s="20"/>
       <c r="F236" s="20"/>
@@ -15701,7 +15741,7 @@
         <v>526</v>
       </c>
       <c r="D237" s="20" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E237" s="20"/>
       <c r="F237" s="20"/>
@@ -15718,7 +15758,7 @@
         <v>528</v>
       </c>
       <c r="D238" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E238" s="20"/>
       <c r="F238" s="20"/>
@@ -15735,7 +15775,7 @@
         <v>530</v>
       </c>
       <c r="D239" s="20" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E239" s="20"/>
       <c r="F239" s="20"/>
@@ -15752,7 +15792,7 @@
         <v>532</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E240" s="20"/>
       <c r="F240" s="20"/>
@@ -15769,7 +15809,7 @@
         <v>534</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E241" s="20"/>
       <c r="F241" s="20"/>
@@ -15786,7 +15826,7 @@
         <v>536</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E242" s="20"/>
       <c r="F242" s="20"/>
@@ -15803,7 +15843,7 @@
         <v>538</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E243" s="20"/>
       <c r="F243" s="20"/>
@@ -15820,7 +15860,7 @@
         <v>540</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E244" s="20"/>
       <c r="F244" s="20"/>
@@ -15837,7 +15877,7 @@
         <v>542</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E245" s="20"/>
       <c r="F245" s="20"/>
@@ -15847,14 +15887,14 @@
     </row>
     <row r="246" spans="1:9" ht="19" customHeight="1">
       <c r="A246" s="19" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="20" t="s">
         <v>543</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E246" s="20"/>
       <c r="F246" s="20"/>
@@ -15864,14 +15904,14 @@
     </row>
     <row r="247" spans="1:9" ht="19" customHeight="1">
       <c r="A247" s="19" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="20" t="s">
         <v>544</v>
       </c>
       <c r="D247" s="21" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E247" s="20"/>
       <c r="F247" s="20"/>
@@ -15881,14 +15921,14 @@
     </row>
     <row r="248" spans="1:9" ht="19" customHeight="1">
       <c r="A248" s="19" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="20" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D248" s="21" t="s">
         <v>1035</v>
-      </c>
-      <c r="D248" s="21" t="s">
-        <v>1036</v>
       </c>
       <c r="E248" s="20"/>
       <c r="F248" s="20"/>
@@ -15905,7 +15945,7 @@
         <v>546</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E249" s="20"/>
       <c r="F249" s="20"/>
@@ -15922,7 +15962,7 @@
         <v>548</v>
       </c>
       <c r="D250" s="20" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E250" s="20"/>
       <c r="F250" s="20"/>
@@ -15939,7 +15979,7 @@
         <v>550</v>
       </c>
       <c r="D251" s="21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
@@ -15956,7 +15996,7 @@
         <v>552</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E252" s="20"/>
       <c r="F252" s="20"/>
@@ -15973,7 +16013,7 @@
         <v>554</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E253" s="20"/>
       <c r="F253" s="20"/>
@@ -15990,7 +16030,7 @@
         <v>556</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E254" s="20"/>
       <c r="F254" s="20"/>
@@ -16007,7 +16047,7 @@
         <v>558</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E255" s="20"/>
       <c r="F255" s="20"/>
@@ -16024,7 +16064,7 @@
         <v>560</v>
       </c>
       <c r="D256" s="21" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E256" s="20"/>
       <c r="F256" s="20"/>
@@ -16041,7 +16081,7 @@
         <v>562</v>
       </c>
       <c r="D257" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
@@ -16058,7 +16098,7 @@
         <v>564</v>
       </c>
       <c r="D258" s="20" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E258" s="20"/>
       <c r="F258" s="20"/>
@@ -16075,7 +16115,7 @@
         <v>566</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E259" s="20"/>
       <c r="F259" s="20"/>
@@ -16089,10 +16129,10 @@
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="20" t="s">
-        <v>568</v>
+        <v>1123</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
@@ -16102,14 +16142,14 @@
     </row>
     <row r="261" spans="1:9" ht="19" customHeight="1">
       <c r="A261" s="19" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="20" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D261" s="20" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
@@ -16119,14 +16159,14 @@
     </row>
     <row r="262" spans="1:9" ht="19" customHeight="1">
       <c r="A262" s="19" t="s">
-        <v>1117</v>
+        <v>1128</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="20" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D262" s="20" t="s">
-        <v>1119</v>
+        <v>1138</v>
+      </c>
+      <c r="D262" s="22" t="s">
+        <v>1139</v>
       </c>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
@@ -16136,14 +16176,14 @@
     </row>
     <row r="263" spans="1:9" ht="19" customHeight="1">
       <c r="A263" s="19" t="s">
-        <v>1121</v>
+        <v>1129</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="20" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D263" s="20" t="s">
-        <v>1129</v>
+        <v>1136</v>
+      </c>
+      <c r="D263" s="22" t="s">
+        <v>1137</v>
       </c>
       <c r="E263" s="20"/>
       <c r="F263" s="20"/>
@@ -16153,14 +16193,14 @@
     </row>
     <row r="264" spans="1:9" ht="19" customHeight="1">
       <c r="A264" s="19" t="s">
-        <v>916</v>
+        <v>1130</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="20" t="s">
-        <v>918</v>
-      </c>
-      <c r="D264" s="20" t="s">
-        <v>917</v>
+        <v>1134</v>
+      </c>
+      <c r="D264" s="22" t="s">
+        <v>1135</v>
       </c>
       <c r="E264" s="20"/>
       <c r="F264" s="20"/>
@@ -16170,14 +16210,14 @@
     </row>
     <row r="265" spans="1:9" ht="19" customHeight="1">
       <c r="A265" s="19" t="s">
-        <v>569</v>
+        <v>1131</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="D265" s="21" t="s">
-        <v>716</v>
+        <v>1132</v>
+      </c>
+      <c r="D265" s="22" t="s">
+        <v>1133</v>
       </c>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
@@ -16187,14 +16227,14 @@
     </row>
     <row r="266" spans="1:9" ht="19" customHeight="1">
       <c r="A266" s="19" t="s">
-        <v>571</v>
+        <v>915</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="D266" s="21" t="s">
-        <v>717</v>
+        <v>917</v>
+      </c>
+      <c r="D266" s="20" t="s">
+        <v>916</v>
       </c>
       <c r="E266" s="20"/>
       <c r="F266" s="20"/>
@@ -16204,14 +16244,14 @@
     </row>
     <row r="267" spans="1:9" ht="19" customHeight="1">
       <c r="A267" s="19" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="20" t="s">
-        <v>574</v>
-      </c>
-      <c r="D267" s="20" t="s">
-        <v>718</v>
+        <v>569</v>
+      </c>
+      <c r="D267" s="21" t="s">
+        <v>715</v>
       </c>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
@@ -16221,14 +16261,14 @@
     </row>
     <row r="268" spans="1:9" ht="19" customHeight="1">
       <c r="A268" s="19" t="s">
-        <v>1122</v>
+        <v>570</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="20" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D268" s="20" t="s">
-        <v>1124</v>
+        <v>571</v>
+      </c>
+      <c r="D268" s="21" t="s">
+        <v>716</v>
       </c>
       <c r="E268" s="20"/>
       <c r="F268" s="20"/>
@@ -16238,14 +16278,14 @@
     </row>
     <row r="269" spans="1:9" ht="19" customHeight="1">
       <c r="A269" s="19" t="s">
-        <v>1125</v>
+        <v>572</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="20" t="s">
-        <v>1126</v>
+        <v>573</v>
       </c>
       <c r="D269" s="20" t="s">
-        <v>1127</v>
+        <v>717</v>
       </c>
       <c r="E269" s="20"/>
       <c r="F269" s="20"/>
@@ -16255,14 +16295,14 @@
     </row>
     <row r="270" spans="1:9" ht="19" customHeight="1">
       <c r="A270" s="19" t="s">
-        <v>577</v>
+        <v>1115</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="20" t="s">
-        <v>578</v>
+        <v>1140</v>
       </c>
       <c r="D270" s="20" t="s">
-        <v>720</v>
+        <v>1141</v>
       </c>
       <c r="E270" s="20"/>
       <c r="F270" s="20"/>
@@ -16272,14 +16312,14 @@
     </row>
     <row r="271" spans="1:9" ht="19" customHeight="1">
       <c r="A271" s="19" t="s">
-        <v>1037</v>
+        <v>1116</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="20" t="s">
-        <v>1038</v>
+        <v>1117</v>
       </c>
       <c r="D271" s="20" t="s">
-        <v>1039</v>
+        <v>1124</v>
       </c>
       <c r="E271" s="20"/>
       <c r="F271" s="20"/>
@@ -16289,14 +16329,14 @@
     </row>
     <row r="272" spans="1:9" ht="19" customHeight="1">
       <c r="A272" s="19" t="s">
-        <v>575</v>
+        <v>1125</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="20" t="s">
-        <v>576</v>
+        <v>1126</v>
       </c>
       <c r="D272" s="20" t="s">
-        <v>719</v>
+        <v>1127</v>
       </c>
       <c r="E272" s="20"/>
       <c r="F272" s="20"/>
@@ -16306,14 +16346,14 @@
     </row>
     <row r="273" spans="1:9" ht="19" customHeight="1">
       <c r="A273" s="19" t="s">
-        <v>1130</v>
+        <v>576</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="20" t="s">
-        <v>1132</v>
+        <v>577</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>1131</v>
+        <v>719</v>
       </c>
       <c r="E273" s="20"/>
       <c r="F273" s="20"/>
@@ -16323,14 +16363,14 @@
     </row>
     <row r="274" spans="1:9" ht="19" customHeight="1">
       <c r="A274" s="19" t="s">
-        <v>579</v>
+        <v>1036</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="20" t="s">
-        <v>580</v>
+        <v>1037</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>721</v>
+        <v>1038</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -16340,14 +16380,14 @@
     </row>
     <row r="275" spans="1:9" ht="19" customHeight="1">
       <c r="A275" s="19" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="20" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="D275" s="20" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
@@ -16357,14 +16397,14 @@
     </row>
     <row r="276" spans="1:9" ht="19" customHeight="1">
       <c r="A276" s="19" t="s">
-        <v>583</v>
+        <v>1120</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="D276" s="21" t="s">
-        <v>723</v>
+        <v>1122</v>
+      </c>
+      <c r="D276" s="20" t="s">
+        <v>1121</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -16374,14 +16414,14 @@
     </row>
     <row r="277" spans="1:9" ht="19" customHeight="1">
       <c r="A277" s="19" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="D277" s="21" t="s">
-        <v>724</v>
+        <v>579</v>
+      </c>
+      <c r="D277" s="20" t="s">
+        <v>720</v>
       </c>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
@@ -16391,14 +16431,14 @@
     </row>
     <row r="278" spans="1:9" ht="19" customHeight="1">
       <c r="A278" s="19" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="20" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D278" s="20" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E278" s="20"/>
       <c r="F278" s="20"/>
@@ -16408,14 +16448,14 @@
     </row>
     <row r="279" spans="1:9" ht="19" customHeight="1">
       <c r="A279" s="19" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="20" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E279" s="20"/>
       <c r="F279" s="20"/>
@@ -16425,14 +16465,14 @@
     </row>
     <row r="280" spans="1:9" ht="19" customHeight="1">
       <c r="A280" s="19" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="20" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="D280" s="21" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E280" s="20"/>
       <c r="F280" s="20"/>
@@ -16442,14 +16482,14 @@
     </row>
     <row r="281" spans="1:9" ht="19" customHeight="1">
       <c r="A281" s="19" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="D281" s="21" t="s">
-        <v>728</v>
+        <v>587</v>
+      </c>
+      <c r="D281" s="20" t="s">
+        <v>724</v>
       </c>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
@@ -16459,14 +16499,14 @@
     </row>
     <row r="282" spans="1:9" ht="19" customHeight="1">
       <c r="A282" s="19" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="20" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E282" s="20"/>
       <c r="F282" s="20"/>
@@ -16476,14 +16516,14 @@
     </row>
     <row r="283" spans="1:9" ht="19" customHeight="1">
       <c r="A283" s="19" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="20" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="D283" s="21" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
@@ -16493,14 +16533,14 @@
     </row>
     <row r="284" spans="1:9" ht="19" customHeight="1">
       <c r="A284" s="19" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="20" t="s">
-        <v>600</v>
-      </c>
-      <c r="D284" s="20" t="s">
-        <v>731</v>
+        <v>593</v>
+      </c>
+      <c r="D284" s="21" t="s">
+        <v>727</v>
       </c>
       <c r="E284" s="20"/>
       <c r="F284" s="20"/>
@@ -16510,14 +16550,14 @@
     </row>
     <row r="285" spans="1:9" ht="19" customHeight="1">
       <c r="A285" s="19" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="20" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="D285" s="21" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
@@ -16527,14 +16567,14 @@
     </row>
     <row r="286" spans="1:9" ht="19" customHeight="1">
       <c r="A286" s="19" t="s">
-        <v>957</v>
+        <v>596</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="20" t="s">
-        <v>958</v>
-      </c>
-      <c r="D286" s="20" t="s">
-        <v>959</v>
+        <v>597</v>
+      </c>
+      <c r="D286" s="21" t="s">
+        <v>729</v>
       </c>
       <c r="E286" s="20"/>
       <c r="F286" s="20"/>
@@ -16544,14 +16584,14 @@
     </row>
     <row r="287" spans="1:9" ht="19" customHeight="1">
       <c r="A287" s="19" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="20" t="s">
-        <v>604</v>
-      </c>
-      <c r="D287" s="21" t="s">
-        <v>733</v>
+        <v>599</v>
+      </c>
+      <c r="D287" s="20" t="s">
+        <v>730</v>
       </c>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
@@ -16561,14 +16601,14 @@
     </row>
     <row r="288" spans="1:9" ht="19" customHeight="1">
       <c r="A288" s="19" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="20" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D288" s="21" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -16578,14 +16618,14 @@
     </row>
     <row r="289" spans="1:9" ht="19" customHeight="1">
       <c r="A289" s="19" t="s">
-        <v>1029</v>
+        <v>956</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="20" t="s">
-        <v>1030</v>
+        <v>957</v>
       </c>
       <c r="D289" s="20" t="s">
-        <v>1031</v>
+        <v>958</v>
       </c>
       <c r="E289" s="20"/>
       <c r="F289" s="20"/>
@@ -16595,14 +16635,14 @@
     </row>
     <row r="290" spans="1:9" ht="19" customHeight="1">
       <c r="A290" s="19" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="20" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D290" s="21" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -16612,14 +16652,14 @@
     </row>
     <row r="291" spans="1:9" ht="19" customHeight="1">
       <c r="A291" s="19" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="20" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E291" s="20"/>
       <c r="F291" s="20"/>
@@ -16629,14 +16669,14 @@
     </row>
     <row r="292" spans="1:9" ht="19" customHeight="1">
       <c r="A292" s="19" t="s">
-        <v>611</v>
+        <v>1028</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="20" t="s">
-        <v>612</v>
+        <v>1029</v>
       </c>
       <c r="D292" s="20" t="s">
-        <v>737</v>
+        <v>1030</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -16646,14 +16686,14 @@
     </row>
     <row r="293" spans="1:9" ht="19" customHeight="1">
       <c r="A293" s="19" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="D293" s="20" t="s">
-        <v>738</v>
+        <v>607</v>
+      </c>
+      <c r="D293" s="21" t="s">
+        <v>734</v>
       </c>
       <c r="E293" s="20"/>
       <c r="F293" s="20"/>
@@ -16663,14 +16703,14 @@
     </row>
     <row r="294" spans="1:9" ht="19" customHeight="1">
       <c r="A294" s="19" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="20" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="D294" s="21" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -16680,14 +16720,14 @@
     </row>
     <row r="295" spans="1:9" ht="19" customHeight="1">
       <c r="A295" s="19" t="s">
-        <v>1086</v>
+        <v>610</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="20" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D295" s="21" t="s">
-        <v>1088</v>
+        <v>611</v>
+      </c>
+      <c r="D295" s="20" t="s">
+        <v>736</v>
       </c>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
@@ -16697,14 +16737,14 @@
     </row>
     <row r="296" spans="1:9" ht="19" customHeight="1">
       <c r="A296" s="19" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="20" t="s">
-        <v>618</v>
-      </c>
-      <c r="D296" s="22" t="s">
-        <v>740</v>
+        <v>613</v>
+      </c>
+      <c r="D296" s="20" t="s">
+        <v>737</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -16714,14 +16754,14 @@
     </row>
     <row r="297" spans="1:9" ht="19" customHeight="1">
       <c r="A297" s="19" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="20" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>942</v>
+        <v>738</v>
       </c>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
@@ -16731,14 +16771,14 @@
     </row>
     <row r="298" spans="1:9" ht="19" customHeight="1">
       <c r="A298" s="19" t="s">
-        <v>621</v>
+        <v>1085</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="20" t="s">
-        <v>622</v>
+        <v>1086</v>
       </c>
       <c r="D298" s="21" t="s">
-        <v>741</v>
+        <v>1087</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -16748,14 +16788,14 @@
     </row>
     <row r="299" spans="1:9" ht="19" customHeight="1">
       <c r="A299" s="19" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="D299" s="20" t="s">
-        <v>742</v>
+        <v>617</v>
+      </c>
+      <c r="D299" s="22" t="s">
+        <v>739</v>
       </c>
       <c r="E299" s="20"/>
       <c r="F299" s="20"/>
@@ -16765,14 +16805,14 @@
     </row>
     <row r="300" spans="1:9" ht="19" customHeight="1">
       <c r="A300" s="19" t="s">
-        <v>954</v>
+        <v>618</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="20" t="s">
-        <v>955</v>
-      </c>
-      <c r="D300" s="20" t="s">
-        <v>956</v>
+        <v>619</v>
+      </c>
+      <c r="D300" s="21" t="s">
+        <v>941</v>
       </c>
       <c r="E300" s="20"/>
       <c r="F300" s="20"/>
@@ -16782,14 +16822,14 @@
     </row>
     <row r="301" spans="1:9" ht="19" customHeight="1">
       <c r="A301" s="19" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="20" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D301" s="21" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
@@ -16799,14 +16839,14 @@
     </row>
     <row r="302" spans="1:9" ht="19" customHeight="1">
       <c r="A302" s="19" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="20" t="s">
-        <v>960</v>
-      </c>
-      <c r="D302" s="21" t="s">
-        <v>961</v>
+        <v>623</v>
+      </c>
+      <c r="D302" s="20" t="s">
+        <v>741</v>
       </c>
       <c r="E302" s="20"/>
       <c r="F302" s="20"/>
@@ -16816,14 +16856,14 @@
     </row>
     <row r="303" spans="1:9" ht="19" customHeight="1">
       <c r="A303" s="19" t="s">
-        <v>628</v>
+        <v>953</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="20" t="s">
-        <v>629</v>
-      </c>
-      <c r="D303" s="21" t="s">
-        <v>744</v>
+        <v>954</v>
+      </c>
+      <c r="D303" s="20" t="s">
+        <v>955</v>
       </c>
       <c r="E303" s="20"/>
       <c r="F303" s="20"/>
@@ -16833,14 +16873,14 @@
     </row>
     <row r="304" spans="1:9" ht="19" customHeight="1">
       <c r="A304" s="19" t="s">
-        <v>962</v>
+        <v>624</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="20" t="s">
-        <v>963</v>
-      </c>
-      <c r="D304" s="20" t="s">
-        <v>964</v>
+        <v>625</v>
+      </c>
+      <c r="D304" s="21" t="s">
+        <v>742</v>
       </c>
       <c r="E304" s="20"/>
       <c r="F304" s="20"/>
@@ -16850,14 +16890,14 @@
     </row>
     <row r="305" spans="1:9" ht="19" customHeight="1">
       <c r="A305" s="19" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="20" t="s">
-        <v>631</v>
+        <v>959</v>
       </c>
       <c r="D305" s="21" t="s">
-        <v>745</v>
+        <v>960</v>
       </c>
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
@@ -16867,14 +16907,14 @@
     </row>
     <row r="306" spans="1:9" ht="19" customHeight="1">
       <c r="A306" s="19" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="20" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
@@ -16884,14 +16924,14 @@
     </row>
     <row r="307" spans="1:9" ht="19" customHeight="1">
       <c r="A307" s="19" t="s">
-        <v>634</v>
+        <v>961</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="20" t="s">
-        <v>635</v>
+        <v>962</v>
       </c>
       <c r="D307" s="20" t="s">
-        <v>747</v>
+        <v>963</v>
       </c>
       <c r="E307" s="20"/>
       <c r="F307" s="20"/>
@@ -16901,14 +16941,14 @@
     </row>
     <row r="308" spans="1:9" ht="19" customHeight="1">
       <c r="A308" s="19" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="20" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D308" s="21" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -16918,14 +16958,14 @@
     </row>
     <row r="309" spans="1:9" ht="19" customHeight="1">
       <c r="A309" s="19" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="20" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E309" s="20"/>
       <c r="F309" s="20"/>
@@ -16935,14 +16975,14 @@
     </row>
     <row r="310" spans="1:9" ht="19" customHeight="1">
       <c r="A310" s="19" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="20" t="s">
-        <v>641</v>
-      </c>
-      <c r="D310" s="21" t="s">
-        <v>750</v>
+        <v>634</v>
+      </c>
+      <c r="D310" s="20" t="s">
+        <v>746</v>
       </c>
       <c r="E310" s="20"/>
       <c r="F310" s="20"/>
@@ -16952,14 +16992,14 @@
     </row>
     <row r="311" spans="1:9" ht="19" customHeight="1">
       <c r="A311" s="19" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="20" t="s">
-        <v>643</v>
-      </c>
-      <c r="D311" s="22" t="s">
-        <v>751</v>
+        <v>636</v>
+      </c>
+      <c r="D311" s="21" t="s">
+        <v>747</v>
       </c>
       <c r="E311" s="20"/>
       <c r="F311" s="20"/>
@@ -16969,14 +17009,14 @@
     </row>
     <row r="312" spans="1:9" ht="19" customHeight="1">
       <c r="A312" s="19" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="20" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="D312" s="21" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E312" s="20"/>
       <c r="F312" s="20"/>
@@ -16986,14 +17026,14 @@
     </row>
     <row r="313" spans="1:9" ht="19" customHeight="1">
       <c r="A313" s="19" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="20" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="D313" s="21" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -17003,14 +17043,14 @@
     </row>
     <row r="314" spans="1:9" ht="19" customHeight="1">
       <c r="A314" s="19" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="20" t="s">
-        <v>649</v>
-      </c>
-      <c r="D314" s="21" t="s">
-        <v>754</v>
+        <v>642</v>
+      </c>
+      <c r="D314" s="22" t="s">
+        <v>750</v>
       </c>
       <c r="E314" s="20"/>
       <c r="F314" s="20"/>
@@ -17020,14 +17060,14 @@
     </row>
     <row r="315" spans="1:9" ht="19" customHeight="1">
       <c r="A315" s="19" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="20" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E315" s="20"/>
       <c r="F315" s="20"/>
@@ -17037,14 +17077,14 @@
     </row>
     <row r="316" spans="1:9" ht="19" customHeight="1">
       <c r="A316" s="19" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="20" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="D316" s="21" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E316" s="20"/>
       <c r="F316" s="20"/>
@@ -17054,14 +17094,14 @@
     </row>
     <row r="317" spans="1:9" ht="19" customHeight="1">
       <c r="A317" s="19" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="20" t="s">
-        <v>655</v>
-      </c>
-      <c r="D317" s="20" t="s">
-        <v>757</v>
+        <v>648</v>
+      </c>
+      <c r="D317" s="21" t="s">
+        <v>753</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -17071,14 +17111,14 @@
     </row>
     <row r="318" spans="1:9" ht="19" customHeight="1">
       <c r="A318" s="19" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="B318" s="20"/>
-      <c r="C318" s="27" t="s">
-        <v>657</v>
-      </c>
-      <c r="D318" s="27" t="s">
-        <v>758</v>
+      <c r="C318" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="D318" s="21" t="s">
+        <v>754</v>
       </c>
       <c r="E318" s="20"/>
       <c r="F318" s="20"/>
@@ -17088,14 +17128,14 @@
     </row>
     <row r="319" spans="1:9" ht="19" customHeight="1">
       <c r="A319" s="19" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="20" t="s">
-        <v>659</v>
-      </c>
-      <c r="D319" s="20" t="s">
-        <v>759</v>
+        <v>652</v>
+      </c>
+      <c r="D319" s="21" t="s">
+        <v>755</v>
       </c>
       <c r="E319" s="20"/>
       <c r="F319" s="20"/>
@@ -17105,14 +17145,14 @@
     </row>
     <row r="320" spans="1:9" ht="19" customHeight="1">
       <c r="A320" s="19" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="20" t="s">
-        <v>661</v>
-      </c>
-      <c r="D320" s="21" t="s">
-        <v>760</v>
+        <v>654</v>
+      </c>
+      <c r="D320" s="20" t="s">
+        <v>756</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -17122,14 +17162,14 @@
     </row>
     <row r="321" spans="1:9" ht="19" customHeight="1">
       <c r="A321" s="19" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="B321" s="20"/>
-      <c r="C321" s="20" t="s">
-        <v>663</v>
-      </c>
-      <c r="D321" s="21" t="s">
-        <v>761</v>
+      <c r="C321" s="27" t="s">
+        <v>656</v>
+      </c>
+      <c r="D321" s="27" t="s">
+        <v>757</v>
       </c>
       <c r="E321" s="20"/>
       <c r="F321" s="20"/>
@@ -17139,14 +17179,14 @@
     </row>
     <row r="322" spans="1:9" ht="19" customHeight="1">
       <c r="A322" s="19" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="D322" s="21" t="s">
-        <v>762</v>
+        <v>658</v>
+      </c>
+      <c r="D322" s="20" t="s">
+        <v>758</v>
       </c>
       <c r="E322" s="20"/>
       <c r="F322" s="20"/>
@@ -17156,14 +17196,14 @@
     </row>
     <row r="323" spans="1:9" ht="19" customHeight="1">
       <c r="A323" s="19" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="20" t="s">
-        <v>667</v>
-      </c>
-      <c r="D323" s="20" t="s">
-        <v>763</v>
+        <v>660</v>
+      </c>
+      <c r="D323" s="21" t="s">
+        <v>759</v>
       </c>
       <c r="E323" s="20"/>
       <c r="F323" s="20"/>
@@ -17173,14 +17213,14 @@
     </row>
     <row r="324" spans="1:9" ht="19" customHeight="1">
       <c r="A324" s="19" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="20" t="s">
-        <v>669</v>
-      </c>
-      <c r="D324" s="22" t="s">
-        <v>764</v>
+        <v>662</v>
+      </c>
+      <c r="D324" s="21" t="s">
+        <v>760</v>
       </c>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
@@ -17190,14 +17230,14 @@
     </row>
     <row r="325" spans="1:9" ht="19" customHeight="1">
       <c r="A325" s="19" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="20" t="s">
-        <v>671</v>
-      </c>
-      <c r="D325" s="20" t="s">
-        <v>765</v>
+        <v>664</v>
+      </c>
+      <c r="D325" s="21" t="s">
+        <v>761</v>
       </c>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
@@ -17207,14 +17247,14 @@
     </row>
     <row r="326" spans="1:9" ht="19" customHeight="1">
       <c r="A326" s="19" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="20" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="D326" s="20" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E326" s="20"/>
       <c r="F326" s="20"/>
@@ -17224,14 +17264,14 @@
     </row>
     <row r="327" spans="1:9" ht="19" customHeight="1">
       <c r="A327" s="19" t="s">
-        <v>951</v>
+        <v>667</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="20" t="s">
-        <v>952</v>
-      </c>
-      <c r="D327" s="20" t="s">
-        <v>953</v>
+        <v>668</v>
+      </c>
+      <c r="D327" s="22" t="s">
+        <v>763</v>
       </c>
       <c r="E327" s="20"/>
       <c r="F327" s="20"/>
@@ -17241,14 +17281,14 @@
     </row>
     <row r="328" spans="1:9" ht="19" customHeight="1">
       <c r="A328" s="19" t="s">
-        <v>1078</v>
+        <v>669</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="20" t="s">
-        <v>1079</v>
+        <v>670</v>
       </c>
       <c r="D328" s="20" t="s">
-        <v>1080</v>
+        <v>764</v>
       </c>
       <c r="E328" s="20"/>
       <c r="F328" s="20"/>
@@ -17257,10 +17297,16 @@
       <c r="I328" s="18"/>
     </row>
     <row r="329" spans="1:9" ht="19" customHeight="1">
-      <c r="A329" s="19"/>
+      <c r="A329" s="19" t="s">
+        <v>671</v>
+      </c>
       <c r="B329" s="20"/>
-      <c r="C329" s="20"/>
-      <c r="D329" s="20"/>
+      <c r="C329" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="D329" s="20" t="s">
+        <v>765</v>
+      </c>
       <c r="E329" s="20"/>
       <c r="F329" s="20"/>
       <c r="G329" s="18"/>
@@ -17268,10 +17314,16 @@
       <c r="I329" s="18"/>
     </row>
     <row r="330" spans="1:9" ht="19" customHeight="1">
-      <c r="A330" s="19"/>
+      <c r="A330" s="19" t="s">
+        <v>950</v>
+      </c>
       <c r="B330" s="20"/>
-      <c r="C330" s="20"/>
-      <c r="D330" s="20"/>
+      <c r="C330" s="20" t="s">
+        <v>951</v>
+      </c>
+      <c r="D330" s="20" t="s">
+        <v>952</v>
+      </c>
       <c r="E330" s="20"/>
       <c r="F330" s="20"/>
       <c r="G330" s="18"/>
@@ -17279,10 +17331,16 @@
       <c r="I330" s="18"/>
     </row>
     <row r="331" spans="1:9" ht="19" customHeight="1">
-      <c r="A331" s="19"/>
+      <c r="A331" s="19" t="s">
+        <v>1077</v>
+      </c>
       <c r="B331" s="20"/>
-      <c r="C331" s="20"/>
-      <c r="D331" s="20"/>
+      <c r="C331" s="20" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D331" s="20" t="s">
+        <v>1079</v>
+      </c>
       <c r="E331" s="20"/>
       <c r="F331" s="20"/>
       <c r="G331" s="18"/>
@@ -17949,425 +18007,468 @@
       <c r="H391" s="17"/>
       <c r="I391" s="18"/>
     </row>
+    <row r="392" spans="1:9" ht="19" customHeight="1">
+      <c r="A392" s="19"/>
+      <c r="B392" s="20"/>
+      <c r="C392" s="20"/>
+      <c r="D392" s="20"/>
+      <c r="E392" s="20"/>
+      <c r="F392" s="20"/>
+      <c r="G392" s="18"/>
+      <c r="H392" s="17"/>
+      <c r="I392" s="18"/>
+    </row>
+    <row r="393" spans="1:9" ht="19" customHeight="1">
+      <c r="A393" s="19"/>
+      <c r="B393" s="20"/>
+      <c r="C393" s="20"/>
+      <c r="D393" s="20"/>
+      <c r="E393" s="20"/>
+      <c r="F393" s="20"/>
+      <c r="G393" s="18"/>
+      <c r="H393" s="17"/>
+      <c r="I393" s="18"/>
+    </row>
+    <row r="394" spans="1:9" ht="19" customHeight="1">
+      <c r="A394" s="19"/>
+      <c r="B394" s="20"/>
+      <c r="C394" s="20"/>
+      <c r="D394" s="20"/>
+      <c r="E394" s="20"/>
+      <c r="F394" s="20"/>
+      <c r="G394" s="18"/>
+      <c r="H394" s="17"/>
+      <c r="I394" s="18"/>
+    </row>
   </sheetData>
   <autoFilter ref="A4:J209" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A234:E235 E221:G221 A221:C233 A257:E258 A290:E291 A312:E313 A329:G391 A327:E328 A314:C326 E314:E326 E222:E233 B65:G65 D115:D133 I8:I28 A8:G28 A66:G114 A236:C256 E236:E256 A115:C141 E115:G141 D138:D141 A30:G64 A217:G220 A142:G215 I30:I215 E259 F222:G259 E270:E289 D271 E260:G269 A259:C289 E292:E311 A292:C311 F270:G328 I217:I391">
-    <cfRule type="expression" dxfId="135" priority="262">
+  <conditionalFormatting sqref="A234:E235 E221:G221 A221:C233 A257:E258 A293:E294 A315:E316 A332:G394 A330:E331 A317:C329 E317:E329 E222:E233 B65:G65 D115:D133 I8:I28 A8:G28 A66:G114 A236:C256 E236:E256 A115:C141 E115:G141 D138:D141 A30:G64 A217:G220 A142:G215 I30:I215 E259 F222:G259 E273:E292 D274 E295:E314 A295:C314 F273:G331 E260:G272 A259:C292 I217:I394">
+    <cfRule type="expression" dxfId="137" priority="262">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H391">
-    <cfRule type="cellIs" dxfId="134" priority="217" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H394">
+    <cfRule type="cellIs" dxfId="136" priority="217" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="224" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="135" priority="224" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="225" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="134" priority="225" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="226" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="133" priority="226" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H391">
-    <cfRule type="cellIs" dxfId="130" priority="218" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H394">
+    <cfRule type="cellIs" dxfId="132" priority="218" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="219" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="219" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="221" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="221" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="222" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="222" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="223" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="223" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H391">
-    <cfRule type="cellIs" dxfId="125" priority="220" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H394">
+    <cfRule type="cellIs" dxfId="127" priority="220" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134:D135">
-    <cfRule type="expression" dxfId="124" priority="141">
+    <cfRule type="expression" dxfId="126" priority="141">
       <formula>$G134&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136:D137">
-    <cfRule type="expression" dxfId="123" priority="140">
+    <cfRule type="expression" dxfId="125" priority="140">
       <formula>$G136&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5 I5 A5">
-    <cfRule type="expression" dxfId="122" priority="134">
+    <cfRule type="expression" dxfId="124" priority="134">
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="121" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="124" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="131" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="122" priority="131" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="132" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="121" priority="132" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="133" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="120" priority="133" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="117" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="125" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="126" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="128" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="129" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="130" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="112" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="127" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="111" priority="123">
+    <cfRule type="expression" dxfId="113" priority="123">
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C216:G216 I216 A216">
-    <cfRule type="expression" dxfId="110" priority="122">
+    <cfRule type="expression" dxfId="112" priority="122">
       <formula>$G216&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H216">
-    <cfRule type="cellIs" dxfId="109" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="112" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="119" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="110" priority="119" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="120" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="109" priority="120" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="121" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="108" priority="121" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H216)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H216">
-    <cfRule type="cellIs" dxfId="105" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="113" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="114" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="116" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="117" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="118" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H216">
-    <cfRule type="cellIs" dxfId="100" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="115" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B216">
-    <cfRule type="expression" dxfId="99" priority="111">
+    <cfRule type="expression" dxfId="101" priority="111">
       <formula>$G216&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D305:D326 D221:D242 D245 D290:D292 D296:D297 D249:D258 D265 D299:D301 D272:D283">
-    <cfRule type="expression" dxfId="98" priority="264">
+  <conditionalFormatting sqref="D308:D329 D221:D242 D245 D293:D295 D299:D300 D249:D258 D267 D302:D304 D275:D286">
+    <cfRule type="expression" dxfId="100" priority="264">
       <formula>$G223&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6 I6 C6:G6">
-    <cfRule type="expression" dxfId="97" priority="95">
+    <cfRule type="expression" dxfId="99" priority="95">
       <formula>$G6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="96" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="85" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="92" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="97" priority="92" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="93" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="96" priority="93" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="94" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="95" priority="94" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="92" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="86" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="87" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="89" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="90" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="91" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="87" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="88" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7 I7 E7:G7">
-    <cfRule type="expression" dxfId="86" priority="84">
+    <cfRule type="expression" dxfId="88" priority="84">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="85" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="74" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="81" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="86" priority="81" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="82" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="85" priority="82" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="83" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="84" priority="83" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="81" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="75" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="76" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="78" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="79" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="80" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="76" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="77" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="75" priority="73">
+    <cfRule type="expression" dxfId="77" priority="73">
       <formula>$G6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="74" priority="72">
+    <cfRule type="expression" dxfId="76" priority="72">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="73" priority="71">
+    <cfRule type="expression" dxfId="75" priority="71">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="expression" dxfId="72" priority="59">
+    <cfRule type="expression" dxfId="74" priority="59">
       <formula>$G65&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114">
-    <cfRule type="cellIs" dxfId="71" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="48" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="55" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="72" priority="55" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="56" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="71" priority="56" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="57" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="70" priority="57" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114">
-    <cfRule type="cellIs" dxfId="67" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="49" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="50" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="52" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="53" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="54" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114">
-    <cfRule type="cellIs" dxfId="62" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="51" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:G29 I29">
-    <cfRule type="expression" dxfId="61" priority="25">
+    <cfRule type="expression" dxfId="63" priority="25">
       <formula>$G29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="60" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="22" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="61" priority="22" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="23" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="60" priority="23" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="24" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="59" priority="24" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="56" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="16" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="17" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="19" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="20" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="21" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="51" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="18" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D302:D304 D287:D289 D284:D285 D246:D248 D293:D295 D264 D267">
-    <cfRule type="expression" dxfId="50" priority="267">
+  <conditionalFormatting sqref="D305:D307 D290:D292 D287:D288 D246:D248 D296:D298 D266">
+    <cfRule type="expression" dxfId="52" priority="267">
       <formula>$G249&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="49" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="11" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="50" priority="11" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="12" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="49" priority="12" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="13" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="48" priority="13" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="45" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="5" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="6" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="8" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="9" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="10" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="40" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="7" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D286">
-    <cfRule type="expression" dxfId="39" priority="271">
-      <formula>$G290&lt;&gt;""</formula>
+  <conditionalFormatting sqref="D289 D269">
+    <cfRule type="expression" dxfId="41" priority="271">
+      <formula>$G273&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D244">
-    <cfRule type="expression" dxfId="38" priority="302">
+    <cfRule type="expression" dxfId="40" priority="302">
       <formula>$G245&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243">
-    <cfRule type="expression" dxfId="37" priority="303">
+    <cfRule type="expression" dxfId="39" priority="303">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D259:D260">
-    <cfRule type="expression" dxfId="36" priority="305">
-      <formula>$G265&lt;&gt;""</formula>
+    <cfRule type="expression" dxfId="38" priority="305">
+      <formula>$G267&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D261:D263">
-    <cfRule type="expression" dxfId="35" priority="307">
-      <formula>$G265&lt;&gt;""</formula>
+  <conditionalFormatting sqref="D262">
+    <cfRule type="expression" dxfId="37" priority="339">
+      <formula>$G267&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D266">
-    <cfRule type="expression" dxfId="34" priority="339">
-      <formula>$G272&lt;&gt;""</formula>
+  <conditionalFormatting sqref="D270">
+    <cfRule type="expression" dxfId="36" priority="2">
+      <formula>$G270&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D271:D272">
+    <cfRule type="expression" dxfId="35" priority="1">
+      <formula>$G271&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D301">
+    <cfRule type="expression" dxfId="34" priority="371">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D273">
+    <cfRule type="expression" dxfId="33" priority="372">
+      <formula>$G278&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D268">
-    <cfRule type="expression" dxfId="33" priority="2">
-      <formula>$G268&lt;&gt;""</formula>
+    <cfRule type="expression" dxfId="32" priority="374">
+      <formula>$G275&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D269">
-    <cfRule type="expression" dxfId="32" priority="1">
+  <conditionalFormatting sqref="D261:D265">
+    <cfRule type="expression" dxfId="31" priority="375">
       <formula>$G269&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D298">
-    <cfRule type="expression" dxfId="31" priority="371">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D270">
-    <cfRule type="expression" dxfId="0" priority="372">
-      <formula>$G275&lt;&gt;""</formula>
+  <conditionalFormatting sqref="D263:D265">
+    <cfRule type="expression" dxfId="30" priority="376">
+      <formula>$G267&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18480,102 +18581,102 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A3:A8">
-    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC5F8BC-97DA-0E44-ACD9-7F48C51F31CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6961DAE1-E3E2-9241-BF6F-15DDCAC19800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35860" yWindow="2320" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="1154">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -9730,6 +9730,102 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scenarioExecuted</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scenario executed. (duration: ${arg1} sec)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シナリオの実行が完了しました。(処理時間: ${arg1} sec)</t>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイカジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testFunctionExecuted</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Test function executed. (duration: ${arg1} sec)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト関数の実行が完了しました。(処理時間: ${arg1} sec)</t>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイカジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setupExecuted</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Setup executed. (duration: ${arg1} sec)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セットアップの実行が完了しました。(処理時間: ${arg1} sec)</t>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイカジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testClassExecuted</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Test class executed. (duration: ${arg1} sec)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストクラスの実行が完了しました。(処理時間: ${arg1} sec)</t>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイカジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -11358,11 +11454,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I394"/>
+  <dimension ref="A1:I395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A270" sqref="A270"/>
+      <pane ySplit="4" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A336" sqref="A336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>
@@ -17348,10 +17444,16 @@
       <c r="I331" s="18"/>
     </row>
     <row r="332" spans="1:9" ht="19" customHeight="1">
-      <c r="A332" s="19"/>
+      <c r="A332" s="19" t="s">
+        <v>1148</v>
+      </c>
       <c r="B332" s="20"/>
-      <c r="C332" s="20"/>
-      <c r="D332" s="20"/>
+      <c r="C332" s="20" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D332" s="20" t="s">
+        <v>1150</v>
+      </c>
       <c r="E332" s="20"/>
       <c r="F332" s="20"/>
       <c r="G332" s="18"/>
@@ -17359,10 +17461,16 @@
       <c r="I332" s="18"/>
     </row>
     <row r="333" spans="1:9" ht="19" customHeight="1">
-      <c r="A333" s="19"/>
+      <c r="A333" s="19" t="s">
+        <v>1142</v>
+      </c>
       <c r="B333" s="20"/>
-      <c r="C333" s="20"/>
-      <c r="D333" s="20"/>
+      <c r="C333" s="20" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D333" s="20" t="s">
+        <v>1144</v>
+      </c>
       <c r="E333" s="20"/>
       <c r="F333" s="20"/>
       <c r="G333" s="18"/>
@@ -17370,10 +17478,16 @@
       <c r="I333" s="18"/>
     </row>
     <row r="334" spans="1:9" ht="19" customHeight="1">
-      <c r="A334" s="19"/>
+      <c r="A334" s="19" t="s">
+        <v>1145</v>
+      </c>
       <c r="B334" s="20"/>
-      <c r="C334" s="20"/>
-      <c r="D334" s="20"/>
+      <c r="C334" s="20" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D334" s="20" t="s">
+        <v>1147</v>
+      </c>
       <c r="E334" s="20"/>
       <c r="F334" s="20"/>
       <c r="G334" s="18"/>
@@ -17381,10 +17495,16 @@
       <c r="I334" s="18"/>
     </row>
     <row r="335" spans="1:9" ht="19" customHeight="1">
-      <c r="A335" s="19"/>
+      <c r="A335" s="19" t="s">
+        <v>1151</v>
+      </c>
       <c r="B335" s="20"/>
-      <c r="C335" s="20"/>
-      <c r="D335" s="20"/>
+      <c r="C335" s="20" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D335" s="20" t="s">
+        <v>1153</v>
+      </c>
       <c r="E335" s="20"/>
       <c r="F335" s="20"/>
       <c r="G335" s="18"/>
@@ -18040,15 +18160,26 @@
       <c r="H394" s="17"/>
       <c r="I394" s="18"/>
     </row>
+    <row r="395" spans="1:9" ht="19" customHeight="1">
+      <c r="A395" s="19"/>
+      <c r="B395" s="20"/>
+      <c r="C395" s="20"/>
+      <c r="D395" s="20"/>
+      <c r="E395" s="20"/>
+      <c r="F395" s="20"/>
+      <c r="G395" s="18"/>
+      <c r="H395" s="17"/>
+      <c r="I395" s="18"/>
+    </row>
   </sheetData>
   <autoFilter ref="A4:J209" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A234:E235 E221:G221 A221:C233 A257:E258 A293:E294 A315:E316 A332:G394 A330:E331 A317:C329 E317:E329 E222:E233 B65:G65 D115:D133 I8:I28 A8:G28 A66:G114 A236:C256 E236:E256 A115:C141 E115:G141 D138:D141 A30:G64 A217:G220 A142:G215 I30:I215 E259 F222:G259 E273:E292 D274 E295:E314 A295:C314 F273:G331 E260:G272 A259:C292 I217:I394">
+  <conditionalFormatting sqref="A234:E235 E221:G221 A221:C233 A257:E258 A293:E294 A315:E316 A317:C329 E317:E329 E222:E233 B65:G65 D115:D133 I8:I28 A8:G28 A66:G114 A236:C256 E236:E256 A115:C141 E115:G141 D138:D141 A30:G64 A217:G220 A142:G215 I30:I215 E259 F222:G259 E273:E292 D274 E295:E314 A295:C314 F273:G332 E260:G272 A259:C292 I217:I395 A330:E332 A333:G395">
     <cfRule type="expression" dxfId="137" priority="262">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H394">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H395">
     <cfRule type="cellIs" dxfId="136" priority="217" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
@@ -18062,7 +18193,7 @@
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H394">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H395">
     <cfRule type="cellIs" dxfId="132" priority="218" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -18079,7 +18210,7 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H394">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H395">
     <cfRule type="cellIs" dxfId="127" priority="220" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6961DAE1-E3E2-9241-BF6F-15DDCAC19800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21385656-8A20-B743-BA65-156A2470498C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35860" yWindow="2320" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -4096,10 +4096,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Initializing with testRun.properties.(${subject})</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>notFound</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5069,29 +5065,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> ${file}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>testrun.properties</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tsukushi A Round Gothic Bold"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を使用して初期化します。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(${subject})</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -9827,6 +9800,33 @@
     <rPh sb="20" eb="22">
       <t>ケイカジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Initializing with testrun file.(${subject})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>testrunファイル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を使用して初期化します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(${subject})</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11457,8 +11457,8 @@
   <dimension ref="A1:I395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A336" sqref="A336"/>
+      <pane ySplit="4" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A237" sqref="A237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>
@@ -11523,16 +11523,16 @@
     </row>
     <row r="6" spans="1:9" ht="19" customHeight="1">
       <c r="A6" s="19" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>877</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>879</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>881</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
@@ -11542,16 +11542,16 @@
     </row>
     <row r="7" spans="1:9" ht="19" customHeight="1">
       <c r="A7" s="19" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C7" s="20" t="s">
+        <v>878</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>880</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>882</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -11564,7 +11564,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>21</v>
@@ -11583,7 +11583,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>23</v>
@@ -11602,7 +11602,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>25</v>
@@ -11621,7 +11621,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>27</v>
@@ -11640,7 +11640,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>29</v>
@@ -11659,7 +11659,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>31</v>
@@ -11678,7 +11678,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>33</v>
@@ -11697,7 +11697,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>35</v>
@@ -11716,7 +11716,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>37</v>
@@ -11735,7 +11735,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>39</v>
@@ -11754,7 +11754,7 @@
         <v>40</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>41</v>
@@ -11773,7 +11773,7 @@
         <v>42</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>43</v>
@@ -11792,7 +11792,7 @@
         <v>44</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>45</v>
@@ -11811,7 +11811,7 @@
         <v>46</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>47</v>
@@ -11830,7 +11830,7 @@
         <v>48</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>49</v>
@@ -11849,7 +11849,7 @@
         <v>50</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>51</v>
@@ -11868,7 +11868,7 @@
         <v>52</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>53</v>
@@ -11884,16 +11884,16 @@
     </row>
     <row r="25" spans="1:9" ht="19" customHeight="1">
       <c r="A25" s="19" t="s">
+        <v>916</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>918</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="C25" s="20" t="s">
         <v>920</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>922</v>
-      </c>
       <c r="D25" s="20" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
@@ -11903,16 +11903,16 @@
     </row>
     <row r="26" spans="1:9" ht="19" customHeight="1">
       <c r="A26" s="19" t="s">
+        <v>917</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>919</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="C26" s="20" t="s">
         <v>921</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>923</v>
-      </c>
       <c r="D26" s="20" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -11922,16 +11922,16 @@
     </row>
     <row r="27" spans="1:9" ht="19" customHeight="1">
       <c r="A27" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>910</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>911</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="D27" s="20" t="s">
         <v>912</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>913</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>914</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
@@ -11944,7 +11944,7 @@
         <v>98</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>99</v>
@@ -11963,7 +11963,7 @@
         <v>54</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>55</v>
@@ -11982,10 +11982,10 @@
         <v>56</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>289</v>
@@ -12039,13 +12039,13 @@
         <v>100</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C33" s="20" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D33" s="22" t="s">
         <v>1107</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>1109</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -12055,16 +12055,16 @@
     </row>
     <row r="34" spans="1:9" ht="19" customHeight="1">
       <c r="A34" s="19" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>1104</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C34" s="20" t="s">
+      <c r="D34" s="20" t="s">
         <v>1106</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>1108</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -12074,16 +12074,16 @@
     </row>
     <row r="35" spans="1:9" ht="19" customHeight="1">
       <c r="A35" s="19" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>1080</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="D35" s="22" t="s">
         <v>1081</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>1083</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -12093,16 +12093,16 @@
     </row>
     <row r="36" spans="1:9" ht="19" customHeight="1">
       <c r="A36" s="19" t="s">
+        <v>930</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>931</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>932</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>933</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>934</v>
-      </c>
       <c r="D36" s="20" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
@@ -12115,7 +12115,7 @@
         <v>101</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>102</v>
@@ -12172,7 +12172,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>108</v>
@@ -12207,16 +12207,16 @@
     </row>
     <row r="42" spans="1:9" ht="19" customHeight="1">
       <c r="A42" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>1069</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="C42" s="20" t="s">
         <v>1071</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="D42" s="20" t="s">
         <v>1073</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>1075</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -12226,16 +12226,16 @@
     </row>
     <row r="43" spans="1:9" ht="19" customHeight="1">
       <c r="A43" s="19" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>1070</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="C43" s="20" t="s">
         <v>1072</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="D43" s="20" t="s">
         <v>1074</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>1076</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -12248,7 +12248,7 @@
         <v>111</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>112</v>
@@ -12267,7 +12267,7 @@
         <v>113</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>114</v>
@@ -12286,7 +12286,7 @@
         <v>115</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>116</v>
@@ -12359,16 +12359,16 @@
     </row>
     <row r="50" spans="1:9" ht="19" customHeight="1">
       <c r="A50" s="19" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>1061</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="C50" s="20" t="s">
         <v>1063</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="D50" s="20" t="s">
         <v>1065</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>1067</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -12378,16 +12378,16 @@
     </row>
     <row r="51" spans="1:9" ht="19" customHeight="1">
       <c r="A51" s="19" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>1062</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="C51" s="20" t="s">
         <v>1064</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="D51" s="20" t="s">
         <v>1066</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>1068</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -12416,16 +12416,16 @@
     </row>
     <row r="53" spans="1:9" ht="19" customHeight="1">
       <c r="A53" s="19" t="s">
+        <v>962</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>963</v>
+      </c>
+      <c r="C53" s="20" t="s">
         <v>964</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="D53" s="20" t="s">
         <v>965</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>966</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>967</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
@@ -12435,16 +12435,16 @@
     </row>
     <row r="54" spans="1:9" ht="19" customHeight="1">
       <c r="A54" s="19" t="s">
+        <v>966</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>967</v>
+      </c>
+      <c r="C54" s="20" t="s">
         <v>968</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="D54" s="20" t="s">
         <v>969</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>970</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>971</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -12454,16 +12454,16 @@
     </row>
     <row r="55" spans="1:9" ht="19" customHeight="1">
       <c r="A55" s="19" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
@@ -12473,16 +12473,16 @@
     </row>
     <row r="56" spans="1:9" ht="19" customHeight="1">
       <c r="A56" s="19" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
@@ -12492,16 +12492,16 @@
     </row>
     <row r="57" spans="1:9" ht="19" customHeight="1">
       <c r="A57" s="19" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
@@ -12514,7 +12514,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>62</v>
@@ -12587,16 +12587,16 @@
     </row>
     <row r="62" spans="1:9" ht="19" customHeight="1">
       <c r="A62" s="19" t="s">
+        <v>922</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>923</v>
+      </c>
+      <c r="C62" s="20" t="s">
         <v>924</v>
       </c>
-      <c r="B62" s="20" t="s">
-        <v>925</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>926</v>
-      </c>
       <c r="D62" s="20" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
@@ -12606,16 +12606,16 @@
     </row>
     <row r="63" spans="1:9" ht="19" customHeight="1">
       <c r="A63" s="19" t="s">
+        <v>821</v>
+      </c>
+      <c r="B63" s="20" t="s">
         <v>823</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="C63" s="20" t="s">
+        <v>824</v>
+      </c>
+      <c r="D63" s="20" t="s">
         <v>825</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>826</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>827</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
@@ -12625,16 +12625,16 @@
     </row>
     <row r="64" spans="1:9" ht="19" customHeight="1">
       <c r="A64" s="19" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B64" s="20" t="s">
+        <v>827</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="D64" s="20" t="s">
         <v>829</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>830</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>831</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
@@ -12644,16 +12644,16 @@
     </row>
     <row r="65" spans="1:9" ht="19" customHeight="1">
       <c r="A65" s="19" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
@@ -12663,16 +12663,16 @@
     </row>
     <row r="66" spans="1:9" ht="19" customHeight="1">
       <c r="A66" s="19" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
@@ -12682,16 +12682,16 @@
     </row>
     <row r="67" spans="1:9" ht="19" customHeight="1">
       <c r="A67" s="19" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B67" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>838</v>
+      </c>
+      <c r="D67" s="20" t="s">
         <v>839</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>840</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>841</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
@@ -12701,16 +12701,16 @@
     </row>
     <row r="68" spans="1:9" ht="19" customHeight="1">
       <c r="A68" s="19" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C68" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="D68" s="20" t="s">
         <v>884</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>886</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
@@ -12720,16 +12720,16 @@
     </row>
     <row r="69" spans="1:9" ht="19" customHeight="1">
       <c r="A69" s="19" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C69" s="20" t="s">
+        <v>883</v>
+      </c>
+      <c r="D69" s="20" t="s">
         <v>885</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>887</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
@@ -12739,16 +12739,16 @@
     </row>
     <row r="70" spans="1:9" ht="19" customHeight="1">
       <c r="A70" s="19" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
@@ -12767,7 +12767,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
@@ -12805,7 +12805,7 @@
         <v>74</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
@@ -12834,16 +12834,16 @@
     </row>
     <row r="75" spans="1:9" ht="19" customHeight="1">
       <c r="A75" s="19" t="s">
+        <v>933</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>934</v>
+      </c>
+      <c r="C75" s="20" t="s">
         <v>935</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="D75" s="20" t="s">
         <v>936</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>937</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>938</v>
       </c>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
@@ -12872,16 +12872,16 @@
     </row>
     <row r="77" spans="1:9" ht="19" customHeight="1">
       <c r="A77" s="19" t="s">
+        <v>901</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>902</v>
+      </c>
+      <c r="C77" s="20" t="s">
         <v>903</v>
       </c>
-      <c r="B77" s="20" t="s">
-        <v>904</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>905</v>
-      </c>
       <c r="D77" s="22" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="20"/>
@@ -13043,16 +13043,16 @@
     </row>
     <row r="86" spans="1:9" ht="19" customHeight="1">
       <c r="A86" s="19" t="s">
+        <v>926</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>927</v>
+      </c>
+      <c r="C86" s="20" t="s">
         <v>928</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="D86" s="22" t="s">
         <v>929</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>930</v>
-      </c>
-      <c r="D86" s="22" t="s">
-        <v>931</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -13084,7 +13084,7 @@
         <v>96</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C88" s="20" t="s">
         <v>97</v>
@@ -13100,16 +13100,16 @@
     </row>
     <row r="89" spans="1:9" ht="19" customHeight="1">
       <c r="A89" s="19" t="s">
+        <v>842</v>
+      </c>
+      <c r="B89" s="20" t="s">
         <v>844</v>
       </c>
-      <c r="B89" s="20" t="s">
-        <v>846</v>
-      </c>
       <c r="C89" s="20" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
@@ -13119,16 +13119,16 @@
     </row>
     <row r="90" spans="1:9" ht="19" customHeight="1">
       <c r="A90" s="19" t="s">
+        <v>843</v>
+      </c>
+      <c r="B90" s="20" t="s">
         <v>845</v>
       </c>
-      <c r="B90" s="20" t="s">
-        <v>847</v>
-      </c>
       <c r="C90" s="20" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
@@ -13138,16 +13138,16 @@
     </row>
     <row r="91" spans="1:9" ht="19" customHeight="1">
       <c r="A91" s="19" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
@@ -13157,16 +13157,16 @@
     </row>
     <row r="92" spans="1:9" ht="19" customHeight="1">
       <c r="A92" s="19" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
@@ -13176,16 +13176,16 @@
     </row>
     <row r="93" spans="1:9" ht="19" customHeight="1">
       <c r="A93" s="19" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
@@ -13195,16 +13195,16 @@
     </row>
     <row r="94" spans="1:9" ht="19" customHeight="1">
       <c r="A94" s="19" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -13214,16 +13214,16 @@
     </row>
     <row r="95" spans="1:9" ht="19" customHeight="1">
       <c r="A95" s="19" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
@@ -13233,16 +13233,16 @@
     </row>
     <row r="96" spans="1:9" ht="19" customHeight="1">
       <c r="A96" s="19" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B96" s="19" t="s">
+        <v>988</v>
+      </c>
+      <c r="C96" s="20" t="s">
         <v>990</v>
       </c>
-      <c r="C96" s="20" t="s">
-        <v>992</v>
-      </c>
       <c r="D96" s="20" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
@@ -13252,16 +13252,16 @@
     </row>
     <row r="97" spans="1:9" ht="19" customHeight="1">
       <c r="A97" s="19" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
@@ -13271,16 +13271,16 @@
     </row>
     <row r="98" spans="1:9" ht="19" customHeight="1">
       <c r="A98" s="19" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
@@ -13290,16 +13290,16 @@
     </row>
     <row r="99" spans="1:9" ht="19" customHeight="1">
       <c r="A99" s="19" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
@@ -13309,16 +13309,16 @@
     </row>
     <row r="100" spans="1:9" ht="19" customHeight="1">
       <c r="A100" s="19" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
@@ -13328,16 +13328,16 @@
     </row>
     <row r="101" spans="1:9" ht="19" customHeight="1">
       <c r="A101" s="19" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
@@ -13347,16 +13347,16 @@
     </row>
     <row r="102" spans="1:9" ht="19" customHeight="1">
       <c r="A102" s="19" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
@@ -13366,16 +13366,16 @@
     </row>
     <row r="103" spans="1:9" ht="19" customHeight="1">
       <c r="A103" s="19" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
@@ -13385,16 +13385,16 @@
     </row>
     <row r="104" spans="1:9" ht="19" customHeight="1">
       <c r="A104" s="19" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
@@ -13404,16 +13404,16 @@
     </row>
     <row r="105" spans="1:9" ht="19" customHeight="1">
       <c r="A105" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="B105" s="20" t="s">
         <v>871</v>
       </c>
-      <c r="B105" s="20" t="s">
-        <v>873</v>
-      </c>
       <c r="C105" s="20" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D105" s="20" t="s">
         <v>1012</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>1014</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
@@ -13423,16 +13423,16 @@
     </row>
     <row r="106" spans="1:9" ht="19" customHeight="1">
       <c r="A106" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="B106" s="20" t="s">
         <v>872</v>
       </c>
-      <c r="B106" s="20" t="s">
-        <v>874</v>
-      </c>
       <c r="C106" s="20" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D106" s="20" t="s">
         <v>1013</v>
-      </c>
-      <c r="D106" s="20" t="s">
-        <v>1015</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
@@ -13445,7 +13445,7 @@
         <v>124</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C107" s="20" t="s">
         <v>125</v>
@@ -13461,16 +13461,16 @@
     </row>
     <row r="108" spans="1:9" ht="19" customHeight="1">
       <c r="A108" s="19" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
@@ -13480,16 +13480,16 @@
     </row>
     <row r="109" spans="1:9" ht="19" customHeight="1">
       <c r="A109" s="19" t="s">
+        <v>940</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>941</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>943</v>
+      </c>
+      <c r="D109" s="20" t="s">
         <v>942</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>943</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>945</v>
-      </c>
-      <c r="D109" s="20" t="s">
-        <v>944</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
@@ -13499,16 +13499,16 @@
     </row>
     <row r="110" spans="1:9" ht="19" customHeight="1">
       <c r="A110" s="19" t="s">
+        <v>944</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>945</v>
+      </c>
+      <c r="C110" s="20" t="s">
         <v>946</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="D110" s="20" t="s">
         <v>947</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>948</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>949</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
@@ -13556,16 +13556,16 @@
     </row>
     <row r="113" spans="1:9" ht="19" customHeight="1">
       <c r="A113" s="19" t="s">
+        <v>893</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>894</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="D113" s="20" t="s">
         <v>895</v>
-      </c>
-      <c r="B113" s="19" t="s">
-        <v>896</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>898</v>
-      </c>
-      <c r="D113" s="20" t="s">
-        <v>897</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
@@ -13575,16 +13575,16 @@
     </row>
     <row r="114" spans="1:9" ht="19" customHeight="1">
       <c r="A114" s="19" t="s">
+        <v>897</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>900</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>898</v>
+      </c>
+      <c r="D114" s="20" t="s">
         <v>899</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>902</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>900</v>
-      </c>
-      <c r="D114" s="20" t="s">
-        <v>901</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
@@ -13597,7 +13597,7 @@
         <v>130</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C115" s="20" t="s">
         <v>131</v>
@@ -13616,7 +13616,7 @@
         <v>132</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C116" s="20" t="s">
         <v>133</v>
@@ -13635,7 +13635,7 @@
         <v>134</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C117" s="20" t="s">
         <v>135</v>
@@ -13654,7 +13654,7 @@
         <v>136</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C118" s="20" t="s">
         <v>137</v>
@@ -13673,7 +13673,7 @@
         <v>138</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C119" s="20" t="s">
         <v>139</v>
@@ -13692,7 +13692,7 @@
         <v>140</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C120" s="20" t="s">
         <v>141</v>
@@ -13711,7 +13711,7 @@
         <v>142</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>143</v>
@@ -13730,7 +13730,7 @@
         <v>144</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>17</v>
@@ -13749,7 +13749,7 @@
         <v>145</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C123" s="20" t="s">
         <v>146</v>
@@ -13768,7 +13768,7 @@
         <v>147</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C124" s="20" t="s">
         <v>19</v>
@@ -13787,7 +13787,7 @@
         <v>148</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C125" s="20" t="s">
         <v>149</v>
@@ -13806,7 +13806,7 @@
         <v>150</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>151</v>
@@ -13825,7 +13825,7 @@
         <v>152</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C127" s="20" t="s">
         <v>153</v>
@@ -13844,7 +13844,7 @@
         <v>154</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C128" s="20" t="s">
         <v>155</v>
@@ -13863,7 +13863,7 @@
         <v>156</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C129" s="20" t="s">
         <v>157</v>
@@ -13882,7 +13882,7 @@
         <v>158</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C130" s="20" t="s">
         <v>159</v>
@@ -13901,7 +13901,7 @@
         <v>160</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>161</v>
@@ -13920,7 +13920,7 @@
         <v>162</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>163</v>
@@ -13939,7 +13939,7 @@
         <v>164</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C133" s="20" t="s">
         <v>165</v>
@@ -13958,7 +13958,7 @@
         <v>166</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C134" s="20" t="s">
         <v>167</v>
@@ -13977,7 +13977,7 @@
         <v>168</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C135" s="20" t="s">
         <v>169</v>
@@ -13996,7 +13996,7 @@
         <v>170</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C136" s="20" t="s">
         <v>171</v>
@@ -14015,7 +14015,7 @@
         <v>172</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C137" s="20" t="s">
         <v>173</v>
@@ -14034,7 +14034,7 @@
         <v>174</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C138" s="20" t="s">
         <v>175</v>
@@ -14053,7 +14053,7 @@
         <v>176</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C139" s="20" t="s">
         <v>177</v>
@@ -14072,7 +14072,7 @@
         <v>178</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C140" s="20" t="s">
         <v>179</v>
@@ -14091,7 +14091,7 @@
         <v>180</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C141" s="20" t="s">
         <v>181</v>
@@ -14297,13 +14297,13 @@
     </row>
     <row r="152" spans="1:9" ht="19" customHeight="1">
       <c r="A152" s="19" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C152" s="20" t="s">
         <v>1039</v>
-      </c>
-      <c r="B152" s="19" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>1041</v>
       </c>
       <c r="D152" s="22" t="s">
         <v>359</v>
@@ -14316,13 +14316,13 @@
     </row>
     <row r="153" spans="1:9" ht="19" customHeight="1">
       <c r="A153" s="19" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C153" s="20" t="s">
         <v>1042</v>
-      </c>
-      <c r="B153" s="19" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C153" s="20" t="s">
-        <v>1044</v>
       </c>
       <c r="D153" s="22" t="s">
         <v>360</v>
@@ -14436,7 +14436,7 @@
         <v>450</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D159" s="22" t="s">
         <v>368</v>
@@ -14455,7 +14455,7 @@
         <v>457</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D160" s="22" t="s">
         <v>375</v>
@@ -14474,7 +14474,7 @@
         <v>451</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D161" s="22" t="s">
         <v>369</v>
@@ -14493,7 +14493,7 @@
         <v>452</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D162" s="22" t="s">
         <v>370</v>
@@ -14512,7 +14512,7 @@
         <v>453</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D163" s="22" t="s">
         <v>371</v>
@@ -14531,7 +14531,7 @@
         <v>454</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D164" s="22" t="s">
         <v>372</v>
@@ -14550,7 +14550,7 @@
         <v>455</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D165" s="22" t="s">
         <v>373</v>
@@ -14569,7 +14569,7 @@
         <v>456</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D166" s="22" t="s">
         <v>374</v>
@@ -14658,16 +14658,16 @@
     </row>
     <row r="171" spans="1:9" ht="19" customHeight="1">
       <c r="A171" s="19" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C171" s="20" t="s">
         <v>1057</v>
       </c>
-      <c r="B171" s="19" t="s">
+      <c r="D171" s="20" t="s">
         <v>1058</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D171" s="20" t="s">
-        <v>1060</v>
       </c>
       <c r="E171" s="20"/>
       <c r="F171" s="20"/>
@@ -14683,7 +14683,7 @@
         <v>462</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D172" s="22" t="s">
         <v>378</v>
@@ -14702,10 +14702,10 @@
         <v>463</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E173" s="20"/>
       <c r="F173" s="20"/>
@@ -14721,7 +14721,7 @@
         <v>468</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D174" s="22" t="s">
         <v>384</v>
@@ -14740,7 +14740,7 @@
         <v>469</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="D175" s="22" t="s">
         <v>385</v>
@@ -14759,7 +14759,7 @@
         <v>464</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D176" s="22" t="s">
         <v>379</v>
@@ -14778,7 +14778,7 @@
         <v>465</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="D177" s="22" t="s">
         <v>380</v>
@@ -14797,7 +14797,7 @@
         <v>466</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D178" s="22" t="s">
         <v>381</v>
@@ -14816,7 +14816,7 @@
         <v>467</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D179" s="22" t="s">
         <v>382</v>
@@ -14984,7 +14984,7 @@
         <v>248</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C188" s="20" t="s">
         <v>249</v>
@@ -15003,7 +15003,7 @@
         <v>250</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C189" s="20" t="s">
         <v>251</v>
@@ -15114,16 +15114,16 @@
     </row>
     <row r="195" spans="1:9" ht="19" customHeight="1">
       <c r="A195" s="19" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>438</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E195" s="20"/>
       <c r="F195" s="20"/>
@@ -15133,16 +15133,16 @@
     </row>
     <row r="196" spans="1:9" ht="19" customHeight="1">
       <c r="A196" s="19" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B196" s="19" t="s">
         <v>438</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E196" s="20"/>
       <c r="F196" s="20"/>
@@ -15152,16 +15152,16 @@
     </row>
     <row r="197" spans="1:9" ht="19" customHeight="1">
       <c r="A197" s="19" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B197" s="19" t="s">
         <v>438</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
@@ -15171,16 +15171,16 @@
     </row>
     <row r="198" spans="1:9" ht="19" customHeight="1">
       <c r="A198" s="19" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B198" s="19" t="s">
         <v>438</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D198" s="20" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E198" s="20"/>
       <c r="F198" s="20"/>
@@ -15403,10 +15403,10 @@
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="20" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D210" s="20" t="s">
         <v>1110</v>
-      </c>
-      <c r="D210" s="20" t="s">
-        <v>1112</v>
       </c>
       <c r="E210" s="20"/>
       <c r="F210" s="20"/>
@@ -15420,10 +15420,10 @@
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="20" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D211" s="20" t="s">
         <v>1111</v>
-      </c>
-      <c r="D211" s="20" t="s">
-        <v>1113</v>
       </c>
       <c r="E211" s="20"/>
       <c r="F211" s="20"/>
@@ -15497,7 +15497,7 @@
         <v>487</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
@@ -15514,7 +15514,7 @@
         <v>488</v>
       </c>
       <c r="D218" s="22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E218" s="20"/>
       <c r="F218" s="20"/>
@@ -15531,7 +15531,7 @@
         <v>489</v>
       </c>
       <c r="D219" s="20" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E219" s="20"/>
       <c r="F219" s="20"/>
@@ -15548,7 +15548,7 @@
         <v>491</v>
       </c>
       <c r="D220" s="22" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E220" s="20"/>
       <c r="F220" s="20"/>
@@ -15565,7 +15565,7 @@
         <v>495</v>
       </c>
       <c r="D221" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E221" s="20"/>
       <c r="F221" s="20"/>
@@ -15582,7 +15582,7 @@
         <v>497</v>
       </c>
       <c r="D222" s="22" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E222" s="20"/>
       <c r="F222" s="20"/>
@@ -15599,7 +15599,7 @@
         <v>499</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E223" s="20"/>
       <c r="F223" s="20"/>
@@ -15616,7 +15616,7 @@
         <v>501</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E224" s="20"/>
       <c r="F224" s="20"/>
@@ -15633,7 +15633,7 @@
         <v>503</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E225" s="20"/>
       <c r="F225" s="20"/>
@@ -15647,10 +15647,10 @@
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="20" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E226" s="20"/>
       <c r="F226" s="20"/>
@@ -15667,7 +15667,7 @@
         <v>506</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E227" s="20"/>
       <c r="F227" s="20"/>
@@ -15684,7 +15684,7 @@
         <v>508</v>
       </c>
       <c r="D228" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E228" s="20"/>
       <c r="F228" s="20"/>
@@ -15701,7 +15701,7 @@
         <v>510</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E229" s="20"/>
       <c r="F229" s="20"/>
@@ -15718,7 +15718,7 @@
         <v>512</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E230" s="20"/>
       <c r="F230" s="20"/>
@@ -15735,7 +15735,7 @@
         <v>514</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E231" s="20"/>
       <c r="F231" s="20"/>
@@ -15752,7 +15752,7 @@
         <v>516</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E232" s="20"/>
       <c r="F232" s="20"/>
@@ -15769,7 +15769,7 @@
         <v>518</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E233" s="20"/>
       <c r="F233" s="20"/>
@@ -15786,7 +15786,7 @@
         <v>520</v>
       </c>
       <c r="D234" s="20" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
@@ -15803,7 +15803,7 @@
         <v>522</v>
       </c>
       <c r="D235" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
@@ -15820,7 +15820,7 @@
         <v>524</v>
       </c>
       <c r="D236" s="21" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E236" s="20"/>
       <c r="F236" s="20"/>
@@ -15834,10 +15834,10 @@
       </c>
       <c r="B237" s="20"/>
       <c r="C237" s="20" t="s">
-        <v>526</v>
+        <v>1152</v>
       </c>
       <c r="D237" s="20" t="s">
-        <v>692</v>
+        <v>1153</v>
       </c>
       <c r="E237" s="20"/>
       <c r="F237" s="20"/>
@@ -15847,14 +15847,14 @@
     </row>
     <row r="238" spans="1:9" ht="19" customHeight="1">
       <c r="A238" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B238" s="20"/>
       <c r="C238" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D238" s="20" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E238" s="20"/>
       <c r="F238" s="20"/>
@@ -15864,14 +15864,14 @@
     </row>
     <row r="239" spans="1:9" ht="19" customHeight="1">
       <c r="A239" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D239" s="20" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E239" s="20"/>
       <c r="F239" s="20"/>
@@ -15881,14 +15881,14 @@
     </row>
     <row r="240" spans="1:9" ht="19" customHeight="1">
       <c r="A240" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B240" s="20"/>
       <c r="C240" s="20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E240" s="20"/>
       <c r="F240" s="20"/>
@@ -15898,14 +15898,14 @@
     </row>
     <row r="241" spans="1:9" ht="19" customHeight="1">
       <c r="A241" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B241" s="20"/>
       <c r="C241" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E241" s="20"/>
       <c r="F241" s="20"/>
@@ -15915,14 +15915,14 @@
     </row>
     <row r="242" spans="1:9" ht="19" customHeight="1">
       <c r="A242" s="19" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B242" s="20"/>
       <c r="C242" s="20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E242" s="20"/>
       <c r="F242" s="20"/>
@@ -15932,14 +15932,14 @@
     </row>
     <row r="243" spans="1:9" ht="19" customHeight="1">
       <c r="A243" s="19" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E243" s="20"/>
       <c r="F243" s="20"/>
@@ -15949,14 +15949,14 @@
     </row>
     <row r="244" spans="1:9" ht="19" customHeight="1">
       <c r="A244" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E244" s="20"/>
       <c r="F244" s="20"/>
@@ -15966,14 +15966,14 @@
     </row>
     <row r="245" spans="1:9" ht="19" customHeight="1">
       <c r="A245" s="19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B245" s="20"/>
       <c r="C245" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E245" s="20"/>
       <c r="F245" s="20"/>
@@ -15983,14 +15983,14 @@
     </row>
     <row r="246" spans="1:9" ht="19" customHeight="1">
       <c r="A246" s="19" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E246" s="20"/>
       <c r="F246" s="20"/>
@@ -16000,14 +16000,14 @@
     </row>
     <row r="247" spans="1:9" ht="19" customHeight="1">
       <c r="A247" s="19" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D247" s="21" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E247" s="20"/>
       <c r="F247" s="20"/>
@@ -16017,14 +16017,14 @@
     </row>
     <row r="248" spans="1:9" ht="19" customHeight="1">
       <c r="A248" s="19" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="20" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D248" s="21" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E248" s="20"/>
       <c r="F248" s="20"/>
@@ -16034,14 +16034,14 @@
     </row>
     <row r="249" spans="1:9" ht="19" customHeight="1">
       <c r="A249" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E249" s="20"/>
       <c r="F249" s="20"/>
@@ -16051,14 +16051,14 @@
     </row>
     <row r="250" spans="1:9" ht="19" customHeight="1">
       <c r="A250" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D250" s="20" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E250" s="20"/>
       <c r="F250" s="20"/>
@@ -16068,14 +16068,14 @@
     </row>
     <row r="251" spans="1:9" ht="19" customHeight="1">
       <c r="A251" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D251" s="21" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
@@ -16085,14 +16085,14 @@
     </row>
     <row r="252" spans="1:9" ht="19" customHeight="1">
       <c r="A252" s="19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E252" s="20"/>
       <c r="F252" s="20"/>
@@ -16102,14 +16102,14 @@
     </row>
     <row r="253" spans="1:9" ht="19" customHeight="1">
       <c r="A253" s="19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E253" s="20"/>
       <c r="F253" s="20"/>
@@ -16119,14 +16119,14 @@
     </row>
     <row r="254" spans="1:9" ht="19" customHeight="1">
       <c r="A254" s="19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B254" s="20"/>
       <c r="C254" s="20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E254" s="20"/>
       <c r="F254" s="20"/>
@@ -16136,14 +16136,14 @@
     </row>
     <row r="255" spans="1:9" ht="19" customHeight="1">
       <c r="A255" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B255" s="20"/>
       <c r="C255" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E255" s="20"/>
       <c r="F255" s="20"/>
@@ -16153,14 +16153,14 @@
     </row>
     <row r="256" spans="1:9" ht="19" customHeight="1">
       <c r="A256" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D256" s="21" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E256" s="20"/>
       <c r="F256" s="20"/>
@@ -16170,14 +16170,14 @@
     </row>
     <row r="257" spans="1:9" ht="19" customHeight="1">
       <c r="A257" s="19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D257" s="21" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
@@ -16187,14 +16187,14 @@
     </row>
     <row r="258" spans="1:9" ht="19" customHeight="1">
       <c r="A258" s="19" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="20" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D258" s="20" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E258" s="20"/>
       <c r="F258" s="20"/>
@@ -16204,14 +16204,14 @@
     </row>
     <row r="259" spans="1:9" ht="19" customHeight="1">
       <c r="A259" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E259" s="20"/>
       <c r="F259" s="20"/>
@@ -16221,14 +16221,14 @@
     </row>
     <row r="260" spans="1:9" ht="19" customHeight="1">
       <c r="A260" s="19" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="20" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
@@ -16238,14 +16238,14 @@
     </row>
     <row r="261" spans="1:9" ht="19" customHeight="1">
       <c r="A261" s="19" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="20" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D261" s="20" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
@@ -16255,14 +16255,14 @@
     </row>
     <row r="262" spans="1:9" ht="19" customHeight="1">
       <c r="A262" s="19" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="20" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D262" s="22" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
@@ -16272,14 +16272,14 @@
     </row>
     <row r="263" spans="1:9" ht="19" customHeight="1">
       <c r="A263" s="19" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="20" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D263" s="22" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E263" s="20"/>
       <c r="F263" s="20"/>
@@ -16289,14 +16289,14 @@
     </row>
     <row r="264" spans="1:9" ht="19" customHeight="1">
       <c r="A264" s="19" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="20" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D264" s="22" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E264" s="20"/>
       <c r="F264" s="20"/>
@@ -16306,14 +16306,14 @@
     </row>
     <row r="265" spans="1:9" ht="19" customHeight="1">
       <c r="A265" s="19" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="20" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D265" s="22" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
@@ -16323,14 +16323,14 @@
     </row>
     <row r="266" spans="1:9" ht="19" customHeight="1">
       <c r="A266" s="19" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="20" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D266" s="20" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E266" s="20"/>
       <c r="F266" s="20"/>
@@ -16340,14 +16340,14 @@
     </row>
     <row r="267" spans="1:9" ht="19" customHeight="1">
       <c r="A267" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D267" s="21" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
@@ -16357,14 +16357,14 @@
     </row>
     <row r="268" spans="1:9" ht="19" customHeight="1">
       <c r="A268" s="19" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="20" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D268" s="21" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E268" s="20"/>
       <c r="F268" s="20"/>
@@ -16374,14 +16374,14 @@
     </row>
     <row r="269" spans="1:9" ht="19" customHeight="1">
       <c r="A269" s="19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D269" s="20" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E269" s="20"/>
       <c r="F269" s="20"/>
@@ -16391,14 +16391,14 @@
     </row>
     <row r="270" spans="1:9" ht="19" customHeight="1">
       <c r="A270" s="19" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="20" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D270" s="20" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E270" s="20"/>
       <c r="F270" s="20"/>
@@ -16408,14 +16408,14 @@
     </row>
     <row r="271" spans="1:9" ht="19" customHeight="1">
       <c r="A271" s="19" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="20" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D271" s="20" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E271" s="20"/>
       <c r="F271" s="20"/>
@@ -16425,14 +16425,14 @@
     </row>
     <row r="272" spans="1:9" ht="19" customHeight="1">
       <c r="A272" s="19" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="20" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D272" s="20" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E272" s="20"/>
       <c r="F272" s="20"/>
@@ -16442,14 +16442,14 @@
     </row>
     <row r="273" spans="1:9" ht="19" customHeight="1">
       <c r="A273" s="19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E273" s="20"/>
       <c r="F273" s="20"/>
@@ -16459,14 +16459,14 @@
     </row>
     <row r="274" spans="1:9" ht="19" customHeight="1">
       <c r="A274" s="19" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="20" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -16476,14 +16476,14 @@
     </row>
     <row r="275" spans="1:9" ht="19" customHeight="1">
       <c r="A275" s="19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D275" s="20" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
@@ -16493,14 +16493,14 @@
     </row>
     <row r="276" spans="1:9" ht="19" customHeight="1">
       <c r="A276" s="19" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="20" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D276" s="20" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -16510,14 +16510,14 @@
     </row>
     <row r="277" spans="1:9" ht="19" customHeight="1">
       <c r="A277" s="19" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="20" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
@@ -16527,14 +16527,14 @@
     </row>
     <row r="278" spans="1:9" ht="19" customHeight="1">
       <c r="A278" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D278" s="20" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E278" s="20"/>
       <c r="F278" s="20"/>
@@ -16544,14 +16544,14 @@
     </row>
     <row r="279" spans="1:9" ht="19" customHeight="1">
       <c r="A279" s="19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E279" s="20"/>
       <c r="F279" s="20"/>
@@ -16561,14 +16561,14 @@
     </row>
     <row r="280" spans="1:9" ht="19" customHeight="1">
       <c r="A280" s="19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D280" s="21" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E280" s="20"/>
       <c r="F280" s="20"/>
@@ -16578,14 +16578,14 @@
     </row>
     <row r="281" spans="1:9" ht="19" customHeight="1">
       <c r="A281" s="19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="20" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D281" s="20" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
@@ -16595,14 +16595,14 @@
     </row>
     <row r="282" spans="1:9" ht="19" customHeight="1">
       <c r="A282" s="19" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E282" s="20"/>
       <c r="F282" s="20"/>
@@ -16612,14 +16612,14 @@
     </row>
     <row r="283" spans="1:9" ht="19" customHeight="1">
       <c r="A283" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="20" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D283" s="21" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
@@ -16629,14 +16629,14 @@
     </row>
     <row r="284" spans="1:9" ht="19" customHeight="1">
       <c r="A284" s="19" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="20" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D284" s="21" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E284" s="20"/>
       <c r="F284" s="20"/>
@@ -16646,14 +16646,14 @@
     </row>
     <row r="285" spans="1:9" ht="19" customHeight="1">
       <c r="A285" s="19" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="20" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D285" s="21" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
@@ -16663,14 +16663,14 @@
     </row>
     <row r="286" spans="1:9" ht="19" customHeight="1">
       <c r="A286" s="19" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="20" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D286" s="21" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E286" s="20"/>
       <c r="F286" s="20"/>
@@ -16680,14 +16680,14 @@
     </row>
     <row r="287" spans="1:9" ht="19" customHeight="1">
       <c r="A287" s="19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="20" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D287" s="20" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
@@ -16697,14 +16697,14 @@
     </row>
     <row r="288" spans="1:9" ht="19" customHeight="1">
       <c r="A288" s="19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="20" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D288" s="21" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -16714,14 +16714,14 @@
     </row>
     <row r="289" spans="1:9" ht="19" customHeight="1">
       <c r="A289" s="19" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="20" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D289" s="20" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E289" s="20"/>
       <c r="F289" s="20"/>
@@ -16731,14 +16731,14 @@
     </row>
     <row r="290" spans="1:9" ht="19" customHeight="1">
       <c r="A290" s="19" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D290" s="21" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -16748,14 +16748,14 @@
     </row>
     <row r="291" spans="1:9" ht="19" customHeight="1">
       <c r="A291" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E291" s="20"/>
       <c r="F291" s="20"/>
@@ -16765,14 +16765,14 @@
     </row>
     <row r="292" spans="1:9" ht="19" customHeight="1">
       <c r="A292" s="19" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="20" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D292" s="20" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -16782,14 +16782,14 @@
     </row>
     <row r="293" spans="1:9" ht="19" customHeight="1">
       <c r="A293" s="19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D293" s="21" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E293" s="20"/>
       <c r="F293" s="20"/>
@@ -16799,14 +16799,14 @@
     </row>
     <row r="294" spans="1:9" ht="19" customHeight="1">
       <c r="A294" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="20" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D294" s="21" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -16816,14 +16816,14 @@
     </row>
     <row r="295" spans="1:9" ht="19" customHeight="1">
       <c r="A295" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="20" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D295" s="20" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
@@ -16833,14 +16833,14 @@
     </row>
     <row r="296" spans="1:9" ht="19" customHeight="1">
       <c r="A296" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="20" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D296" s="20" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -16850,14 +16850,14 @@
     </row>
     <row r="297" spans="1:9" ht="19" customHeight="1">
       <c r="A297" s="19" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
@@ -16867,14 +16867,14 @@
     </row>
     <row r="298" spans="1:9" ht="19" customHeight="1">
       <c r="A298" s="19" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="20" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D298" s="21" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -16884,14 +16884,14 @@
     </row>
     <row r="299" spans="1:9" ht="19" customHeight="1">
       <c r="A299" s="19" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="20" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D299" s="22" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E299" s="20"/>
       <c r="F299" s="20"/>
@@ -16901,14 +16901,14 @@
     </row>
     <row r="300" spans="1:9" ht="19" customHeight="1">
       <c r="A300" s="19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="20" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D300" s="21" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E300" s="20"/>
       <c r="F300" s="20"/>
@@ -16918,14 +16918,14 @@
     </row>
     <row r="301" spans="1:9" ht="19" customHeight="1">
       <c r="A301" s="19" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="20" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D301" s="21" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
@@ -16935,14 +16935,14 @@
     </row>
     <row r="302" spans="1:9" ht="19" customHeight="1">
       <c r="A302" s="19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D302" s="20" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E302" s="20"/>
       <c r="F302" s="20"/>
@@ -16952,14 +16952,14 @@
     </row>
     <row r="303" spans="1:9" ht="19" customHeight="1">
       <c r="A303" s="19" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="20" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D303" s="20" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E303" s="20"/>
       <c r="F303" s="20"/>
@@ -16969,14 +16969,14 @@
     </row>
     <row r="304" spans="1:9" ht="19" customHeight="1">
       <c r="A304" s="19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D304" s="21" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E304" s="20"/>
       <c r="F304" s="20"/>
@@ -16986,14 +16986,14 @@
     </row>
     <row r="305" spans="1:9" ht="19" customHeight="1">
       <c r="A305" s="19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="20" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D305" s="21" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
@@ -17003,14 +17003,14 @@
     </row>
     <row r="306" spans="1:9" ht="19" customHeight="1">
       <c r="A306" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="20" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
@@ -17020,14 +17020,14 @@
     </row>
     <row r="307" spans="1:9" ht="19" customHeight="1">
       <c r="A307" s="19" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="20" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D307" s="20" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E307" s="20"/>
       <c r="F307" s="20"/>
@@ -17037,14 +17037,14 @@
     </row>
     <row r="308" spans="1:9" ht="19" customHeight="1">
       <c r="A308" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D308" s="21" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -17054,14 +17054,14 @@
     </row>
     <row r="309" spans="1:9" ht="19" customHeight="1">
       <c r="A309" s="19" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E309" s="20"/>
       <c r="F309" s="20"/>
@@ -17071,14 +17071,14 @@
     </row>
     <row r="310" spans="1:9" ht="19" customHeight="1">
       <c r="A310" s="19" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="20" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D310" s="20" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E310" s="20"/>
       <c r="F310" s="20"/>
@@ -17088,14 +17088,14 @@
     </row>
     <row r="311" spans="1:9" ht="19" customHeight="1">
       <c r="A311" s="19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D311" s="21" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E311" s="20"/>
       <c r="F311" s="20"/>
@@ -17105,14 +17105,14 @@
     </row>
     <row r="312" spans="1:9" ht="19" customHeight="1">
       <c r="A312" s="19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="20" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D312" s="21" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E312" s="20"/>
       <c r="F312" s="20"/>
@@ -17122,14 +17122,14 @@
     </row>
     <row r="313" spans="1:9" ht="19" customHeight="1">
       <c r="A313" s="19" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="20" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D313" s="21" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -17139,14 +17139,14 @@
     </row>
     <row r="314" spans="1:9" ht="19" customHeight="1">
       <c r="A314" s="19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D314" s="22" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E314" s="20"/>
       <c r="F314" s="20"/>
@@ -17156,14 +17156,14 @@
     </row>
     <row r="315" spans="1:9" ht="19" customHeight="1">
       <c r="A315" s="19" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E315" s="20"/>
       <c r="F315" s="20"/>
@@ -17173,14 +17173,14 @@
     </row>
     <row r="316" spans="1:9" ht="19" customHeight="1">
       <c r="A316" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="20" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D316" s="21" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E316" s="20"/>
       <c r="F316" s="20"/>
@@ -17190,14 +17190,14 @@
     </row>
     <row r="317" spans="1:9" ht="19" customHeight="1">
       <c r="A317" s="19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="20" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -17207,14 +17207,14 @@
     </row>
     <row r="318" spans="1:9" ht="19" customHeight="1">
       <c r="A318" s="19" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E318" s="20"/>
       <c r="F318" s="20"/>
@@ -17224,14 +17224,14 @@
     </row>
     <row r="319" spans="1:9" ht="19" customHeight="1">
       <c r="A319" s="19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="20" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D319" s="21" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E319" s="20"/>
       <c r="F319" s="20"/>
@@ -17241,14 +17241,14 @@
     </row>
     <row r="320" spans="1:9" ht="19" customHeight="1">
       <c r="A320" s="19" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="20" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D320" s="20" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -17258,14 +17258,14 @@
     </row>
     <row r="321" spans="1:9" ht="19" customHeight="1">
       <c r="A321" s="19" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="27" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D321" s="27" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E321" s="20"/>
       <c r="F321" s="20"/>
@@ -17275,14 +17275,14 @@
     </row>
     <row r="322" spans="1:9" ht="19" customHeight="1">
       <c r="A322" s="19" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="20" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D322" s="20" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E322" s="20"/>
       <c r="F322" s="20"/>
@@ -17292,14 +17292,14 @@
     </row>
     <row r="323" spans="1:9" ht="19" customHeight="1">
       <c r="A323" s="19" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D323" s="21" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E323" s="20"/>
       <c r="F323" s="20"/>
@@ -17309,14 +17309,14 @@
     </row>
     <row r="324" spans="1:9" ht="19" customHeight="1">
       <c r="A324" s="19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="20" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
@@ -17326,14 +17326,14 @@
     </row>
     <row r="325" spans="1:9" ht="19" customHeight="1">
       <c r="A325" s="19" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="20" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
@@ -17343,14 +17343,14 @@
     </row>
     <row r="326" spans="1:9" ht="19" customHeight="1">
       <c r="A326" s="19" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D326" s="20" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E326" s="20"/>
       <c r="F326" s="20"/>
@@ -17360,14 +17360,14 @@
     </row>
     <row r="327" spans="1:9" ht="19" customHeight="1">
       <c r="A327" s="19" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D327" s="22" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E327" s="20"/>
       <c r="F327" s="20"/>
@@ -17377,14 +17377,14 @@
     </row>
     <row r="328" spans="1:9" ht="19" customHeight="1">
       <c r="A328" s="19" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="20" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D328" s="20" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E328" s="20"/>
       <c r="F328" s="20"/>
@@ -17394,14 +17394,14 @@
     </row>
     <row r="329" spans="1:9" ht="19" customHeight="1">
       <c r="A329" s="19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="20" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D329" s="20" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E329" s="20"/>
       <c r="F329" s="20"/>
@@ -17411,14 +17411,14 @@
     </row>
     <row r="330" spans="1:9" ht="19" customHeight="1">
       <c r="A330" s="19" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="20" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D330" s="20" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E330" s="20"/>
       <c r="F330" s="20"/>
@@ -17428,14 +17428,14 @@
     </row>
     <row r="331" spans="1:9" ht="19" customHeight="1">
       <c r="A331" s="19" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="20" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="D331" s="20" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E331" s="20"/>
       <c r="F331" s="20"/>
@@ -17445,14 +17445,14 @@
     </row>
     <row r="332" spans="1:9" ht="19" customHeight="1">
       <c r="A332" s="19" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="20" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D332" s="20" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E332" s="20"/>
       <c r="F332" s="20"/>
@@ -17462,14 +17462,14 @@
     </row>
     <row r="333" spans="1:9" ht="19" customHeight="1">
       <c r="A333" s="19" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="20" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D333" s="20" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E333" s="20"/>
       <c r="F333" s="20"/>
@@ -17479,14 +17479,14 @@
     </row>
     <row r="334" spans="1:9" ht="19" customHeight="1">
       <c r="A334" s="19" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="20" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D334" s="20" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E334" s="20"/>
       <c r="F334" s="20"/>
@@ -17496,14 +17496,14 @@
     </row>
     <row r="335" spans="1:9" ht="19" customHeight="1">
       <c r="A335" s="19" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="20" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D335" s="20" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E335" s="20"/>
       <c r="F335" s="20"/>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21385656-8A20-B743-BA65-156A2470498C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE66BBE-0F0C-E94D-823C-A6497EA2C2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35860" yWindow="2320" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -17,10 +17,10 @@
     <sheet name="List" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">message!$A$4:$J$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">message!$A$4:$J$210</definedName>
     <definedName name="実施結果">List!$A$3:$A$12</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="1158">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -414,10 +414,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Terminate app</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>checkIsON</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1807,10 +1803,6 @@
   </si>
   <si>
     <t>画面の中央をタップする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アプリを終了する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -7585,10 +7577,6 @@
   </si>
   <si>
     <t>appIs("${subject}")</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>terminateApp()</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -9827,6 +9815,62 @@
       </rPr>
       <t>(${subject})</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>launchApp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>launchApp("${subject}")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Launch app ${subject}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アプリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>${subject}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を起動する</t>
+    </r>
+    <rPh sb="14" eb="16">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>terminateApp(${subject})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Terminate app ${subject}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ${subject}を終了する</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11454,11 +11498,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I395"/>
+  <dimension ref="A1:I396"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A237" sqref="A237"/>
+      <pane ySplit="4" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>
@@ -11477,16 +11521,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:9" ht="19" customHeight="1" thickBot="1">
       <c r="C3" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="16" customFormat="1" ht="19" customHeight="1">
@@ -11494,13 +11538,13 @@
         <v>18</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -11510,7 +11554,7 @@
     </row>
     <row r="5" spans="1:9" ht="19" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -11523,16 +11567,16 @@
     </row>
     <row r="6" spans="1:9" ht="19" customHeight="1">
       <c r="A6" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>873</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="20" t="s">
+        <v>874</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>876</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>877</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>879</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
@@ -11542,16 +11586,16 @@
     </row>
     <row r="7" spans="1:9" ht="19" customHeight="1">
       <c r="A7" s="19" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>875</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>878</v>
-      </c>
       <c r="D7" s="20" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -11564,13 +11608,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -11583,13 +11627,13 @@
         <v>22</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -11602,13 +11646,13 @@
         <v>24</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -11621,13 +11665,13 @@
         <v>26</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -11640,13 +11684,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
@@ -11659,13 +11703,13 @@
         <v>30</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -11678,13 +11722,13 @@
         <v>32</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -11697,13 +11741,13 @@
         <v>34</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -11716,13 +11760,13 @@
         <v>36</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
@@ -11735,13 +11779,13 @@
         <v>38</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
@@ -11754,13 +11798,13 @@
         <v>40</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
@@ -11773,13 +11817,13 @@
         <v>42</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
@@ -11792,13 +11836,13 @@
         <v>44</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -11811,13 +11855,13 @@
         <v>46</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -11830,13 +11874,13 @@
         <v>48</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
@@ -11849,13 +11893,13 @@
         <v>50</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
@@ -11868,13 +11912,13 @@
         <v>52</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
@@ -11884,16 +11928,16 @@
     </row>
     <row r="25" spans="1:9" ht="19" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
@@ -11903,16 +11947,16 @@
     </row>
     <row r="26" spans="1:9" ht="19" customHeight="1">
       <c r="A26" s="19" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -11922,16 +11966,16 @@
     </row>
     <row r="27" spans="1:9" ht="19" customHeight="1">
       <c r="A27" s="19" t="s">
+        <v>906</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>907</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>908</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>909</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>910</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>911</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>912</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
@@ -11941,16 +11985,16 @@
     </row>
     <row r="28" spans="1:9" ht="19" customHeight="1">
       <c r="A28" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>802</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>99</v>
-      </c>
       <c r="D28" s="22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -11963,13 +12007,13 @@
         <v>54</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -11982,13 +12026,13 @@
         <v>56</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
@@ -12001,13 +12045,13 @@
         <v>57</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
@@ -12020,13 +12064,13 @@
         <v>59</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
@@ -12036,16 +12080,16 @@
     </row>
     <row r="33" spans="1:9" ht="19" customHeight="1">
       <c r="A33" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -12055,16 +12099,16 @@
     </row>
     <row r="34" spans="1:9" ht="19" customHeight="1">
       <c r="A34" s="19" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>1103</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>1106</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -12074,16 +12118,16 @@
     </row>
     <row r="35" spans="1:9" ht="19" customHeight="1">
       <c r="A35" s="19" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D35" s="22" t="s">
         <v>1078</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>1081</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -12093,16 +12137,16 @@
     </row>
     <row r="36" spans="1:9" ht="19" customHeight="1">
       <c r="A36" s="19" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
@@ -12112,16 +12156,16 @@
     </row>
     <row r="37" spans="1:9" ht="19" customHeight="1">
       <c r="A37" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="19" t="s">
-        <v>804</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>102</v>
-      </c>
       <c r="D37" s="20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
@@ -12131,16 +12175,16 @@
     </row>
     <row r="38" spans="1:9" ht="19" customHeight="1">
       <c r="A38" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>104</v>
-      </c>
       <c r="D38" s="20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
@@ -12150,16 +12194,16 @@
     </row>
     <row r="39" spans="1:9" ht="19" customHeight="1">
       <c r="A39" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="D39" s="20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
@@ -12169,16 +12213,16 @@
     </row>
     <row r="40" spans="1:9" ht="19" customHeight="1">
       <c r="A40" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="C40" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="19" t="s">
-        <v>801</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>108</v>
-      </c>
       <c r="D40" s="20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
@@ -12188,16 +12232,16 @@
     </row>
     <row r="41" spans="1:9" ht="19" customHeight="1">
       <c r="A41" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="C41" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>110</v>
-      </c>
       <c r="D41" s="20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
@@ -12207,16 +12251,16 @@
     </row>
     <row r="42" spans="1:9" ht="19" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -12226,16 +12270,16 @@
     </row>
     <row r="43" spans="1:9" ht="19" customHeight="1">
       <c r="A43" s="19" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -12245,16 +12289,16 @@
     </row>
     <row r="44" spans="1:9" ht="19" customHeight="1">
       <c r="A44" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="C44" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>798</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>112</v>
-      </c>
       <c r="D44" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
@@ -12264,16 +12308,16 @@
     </row>
     <row r="45" spans="1:9" ht="19" customHeight="1">
       <c r="A45" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="C45" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>799</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>114</v>
-      </c>
       <c r="D45" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
@@ -12283,16 +12327,16 @@
     </row>
     <row r="46" spans="1:9" ht="19" customHeight="1">
       <c r="A46" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>798</v>
+      </c>
+      <c r="C46" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="19" t="s">
-        <v>800</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>116</v>
-      </c>
       <c r="D46" s="20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -12302,16 +12346,16 @@
     </row>
     <row r="47" spans="1:9" ht="19" customHeight="1">
       <c r="A47" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>118</v>
-      </c>
       <c r="D47" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
@@ -12321,16 +12365,16 @@
     </row>
     <row r="48" spans="1:9" ht="19" customHeight="1">
       <c r="A48" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="C48" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B48" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>120</v>
-      </c>
       <c r="D48" s="20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
@@ -12340,16 +12384,16 @@
     </row>
     <row r="49" spans="1:9" ht="19" customHeight="1">
       <c r="A49" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="C49" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>122</v>
-      </c>
       <c r="D49" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
@@ -12359,16 +12403,16 @@
     </row>
     <row r="50" spans="1:9" ht="19" customHeight="1">
       <c r="A50" s="19" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -12378,16 +12422,16 @@
     </row>
     <row r="51" spans="1:9" ht="19" customHeight="1">
       <c r="A51" s="19" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -12397,16 +12441,16 @@
     </row>
     <row r="52" spans="1:9" ht="19" customHeight="1">
       <c r="A52" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
@@ -12416,16 +12460,16 @@
     </row>
     <row r="53" spans="1:9" ht="19" customHeight="1">
       <c r="A53" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>960</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>961</v>
+      </c>
+      <c r="D53" s="20" t="s">
         <v>962</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>963</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>964</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>965</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
@@ -12435,16 +12479,16 @@
     </row>
     <row r="54" spans="1:9" ht="19" customHeight="1">
       <c r="A54" s="19" t="s">
+        <v>963</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>964</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>965</v>
+      </c>
+      <c r="D54" s="20" t="s">
         <v>966</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>967</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>968</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>969</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -12454,16 +12498,16 @@
     </row>
     <row r="55" spans="1:9" ht="19" customHeight="1">
       <c r="A55" s="19" t="s">
+        <v>967</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>970</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="C55" s="20" t="s">
         <v>973</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="D55" s="20" t="s">
         <v>976</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>979</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
@@ -12473,16 +12517,16 @@
     </row>
     <row r="56" spans="1:9" ht="19" customHeight="1">
       <c r="A56" s="19" t="s">
+        <v>968</v>
+      </c>
+      <c r="B56" s="20" t="s">
         <v>971</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="C56" s="20" t="s">
         <v>974</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="D56" s="20" t="s">
         <v>977</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>980</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
@@ -12492,16 +12536,16 @@
     </row>
     <row r="57" spans="1:9" ht="19" customHeight="1">
       <c r="A57" s="19" t="s">
+        <v>969</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>972</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="C57" s="20" t="s">
         <v>975</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="D57" s="20" t="s">
         <v>978</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>981</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
@@ -12514,13 +12558,13 @@
         <v>61</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>62</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
@@ -12533,13 +12577,13 @@
         <v>63</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>64</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
@@ -12552,13 +12596,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
@@ -12571,13 +12615,13 @@
         <v>67</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -12587,16 +12631,16 @@
     </row>
     <row r="62" spans="1:9" ht="19" customHeight="1">
       <c r="A62" s="19" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
@@ -12606,16 +12650,16 @@
     </row>
     <row r="63" spans="1:9" ht="19" customHeight="1">
       <c r="A63" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="C63" s="20" t="s">
         <v>821</v>
       </c>
-      <c r="B63" s="20" t="s">
-        <v>823</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>824</v>
-      </c>
       <c r="D63" s="20" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
@@ -12625,16 +12669,16 @@
     </row>
     <row r="64" spans="1:9" ht="19" customHeight="1">
       <c r="A64" s="19" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
@@ -12644,16 +12688,16 @@
     </row>
     <row r="65" spans="1:9" ht="19" customHeight="1">
       <c r="A65" s="19" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
@@ -12663,16 +12707,16 @@
     </row>
     <row r="66" spans="1:9" ht="19" customHeight="1">
       <c r="A66" s="19" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
@@ -12682,16 +12726,16 @@
     </row>
     <row r="67" spans="1:9" ht="19" customHeight="1">
       <c r="A67" s="19" t="s">
+        <v>831</v>
+      </c>
+      <c r="B67" s="20" t="s">
         <v>834</v>
       </c>
-      <c r="B67" s="20" t="s">
-        <v>837</v>
-      </c>
       <c r="C67" s="20" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
@@ -12701,16 +12745,16 @@
     </row>
     <row r="68" spans="1:9" ht="19" customHeight="1">
       <c r="A68" s="19" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
@@ -12720,16 +12764,16 @@
     </row>
     <row r="69" spans="1:9" ht="19" customHeight="1">
       <c r="A69" s="19" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
@@ -12739,16 +12783,16 @@
     </row>
     <row r="70" spans="1:9" ht="19" customHeight="1">
       <c r="A70" s="19" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
@@ -12761,13 +12805,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>70</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
@@ -12780,13 +12824,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>72</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
@@ -12799,13 +12843,13 @@
         <v>73</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
@@ -12818,13 +12862,13 @@
         <v>75</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>76</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
@@ -12834,16 +12878,16 @@
     </row>
     <row r="75" spans="1:9" ht="19" customHeight="1">
       <c r="A75" s="19" t="s">
+        <v>930</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>931</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>932</v>
+      </c>
+      <c r="D75" s="20" t="s">
         <v>933</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>934</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>935</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>936</v>
       </c>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
@@ -12856,13 +12900,13 @@
         <v>77</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C76" s="20" t="s">
         <v>78</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
@@ -12872,16 +12916,16 @@
     </row>
     <row r="77" spans="1:9" ht="19" customHeight="1">
       <c r="A77" s="19" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C77" s="20" t="s">
+        <v>900</v>
+      </c>
+      <c r="D77" s="22" t="s">
         <v>903</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>906</v>
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="20"/>
@@ -12894,13 +12938,13 @@
         <v>79</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>80</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
@@ -12913,13 +12957,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>82</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
@@ -12932,13 +12976,13 @@
         <v>83</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
@@ -12951,13 +12995,13 @@
         <v>84</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>85</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
@@ -12970,13 +13014,13 @@
         <v>86</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>87</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
@@ -12989,13 +13033,13 @@
         <v>88</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>89</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
@@ -13008,13 +13052,13 @@
         <v>90</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C84" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
@@ -13027,13 +13071,13 @@
         <v>92</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C85" s="20" t="s">
         <v>93</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
@@ -13043,16 +13087,16 @@
     </row>
     <row r="86" spans="1:9" ht="19" customHeight="1">
       <c r="A86" s="19" t="s">
+        <v>923</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>924</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>925</v>
+      </c>
+      <c r="D86" s="22" t="s">
         <v>926</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>927</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>928</v>
-      </c>
-      <c r="D86" s="22" t="s">
-        <v>929</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -13071,7 +13115,7 @@
         <v>95</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
@@ -13084,13 +13128,13 @@
         <v>96</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>818</v>
+        <v>1155</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>97</v>
+        <v>1156</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>308</v>
+        <v>1157</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
@@ -13100,16 +13144,16 @@
     </row>
     <row r="89" spans="1:9" ht="19" customHeight="1">
       <c r="A89" s="19" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
@@ -13119,16 +13163,16 @@
     </row>
     <row r="90" spans="1:9" ht="19" customHeight="1">
       <c r="A90" s="19" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
@@ -13138,16 +13182,16 @@
     </row>
     <row r="91" spans="1:9" ht="19" customHeight="1">
       <c r="A91" s="19" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
@@ -13157,16 +13201,16 @@
     </row>
     <row r="92" spans="1:9" ht="19" customHeight="1">
       <c r="A92" s="19" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
@@ -13176,16 +13220,16 @@
     </row>
     <row r="93" spans="1:9" ht="19" customHeight="1">
       <c r="A93" s="19" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C93" s="20" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D93" s="22" t="s">
         <v>1018</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>1021</v>
       </c>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
@@ -13195,16 +13239,16 @@
     </row>
     <row r="94" spans="1:9" ht="19" customHeight="1">
       <c r="A94" s="19" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -13214,16 +13258,16 @@
     </row>
     <row r="95" spans="1:9" ht="19" customHeight="1">
       <c r="A95" s="19" t="s">
+        <v>983</v>
+      </c>
+      <c r="B95" s="19" t="s">
         <v>986</v>
       </c>
-      <c r="B95" s="19" t="s">
-        <v>989</v>
-      </c>
       <c r="C95" s="20" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
@@ -13233,16 +13277,16 @@
     </row>
     <row r="96" spans="1:9" ht="19" customHeight="1">
       <c r="A96" s="19" t="s">
+        <v>984</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>985</v>
+      </c>
+      <c r="C96" s="20" t="s">
         <v>987</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="D96" s="20" t="s">
         <v>988</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>990</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>991</v>
       </c>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
@@ -13252,16 +13296,16 @@
     </row>
     <row r="97" spans="1:9" ht="19" customHeight="1">
       <c r="A97" s="19" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
@@ -13271,16 +13315,16 @@
     </row>
     <row r="98" spans="1:9" ht="19" customHeight="1">
       <c r="A98" s="19" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
@@ -13290,16 +13334,16 @@
     </row>
     <row r="99" spans="1:9" ht="19" customHeight="1">
       <c r="A99" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="B99" s="19" t="s">
         <v>851</v>
       </c>
-      <c r="B99" s="19" t="s">
-        <v>854</v>
-      </c>
       <c r="C99" s="20" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
@@ -13309,16 +13353,16 @@
     </row>
     <row r="100" spans="1:9" ht="19" customHeight="1">
       <c r="A100" s="19" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
@@ -13328,16 +13372,16 @@
     </row>
     <row r="101" spans="1:9" ht="19" customHeight="1">
       <c r="A101" s="19" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
@@ -13347,16 +13391,16 @@
     </row>
     <row r="102" spans="1:9" ht="19" customHeight="1">
       <c r="A102" s="19" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
@@ -13366,16 +13410,16 @@
     </row>
     <row r="103" spans="1:9" ht="19" customHeight="1">
       <c r="A103" s="19" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
@@ -13385,16 +13429,16 @@
     </row>
     <row r="104" spans="1:9" ht="19" customHeight="1">
       <c r="A104" s="19" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
@@ -13404,16 +13448,16 @@
     </row>
     <row r="105" spans="1:9" ht="19" customHeight="1">
       <c r="A105" s="19" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
@@ -13423,16 +13467,16 @@
     </row>
     <row r="106" spans="1:9" ht="19" customHeight="1">
       <c r="A106" s="19" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
@@ -13442,16 +13486,16 @@
     </row>
     <row r="107" spans="1:9" ht="19" customHeight="1">
       <c r="A107" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>795</v>
+      </c>
+      <c r="C107" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B107" s="20" t="s">
-        <v>797</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>125</v>
-      </c>
       <c r="D107" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
@@ -13461,16 +13505,16 @@
     </row>
     <row r="108" spans="1:9" ht="19" customHeight="1">
       <c r="A108" s="19" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
@@ -13480,16 +13524,16 @@
     </row>
     <row r="109" spans="1:9" ht="19" customHeight="1">
       <c r="A109" s="19" t="s">
+        <v>937</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>938</v>
+      </c>
+      <c r="C109" s="20" t="s">
         <v>940</v>
       </c>
-      <c r="B109" s="20" t="s">
-        <v>941</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>943</v>
-      </c>
       <c r="D109" s="20" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
@@ -13499,16 +13543,16 @@
     </row>
     <row r="110" spans="1:9" ht="19" customHeight="1">
       <c r="A110" s="19" t="s">
+        <v>941</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>942</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>943</v>
+      </c>
+      <c r="D110" s="20" t="s">
         <v>944</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>945</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>946</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>947</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
@@ -13518,16 +13562,16 @@
     </row>
     <row r="111" spans="1:9" ht="19" customHeight="1">
       <c r="A111" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="C111" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B111" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="C111" s="20" t="s">
-        <v>127</v>
-      </c>
       <c r="D111" s="20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
@@ -13537,16 +13581,16 @@
     </row>
     <row r="112" spans="1:9" ht="19" customHeight="1">
       <c r="A112" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="C112" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B112" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>129</v>
-      </c>
       <c r="D112" s="20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
@@ -13556,16 +13600,16 @@
     </row>
     <row r="113" spans="1:9" ht="19" customHeight="1">
       <c r="A113" s="19" t="s">
+        <v>890</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>891</v>
+      </c>
+      <c r="C113" s="20" t="s">
         <v>893</v>
       </c>
-      <c r="B113" s="19" t="s">
-        <v>894</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>896</v>
-      </c>
       <c r="D113" s="20" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
@@ -13575,16 +13619,16 @@
     </row>
     <row r="114" spans="1:9" ht="19" customHeight="1">
       <c r="A114" s="19" t="s">
+        <v>894</v>
+      </c>
+      <c r="B114" s="19" t="s">
         <v>897</v>
       </c>
-      <c r="B114" s="19" t="s">
-        <v>900</v>
-      </c>
       <c r="C114" s="20" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
@@ -13594,16 +13638,16 @@
     </row>
     <row r="115" spans="1:9" ht="19" customHeight="1">
       <c r="A115" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="C115" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B115" s="19" t="s">
-        <v>796</v>
-      </c>
-      <c r="C115" s="20" t="s">
-        <v>131</v>
-      </c>
       <c r="D115" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
@@ -13613,16 +13657,16 @@
     </row>
     <row r="116" spans="1:9" ht="19" customHeight="1">
       <c r="A116" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="C116" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B116" s="19" t="s">
-        <v>794</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>133</v>
-      </c>
       <c r="D116" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
@@ -13632,16 +13676,16 @@
     </row>
     <row r="117" spans="1:9" ht="19" customHeight="1">
       <c r="A117" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>793</v>
+      </c>
+      <c r="C117" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B117" s="19" t="s">
-        <v>795</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>135</v>
-      </c>
       <c r="D117" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
@@ -13651,16 +13695,16 @@
     </row>
     <row r="118" spans="1:9" ht="19" customHeight="1">
       <c r="A118" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="C118" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B118" s="19" t="s">
-        <v>790</v>
-      </c>
-      <c r="C118" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="D118" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
@@ -13670,16 +13714,16 @@
     </row>
     <row r="119" spans="1:9" ht="19" customHeight="1">
       <c r="A119" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="C119" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B119" s="19" t="s">
-        <v>791</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>139</v>
-      </c>
       <c r="D119" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -13689,16 +13733,16 @@
     </row>
     <row r="120" spans="1:9" ht="19" customHeight="1">
       <c r="A120" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>790</v>
+      </c>
+      <c r="C120" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B120" s="19" t="s">
-        <v>792</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>141</v>
-      </c>
       <c r="D120" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
@@ -13708,16 +13752,16 @@
     </row>
     <row r="121" spans="1:9" ht="19" customHeight="1">
       <c r="A121" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="C121" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B121" s="19" t="s">
-        <v>793</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>143</v>
-      </c>
       <c r="D121" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
@@ -13727,16 +13771,16 @@
     </row>
     <row r="122" spans="1:9" ht="19" customHeight="1">
       <c r="A122" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
@@ -13746,16 +13790,16 @@
     </row>
     <row r="123" spans="1:9" ht="19" customHeight="1">
       <c r="A123" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>769</v>
+      </c>
+      <c r="C123" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B123" s="19" t="s">
-        <v>771</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>146</v>
-      </c>
       <c r="D123" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
@@ -13765,16 +13809,16 @@
     </row>
     <row r="124" spans="1:9" ht="19" customHeight="1">
       <c r="A124" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C124" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
@@ -13784,16 +13828,16 @@
     </row>
     <row r="125" spans="1:9" ht="19" customHeight="1">
       <c r="A125" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="C125" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B125" s="19" t="s">
-        <v>773</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>149</v>
-      </c>
       <c r="D125" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
@@ -13803,16 +13847,16 @@
     </row>
     <row r="126" spans="1:9" ht="19" customHeight="1">
       <c r="A126" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>772</v>
+      </c>
+      <c r="C126" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="19" t="s">
-        <v>774</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>151</v>
-      </c>
       <c r="D126" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
@@ -13822,16 +13866,16 @@
     </row>
     <row r="127" spans="1:9" ht="19" customHeight="1">
       <c r="A127" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="C127" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="19" t="s">
-        <v>775</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>153</v>
-      </c>
       <c r="D127" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="20"/>
@@ -13841,16 +13885,16 @@
     </row>
     <row r="128" spans="1:9" ht="19" customHeight="1">
       <c r="A128" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="C128" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B128" s="19" t="s">
-        <v>776</v>
-      </c>
-      <c r="C128" s="20" t="s">
-        <v>155</v>
-      </c>
       <c r="D128" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="20"/>
@@ -13860,16 +13904,16 @@
     </row>
     <row r="129" spans="1:9" ht="19" customHeight="1">
       <c r="A129" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>775</v>
+      </c>
+      <c r="C129" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B129" s="19" t="s">
-        <v>777</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>157</v>
-      </c>
       <c r="D129" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
@@ -13879,16 +13923,16 @@
     </row>
     <row r="130" spans="1:9" ht="19" customHeight="1">
       <c r="A130" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>776</v>
+      </c>
+      <c r="C130" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="B130" s="19" t="s">
-        <v>778</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D130" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
@@ -13898,16 +13942,16 @@
     </row>
     <row r="131" spans="1:9" ht="19" customHeight="1">
       <c r="A131" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="C131" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="B131" s="19" t="s">
-        <v>779</v>
-      </c>
-      <c r="C131" s="20" t="s">
-        <v>161</v>
-      </c>
       <c r="D131" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="20"/>
@@ -13917,16 +13961,16 @@
     </row>
     <row r="132" spans="1:9" ht="19" customHeight="1">
       <c r="A132" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>778</v>
+      </c>
+      <c r="C132" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="B132" s="19" t="s">
-        <v>780</v>
-      </c>
-      <c r="C132" s="20" t="s">
-        <v>163</v>
-      </c>
       <c r="D132" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
@@ -13936,16 +13980,16 @@
     </row>
     <row r="133" spans="1:9" ht="19" customHeight="1">
       <c r="A133" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="C133" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B133" s="19" t="s">
-        <v>781</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>165</v>
-      </c>
       <c r="D133" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="20"/>
@@ -13955,16 +13999,16 @@
     </row>
     <row r="134" spans="1:9" ht="19" customHeight="1">
       <c r="A134" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="C134" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="B134" s="19" t="s">
-        <v>782</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>167</v>
-      </c>
       <c r="D134" s="20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
@@ -13974,16 +14018,16 @@
     </row>
     <row r="135" spans="1:9" ht="19" customHeight="1">
       <c r="A135" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>781</v>
+      </c>
+      <c r="C135" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B135" s="19" t="s">
-        <v>783</v>
-      </c>
-      <c r="C135" s="20" t="s">
-        <v>169</v>
-      </c>
       <c r="D135" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="20"/>
@@ -13993,16 +14037,16 @@
     </row>
     <row r="136" spans="1:9" ht="19" customHeight="1">
       <c r="A136" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="C136" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="B136" s="19" t="s">
-        <v>784</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>171</v>
-      </c>
       <c r="D136" s="20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
@@ -14012,16 +14056,16 @@
     </row>
     <row r="137" spans="1:9" ht="19" customHeight="1">
       <c r="A137" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>783</v>
+      </c>
+      <c r="C137" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="B137" s="19" t="s">
-        <v>785</v>
-      </c>
-      <c r="C137" s="20" t="s">
-        <v>173</v>
-      </c>
       <c r="D137" s="20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
@@ -14031,16 +14075,16 @@
     </row>
     <row r="138" spans="1:9" ht="19" customHeight="1">
       <c r="A138" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>784</v>
+      </c>
+      <c r="C138" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="B138" s="19" t="s">
-        <v>786</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>175</v>
-      </c>
       <c r="D138" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
@@ -14050,16 +14094,16 @@
     </row>
     <row r="139" spans="1:9" ht="19" customHeight="1">
       <c r="A139" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>785</v>
+      </c>
+      <c r="C139" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="B139" s="19" t="s">
-        <v>787</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>177</v>
-      </c>
       <c r="D139" s="20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="20"/>
@@ -14069,16 +14113,16 @@
     </row>
     <row r="140" spans="1:9" ht="19" customHeight="1">
       <c r="A140" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>786</v>
+      </c>
+      <c r="C140" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B140" s="19" t="s">
-        <v>788</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>179</v>
-      </c>
       <c r="D140" s="20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E140" s="20"/>
       <c r="F140" s="20"/>
@@ -14088,16 +14132,16 @@
     </row>
     <row r="141" spans="1:9" ht="19" customHeight="1">
       <c r="A141" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="C141" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B141" s="19" t="s">
-        <v>789</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>181</v>
-      </c>
       <c r="D141" s="20" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="20"/>
@@ -14107,16 +14151,16 @@
     </row>
     <row r="142" spans="1:9" ht="19" customHeight="1">
       <c r="A142" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B142" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="C142" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B142" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>183</v>
-      </c>
       <c r="D142" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="20"/>
@@ -14126,16 +14170,16 @@
     </row>
     <row r="143" spans="1:9" ht="19" customHeight="1">
       <c r="A143" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E143" s="20"/>
       <c r="F143" s="20"/>
@@ -14145,16 +14189,16 @@
     </row>
     <row r="144" spans="1:9" ht="19" customHeight="1">
       <c r="A144" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="20"/>
@@ -14164,16 +14208,16 @@
     </row>
     <row r="145" spans="1:9" ht="19" customHeight="1">
       <c r="A145" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="20"/>
@@ -14183,16 +14227,16 @@
     </row>
     <row r="146" spans="1:9" ht="19" customHeight="1">
       <c r="A146" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="C146" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B146" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="C146" s="20" t="s">
-        <v>188</v>
-      </c>
       <c r="D146" s="22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="20"/>
@@ -14202,16 +14246,16 @@
     </row>
     <row r="147" spans="1:9" ht="19" customHeight="1">
       <c r="A147" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="C147" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="B147" s="19" t="s">
-        <v>440</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>190</v>
-      </c>
       <c r="D147" s="22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E147" s="20"/>
       <c r="F147" s="20"/>
@@ -14221,16 +14265,16 @@
     </row>
     <row r="148" spans="1:9" ht="19" customHeight="1">
       <c r="A148" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="C148" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="B148" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="C148" s="20" t="s">
-        <v>192</v>
-      </c>
       <c r="D148" s="22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="20"/>
@@ -14240,16 +14284,16 @@
     </row>
     <row r="149" spans="1:9" ht="19" customHeight="1">
       <c r="A149" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="C149" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="B149" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="C149" s="20" t="s">
-        <v>194</v>
-      </c>
       <c r="D149" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="20"/>
@@ -14259,16 +14303,16 @@
     </row>
     <row r="150" spans="1:9" ht="19" customHeight="1">
       <c r="A150" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="C150" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="B150" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="C150" s="20" t="s">
-        <v>196</v>
-      </c>
       <c r="D150" s="22" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E150" s="20"/>
       <c r="F150" s="20"/>
@@ -14278,16 +14322,16 @@
     </row>
     <row r="151" spans="1:9" ht="19" customHeight="1">
       <c r="A151" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="C151" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="B151" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>198</v>
-      </c>
       <c r="D151" s="22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
@@ -14297,16 +14341,16 @@
     </row>
     <row r="152" spans="1:9" ht="19" customHeight="1">
       <c r="A152" s="19" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E152" s="20"/>
       <c r="F152" s="20"/>
@@ -14316,16 +14360,16 @@
     </row>
     <row r="153" spans="1:9" ht="19" customHeight="1">
       <c r="A153" s="19" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="20"/>
@@ -14335,16 +14379,16 @@
     </row>
     <row r="154" spans="1:9" ht="19" customHeight="1">
       <c r="A154" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="C154" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="B154" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="C154" s="20" t="s">
-        <v>200</v>
-      </c>
       <c r="D154" s="21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E154" s="20"/>
       <c r="F154" s="20"/>
@@ -14354,16 +14398,16 @@
     </row>
     <row r="155" spans="1:9" ht="19" customHeight="1">
       <c r="A155" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="C155" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B155" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="C155" s="20" t="s">
-        <v>202</v>
-      </c>
       <c r="D155" s="22" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E155" s="20"/>
       <c r="F155" s="20"/>
@@ -14373,16 +14417,16 @@
     </row>
     <row r="156" spans="1:9" ht="19" customHeight="1">
       <c r="A156" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="C156" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B156" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="C156" s="20" t="s">
-        <v>204</v>
-      </c>
       <c r="D156" s="22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
@@ -14392,16 +14436,16 @@
     </row>
     <row r="157" spans="1:9" ht="19" customHeight="1">
       <c r="A157" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="C157" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="B157" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="C157" s="20" t="s">
-        <v>206</v>
-      </c>
       <c r="D157" s="22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E157" s="20"/>
       <c r="F157" s="20"/>
@@ -14411,16 +14455,16 @@
     </row>
     <row r="158" spans="1:9" ht="19" customHeight="1">
       <c r="A158" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="C158" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B158" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="C158" s="20" t="s">
-        <v>208</v>
-      </c>
       <c r="D158" s="22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E158" s="20"/>
       <c r="F158" s="20"/>
@@ -14430,16 +14474,16 @@
     </row>
     <row r="159" spans="1:9" ht="19" customHeight="1">
       <c r="A159" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E159" s="20"/>
       <c r="F159" s="20"/>
@@ -14449,16 +14493,16 @@
     </row>
     <row r="160" spans="1:9" ht="19" customHeight="1">
       <c r="A160" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E160" s="20"/>
       <c r="F160" s="20"/>
@@ -14468,16 +14512,16 @@
     </row>
     <row r="161" spans="1:9" ht="19" customHeight="1">
       <c r="A161" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="D161" s="22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E161" s="20"/>
       <c r="F161" s="20"/>
@@ -14487,16 +14531,16 @@
     </row>
     <row r="162" spans="1:9" ht="19" customHeight="1">
       <c r="A162" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E162" s="20"/>
       <c r="F162" s="20"/>
@@ -14506,16 +14550,16 @@
     </row>
     <row r="163" spans="1:9" ht="19" customHeight="1">
       <c r="A163" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E163" s="20"/>
       <c r="F163" s="20"/>
@@ -14525,16 +14569,16 @@
     </row>
     <row r="164" spans="1:9" ht="19" customHeight="1">
       <c r="A164" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E164" s="20"/>
       <c r="F164" s="20"/>
@@ -14544,16 +14588,16 @@
     </row>
     <row r="165" spans="1:9" ht="19" customHeight="1">
       <c r="A165" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D165" s="22" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E165" s="20"/>
       <c r="F165" s="20"/>
@@ -14563,16 +14607,16 @@
     </row>
     <row r="166" spans="1:9" ht="19" customHeight="1">
       <c r="A166" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E166" s="20"/>
       <c r="F166" s="20"/>
@@ -14582,16 +14626,16 @@
     </row>
     <row r="167" spans="1:9" ht="19" customHeight="1">
       <c r="A167" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="C167" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="B167" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="C167" s="20" t="s">
-        <v>217</v>
-      </c>
       <c r="D167" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E167" s="20"/>
       <c r="F167" s="20"/>
@@ -14601,16 +14645,16 @@
     </row>
     <row r="168" spans="1:9" ht="19" customHeight="1">
       <c r="A168" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B168" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="C168" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="B168" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="C168" s="20" t="s">
-        <v>219</v>
-      </c>
       <c r="D168" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E168" s="20"/>
       <c r="F168" s="20"/>
@@ -14620,16 +14664,16 @@
     </row>
     <row r="169" spans="1:9" ht="19" customHeight="1">
       <c r="A169" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B169" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="C169" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="B169" s="19" t="s">
-        <v>460</v>
-      </c>
-      <c r="C169" s="20" t="s">
-        <v>222</v>
-      </c>
       <c r="D169" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E169" s="20"/>
       <c r="F169" s="20"/>
@@ -14639,16 +14683,16 @@
     </row>
     <row r="170" spans="1:9" ht="19" customHeight="1">
       <c r="A170" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="C170" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="B170" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="C170" s="20" t="s">
-        <v>224</v>
-      </c>
       <c r="D170" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E170" s="20"/>
       <c r="F170" s="20"/>
@@ -14658,16 +14702,16 @@
     </row>
     <row r="171" spans="1:9" ht="19" customHeight="1">
       <c r="A171" s="19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D171" s="20" t="s">
         <v>1055</v>
-      </c>
-      <c r="B171" s="19" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D171" s="20" t="s">
-        <v>1058</v>
       </c>
       <c r="E171" s="20"/>
       <c r="F171" s="20"/>
@@ -14677,16 +14721,16 @@
     </row>
     <row r="172" spans="1:9" ht="19" customHeight="1">
       <c r="A172" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E172" s="20"/>
       <c r="F172" s="20"/>
@@ -14696,16 +14740,16 @@
     </row>
     <row r="173" spans="1:9" ht="19" customHeight="1">
       <c r="A173" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E173" s="20"/>
       <c r="F173" s="20"/>
@@ -14715,16 +14759,16 @@
     </row>
     <row r="174" spans="1:9" ht="19" customHeight="1">
       <c r="A174" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D174" s="22" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E174" s="20"/>
       <c r="F174" s="20"/>
@@ -14734,16 +14778,16 @@
     </row>
     <row r="175" spans="1:9" ht="19" customHeight="1">
       <c r="A175" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E175" s="20"/>
       <c r="F175" s="20"/>
@@ -14753,16 +14797,16 @@
     </row>
     <row r="176" spans="1:9" ht="19" customHeight="1">
       <c r="A176" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D176" s="22" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E176" s="20"/>
       <c r="F176" s="20"/>
@@ -14772,16 +14816,16 @@
     </row>
     <row r="177" spans="1:9" ht="19" customHeight="1">
       <c r="A177" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D177" s="22" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E177" s="20"/>
       <c r="F177" s="20"/>
@@ -14791,16 +14835,16 @@
     </row>
     <row r="178" spans="1:9" ht="19" customHeight="1">
       <c r="A178" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="D178" s="22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E178" s="20"/>
       <c r="F178" s="20"/>
@@ -14810,16 +14854,16 @@
     </row>
     <row r="179" spans="1:9" ht="19" customHeight="1">
       <c r="A179" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="D179" s="22" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E179" s="20"/>
       <c r="F179" s="20"/>
@@ -14829,16 +14873,16 @@
     </row>
     <row r="180" spans="1:9" ht="19" customHeight="1">
       <c r="A180" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B180" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="C180" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B180" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="C180" s="20" t="s">
-        <v>232</v>
-      </c>
       <c r="D180" s="20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E180" s="20"/>
       <c r="F180" s="20"/>
@@ -14848,16 +14892,16 @@
     </row>
     <row r="181" spans="1:9" ht="19" customHeight="1">
       <c r="A181" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E181" s="20"/>
       <c r="F181" s="20"/>
@@ -14867,16 +14911,16 @@
     </row>
     <row r="182" spans="1:9" ht="19" customHeight="1">
       <c r="A182" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D182" s="20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E182" s="20"/>
       <c r="F182" s="20"/>
@@ -14886,16 +14930,16 @@
     </row>
     <row r="183" spans="1:9" ht="19" customHeight="1">
       <c r="A183" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B183" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="C183" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="B183" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="C183" s="20" t="s">
-        <v>239</v>
-      </c>
       <c r="D183" s="20" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E183" s="20"/>
       <c r="F183" s="20"/>
@@ -14905,16 +14949,16 @@
     </row>
     <row r="184" spans="1:9" ht="19" customHeight="1">
       <c r="A184" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="C184" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="B184" s="19" t="s">
-        <v>472</v>
-      </c>
-      <c r="C184" s="20" t="s">
-        <v>241</v>
-      </c>
       <c r="D184" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E184" s="20"/>
       <c r="F184" s="20"/>
@@ -14924,16 +14968,16 @@
     </row>
     <row r="185" spans="1:9" ht="19" customHeight="1">
       <c r="A185" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="B185" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="C185" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="B185" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="C185" s="20" t="s">
-        <v>243</v>
-      </c>
       <c r="D185" s="20" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E185" s="20"/>
       <c r="F185" s="20"/>
@@ -14943,16 +14987,16 @@
     </row>
     <row r="186" spans="1:9" ht="19" customHeight="1">
       <c r="A186" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="B186" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="C186" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="B186" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="C186" s="20" t="s">
-        <v>245</v>
-      </c>
       <c r="D186" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E186" s="20"/>
       <c r="F186" s="20"/>
@@ -14962,16 +15006,16 @@
     </row>
     <row r="187" spans="1:9" ht="19" customHeight="1">
       <c r="A187" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B187" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="C187" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="B187" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="C187" s="20" t="s">
-        <v>247</v>
-      </c>
       <c r="D187" s="20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E187" s="20"/>
       <c r="F187" s="20"/>
@@ -14981,16 +15025,16 @@
     </row>
     <row r="188" spans="1:9" ht="19" customHeight="1">
       <c r="A188" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="B188" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="C188" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B188" s="19" t="s">
-        <v>831</v>
-      </c>
-      <c r="C188" s="20" t="s">
-        <v>249</v>
-      </c>
       <c r="D188" s="20" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E188" s="20"/>
       <c r="F188" s="20"/>
@@ -15000,16 +15044,16 @@
     </row>
     <row r="189" spans="1:9" ht="19" customHeight="1">
       <c r="A189" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B189" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="C189" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="B189" s="19" t="s">
-        <v>830</v>
-      </c>
-      <c r="C189" s="20" t="s">
-        <v>251</v>
-      </c>
       <c r="D189" s="20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E189" s="20"/>
       <c r="F189" s="20"/>
@@ -15019,16 +15063,16 @@
     </row>
     <row r="190" spans="1:9" ht="19" customHeight="1">
       <c r="A190" s="19" t="s">
-        <v>252</v>
+        <v>1151</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>476</v>
+        <v>1152</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>253</v>
+        <v>1153</v>
       </c>
       <c r="D190" s="21" t="s">
-        <v>394</v>
+        <v>1154</v>
       </c>
       <c r="E190" s="20"/>
       <c r="F190" s="20"/>
@@ -15038,16 +15082,16 @@
     </row>
     <row r="191" spans="1:9" ht="19" customHeight="1">
       <c r="A191" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="B191" s="20" t="s">
-        <v>477</v>
+        <v>251</v>
+      </c>
+      <c r="B191" s="19" t="s">
+        <v>474</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="D191" s="20" t="s">
-        <v>484</v>
+        <v>252</v>
+      </c>
+      <c r="D191" s="21" t="s">
+        <v>392</v>
       </c>
       <c r="E191" s="20"/>
       <c r="F191" s="20"/>
@@ -15057,16 +15101,16 @@
     </row>
     <row r="192" spans="1:9" ht="19" customHeight="1">
       <c r="A192" s="19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B192" s="20" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D192" s="20" t="s">
-        <v>395</v>
+        <v>482</v>
       </c>
       <c r="E192" s="20"/>
       <c r="F192" s="20"/>
@@ -15076,16 +15120,16 @@
     </row>
     <row r="193" spans="1:9" ht="19" customHeight="1">
       <c r="A193" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="B193" s="19" t="s">
-        <v>479</v>
+        <v>255</v>
+      </c>
+      <c r="B193" s="20" t="s">
+        <v>476</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="D193" s="21" t="s">
-        <v>396</v>
+        <v>256</v>
+      </c>
+      <c r="D193" s="20" t="s">
+        <v>393</v>
       </c>
       <c r="E193" s="20"/>
       <c r="F193" s="20"/>
@@ -15095,16 +15139,16 @@
     </row>
     <row r="194" spans="1:9" ht="19" customHeight="1">
       <c r="A194" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>260</v>
+        <v>477</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D194" s="21" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E194" s="20"/>
       <c r="F194" s="20"/>
@@ -15114,16 +15158,16 @@
     </row>
     <row r="195" spans="1:9" ht="19" customHeight="1">
       <c r="A195" s="19" t="s">
-        <v>1043</v>
+        <v>259</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>438</v>
+        <v>259</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D195" s="20" t="s">
-        <v>1045</v>
+        <v>260</v>
+      </c>
+      <c r="D195" s="21" t="s">
+        <v>395</v>
       </c>
       <c r="E195" s="20"/>
       <c r="F195" s="20"/>
@@ -15133,16 +15177,16 @@
     </row>
     <row r="196" spans="1:9" ht="19" customHeight="1">
       <c r="A196" s="19" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="E196" s="20"/>
       <c r="F196" s="20"/>
@@ -15152,16 +15196,16 @@
     </row>
     <row r="197" spans="1:9" ht="19" customHeight="1">
       <c r="A197" s="19" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
@@ -15171,16 +15215,16 @@
     </row>
     <row r="198" spans="1:9" ht="19" customHeight="1">
       <c r="A198" s="19" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="D198" s="20" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E198" s="20"/>
       <c r="F198" s="20"/>
@@ -15190,16 +15234,16 @@
     </row>
     <row r="199" spans="1:9" ht="19" customHeight="1">
       <c r="A199" s="19" t="s">
-        <v>262</v>
+        <v>1045</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="D199" s="22" t="s">
-        <v>398</v>
+        <v>1048</v>
+      </c>
+      <c r="D199" s="20" t="s">
+        <v>1051</v>
       </c>
       <c r="E199" s="20"/>
       <c r="F199" s="20"/>
@@ -15209,16 +15253,16 @@
     </row>
     <row r="200" spans="1:9" ht="19" customHeight="1">
       <c r="A200" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D200" s="22" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E200" s="20"/>
       <c r="F200" s="20"/>
@@ -15228,16 +15272,16 @@
     </row>
     <row r="201" spans="1:9" ht="19" customHeight="1">
       <c r="A201" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="B201" s="20" t="s">
-        <v>438</v>
+        <v>262</v>
+      </c>
+      <c r="B201" s="19" t="s">
+        <v>436</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="D201" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
+      </c>
+      <c r="D201" s="22" t="s">
+        <v>397</v>
       </c>
       <c r="E201" s="20"/>
       <c r="F201" s="20"/>
@@ -15247,16 +15291,16 @@
     </row>
     <row r="202" spans="1:9" ht="19" customHeight="1">
       <c r="A202" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D202" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E202" s="20"/>
       <c r="F202" s="20"/>
@@ -15266,16 +15310,16 @@
     </row>
     <row r="203" spans="1:9" ht="19" customHeight="1">
       <c r="A203" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D203" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E203" s="20"/>
       <c r="F203" s="20"/>
@@ -15285,16 +15329,16 @@
     </row>
     <row r="204" spans="1:9" ht="19" customHeight="1">
       <c r="A204" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>404</v>
+        <v>265</v>
       </c>
       <c r="D204" s="20" t="s">
-        <v>410</v>
+        <v>265</v>
       </c>
       <c r="E204" s="20"/>
       <c r="F204" s="20"/>
@@ -15304,16 +15348,16 @@
     </row>
     <row r="205" spans="1:9" ht="19" customHeight="1">
       <c r="A205" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D205" s="20" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E205" s="20"/>
       <c r="F205" s="20"/>
@@ -15323,16 +15367,16 @@
     </row>
     <row r="206" spans="1:9" ht="19" customHeight="1">
       <c r="A206" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D206" s="20" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="E206" s="20"/>
       <c r="F206" s="20"/>
@@ -15342,16 +15386,16 @@
     </row>
     <row r="207" spans="1:9" ht="19" customHeight="1">
       <c r="A207" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D207" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
@@ -15361,16 +15405,16 @@
     </row>
     <row r="208" spans="1:9" ht="19" customHeight="1">
       <c r="A208" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="D208" s="21" t="s">
-        <v>402</v>
+        <v>405</v>
+      </c>
+      <c r="D208" s="20" t="s">
+        <v>398</v>
       </c>
       <c r="E208" s="20"/>
       <c r="F208" s="20"/>
@@ -15380,16 +15424,16 @@
     </row>
     <row r="209" spans="1:9" ht="19" customHeight="1">
       <c r="A209" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D209" s="21" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E209" s="20"/>
       <c r="F209" s="20"/>
@@ -15399,14 +15443,16 @@
     </row>
     <row r="210" spans="1:9" ht="19" customHeight="1">
       <c r="A210" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="B210" s="20"/>
+        <v>271</v>
+      </c>
+      <c r="B210" s="20" t="s">
+        <v>436</v>
+      </c>
       <c r="C210" s="20" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D210" s="20" t="s">
-        <v>1110</v>
+        <v>407</v>
+      </c>
+      <c r="D210" s="21" t="s">
+        <v>401</v>
       </c>
       <c r="E210" s="20"/>
       <c r="F210" s="20"/>
@@ -15416,14 +15462,14 @@
     </row>
     <row r="211" spans="1:9" ht="19" customHeight="1">
       <c r="A211" s="19" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="20" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="E211" s="20"/>
       <c r="F211" s="20"/>
@@ -15432,10 +15478,16 @@
       <c r="I211" s="18"/>
     </row>
     <row r="212" spans="1:9" ht="19" customHeight="1">
-      <c r="A212" s="19"/>
+      <c r="A212" s="19" t="s">
+        <v>491</v>
+      </c>
       <c r="B212" s="20"/>
-      <c r="C212" s="20"/>
-      <c r="D212" s="20"/>
+      <c r="C212" s="20" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D212" s="20" t="s">
+        <v>1108</v>
+      </c>
       <c r="E212" s="20"/>
       <c r="F212" s="20"/>
       <c r="G212" s="18"/>
@@ -15476,45 +15528,39 @@
       <c r="I215" s="18"/>
     </row>
     <row r="216" spans="1:9" ht="19" customHeight="1">
-      <c r="A216" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="B216" s="23"/>
-      <c r="C216" s="23"/>
-      <c r="D216" s="23"/>
-      <c r="E216" s="23"/>
-      <c r="F216" s="23"/>
-      <c r="G216" s="24"/>
-      <c r="H216" s="25"/>
-      <c r="I216" s="24"/>
+      <c r="A216" s="19"/>
+      <c r="B216" s="20"/>
+      <c r="C216" s="20"/>
+      <c r="D216" s="20"/>
+      <c r="E216" s="20"/>
+      <c r="F216" s="20"/>
+      <c r="G216" s="18"/>
+      <c r="H216" s="17"/>
+      <c r="I216" s="18"/>
     </row>
     <row r="217" spans="1:9" ht="19" customHeight="1">
-      <c r="A217" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="B217" s="20"/>
-      <c r="C217" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="D217" s="20" t="s">
-        <v>672</v>
-      </c>
-      <c r="E217" s="20"/>
-      <c r="F217" s="20"/>
-      <c r="G217" s="18"/>
-      <c r="H217" s="17"/>
-      <c r="I217" s="18"/>
+      <c r="A217" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="B217" s="23"/>
+      <c r="C217" s="23"/>
+      <c r="D217" s="23"/>
+      <c r="E217" s="23"/>
+      <c r="F217" s="23"/>
+      <c r="G217" s="24"/>
+      <c r="H217" s="25"/>
+      <c r="I217" s="24"/>
     </row>
     <row r="218" spans="1:9" ht="19" customHeight="1">
       <c r="A218" s="19" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B218" s="20"/>
       <c r="C218" s="20" t="s">
-        <v>488</v>
-      </c>
-      <c r="D218" s="22" t="s">
-        <v>673</v>
+        <v>485</v>
+      </c>
+      <c r="D218" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="E218" s="20"/>
       <c r="F218" s="20"/>
@@ -15524,14 +15570,14 @@
     </row>
     <row r="219" spans="1:9" ht="19" customHeight="1">
       <c r="A219" s="19" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="D219" s="20" t="s">
-        <v>674</v>
+        <v>486</v>
+      </c>
+      <c r="D219" s="22" t="s">
+        <v>671</v>
       </c>
       <c r="E219" s="20"/>
       <c r="F219" s="20"/>
@@ -15541,14 +15587,14 @@
     </row>
     <row r="220" spans="1:9" ht="19" customHeight="1">
       <c r="A220" s="19" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="D220" s="22" t="s">
-        <v>675</v>
+        <v>487</v>
+      </c>
+      <c r="D220" s="20" t="s">
+        <v>672</v>
       </c>
       <c r="E220" s="20"/>
       <c r="F220" s="20"/>
@@ -15558,14 +15604,14 @@
     </row>
     <row r="221" spans="1:9" ht="19" customHeight="1">
       <c r="A221" s="19" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="D221" s="21" t="s">
-        <v>676</v>
+        <v>489</v>
+      </c>
+      <c r="D221" s="22" t="s">
+        <v>673</v>
       </c>
       <c r="E221" s="20"/>
       <c r="F221" s="20"/>
@@ -15575,14 +15621,14 @@
     </row>
     <row r="222" spans="1:9" ht="19" customHeight="1">
       <c r="A222" s="19" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B222" s="20"/>
       <c r="C222" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="D222" s="22" t="s">
-        <v>677</v>
+        <v>493</v>
+      </c>
+      <c r="D222" s="21" t="s">
+        <v>674</v>
       </c>
       <c r="E222" s="20"/>
       <c r="F222" s="20"/>
@@ -15592,14 +15638,14 @@
     </row>
     <row r="223" spans="1:9" ht="19" customHeight="1">
       <c r="A223" s="19" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="D223" s="21" t="s">
-        <v>678</v>
+        <v>495</v>
+      </c>
+      <c r="D223" s="22" t="s">
+        <v>675</v>
       </c>
       <c r="E223" s="20"/>
       <c r="F223" s="20"/>
@@ -15609,14 +15655,14 @@
     </row>
     <row r="224" spans="1:9" ht="19" customHeight="1">
       <c r="A224" s="19" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="20" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E224" s="20"/>
       <c r="F224" s="20"/>
@@ -15626,14 +15672,14 @@
     </row>
     <row r="225" spans="1:9" ht="19" customHeight="1">
       <c r="A225" s="19" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="20" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E225" s="20"/>
       <c r="F225" s="20"/>
@@ -15643,14 +15689,14 @@
     </row>
     <row r="226" spans="1:9" ht="19" customHeight="1">
       <c r="A226" s="19" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="20" t="s">
-        <v>937</v>
+        <v>501</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>938</v>
+        <v>678</v>
       </c>
       <c r="E226" s="20"/>
       <c r="F226" s="20"/>
@@ -15660,14 +15706,14 @@
     </row>
     <row r="227" spans="1:9" ht="19" customHeight="1">
       <c r="A227" s="19" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="20" t="s">
-        <v>506</v>
+        <v>934</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>681</v>
+        <v>935</v>
       </c>
       <c r="E227" s="20"/>
       <c r="F227" s="20"/>
@@ -15677,14 +15723,14 @@
     </row>
     <row r="228" spans="1:9" ht="19" customHeight="1">
       <c r="A228" s="19" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B228" s="20"/>
       <c r="C228" s="20" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D228" s="21" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E228" s="20"/>
       <c r="F228" s="20"/>
@@ -15694,14 +15740,14 @@
     </row>
     <row r="229" spans="1:9" ht="19" customHeight="1">
       <c r="A229" s="19" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B229" s="20"/>
       <c r="C229" s="20" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E229" s="20"/>
       <c r="F229" s="20"/>
@@ -15711,14 +15757,14 @@
     </row>
     <row r="230" spans="1:9" ht="19" customHeight="1">
       <c r="A230" s="19" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="20" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E230" s="20"/>
       <c r="F230" s="20"/>
@@ -15728,14 +15774,14 @@
     </row>
     <row r="231" spans="1:9" ht="19" customHeight="1">
       <c r="A231" s="19" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B231" s="20"/>
       <c r="C231" s="20" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E231" s="20"/>
       <c r="F231" s="20"/>
@@ -15745,14 +15791,14 @@
     </row>
     <row r="232" spans="1:9" ht="19" customHeight="1">
       <c r="A232" s="19" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="20" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E232" s="20"/>
       <c r="F232" s="20"/>
@@ -15762,14 +15808,14 @@
     </row>
     <row r="233" spans="1:9" ht="19" customHeight="1">
       <c r="A233" s="19" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="20" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E233" s="20"/>
       <c r="F233" s="20"/>
@@ -15779,14 +15825,14 @@
     </row>
     <row r="234" spans="1:9" ht="19" customHeight="1">
       <c r="A234" s="19" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D234" s="20" t="s">
-        <v>688</v>
+        <v>516</v>
+      </c>
+      <c r="D234" s="21" t="s">
+        <v>685</v>
       </c>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
@@ -15796,14 +15842,14 @@
     </row>
     <row r="235" spans="1:9" ht="19" customHeight="1">
       <c r="A235" s="19" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B235" s="20"/>
       <c r="C235" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="D235" s="22" t="s">
-        <v>689</v>
+        <v>518</v>
+      </c>
+      <c r="D235" s="20" t="s">
+        <v>686</v>
       </c>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
@@ -15813,14 +15859,14 @@
     </row>
     <row r="236" spans="1:9" ht="19" customHeight="1">
       <c r="A236" s="19" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B236" s="20"/>
       <c r="C236" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="D236" s="21" t="s">
-        <v>690</v>
+        <v>520</v>
+      </c>
+      <c r="D236" s="22" t="s">
+        <v>687</v>
       </c>
       <c r="E236" s="20"/>
       <c r="F236" s="20"/>
@@ -15830,14 +15876,14 @@
     </row>
     <row r="237" spans="1:9" ht="19" customHeight="1">
       <c r="A237" s="19" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B237" s="20"/>
       <c r="C237" s="20" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D237" s="20" t="s">
-        <v>1153</v>
+        <v>522</v>
+      </c>
+      <c r="D237" s="21" t="s">
+        <v>688</v>
       </c>
       <c r="E237" s="20"/>
       <c r="F237" s="20"/>
@@ -15847,14 +15893,14 @@
     </row>
     <row r="238" spans="1:9" ht="19" customHeight="1">
       <c r="A238" s="19" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B238" s="20"/>
       <c r="C238" s="20" t="s">
-        <v>527</v>
+        <v>1149</v>
       </c>
       <c r="D238" s="20" t="s">
-        <v>691</v>
+        <v>1150</v>
       </c>
       <c r="E238" s="20"/>
       <c r="F238" s="20"/>
@@ -15864,14 +15910,14 @@
     </row>
     <row r="239" spans="1:9" ht="19" customHeight="1">
       <c r="A239" s="19" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="20" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D239" s="20" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E239" s="20"/>
       <c r="F239" s="20"/>
@@ -15881,14 +15927,14 @@
     </row>
     <row r="240" spans="1:9" ht="19" customHeight="1">
       <c r="A240" s="19" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B240" s="20"/>
       <c r="C240" s="20" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E240" s="20"/>
       <c r="F240" s="20"/>
@@ -15898,14 +15944,14 @@
     </row>
     <row r="241" spans="1:9" ht="19" customHeight="1">
       <c r="A241" s="19" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B241" s="20"/>
       <c r="C241" s="20" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E241" s="20"/>
       <c r="F241" s="20"/>
@@ -15915,14 +15961,14 @@
     </row>
     <row r="242" spans="1:9" ht="19" customHeight="1">
       <c r="A242" s="19" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B242" s="20"/>
       <c r="C242" s="20" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E242" s="20"/>
       <c r="F242" s="20"/>
@@ -15932,14 +15978,14 @@
     </row>
     <row r="243" spans="1:9" ht="19" customHeight="1">
       <c r="A243" s="19" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="20" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E243" s="20"/>
       <c r="F243" s="20"/>
@@ -15949,14 +15995,14 @@
     </row>
     <row r="244" spans="1:9" ht="19" customHeight="1">
       <c r="A244" s="19" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="20" t="s">
-        <v>539</v>
-      </c>
-      <c r="D244" s="21" t="s">
-        <v>697</v>
+        <v>535</v>
+      </c>
+      <c r="D244" s="20" t="s">
+        <v>694</v>
       </c>
       <c r="E244" s="20"/>
       <c r="F244" s="20"/>
@@ -15966,14 +16012,14 @@
     </row>
     <row r="245" spans="1:9" ht="19" customHeight="1">
       <c r="A245" s="19" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B245" s="20"/>
       <c r="C245" s="20" t="s">
-        <v>541</v>
-      </c>
-      <c r="D245" s="20" t="s">
-        <v>698</v>
+        <v>537</v>
+      </c>
+      <c r="D245" s="21" t="s">
+        <v>695</v>
       </c>
       <c r="E245" s="20"/>
       <c r="F245" s="20"/>
@@ -15983,14 +16029,14 @@
     </row>
     <row r="246" spans="1:9" ht="19" customHeight="1">
       <c r="A246" s="19" t="s">
-        <v>1029</v>
+        <v>538</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="20" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E246" s="20"/>
       <c r="F246" s="20"/>
@@ -16000,14 +16046,14 @@
     </row>
     <row r="247" spans="1:9" ht="19" customHeight="1">
       <c r="A247" s="19" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="20" t="s">
-        <v>543</v>
-      </c>
-      <c r="D247" s="21" t="s">
-        <v>700</v>
+        <v>540</v>
+      </c>
+      <c r="D247" s="20" t="s">
+        <v>697</v>
       </c>
       <c r="E247" s="20"/>
       <c r="F247" s="20"/>
@@ -16017,14 +16063,14 @@
     </row>
     <row r="248" spans="1:9" ht="19" customHeight="1">
       <c r="A248" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="20" t="s">
-        <v>1032</v>
+        <v>541</v>
       </c>
       <c r="D248" s="21" t="s">
-        <v>1033</v>
+        <v>698</v>
       </c>
       <c r="E248" s="20"/>
       <c r="F248" s="20"/>
@@ -16034,14 +16080,14 @@
     </row>
     <row r="249" spans="1:9" ht="19" customHeight="1">
       <c r="A249" s="19" t="s">
-        <v>544</v>
+        <v>1028</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="D249" s="20" t="s">
-        <v>701</v>
+        <v>1029</v>
+      </c>
+      <c r="D249" s="21" t="s">
+        <v>1030</v>
       </c>
       <c r="E249" s="20"/>
       <c r="F249" s="20"/>
@@ -16051,14 +16097,14 @@
     </row>
     <row r="250" spans="1:9" ht="19" customHeight="1">
       <c r="A250" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="20" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D250" s="20" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E250" s="20"/>
       <c r="F250" s="20"/>
@@ -16068,14 +16114,14 @@
     </row>
     <row r="251" spans="1:9" ht="19" customHeight="1">
       <c r="A251" s="19" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="D251" s="21" t="s">
-        <v>703</v>
+        <v>545</v>
+      </c>
+      <c r="D251" s="20" t="s">
+        <v>700</v>
       </c>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
@@ -16085,14 +16131,14 @@
     </row>
     <row r="252" spans="1:9" ht="19" customHeight="1">
       <c r="A252" s="19" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="20" t="s">
-        <v>551</v>
-      </c>
-      <c r="D252" s="20" t="s">
-        <v>704</v>
+        <v>547</v>
+      </c>
+      <c r="D252" s="21" t="s">
+        <v>701</v>
       </c>
       <c r="E252" s="20"/>
       <c r="F252" s="20"/>
@@ -16102,14 +16148,14 @@
     </row>
     <row r="253" spans="1:9" ht="19" customHeight="1">
       <c r="A253" s="19" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="20" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E253" s="20"/>
       <c r="F253" s="20"/>
@@ -16119,14 +16165,14 @@
     </row>
     <row r="254" spans="1:9" ht="19" customHeight="1">
       <c r="A254" s="19" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B254" s="20"/>
       <c r="C254" s="20" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E254" s="20"/>
       <c r="F254" s="20"/>
@@ -16136,14 +16182,14 @@
     </row>
     <row r="255" spans="1:9" ht="19" customHeight="1">
       <c r="A255" s="19" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B255" s="20"/>
       <c r="C255" s="20" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E255" s="20"/>
       <c r="F255" s="20"/>
@@ -16153,14 +16199,14 @@
     </row>
     <row r="256" spans="1:9" ht="19" customHeight="1">
       <c r="A256" s="19" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="20" t="s">
-        <v>559</v>
-      </c>
-      <c r="D256" s="21" t="s">
-        <v>708</v>
+        <v>555</v>
+      </c>
+      <c r="D256" s="20" t="s">
+        <v>705</v>
       </c>
       <c r="E256" s="20"/>
       <c r="F256" s="20"/>
@@ -16170,14 +16216,14 @@
     </row>
     <row r="257" spans="1:9" ht="19" customHeight="1">
       <c r="A257" s="19" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="20" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D257" s="21" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
@@ -16187,14 +16233,14 @@
     </row>
     <row r="258" spans="1:9" ht="19" customHeight="1">
       <c r="A258" s="19" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="20" t="s">
-        <v>563</v>
-      </c>
-      <c r="D258" s="20" t="s">
-        <v>710</v>
+        <v>559</v>
+      </c>
+      <c r="D258" s="21" t="s">
+        <v>707</v>
       </c>
       <c r="E258" s="20"/>
       <c r="F258" s="20"/>
@@ -16204,14 +16250,14 @@
     </row>
     <row r="259" spans="1:9" ht="19" customHeight="1">
       <c r="A259" s="19" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="20" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E259" s="20"/>
       <c r="F259" s="20"/>
@@ -16221,14 +16267,14 @@
     </row>
     <row r="260" spans="1:9" ht="19" customHeight="1">
       <c r="A260" s="19" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="20" t="s">
-        <v>1121</v>
+        <v>563</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
@@ -16238,14 +16284,14 @@
     </row>
     <row r="261" spans="1:9" ht="19" customHeight="1">
       <c r="A261" s="19" t="s">
-        <v>1112</v>
+        <v>564</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="20" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="D261" s="20" t="s">
-        <v>1117</v>
+        <v>710</v>
       </c>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
@@ -16255,14 +16301,14 @@
     </row>
     <row r="262" spans="1:9" ht="19" customHeight="1">
       <c r="A262" s="19" t="s">
-        <v>1126</v>
+        <v>1109</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="20" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D262" s="22" t="s">
-        <v>1137</v>
+        <v>1113</v>
+      </c>
+      <c r="D262" s="20" t="s">
+        <v>1114</v>
       </c>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
@@ -16272,14 +16318,14 @@
     </row>
     <row r="263" spans="1:9" ht="19" customHeight="1">
       <c r="A263" s="19" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="20" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D263" s="22" t="s">
         <v>1134</v>
-      </c>
-      <c r="D263" s="22" t="s">
-        <v>1135</v>
       </c>
       <c r="E263" s="20"/>
       <c r="F263" s="20"/>
@@ -16289,14 +16335,14 @@
     </row>
     <row r="264" spans="1:9" ht="19" customHeight="1">
       <c r="A264" s="19" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="20" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D264" s="22" t="s">
         <v>1132</v>
-      </c>
-      <c r="D264" s="22" t="s">
-        <v>1133</v>
       </c>
       <c r="E264" s="20"/>
       <c r="F264" s="20"/>
@@ -16306,14 +16352,14 @@
     </row>
     <row r="265" spans="1:9" ht="19" customHeight="1">
       <c r="A265" s="19" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D265" s="22" t="s">
         <v>1130</v>
-      </c>
-      <c r="D265" s="22" t="s">
-        <v>1131</v>
       </c>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
@@ -16323,14 +16369,14 @@
     </row>
     <row r="266" spans="1:9" ht="19" customHeight="1">
       <c r="A266" s="19" t="s">
-        <v>913</v>
+        <v>1126</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="20" t="s">
-        <v>915</v>
-      </c>
-      <c r="D266" s="20" t="s">
-        <v>914</v>
+        <v>1127</v>
+      </c>
+      <c r="D266" s="22" t="s">
+        <v>1128</v>
       </c>
       <c r="E266" s="20"/>
       <c r="F266" s="20"/>
@@ -16340,14 +16386,14 @@
     </row>
     <row r="267" spans="1:9" ht="19" customHeight="1">
       <c r="A267" s="19" t="s">
-        <v>567</v>
+        <v>910</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="D267" s="21" t="s">
-        <v>713</v>
+        <v>912</v>
+      </c>
+      <c r="D267" s="20" t="s">
+        <v>911</v>
       </c>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
@@ -16357,14 +16403,14 @@
     </row>
     <row r="268" spans="1:9" ht="19" customHeight="1">
       <c r="A268" s="19" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="20" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D268" s="21" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E268" s="20"/>
       <c r="F268" s="20"/>
@@ -16374,14 +16420,14 @@
     </row>
     <row r="269" spans="1:9" ht="19" customHeight="1">
       <c r="A269" s="19" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="D269" s="20" t="s">
-        <v>715</v>
+        <v>568</v>
+      </c>
+      <c r="D269" s="21" t="s">
+        <v>712</v>
       </c>
       <c r="E269" s="20"/>
       <c r="F269" s="20"/>
@@ -16391,14 +16437,14 @@
     </row>
     <row r="270" spans="1:9" ht="19" customHeight="1">
       <c r="A270" s="19" t="s">
-        <v>1113</v>
+        <v>569</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="20" t="s">
-        <v>1138</v>
+        <v>570</v>
       </c>
       <c r="D270" s="20" t="s">
-        <v>1139</v>
+        <v>713</v>
       </c>
       <c r="E270" s="20"/>
       <c r="F270" s="20"/>
@@ -16408,14 +16454,14 @@
     </row>
     <row r="271" spans="1:9" ht="19" customHeight="1">
       <c r="A271" s="19" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="20" t="s">
-        <v>1115</v>
+        <v>1135</v>
       </c>
       <c r="D271" s="20" t="s">
-        <v>1122</v>
+        <v>1136</v>
       </c>
       <c r="E271" s="20"/>
       <c r="F271" s="20"/>
@@ -16425,14 +16471,14 @@
     </row>
     <row r="272" spans="1:9" ht="19" customHeight="1">
       <c r="A272" s="19" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="20" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="D272" s="20" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="E272" s="20"/>
       <c r="F272" s="20"/>
@@ -16442,14 +16488,14 @@
     </row>
     <row r="273" spans="1:9" ht="19" customHeight="1">
       <c r="A273" s="19" t="s">
-        <v>575</v>
+        <v>1120</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="20" t="s">
-        <v>576</v>
+        <v>1121</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>717</v>
+        <v>1122</v>
       </c>
       <c r="E273" s="20"/>
       <c r="F273" s="20"/>
@@ -16459,14 +16505,14 @@
     </row>
     <row r="274" spans="1:9" ht="19" customHeight="1">
       <c r="A274" s="19" t="s">
-        <v>1034</v>
+        <v>573</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="20" t="s">
-        <v>1035</v>
+        <v>574</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>1036</v>
+        <v>715</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -16476,14 +16522,14 @@
     </row>
     <row r="275" spans="1:9" ht="19" customHeight="1">
       <c r="A275" s="19" t="s">
-        <v>573</v>
+        <v>1031</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="20" t="s">
-        <v>574</v>
+        <v>1032</v>
       </c>
       <c r="D275" s="20" t="s">
-        <v>716</v>
+        <v>1033</v>
       </c>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
@@ -16493,14 +16539,14 @@
     </row>
     <row r="276" spans="1:9" ht="19" customHeight="1">
       <c r="A276" s="19" t="s">
-        <v>1118</v>
+        <v>571</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="20" t="s">
-        <v>1120</v>
+        <v>572</v>
       </c>
       <c r="D276" s="20" t="s">
-        <v>1119</v>
+        <v>714</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -16510,14 +16556,14 @@
     </row>
     <row r="277" spans="1:9" ht="19" customHeight="1">
       <c r="A277" s="19" t="s">
-        <v>577</v>
+        <v>1115</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="20" t="s">
-        <v>578</v>
+        <v>1117</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>718</v>
+        <v>1116</v>
       </c>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
@@ -16527,14 +16573,14 @@
     </row>
     <row r="278" spans="1:9" ht="19" customHeight="1">
       <c r="A278" s="19" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="20" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D278" s="20" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E278" s="20"/>
       <c r="F278" s="20"/>
@@ -16544,14 +16590,14 @@
     </row>
     <row r="279" spans="1:9" ht="19" customHeight="1">
       <c r="A279" s="19" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="D279" s="21" t="s">
-        <v>720</v>
+        <v>578</v>
+      </c>
+      <c r="D279" s="20" t="s">
+        <v>717</v>
       </c>
       <c r="E279" s="20"/>
       <c r="F279" s="20"/>
@@ -16561,14 +16607,14 @@
     </row>
     <row r="280" spans="1:9" ht="19" customHeight="1">
       <c r="A280" s="19" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="20" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D280" s="21" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E280" s="20"/>
       <c r="F280" s="20"/>
@@ -16578,14 +16624,14 @@
     </row>
     <row r="281" spans="1:9" ht="19" customHeight="1">
       <c r="A281" s="19" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="D281" s="20" t="s">
-        <v>722</v>
+        <v>582</v>
+      </c>
+      <c r="D281" s="21" t="s">
+        <v>719</v>
       </c>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
@@ -16595,14 +16641,14 @@
     </row>
     <row r="282" spans="1:9" ht="19" customHeight="1">
       <c r="A282" s="19" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="20" t="s">
-        <v>588</v>
-      </c>
-      <c r="D282" s="21" t="s">
-        <v>723</v>
+        <v>584</v>
+      </c>
+      <c r="D282" s="20" t="s">
+        <v>720</v>
       </c>
       <c r="E282" s="20"/>
       <c r="F282" s="20"/>
@@ -16612,14 +16658,14 @@
     </row>
     <row r="283" spans="1:9" ht="19" customHeight="1">
       <c r="A283" s="19" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="20" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D283" s="21" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
@@ -16629,14 +16675,14 @@
     </row>
     <row r="284" spans="1:9" ht="19" customHeight="1">
       <c r="A284" s="19" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="20" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D284" s="21" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E284" s="20"/>
       <c r="F284" s="20"/>
@@ -16646,14 +16692,14 @@
     </row>
     <row r="285" spans="1:9" ht="19" customHeight="1">
       <c r="A285" s="19" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="20" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D285" s="21" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
@@ -16663,14 +16709,14 @@
     </row>
     <row r="286" spans="1:9" ht="19" customHeight="1">
       <c r="A286" s="19" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="20" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D286" s="21" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E286" s="20"/>
       <c r="F286" s="20"/>
@@ -16680,14 +16726,14 @@
     </row>
     <row r="287" spans="1:9" ht="19" customHeight="1">
       <c r="A287" s="19" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="20" t="s">
-        <v>598</v>
-      </c>
-      <c r="D287" s="20" t="s">
-        <v>728</v>
+        <v>594</v>
+      </c>
+      <c r="D287" s="21" t="s">
+        <v>725</v>
       </c>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
@@ -16697,14 +16743,14 @@
     </row>
     <row r="288" spans="1:9" ht="19" customHeight="1">
       <c r="A288" s="19" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="20" t="s">
-        <v>600</v>
-      </c>
-      <c r="D288" s="21" t="s">
-        <v>729</v>
+        <v>596</v>
+      </c>
+      <c r="D288" s="20" t="s">
+        <v>726</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -16714,14 +16760,14 @@
     </row>
     <row r="289" spans="1:9" ht="19" customHeight="1">
       <c r="A289" s="19" t="s">
-        <v>954</v>
+        <v>597</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="20" t="s">
-        <v>955</v>
-      </c>
-      <c r="D289" s="20" t="s">
-        <v>956</v>
+        <v>598</v>
+      </c>
+      <c r="D289" s="21" t="s">
+        <v>727</v>
       </c>
       <c r="E289" s="20"/>
       <c r="F289" s="20"/>
@@ -16731,14 +16777,14 @@
     </row>
     <row r="290" spans="1:9" ht="19" customHeight="1">
       <c r="A290" s="19" t="s">
-        <v>601</v>
+        <v>951</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="20" t="s">
-        <v>602</v>
-      </c>
-      <c r="D290" s="21" t="s">
-        <v>730</v>
+        <v>952</v>
+      </c>
+      <c r="D290" s="20" t="s">
+        <v>953</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -16748,14 +16794,14 @@
     </row>
     <row r="291" spans="1:9" ht="19" customHeight="1">
       <c r="A291" s="19" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="20" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E291" s="20"/>
       <c r="F291" s="20"/>
@@ -16765,14 +16811,14 @@
     </row>
     <row r="292" spans="1:9" ht="19" customHeight="1">
       <c r="A292" s="19" t="s">
-        <v>1026</v>
+        <v>601</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="20" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D292" s="20" t="s">
-        <v>1028</v>
+        <v>602</v>
+      </c>
+      <c r="D292" s="21" t="s">
+        <v>729</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -16782,14 +16828,14 @@
     </row>
     <row r="293" spans="1:9" ht="19" customHeight="1">
       <c r="A293" s="19" t="s">
-        <v>605</v>
+        <v>1023</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="20" t="s">
-        <v>606</v>
-      </c>
-      <c r="D293" s="21" t="s">
-        <v>732</v>
+        <v>1024</v>
+      </c>
+      <c r="D293" s="20" t="s">
+        <v>1025</v>
       </c>
       <c r="E293" s="20"/>
       <c r="F293" s="20"/>
@@ -16799,14 +16845,14 @@
     </row>
     <row r="294" spans="1:9" ht="19" customHeight="1">
       <c r="A294" s="19" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="20" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D294" s="21" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -16816,14 +16862,14 @@
     </row>
     <row r="295" spans="1:9" ht="19" customHeight="1">
       <c r="A295" s="19" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="20" t="s">
-        <v>610</v>
-      </c>
-      <c r="D295" s="20" t="s">
-        <v>734</v>
+        <v>606</v>
+      </c>
+      <c r="D295" s="21" t="s">
+        <v>731</v>
       </c>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
@@ -16833,14 +16879,14 @@
     </row>
     <row r="296" spans="1:9" ht="19" customHeight="1">
       <c r="A296" s="19" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="20" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D296" s="20" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -16850,14 +16896,14 @@
     </row>
     <row r="297" spans="1:9" ht="19" customHeight="1">
       <c r="A297" s="19" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="D297" s="21" t="s">
-        <v>736</v>
+        <v>610</v>
+      </c>
+      <c r="D297" s="20" t="s">
+        <v>733</v>
       </c>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
@@ -16867,14 +16913,14 @@
     </row>
     <row r="298" spans="1:9" ht="19" customHeight="1">
       <c r="A298" s="19" t="s">
-        <v>1083</v>
+        <v>611</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="20" t="s">
-        <v>1084</v>
+        <v>612</v>
       </c>
       <c r="D298" s="21" t="s">
-        <v>1085</v>
+        <v>734</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -16884,14 +16930,14 @@
     </row>
     <row r="299" spans="1:9" ht="19" customHeight="1">
       <c r="A299" s="19" t="s">
-        <v>615</v>
+        <v>1080</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="D299" s="22" t="s">
-        <v>737</v>
+        <v>1081</v>
+      </c>
+      <c r="D299" s="21" t="s">
+        <v>1082</v>
       </c>
       <c r="E299" s="20"/>
       <c r="F299" s="20"/>
@@ -16901,14 +16947,14 @@
     </row>
     <row r="300" spans="1:9" ht="19" customHeight="1">
       <c r="A300" s="19" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="20" t="s">
-        <v>618</v>
-      </c>
-      <c r="D300" s="21" t="s">
-        <v>939</v>
+        <v>614</v>
+      </c>
+      <c r="D300" s="22" t="s">
+        <v>735</v>
       </c>
       <c r="E300" s="20"/>
       <c r="F300" s="20"/>
@@ -16918,14 +16964,14 @@
     </row>
     <row r="301" spans="1:9" ht="19" customHeight="1">
       <c r="A301" s="19" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="20" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D301" s="21" t="s">
-        <v>738</v>
+        <v>936</v>
       </c>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
@@ -16935,14 +16981,14 @@
     </row>
     <row r="302" spans="1:9" ht="19" customHeight="1">
       <c r="A302" s="19" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="D302" s="20" t="s">
-        <v>739</v>
+        <v>618</v>
+      </c>
+      <c r="D302" s="21" t="s">
+        <v>736</v>
       </c>
       <c r="E302" s="20"/>
       <c r="F302" s="20"/>
@@ -16952,14 +16998,14 @@
     </row>
     <row r="303" spans="1:9" ht="19" customHeight="1">
       <c r="A303" s="19" t="s">
-        <v>951</v>
+        <v>619</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="20" t="s">
-        <v>952</v>
+        <v>620</v>
       </c>
       <c r="D303" s="20" t="s">
-        <v>953</v>
+        <v>737</v>
       </c>
       <c r="E303" s="20"/>
       <c r="F303" s="20"/>
@@ -16969,14 +17015,14 @@
     </row>
     <row r="304" spans="1:9" ht="19" customHeight="1">
       <c r="A304" s="19" t="s">
-        <v>623</v>
+        <v>948</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="D304" s="21" t="s">
-        <v>740</v>
+        <v>949</v>
+      </c>
+      <c r="D304" s="20" t="s">
+        <v>950</v>
       </c>
       <c r="E304" s="20"/>
       <c r="F304" s="20"/>
@@ -16986,14 +17032,14 @@
     </row>
     <row r="305" spans="1:9" ht="19" customHeight="1">
       <c r="A305" s="19" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="20" t="s">
-        <v>957</v>
+        <v>622</v>
       </c>
       <c r="D305" s="21" t="s">
-        <v>958</v>
+        <v>738</v>
       </c>
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
@@ -17003,14 +17049,14 @@
     </row>
     <row r="306" spans="1:9" ht="19" customHeight="1">
       <c r="A306" s="19" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="20" t="s">
-        <v>627</v>
+        <v>954</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>741</v>
+        <v>955</v>
       </c>
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
@@ -17020,14 +17066,14 @@
     </row>
     <row r="307" spans="1:9" ht="19" customHeight="1">
       <c r="A307" s="19" t="s">
-        <v>959</v>
+        <v>624</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="20" t="s">
-        <v>960</v>
-      </c>
-      <c r="D307" s="20" t="s">
-        <v>961</v>
+        <v>625</v>
+      </c>
+      <c r="D307" s="21" t="s">
+        <v>739</v>
       </c>
       <c r="E307" s="20"/>
       <c r="F307" s="20"/>
@@ -17037,14 +17083,14 @@
     </row>
     <row r="308" spans="1:9" ht="19" customHeight="1">
       <c r="A308" s="19" t="s">
-        <v>628</v>
+        <v>956</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="20" t="s">
-        <v>629</v>
-      </c>
-      <c r="D308" s="21" t="s">
-        <v>742</v>
+        <v>957</v>
+      </c>
+      <c r="D308" s="20" t="s">
+        <v>958</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -17054,14 +17100,14 @@
     </row>
     <row r="309" spans="1:9" ht="19" customHeight="1">
       <c r="A309" s="19" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="20" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E309" s="20"/>
       <c r="F309" s="20"/>
@@ -17071,14 +17117,14 @@
     </row>
     <row r="310" spans="1:9" ht="19" customHeight="1">
       <c r="A310" s="19" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="20" t="s">
-        <v>633</v>
-      </c>
-      <c r="D310" s="20" t="s">
-        <v>744</v>
+        <v>629</v>
+      </c>
+      <c r="D310" s="21" t="s">
+        <v>741</v>
       </c>
       <c r="E310" s="20"/>
       <c r="F310" s="20"/>
@@ -17088,14 +17134,14 @@
     </row>
     <row r="311" spans="1:9" ht="19" customHeight="1">
       <c r="A311" s="19" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="20" t="s">
-        <v>635</v>
-      </c>
-      <c r="D311" s="21" t="s">
-        <v>745</v>
+        <v>631</v>
+      </c>
+      <c r="D311" s="20" t="s">
+        <v>742</v>
       </c>
       <c r="E311" s="20"/>
       <c r="F311" s="20"/>
@@ -17105,14 +17151,14 @@
     </row>
     <row r="312" spans="1:9" ht="19" customHeight="1">
       <c r="A312" s="19" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="20" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D312" s="21" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E312" s="20"/>
       <c r="F312" s="20"/>
@@ -17122,14 +17168,14 @@
     </row>
     <row r="313" spans="1:9" ht="19" customHeight="1">
       <c r="A313" s="19" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="20" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D313" s="21" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -17139,14 +17185,14 @@
     </row>
     <row r="314" spans="1:9" ht="19" customHeight="1">
       <c r="A314" s="19" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="20" t="s">
-        <v>641</v>
-      </c>
-      <c r="D314" s="22" t="s">
-        <v>748</v>
+        <v>637</v>
+      </c>
+      <c r="D314" s="21" t="s">
+        <v>745</v>
       </c>
       <c r="E314" s="20"/>
       <c r="F314" s="20"/>
@@ -17156,14 +17202,14 @@
     </row>
     <row r="315" spans="1:9" ht="19" customHeight="1">
       <c r="A315" s="19" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="20" t="s">
-        <v>643</v>
-      </c>
-      <c r="D315" s="21" t="s">
-        <v>749</v>
+        <v>639</v>
+      </c>
+      <c r="D315" s="22" t="s">
+        <v>746</v>
       </c>
       <c r="E315" s="20"/>
       <c r="F315" s="20"/>
@@ -17173,14 +17219,14 @@
     </row>
     <row r="316" spans="1:9" ht="19" customHeight="1">
       <c r="A316" s="19" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="20" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D316" s="21" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E316" s="20"/>
       <c r="F316" s="20"/>
@@ -17190,14 +17236,14 @@
     </row>
     <row r="317" spans="1:9" ht="19" customHeight="1">
       <c r="A317" s="19" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="20" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -17207,14 +17253,14 @@
     </row>
     <row r="318" spans="1:9" ht="19" customHeight="1">
       <c r="A318" s="19" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="20" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E318" s="20"/>
       <c r="F318" s="20"/>
@@ -17224,14 +17270,14 @@
     </row>
     <row r="319" spans="1:9" ht="19" customHeight="1">
       <c r="A319" s="19" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="20" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D319" s="21" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E319" s="20"/>
       <c r="F319" s="20"/>
@@ -17241,14 +17287,14 @@
     </row>
     <row r="320" spans="1:9" ht="19" customHeight="1">
       <c r="A320" s="19" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="20" t="s">
-        <v>653</v>
-      </c>
-      <c r="D320" s="20" t="s">
-        <v>754</v>
+        <v>649</v>
+      </c>
+      <c r="D320" s="21" t="s">
+        <v>751</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -17258,14 +17304,14 @@
     </row>
     <row r="321" spans="1:9" ht="19" customHeight="1">
       <c r="A321" s="19" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B321" s="20"/>
-      <c r="C321" s="27" t="s">
-        <v>655</v>
-      </c>
-      <c r="D321" s="27" t="s">
-        <v>755</v>
+      <c r="C321" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="D321" s="20" t="s">
+        <v>752</v>
       </c>
       <c r="E321" s="20"/>
       <c r="F321" s="20"/>
@@ -17275,14 +17321,14 @@
     </row>
     <row r="322" spans="1:9" ht="19" customHeight="1">
       <c r="A322" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B322" s="20"/>
-      <c r="C322" s="20" t="s">
-        <v>657</v>
-      </c>
-      <c r="D322" s="20" t="s">
-        <v>756</v>
+      <c r="C322" s="27" t="s">
+        <v>653</v>
+      </c>
+      <c r="D322" s="27" t="s">
+        <v>753</v>
       </c>
       <c r="E322" s="20"/>
       <c r="F322" s="20"/>
@@ -17292,14 +17338,14 @@
     </row>
     <row r="323" spans="1:9" ht="19" customHeight="1">
       <c r="A323" s="19" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="20" t="s">
-        <v>659</v>
-      </c>
-      <c r="D323" s="21" t="s">
-        <v>757</v>
+        <v>655</v>
+      </c>
+      <c r="D323" s="20" t="s">
+        <v>754</v>
       </c>
       <c r="E323" s="20"/>
       <c r="F323" s="20"/>
@@ -17309,14 +17355,14 @@
     </row>
     <row r="324" spans="1:9" ht="19" customHeight="1">
       <c r="A324" s="19" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="20" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
@@ -17326,14 +17372,14 @@
     </row>
     <row r="325" spans="1:9" ht="19" customHeight="1">
       <c r="A325" s="19" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="20" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
@@ -17343,14 +17389,14 @@
     </row>
     <row r="326" spans="1:9" ht="19" customHeight="1">
       <c r="A326" s="19" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="D326" s="20" t="s">
-        <v>760</v>
+        <v>661</v>
+      </c>
+      <c r="D326" s="21" t="s">
+        <v>757</v>
       </c>
       <c r="E326" s="20"/>
       <c r="F326" s="20"/>
@@ -17360,14 +17406,14 @@
     </row>
     <row r="327" spans="1:9" ht="19" customHeight="1">
       <c r="A327" s="19" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="20" t="s">
-        <v>667</v>
-      </c>
-      <c r="D327" s="22" t="s">
-        <v>761</v>
+        <v>663</v>
+      </c>
+      <c r="D327" s="20" t="s">
+        <v>758</v>
       </c>
       <c r="E327" s="20"/>
       <c r="F327" s="20"/>
@@ -17377,14 +17423,14 @@
     </row>
     <row r="328" spans="1:9" ht="19" customHeight="1">
       <c r="A328" s="19" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="20" t="s">
-        <v>669</v>
-      </c>
-      <c r="D328" s="20" t="s">
-        <v>762</v>
+        <v>665</v>
+      </c>
+      <c r="D328" s="22" t="s">
+        <v>759</v>
       </c>
       <c r="E328" s="20"/>
       <c r="F328" s="20"/>
@@ -17394,14 +17440,14 @@
     </row>
     <row r="329" spans="1:9" ht="19" customHeight="1">
       <c r="A329" s="19" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="20" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D329" s="20" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E329" s="20"/>
       <c r="F329" s="20"/>
@@ -17411,14 +17457,14 @@
     </row>
     <row r="330" spans="1:9" ht="19" customHeight="1">
       <c r="A330" s="19" t="s">
-        <v>948</v>
+        <v>668</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="20" t="s">
-        <v>949</v>
+        <v>669</v>
       </c>
       <c r="D330" s="20" t="s">
-        <v>950</v>
+        <v>761</v>
       </c>
       <c r="E330" s="20"/>
       <c r="F330" s="20"/>
@@ -17428,14 +17474,14 @@
     </row>
     <row r="331" spans="1:9" ht="19" customHeight="1">
       <c r="A331" s="19" t="s">
-        <v>1075</v>
+        <v>945</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="20" t="s">
-        <v>1076</v>
+        <v>946</v>
       </c>
       <c r="D331" s="20" t="s">
-        <v>1077</v>
+        <v>947</v>
       </c>
       <c r="E331" s="20"/>
       <c r="F331" s="20"/>
@@ -17445,14 +17491,14 @@
     </row>
     <row r="332" spans="1:9" ht="19" customHeight="1">
       <c r="A332" s="19" t="s">
-        <v>1146</v>
+        <v>1072</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="20" t="s">
-        <v>1147</v>
+        <v>1073</v>
       </c>
       <c r="D332" s="20" t="s">
-        <v>1148</v>
+        <v>1074</v>
       </c>
       <c r="E332" s="20"/>
       <c r="F332" s="20"/>
@@ -17462,14 +17508,14 @@
     </row>
     <row r="333" spans="1:9" ht="19" customHeight="1">
       <c r="A333" s="19" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="20" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="D333" s="20" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="E333" s="20"/>
       <c r="F333" s="20"/>
@@ -17479,14 +17525,14 @@
     </row>
     <row r="334" spans="1:9" ht="19" customHeight="1">
       <c r="A334" s="19" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="20" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="D334" s="20" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="E334" s="20"/>
       <c r="F334" s="20"/>
@@ -17496,14 +17542,14 @@
     </row>
     <row r="335" spans="1:9" ht="19" customHeight="1">
       <c r="A335" s="19" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="20" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="D335" s="20" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="E335" s="20"/>
       <c r="F335" s="20"/>
@@ -17512,10 +17558,16 @@
       <c r="I335" s="18"/>
     </row>
     <row r="336" spans="1:9" ht="19" customHeight="1">
-      <c r="A336" s="19"/>
+      <c r="A336" s="19" t="s">
+        <v>1146</v>
+      </c>
       <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
-      <c r="D336" s="20"/>
+      <c r="C336" s="20" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D336" s="20" t="s">
+        <v>1148</v>
+      </c>
       <c r="E336" s="20"/>
       <c r="F336" s="20"/>
       <c r="G336" s="18"/>
@@ -18171,15 +18223,26 @@
       <c r="H395" s="17"/>
       <c r="I395" s="18"/>
     </row>
+    <row r="396" spans="1:9" ht="19" customHeight="1">
+      <c r="A396" s="19"/>
+      <c r="B396" s="20"/>
+      <c r="C396" s="20"/>
+      <c r="D396" s="20"/>
+      <c r="E396" s="20"/>
+      <c r="F396" s="20"/>
+      <c r="G396" s="18"/>
+      <c r="H396" s="17"/>
+      <c r="I396" s="18"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:J209" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
+  <autoFilter ref="A4:J210" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A234:E235 E221:G221 A221:C233 A257:E258 A293:E294 A315:E316 A317:C329 E317:E329 E222:E233 B65:G65 D115:D133 I8:I28 A8:G28 A66:G114 A236:C256 E236:E256 A115:C141 E115:G141 D138:D141 A30:G64 A217:G220 A142:G215 I30:I215 E259 F222:G259 E273:E292 D274 E295:E314 A295:C314 F273:G332 E260:G272 A259:C292 I217:I395 A330:E332 A333:G395">
+  <conditionalFormatting sqref="A235:E236 E222:G222 A222:C234 A258:E259 A294:E295 A316:E317 A318:C330 E318:E330 E223:E234 B65:G65 D115:D133 I8:I28 A8:G28 A66:G114 A237:C257 E237:E257 A115:C141 E115:G141 D138:D141 A30:G64 A218:G221 E260 F223:G260 E274:E293 D275 E296:E315 A296:C315 F274:G333 E261:G273 A260:C293 I218:I396 A331:E333 A334:G396 A142:G216 I30:I216">
     <cfRule type="expression" dxfId="137" priority="262">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H395">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H218:H396 H115:H216">
     <cfRule type="cellIs" dxfId="136" priority="217" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
@@ -18193,7 +18256,7 @@
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H395">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H218:H396 H115:H216">
     <cfRule type="cellIs" dxfId="132" priority="218" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -18210,7 +18273,7 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H215 H217:H395">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H218:H396 H115:H216">
     <cfRule type="cellIs" dxfId="127" priority="220" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
@@ -18271,26 +18334,26 @@
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C216:G216 I216 A216">
+  <conditionalFormatting sqref="C217:G217 I217 A217">
     <cfRule type="expression" dxfId="112" priority="122">
-      <formula>$G216&lt;&gt;""</formula>
+      <formula>$G217&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H216">
+  <conditionalFormatting sqref="H217">
     <cfRule type="cellIs" dxfId="111" priority="112" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="110" priority="119" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",H216)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",H217)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="109" priority="120" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",H216)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",H217)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="108" priority="121" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H216)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H217)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H216">
+  <conditionalFormatting sqref="H217">
     <cfRule type="cellIs" dxfId="107" priority="113" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -18307,19 +18370,19 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H216">
+  <conditionalFormatting sqref="H217">
     <cfRule type="cellIs" dxfId="102" priority="115" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B216">
+  <conditionalFormatting sqref="B217">
     <cfRule type="expression" dxfId="101" priority="111">
-      <formula>$G216&lt;&gt;""</formula>
+      <formula>$G217&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D308:D329 D221:D242 D245 D293:D295 D299:D300 D249:D258 D267 D302:D304 D275:D286">
+  <conditionalFormatting sqref="D309:D330 D222:D243 D246 D294:D296 D300:D301 D250:D259 D268 D303:D305 D276:D287">
     <cfRule type="expression" dxfId="100" priority="264">
-      <formula>$G223&lt;&gt;""</formula>
+      <formula>$G224&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6 I6 C6:G6">
@@ -18501,9 +18564,9 @@
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D305:D307 D290:D292 D287:D288 D246:D248 D296:D298 D266">
+  <conditionalFormatting sqref="D306:D308 D291:D293 D288:D289 D247:D249 D297:D299 D267">
     <cfRule type="expression" dxfId="52" priority="267">
-      <formula>$G249&lt;&gt;""</formula>
+      <formula>$G250&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
@@ -18542,64 +18605,64 @@
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D289 D269">
+  <conditionalFormatting sqref="D290 D270">
     <cfRule type="expression" dxfId="41" priority="271">
-      <formula>$G273&lt;&gt;""</formula>
+      <formula>$G274&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D245">
+    <cfRule type="expression" dxfId="40" priority="302">
+      <formula>$G246&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D244">
-    <cfRule type="expression" dxfId="40" priority="302">
-      <formula>$G245&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D243">
     <cfRule type="expression" dxfId="39" priority="303">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D259:D260">
+  <conditionalFormatting sqref="D260:D261">
     <cfRule type="expression" dxfId="38" priority="305">
-      <formula>$G267&lt;&gt;""</formula>
+      <formula>$G268&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D262">
+  <conditionalFormatting sqref="D263">
     <cfRule type="expression" dxfId="37" priority="339">
-      <formula>$G267&lt;&gt;""</formula>
+      <formula>$G268&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D270">
+  <conditionalFormatting sqref="D271">
     <cfRule type="expression" dxfId="36" priority="2">
-      <formula>$G270&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D271:D272">
-    <cfRule type="expression" dxfId="35" priority="1">
       <formula>$G271&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D301">
+  <conditionalFormatting sqref="D272:D273">
+    <cfRule type="expression" dxfId="35" priority="1">
+      <formula>$G272&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D302">
     <cfRule type="expression" dxfId="34" priority="371">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D273">
+  <conditionalFormatting sqref="D274">
     <cfRule type="expression" dxfId="33" priority="372">
-      <formula>$G278&lt;&gt;""</formula>
+      <formula>$G279&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D268">
+  <conditionalFormatting sqref="D269">
     <cfRule type="expression" dxfId="32" priority="374">
-      <formula>$G275&lt;&gt;""</formula>
+      <formula>$G276&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D261:D265">
+  <conditionalFormatting sqref="D262:D266">
     <cfRule type="expression" dxfId="31" priority="375">
-      <formula>$G269&lt;&gt;""</formula>
+      <formula>$G270&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D263:D265">
+  <conditionalFormatting sqref="D264:D266">
     <cfRule type="expression" dxfId="30" priority="376">
-      <formula>$G267&lt;&gt;""</formula>
+      <formula>$G268&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE66BBE-0F0C-E94D-823C-A6497EA2C2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99A5E63-3C0D-ED48-9097-EE3C64CCFCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35860" yWindow="2320" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">message!$A$4:$J$210</definedName>
     <definedName name="実施結果">List!$A$3:$A$12</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1164">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -9871,6 +9871,33 @@
   </si>
   <si>
     <t>アプリ${subject}を終了する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>failedToGetPackageOrBundleId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>packageまたはbundleIdを取得できませんでした。(${arg1})</t>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failed to get packageOrBundleId. ${arg1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>failedToLaunchApp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failed to launch app. (${arg1}) ${submessage}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリを起動できませんでした。(${arg1}) ${submessage}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10215,7 +10242,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{C40AA10B-FA57-1748-8D8E-3E12991DC054}"/>
   </cellStyles>
-  <dxfs count="138">
+  <dxfs count="137">
     <dxf>
       <fill>
         <patternFill>
@@ -10423,13 +10450,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11501,8 +11521,8 @@
   <dimension ref="A1:I396"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
+      <pane ySplit="4" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A338" sqref="A338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>
@@ -17575,10 +17595,16 @@
       <c r="I336" s="18"/>
     </row>
     <row r="337" spans="1:9" ht="19" customHeight="1">
-      <c r="A337" s="19"/>
+      <c r="A337" s="19" t="s">
+        <v>1158</v>
+      </c>
       <c r="B337" s="20"/>
-      <c r="C337" s="20"/>
-      <c r="D337" s="20"/>
+      <c r="C337" s="20" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D337" s="20" t="s">
+        <v>1159</v>
+      </c>
       <c r="E337" s="20"/>
       <c r="F337" s="20"/>
       <c r="G337" s="18"/>
@@ -17586,10 +17612,16 @@
       <c r="I337" s="18"/>
     </row>
     <row r="338" spans="1:9" ht="19" customHeight="1">
-      <c r="A338" s="19"/>
+      <c r="A338" s="19" t="s">
+        <v>1161</v>
+      </c>
       <c r="B338" s="20"/>
-      <c r="C338" s="20"/>
-      <c r="D338" s="20"/>
+      <c r="C338" s="20" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D338" s="20" t="s">
+        <v>1163</v>
+      </c>
       <c r="E338" s="20"/>
       <c r="F338" s="20"/>
       <c r="G338" s="18"/>
@@ -18237,427 +18269,422 @@
   </sheetData>
   <autoFilter ref="A4:J210" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A235:E236 E222:G222 A222:C234 A258:E259 A294:E295 A316:E317 A318:C330 E318:E330 E223:E234 B65:G65 D115:D133 I8:I28 A8:G28 A66:G114 A237:C257 E237:E257 A115:C141 E115:G141 D138:D141 A30:G64 A218:G221 E260 F223:G260 E274:E293 D275 E296:E315 A296:C315 F274:G333 E261:G273 A260:C293 I218:I396 A331:E333 A334:G396 A142:G216 I30:I216">
-    <cfRule type="expression" dxfId="137" priority="262">
+  <conditionalFormatting sqref="A235:E236 E222:G222 A222:C234 A258:E259 A294:E295 A316:E317 A318:C330 E318:E330 E223:E234 B65:G65 D115:D133 I8:I28 A8:G28 A66:G114 A237:C257 E237:E257 A115:C141 E115:G141 D138:D141 A30:G64 A218:G221 E260 F223:G260 E274:E293 D275 E296:E315 A296:C315 F274:G333 A331:E333 A334:G396 A142:G216 I30:I216 E261:G273 I218:I396 A260:C293">
+    <cfRule type="expression" dxfId="136" priority="262">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H218:H396 H115:H216">
-    <cfRule type="cellIs" dxfId="136" priority="217" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H216 H218:H396">
+    <cfRule type="cellIs" dxfId="135" priority="217" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="224" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="134" priority="224" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="225" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="133" priority="225" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="226" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="132" priority="226" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H218:H396 H115:H216">
-    <cfRule type="cellIs" dxfId="132" priority="218" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H216 H218:H396">
+    <cfRule type="cellIs" dxfId="131" priority="218" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="219" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="219" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="221" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="221" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="222" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="222" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="223" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="223" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H218:H396 H115:H216">
-    <cfRule type="cellIs" dxfId="127" priority="220" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H216 H218:H396">
+    <cfRule type="cellIs" dxfId="126" priority="220" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134:D135">
-    <cfRule type="expression" dxfId="126" priority="141">
+    <cfRule type="expression" dxfId="125" priority="141">
       <formula>$G134&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136:D137">
-    <cfRule type="expression" dxfId="125" priority="140">
+    <cfRule type="expression" dxfId="124" priority="140">
       <formula>$G136&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5 I5 A5">
-    <cfRule type="expression" dxfId="124" priority="134">
+    <cfRule type="expression" dxfId="123" priority="134">
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="123" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="124" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="131" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="121" priority="131" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="132" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="120" priority="132" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="133" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="119" priority="133" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="119" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="125" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="126" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="128" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="129" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="130" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="114" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="127" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="113" priority="123">
+    <cfRule type="expression" dxfId="112" priority="123">
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C217:G217 I217 A217">
-    <cfRule type="expression" dxfId="112" priority="122">
+    <cfRule type="expression" dxfId="111" priority="122">
       <formula>$G217&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H217">
-    <cfRule type="cellIs" dxfId="111" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="112" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="119" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="109" priority="119" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H217)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="120" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="108" priority="120" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H217)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="121" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="107" priority="121" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H217)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H217">
-    <cfRule type="cellIs" dxfId="107" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="113" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="114" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="116" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="117" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="118" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H217">
-    <cfRule type="cellIs" dxfId="102" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="115" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B217">
-    <cfRule type="expression" dxfId="101" priority="111">
+    <cfRule type="expression" dxfId="100" priority="111">
       <formula>$G217&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D309:D330 D222:D243 D246 D294:D296 D300:D301 D250:D259 D268 D303:D305 D276:D287">
-    <cfRule type="expression" dxfId="100" priority="264">
+    <cfRule type="expression" dxfId="99" priority="264">
       <formula>$G224&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6 I6 C6:G6">
-    <cfRule type="expression" dxfId="99" priority="95">
+    <cfRule type="expression" dxfId="98" priority="95">
       <formula>$G6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="98" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="85" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="92" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="96" priority="92" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="93" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="95" priority="93" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="94" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="94" priority="94" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="94" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="86" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="87" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="89" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="90" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="91" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="89" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="88" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7 I7 E7:G7">
-    <cfRule type="expression" dxfId="88" priority="84">
+    <cfRule type="expression" dxfId="87" priority="84">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="87" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="74" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="81" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="85" priority="81" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="82" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="84" priority="82" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="83" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="83" priority="83" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="83" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="75" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="76" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="78" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="79" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="80" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="78" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="77" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="77" priority="73">
+    <cfRule type="expression" dxfId="76" priority="73">
       <formula>$G6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="76" priority="72">
+    <cfRule type="expression" dxfId="75" priority="72">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="75" priority="71">
+    <cfRule type="expression" dxfId="74" priority="71">
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="expression" dxfId="74" priority="59">
+    <cfRule type="expression" dxfId="73" priority="59">
       <formula>$G65&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114">
-    <cfRule type="cellIs" dxfId="73" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="48" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="55" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="71" priority="55" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="56" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="70" priority="56" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="57" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="69" priority="57" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114">
-    <cfRule type="cellIs" dxfId="69" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="49" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="50" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="52" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="53" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="54" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114">
-    <cfRule type="cellIs" dxfId="64" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="51" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:G29 I29">
-    <cfRule type="expression" dxfId="63" priority="25">
+    <cfRule type="expression" dxfId="62" priority="25">
       <formula>$G29&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="62" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="22" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="60" priority="22" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="23" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="59" priority="23" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="24" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="58" priority="24" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="58" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="16" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="17" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="19" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="20" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="21" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="53" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="18" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D306:D308 D291:D293 D288:D289 D247:D249 D297:D299 D267">
-    <cfRule type="expression" dxfId="52" priority="267">
+    <cfRule type="expression" dxfId="51" priority="267">
       <formula>$G250&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="51" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="11" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="49" priority="11" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",H86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="12" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="48" priority="12" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",H86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="13" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="47" priority="13" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="47" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="5" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="6" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="8" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="9" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="10" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="42" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="7" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D290 D270">
-    <cfRule type="expression" dxfId="41" priority="271">
+    <cfRule type="expression" dxfId="40" priority="271">
       <formula>$G274&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D245">
-    <cfRule type="expression" dxfId="40" priority="302">
+    <cfRule type="expression" dxfId="39" priority="302">
       <formula>$G246&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D244">
-    <cfRule type="expression" dxfId="39" priority="303">
+    <cfRule type="expression" dxfId="38" priority="303">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D260:D261">
-    <cfRule type="expression" dxfId="38" priority="305">
+  <conditionalFormatting sqref="D260:D266">
+    <cfRule type="expression" dxfId="37" priority="305">
       <formula>$G268&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D263">
-    <cfRule type="expression" dxfId="37" priority="339">
+    <cfRule type="expression" dxfId="36" priority="339">
       <formula>$G268&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D271">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>$G271&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D272:D273">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="34" priority="1">
       <formula>$G272&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D302">
-    <cfRule type="expression" dxfId="34" priority="371">
+    <cfRule type="expression" dxfId="33" priority="371">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D274">
-    <cfRule type="expression" dxfId="33" priority="372">
+    <cfRule type="expression" dxfId="32" priority="372">
       <formula>$G279&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D269">
-    <cfRule type="expression" dxfId="32" priority="374">
+    <cfRule type="expression" dxfId="31" priority="374">
       <formula>$G276&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D262:D266">
-    <cfRule type="expression" dxfId="31" priority="375">
-      <formula>$G270&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D264:D266">

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99A5E63-3C0D-ED48-9097-EE3C64CCFCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3634821C-AB41-6B40-B798-8209EF8E0A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35860" yWindow="2320" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="1167">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -9898,6 +9898,21 @@
   </si>
   <si>
     <t>アプリを起動できませんでした。(${arg1}) ${submessage}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reusingAppiumDriverSession</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reusing AppiumDriver session. (configFile=${arg1}, profileName=${arg2})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AppiumDriverセッションを再利用します。(configFile=${arg1}, profileName=${arg2})</t>
+    <rPh sb="18" eb="21">
+      <t>サイリヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11521,8 +11536,8 @@
   <dimension ref="A1:I396"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A338" sqref="A338"/>
+      <pane ySplit="4" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A340" sqref="A340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>
@@ -17629,10 +17644,16 @@
       <c r="I338" s="18"/>
     </row>
     <row r="339" spans="1:9" ht="19" customHeight="1">
-      <c r="A339" s="19"/>
+      <c r="A339" s="19" t="s">
+        <v>1164</v>
+      </c>
       <c r="B339" s="20"/>
-      <c r="C339" s="20"/>
-      <c r="D339" s="20"/>
+      <c r="C339" s="20" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D339" s="20" t="s">
+        <v>1166</v>
+      </c>
       <c r="E339" s="20"/>
       <c r="F339" s="20"/>
       <c r="G339" s="18"/>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3634821C-AB41-6B40-B798-8209EF8E0A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B69616-01CD-1A43-A5F4-2FAB08D7B79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35860" yWindow="2320" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="1170">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -9913,6 +9913,27 @@
     <rPh sb="18" eb="21">
       <t>サイリヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Appium Serverを開始できませんでした。(${arg1} 秒)</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ビョウ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イナイニ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failed to start Appium Server. (${arg1} seconds)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>failedToStartAppiumServerInSeconds</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11533,11 +11554,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I396"/>
+  <dimension ref="A1:I397"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A340" sqref="A340"/>
+      <pane ySplit="4" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>
@@ -16217,14 +16238,14 @@
     </row>
     <row r="255" spans="1:9" ht="19" customHeight="1">
       <c r="A255" s="19" t="s">
-        <v>552</v>
+        <v>1169</v>
       </c>
       <c r="B255" s="20"/>
       <c r="C255" s="20" t="s">
-        <v>553</v>
+        <v>1168</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>704</v>
+        <v>1167</v>
       </c>
       <c r="E255" s="20"/>
       <c r="F255" s="20"/>
@@ -16234,14 +16255,14 @@
     </row>
     <row r="256" spans="1:9" ht="19" customHeight="1">
       <c r="A256" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="20" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D256" s="20" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E256" s="20"/>
       <c r="F256" s="20"/>
@@ -16251,14 +16272,14 @@
     </row>
     <row r="257" spans="1:9" ht="19" customHeight="1">
       <c r="A257" s="19" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="D257" s="21" t="s">
-        <v>706</v>
+        <v>555</v>
+      </c>
+      <c r="D257" s="20" t="s">
+        <v>705</v>
       </c>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
@@ -16268,14 +16289,14 @@
     </row>
     <row r="258" spans="1:9" ht="19" customHeight="1">
       <c r="A258" s="19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D258" s="21" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E258" s="20"/>
       <c r="F258" s="20"/>
@@ -16285,14 +16306,14 @@
     </row>
     <row r="259" spans="1:9" ht="19" customHeight="1">
       <c r="A259" s="19" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="D259" s="20" t="s">
-        <v>708</v>
+        <v>559</v>
+      </c>
+      <c r="D259" s="21" t="s">
+        <v>707</v>
       </c>
       <c r="E259" s="20"/>
       <c r="F259" s="20"/>
@@ -16302,14 +16323,14 @@
     </row>
     <row r="260" spans="1:9" ht="19" customHeight="1">
       <c r="A260" s="19" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
@@ -16319,14 +16340,14 @@
     </row>
     <row r="261" spans="1:9" ht="19" customHeight="1">
       <c r="A261" s="19" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="20" t="s">
-        <v>1118</v>
+        <v>563</v>
       </c>
       <c r="D261" s="20" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
@@ -16336,14 +16357,14 @@
     </row>
     <row r="262" spans="1:9" ht="19" customHeight="1">
       <c r="A262" s="19" t="s">
-        <v>1109</v>
+        <v>564</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="20" t="s">
-        <v>1113</v>
+        <v>1118</v>
       </c>
       <c r="D262" s="20" t="s">
-        <v>1114</v>
+        <v>710</v>
       </c>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
@@ -16353,14 +16374,14 @@
     </row>
     <row r="263" spans="1:9" ht="19" customHeight="1">
       <c r="A263" s="19" t="s">
-        <v>1123</v>
+        <v>1109</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="20" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D263" s="22" t="s">
-        <v>1134</v>
+        <v>1113</v>
+      </c>
+      <c r="D263" s="20" t="s">
+        <v>1114</v>
       </c>
       <c r="E263" s="20"/>
       <c r="F263" s="20"/>
@@ -16370,14 +16391,14 @@
     </row>
     <row r="264" spans="1:9" ht="19" customHeight="1">
       <c r="A264" s="19" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="20" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="D264" s="22" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="E264" s="20"/>
       <c r="F264" s="20"/>
@@ -16387,14 +16408,14 @@
     </row>
     <row r="265" spans="1:9" ht="19" customHeight="1">
       <c r="A265" s="19" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="20" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D265" s="22" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
@@ -16404,14 +16425,14 @@
     </row>
     <row r="266" spans="1:9" ht="19" customHeight="1">
       <c r="A266" s="19" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="20" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="D266" s="22" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="E266" s="20"/>
       <c r="F266" s="20"/>
@@ -16421,14 +16442,14 @@
     </row>
     <row r="267" spans="1:9" ht="19" customHeight="1">
       <c r="A267" s="19" t="s">
-        <v>910</v>
+        <v>1126</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="20" t="s">
-        <v>912</v>
-      </c>
-      <c r="D267" s="20" t="s">
-        <v>911</v>
+        <v>1127</v>
+      </c>
+      <c r="D267" s="22" t="s">
+        <v>1128</v>
       </c>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
@@ -16438,14 +16459,14 @@
     </row>
     <row r="268" spans="1:9" ht="19" customHeight="1">
       <c r="A268" s="19" t="s">
-        <v>565</v>
+        <v>910</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="D268" s="21" t="s">
-        <v>711</v>
+        <v>912</v>
+      </c>
+      <c r="D268" s="20" t="s">
+        <v>911</v>
       </c>
       <c r="E268" s="20"/>
       <c r="F268" s="20"/>
@@ -16455,14 +16476,14 @@
     </row>
     <row r="269" spans="1:9" ht="19" customHeight="1">
       <c r="A269" s="19" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="20" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D269" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E269" s="20"/>
       <c r="F269" s="20"/>
@@ -16472,14 +16493,14 @@
     </row>
     <row r="270" spans="1:9" ht="19" customHeight="1">
       <c r="A270" s="19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="D270" s="20" t="s">
-        <v>713</v>
+        <v>568</v>
+      </c>
+      <c r="D270" s="21" t="s">
+        <v>712</v>
       </c>
       <c r="E270" s="20"/>
       <c r="F270" s="20"/>
@@ -16489,14 +16510,14 @@
     </row>
     <row r="271" spans="1:9" ht="19" customHeight="1">
       <c r="A271" s="19" t="s">
-        <v>1110</v>
+        <v>569</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="20" t="s">
-        <v>1135</v>
+        <v>570</v>
       </c>
       <c r="D271" s="20" t="s">
-        <v>1136</v>
+        <v>713</v>
       </c>
       <c r="E271" s="20"/>
       <c r="F271" s="20"/>
@@ -16506,14 +16527,14 @@
     </row>
     <row r="272" spans="1:9" ht="19" customHeight="1">
       <c r="A272" s="19" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="20" t="s">
-        <v>1112</v>
+        <v>1135</v>
       </c>
       <c r="D272" s="20" t="s">
-        <v>1119</v>
+        <v>1136</v>
       </c>
       <c r="E272" s="20"/>
       <c r="F272" s="20"/>
@@ -16523,14 +16544,14 @@
     </row>
     <row r="273" spans="1:9" ht="19" customHeight="1">
       <c r="A273" s="19" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="20" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="E273" s="20"/>
       <c r="F273" s="20"/>
@@ -16540,14 +16561,14 @@
     </row>
     <row r="274" spans="1:9" ht="19" customHeight="1">
       <c r="A274" s="19" t="s">
-        <v>573</v>
+        <v>1120</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="20" t="s">
-        <v>574</v>
+        <v>1121</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>715</v>
+        <v>1122</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -16557,14 +16578,14 @@
     </row>
     <row r="275" spans="1:9" ht="19" customHeight="1">
       <c r="A275" s="19" t="s">
-        <v>1031</v>
+        <v>573</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="20" t="s">
-        <v>1032</v>
+        <v>574</v>
       </c>
       <c r="D275" s="20" t="s">
-        <v>1033</v>
+        <v>715</v>
       </c>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
@@ -16574,14 +16595,14 @@
     </row>
     <row r="276" spans="1:9" ht="19" customHeight="1">
       <c r="A276" s="19" t="s">
-        <v>571</v>
+        <v>1031</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="20" t="s">
-        <v>572</v>
+        <v>1032</v>
       </c>
       <c r="D276" s="20" t="s">
-        <v>714</v>
+        <v>1033</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -16591,14 +16612,14 @@
     </row>
     <row r="277" spans="1:9" ht="19" customHeight="1">
       <c r="A277" s="19" t="s">
-        <v>1115</v>
+        <v>571</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="20" t="s">
-        <v>1117</v>
+        <v>572</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>1116</v>
+        <v>714</v>
       </c>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
@@ -16608,14 +16629,14 @@
     </row>
     <row r="278" spans="1:9" ht="19" customHeight="1">
       <c r="A278" s="19" t="s">
-        <v>575</v>
+        <v>1115</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="20" t="s">
-        <v>576</v>
+        <v>1117</v>
       </c>
       <c r="D278" s="20" t="s">
-        <v>716</v>
+        <v>1116</v>
       </c>
       <c r="E278" s="20"/>
       <c r="F278" s="20"/>
@@ -16625,14 +16646,14 @@
     </row>
     <row r="279" spans="1:9" ht="19" customHeight="1">
       <c r="A279" s="19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D279" s="20" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E279" s="20"/>
       <c r="F279" s="20"/>
@@ -16642,14 +16663,14 @@
     </row>
     <row r="280" spans="1:9" ht="19" customHeight="1">
       <c r="A280" s="19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="D280" s="21" t="s">
-        <v>718</v>
+        <v>578</v>
+      </c>
+      <c r="D280" s="20" t="s">
+        <v>717</v>
       </c>
       <c r="E280" s="20"/>
       <c r="F280" s="20"/>
@@ -16659,14 +16680,14 @@
     </row>
     <row r="281" spans="1:9" ht="19" customHeight="1">
       <c r="A281" s="19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="20" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
@@ -16676,14 +16697,14 @@
     </row>
     <row r="282" spans="1:9" ht="19" customHeight="1">
       <c r="A282" s="19" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="D282" s="20" t="s">
-        <v>720</v>
+        <v>582</v>
+      </c>
+      <c r="D282" s="21" t="s">
+        <v>719</v>
       </c>
       <c r="E282" s="20"/>
       <c r="F282" s="20"/>
@@ -16693,14 +16714,14 @@
     </row>
     <row r="283" spans="1:9" ht="19" customHeight="1">
       <c r="A283" s="19" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="D283" s="21" t="s">
-        <v>721</v>
+        <v>584</v>
+      </c>
+      <c r="D283" s="20" t="s">
+        <v>720</v>
       </c>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
@@ -16710,14 +16731,14 @@
     </row>
     <row r="284" spans="1:9" ht="19" customHeight="1">
       <c r="A284" s="19" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="20" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D284" s="21" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E284" s="20"/>
       <c r="F284" s="20"/>
@@ -16727,14 +16748,14 @@
     </row>
     <row r="285" spans="1:9" ht="19" customHeight="1">
       <c r="A285" s="19" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="20" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D285" s="21" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
@@ -16744,14 +16765,14 @@
     </row>
     <row r="286" spans="1:9" ht="19" customHeight="1">
       <c r="A286" s="19" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D286" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E286" s="20"/>
       <c r="F286" s="20"/>
@@ -16761,14 +16782,14 @@
     </row>
     <row r="287" spans="1:9" ht="19" customHeight="1">
       <c r="A287" s="19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="20" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D287" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
@@ -16778,14 +16799,14 @@
     </row>
     <row r="288" spans="1:9" ht="19" customHeight="1">
       <c r="A288" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="20" t="s">
-        <v>596</v>
-      </c>
-      <c r="D288" s="20" t="s">
-        <v>726</v>
+        <v>594</v>
+      </c>
+      <c r="D288" s="21" t="s">
+        <v>725</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -16795,14 +16816,14 @@
     </row>
     <row r="289" spans="1:9" ht="19" customHeight="1">
       <c r="A289" s="19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="20" t="s">
-        <v>598</v>
-      </c>
-      <c r="D289" s="21" t="s">
-        <v>727</v>
+        <v>596</v>
+      </c>
+      <c r="D289" s="20" t="s">
+        <v>726</v>
       </c>
       <c r="E289" s="20"/>
       <c r="F289" s="20"/>
@@ -16812,14 +16833,14 @@
     </row>
     <row r="290" spans="1:9" ht="19" customHeight="1">
       <c r="A290" s="19" t="s">
-        <v>951</v>
+        <v>597</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="20" t="s">
-        <v>952</v>
-      </c>
-      <c r="D290" s="20" t="s">
-        <v>953</v>
+        <v>598</v>
+      </c>
+      <c r="D290" s="21" t="s">
+        <v>727</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -16829,14 +16850,14 @@
     </row>
     <row r="291" spans="1:9" ht="19" customHeight="1">
       <c r="A291" s="19" t="s">
-        <v>599</v>
+        <v>951</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="20" t="s">
-        <v>600</v>
-      </c>
-      <c r="D291" s="21" t="s">
-        <v>728</v>
+        <v>952</v>
+      </c>
+      <c r="D291" s="20" t="s">
+        <v>953</v>
       </c>
       <c r="E291" s="20"/>
       <c r="F291" s="20"/>
@@ -16846,14 +16867,14 @@
     </row>
     <row r="292" spans="1:9" ht="19" customHeight="1">
       <c r="A292" s="19" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="20" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D292" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -16863,14 +16884,14 @@
     </row>
     <row r="293" spans="1:9" ht="19" customHeight="1">
       <c r="A293" s="19" t="s">
-        <v>1023</v>
+        <v>601</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="20" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D293" s="20" t="s">
-        <v>1025</v>
+        <v>602</v>
+      </c>
+      <c r="D293" s="21" t="s">
+        <v>729</v>
       </c>
       <c r="E293" s="20"/>
       <c r="F293" s="20"/>
@@ -16880,14 +16901,14 @@
     </row>
     <row r="294" spans="1:9" ht="19" customHeight="1">
       <c r="A294" s="19" t="s">
-        <v>603</v>
+        <v>1023</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="20" t="s">
-        <v>604</v>
-      </c>
-      <c r="D294" s="21" t="s">
-        <v>730</v>
+        <v>1024</v>
+      </c>
+      <c r="D294" s="20" t="s">
+        <v>1025</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -16897,14 +16918,14 @@
     </row>
     <row r="295" spans="1:9" ht="19" customHeight="1">
       <c r="A295" s="19" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="20" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D295" s="21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
@@ -16914,14 +16935,14 @@
     </row>
     <row r="296" spans="1:9" ht="19" customHeight="1">
       <c r="A296" s="19" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="D296" s="20" t="s">
-        <v>732</v>
+        <v>606</v>
+      </c>
+      <c r="D296" s="21" t="s">
+        <v>731</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -16931,14 +16952,14 @@
     </row>
     <row r="297" spans="1:9" ht="19" customHeight="1">
       <c r="A297" s="19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="20" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D297" s="20" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
@@ -16948,14 +16969,14 @@
     </row>
     <row r="298" spans="1:9" ht="19" customHeight="1">
       <c r="A298" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="20" t="s">
-        <v>612</v>
-      </c>
-      <c r="D298" s="21" t="s">
-        <v>734</v>
+        <v>610</v>
+      </c>
+      <c r="D298" s="20" t="s">
+        <v>733</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -16965,14 +16986,14 @@
     </row>
     <row r="299" spans="1:9" ht="19" customHeight="1">
       <c r="A299" s="19" t="s">
-        <v>1080</v>
+        <v>611</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="20" t="s">
-        <v>1081</v>
+        <v>612</v>
       </c>
       <c r="D299" s="21" t="s">
-        <v>1082</v>
+        <v>734</v>
       </c>
       <c r="E299" s="20"/>
       <c r="F299" s="20"/>
@@ -16982,14 +17003,14 @@
     </row>
     <row r="300" spans="1:9" ht="19" customHeight="1">
       <c r="A300" s="19" t="s">
-        <v>613</v>
+        <v>1080</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="D300" s="22" t="s">
-        <v>735</v>
+        <v>1081</v>
+      </c>
+      <c r="D300" s="21" t="s">
+        <v>1082</v>
       </c>
       <c r="E300" s="20"/>
       <c r="F300" s="20"/>
@@ -16999,14 +17020,14 @@
     </row>
     <row r="301" spans="1:9" ht="19" customHeight="1">
       <c r="A301" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="D301" s="21" t="s">
-        <v>936</v>
+        <v>614</v>
+      </c>
+      <c r="D301" s="22" t="s">
+        <v>735</v>
       </c>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
@@ -17016,14 +17037,14 @@
     </row>
     <row r="302" spans="1:9" ht="19" customHeight="1">
       <c r="A302" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="20" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D302" s="21" t="s">
-        <v>736</v>
+        <v>936</v>
       </c>
       <c r="E302" s="20"/>
       <c r="F302" s="20"/>
@@ -17033,14 +17054,14 @@
     </row>
     <row r="303" spans="1:9" ht="19" customHeight="1">
       <c r="A303" s="19" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="D303" s="20" t="s">
-        <v>737</v>
+        <v>618</v>
+      </c>
+      <c r="D303" s="21" t="s">
+        <v>736</v>
       </c>
       <c r="E303" s="20"/>
       <c r="F303" s="20"/>
@@ -17050,14 +17071,14 @@
     </row>
     <row r="304" spans="1:9" ht="19" customHeight="1">
       <c r="A304" s="19" t="s">
-        <v>948</v>
+        <v>619</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="20" t="s">
-        <v>949</v>
+        <v>620</v>
       </c>
       <c r="D304" s="20" t="s">
-        <v>950</v>
+        <v>737</v>
       </c>
       <c r="E304" s="20"/>
       <c r="F304" s="20"/>
@@ -17067,14 +17088,14 @@
     </row>
     <row r="305" spans="1:9" ht="19" customHeight="1">
       <c r="A305" s="19" t="s">
-        <v>621</v>
+        <v>948</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="D305" s="21" t="s">
-        <v>738</v>
+        <v>949</v>
+      </c>
+      <c r="D305" s="20" t="s">
+        <v>950</v>
       </c>
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
@@ -17084,14 +17105,14 @@
     </row>
     <row r="306" spans="1:9" ht="19" customHeight="1">
       <c r="A306" s="19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="20" t="s">
-        <v>954</v>
+        <v>622</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>955</v>
+        <v>738</v>
       </c>
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
@@ -17101,14 +17122,14 @@
     </row>
     <row r="307" spans="1:9" ht="19" customHeight="1">
       <c r="A307" s="19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="20" t="s">
-        <v>625</v>
+        <v>954</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>739</v>
+        <v>955</v>
       </c>
       <c r="E307" s="20"/>
       <c r="F307" s="20"/>
@@ -17118,14 +17139,14 @@
     </row>
     <row r="308" spans="1:9" ht="19" customHeight="1">
       <c r="A308" s="19" t="s">
-        <v>956</v>
+        <v>624</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="20" t="s">
-        <v>957</v>
-      </c>
-      <c r="D308" s="20" t="s">
-        <v>958</v>
+        <v>625</v>
+      </c>
+      <c r="D308" s="21" t="s">
+        <v>739</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -17135,14 +17156,14 @@
     </row>
     <row r="309" spans="1:9" ht="19" customHeight="1">
       <c r="A309" s="19" t="s">
-        <v>626</v>
+        <v>956</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="20" t="s">
-        <v>627</v>
-      </c>
-      <c r="D309" s="21" t="s">
-        <v>740</v>
+        <v>957</v>
+      </c>
+      <c r="D309" s="20" t="s">
+        <v>958</v>
       </c>
       <c r="E309" s="20"/>
       <c r="F309" s="20"/>
@@ -17152,14 +17173,14 @@
     </row>
     <row r="310" spans="1:9" ht="19" customHeight="1">
       <c r="A310" s="19" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="20" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D310" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E310" s="20"/>
       <c r="F310" s="20"/>
@@ -17169,14 +17190,14 @@
     </row>
     <row r="311" spans="1:9" ht="19" customHeight="1">
       <c r="A311" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="20" t="s">
-        <v>631</v>
-      </c>
-      <c r="D311" s="20" t="s">
-        <v>742</v>
+        <v>629</v>
+      </c>
+      <c r="D311" s="21" t="s">
+        <v>741</v>
       </c>
       <c r="E311" s="20"/>
       <c r="F311" s="20"/>
@@ -17186,14 +17207,14 @@
     </row>
     <row r="312" spans="1:9" ht="19" customHeight="1">
       <c r="A312" s="19" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="20" t="s">
-        <v>633</v>
-      </c>
-      <c r="D312" s="21" t="s">
-        <v>743</v>
+        <v>631</v>
+      </c>
+      <c r="D312" s="20" t="s">
+        <v>742</v>
       </c>
       <c r="E312" s="20"/>
       <c r="F312" s="20"/>
@@ -17203,14 +17224,14 @@
     </row>
     <row r="313" spans="1:9" ht="19" customHeight="1">
       <c r="A313" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="20" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D313" s="21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -17220,14 +17241,14 @@
     </row>
     <row r="314" spans="1:9" ht="19" customHeight="1">
       <c r="A314" s="19" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="20" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E314" s="20"/>
       <c r="F314" s="20"/>
@@ -17237,14 +17258,14 @@
     </row>
     <row r="315" spans="1:9" ht="19" customHeight="1">
       <c r="A315" s="19" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="20" t="s">
-        <v>639</v>
-      </c>
-      <c r="D315" s="22" t="s">
-        <v>746</v>
+        <v>637</v>
+      </c>
+      <c r="D315" s="21" t="s">
+        <v>745</v>
       </c>
       <c r="E315" s="20"/>
       <c r="F315" s="20"/>
@@ -17254,14 +17275,14 @@
     </row>
     <row r="316" spans="1:9" ht="19" customHeight="1">
       <c r="A316" s="19" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="20" t="s">
-        <v>641</v>
-      </c>
-      <c r="D316" s="21" t="s">
-        <v>747</v>
+        <v>639</v>
+      </c>
+      <c r="D316" s="22" t="s">
+        <v>746</v>
       </c>
       <c r="E316" s="20"/>
       <c r="F316" s="20"/>
@@ -17271,14 +17292,14 @@
     </row>
     <row r="317" spans="1:9" ht="19" customHeight="1">
       <c r="A317" s="19" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -17288,14 +17309,14 @@
     </row>
     <row r="318" spans="1:9" ht="19" customHeight="1">
       <c r="A318" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="20" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E318" s="20"/>
       <c r="F318" s="20"/>
@@ -17305,14 +17326,14 @@
     </row>
     <row r="319" spans="1:9" ht="19" customHeight="1">
       <c r="A319" s="19" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="20" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D319" s="21" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E319" s="20"/>
       <c r="F319" s="20"/>
@@ -17322,14 +17343,14 @@
     </row>
     <row r="320" spans="1:9" ht="19" customHeight="1">
       <c r="A320" s="19" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="20" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D320" s="21" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -17339,14 +17360,14 @@
     </row>
     <row r="321" spans="1:9" ht="19" customHeight="1">
       <c r="A321" s="19" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="20" t="s">
-        <v>651</v>
-      </c>
-      <c r="D321" s="20" t="s">
-        <v>752</v>
+        <v>649</v>
+      </c>
+      <c r="D321" s="21" t="s">
+        <v>751</v>
       </c>
       <c r="E321" s="20"/>
       <c r="F321" s="20"/>
@@ -17356,14 +17377,14 @@
     </row>
     <row r="322" spans="1:9" ht="19" customHeight="1">
       <c r="A322" s="19" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B322" s="20"/>
-      <c r="C322" s="27" t="s">
-        <v>653</v>
-      </c>
-      <c r="D322" s="27" t="s">
-        <v>753</v>
+      <c r="C322" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="D322" s="20" t="s">
+        <v>752</v>
       </c>
       <c r="E322" s="20"/>
       <c r="F322" s="20"/>
@@ -17373,14 +17394,14 @@
     </row>
     <row r="323" spans="1:9" ht="19" customHeight="1">
       <c r="A323" s="19" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B323" s="20"/>
-      <c r="C323" s="20" t="s">
-        <v>655</v>
-      </c>
-      <c r="D323" s="20" t="s">
-        <v>754</v>
+      <c r="C323" s="27" t="s">
+        <v>653</v>
+      </c>
+      <c r="D323" s="27" t="s">
+        <v>753</v>
       </c>
       <c r="E323" s="20"/>
       <c r="F323" s="20"/>
@@ -17390,14 +17411,14 @@
     </row>
     <row r="324" spans="1:9" ht="19" customHeight="1">
       <c r="A324" s="19" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="20" t="s">
-        <v>657</v>
-      </c>
-      <c r="D324" s="21" t="s">
-        <v>755</v>
+        <v>655</v>
+      </c>
+      <c r="D324" s="20" t="s">
+        <v>754</v>
       </c>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
@@ -17407,14 +17428,14 @@
     </row>
     <row r="325" spans="1:9" ht="19" customHeight="1">
       <c r="A325" s="19" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="20" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
@@ -17424,14 +17445,14 @@
     </row>
     <row r="326" spans="1:9" ht="19" customHeight="1">
       <c r="A326" s="19" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="20" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D326" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E326" s="20"/>
       <c r="F326" s="20"/>
@@ -17441,14 +17462,14 @@
     </row>
     <row r="327" spans="1:9" ht="19" customHeight="1">
       <c r="A327" s="19" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="20" t="s">
-        <v>663</v>
-      </c>
-      <c r="D327" s="20" t="s">
-        <v>758</v>
+        <v>661</v>
+      </c>
+      <c r="D327" s="21" t="s">
+        <v>757</v>
       </c>
       <c r="E327" s="20"/>
       <c r="F327" s="20"/>
@@ -17458,14 +17479,14 @@
     </row>
     <row r="328" spans="1:9" ht="19" customHeight="1">
       <c r="A328" s="19" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="D328" s="22" t="s">
-        <v>759</v>
+        <v>663</v>
+      </c>
+      <c r="D328" s="20" t="s">
+        <v>758</v>
       </c>
       <c r="E328" s="20"/>
       <c r="F328" s="20"/>
@@ -17475,14 +17496,14 @@
     </row>
     <row r="329" spans="1:9" ht="19" customHeight="1">
       <c r="A329" s="19" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="20" t="s">
-        <v>667</v>
-      </c>
-      <c r="D329" s="20" t="s">
-        <v>760</v>
+        <v>665</v>
+      </c>
+      <c r="D329" s="22" t="s">
+        <v>759</v>
       </c>
       <c r="E329" s="20"/>
       <c r="F329" s="20"/>
@@ -17492,14 +17513,14 @@
     </row>
     <row r="330" spans="1:9" ht="19" customHeight="1">
       <c r="A330" s="19" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="20" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D330" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E330" s="20"/>
       <c r="F330" s="20"/>
@@ -17509,14 +17530,14 @@
     </row>
     <row r="331" spans="1:9" ht="19" customHeight="1">
       <c r="A331" s="19" t="s">
-        <v>945</v>
+        <v>668</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="20" t="s">
-        <v>946</v>
+        <v>669</v>
       </c>
       <c r="D331" s="20" t="s">
-        <v>947</v>
+        <v>761</v>
       </c>
       <c r="E331" s="20"/>
       <c r="F331" s="20"/>
@@ -17526,14 +17547,14 @@
     </row>
     <row r="332" spans="1:9" ht="19" customHeight="1">
       <c r="A332" s="19" t="s">
-        <v>1072</v>
+        <v>945</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="20" t="s">
-        <v>1073</v>
+        <v>946</v>
       </c>
       <c r="D332" s="20" t="s">
-        <v>1074</v>
+        <v>947</v>
       </c>
       <c r="E332" s="20"/>
       <c r="F332" s="20"/>
@@ -17543,14 +17564,14 @@
     </row>
     <row r="333" spans="1:9" ht="19" customHeight="1">
       <c r="A333" s="19" t="s">
-        <v>1143</v>
+        <v>1072</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="20" t="s">
-        <v>1144</v>
+        <v>1073</v>
       </c>
       <c r="D333" s="20" t="s">
-        <v>1145</v>
+        <v>1074</v>
       </c>
       <c r="E333" s="20"/>
       <c r="F333" s="20"/>
@@ -17560,14 +17581,14 @@
     </row>
     <row r="334" spans="1:9" ht="19" customHeight="1">
       <c r="A334" s="19" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="20" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="D334" s="20" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="E334" s="20"/>
       <c r="F334" s="20"/>
@@ -17577,14 +17598,14 @@
     </row>
     <row r="335" spans="1:9" ht="19" customHeight="1">
       <c r="A335" s="19" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="20" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D335" s="20" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="E335" s="20"/>
       <c r="F335" s="20"/>
@@ -17594,14 +17615,14 @@
     </row>
     <row r="336" spans="1:9" ht="19" customHeight="1">
       <c r="A336" s="19" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="20" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="D336" s="20" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="E336" s="20"/>
       <c r="F336" s="20"/>
@@ -17611,14 +17632,14 @@
     </row>
     <row r="337" spans="1:9" ht="19" customHeight="1">
       <c r="A337" s="19" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="B337" s="20"/>
       <c r="C337" s="20" t="s">
-        <v>1160</v>
+        <v>1147</v>
       </c>
       <c r="D337" s="20" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="E337" s="20"/>
       <c r="F337" s="20"/>
@@ -17628,14 +17649,14 @@
     </row>
     <row r="338" spans="1:9" ht="19" customHeight="1">
       <c r="A338" s="19" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="20" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D338" s="20" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="E338" s="20"/>
       <c r="F338" s="20"/>
@@ -17645,14 +17666,14 @@
     </row>
     <row r="339" spans="1:9" ht="19" customHeight="1">
       <c r="A339" s="19" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="20" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D339" s="20" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="E339" s="20"/>
       <c r="F339" s="20"/>
@@ -17661,10 +17682,16 @@
       <c r="I339" s="18"/>
     </row>
     <row r="340" spans="1:9" ht="19" customHeight="1">
-      <c r="A340" s="19"/>
+      <c r="A340" s="19" t="s">
+        <v>1164</v>
+      </c>
       <c r="B340" s="20"/>
-      <c r="C340" s="20"/>
-      <c r="D340" s="20"/>
+      <c r="C340" s="20" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D340" s="20" t="s">
+        <v>1166</v>
+      </c>
       <c r="E340" s="20"/>
       <c r="F340" s="20"/>
       <c r="G340" s="18"/>
@@ -18287,15 +18314,26 @@
       <c r="H396" s="17"/>
       <c r="I396" s="18"/>
     </row>
+    <row r="397" spans="1:9" ht="19" customHeight="1">
+      <c r="A397" s="19"/>
+      <c r="B397" s="20"/>
+      <c r="C397" s="20"/>
+      <c r="D397" s="20"/>
+      <c r="E397" s="20"/>
+      <c r="F397" s="20"/>
+      <c r="G397" s="18"/>
+      <c r="H397" s="17"/>
+      <c r="I397" s="18"/>
+    </row>
   </sheetData>
   <autoFilter ref="A4:J210" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A235:E236 E222:G222 A222:C234 A258:E259 A294:E295 A316:E317 A318:C330 E318:E330 E223:E234 B65:G65 D115:D133 I8:I28 A8:G28 A66:G114 A237:C257 E237:E257 A115:C141 E115:G141 D138:D141 A30:G64 A218:G221 E260 F223:G260 E274:E293 D275 E296:E315 A296:C315 F274:G333 A331:E333 A334:G396 A142:G216 I30:I216 E261:G273 I218:I396 A260:C293">
+  <conditionalFormatting sqref="A235:E236 E222:G222 A222:C234 A259:E260 A295:E296 A317:E318 A319:C331 E319:E331 E223:E234 B65:G65 D115:D133 I8:I28 A8:G28 A66:G114 E237:E258 A115:C141 E115:G141 D138:D141 A30:G64 A218:G221 E261 F223:G261 E275:E294 D276 E297:E316 A297:C316 F275:G334 A332:E334 A335:G397 A142:G216 I30:I216 E262:G274 I218:I397 A261:C294 A237:C258">
     <cfRule type="expression" dxfId="136" priority="262">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H216 H218:H396">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H216 H218:H397">
     <cfRule type="cellIs" dxfId="135" priority="217" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
@@ -18309,7 +18347,7 @@
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H216 H218:H396">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H216 H218:H397">
     <cfRule type="cellIs" dxfId="131" priority="218" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -18326,7 +18364,7 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H216 H218:H396">
+  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H216 H218:H397">
     <cfRule type="cellIs" dxfId="126" priority="220" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
@@ -18433,7 +18471,7 @@
       <formula>$G217&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D309:D330 D222:D243 D246 D294:D296 D300:D301 D250:D259 D268 D303:D305 D276:D287">
+  <conditionalFormatting sqref="D310:D331 D222:D243 D246 D295:D297 D301:D302 D269 D304:D306 D277:D288 D250:D252 D256:D260">
     <cfRule type="expression" dxfId="99" priority="264">
       <formula>$G224&lt;&gt;""</formula>
     </cfRule>
@@ -18617,7 +18655,7 @@
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D306:D308 D291:D293 D288:D289 D247:D249 D297:D299 D267">
+  <conditionalFormatting sqref="D307:D309 D292:D294 D289:D290 D247:D249 D298:D300 D268 D253:D255">
     <cfRule type="expression" dxfId="51" priority="267">
       <formula>$G250&lt;&gt;""</formula>
     </cfRule>
@@ -18658,9 +18696,9 @@
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D290 D270">
+  <conditionalFormatting sqref="D291 D271">
     <cfRule type="expression" dxfId="40" priority="271">
-      <formula>$G274&lt;&gt;""</formula>
+      <formula>$G275&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D245">
@@ -18673,44 +18711,44 @@
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D260:D266">
+  <conditionalFormatting sqref="D261:D267">
     <cfRule type="expression" dxfId="37" priority="305">
-      <formula>$G268&lt;&gt;""</formula>
+      <formula>$G269&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D263">
+  <conditionalFormatting sqref="D264">
     <cfRule type="expression" dxfId="36" priority="339">
-      <formula>$G268&lt;&gt;""</formula>
+      <formula>$G269&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D271">
+  <conditionalFormatting sqref="D272">
     <cfRule type="expression" dxfId="35" priority="2">
-      <formula>$G271&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D272:D273">
-    <cfRule type="expression" dxfId="34" priority="1">
       <formula>$G272&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D302">
+  <conditionalFormatting sqref="D273:D274">
+    <cfRule type="expression" dxfId="34" priority="1">
+      <formula>$G273&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D303">
     <cfRule type="expression" dxfId="33" priority="371">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D274">
+  <conditionalFormatting sqref="D275">
     <cfRule type="expression" dxfId="32" priority="372">
-      <formula>$G279&lt;&gt;""</formula>
+      <formula>$G280&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D269">
+  <conditionalFormatting sqref="D270">
     <cfRule type="expression" dxfId="31" priority="374">
-      <formula>$G276&lt;&gt;""</formula>
+      <formula>$G277&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D264:D266">
+  <conditionalFormatting sqref="D265:D267">
     <cfRule type="expression" dxfId="30" priority="376">
-      <formula>$G268&lt;&gt;""</formula>
+      <formula>$G269&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B69616-01CD-1A43-A5F4-2FAB08D7B79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BDA96A-6675-BF47-B7BF-45DF840995DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35860" yWindow="2320" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="1173">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -9934,6 +9934,33 @@
   </si>
   <si>
     <t>failedToStartAppiumServerInSeconds</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>relativeSelectorNotSupportedInFindingWebElement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Relative selector is not supported in finding WebElement. Use cache mode.(selector=${arg1}, expression=${arg2})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相対セレクターはWebElementの検索では使用できません。キャッシュモードで使用してください。 (selector=${arg1}, expression=${arg2})</t>
+    <rPh sb="0" eb="2">
+      <t>ソウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11557,8 +11584,8 @@
   <dimension ref="A1:I397"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B255" sqref="B255"/>
+      <pane ySplit="4" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A341" sqref="A341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>
@@ -17699,10 +17726,16 @@
       <c r="I340" s="18"/>
     </row>
     <row r="341" spans="1:9" ht="19" customHeight="1">
-      <c r="A341" s="19"/>
+      <c r="A341" s="19" t="s">
+        <v>1170</v>
+      </c>
       <c r="B341" s="20"/>
-      <c r="C341" s="20"/>
-      <c r="D341" s="20"/>
+      <c r="C341" s="20" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D341" s="20" t="s">
+        <v>1172</v>
+      </c>
       <c r="E341" s="20"/>
       <c r="F341" s="20"/>
       <c r="G341" s="18"/>
@@ -18328,7 +18361,7 @@
   </sheetData>
   <autoFilter ref="A4:J210" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A235:E236 E222:G222 A222:C234 A259:E260 A295:E296 A317:E318 A319:C331 E319:E331 E223:E234 B65:G65 D115:D133 I8:I28 A8:G28 A66:G114 E237:E258 A115:C141 E115:G141 D138:D141 A30:G64 A218:G221 E261 F223:G261 E275:E294 D276 E297:E316 A297:C316 F275:G334 A332:E334 A335:G397 A142:G216 I30:I216 E262:G274 I218:I397 A261:C294 A237:C258">
+  <conditionalFormatting sqref="A235:E236 E222:G222 A222:C234 A259:E260 A295:E296 A317:E318 A319:C331 E319:E331 E223:E234 B65:G65 D115:D133 I8:I28 A8:G28 A66:G114 E237:E258 A115:C141 E115:G141 D138:D141 A30:G64 A218:G221 E261 F223:G261 E275:E294 D276 E297:E316 A297:C316 F275:G334 A332:E334 A142:G216 I30:I216 E262:G274 I218:I397 A261:C294 A237:C258 A335:G397">
     <cfRule type="expression" dxfId="136" priority="262">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BDA96A-6675-BF47-B7BF-45DF840995DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8967826-31C0-C949-815F-99EFAA545A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35860" yWindow="2320" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
+    <workbookView xWindow="35740" yWindow="1980" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
   <sheets>
     <sheet name="message" sheetId="2" r:id="rId1"/>
     <sheet name="List" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">message!$A$4:$J$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">message!$A$4:$J$211</definedName>
     <definedName name="実施結果">List!$A$3:$A$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1177">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -9960,6 +9960,53 @@
     </rPh>
     <rPh sb="59" eb="61">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>restartApp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>restartApp("${subject}")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Restart app ${subject}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アプリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>${subject}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を再起動する</t>
+    </r>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">サイ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -11581,11 +11628,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I397"/>
+  <dimension ref="A1:I398"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A341" sqref="A341"/>
+      <pane ySplit="4" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>
@@ -13227,16 +13274,16 @@
     </row>
     <row r="89" spans="1:9" ht="19" customHeight="1">
       <c r="A89" s="19" t="s">
-        <v>839</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>841</v>
+        <v>1151</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>1152</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>1005</v>
+        <v>1153</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>1154</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
@@ -13246,16 +13293,16 @@
     </row>
     <row r="90" spans="1:9" ht="19" customHeight="1">
       <c r="A90" s="19" t="s">
-        <v>840</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>842</v>
+        <v>1173</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>1174</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>1006</v>
+        <v>1175</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>1176</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
@@ -13265,16 +13312,16 @@
     </row>
     <row r="91" spans="1:9" ht="19" customHeight="1">
       <c r="A91" s="19" t="s">
-        <v>843</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>856</v>
+        <v>839</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>841</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D91" s="22" t="s">
-        <v>1019</v>
+        <v>1011</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>1005</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
@@ -13284,16 +13331,16 @@
     </row>
     <row r="92" spans="1:9" ht="19" customHeight="1">
       <c r="A92" s="19" t="s">
-        <v>845</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>878</v>
+        <v>840</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>842</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>1020</v>
+        <v>1012</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>1006</v>
       </c>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
@@ -13303,16 +13350,16 @@
     </row>
     <row r="93" spans="1:9" ht="19" customHeight="1">
       <c r="A93" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
@@ -13322,16 +13369,16 @@
     </row>
     <row r="94" spans="1:9" ht="19" customHeight="1">
       <c r="A94" s="19" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>854</v>
+        <v>878</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -13341,16 +13388,16 @@
     </row>
     <row r="95" spans="1:9" ht="19" customHeight="1">
       <c r="A95" s="19" t="s">
-        <v>983</v>
+        <v>844</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>986</v>
+        <v>855</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>981</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>982</v>
+        <v>1015</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>1018</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
@@ -13360,16 +13407,16 @@
     </row>
     <row r="96" spans="1:9" ht="19" customHeight="1">
       <c r="A96" s="19" t="s">
-        <v>984</v>
+        <v>846</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>985</v>
+        <v>854</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>987</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>988</v>
+        <v>1016</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>1017</v>
       </c>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
@@ -13379,16 +13426,16 @@
     </row>
     <row r="97" spans="1:9" ht="19" customHeight="1">
       <c r="A97" s="19" t="s">
-        <v>857</v>
+        <v>983</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>853</v>
+        <v>986</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>998</v>
+        <v>981</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
@@ -13398,16 +13445,16 @@
     </row>
     <row r="98" spans="1:9" ht="19" customHeight="1">
       <c r="A98" s="19" t="s">
-        <v>847</v>
+        <v>984</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>852</v>
+        <v>985</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
@@ -13417,16 +13464,16 @@
     </row>
     <row r="99" spans="1:9" ht="19" customHeight="1">
       <c r="A99" s="19" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
@@ -13436,16 +13483,16 @@
     </row>
     <row r="100" spans="1:9" ht="19" customHeight="1">
       <c r="A100" s="19" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
@@ -13455,16 +13502,16 @@
     </row>
     <row r="101" spans="1:9" ht="19" customHeight="1">
       <c r="A101" s="19" t="s">
-        <v>858</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>862</v>
+        <v>848</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>851</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
@@ -13474,16 +13521,16 @@
     </row>
     <row r="102" spans="1:9" ht="19" customHeight="1">
       <c r="A102" s="19" t="s">
-        <v>859</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>863</v>
+        <v>849</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>850</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
@@ -13493,16 +13540,16 @@
     </row>
     <row r="103" spans="1:9" ht="19" customHeight="1">
       <c r="A103" s="19" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
@@ -13512,16 +13559,16 @@
     </row>
     <row r="104" spans="1:9" ht="19" customHeight="1">
       <c r="A104" s="19" t="s">
-        <v>861</v>
-      </c>
-      <c r="B104" s="19" t="s">
-        <v>865</v>
+        <v>859</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>863</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
@@ -13531,16 +13578,16 @@
     </row>
     <row r="105" spans="1:9" ht="19" customHeight="1">
       <c r="A105" s="19" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>1009</v>
+        <v>992</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
@@ -13550,16 +13597,16 @@
     </row>
     <row r="106" spans="1:9" ht="19" customHeight="1">
       <c r="A106" s="19" t="s">
-        <v>867</v>
-      </c>
-      <c r="B106" s="20" t="s">
-        <v>869</v>
+        <v>861</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>865</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
@@ -13569,16 +13616,16 @@
     </row>
     <row r="107" spans="1:9" ht="19" customHeight="1">
       <c r="A107" s="19" t="s">
-        <v>123</v>
+        <v>866</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>795</v>
+        <v>868</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>124</v>
+        <v>1007</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>324</v>
+        <v>1009</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
@@ -13588,16 +13635,16 @@
     </row>
     <row r="108" spans="1:9" ht="19" customHeight="1">
       <c r="A108" s="19" t="s">
-        <v>1021</v>
+        <v>867</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>1022</v>
+        <v>869</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>979</v>
+        <v>1008</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>980</v>
+        <v>1010</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
@@ -13607,16 +13654,16 @@
     </row>
     <row r="109" spans="1:9" ht="19" customHeight="1">
       <c r="A109" s="19" t="s">
-        <v>937</v>
+        <v>123</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>938</v>
+        <v>795</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>940</v>
+        <v>124</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>939</v>
+        <v>324</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
@@ -13626,16 +13673,16 @@
     </row>
     <row r="110" spans="1:9" ht="19" customHeight="1">
       <c r="A110" s="19" t="s">
-        <v>941</v>
+        <v>1021</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>942</v>
+        <v>1022</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>943</v>
+        <v>979</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>944</v>
+        <v>980</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
@@ -13645,16 +13692,16 @@
     </row>
     <row r="111" spans="1:9" ht="19" customHeight="1">
       <c r="A111" s="19" t="s">
-        <v>125</v>
+        <v>937</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>434</v>
+        <v>938</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>126</v>
+        <v>940</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>319</v>
+        <v>939</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
@@ -13664,16 +13711,16 @@
     </row>
     <row r="112" spans="1:9" ht="19" customHeight="1">
       <c r="A112" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B112" s="19" t="s">
-        <v>435</v>
+        <v>941</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>942</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>128</v>
+        <v>943</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>320</v>
+        <v>944</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
@@ -13683,16 +13730,16 @@
     </row>
     <row r="113" spans="1:9" ht="19" customHeight="1">
       <c r="A113" s="19" t="s">
-        <v>890</v>
-      </c>
-      <c r="B113" s="19" t="s">
-        <v>891</v>
+        <v>125</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>434</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>893</v>
+        <v>126</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>892</v>
+        <v>319</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
@@ -13702,16 +13749,16 @@
     </row>
     <row r="114" spans="1:9" ht="19" customHeight="1">
       <c r="A114" s="19" t="s">
-        <v>894</v>
+        <v>127</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>897</v>
+        <v>435</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>895</v>
+        <v>128</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>896</v>
+        <v>320</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
@@ -13721,16 +13768,16 @@
     </row>
     <row r="115" spans="1:9" ht="19" customHeight="1">
       <c r="A115" s="19" t="s">
-        <v>129</v>
+        <v>890</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>794</v>
+        <v>891</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>130</v>
+        <v>893</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>321</v>
+        <v>892</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
@@ -13740,16 +13787,16 @@
     </row>
     <row r="116" spans="1:9" ht="19" customHeight="1">
       <c r="A116" s="19" t="s">
-        <v>131</v>
+        <v>894</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>792</v>
+        <v>897</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>132</v>
+        <v>895</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>322</v>
+        <v>896</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
@@ -13759,16 +13806,16 @@
     </row>
     <row r="117" spans="1:9" ht="19" customHeight="1">
       <c r="A117" s="19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
@@ -13778,16 +13825,16 @@
     </row>
     <row r="118" spans="1:9" ht="19" customHeight="1">
       <c r="A118" s="19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
@@ -13797,16 +13844,16 @@
     </row>
     <row r="119" spans="1:9" ht="19" customHeight="1">
       <c r="A119" s="19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -13816,16 +13863,16 @@
     </row>
     <row r="120" spans="1:9" ht="19" customHeight="1">
       <c r="A120" s="19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
@@ -13835,16 +13882,16 @@
     </row>
     <row r="121" spans="1:9" ht="19" customHeight="1">
       <c r="A121" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
@@ -13854,16 +13901,16 @@
     </row>
     <row r="122" spans="1:9" ht="19" customHeight="1">
       <c r="A122" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>768</v>
+        <v>790</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
@@ -13873,16 +13920,16 @@
     </row>
     <row r="123" spans="1:9" ht="19" customHeight="1">
       <c r="A123" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>769</v>
+        <v>791</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
@@ -13892,16 +13939,16 @@
     </row>
     <row r="124" spans="1:9" ht="19" customHeight="1">
       <c r="A124" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
@@ -13911,16 +13958,16 @@
     </row>
     <row r="125" spans="1:9" ht="19" customHeight="1">
       <c r="A125" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
@@ -13930,16 +13977,16 @@
     </row>
     <row r="126" spans="1:9" ht="19" customHeight="1">
       <c r="A126" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
@@ -13949,16 +13996,16 @@
     </row>
     <row r="127" spans="1:9" ht="19" customHeight="1">
       <c r="A127" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="20"/>
@@ -13968,16 +14015,16 @@
     </row>
     <row r="128" spans="1:9" ht="19" customHeight="1">
       <c r="A128" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="20"/>
@@ -13987,16 +14034,16 @@
     </row>
     <row r="129" spans="1:9" ht="19" customHeight="1">
       <c r="A129" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
@@ -14006,16 +14053,16 @@
     </row>
     <row r="130" spans="1:9" ht="19" customHeight="1">
       <c r="A130" s="19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
@@ -14025,16 +14072,16 @@
     </row>
     <row r="131" spans="1:9" ht="19" customHeight="1">
       <c r="A131" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="20"/>
@@ -14044,16 +14091,16 @@
     </row>
     <row r="132" spans="1:9" ht="19" customHeight="1">
       <c r="A132" s="19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
@@ -14063,16 +14110,16 @@
     </row>
     <row r="133" spans="1:9" ht="19" customHeight="1">
       <c r="A133" s="19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="20"/>
@@ -14082,16 +14129,16 @@
     </row>
     <row r="134" spans="1:9" ht="19" customHeight="1">
       <c r="A134" s="19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
@@ -14101,16 +14148,16 @@
     </row>
     <row r="135" spans="1:9" ht="19" customHeight="1">
       <c r="A135" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="20"/>
@@ -14120,16 +14167,16 @@
     </row>
     <row r="136" spans="1:9" ht="19" customHeight="1">
       <c r="A136" s="19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
@@ -14139,16 +14186,16 @@
     </row>
     <row r="137" spans="1:9" ht="19" customHeight="1">
       <c r="A137" s="19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
@@ -14158,16 +14205,16 @@
     </row>
     <row r="138" spans="1:9" ht="19" customHeight="1">
       <c r="A138" s="19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
@@ -14177,16 +14224,16 @@
     </row>
     <row r="139" spans="1:9" ht="19" customHeight="1">
       <c r="A139" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="20"/>
@@ -14196,16 +14243,16 @@
     </row>
     <row r="140" spans="1:9" ht="19" customHeight="1">
       <c r="A140" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E140" s="20"/>
       <c r="F140" s="20"/>
@@ -14215,16 +14262,16 @@
     </row>
     <row r="141" spans="1:9" ht="19" customHeight="1">
       <c r="A141" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="20"/>
@@ -14234,16 +14281,16 @@
     </row>
     <row r="142" spans="1:9" ht="19" customHeight="1">
       <c r="A142" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="B142" s="20" t="s">
-        <v>436</v>
+        <v>177</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>786</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>182</v>
+        <v>337</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="20"/>
@@ -14253,16 +14300,16 @@
     </row>
     <row r="143" spans="1:9" ht="19" customHeight="1">
       <c r="A143" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B143" s="20" t="s">
-        <v>436</v>
+        <v>179</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>787</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>182</v>
+        <v>338</v>
       </c>
       <c r="E143" s="20"/>
       <c r="F143" s="20"/>
@@ -14272,7 +14319,7 @@
     </row>
     <row r="144" spans="1:9" ht="19" customHeight="1">
       <c r="A144" s="19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B144" s="20" t="s">
         <v>436</v>
@@ -14291,7 +14338,7 @@
     </row>
     <row r="145" spans="1:9" ht="19" customHeight="1">
       <c r="A145" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B145" s="20" t="s">
         <v>436</v>
@@ -14310,16 +14357,16 @@
     </row>
     <row r="146" spans="1:9" ht="19" customHeight="1">
       <c r="A146" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="B146" s="19" t="s">
-        <v>437</v>
+        <v>184</v>
+      </c>
+      <c r="B146" s="20" t="s">
+        <v>436</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D146" s="22" t="s">
-        <v>339</v>
+        <v>182</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="20"/>
@@ -14329,16 +14376,16 @@
     </row>
     <row r="147" spans="1:9" ht="19" customHeight="1">
       <c r="A147" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B147" s="19" t="s">
-        <v>438</v>
+        <v>185</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>436</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D147" s="22" t="s">
-        <v>352</v>
+        <v>182</v>
+      </c>
+      <c r="D147" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="E147" s="20"/>
       <c r="F147" s="20"/>
@@ -14348,16 +14395,16 @@
     </row>
     <row r="148" spans="1:9" ht="19" customHeight="1">
       <c r="A148" s="19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D148" s="22" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="20"/>
@@ -14367,16 +14414,16 @@
     </row>
     <row r="149" spans="1:9" ht="19" customHeight="1">
       <c r="A149" s="19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="20"/>
@@ -14386,16 +14433,16 @@
     </row>
     <row r="150" spans="1:9" ht="19" customHeight="1">
       <c r="A150" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E150" s="20"/>
       <c r="F150" s="20"/>
@@ -14405,16 +14452,16 @@
     </row>
     <row r="151" spans="1:9" ht="19" customHeight="1">
       <c r="A151" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
@@ -14424,16 +14471,16 @@
     </row>
     <row r="152" spans="1:9" ht="19" customHeight="1">
       <c r="A152" s="19" t="s">
-        <v>1034</v>
+        <v>194</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>1035</v>
+        <v>441</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>1036</v>
+        <v>195</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E152" s="20"/>
       <c r="F152" s="20"/>
@@ -14443,16 +14490,16 @@
     </row>
     <row r="153" spans="1:9" ht="19" customHeight="1">
       <c r="A153" s="19" t="s">
-        <v>1037</v>
+        <v>196</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>1038</v>
+        <v>442</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>1039</v>
+        <v>197</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="20"/>
@@ -14462,16 +14509,16 @@
     </row>
     <row r="154" spans="1:9" ht="19" customHeight="1">
       <c r="A154" s="19" t="s">
-        <v>198</v>
+        <v>1034</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>443</v>
+        <v>1035</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D154" s="21" t="s">
-        <v>359</v>
+        <v>1036</v>
+      </c>
+      <c r="D154" s="22" t="s">
+        <v>357</v>
       </c>
       <c r="E154" s="20"/>
       <c r="F154" s="20"/>
@@ -14481,16 +14528,16 @@
     </row>
     <row r="155" spans="1:9" ht="19" customHeight="1">
       <c r="A155" s="19" t="s">
-        <v>200</v>
+        <v>1037</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>444</v>
+        <v>1038</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>201</v>
+        <v>1039</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E155" s="20"/>
       <c r="F155" s="20"/>
@@ -14500,16 +14547,16 @@
     </row>
     <row r="156" spans="1:9" ht="19" customHeight="1">
       <c r="A156" s="19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D156" s="22" t="s">
-        <v>361</v>
+        <v>199</v>
+      </c>
+      <c r="D156" s="21" t="s">
+        <v>359</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
@@ -14519,16 +14566,16 @@
     </row>
     <row r="157" spans="1:9" ht="19" customHeight="1">
       <c r="A157" s="19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E157" s="20"/>
       <c r="F157" s="20"/>
@@ -14538,16 +14585,16 @@
     </row>
     <row r="158" spans="1:9" ht="19" customHeight="1">
       <c r="A158" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E158" s="20"/>
       <c r="F158" s="20"/>
@@ -14557,16 +14604,16 @@
     </row>
     <row r="159" spans="1:9" ht="19" customHeight="1">
       <c r="A159" s="19" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>1083</v>
+        <v>205</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E159" s="20"/>
       <c r="F159" s="20"/>
@@ -14576,16 +14623,16 @@
     </row>
     <row r="160" spans="1:9" ht="19" customHeight="1">
       <c r="A160" s="19" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>1084</v>
+        <v>207</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E160" s="20"/>
       <c r="F160" s="20"/>
@@ -14595,16 +14642,16 @@
     </row>
     <row r="161" spans="1:9" ht="19" customHeight="1">
       <c r="A161" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D161" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E161" s="20"/>
       <c r="F161" s="20"/>
@@ -14614,16 +14661,16 @@
     </row>
     <row r="162" spans="1:9" ht="19" customHeight="1">
       <c r="A162" s="19" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E162" s="20"/>
       <c r="F162" s="20"/>
@@ -14633,16 +14680,16 @@
     </row>
     <row r="163" spans="1:9" ht="19" customHeight="1">
       <c r="A163" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E163" s="20"/>
       <c r="F163" s="20"/>
@@ -14652,16 +14699,16 @@
     </row>
     <row r="164" spans="1:9" ht="19" customHeight="1">
       <c r="A164" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E164" s="20"/>
       <c r="F164" s="20"/>
@@ -14671,16 +14718,16 @@
     </row>
     <row r="165" spans="1:9" ht="19" customHeight="1">
       <c r="A165" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D165" s="22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E165" s="20"/>
       <c r="F165" s="20"/>
@@ -14690,16 +14737,16 @@
     </row>
     <row r="166" spans="1:9" ht="19" customHeight="1">
       <c r="A166" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E166" s="20"/>
       <c r="F166" s="20"/>
@@ -14709,16 +14756,16 @@
     </row>
     <row r="167" spans="1:9" ht="19" customHeight="1">
       <c r="A167" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="D167" s="20" t="s">
-        <v>364</v>
+        <v>1089</v>
+      </c>
+      <c r="D167" s="22" t="s">
+        <v>371</v>
       </c>
       <c r="E167" s="20"/>
       <c r="F167" s="20"/>
@@ -14728,16 +14775,16 @@
     </row>
     <row r="168" spans="1:9" ht="19" customHeight="1">
       <c r="A168" s="19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="D168" s="20" t="s">
-        <v>365</v>
+        <v>1090</v>
+      </c>
+      <c r="D168" s="22" t="s">
+        <v>372</v>
       </c>
       <c r="E168" s="20"/>
       <c r="F168" s="20"/>
@@ -14747,16 +14794,16 @@
     </row>
     <row r="169" spans="1:9" ht="19" customHeight="1">
       <c r="A169" s="19" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E169" s="20"/>
       <c r="F169" s="20"/>
@@ -14766,16 +14813,16 @@
     </row>
     <row r="170" spans="1:9" ht="19" customHeight="1">
       <c r="A170" s="19" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E170" s="20"/>
       <c r="F170" s="20"/>
@@ -14785,16 +14832,16 @@
     </row>
     <row r="171" spans="1:9" ht="19" customHeight="1">
       <c r="A171" s="19" t="s">
-        <v>1052</v>
+        <v>220</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>1053</v>
+        <v>458</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>1054</v>
+        <v>221</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>1055</v>
+        <v>374</v>
       </c>
       <c r="E171" s="20"/>
       <c r="F171" s="20"/>
@@ -14804,16 +14851,16 @@
     </row>
     <row r="172" spans="1:9" ht="19" customHeight="1">
       <c r="A172" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D172" s="22" t="s">
-        <v>376</v>
+        <v>223</v>
+      </c>
+      <c r="D172" s="20" t="s">
+        <v>375</v>
       </c>
       <c r="E172" s="20"/>
       <c r="F172" s="20"/>
@@ -14823,16 +14870,16 @@
     </row>
     <row r="173" spans="1:9" ht="19" customHeight="1">
       <c r="A173" s="19" t="s">
-        <v>225</v>
+        <v>1052</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>461</v>
+        <v>1053</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D173" s="22" t="s">
-        <v>885</v>
+        <v>1054</v>
+      </c>
+      <c r="D173" s="20" t="s">
+        <v>1055</v>
       </c>
       <c r="E173" s="20"/>
       <c r="F173" s="20"/>
@@ -14842,16 +14889,16 @@
     </row>
     <row r="174" spans="1:9" ht="19" customHeight="1">
       <c r="A174" s="19" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="D174" s="22" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E174" s="20"/>
       <c r="F174" s="20"/>
@@ -14861,16 +14908,16 @@
     </row>
     <row r="175" spans="1:9" ht="19" customHeight="1">
       <c r="A175" s="19" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>383</v>
+        <v>885</v>
       </c>
       <c r="E175" s="20"/>
       <c r="F175" s="20"/>
@@ -14880,16 +14927,16 @@
     </row>
     <row r="176" spans="1:9" ht="19" customHeight="1">
       <c r="A176" s="19" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="D176" s="22" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E176" s="20"/>
       <c r="F176" s="20"/>
@@ -14899,16 +14946,16 @@
     </row>
     <row r="177" spans="1:9" ht="19" customHeight="1">
       <c r="A177" s="19" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="D177" s="22" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E177" s="20"/>
       <c r="F177" s="20"/>
@@ -14918,16 +14965,16 @@
     </row>
     <row r="178" spans="1:9" ht="19" customHeight="1">
       <c r="A178" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D178" s="22" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E178" s="20"/>
       <c r="F178" s="20"/>
@@ -14937,16 +14984,16 @@
     </row>
     <row r="179" spans="1:9" ht="19" customHeight="1">
       <c r="A179" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D179" s="22" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E179" s="20"/>
       <c r="F179" s="20"/>
@@ -14956,16 +15003,16 @@
     </row>
     <row r="180" spans="1:9" ht="19" customHeight="1">
       <c r="A180" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="D180" s="20" t="s">
-        <v>381</v>
+        <v>1095</v>
+      </c>
+      <c r="D180" s="22" t="s">
+        <v>379</v>
       </c>
       <c r="E180" s="20"/>
       <c r="F180" s="20"/>
@@ -14975,16 +15022,16 @@
     </row>
     <row r="181" spans="1:9" ht="19" customHeight="1">
       <c r="A181" s="19" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="D181" s="20" t="s">
-        <v>384</v>
+        <v>1096</v>
+      </c>
+      <c r="D181" s="22" t="s">
+        <v>380</v>
       </c>
       <c r="E181" s="20"/>
       <c r="F181" s="20"/>
@@ -14994,10 +15041,10 @@
     </row>
     <row r="182" spans="1:9" ht="19" customHeight="1">
       <c r="A182" s="19" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="C182" s="20" t="s">
         <v>231</v>
@@ -15013,16 +15060,16 @@
     </row>
     <row r="183" spans="1:9" ht="19" customHeight="1">
       <c r="A183" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D183" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E183" s="20"/>
       <c r="F183" s="20"/>
@@ -15032,16 +15079,16 @@
     </row>
     <row r="184" spans="1:9" ht="19" customHeight="1">
       <c r="A184" s="19" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D184" s="20" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E184" s="20"/>
       <c r="F184" s="20"/>
@@ -15051,16 +15098,16 @@
     </row>
     <row r="185" spans="1:9" ht="19" customHeight="1">
       <c r="A185" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D185" s="20" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E185" s="20"/>
       <c r="F185" s="20"/>
@@ -15070,16 +15117,16 @@
     </row>
     <row r="186" spans="1:9" ht="19" customHeight="1">
       <c r="A186" s="19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E186" s="20"/>
       <c r="F186" s="20"/>
@@ -15089,16 +15136,16 @@
     </row>
     <row r="187" spans="1:9" ht="19" customHeight="1">
       <c r="A187" s="19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E187" s="20"/>
       <c r="F187" s="20"/>
@@ -15108,16 +15155,16 @@
     </row>
     <row r="188" spans="1:9" ht="19" customHeight="1">
       <c r="A188" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>828</v>
+        <v>471</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E188" s="20"/>
       <c r="F188" s="20"/>
@@ -15127,16 +15174,16 @@
     </row>
     <row r="189" spans="1:9" ht="19" customHeight="1">
       <c r="A189" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>827</v>
+        <v>473</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D189" s="20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E189" s="20"/>
       <c r="F189" s="20"/>
@@ -15146,16 +15193,16 @@
     </row>
     <row r="190" spans="1:9" ht="19" customHeight="1">
       <c r="A190" s="19" t="s">
-        <v>1151</v>
+        <v>247</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>1152</v>
+        <v>828</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D190" s="21" t="s">
-        <v>1154</v>
+        <v>248</v>
+      </c>
+      <c r="D190" s="20" t="s">
+        <v>390</v>
       </c>
       <c r="E190" s="20"/>
       <c r="F190" s="20"/>
@@ -15165,16 +15212,16 @@
     </row>
     <row r="191" spans="1:9" ht="19" customHeight="1">
       <c r="A191" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>474</v>
+        <v>827</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="D191" s="21" t="s">
-        <v>392</v>
+        <v>250</v>
+      </c>
+      <c r="D191" s="20" t="s">
+        <v>391</v>
       </c>
       <c r="E191" s="20"/>
       <c r="F191" s="20"/>
@@ -15184,16 +15231,16 @@
     </row>
     <row r="192" spans="1:9" ht="19" customHeight="1">
       <c r="A192" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B192" s="20" t="s">
-        <v>475</v>
+        <v>251</v>
+      </c>
+      <c r="B192" s="19" t="s">
+        <v>474</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="D192" s="20" t="s">
-        <v>482</v>
+        <v>252</v>
+      </c>
+      <c r="D192" s="21" t="s">
+        <v>392</v>
       </c>
       <c r="E192" s="20"/>
       <c r="F192" s="20"/>
@@ -15203,16 +15250,16 @@
     </row>
     <row r="193" spans="1:9" ht="19" customHeight="1">
       <c r="A193" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>393</v>
+        <v>482</v>
       </c>
       <c r="E193" s="20"/>
       <c r="F193" s="20"/>
@@ -15222,16 +15269,16 @@
     </row>
     <row r="194" spans="1:9" ht="19" customHeight="1">
       <c r="A194" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="B194" s="19" t="s">
-        <v>477</v>
+        <v>255</v>
+      </c>
+      <c r="B194" s="20" t="s">
+        <v>476</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D194" s="21" t="s">
-        <v>394</v>
+        <v>256</v>
+      </c>
+      <c r="D194" s="20" t="s">
+        <v>393</v>
       </c>
       <c r="E194" s="20"/>
       <c r="F194" s="20"/>
@@ -15241,16 +15288,16 @@
     </row>
     <row r="195" spans="1:9" ht="19" customHeight="1">
       <c r="A195" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>259</v>
+        <v>477</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D195" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E195" s="20"/>
       <c r="F195" s="20"/>
@@ -15260,16 +15307,16 @@
     </row>
     <row r="196" spans="1:9" ht="19" customHeight="1">
       <c r="A196" s="19" t="s">
-        <v>1040</v>
+        <v>259</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>436</v>
+        <v>259</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D196" s="20" t="s">
-        <v>1042</v>
+        <v>260</v>
+      </c>
+      <c r="D196" s="21" t="s">
+        <v>395</v>
       </c>
       <c r="E196" s="20"/>
       <c r="F196" s="20"/>
@@ -15279,16 +15326,16 @@
     </row>
     <row r="197" spans="1:9" ht="19" customHeight="1">
       <c r="A197" s="19" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B197" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
@@ -15298,16 +15345,16 @@
     </row>
     <row r="198" spans="1:9" ht="19" customHeight="1">
       <c r="A198" s="19" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B198" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D198" s="20" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E198" s="20"/>
       <c r="F198" s="20"/>
@@ -15317,16 +15364,16 @@
     </row>
     <row r="199" spans="1:9" ht="19" customHeight="1">
       <c r="A199" s="19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B199" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D199" s="20" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E199" s="20"/>
       <c r="F199" s="20"/>
@@ -15336,16 +15383,16 @@
     </row>
     <row r="200" spans="1:9" ht="19" customHeight="1">
       <c r="A200" s="19" t="s">
-        <v>261</v>
+        <v>1045</v>
       </c>
       <c r="B200" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D200" s="22" t="s">
-        <v>396</v>
+        <v>1048</v>
+      </c>
+      <c r="D200" s="20" t="s">
+        <v>1051</v>
       </c>
       <c r="E200" s="20"/>
       <c r="F200" s="20"/>
@@ -15355,16 +15402,16 @@
     </row>
     <row r="201" spans="1:9" ht="19" customHeight="1">
       <c r="A201" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B201" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D201" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E201" s="20"/>
       <c r="F201" s="20"/>
@@ -15374,16 +15421,16 @@
     </row>
     <row r="202" spans="1:9" ht="19" customHeight="1">
       <c r="A202" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="B202" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B202" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="D202" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="D202" s="22" t="s">
+        <v>397</v>
       </c>
       <c r="E202" s="20"/>
       <c r="F202" s="20"/>
@@ -15393,16 +15440,16 @@
     </row>
     <row r="203" spans="1:9" ht="19" customHeight="1">
       <c r="A203" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B203" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D203" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E203" s="20"/>
       <c r="F203" s="20"/>
@@ -15412,16 +15459,16 @@
     </row>
     <row r="204" spans="1:9" ht="19" customHeight="1">
       <c r="A204" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B204" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D204" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E204" s="20"/>
       <c r="F204" s="20"/>
@@ -15431,16 +15478,16 @@
     </row>
     <row r="205" spans="1:9" ht="19" customHeight="1">
       <c r="A205" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B205" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>402</v>
+        <v>265</v>
       </c>
       <c r="D205" s="20" t="s">
-        <v>408</v>
+        <v>265</v>
       </c>
       <c r="E205" s="20"/>
       <c r="F205" s="20"/>
@@ -15450,16 +15497,16 @@
     </row>
     <row r="206" spans="1:9" ht="19" customHeight="1">
       <c r="A206" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B206" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D206" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E206" s="20"/>
       <c r="F206" s="20"/>
@@ -15469,16 +15516,16 @@
     </row>
     <row r="207" spans="1:9" ht="19" customHeight="1">
       <c r="A207" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B207" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D207" s="20" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
@@ -15488,16 +15535,16 @@
     </row>
     <row r="208" spans="1:9" ht="19" customHeight="1">
       <c r="A208" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B208" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D208" s="20" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E208" s="20"/>
       <c r="F208" s="20"/>
@@ -15507,16 +15554,16 @@
     </row>
     <row r="209" spans="1:9" ht="19" customHeight="1">
       <c r="A209" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B209" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="D209" s="21" t="s">
-        <v>400</v>
+        <v>405</v>
+      </c>
+      <c r="D209" s="20" t="s">
+        <v>398</v>
       </c>
       <c r="E209" s="20"/>
       <c r="F209" s="20"/>
@@ -15526,16 +15573,16 @@
     </row>
     <row r="210" spans="1:9" ht="19" customHeight="1">
       <c r="A210" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B210" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D210" s="21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E210" s="20"/>
       <c r="F210" s="20"/>
@@ -15545,14 +15592,16 @@
     </row>
     <row r="211" spans="1:9" ht="19" customHeight="1">
       <c r="A211" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="B211" s="20"/>
+        <v>271</v>
+      </c>
+      <c r="B211" s="20" t="s">
+        <v>436</v>
+      </c>
       <c r="C211" s="20" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D211" s="20" t="s">
-        <v>1107</v>
+        <v>407</v>
+      </c>
+      <c r="D211" s="21" t="s">
+        <v>401</v>
       </c>
       <c r="E211" s="20"/>
       <c r="F211" s="20"/>
@@ -15562,14 +15611,14 @@
     </row>
     <row r="212" spans="1:9" ht="19" customHeight="1">
       <c r="A212" s="19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="20" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D212" s="20" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E212" s="20"/>
       <c r="F212" s="20"/>
@@ -15578,10 +15627,16 @@
       <c r="I212" s="18"/>
     </row>
     <row r="213" spans="1:9" ht="19" customHeight="1">
-      <c r="A213" s="19"/>
+      <c r="A213" s="19" t="s">
+        <v>491</v>
+      </c>
       <c r="B213" s="20"/>
-      <c r="C213" s="20"/>
-      <c r="D213" s="20"/>
+      <c r="C213" s="20" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D213" s="20" t="s">
+        <v>1108</v>
+      </c>
       <c r="E213" s="20"/>
       <c r="F213" s="20"/>
       <c r="G213" s="18"/>
@@ -15622,45 +15677,39 @@
       <c r="I216" s="18"/>
     </row>
     <row r="217" spans="1:9" ht="19" customHeight="1">
-      <c r="A217" s="26" t="s">
+      <c r="A217" s="19"/>
+      <c r="B217" s="20"/>
+      <c r="C217" s="20"/>
+      <c r="D217" s="20"/>
+      <c r="E217" s="20"/>
+      <c r="F217" s="20"/>
+      <c r="G217" s="18"/>
+      <c r="H217" s="17"/>
+      <c r="I217" s="18"/>
+    </row>
+    <row r="218" spans="1:9" ht="19" customHeight="1">
+      <c r="A218" s="26" t="s">
         <v>483</v>
       </c>
-      <c r="B217" s="23"/>
-      <c r="C217" s="23"/>
-      <c r="D217" s="23"/>
-      <c r="E217" s="23"/>
-      <c r="F217" s="23"/>
-      <c r="G217" s="24"/>
-      <c r="H217" s="25"/>
-      <c r="I217" s="24"/>
-    </row>
-    <row r="218" spans="1:9" ht="19" customHeight="1">
-      <c r="A218" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="B218" s="20"/>
-      <c r="C218" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="D218" s="20" t="s">
-        <v>670</v>
-      </c>
-      <c r="E218" s="20"/>
-      <c r="F218" s="20"/>
-      <c r="G218" s="18"/>
-      <c r="H218" s="17"/>
-      <c r="I218" s="18"/>
+      <c r="B218" s="23"/>
+      <c r="C218" s="23"/>
+      <c r="D218" s="23"/>
+      <c r="E218" s="23"/>
+      <c r="F218" s="23"/>
+      <c r="G218" s="24"/>
+      <c r="H218" s="25"/>
+      <c r="I218" s="24"/>
     </row>
     <row r="219" spans="1:9" ht="19" customHeight="1">
       <c r="A219" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="20" t="s">
-        <v>486</v>
-      </c>
-      <c r="D219" s="22" t="s">
-        <v>671</v>
+        <v>485</v>
+      </c>
+      <c r="D219" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="E219" s="20"/>
       <c r="F219" s="20"/>
@@ -15670,14 +15719,14 @@
     </row>
     <row r="220" spans="1:9" ht="19" customHeight="1">
       <c r="A220" s="19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="D220" s="20" t="s">
-        <v>672</v>
+        <v>486</v>
+      </c>
+      <c r="D220" s="22" t="s">
+        <v>671</v>
       </c>
       <c r="E220" s="20"/>
       <c r="F220" s="20"/>
@@ -15687,14 +15736,14 @@
     </row>
     <row r="221" spans="1:9" ht="19" customHeight="1">
       <c r="A221" s="19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="D221" s="22" t="s">
-        <v>673</v>
+        <v>487</v>
+      </c>
+      <c r="D221" s="20" t="s">
+        <v>672</v>
       </c>
       <c r="E221" s="20"/>
       <c r="F221" s="20"/>
@@ -15704,14 +15753,14 @@
     </row>
     <row r="222" spans="1:9" ht="19" customHeight="1">
       <c r="A222" s="19" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B222" s="20"/>
       <c r="C222" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="D222" s="21" t="s">
-        <v>674</v>
+        <v>489</v>
+      </c>
+      <c r="D222" s="22" t="s">
+        <v>673</v>
       </c>
       <c r="E222" s="20"/>
       <c r="F222" s="20"/>
@@ -15721,14 +15770,14 @@
     </row>
     <row r="223" spans="1:9" ht="19" customHeight="1">
       <c r="A223" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="D223" s="22" t="s">
-        <v>675</v>
+        <v>493</v>
+      </c>
+      <c r="D223" s="21" t="s">
+        <v>674</v>
       </c>
       <c r="E223" s="20"/>
       <c r="F223" s="20"/>
@@ -15738,14 +15787,14 @@
     </row>
     <row r="224" spans="1:9" ht="19" customHeight="1">
       <c r="A224" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="D224" s="21" t="s">
-        <v>676</v>
+        <v>495</v>
+      </c>
+      <c r="D224" s="22" t="s">
+        <v>675</v>
       </c>
       <c r="E224" s="20"/>
       <c r="F224" s="20"/>
@@ -15755,14 +15804,14 @@
     </row>
     <row r="225" spans="1:9" ht="19" customHeight="1">
       <c r="A225" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="20" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E225" s="20"/>
       <c r="F225" s="20"/>
@@ -15772,14 +15821,14 @@
     </row>
     <row r="226" spans="1:9" ht="19" customHeight="1">
       <c r="A226" s="19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E226" s="20"/>
       <c r="F226" s="20"/>
@@ -15789,14 +15838,14 @@
     </row>
     <row r="227" spans="1:9" ht="19" customHeight="1">
       <c r="A227" s="19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="20" t="s">
-        <v>934</v>
+        <v>501</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>935</v>
+        <v>678</v>
       </c>
       <c r="E227" s="20"/>
       <c r="F227" s="20"/>
@@ -15806,14 +15855,14 @@
     </row>
     <row r="228" spans="1:9" ht="19" customHeight="1">
       <c r="A228" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B228" s="20"/>
       <c r="C228" s="20" t="s">
-        <v>504</v>
+        <v>934</v>
       </c>
       <c r="D228" s="21" t="s">
-        <v>679</v>
+        <v>935</v>
       </c>
       <c r="E228" s="20"/>
       <c r="F228" s="20"/>
@@ -15823,14 +15872,14 @@
     </row>
     <row r="229" spans="1:9" ht="19" customHeight="1">
       <c r="A229" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B229" s="20"/>
       <c r="C229" s="20" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E229" s="20"/>
       <c r="F229" s="20"/>
@@ -15840,14 +15889,14 @@
     </row>
     <row r="230" spans="1:9" ht="19" customHeight="1">
       <c r="A230" s="19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="20" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E230" s="20"/>
       <c r="F230" s="20"/>
@@ -15857,14 +15906,14 @@
     </row>
     <row r="231" spans="1:9" ht="19" customHeight="1">
       <c r="A231" s="19" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B231" s="20"/>
       <c r="C231" s="20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E231" s="20"/>
       <c r="F231" s="20"/>
@@ -15874,14 +15923,14 @@
     </row>
     <row r="232" spans="1:9" ht="19" customHeight="1">
       <c r="A232" s="19" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="20" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E232" s="20"/>
       <c r="F232" s="20"/>
@@ -15891,14 +15940,14 @@
     </row>
     <row r="233" spans="1:9" ht="19" customHeight="1">
       <c r="A233" s="19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E233" s="20"/>
       <c r="F233" s="20"/>
@@ -15908,14 +15957,14 @@
     </row>
     <row r="234" spans="1:9" ht="19" customHeight="1">
       <c r="A234" s="19" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="20" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D234" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
@@ -15925,14 +15974,14 @@
     </row>
     <row r="235" spans="1:9" ht="19" customHeight="1">
       <c r="A235" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B235" s="20"/>
       <c r="C235" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="D235" s="20" t="s">
-        <v>686</v>
+        <v>516</v>
+      </c>
+      <c r="D235" s="21" t="s">
+        <v>685</v>
       </c>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
@@ -15942,14 +15991,14 @@
     </row>
     <row r="236" spans="1:9" ht="19" customHeight="1">
       <c r="A236" s="19" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B236" s="20"/>
       <c r="C236" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D236" s="22" t="s">
-        <v>687</v>
+        <v>518</v>
+      </c>
+      <c r="D236" s="20" t="s">
+        <v>686</v>
       </c>
       <c r="E236" s="20"/>
       <c r="F236" s="20"/>
@@ -15959,14 +16008,14 @@
     </row>
     <row r="237" spans="1:9" ht="19" customHeight="1">
       <c r="A237" s="19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B237" s="20"/>
       <c r="C237" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="D237" s="21" t="s">
-        <v>688</v>
+        <v>520</v>
+      </c>
+      <c r="D237" s="22" t="s">
+        <v>687</v>
       </c>
       <c r="E237" s="20"/>
       <c r="F237" s="20"/>
@@ -15976,14 +16025,14 @@
     </row>
     <row r="238" spans="1:9" ht="19" customHeight="1">
       <c r="A238" s="19" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B238" s="20"/>
       <c r="C238" s="20" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D238" s="20" t="s">
-        <v>1150</v>
+        <v>522</v>
+      </c>
+      <c r="D238" s="21" t="s">
+        <v>688</v>
       </c>
       <c r="E238" s="20"/>
       <c r="F238" s="20"/>
@@ -15993,14 +16042,14 @@
     </row>
     <row r="239" spans="1:9" ht="19" customHeight="1">
       <c r="A239" s="19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="20" t="s">
-        <v>525</v>
+        <v>1149</v>
       </c>
       <c r="D239" s="20" t="s">
-        <v>689</v>
+        <v>1150</v>
       </c>
       <c r="E239" s="20"/>
       <c r="F239" s="20"/>
@@ -16010,14 +16059,14 @@
     </row>
     <row r="240" spans="1:9" ht="19" customHeight="1">
       <c r="A240" s="19" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B240" s="20"/>
       <c r="C240" s="20" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E240" s="20"/>
       <c r="F240" s="20"/>
@@ -16027,14 +16076,14 @@
     </row>
     <row r="241" spans="1:9" ht="19" customHeight="1">
       <c r="A241" s="19" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B241" s="20"/>
       <c r="C241" s="20" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E241" s="20"/>
       <c r="F241" s="20"/>
@@ -16044,14 +16093,14 @@
     </row>
     <row r="242" spans="1:9" ht="19" customHeight="1">
       <c r="A242" s="19" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B242" s="20"/>
       <c r="C242" s="20" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E242" s="20"/>
       <c r="F242" s="20"/>
@@ -16061,14 +16110,14 @@
     </row>
     <row r="243" spans="1:9" ht="19" customHeight="1">
       <c r="A243" s="19" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="20" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E243" s="20"/>
       <c r="F243" s="20"/>
@@ -16078,14 +16127,14 @@
     </row>
     <row r="244" spans="1:9" ht="19" customHeight="1">
       <c r="A244" s="19" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D244" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E244" s="20"/>
       <c r="F244" s="20"/>
@@ -16095,14 +16144,14 @@
     </row>
     <row r="245" spans="1:9" ht="19" customHeight="1">
       <c r="A245" s="19" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B245" s="20"/>
       <c r="C245" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="D245" s="21" t="s">
-        <v>695</v>
+        <v>535</v>
+      </c>
+      <c r="D245" s="20" t="s">
+        <v>694</v>
       </c>
       <c r="E245" s="20"/>
       <c r="F245" s="20"/>
@@ -16112,14 +16161,14 @@
     </row>
     <row r="246" spans="1:9" ht="19" customHeight="1">
       <c r="A246" s="19" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="20" t="s">
-        <v>539</v>
-      </c>
-      <c r="D246" s="20" t="s">
-        <v>696</v>
+        <v>537</v>
+      </c>
+      <c r="D246" s="21" t="s">
+        <v>695</v>
       </c>
       <c r="E246" s="20"/>
       <c r="F246" s="20"/>
@@ -16129,14 +16178,14 @@
     </row>
     <row r="247" spans="1:9" ht="19" customHeight="1">
       <c r="A247" s="19" t="s">
-        <v>1026</v>
+        <v>538</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D247" s="20" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E247" s="20"/>
       <c r="F247" s="20"/>
@@ -16146,14 +16195,14 @@
     </row>
     <row r="248" spans="1:9" ht="19" customHeight="1">
       <c r="A248" s="19" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="20" t="s">
-        <v>541</v>
-      </c>
-      <c r="D248" s="21" t="s">
-        <v>698</v>
+        <v>540</v>
+      </c>
+      <c r="D248" s="20" t="s">
+        <v>697</v>
       </c>
       <c r="E248" s="20"/>
       <c r="F248" s="20"/>
@@ -16163,14 +16212,14 @@
     </row>
     <row r="249" spans="1:9" ht="19" customHeight="1">
       <c r="A249" s="19" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="20" t="s">
-        <v>1029</v>
+        <v>541</v>
       </c>
       <c r="D249" s="21" t="s">
-        <v>1030</v>
+        <v>698</v>
       </c>
       <c r="E249" s="20"/>
       <c r="F249" s="20"/>
@@ -16180,14 +16229,14 @@
     </row>
     <row r="250" spans="1:9" ht="19" customHeight="1">
       <c r="A250" s="19" t="s">
-        <v>542</v>
+        <v>1028</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="20" t="s">
-        <v>543</v>
-      </c>
-      <c r="D250" s="20" t="s">
-        <v>699</v>
+        <v>1029</v>
+      </c>
+      <c r="D250" s="21" t="s">
+        <v>1030</v>
       </c>
       <c r="E250" s="20"/>
       <c r="F250" s="20"/>
@@ -16197,14 +16246,14 @@
     </row>
     <row r="251" spans="1:9" ht="19" customHeight="1">
       <c r="A251" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
@@ -16214,14 +16263,14 @@
     </row>
     <row r="252" spans="1:9" ht="19" customHeight="1">
       <c r="A252" s="19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="20" t="s">
-        <v>547</v>
-      </c>
-      <c r="D252" s="21" t="s">
-        <v>701</v>
+        <v>545</v>
+      </c>
+      <c r="D252" s="20" t="s">
+        <v>700</v>
       </c>
       <c r="E252" s="20"/>
       <c r="F252" s="20"/>
@@ -16231,14 +16280,14 @@
     </row>
     <row r="253" spans="1:9" ht="19" customHeight="1">
       <c r="A253" s="19" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="D253" s="20" t="s">
-        <v>702</v>
+        <v>547</v>
+      </c>
+      <c r="D253" s="21" t="s">
+        <v>701</v>
       </c>
       <c r="E253" s="20"/>
       <c r="F253" s="20"/>
@@ -16248,14 +16297,14 @@
     </row>
     <row r="254" spans="1:9" ht="19" customHeight="1">
       <c r="A254" s="19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B254" s="20"/>
       <c r="C254" s="20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E254" s="20"/>
       <c r="F254" s="20"/>
@@ -16265,14 +16314,14 @@
     </row>
     <row r="255" spans="1:9" ht="19" customHeight="1">
       <c r="A255" s="19" t="s">
-        <v>1169</v>
+        <v>550</v>
       </c>
       <c r="B255" s="20"/>
       <c r="C255" s="20" t="s">
-        <v>1168</v>
+        <v>551</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>1167</v>
+        <v>703</v>
       </c>
       <c r="E255" s="20"/>
       <c r="F255" s="20"/>
@@ -16282,14 +16331,14 @@
     </row>
     <row r="256" spans="1:9" ht="19" customHeight="1">
       <c r="A256" s="19" t="s">
-        <v>552</v>
+        <v>1169</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="20" t="s">
-        <v>553</v>
+        <v>1168</v>
       </c>
       <c r="D256" s="20" t="s">
-        <v>704</v>
+        <v>1167</v>
       </c>
       <c r="E256" s="20"/>
       <c r="F256" s="20"/>
@@ -16299,14 +16348,14 @@
     </row>
     <row r="257" spans="1:9" ht="19" customHeight="1">
       <c r="A257" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="20" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D257" s="20" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
@@ -16316,14 +16365,14 @@
     </row>
     <row r="258" spans="1:9" ht="19" customHeight="1">
       <c r="A258" s="19" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="D258" s="21" t="s">
-        <v>706</v>
+        <v>555</v>
+      </c>
+      <c r="D258" s="20" t="s">
+        <v>705</v>
       </c>
       <c r="E258" s="20"/>
       <c r="F258" s="20"/>
@@ -16333,14 +16382,14 @@
     </row>
     <row r="259" spans="1:9" ht="19" customHeight="1">
       <c r="A259" s="19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D259" s="21" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E259" s="20"/>
       <c r="F259" s="20"/>
@@ -16350,14 +16399,14 @@
     </row>
     <row r="260" spans="1:9" ht="19" customHeight="1">
       <c r="A260" s="19" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="D260" s="20" t="s">
-        <v>708</v>
+        <v>559</v>
+      </c>
+      <c r="D260" s="21" t="s">
+        <v>707</v>
       </c>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
@@ -16367,14 +16416,14 @@
     </row>
     <row r="261" spans="1:9" ht="19" customHeight="1">
       <c r="A261" s="19" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D261" s="20" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
@@ -16384,14 +16433,14 @@
     </row>
     <row r="262" spans="1:9" ht="19" customHeight="1">
       <c r="A262" s="19" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="20" t="s">
-        <v>1118</v>
+        <v>563</v>
       </c>
       <c r="D262" s="20" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
@@ -16401,14 +16450,14 @@
     </row>
     <row r="263" spans="1:9" ht="19" customHeight="1">
       <c r="A263" s="19" t="s">
-        <v>1109</v>
+        <v>564</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="20" t="s">
-        <v>1113</v>
+        <v>1118</v>
       </c>
       <c r="D263" s="20" t="s">
-        <v>1114</v>
+        <v>710</v>
       </c>
       <c r="E263" s="20"/>
       <c r="F263" s="20"/>
@@ -16418,14 +16467,14 @@
     </row>
     <row r="264" spans="1:9" ht="19" customHeight="1">
       <c r="A264" s="19" t="s">
-        <v>1123</v>
+        <v>1109</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="20" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D264" s="22" t="s">
-        <v>1134</v>
+        <v>1113</v>
+      </c>
+      <c r="D264" s="20" t="s">
+        <v>1114</v>
       </c>
       <c r="E264" s="20"/>
       <c r="F264" s="20"/>
@@ -16435,14 +16484,14 @@
     </row>
     <row r="265" spans="1:9" ht="19" customHeight="1">
       <c r="A265" s="19" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="20" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="D265" s="22" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
@@ -16452,14 +16501,14 @@
     </row>
     <row r="266" spans="1:9" ht="19" customHeight="1">
       <c r="A266" s="19" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="20" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D266" s="22" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E266" s="20"/>
       <c r="F266" s="20"/>
@@ -16469,14 +16518,14 @@
     </row>
     <row r="267" spans="1:9" ht="19" customHeight="1">
       <c r="A267" s="19" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="20" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="D267" s="22" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
@@ -16486,14 +16535,14 @@
     </row>
     <row r="268" spans="1:9" ht="19" customHeight="1">
       <c r="A268" s="19" t="s">
-        <v>910</v>
+        <v>1126</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="20" t="s">
-        <v>912</v>
-      </c>
-      <c r="D268" s="20" t="s">
-        <v>911</v>
+        <v>1127</v>
+      </c>
+      <c r="D268" s="22" t="s">
+        <v>1128</v>
       </c>
       <c r="E268" s="20"/>
       <c r="F268" s="20"/>
@@ -16503,14 +16552,14 @@
     </row>
     <row r="269" spans="1:9" ht="19" customHeight="1">
       <c r="A269" s="19" t="s">
-        <v>565</v>
+        <v>910</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="D269" s="21" t="s">
-        <v>711</v>
+        <v>912</v>
+      </c>
+      <c r="D269" s="20" t="s">
+        <v>911</v>
       </c>
       <c r="E269" s="20"/>
       <c r="F269" s="20"/>
@@ -16520,14 +16569,14 @@
     </row>
     <row r="270" spans="1:9" ht="19" customHeight="1">
       <c r="A270" s="19" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="20" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D270" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E270" s="20"/>
       <c r="F270" s="20"/>
@@ -16537,14 +16586,14 @@
     </row>
     <row r="271" spans="1:9" ht="19" customHeight="1">
       <c r="A271" s="19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="D271" s="20" t="s">
-        <v>713</v>
+        <v>568</v>
+      </c>
+      <c r="D271" s="21" t="s">
+        <v>712</v>
       </c>
       <c r="E271" s="20"/>
       <c r="F271" s="20"/>
@@ -16554,14 +16603,14 @@
     </row>
     <row r="272" spans="1:9" ht="19" customHeight="1">
       <c r="A272" s="19" t="s">
-        <v>1110</v>
+        <v>569</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="20" t="s">
-        <v>1135</v>
+        <v>570</v>
       </c>
       <c r="D272" s="20" t="s">
-        <v>1136</v>
+        <v>713</v>
       </c>
       <c r="E272" s="20"/>
       <c r="F272" s="20"/>
@@ -16571,14 +16620,14 @@
     </row>
     <row r="273" spans="1:9" ht="19" customHeight="1">
       <c r="A273" s="19" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="20" t="s">
-        <v>1112</v>
+        <v>1135</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>1119</v>
+        <v>1136</v>
       </c>
       <c r="E273" s="20"/>
       <c r="F273" s="20"/>
@@ -16588,14 +16637,14 @@
     </row>
     <row r="274" spans="1:9" ht="19" customHeight="1">
       <c r="A274" s="19" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="20" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -16605,14 +16654,14 @@
     </row>
     <row r="275" spans="1:9" ht="19" customHeight="1">
       <c r="A275" s="19" t="s">
-        <v>573</v>
+        <v>1120</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="20" t="s">
-        <v>574</v>
+        <v>1121</v>
       </c>
       <c r="D275" s="20" t="s">
-        <v>715</v>
+        <v>1122</v>
       </c>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
@@ -16622,14 +16671,14 @@
     </row>
     <row r="276" spans="1:9" ht="19" customHeight="1">
       <c r="A276" s="19" t="s">
-        <v>1031</v>
+        <v>573</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="20" t="s">
-        <v>1032</v>
+        <v>574</v>
       </c>
       <c r="D276" s="20" t="s">
-        <v>1033</v>
+        <v>715</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -16639,14 +16688,14 @@
     </row>
     <row r="277" spans="1:9" ht="19" customHeight="1">
       <c r="A277" s="19" t="s">
-        <v>571</v>
+        <v>1031</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="20" t="s">
-        <v>572</v>
+        <v>1032</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>714</v>
+        <v>1033</v>
       </c>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
@@ -16656,14 +16705,14 @@
     </row>
     <row r="278" spans="1:9" ht="19" customHeight="1">
       <c r="A278" s="19" t="s">
-        <v>1115</v>
+        <v>571</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="20" t="s">
-        <v>1117</v>
+        <v>572</v>
       </c>
       <c r="D278" s="20" t="s">
-        <v>1116</v>
+        <v>714</v>
       </c>
       <c r="E278" s="20"/>
       <c r="F278" s="20"/>
@@ -16673,14 +16722,14 @@
     </row>
     <row r="279" spans="1:9" ht="19" customHeight="1">
       <c r="A279" s="19" t="s">
-        <v>575</v>
+        <v>1115</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="20" t="s">
-        <v>576</v>
+        <v>1117</v>
       </c>
       <c r="D279" s="20" t="s">
-        <v>716</v>
+        <v>1116</v>
       </c>
       <c r="E279" s="20"/>
       <c r="F279" s="20"/>
@@ -16690,14 +16739,14 @@
     </row>
     <row r="280" spans="1:9" ht="19" customHeight="1">
       <c r="A280" s="19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D280" s="20" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E280" s="20"/>
       <c r="F280" s="20"/>
@@ -16707,14 +16756,14 @@
     </row>
     <row r="281" spans="1:9" ht="19" customHeight="1">
       <c r="A281" s="19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="D281" s="21" t="s">
-        <v>718</v>
+        <v>578</v>
+      </c>
+      <c r="D281" s="20" t="s">
+        <v>717</v>
       </c>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
@@ -16724,14 +16773,14 @@
     </row>
     <row r="282" spans="1:9" ht="19" customHeight="1">
       <c r="A282" s="19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="20" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E282" s="20"/>
       <c r="F282" s="20"/>
@@ -16741,14 +16790,14 @@
     </row>
     <row r="283" spans="1:9" ht="19" customHeight="1">
       <c r="A283" s="19" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="D283" s="20" t="s">
-        <v>720</v>
+        <v>582</v>
+      </c>
+      <c r="D283" s="21" t="s">
+        <v>719</v>
       </c>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
@@ -16758,14 +16807,14 @@
     </row>
     <row r="284" spans="1:9" ht="19" customHeight="1">
       <c r="A284" s="19" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="D284" s="21" t="s">
-        <v>721</v>
+        <v>584</v>
+      </c>
+      <c r="D284" s="20" t="s">
+        <v>720</v>
       </c>
       <c r="E284" s="20"/>
       <c r="F284" s="20"/>
@@ -16775,14 +16824,14 @@
     </row>
     <row r="285" spans="1:9" ht="19" customHeight="1">
       <c r="A285" s="19" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="20" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D285" s="21" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
@@ -16792,14 +16841,14 @@
     </row>
     <row r="286" spans="1:9" ht="19" customHeight="1">
       <c r="A286" s="19" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="20" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D286" s="21" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E286" s="20"/>
       <c r="F286" s="20"/>
@@ -16809,14 +16858,14 @@
     </row>
     <row r="287" spans="1:9" ht="19" customHeight="1">
       <c r="A287" s="19" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D287" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
@@ -16826,14 +16875,14 @@
     </row>
     <row r="288" spans="1:9" ht="19" customHeight="1">
       <c r="A288" s="19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="20" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D288" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -16843,14 +16892,14 @@
     </row>
     <row r="289" spans="1:9" ht="19" customHeight="1">
       <c r="A289" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="20" t="s">
-        <v>596</v>
-      </c>
-      <c r="D289" s="20" t="s">
-        <v>726</v>
+        <v>594</v>
+      </c>
+      <c r="D289" s="21" t="s">
+        <v>725</v>
       </c>
       <c r="E289" s="20"/>
       <c r="F289" s="20"/>
@@ -16860,14 +16909,14 @@
     </row>
     <row r="290" spans="1:9" ht="19" customHeight="1">
       <c r="A290" s="19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="20" t="s">
-        <v>598</v>
-      </c>
-      <c r="D290" s="21" t="s">
-        <v>727</v>
+        <v>596</v>
+      </c>
+      <c r="D290" s="20" t="s">
+        <v>726</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -16877,14 +16926,14 @@
     </row>
     <row r="291" spans="1:9" ht="19" customHeight="1">
       <c r="A291" s="19" t="s">
-        <v>951</v>
+        <v>597</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="20" t="s">
-        <v>952</v>
-      </c>
-      <c r="D291" s="20" t="s">
-        <v>953</v>
+        <v>598</v>
+      </c>
+      <c r="D291" s="21" t="s">
+        <v>727</v>
       </c>
       <c r="E291" s="20"/>
       <c r="F291" s="20"/>
@@ -16894,14 +16943,14 @@
     </row>
     <row r="292" spans="1:9" ht="19" customHeight="1">
       <c r="A292" s="19" t="s">
-        <v>599</v>
+        <v>951</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="20" t="s">
-        <v>600</v>
-      </c>
-      <c r="D292" s="21" t="s">
-        <v>728</v>
+        <v>952</v>
+      </c>
+      <c r="D292" s="20" t="s">
+        <v>953</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -16911,14 +16960,14 @@
     </row>
     <row r="293" spans="1:9" ht="19" customHeight="1">
       <c r="A293" s="19" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="20" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D293" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E293" s="20"/>
       <c r="F293" s="20"/>
@@ -16928,14 +16977,14 @@
     </row>
     <row r="294" spans="1:9" ht="19" customHeight="1">
       <c r="A294" s="19" t="s">
-        <v>1023</v>
+        <v>601</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="20" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D294" s="20" t="s">
-        <v>1025</v>
+        <v>602</v>
+      </c>
+      <c r="D294" s="21" t="s">
+        <v>729</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -16945,14 +16994,14 @@
     </row>
     <row r="295" spans="1:9" ht="19" customHeight="1">
       <c r="A295" s="19" t="s">
-        <v>603</v>
+        <v>1023</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="20" t="s">
-        <v>604</v>
-      </c>
-      <c r="D295" s="21" t="s">
-        <v>730</v>
+        <v>1024</v>
+      </c>
+      <c r="D295" s="20" t="s">
+        <v>1025</v>
       </c>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
@@ -16962,14 +17011,14 @@
     </row>
     <row r="296" spans="1:9" ht="19" customHeight="1">
       <c r="A296" s="19" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="20" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D296" s="21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -16979,14 +17028,14 @@
     </row>
     <row r="297" spans="1:9" ht="19" customHeight="1">
       <c r="A297" s="19" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="D297" s="20" t="s">
-        <v>732</v>
+        <v>606</v>
+      </c>
+      <c r="D297" s="21" t="s">
+        <v>731</v>
       </c>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
@@ -16996,14 +17045,14 @@
     </row>
     <row r="298" spans="1:9" ht="19" customHeight="1">
       <c r="A298" s="19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="20" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D298" s="20" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -17013,14 +17062,14 @@
     </row>
     <row r="299" spans="1:9" ht="19" customHeight="1">
       <c r="A299" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="20" t="s">
-        <v>612</v>
-      </c>
-      <c r="D299" s="21" t="s">
-        <v>734</v>
+        <v>610</v>
+      </c>
+      <c r="D299" s="20" t="s">
+        <v>733</v>
       </c>
       <c r="E299" s="20"/>
       <c r="F299" s="20"/>
@@ -17030,14 +17079,14 @@
     </row>
     <row r="300" spans="1:9" ht="19" customHeight="1">
       <c r="A300" s="19" t="s">
-        <v>1080</v>
+        <v>611</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="20" t="s">
-        <v>1081</v>
+        <v>612</v>
       </c>
       <c r="D300" s="21" t="s">
-        <v>1082</v>
+        <v>734</v>
       </c>
       <c r="E300" s="20"/>
       <c r="F300" s="20"/>
@@ -17047,14 +17096,14 @@
     </row>
     <row r="301" spans="1:9" ht="19" customHeight="1">
       <c r="A301" s="19" t="s">
-        <v>613</v>
+        <v>1080</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="D301" s="22" t="s">
-        <v>735</v>
+        <v>1081</v>
+      </c>
+      <c r="D301" s="21" t="s">
+        <v>1082</v>
       </c>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
@@ -17064,14 +17113,14 @@
     </row>
     <row r="302" spans="1:9" ht="19" customHeight="1">
       <c r="A302" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="D302" s="21" t="s">
-        <v>936</v>
+        <v>614</v>
+      </c>
+      <c r="D302" s="22" t="s">
+        <v>735</v>
       </c>
       <c r="E302" s="20"/>
       <c r="F302" s="20"/>
@@ -17081,14 +17130,14 @@
     </row>
     <row r="303" spans="1:9" ht="19" customHeight="1">
       <c r="A303" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="20" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D303" s="21" t="s">
-        <v>736</v>
+        <v>936</v>
       </c>
       <c r="E303" s="20"/>
       <c r="F303" s="20"/>
@@ -17098,14 +17147,14 @@
     </row>
     <row r="304" spans="1:9" ht="19" customHeight="1">
       <c r="A304" s="19" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="D304" s="20" t="s">
-        <v>737</v>
+        <v>618</v>
+      </c>
+      <c r="D304" s="21" t="s">
+        <v>736</v>
       </c>
       <c r="E304" s="20"/>
       <c r="F304" s="20"/>
@@ -17115,14 +17164,14 @@
     </row>
     <row r="305" spans="1:9" ht="19" customHeight="1">
       <c r="A305" s="19" t="s">
-        <v>948</v>
+        <v>619</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="20" t="s">
-        <v>949</v>
+        <v>620</v>
       </c>
       <c r="D305" s="20" t="s">
-        <v>950</v>
+        <v>737</v>
       </c>
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
@@ -17132,14 +17181,14 @@
     </row>
     <row r="306" spans="1:9" ht="19" customHeight="1">
       <c r="A306" s="19" t="s">
-        <v>621</v>
+        <v>948</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="D306" s="21" t="s">
-        <v>738</v>
+        <v>949</v>
+      </c>
+      <c r="D306" s="20" t="s">
+        <v>950</v>
       </c>
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
@@ -17149,14 +17198,14 @@
     </row>
     <row r="307" spans="1:9" ht="19" customHeight="1">
       <c r="A307" s="19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="20" t="s">
-        <v>954</v>
+        <v>622</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>955</v>
+        <v>738</v>
       </c>
       <c r="E307" s="20"/>
       <c r="F307" s="20"/>
@@ -17166,14 +17215,14 @@
     </row>
     <row r="308" spans="1:9" ht="19" customHeight="1">
       <c r="A308" s="19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="20" t="s">
-        <v>625</v>
+        <v>954</v>
       </c>
       <c r="D308" s="21" t="s">
-        <v>739</v>
+        <v>955</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -17183,14 +17232,14 @@
     </row>
     <row r="309" spans="1:9" ht="19" customHeight="1">
       <c r="A309" s="19" t="s">
-        <v>956</v>
+        <v>624</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="20" t="s">
-        <v>957</v>
-      </c>
-      <c r="D309" s="20" t="s">
-        <v>958</v>
+        <v>625</v>
+      </c>
+      <c r="D309" s="21" t="s">
+        <v>739</v>
       </c>
       <c r="E309" s="20"/>
       <c r="F309" s="20"/>
@@ -17200,14 +17249,14 @@
     </row>
     <row r="310" spans="1:9" ht="19" customHeight="1">
       <c r="A310" s="19" t="s">
-        <v>626</v>
+        <v>956</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="20" t="s">
-        <v>627</v>
-      </c>
-      <c r="D310" s="21" t="s">
-        <v>740</v>
+        <v>957</v>
+      </c>
+      <c r="D310" s="20" t="s">
+        <v>958</v>
       </c>
       <c r="E310" s="20"/>
       <c r="F310" s="20"/>
@@ -17217,14 +17266,14 @@
     </row>
     <row r="311" spans="1:9" ht="19" customHeight="1">
       <c r="A311" s="19" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="20" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D311" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E311" s="20"/>
       <c r="F311" s="20"/>
@@ -17234,14 +17283,14 @@
     </row>
     <row r="312" spans="1:9" ht="19" customHeight="1">
       <c r="A312" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="20" t="s">
-        <v>631</v>
-      </c>
-      <c r="D312" s="20" t="s">
-        <v>742</v>
+        <v>629</v>
+      </c>
+      <c r="D312" s="21" t="s">
+        <v>741</v>
       </c>
       <c r="E312" s="20"/>
       <c r="F312" s="20"/>
@@ -17251,14 +17300,14 @@
     </row>
     <row r="313" spans="1:9" ht="19" customHeight="1">
       <c r="A313" s="19" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="20" t="s">
-        <v>633</v>
-      </c>
-      <c r="D313" s="21" t="s">
-        <v>743</v>
+        <v>631</v>
+      </c>
+      <c r="D313" s="20" t="s">
+        <v>742</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -17268,14 +17317,14 @@
     </row>
     <row r="314" spans="1:9" ht="19" customHeight="1">
       <c r="A314" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="20" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E314" s="20"/>
       <c r="F314" s="20"/>
@@ -17285,14 +17334,14 @@
     </row>
     <row r="315" spans="1:9" ht="19" customHeight="1">
       <c r="A315" s="19" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="20" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E315" s="20"/>
       <c r="F315" s="20"/>
@@ -17302,14 +17351,14 @@
     </row>
     <row r="316" spans="1:9" ht="19" customHeight="1">
       <c r="A316" s="19" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="20" t="s">
-        <v>639</v>
-      </c>
-      <c r="D316" s="22" t="s">
-        <v>746</v>
+        <v>637</v>
+      </c>
+      <c r="D316" s="21" t="s">
+        <v>745</v>
       </c>
       <c r="E316" s="20"/>
       <c r="F316" s="20"/>
@@ -17319,14 +17368,14 @@
     </row>
     <row r="317" spans="1:9" ht="19" customHeight="1">
       <c r="A317" s="19" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="20" t="s">
-        <v>641</v>
-      </c>
-      <c r="D317" s="21" t="s">
-        <v>747</v>
+        <v>639</v>
+      </c>
+      <c r="D317" s="22" t="s">
+        <v>746</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -17336,14 +17385,14 @@
     </row>
     <row r="318" spans="1:9" ht="19" customHeight="1">
       <c r="A318" s="19" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E318" s="20"/>
       <c r="F318" s="20"/>
@@ -17353,14 +17402,14 @@
     </row>
     <row r="319" spans="1:9" ht="19" customHeight="1">
       <c r="A319" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="20" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D319" s="21" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E319" s="20"/>
       <c r="F319" s="20"/>
@@ -17370,14 +17419,14 @@
     </row>
     <row r="320" spans="1:9" ht="19" customHeight="1">
       <c r="A320" s="19" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="20" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D320" s="21" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -17387,14 +17436,14 @@
     </row>
     <row r="321" spans="1:9" ht="19" customHeight="1">
       <c r="A321" s="19" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="20" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D321" s="21" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E321" s="20"/>
       <c r="F321" s="20"/>
@@ -17404,14 +17453,14 @@
     </row>
     <row r="322" spans="1:9" ht="19" customHeight="1">
       <c r="A322" s="19" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="20" t="s">
-        <v>651</v>
-      </c>
-      <c r="D322" s="20" t="s">
-        <v>752</v>
+        <v>649</v>
+      </c>
+      <c r="D322" s="21" t="s">
+        <v>751</v>
       </c>
       <c r="E322" s="20"/>
       <c r="F322" s="20"/>
@@ -17421,14 +17470,14 @@
     </row>
     <row r="323" spans="1:9" ht="19" customHeight="1">
       <c r="A323" s="19" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B323" s="20"/>
-      <c r="C323" s="27" t="s">
-        <v>653</v>
-      </c>
-      <c r="D323" s="27" t="s">
-        <v>753</v>
+      <c r="C323" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="D323" s="20" t="s">
+        <v>752</v>
       </c>
       <c r="E323" s="20"/>
       <c r="F323" s="20"/>
@@ -17438,14 +17487,14 @@
     </row>
     <row r="324" spans="1:9" ht="19" customHeight="1">
       <c r="A324" s="19" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B324" s="20"/>
-      <c r="C324" s="20" t="s">
-        <v>655</v>
-      </c>
-      <c r="D324" s="20" t="s">
-        <v>754</v>
+      <c r="C324" s="27" t="s">
+        <v>653</v>
+      </c>
+      <c r="D324" s="27" t="s">
+        <v>753</v>
       </c>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
@@ -17455,14 +17504,14 @@
     </row>
     <row r="325" spans="1:9" ht="19" customHeight="1">
       <c r="A325" s="19" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="20" t="s">
-        <v>657</v>
-      </c>
-      <c r="D325" s="21" t="s">
-        <v>755</v>
+        <v>655</v>
+      </c>
+      <c r="D325" s="20" t="s">
+        <v>754</v>
       </c>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
@@ -17472,14 +17521,14 @@
     </row>
     <row r="326" spans="1:9" ht="19" customHeight="1">
       <c r="A326" s="19" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="20" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D326" s="21" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E326" s="20"/>
       <c r="F326" s="20"/>
@@ -17489,14 +17538,14 @@
     </row>
     <row r="327" spans="1:9" ht="19" customHeight="1">
       <c r="A327" s="19" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="20" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D327" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E327" s="20"/>
       <c r="F327" s="20"/>
@@ -17506,14 +17555,14 @@
     </row>
     <row r="328" spans="1:9" ht="19" customHeight="1">
       <c r="A328" s="19" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="20" t="s">
-        <v>663</v>
-      </c>
-      <c r="D328" s="20" t="s">
-        <v>758</v>
+        <v>661</v>
+      </c>
+      <c r="D328" s="21" t="s">
+        <v>757</v>
       </c>
       <c r="E328" s="20"/>
       <c r="F328" s="20"/>
@@ -17523,14 +17572,14 @@
     </row>
     <row r="329" spans="1:9" ht="19" customHeight="1">
       <c r="A329" s="19" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="D329" s="22" t="s">
-        <v>759</v>
+        <v>663</v>
+      </c>
+      <c r="D329" s="20" t="s">
+        <v>758</v>
       </c>
       <c r="E329" s="20"/>
       <c r="F329" s="20"/>
@@ -17540,14 +17589,14 @@
     </row>
     <row r="330" spans="1:9" ht="19" customHeight="1">
       <c r="A330" s="19" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="20" t="s">
-        <v>667</v>
-      </c>
-      <c r="D330" s="20" t="s">
-        <v>760</v>
+        <v>665</v>
+      </c>
+      <c r="D330" s="22" t="s">
+        <v>759</v>
       </c>
       <c r="E330" s="20"/>
       <c r="F330" s="20"/>
@@ -17557,14 +17606,14 @@
     </row>
     <row r="331" spans="1:9" ht="19" customHeight="1">
       <c r="A331" s="19" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="20" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D331" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E331" s="20"/>
       <c r="F331" s="20"/>
@@ -17574,14 +17623,14 @@
     </row>
     <row r="332" spans="1:9" ht="19" customHeight="1">
       <c r="A332" s="19" t="s">
-        <v>945</v>
+        <v>668</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="20" t="s">
-        <v>946</v>
+        <v>669</v>
       </c>
       <c r="D332" s="20" t="s">
-        <v>947</v>
+        <v>761</v>
       </c>
       <c r="E332" s="20"/>
       <c r="F332" s="20"/>
@@ -17591,14 +17640,14 @@
     </row>
     <row r="333" spans="1:9" ht="19" customHeight="1">
       <c r="A333" s="19" t="s">
-        <v>1072</v>
+        <v>945</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="20" t="s">
-        <v>1073</v>
+        <v>946</v>
       </c>
       <c r="D333" s="20" t="s">
-        <v>1074</v>
+        <v>947</v>
       </c>
       <c r="E333" s="20"/>
       <c r="F333" s="20"/>
@@ -17608,14 +17657,14 @@
     </row>
     <row r="334" spans="1:9" ht="19" customHeight="1">
       <c r="A334" s="19" t="s">
-        <v>1143</v>
+        <v>1072</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="20" t="s">
-        <v>1144</v>
+        <v>1073</v>
       </c>
       <c r="D334" s="20" t="s">
-        <v>1145</v>
+        <v>1074</v>
       </c>
       <c r="E334" s="20"/>
       <c r="F334" s="20"/>
@@ -17625,14 +17674,14 @@
     </row>
     <row r="335" spans="1:9" ht="19" customHeight="1">
       <c r="A335" s="19" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="20" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="D335" s="20" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="E335" s="20"/>
       <c r="F335" s="20"/>
@@ -17642,14 +17691,14 @@
     </row>
     <row r="336" spans="1:9" ht="19" customHeight="1">
       <c r="A336" s="19" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="20" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D336" s="20" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="E336" s="20"/>
       <c r="F336" s="20"/>
@@ -17659,14 +17708,14 @@
     </row>
     <row r="337" spans="1:9" ht="19" customHeight="1">
       <c r="A337" s="19" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="B337" s="20"/>
       <c r="C337" s="20" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="D337" s="20" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="E337" s="20"/>
       <c r="F337" s="20"/>
@@ -17676,14 +17725,14 @@
     </row>
     <row r="338" spans="1:9" ht="19" customHeight="1">
       <c r="A338" s="19" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="20" t="s">
-        <v>1160</v>
+        <v>1147</v>
       </c>
       <c r="D338" s="20" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="E338" s="20"/>
       <c r="F338" s="20"/>
@@ -17693,14 +17742,14 @@
     </row>
     <row r="339" spans="1:9" ht="19" customHeight="1">
       <c r="A339" s="19" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="20" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D339" s="20" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="E339" s="20"/>
       <c r="F339" s="20"/>
@@ -17710,14 +17759,14 @@
     </row>
     <row r="340" spans="1:9" ht="19" customHeight="1">
       <c r="A340" s="19" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="B340" s="20"/>
       <c r="C340" s="20" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D340" s="20" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="E340" s="20"/>
       <c r="F340" s="20"/>
@@ -17727,14 +17776,14 @@
     </row>
     <row r="341" spans="1:9" ht="19" customHeight="1">
       <c r="A341" s="19" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="B341" s="20"/>
       <c r="C341" s="20" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="D341" s="20" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="E341" s="20"/>
       <c r="F341" s="20"/>
@@ -17743,10 +17792,16 @@
       <c r="I341" s="18"/>
     </row>
     <row r="342" spans="1:9" ht="19" customHeight="1">
-      <c r="A342" s="19"/>
+      <c r="A342" s="19" t="s">
+        <v>1170</v>
+      </c>
       <c r="B342" s="20"/>
-      <c r="C342" s="20"/>
-      <c r="D342" s="20"/>
+      <c r="C342" s="20" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D342" s="20" t="s">
+        <v>1172</v>
+      </c>
       <c r="E342" s="20"/>
       <c r="F342" s="20"/>
       <c r="G342" s="18"/>
@@ -18358,15 +18413,26 @@
       <c r="H397" s="17"/>
       <c r="I397" s="18"/>
     </row>
+    <row r="398" spans="1:9" ht="19" customHeight="1">
+      <c r="A398" s="19"/>
+      <c r="B398" s="20"/>
+      <c r="C398" s="20"/>
+      <c r="D398" s="20"/>
+      <c r="E398" s="20"/>
+      <c r="F398" s="20"/>
+      <c r="G398" s="18"/>
+      <c r="H398" s="17"/>
+      <c r="I398" s="18"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:J210" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
+  <autoFilter ref="A4:J211" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A235:E236 E222:G222 A222:C234 A259:E260 A295:E296 A317:E318 A319:C331 E319:E331 E223:E234 B65:G65 D115:D133 I8:I28 A8:G28 A66:G114 E237:E258 A115:C141 E115:G141 D138:D141 A30:G64 A218:G221 E261 F223:G261 E275:E294 D276 E297:E316 A297:C316 F275:G334 A332:E334 A142:G216 I30:I216 E262:G274 I218:I397 A261:C294 A237:C258 A335:G397">
+  <conditionalFormatting sqref="A236:E237 E223:G223 A223:C235 A260:E261 A296:E297 A318:E319 A320:C332 E320:E332 E224:E235 B65:G65 D117:D135 I8:I28 A8:G28 E238:E259 A117:C143 E117:G143 D140:D143 A30:G64 A219:G222 E262 F224:G262 E276:E295 D277 E298:E317 A298:C317 F276:G335 A333:E335 E263:G275 I219:I398 A262:C295 A238:C259 A336:G398 A144:G217 I30:I217 A66:G116">
     <cfRule type="expression" dxfId="136" priority="262">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H216 H218:H397">
+  <conditionalFormatting sqref="H8:H28 H30:H85 H219:H398 H117:H217 H87:H114">
     <cfRule type="cellIs" dxfId="135" priority="217" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
@@ -18380,7 +18446,7 @@
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H216 H218:H397">
+  <conditionalFormatting sqref="H8:H28 H30:H85 H219:H398 H117:H217 H87:H114">
     <cfRule type="cellIs" dxfId="131" priority="218" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -18397,19 +18463,19 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H87:H112 H30:H85 H115:H216 H218:H397">
+  <conditionalFormatting sqref="H8:H28 H30:H85 H219:H398 H117:H217 H87:H114">
     <cfRule type="cellIs" dxfId="126" priority="220" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D134:D135">
+  <conditionalFormatting sqref="D136:D137">
     <cfRule type="expression" dxfId="125" priority="141">
-      <formula>$G134&lt;&gt;""</formula>
+      <formula>$G136&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D136:D137">
+  <conditionalFormatting sqref="D138:D139">
     <cfRule type="expression" dxfId="124" priority="140">
-      <formula>$G136&lt;&gt;""</formula>
+      <formula>$G138&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5 I5 A5">
@@ -18458,26 +18524,26 @@
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C217:G217 I217 A217">
+  <conditionalFormatting sqref="C218:G218 I218 A218">
     <cfRule type="expression" dxfId="111" priority="122">
-      <formula>$G217&lt;&gt;""</formula>
+      <formula>$G218&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H217">
+  <conditionalFormatting sqref="H218">
     <cfRule type="cellIs" dxfId="110" priority="112" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="109" priority="119" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",H217)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",H218)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="108" priority="120" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",H217)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",H218)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="107" priority="121" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H217)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H218)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H217">
+  <conditionalFormatting sqref="H218">
     <cfRule type="cellIs" dxfId="106" priority="113" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -18494,19 +18560,19 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H217">
+  <conditionalFormatting sqref="H218">
     <cfRule type="cellIs" dxfId="101" priority="115" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B217">
+  <conditionalFormatting sqref="B218">
     <cfRule type="expression" dxfId="100" priority="111">
-      <formula>$G217&lt;&gt;""</formula>
+      <formula>$G218&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D310:D331 D222:D243 D246 D295:D297 D301:D302 D269 D304:D306 D277:D288 D250:D252 D256:D260">
+  <conditionalFormatting sqref="D311:D332 D223:D244 D247 D296:D298 D302:D303 D270 D305:D307 D278:D289 D251:D253 D257:D261">
     <cfRule type="expression" dxfId="99" priority="264">
-      <formula>$G224&lt;&gt;""</formula>
+      <formula>$G225&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6 I6 C6:G6">
@@ -18611,21 +18677,21 @@
       <formula>$G65&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H113:H114">
+  <conditionalFormatting sqref="H115:H116">
     <cfRule type="cellIs" dxfId="72" priority="48" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="71" priority="55" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",H113)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",H115)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="70" priority="56" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",H113)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",H115)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="69" priority="57" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H113)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H115)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H113:H114">
+  <conditionalFormatting sqref="H115:H116">
     <cfRule type="cellIs" dxfId="68" priority="49" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -18642,7 +18708,7 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H113:H114">
+  <conditionalFormatting sqref="H115:H116">
     <cfRule type="cellIs" dxfId="63" priority="51" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
@@ -18688,9 +18754,9 @@
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D307:D309 D292:D294 D289:D290 D247:D249 D298:D300 D268 D253:D255">
+  <conditionalFormatting sqref="D308:D310 D293:D295 D290:D291 D248:D250 D299:D301 D269 D254:D256">
     <cfRule type="expression" dxfId="51" priority="267">
-      <formula>$G250&lt;&gt;""</formula>
+      <formula>$G251&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
@@ -18729,59 +18795,59 @@
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D291 D271">
+  <conditionalFormatting sqref="D292 D272">
     <cfRule type="expression" dxfId="40" priority="271">
-      <formula>$G275&lt;&gt;""</formula>
+      <formula>$G276&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D246">
+    <cfRule type="expression" dxfId="39" priority="302">
+      <formula>$G247&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D245">
-    <cfRule type="expression" dxfId="39" priority="302">
-      <formula>$G246&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D244">
     <cfRule type="expression" dxfId="38" priority="303">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D261:D267">
+  <conditionalFormatting sqref="D262:D268">
     <cfRule type="expression" dxfId="37" priority="305">
-      <formula>$G269&lt;&gt;""</formula>
+      <formula>$G270&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D264">
+  <conditionalFormatting sqref="D265">
     <cfRule type="expression" dxfId="36" priority="339">
-      <formula>$G269&lt;&gt;""</formula>
+      <formula>$G270&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D272">
+  <conditionalFormatting sqref="D273">
     <cfRule type="expression" dxfId="35" priority="2">
-      <formula>$G272&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D273:D274">
-    <cfRule type="expression" dxfId="34" priority="1">
       <formula>$G273&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D303">
+  <conditionalFormatting sqref="D274:D275">
+    <cfRule type="expression" dxfId="34" priority="1">
+      <formula>$G274&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D304">
     <cfRule type="expression" dxfId="33" priority="371">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D275">
+  <conditionalFormatting sqref="D276">
     <cfRule type="expression" dxfId="32" priority="372">
-      <formula>$G280&lt;&gt;""</formula>
+      <formula>$G281&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D270">
+  <conditionalFormatting sqref="D271">
     <cfRule type="expression" dxfId="31" priority="374">
-      <formula>$G277&lt;&gt;""</formula>
+      <formula>$G278&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D265:D267">
+  <conditionalFormatting sqref="D266:D268">
     <cfRule type="expression" dxfId="30" priority="376">
-      <formula>$G269&lt;&gt;""</formula>
+      <formula>$G270&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8967826-31C0-C949-815F-99EFAA545A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95158D38-ACD9-9945-9C05-356549A0814C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35740" yWindow="1980" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -9595,10 +9595,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Could not find connected Android device. Connect a device or start an emulator. Enable USB debug option on Android device.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>端末が見つかりました。(${subject})</t>
     <rPh sb="6" eb="8">
       <t>タンマテゥ</t>
@@ -9643,14 +9639,6 @@
   </si>
   <si>
     <t>couldNotFindConnectedDeviceByProfile</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Could not find connected device. (profile=${subject})</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>端末を検出できません。(profile=${subject})</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -10008,6 +9996,18 @@
     <rPh sb="15" eb="17">
       <t>キドウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Could not find connected device(profile=${subject}). Falling back to ${arg1}.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末を検出できません(profile=${subject})。${arg1}へフォールバックします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Could not find connected Android device. Connect a device or start an emulator. Enable USB debug option on Android device. (profileName=${arg1})</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11631,8 +11631,8 @@
   <dimension ref="A1:I398"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A90" sqref="A90"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>
@@ -13258,13 +13258,13 @@
         <v>96</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
@@ -13274,16 +13274,16 @@
     </row>
     <row r="89" spans="1:9" ht="19" customHeight="1">
       <c r="A89" s="19" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D89" s="21" t="s">
         <v>1151</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>1154</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
@@ -13293,16 +13293,16 @@
     </row>
     <row r="90" spans="1:9" ht="19" customHeight="1">
       <c r="A90" s="19" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>1173</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>1176</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
@@ -16046,10 +16046,10 @@
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="20" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="D239" s="20" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="E239" s="20"/>
       <c r="F239" s="20"/>
@@ -16331,14 +16331,14 @@
     </row>
     <row r="256" spans="1:9" ht="19" customHeight="1">
       <c r="A256" s="19" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="20" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="D256" s="20" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="E256" s="20"/>
       <c r="F256" s="20"/>
@@ -16454,7 +16454,7 @@
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="20" t="s">
-        <v>1118</v>
+        <v>1176</v>
       </c>
       <c r="D263" s="20" t="s">
         <v>710</v>
@@ -16484,14 +16484,14 @@
     </row>
     <row r="265" spans="1:9" ht="19" customHeight="1">
       <c r="A265" s="19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="20" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D265" s="22" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
@@ -16501,14 +16501,14 @@
     </row>
     <row r="266" spans="1:9" ht="19" customHeight="1">
       <c r="A266" s="19" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="20" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D266" s="22" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="E266" s="20"/>
       <c r="F266" s="20"/>
@@ -16518,14 +16518,14 @@
     </row>
     <row r="267" spans="1:9" ht="19" customHeight="1">
       <c r="A267" s="19" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="20" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="D267" s="22" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
@@ -16535,14 +16535,14 @@
     </row>
     <row r="268" spans="1:9" ht="19" customHeight="1">
       <c r="A268" s="19" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="20" t="s">
-        <v>1127</v>
+        <v>1174</v>
       </c>
       <c r="D268" s="22" t="s">
-        <v>1128</v>
+        <v>1175</v>
       </c>
       <c r="E268" s="20"/>
       <c r="F268" s="20"/>
@@ -16624,10 +16624,10 @@
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="20" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="E273" s="20"/>
       <c r="F273" s="20"/>
@@ -16644,7 +16644,7 @@
         <v>1112</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -16654,14 +16654,14 @@
     </row>
     <row r="275" spans="1:9" ht="19" customHeight="1">
       <c r="A275" s="19" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="20" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D275" s="20" t="s">
         <v>1121</v>
-      </c>
-      <c r="D275" s="20" t="s">
-        <v>1122</v>
       </c>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
@@ -17674,14 +17674,14 @@
     </row>
     <row r="335" spans="1:9" ht="19" customHeight="1">
       <c r="A335" s="19" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="20" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D335" s="20" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="E335" s="20"/>
       <c r="F335" s="20"/>
@@ -17691,14 +17691,14 @@
     </row>
     <row r="336" spans="1:9" ht="19" customHeight="1">
       <c r="A336" s="19" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="20" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="D336" s="20" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="E336" s="20"/>
       <c r="F336" s="20"/>
@@ -17708,14 +17708,14 @@
     </row>
     <row r="337" spans="1:9" ht="19" customHeight="1">
       <c r="A337" s="19" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B337" s="20"/>
       <c r="C337" s="20" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D337" s="20" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="E337" s="20"/>
       <c r="F337" s="20"/>
@@ -17725,14 +17725,14 @@
     </row>
     <row r="338" spans="1:9" ht="19" customHeight="1">
       <c r="A338" s="19" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="20" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="D338" s="20" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="E338" s="20"/>
       <c r="F338" s="20"/>
@@ -17742,14 +17742,14 @@
     </row>
     <row r="339" spans="1:9" ht="19" customHeight="1">
       <c r="A339" s="19" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="20" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="D339" s="20" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="E339" s="20"/>
       <c r="F339" s="20"/>
@@ -17759,14 +17759,14 @@
     </row>
     <row r="340" spans="1:9" ht="19" customHeight="1">
       <c r="A340" s="19" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B340" s="20"/>
       <c r="C340" s="20" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="D340" s="20" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="E340" s="20"/>
       <c r="F340" s="20"/>
@@ -17776,14 +17776,14 @@
     </row>
     <row r="341" spans="1:9" ht="19" customHeight="1">
       <c r="A341" s="19" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="B341" s="20"/>
       <c r="C341" s="20" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D341" s="20" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="E341" s="20"/>
       <c r="F341" s="20"/>
@@ -17793,14 +17793,14 @@
     </row>
     <row r="342" spans="1:9" ht="19" customHeight="1">
       <c r="A342" s="19" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="B342" s="20"/>
       <c r="C342" s="20" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="D342" s="20" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="E342" s="20"/>
       <c r="F342" s="20"/>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95158D38-ACD9-9945-9C05-356549A0814C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9A4D01-6201-FF45-A9AF-42B8E5F30939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35740" yWindow="1980" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -9062,13 +9062,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Appium Server を開始しました。 (pid=${arg1}, port=${arg2})</t>
-    <rPh sb="15" eb="17">
-      <t>カイセィ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>scrollToRightEdge</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -10008,6 +10001,13 @@
   </si>
   <si>
     <t>Could not find connected Android device. Connect a device or start an emulator. Enable USB debug option on Android device. (profileName=${arg1})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Appium Serverを開始しました。 (pid=${arg1}, port=${arg2})</t>
+    <rPh sb="14" eb="16">
+      <t>カイセィ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11631,8 +11631,8 @@
   <dimension ref="A1:I398"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="4" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A277" sqref="A277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>
@@ -12216,10 +12216,10 @@
         <v>801</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -12229,16 +12229,16 @@
     </row>
     <row r="34" spans="1:9" ht="19" customHeight="1">
       <c r="A34" s="19" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B34" s="20" t="s">
         <v>1099</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="C34" s="20" t="s">
         <v>1100</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>1101</v>
-      </c>
       <c r="D34" s="20" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -12248,16 +12248,16 @@
     </row>
     <row r="35" spans="1:9" ht="19" customHeight="1">
       <c r="A35" s="19" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>1075</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="C35" s="20" t="s">
         <v>1076</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="D35" s="22" t="s">
         <v>1077</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>1078</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -12381,16 +12381,16 @@
     </row>
     <row r="42" spans="1:9" ht="19" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -12400,16 +12400,16 @@
     </row>
     <row r="43" spans="1:9" ht="19" customHeight="1">
       <c r="A43" s="19" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -12533,16 +12533,16 @@
     </row>
     <row r="50" spans="1:9" ht="19" customHeight="1">
       <c r="A50" s="19" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -12552,16 +12552,16 @@
     </row>
     <row r="51" spans="1:9" ht="19" customHeight="1">
       <c r="A51" s="19" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -12818,7 +12818,7 @@
     </row>
     <row r="65" spans="1:9" ht="19" customHeight="1">
       <c r="A65" s="19" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>888</v>
@@ -13258,13 +13258,13 @@
         <v>96</v>
       </c>
       <c r="B88" s="19" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C88" s="20" t="s">
         <v>1152</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="D88" s="22" t="s">
         <v>1153</v>
-      </c>
-      <c r="D88" s="22" t="s">
-        <v>1154</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
@@ -13274,16 +13274,16 @@
     </row>
     <row r="89" spans="1:9" ht="19" customHeight="1">
       <c r="A89" s="19" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B89" s="19" t="s">
         <v>1148</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="C89" s="20" t="s">
         <v>1149</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="D89" s="21" t="s">
         <v>1150</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>1151</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
@@ -13293,16 +13293,16 @@
     </row>
     <row r="90" spans="1:9" ht="19" customHeight="1">
       <c r="A90" s="19" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B90" s="19" t="s">
         <v>1170</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="C90" s="20" t="s">
         <v>1171</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="D90" s="21" t="s">
         <v>1172</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>1173</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
@@ -14509,13 +14509,13 @@
     </row>
     <row r="154" spans="1:9" ht="19" customHeight="1">
       <c r="A154" s="19" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B154" s="19" t="s">
         <v>1034</v>
       </c>
-      <c r="B154" s="19" t="s">
+      <c r="C154" s="20" t="s">
         <v>1035</v>
-      </c>
-      <c r="C154" s="20" t="s">
-        <v>1036</v>
       </c>
       <c r="D154" s="22" t="s">
         <v>357</v>
@@ -14528,13 +14528,13 @@
     </row>
     <row r="155" spans="1:9" ht="19" customHeight="1">
       <c r="A155" s="19" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B155" s="19" t="s">
         <v>1037</v>
       </c>
-      <c r="B155" s="19" t="s">
+      <c r="C155" s="20" t="s">
         <v>1038</v>
-      </c>
-      <c r="C155" s="20" t="s">
-        <v>1039</v>
       </c>
       <c r="D155" s="22" t="s">
         <v>358</v>
@@ -14648,7 +14648,7 @@
         <v>448</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D161" s="22" t="s">
         <v>366</v>
@@ -14667,7 +14667,7 @@
         <v>455</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D162" s="22" t="s">
         <v>373</v>
@@ -14686,7 +14686,7 @@
         <v>449</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D163" s="22" t="s">
         <v>367</v>
@@ -14705,7 +14705,7 @@
         <v>450</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D164" s="22" t="s">
         <v>368</v>
@@ -14724,7 +14724,7 @@
         <v>451</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D165" s="22" t="s">
         <v>369</v>
@@ -14743,7 +14743,7 @@
         <v>452</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D166" s="22" t="s">
         <v>370</v>
@@ -14762,7 +14762,7 @@
         <v>453</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D167" s="22" t="s">
         <v>371</v>
@@ -14781,7 +14781,7 @@
         <v>454</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D168" s="22" t="s">
         <v>372</v>
@@ -14870,16 +14870,16 @@
     </row>
     <row r="173" spans="1:9" ht="19" customHeight="1">
       <c r="A173" s="19" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B173" s="19" t="s">
         <v>1052</v>
       </c>
-      <c r="B173" s="19" t="s">
+      <c r="C173" s="20" t="s">
         <v>1053</v>
       </c>
-      <c r="C173" s="20" t="s">
+      <c r="D173" s="20" t="s">
         <v>1054</v>
-      </c>
-      <c r="D173" s="20" t="s">
-        <v>1055</v>
       </c>
       <c r="E173" s="20"/>
       <c r="F173" s="20"/>
@@ -14895,7 +14895,7 @@
         <v>460</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D174" s="22" t="s">
         <v>376</v>
@@ -14914,7 +14914,7 @@
         <v>461</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D175" s="22" t="s">
         <v>885</v>
@@ -14933,7 +14933,7 @@
         <v>466</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D176" s="22" t="s">
         <v>382</v>
@@ -14952,7 +14952,7 @@
         <v>467</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D177" s="22" t="s">
         <v>383</v>
@@ -14971,7 +14971,7 @@
         <v>462</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D178" s="22" t="s">
         <v>377</v>
@@ -14990,7 +14990,7 @@
         <v>463</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D179" s="22" t="s">
         <v>378</v>
@@ -15009,7 +15009,7 @@
         <v>464</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D180" s="22" t="s">
         <v>379</v>
@@ -15028,7 +15028,7 @@
         <v>465</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D181" s="22" t="s">
         <v>380</v>
@@ -15326,16 +15326,16 @@
     </row>
     <row r="197" spans="1:9" ht="19" customHeight="1">
       <c r="A197" s="19" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B197" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C197" s="20" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D197" s="20" t="s">
         <v>1041</v>
-      </c>
-      <c r="D197" s="20" t="s">
-        <v>1042</v>
       </c>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
@@ -15345,16 +15345,16 @@
     </row>
     <row r="198" spans="1:9" ht="19" customHeight="1">
       <c r="A198" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B198" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D198" s="20" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E198" s="20"/>
       <c r="F198" s="20"/>
@@ -15364,16 +15364,16 @@
     </row>
     <row r="199" spans="1:9" ht="19" customHeight="1">
       <c r="A199" s="19" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B199" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D199" s="20" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E199" s="20"/>
       <c r="F199" s="20"/>
@@ -15383,16 +15383,16 @@
     </row>
     <row r="200" spans="1:9" ht="19" customHeight="1">
       <c r="A200" s="19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B200" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D200" s="20" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E200" s="20"/>
       <c r="F200" s="20"/>
@@ -15615,10 +15615,10 @@
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="20" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D212" s="20" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E212" s="20"/>
       <c r="F212" s="20"/>
@@ -15632,10 +15632,10 @@
       </c>
       <c r="B213" s="20"/>
       <c r="C213" s="20" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D213" s="20" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E213" s="20"/>
       <c r="F213" s="20"/>
@@ -16046,10 +16046,10 @@
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="20" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D239" s="20" t="s">
         <v>1146</v>
-      </c>
-      <c r="D239" s="20" t="s">
-        <v>1147</v>
       </c>
       <c r="E239" s="20"/>
       <c r="F239" s="20"/>
@@ -16331,14 +16331,14 @@
     </row>
     <row r="256" spans="1:9" ht="19" customHeight="1">
       <c r="A256" s="19" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="20" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D256" s="20" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E256" s="20"/>
       <c r="F256" s="20"/>
@@ -16454,7 +16454,7 @@
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="20" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D263" s="20" t="s">
         <v>710</v>
@@ -16467,14 +16467,14 @@
     </row>
     <row r="264" spans="1:9" ht="19" customHeight="1">
       <c r="A264" s="19" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="20" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D264" s="20" t="s">
         <v>1113</v>
-      </c>
-      <c r="D264" s="20" t="s">
-        <v>1114</v>
       </c>
       <c r="E264" s="20"/>
       <c r="F264" s="20"/>
@@ -16484,14 +16484,14 @@
     </row>
     <row r="265" spans="1:9" ht="19" customHeight="1">
       <c r="A265" s="19" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D265" s="22" t="s">
         <v>1130</v>
-      </c>
-      <c r="D265" s="22" t="s">
-        <v>1131</v>
       </c>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
@@ -16501,14 +16501,14 @@
     </row>
     <row r="266" spans="1:9" ht="19" customHeight="1">
       <c r="A266" s="19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="20" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D266" s="22" t="s">
         <v>1128</v>
-      </c>
-      <c r="D266" s="22" t="s">
-        <v>1129</v>
       </c>
       <c r="E266" s="20"/>
       <c r="F266" s="20"/>
@@ -16518,14 +16518,14 @@
     </row>
     <row r="267" spans="1:9" ht="19" customHeight="1">
       <c r="A267" s="19" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D267" s="22" t="s">
         <v>1126</v>
-      </c>
-      <c r="D267" s="22" t="s">
-        <v>1127</v>
       </c>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
@@ -16535,14 +16535,14 @@
     </row>
     <row r="268" spans="1:9" ht="19" customHeight="1">
       <c r="A268" s="19" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="20" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D268" s="22" t="s">
         <v>1174</v>
-      </c>
-      <c r="D268" s="22" t="s">
-        <v>1175</v>
       </c>
       <c r="E268" s="20"/>
       <c r="F268" s="20"/>
@@ -16620,14 +16620,14 @@
     </row>
     <row r="273" spans="1:9" ht="19" customHeight="1">
       <c r="A273" s="19" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="20" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D273" s="20" t="s">
         <v>1132</v>
-      </c>
-      <c r="D273" s="20" t="s">
-        <v>1133</v>
       </c>
       <c r="E273" s="20"/>
       <c r="F273" s="20"/>
@@ -16637,14 +16637,14 @@
     </row>
     <row r="274" spans="1:9" ht="19" customHeight="1">
       <c r="A274" s="19" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="20" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -16654,14 +16654,14 @@
     </row>
     <row r="275" spans="1:9" ht="19" customHeight="1">
       <c r="A275" s="19" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="20" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D275" s="20" t="s">
         <v>1120</v>
-      </c>
-      <c r="D275" s="20" t="s">
-        <v>1121</v>
       </c>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
@@ -16695,7 +16695,7 @@
         <v>1032</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>1033</v>
+        <v>1176</v>
       </c>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
@@ -16722,14 +16722,14 @@
     </row>
     <row r="279" spans="1:9" ht="19" customHeight="1">
       <c r="A279" s="19" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="20" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D279" s="20" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E279" s="20"/>
       <c r="F279" s="20"/>
@@ -17096,14 +17096,14 @@
     </row>
     <row r="301" spans="1:9" ht="19" customHeight="1">
       <c r="A301" s="19" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="20" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D301" s="21" t="s">
         <v>1081</v>
-      </c>
-      <c r="D301" s="21" t="s">
-        <v>1082</v>
       </c>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
@@ -17657,14 +17657,14 @@
     </row>
     <row r="334" spans="1:9" ht="19" customHeight="1">
       <c r="A334" s="19" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D334" s="20" t="s">
         <v>1073</v>
-      </c>
-      <c r="D334" s="20" t="s">
-        <v>1074</v>
       </c>
       <c r="E334" s="20"/>
       <c r="F334" s="20"/>
@@ -17674,14 +17674,14 @@
     </row>
     <row r="335" spans="1:9" ht="19" customHeight="1">
       <c r="A335" s="19" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="20" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D335" s="20" t="s">
         <v>1141</v>
-      </c>
-      <c r="D335" s="20" t="s">
-        <v>1142</v>
       </c>
       <c r="E335" s="20"/>
       <c r="F335" s="20"/>
@@ -17691,14 +17691,14 @@
     </row>
     <row r="336" spans="1:9" ht="19" customHeight="1">
       <c r="A336" s="19" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="20" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D336" s="20" t="s">
         <v>1135</v>
-      </c>
-      <c r="D336" s="20" t="s">
-        <v>1136</v>
       </c>
       <c r="E336" s="20"/>
       <c r="F336" s="20"/>
@@ -17708,14 +17708,14 @@
     </row>
     <row r="337" spans="1:9" ht="19" customHeight="1">
       <c r="A337" s="19" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B337" s="20"/>
       <c r="C337" s="20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D337" s="20" t="s">
         <v>1138</v>
-      </c>
-      <c r="D337" s="20" t="s">
-        <v>1139</v>
       </c>
       <c r="E337" s="20"/>
       <c r="F337" s="20"/>
@@ -17725,14 +17725,14 @@
     </row>
     <row r="338" spans="1:9" ht="19" customHeight="1">
       <c r="A338" s="19" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="20" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D338" s="20" t="s">
         <v>1144</v>
-      </c>
-      <c r="D338" s="20" t="s">
-        <v>1145</v>
       </c>
       <c r="E338" s="20"/>
       <c r="F338" s="20"/>
@@ -17742,14 +17742,14 @@
     </row>
     <row r="339" spans="1:9" ht="19" customHeight="1">
       <c r="A339" s="19" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="20" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D339" s="20" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E339" s="20"/>
       <c r="F339" s="20"/>
@@ -17759,14 +17759,14 @@
     </row>
     <row r="340" spans="1:9" ht="19" customHeight="1">
       <c r="A340" s="19" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B340" s="20"/>
       <c r="C340" s="20" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D340" s="20" t="s">
         <v>1159</v>
-      </c>
-      <c r="D340" s="20" t="s">
-        <v>1160</v>
       </c>
       <c r="E340" s="20"/>
       <c r="F340" s="20"/>
@@ -17776,14 +17776,14 @@
     </row>
     <row r="341" spans="1:9" ht="19" customHeight="1">
       <c r="A341" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B341" s="20"/>
       <c r="C341" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D341" s="20" t="s">
         <v>1162</v>
-      </c>
-      <c r="D341" s="20" t="s">
-        <v>1163</v>
       </c>
       <c r="E341" s="20"/>
       <c r="F341" s="20"/>
@@ -17793,14 +17793,14 @@
     </row>
     <row r="342" spans="1:9" ht="19" customHeight="1">
       <c r="A342" s="19" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B342" s="20"/>
       <c r="C342" s="20" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D342" s="20" t="s">
         <v>1168</v>
-      </c>
-      <c r="D342" s="20" t="s">
-        <v>1169</v>
       </c>
       <c r="E342" s="20"/>
       <c r="F342" s="20"/>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9A4D01-6201-FF45-A9AF-42B8E5F30939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24645733-C574-C549-9865-25CFDFBC2328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35740" yWindow="1980" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="List" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">message!$A$4:$J$211</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">message!$A$4:$J$215</definedName>
     <definedName name="実施結果">List!$A$3:$A$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1193">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -10008,6 +10008,126 @@
     <rPh sb="14" eb="16">
       <t>カイセィ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>${subject}が${expected}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>より大きいこと</t>
+    </r>
+    <rPh sb="24" eb="25">
+      <t>オオキイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>${subject}が${expected}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以上であること</t>
+    </r>
+    <rPh sb="22" eb="24">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thisIsLessThan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thisIsLessThanOrEqual</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thisIsLessThan("${expected}")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thisIsLessThanOrEqual("${expected}")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${subject} is less than ${expected}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${subject} is less than or equal to ${expected}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>${subject}が${expected}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>より小さいこと</t>
+    </r>
+    <rPh sb="24" eb="25">
+      <t>チイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>${subject}が${expected}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以下であること</t>
+    </r>
+    <rPh sb="22" eb="24">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thisIsGreaterThan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thisIsGreaterThanOrEqual</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thisIsGreaterThan("${expected}")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thisIsGreaterThanOrEqual("${expected}")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${subject} is greater than ${expected}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${subject} is greater than or equal to ${expected}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11628,11 +11748,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I398"/>
+  <dimension ref="A1:I402"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A277" sqref="A277"/>
+      <pane ySplit="4" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>
@@ -13654,16 +13774,16 @@
     </row>
     <row r="109" spans="1:9" ht="19" customHeight="1">
       <c r="A109" s="19" t="s">
-        <v>123</v>
+        <v>1187</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>795</v>
+        <v>1189</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>124</v>
+        <v>1191</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>324</v>
+        <v>1177</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
@@ -13673,16 +13793,16 @@
     </row>
     <row r="110" spans="1:9" ht="19" customHeight="1">
       <c r="A110" s="19" t="s">
-        <v>1021</v>
+        <v>1188</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>1022</v>
+        <v>1190</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>979</v>
+        <v>1192</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>980</v>
+        <v>1178</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
@@ -13692,16 +13812,16 @@
     </row>
     <row r="111" spans="1:9" ht="19" customHeight="1">
       <c r="A111" s="19" t="s">
-        <v>937</v>
+        <v>1179</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>938</v>
+        <v>1181</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>940</v>
+        <v>1183</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>939</v>
+        <v>1185</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
@@ -13711,16 +13831,16 @@
     </row>
     <row r="112" spans="1:9" ht="19" customHeight="1">
       <c r="A112" s="19" t="s">
-        <v>941</v>
+        <v>1180</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>942</v>
+        <v>1182</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>943</v>
+        <v>1184</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>944</v>
+        <v>1186</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
@@ -13730,16 +13850,16 @@
     </row>
     <row r="113" spans="1:9" ht="19" customHeight="1">
       <c r="A113" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>434</v>
+        <v>795</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
@@ -13749,16 +13869,16 @@
     </row>
     <row r="114" spans="1:9" ht="19" customHeight="1">
       <c r="A114" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>435</v>
+        <v>1021</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>1022</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>128</v>
+        <v>979</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>320</v>
+        <v>980</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
@@ -13768,16 +13888,16 @@
     </row>
     <row r="115" spans="1:9" ht="19" customHeight="1">
       <c r="A115" s="19" t="s">
-        <v>890</v>
-      </c>
-      <c r="B115" s="19" t="s">
-        <v>891</v>
+        <v>937</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>938</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>893</v>
+        <v>940</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>892</v>
+        <v>939</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
@@ -13787,16 +13907,16 @@
     </row>
     <row r="116" spans="1:9" ht="19" customHeight="1">
       <c r="A116" s="19" t="s">
-        <v>894</v>
-      </c>
-      <c r="B116" s="19" t="s">
-        <v>897</v>
+        <v>941</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>942</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>895</v>
+        <v>943</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>896</v>
+        <v>944</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
@@ -13806,16 +13926,16 @@
     </row>
     <row r="117" spans="1:9" ht="19" customHeight="1">
       <c r="A117" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>794</v>
+        <v>125</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>434</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
@@ -13825,16 +13945,16 @@
     </row>
     <row r="118" spans="1:9" ht="19" customHeight="1">
       <c r="A118" s="19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>792</v>
+        <v>435</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
@@ -13844,16 +13964,16 @@
     </row>
     <row r="119" spans="1:9" ht="19" customHeight="1">
       <c r="A119" s="19" t="s">
-        <v>133</v>
+        <v>890</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>793</v>
+        <v>891</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>134</v>
+        <v>893</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>323</v>
+        <v>892</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -13863,16 +13983,16 @@
     </row>
     <row r="120" spans="1:9" ht="19" customHeight="1">
       <c r="A120" s="19" t="s">
-        <v>135</v>
+        <v>894</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>788</v>
+        <v>897</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>136</v>
+        <v>895</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>272</v>
+        <v>896</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
@@ -13882,16 +14002,16 @@
     </row>
     <row r="121" spans="1:9" ht="19" customHeight="1">
       <c r="A121" s="19" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
@@ -13901,16 +14021,16 @@
     </row>
     <row r="122" spans="1:9" ht="19" customHeight="1">
       <c r="A122" s="19" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
@@ -13920,16 +14040,16 @@
     </row>
     <row r="123" spans="1:9" ht="19" customHeight="1">
       <c r="A123" s="19" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
@@ -13939,16 +14059,16 @@
     </row>
     <row r="124" spans="1:9" ht="19" customHeight="1">
       <c r="A124" s="19" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>768</v>
+        <v>788</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
@@ -13958,16 +14078,16 @@
     </row>
     <row r="125" spans="1:9" ht="19" customHeight="1">
       <c r="A125" s="19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>769</v>
+        <v>789</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
@@ -13977,16 +14097,16 @@
     </row>
     <row r="126" spans="1:9" ht="19" customHeight="1">
       <c r="A126" s="19" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>770</v>
+        <v>790</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
@@ -13996,16 +14116,16 @@
     </row>
     <row r="127" spans="1:9" ht="19" customHeight="1">
       <c r="A127" s="19" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>771</v>
+        <v>791</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="20"/>
@@ -14015,16 +14135,16 @@
     </row>
     <row r="128" spans="1:9" ht="19" customHeight="1">
       <c r="A128" s="19" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="20"/>
@@ -14034,16 +14154,16 @@
     </row>
     <row r="129" spans="1:9" ht="19" customHeight="1">
       <c r="A129" s="19" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
@@ -14053,16 +14173,16 @@
     </row>
     <row r="130" spans="1:9" ht="19" customHeight="1">
       <c r="A130" s="19" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
@@ -14072,16 +14192,16 @@
     </row>
     <row r="131" spans="1:9" ht="19" customHeight="1">
       <c r="A131" s="19" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="20"/>
@@ -14091,16 +14211,16 @@
     </row>
     <row r="132" spans="1:9" ht="19" customHeight="1">
       <c r="A132" s="19" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
@@ -14110,16 +14230,16 @@
     </row>
     <row r="133" spans="1:9" ht="19" customHeight="1">
       <c r="A133" s="19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="20"/>
@@ -14129,16 +14249,16 @@
     </row>
     <row r="134" spans="1:9" ht="19" customHeight="1">
       <c r="A134" s="19" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
@@ -14148,16 +14268,16 @@
     </row>
     <row r="135" spans="1:9" ht="19" customHeight="1">
       <c r="A135" s="19" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="20"/>
@@ -14167,16 +14287,16 @@
     </row>
     <row r="136" spans="1:9" ht="19" customHeight="1">
       <c r="A136" s="19" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
@@ -14186,16 +14306,16 @@
     </row>
     <row r="137" spans="1:9" ht="19" customHeight="1">
       <c r="A137" s="19" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
@@ -14205,16 +14325,16 @@
     </row>
     <row r="138" spans="1:9" ht="19" customHeight="1">
       <c r="A138" s="19" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
@@ -14224,16 +14344,16 @@
     </row>
     <row r="139" spans="1:9" ht="19" customHeight="1">
       <c r="A139" s="19" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="20"/>
@@ -14243,16 +14363,16 @@
     </row>
     <row r="140" spans="1:9" ht="19" customHeight="1">
       <c r="A140" s="19" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E140" s="20"/>
       <c r="F140" s="20"/>
@@ -14262,16 +14382,16 @@
     </row>
     <row r="141" spans="1:9" ht="19" customHeight="1">
       <c r="A141" s="19" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="20"/>
@@ -14281,16 +14401,16 @@
     </row>
     <row r="142" spans="1:9" ht="19" customHeight="1">
       <c r="A142" s="19" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="20"/>
@@ -14300,16 +14420,16 @@
     </row>
     <row r="143" spans="1:9" ht="19" customHeight="1">
       <c r="A143" s="19" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E143" s="20"/>
       <c r="F143" s="20"/>
@@ -14319,16 +14439,16 @@
     </row>
     <row r="144" spans="1:9" ht="19" customHeight="1">
       <c r="A144" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="B144" s="20" t="s">
-        <v>436</v>
+        <v>173</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>784</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>182</v>
+        <v>335</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="20"/>
@@ -14338,16 +14458,16 @@
     </row>
     <row r="145" spans="1:9" ht="19" customHeight="1">
       <c r="A145" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B145" s="20" t="s">
-        <v>436</v>
+        <v>175</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>785</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>182</v>
+        <v>336</v>
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="20"/>
@@ -14357,16 +14477,16 @@
     </row>
     <row r="146" spans="1:9" ht="19" customHeight="1">
       <c r="A146" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="B146" s="20" t="s">
-        <v>436</v>
+        <v>177</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>786</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>182</v>
+        <v>337</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="20"/>
@@ -14376,16 +14496,16 @@
     </row>
     <row r="147" spans="1:9" ht="19" customHeight="1">
       <c r="A147" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B147" s="20" t="s">
-        <v>436</v>
+        <v>179</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>787</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>182</v>
+        <v>338</v>
       </c>
       <c r="E147" s="20"/>
       <c r="F147" s="20"/>
@@ -14395,16 +14515,16 @@
     </row>
     <row r="148" spans="1:9" ht="19" customHeight="1">
       <c r="A148" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="B148" s="19" t="s">
-        <v>437</v>
+        <v>181</v>
+      </c>
+      <c r="B148" s="20" t="s">
+        <v>436</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D148" s="22" t="s">
-        <v>339</v>
+        <v>182</v>
+      </c>
+      <c r="D148" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="20"/>
@@ -14414,16 +14534,16 @@
     </row>
     <row r="149" spans="1:9" ht="19" customHeight="1">
       <c r="A149" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B149" s="19" t="s">
-        <v>438</v>
+        <v>183</v>
+      </c>
+      <c r="B149" s="20" t="s">
+        <v>436</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D149" s="22" t="s">
-        <v>352</v>
+        <v>182</v>
+      </c>
+      <c r="D149" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="20"/>
@@ -14433,16 +14553,16 @@
     </row>
     <row r="150" spans="1:9" ht="19" customHeight="1">
       <c r="A150" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B150" s="19" t="s">
-        <v>439</v>
+        <v>184</v>
+      </c>
+      <c r="B150" s="20" t="s">
+        <v>436</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D150" s="22" t="s">
-        <v>353</v>
+        <v>182</v>
+      </c>
+      <c r="D150" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="E150" s="20"/>
       <c r="F150" s="20"/>
@@ -14452,16 +14572,16 @@
     </row>
     <row r="151" spans="1:9" ht="19" customHeight="1">
       <c r="A151" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B151" s="19" t="s">
-        <v>440</v>
+        <v>185</v>
+      </c>
+      <c r="B151" s="20" t="s">
+        <v>436</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D151" s="22" t="s">
-        <v>354</v>
+        <v>182</v>
+      </c>
+      <c r="D151" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
@@ -14471,16 +14591,16 @@
     </row>
     <row r="152" spans="1:9" ht="19" customHeight="1">
       <c r="A152" s="19" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="E152" s="20"/>
       <c r="F152" s="20"/>
@@ -14490,16 +14610,16 @@
     </row>
     <row r="153" spans="1:9" ht="19" customHeight="1">
       <c r="A153" s="19" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="20"/>
@@ -14509,16 +14629,16 @@
     </row>
     <row r="154" spans="1:9" ht="19" customHeight="1">
       <c r="A154" s="19" t="s">
-        <v>1033</v>
+        <v>190</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>1034</v>
+        <v>439</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>1035</v>
+        <v>191</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E154" s="20"/>
       <c r="F154" s="20"/>
@@ -14528,16 +14648,16 @@
     </row>
     <row r="155" spans="1:9" ht="19" customHeight="1">
       <c r="A155" s="19" t="s">
-        <v>1036</v>
+        <v>192</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>1037</v>
+        <v>440</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>1038</v>
+        <v>193</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E155" s="20"/>
       <c r="F155" s="20"/>
@@ -14547,16 +14667,16 @@
     </row>
     <row r="156" spans="1:9" ht="19" customHeight="1">
       <c r="A156" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>359</v>
+        <v>195</v>
+      </c>
+      <c r="D156" s="22" t="s">
+        <v>355</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
@@ -14566,16 +14686,16 @@
     </row>
     <row r="157" spans="1:9" ht="19" customHeight="1">
       <c r="A157" s="19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E157" s="20"/>
       <c r="F157" s="20"/>
@@ -14585,16 +14705,16 @@
     </row>
     <row r="158" spans="1:9" ht="19" customHeight="1">
       <c r="A158" s="19" t="s">
-        <v>202</v>
+        <v>1033</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>445</v>
+        <v>1034</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>203</v>
+        <v>1035</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E158" s="20"/>
       <c r="F158" s="20"/>
@@ -14604,16 +14724,16 @@
     </row>
     <row r="159" spans="1:9" ht="19" customHeight="1">
       <c r="A159" s="19" t="s">
-        <v>204</v>
+        <v>1036</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>446</v>
+        <v>1037</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>205</v>
+        <v>1038</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E159" s="20"/>
       <c r="F159" s="20"/>
@@ -14623,16 +14743,16 @@
     </row>
     <row r="160" spans="1:9" ht="19" customHeight="1">
       <c r="A160" s="19" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D160" s="22" t="s">
-        <v>363</v>
+        <v>199</v>
+      </c>
+      <c r="D160" s="21" t="s">
+        <v>359</v>
       </c>
       <c r="E160" s="20"/>
       <c r="F160" s="20"/>
@@ -14642,16 +14762,16 @@
     </row>
     <row r="161" spans="1:9" ht="19" customHeight="1">
       <c r="A161" s="19" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>1082</v>
+        <v>201</v>
       </c>
       <c r="D161" s="22" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E161" s="20"/>
       <c r="F161" s="20"/>
@@ -14661,16 +14781,16 @@
     </row>
     <row r="162" spans="1:9" ht="19" customHeight="1">
       <c r="A162" s="19" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>1083</v>
+        <v>203</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E162" s="20"/>
       <c r="F162" s="20"/>
@@ -14680,16 +14800,16 @@
     </row>
     <row r="163" spans="1:9" ht="19" customHeight="1">
       <c r="A163" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>1084</v>
+        <v>205</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E163" s="20"/>
       <c r="F163" s="20"/>
@@ -14699,16 +14819,16 @@
     </row>
     <row r="164" spans="1:9" ht="19" customHeight="1">
       <c r="A164" s="19" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>1085</v>
+        <v>207</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E164" s="20"/>
       <c r="F164" s="20"/>
@@ -14718,16 +14838,16 @@
     </row>
     <row r="165" spans="1:9" ht="19" customHeight="1">
       <c r="A165" s="19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="D165" s="22" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E165" s="20"/>
       <c r="F165" s="20"/>
@@ -14737,16 +14857,16 @@
     </row>
     <row r="166" spans="1:9" ht="19" customHeight="1">
       <c r="A166" s="19" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E166" s="20"/>
       <c r="F166" s="20"/>
@@ -14756,16 +14876,16 @@
     </row>
     <row r="167" spans="1:9" ht="19" customHeight="1">
       <c r="A167" s="19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="D167" s="22" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E167" s="20"/>
       <c r="F167" s="20"/>
@@ -14775,16 +14895,16 @@
     </row>
     <row r="168" spans="1:9" ht="19" customHeight="1">
       <c r="A168" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="D168" s="22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E168" s="20"/>
       <c r="F168" s="20"/>
@@ -14794,16 +14914,16 @@
     </row>
     <row r="169" spans="1:9" ht="19" customHeight="1">
       <c r="A169" s="19" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="D169" s="20" t="s">
-        <v>364</v>
+        <v>1086</v>
+      </c>
+      <c r="D169" s="22" t="s">
+        <v>369</v>
       </c>
       <c r="E169" s="20"/>
       <c r="F169" s="20"/>
@@ -14813,16 +14933,16 @@
     </row>
     <row r="170" spans="1:9" ht="19" customHeight="1">
       <c r="A170" s="19" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="D170" s="20" t="s">
-        <v>365</v>
+        <v>1087</v>
+      </c>
+      <c r="D170" s="22" t="s">
+        <v>370</v>
       </c>
       <c r="E170" s="20"/>
       <c r="F170" s="20"/>
@@ -14832,16 +14952,16 @@
     </row>
     <row r="171" spans="1:9" ht="19" customHeight="1">
       <c r="A171" s="19" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="D171" s="20" t="s">
-        <v>374</v>
+        <v>1088</v>
+      </c>
+      <c r="D171" s="22" t="s">
+        <v>371</v>
       </c>
       <c r="E171" s="20"/>
       <c r="F171" s="20"/>
@@ -14851,16 +14971,16 @@
     </row>
     <row r="172" spans="1:9" ht="19" customHeight="1">
       <c r="A172" s="19" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="D172" s="20" t="s">
-        <v>375</v>
+        <v>1089</v>
+      </c>
+      <c r="D172" s="22" t="s">
+        <v>372</v>
       </c>
       <c r="E172" s="20"/>
       <c r="F172" s="20"/>
@@ -14870,16 +14990,16 @@
     </row>
     <row r="173" spans="1:9" ht="19" customHeight="1">
       <c r="A173" s="19" t="s">
-        <v>1051</v>
+        <v>215</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>1052</v>
+        <v>456</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>1053</v>
+        <v>216</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>1054</v>
+        <v>364</v>
       </c>
       <c r="E173" s="20"/>
       <c r="F173" s="20"/>
@@ -14889,16 +15009,16 @@
     </row>
     <row r="174" spans="1:9" ht="19" customHeight="1">
       <c r="A174" s="19" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D174" s="22" t="s">
-        <v>376</v>
+        <v>218</v>
+      </c>
+      <c r="D174" s="20" t="s">
+        <v>365</v>
       </c>
       <c r="E174" s="20"/>
       <c r="F174" s="20"/>
@@ -14908,16 +15028,16 @@
     </row>
     <row r="175" spans="1:9" ht="19" customHeight="1">
       <c r="A175" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D175" s="22" t="s">
-        <v>885</v>
+        <v>221</v>
+      </c>
+      <c r="D175" s="20" t="s">
+        <v>374</v>
       </c>
       <c r="E175" s="20"/>
       <c r="F175" s="20"/>
@@ -14927,16 +15047,16 @@
     </row>
     <row r="176" spans="1:9" ht="19" customHeight="1">
       <c r="A176" s="19" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D176" s="22" t="s">
-        <v>382</v>
+        <v>223</v>
+      </c>
+      <c r="D176" s="20" t="s">
+        <v>375</v>
       </c>
       <c r="E176" s="20"/>
       <c r="F176" s="20"/>
@@ -14946,16 +15066,16 @@
     </row>
     <row r="177" spans="1:9" ht="19" customHeight="1">
       <c r="A177" s="19" t="s">
-        <v>233</v>
+        <v>1051</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>467</v>
+        <v>1052</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D177" s="22" t="s">
-        <v>383</v>
+        <v>1053</v>
+      </c>
+      <c r="D177" s="20" t="s">
+        <v>1054</v>
       </c>
       <c r="E177" s="20"/>
       <c r="F177" s="20"/>
@@ -14965,16 +15085,16 @@
     </row>
     <row r="178" spans="1:9" ht="19" customHeight="1">
       <c r="A178" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D178" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E178" s="20"/>
       <c r="F178" s="20"/>
@@ -14984,16 +15104,16 @@
     </row>
     <row r="179" spans="1:9" ht="19" customHeight="1">
       <c r="A179" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D179" s="22" t="s">
-        <v>378</v>
+        <v>885</v>
       </c>
       <c r="E179" s="20"/>
       <c r="F179" s="20"/>
@@ -15003,16 +15123,16 @@
     </row>
     <row r="180" spans="1:9" ht="19" customHeight="1">
       <c r="A180" s="19" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="D180" s="22" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E180" s="20"/>
       <c r="F180" s="20"/>
@@ -15022,16 +15142,16 @@
     </row>
     <row r="181" spans="1:9" ht="19" customHeight="1">
       <c r="A181" s="19" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D181" s="22" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E181" s="20"/>
       <c r="F181" s="20"/>
@@ -15041,16 +15161,16 @@
     </row>
     <row r="182" spans="1:9" ht="19" customHeight="1">
       <c r="A182" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="D182" s="20" t="s">
-        <v>381</v>
+        <v>1092</v>
+      </c>
+      <c r="D182" s="22" t="s">
+        <v>377</v>
       </c>
       <c r="E182" s="20"/>
       <c r="F182" s="20"/>
@@ -15060,16 +15180,16 @@
     </row>
     <row r="183" spans="1:9" ht="19" customHeight="1">
       <c r="A183" s="19" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="D183" s="20" t="s">
-        <v>384</v>
+        <v>1093</v>
+      </c>
+      <c r="D183" s="22" t="s">
+        <v>378</v>
       </c>
       <c r="E183" s="20"/>
       <c r="F183" s="20"/>
@@ -15079,16 +15199,16 @@
     </row>
     <row r="184" spans="1:9" ht="19" customHeight="1">
       <c r="A184" s="19" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="D184" s="20" t="s">
-        <v>381</v>
+        <v>1094</v>
+      </c>
+      <c r="D184" s="22" t="s">
+        <v>379</v>
       </c>
       <c r="E184" s="20"/>
       <c r="F184" s="20"/>
@@ -15098,16 +15218,16 @@
     </row>
     <row r="185" spans="1:9" ht="19" customHeight="1">
       <c r="A185" s="19" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="D185" s="20" t="s">
-        <v>385</v>
+        <v>1095</v>
+      </c>
+      <c r="D185" s="22" t="s">
+        <v>380</v>
       </c>
       <c r="E185" s="20"/>
       <c r="F185" s="20"/>
@@ -15117,16 +15237,16 @@
     </row>
     <row r="186" spans="1:9" ht="19" customHeight="1">
       <c r="A186" s="19" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E186" s="20"/>
       <c r="F186" s="20"/>
@@ -15136,16 +15256,16 @@
     </row>
     <row r="187" spans="1:9" ht="19" customHeight="1">
       <c r="A187" s="19" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E187" s="20"/>
       <c r="F187" s="20"/>
@@ -15155,16 +15275,16 @@
     </row>
     <row r="188" spans="1:9" ht="19" customHeight="1">
       <c r="A188" s="19" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E188" s="20"/>
       <c r="F188" s="20"/>
@@ -15174,16 +15294,16 @@
     </row>
     <row r="189" spans="1:9" ht="19" customHeight="1">
       <c r="A189" s="19" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D189" s="20" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E189" s="20"/>
       <c r="F189" s="20"/>
@@ -15193,16 +15313,16 @@
     </row>
     <row r="190" spans="1:9" ht="19" customHeight="1">
       <c r="A190" s="19" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>828</v>
+        <v>470</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D190" s="20" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E190" s="20"/>
       <c r="F190" s="20"/>
@@ -15212,16 +15332,16 @@
     </row>
     <row r="191" spans="1:9" ht="19" customHeight="1">
       <c r="A191" s="19" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>827</v>
+        <v>472</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E191" s="20"/>
       <c r="F191" s="20"/>
@@ -15231,16 +15351,16 @@
     </row>
     <row r="192" spans="1:9" ht="19" customHeight="1">
       <c r="A192" s="19" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="D192" s="21" t="s">
-        <v>392</v>
+        <v>244</v>
+      </c>
+      <c r="D192" s="20" t="s">
+        <v>388</v>
       </c>
       <c r="E192" s="20"/>
       <c r="F192" s="20"/>
@@ -15250,16 +15370,16 @@
     </row>
     <row r="193" spans="1:9" ht="19" customHeight="1">
       <c r="A193" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B193" s="20" t="s">
-        <v>475</v>
+        <v>245</v>
+      </c>
+      <c r="B193" s="19" t="s">
+        <v>473</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>482</v>
+        <v>389</v>
       </c>
       <c r="E193" s="20"/>
       <c r="F193" s="20"/>
@@ -15269,16 +15389,16 @@
     </row>
     <row r="194" spans="1:9" ht="19" customHeight="1">
       <c r="A194" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="B194" s="20" t="s">
-        <v>476</v>
+        <v>247</v>
+      </c>
+      <c r="B194" s="19" t="s">
+        <v>828</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D194" s="20" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E194" s="20"/>
       <c r="F194" s="20"/>
@@ -15288,16 +15408,16 @@
     </row>
     <row r="195" spans="1:9" ht="19" customHeight="1">
       <c r="A195" s="19" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>477</v>
+        <v>827</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D195" s="21" t="s">
-        <v>394</v>
+        <v>250</v>
+      </c>
+      <c r="D195" s="20" t="s">
+        <v>391</v>
       </c>
       <c r="E195" s="20"/>
       <c r="F195" s="20"/>
@@ -15307,16 +15427,16 @@
     </row>
     <row r="196" spans="1:9" ht="19" customHeight="1">
       <c r="A196" s="19" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>259</v>
+        <v>474</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D196" s="21" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E196" s="20"/>
       <c r="F196" s="20"/>
@@ -15326,16 +15446,16 @@
     </row>
     <row r="197" spans="1:9" ht="19" customHeight="1">
       <c r="A197" s="19" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B197" s="19" t="s">
-        <v>436</v>
+        <v>253</v>
+      </c>
+      <c r="B197" s="20" t="s">
+        <v>475</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>1040</v>
+        <v>254</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>1041</v>
+        <v>482</v>
       </c>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
@@ -15345,16 +15465,16 @@
     </row>
     <row r="198" spans="1:9" ht="19" customHeight="1">
       <c r="A198" s="19" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B198" s="19" t="s">
-        <v>436</v>
+        <v>255</v>
+      </c>
+      <c r="B198" s="20" t="s">
+        <v>476</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>1045</v>
+        <v>256</v>
       </c>
       <c r="D198" s="20" t="s">
-        <v>1048</v>
+        <v>393</v>
       </c>
       <c r="E198" s="20"/>
       <c r="F198" s="20"/>
@@ -15364,16 +15484,16 @@
     </row>
     <row r="199" spans="1:9" ht="19" customHeight="1">
       <c r="A199" s="19" t="s">
-        <v>1043</v>
+        <v>257</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D199" s="20" t="s">
-        <v>1049</v>
+        <v>258</v>
+      </c>
+      <c r="D199" s="21" t="s">
+        <v>394</v>
       </c>
       <c r="E199" s="20"/>
       <c r="F199" s="20"/>
@@ -15383,16 +15503,16 @@
     </row>
     <row r="200" spans="1:9" ht="19" customHeight="1">
       <c r="A200" s="19" t="s">
-        <v>1044</v>
+        <v>259</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>436</v>
+        <v>259</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D200" s="20" t="s">
-        <v>1050</v>
+        <v>260</v>
+      </c>
+      <c r="D200" s="21" t="s">
+        <v>395</v>
       </c>
       <c r="E200" s="20"/>
       <c r="F200" s="20"/>
@@ -15402,16 +15522,16 @@
     </row>
     <row r="201" spans="1:9" ht="19" customHeight="1">
       <c r="A201" s="19" t="s">
-        <v>261</v>
+        <v>1039</v>
       </c>
       <c r="B201" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D201" s="22" t="s">
-        <v>396</v>
+        <v>1040</v>
+      </c>
+      <c r="D201" s="20" t="s">
+        <v>1041</v>
       </c>
       <c r="E201" s="20"/>
       <c r="F201" s="20"/>
@@ -15421,16 +15541,16 @@
     </row>
     <row r="202" spans="1:9" ht="19" customHeight="1">
       <c r="A202" s="19" t="s">
-        <v>262</v>
+        <v>1042</v>
       </c>
       <c r="B202" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="D202" s="22" t="s">
-        <v>397</v>
+        <v>1045</v>
+      </c>
+      <c r="D202" s="20" t="s">
+        <v>1048</v>
       </c>
       <c r="E202" s="20"/>
       <c r="F202" s="20"/>
@@ -15440,16 +15560,16 @@
     </row>
     <row r="203" spans="1:9" ht="19" customHeight="1">
       <c r="A203" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="B203" s="20" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B203" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>263</v>
+        <v>1046</v>
       </c>
       <c r="D203" s="20" t="s">
-        <v>263</v>
+        <v>1049</v>
       </c>
       <c r="E203" s="20"/>
       <c r="F203" s="20"/>
@@ -15459,16 +15579,16 @@
     </row>
     <row r="204" spans="1:9" ht="19" customHeight="1">
       <c r="A204" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="B204" s="20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B204" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>264</v>
+        <v>1047</v>
       </c>
       <c r="D204" s="20" t="s">
-        <v>264</v>
+        <v>1050</v>
       </c>
       <c r="E204" s="20"/>
       <c r="F204" s="20"/>
@@ -15478,16 +15598,16 @@
     </row>
     <row r="205" spans="1:9" ht="19" customHeight="1">
       <c r="A205" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="B205" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="B205" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="D205" s="20" t="s">
-        <v>265</v>
+        <v>261</v>
+      </c>
+      <c r="D205" s="22" t="s">
+        <v>396</v>
       </c>
       <c r="E205" s="20"/>
       <c r="F205" s="20"/>
@@ -15497,16 +15617,16 @@
     </row>
     <row r="206" spans="1:9" ht="19" customHeight="1">
       <c r="A206" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="B206" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B206" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="D206" s="20" t="s">
-        <v>408</v>
+        <v>262</v>
+      </c>
+      <c r="D206" s="22" t="s">
+        <v>397</v>
       </c>
       <c r="E206" s="20"/>
       <c r="F206" s="20"/>
@@ -15516,16 +15636,16 @@
     </row>
     <row r="207" spans="1:9" ht="19" customHeight="1">
       <c r="A207" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B207" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>403</v>
+        <v>263</v>
       </c>
       <c r="D207" s="20" t="s">
-        <v>409</v>
+        <v>263</v>
       </c>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
@@ -15535,16 +15655,16 @@
     </row>
     <row r="208" spans="1:9" ht="19" customHeight="1">
       <c r="A208" s="19" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B208" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>404</v>
+        <v>264</v>
       </c>
       <c r="D208" s="20" t="s">
-        <v>399</v>
+        <v>264</v>
       </c>
       <c r="E208" s="20"/>
       <c r="F208" s="20"/>
@@ -15554,16 +15674,16 @@
     </row>
     <row r="209" spans="1:9" ht="19" customHeight="1">
       <c r="A209" s="19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B209" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>405</v>
+        <v>265</v>
       </c>
       <c r="D209" s="20" t="s">
-        <v>398</v>
+        <v>265</v>
       </c>
       <c r="E209" s="20"/>
       <c r="F209" s="20"/>
@@ -15573,16 +15693,16 @@
     </row>
     <row r="210" spans="1:9" ht="19" customHeight="1">
       <c r="A210" s="19" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B210" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="D210" s="21" t="s">
-        <v>400</v>
+        <v>402</v>
+      </c>
+      <c r="D210" s="20" t="s">
+        <v>408</v>
       </c>
       <c r="E210" s="20"/>
       <c r="F210" s="20"/>
@@ -15592,16 +15712,16 @@
     </row>
     <row r="211" spans="1:9" ht="19" customHeight="1">
       <c r="A211" s="19" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B211" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="D211" s="21" t="s">
-        <v>401</v>
+        <v>403</v>
+      </c>
+      <c r="D211" s="20" t="s">
+        <v>409</v>
       </c>
       <c r="E211" s="20"/>
       <c r="F211" s="20"/>
@@ -15611,14 +15731,16 @@
     </row>
     <row r="212" spans="1:9" ht="19" customHeight="1">
       <c r="A212" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="B212" s="20"/>
+        <v>268</v>
+      </c>
+      <c r="B212" s="20" t="s">
+        <v>436</v>
+      </c>
       <c r="C212" s="20" t="s">
-        <v>1104</v>
+        <v>404</v>
       </c>
       <c r="D212" s="20" t="s">
-        <v>1106</v>
+        <v>399</v>
       </c>
       <c r="E212" s="20"/>
       <c r="F212" s="20"/>
@@ -15628,14 +15750,16 @@
     </row>
     <row r="213" spans="1:9" ht="19" customHeight="1">
       <c r="A213" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="B213" s="20"/>
+        <v>269</v>
+      </c>
+      <c r="B213" s="20" t="s">
+        <v>436</v>
+      </c>
       <c r="C213" s="20" t="s">
-        <v>1105</v>
+        <v>405</v>
       </c>
       <c r="D213" s="20" t="s">
-        <v>1107</v>
+        <v>398</v>
       </c>
       <c r="E213" s="20"/>
       <c r="F213" s="20"/>
@@ -15644,10 +15768,18 @@
       <c r="I213" s="18"/>
     </row>
     <row r="214" spans="1:9" ht="19" customHeight="1">
-      <c r="A214" s="19"/>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
-      <c r="D214" s="20"/>
+      <c r="A214" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B214" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="C214" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D214" s="21" t="s">
+        <v>400</v>
+      </c>
       <c r="E214" s="20"/>
       <c r="F214" s="20"/>
       <c r="G214" s="18"/>
@@ -15655,10 +15787,18 @@
       <c r="I214" s="18"/>
     </row>
     <row r="215" spans="1:9" ht="19" customHeight="1">
-      <c r="A215" s="19"/>
-      <c r="B215" s="20"/>
-      <c r="C215" s="20"/>
-      <c r="D215" s="20"/>
+      <c r="A215" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B215" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="C215" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="D215" s="21" t="s">
+        <v>401</v>
+      </c>
       <c r="E215" s="20"/>
       <c r="F215" s="20"/>
       <c r="G215" s="18"/>
@@ -15666,10 +15806,16 @@
       <c r="I215" s="18"/>
     </row>
     <row r="216" spans="1:9" ht="19" customHeight="1">
-      <c r="A216" s="19"/>
+      <c r="A216" s="19" t="s">
+        <v>490</v>
+      </c>
       <c r="B216" s="20"/>
-      <c r="C216" s="20"/>
-      <c r="D216" s="20"/>
+      <c r="C216" s="20" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D216" s="20" t="s">
+        <v>1106</v>
+      </c>
       <c r="E216" s="20"/>
       <c r="F216" s="20"/>
       <c r="G216" s="18"/>
@@ -15677,10 +15823,16 @@
       <c r="I216" s="18"/>
     </row>
     <row r="217" spans="1:9" ht="19" customHeight="1">
-      <c r="A217" s="19"/>
+      <c r="A217" s="19" t="s">
+        <v>491</v>
+      </c>
       <c r="B217" s="20"/>
-      <c r="C217" s="20"/>
-      <c r="D217" s="20"/>
+      <c r="C217" s="20" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D217" s="20" t="s">
+        <v>1107</v>
+      </c>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
       <c r="G217" s="18"/>
@@ -15688,29 +15840,21 @@
       <c r="I217" s="18"/>
     </row>
     <row r="218" spans="1:9" ht="19" customHeight="1">
-      <c r="A218" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="B218" s="23"/>
-      <c r="C218" s="23"/>
-      <c r="D218" s="23"/>
-      <c r="E218" s="23"/>
-      <c r="F218" s="23"/>
-      <c r="G218" s="24"/>
-      <c r="H218" s="25"/>
-      <c r="I218" s="24"/>
+      <c r="A218" s="19"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="20"/>
+      <c r="D218" s="20"/>
+      <c r="E218" s="20"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="18"/>
+      <c r="H218" s="17"/>
+      <c r="I218" s="18"/>
     </row>
     <row r="219" spans="1:9" ht="19" customHeight="1">
-      <c r="A219" s="19" t="s">
-        <v>485</v>
-      </c>
+      <c r="A219" s="19"/>
       <c r="B219" s="20"/>
-      <c r="C219" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="D219" s="20" t="s">
-        <v>670</v>
-      </c>
+      <c r="C219" s="20"/>
+      <c r="D219" s="20"/>
       <c r="E219" s="20"/>
       <c r="F219" s="20"/>
       <c r="G219" s="18"/>
@@ -15718,16 +15862,10 @@
       <c r="I219" s="18"/>
     </row>
     <row r="220" spans="1:9" ht="19" customHeight="1">
-      <c r="A220" s="19" t="s">
-        <v>486</v>
-      </c>
+      <c r="A220" s="19"/>
       <c r="B220" s="20"/>
-      <c r="C220" s="20" t="s">
-        <v>486</v>
-      </c>
-      <c r="D220" s="22" t="s">
-        <v>671</v>
-      </c>
+      <c r="C220" s="20"/>
+      <c r="D220" s="20"/>
       <c r="E220" s="20"/>
       <c r="F220" s="20"/>
       <c r="G220" s="18"/>
@@ -15735,16 +15873,10 @@
       <c r="I220" s="18"/>
     </row>
     <row r="221" spans="1:9" ht="19" customHeight="1">
-      <c r="A221" s="19" t="s">
-        <v>487</v>
-      </c>
+      <c r="A221" s="19"/>
       <c r="B221" s="20"/>
-      <c r="C221" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="D221" s="20" t="s">
-        <v>672</v>
-      </c>
+      <c r="C221" s="20"/>
+      <c r="D221" s="20"/>
       <c r="E221" s="20"/>
       <c r="F221" s="20"/>
       <c r="G221" s="18"/>
@@ -15752,32 +15884,28 @@
       <c r="I221" s="18"/>
     </row>
     <row r="222" spans="1:9" ht="19" customHeight="1">
-      <c r="A222" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="B222" s="20"/>
-      <c r="C222" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="D222" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="E222" s="20"/>
-      <c r="F222" s="20"/>
-      <c r="G222" s="18"/>
-      <c r="H222" s="17"/>
-      <c r="I222" s="18"/>
+      <c r="A222" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="B222" s="23"/>
+      <c r="C222" s="23"/>
+      <c r="D222" s="23"/>
+      <c r="E222" s="23"/>
+      <c r="F222" s="23"/>
+      <c r="G222" s="24"/>
+      <c r="H222" s="25"/>
+      <c r="I222" s="24"/>
     </row>
     <row r="223" spans="1:9" ht="19" customHeight="1">
       <c r="A223" s="19" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="D223" s="21" t="s">
-        <v>674</v>
+        <v>485</v>
+      </c>
+      <c r="D223" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="E223" s="20"/>
       <c r="F223" s="20"/>
@@ -15787,14 +15915,14 @@
     </row>
     <row r="224" spans="1:9" ht="19" customHeight="1">
       <c r="A224" s="19" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="20" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="D224" s="22" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E224" s="20"/>
       <c r="F224" s="20"/>
@@ -15804,14 +15932,14 @@
     </row>
     <row r="225" spans="1:9" ht="19" customHeight="1">
       <c r="A225" s="19" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="D225" s="21" t="s">
-        <v>676</v>
+        <v>487</v>
+      </c>
+      <c r="D225" s="20" t="s">
+        <v>672</v>
       </c>
       <c r="E225" s="20"/>
       <c r="F225" s="20"/>
@@ -15821,14 +15949,14 @@
     </row>
     <row r="226" spans="1:9" ht="19" customHeight="1">
       <c r="A226" s="19" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="D226" s="21" t="s">
-        <v>677</v>
+        <v>489</v>
+      </c>
+      <c r="D226" s="22" t="s">
+        <v>673</v>
       </c>
       <c r="E226" s="20"/>
       <c r="F226" s="20"/>
@@ -15838,14 +15966,14 @@
     </row>
     <row r="227" spans="1:9" ht="19" customHeight="1">
       <c r="A227" s="19" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="20" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E227" s="20"/>
       <c r="F227" s="20"/>
@@ -15855,14 +15983,14 @@
     </row>
     <row r="228" spans="1:9" ht="19" customHeight="1">
       <c r="A228" s="19" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B228" s="20"/>
       <c r="C228" s="20" t="s">
-        <v>934</v>
-      </c>
-      <c r="D228" s="21" t="s">
-        <v>935</v>
+        <v>495</v>
+      </c>
+      <c r="D228" s="22" t="s">
+        <v>675</v>
       </c>
       <c r="E228" s="20"/>
       <c r="F228" s="20"/>
@@ -15872,14 +16000,14 @@
     </row>
     <row r="229" spans="1:9" ht="19" customHeight="1">
       <c r="A229" s="19" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B229" s="20"/>
       <c r="C229" s="20" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E229" s="20"/>
       <c r="F229" s="20"/>
@@ -15889,14 +16017,14 @@
     </row>
     <row r="230" spans="1:9" ht="19" customHeight="1">
       <c r="A230" s="19" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="20" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E230" s="20"/>
       <c r="F230" s="20"/>
@@ -15906,14 +16034,14 @@
     </row>
     <row r="231" spans="1:9" ht="19" customHeight="1">
       <c r="A231" s="19" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B231" s="20"/>
       <c r="C231" s="20" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E231" s="20"/>
       <c r="F231" s="20"/>
@@ -15923,14 +16051,14 @@
     </row>
     <row r="232" spans="1:9" ht="19" customHeight="1">
       <c r="A232" s="19" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="20" t="s">
-        <v>510</v>
+        <v>934</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>682</v>
+        <v>935</v>
       </c>
       <c r="E232" s="20"/>
       <c r="F232" s="20"/>
@@ -15940,14 +16068,14 @@
     </row>
     <row r="233" spans="1:9" ht="19" customHeight="1">
       <c r="A233" s="19" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="20" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E233" s="20"/>
       <c r="F233" s="20"/>
@@ -15957,14 +16085,14 @@
     </row>
     <row r="234" spans="1:9" ht="19" customHeight="1">
       <c r="A234" s="19" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="20" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D234" s="21" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
@@ -15974,14 +16102,14 @@
     </row>
     <row r="235" spans="1:9" ht="19" customHeight="1">
       <c r="A235" s="19" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B235" s="20"/>
       <c r="C235" s="20" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D235" s="21" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
@@ -15991,14 +16119,14 @@
     </row>
     <row r="236" spans="1:9" ht="19" customHeight="1">
       <c r="A236" s="19" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B236" s="20"/>
       <c r="C236" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="D236" s="20" t="s">
-        <v>686</v>
+        <v>510</v>
+      </c>
+      <c r="D236" s="21" t="s">
+        <v>682</v>
       </c>
       <c r="E236" s="20"/>
       <c r="F236" s="20"/>
@@ -16008,14 +16136,14 @@
     </row>
     <row r="237" spans="1:9" ht="19" customHeight="1">
       <c r="A237" s="19" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B237" s="20"/>
       <c r="C237" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D237" s="22" t="s">
-        <v>687</v>
+        <v>512</v>
+      </c>
+      <c r="D237" s="21" t="s">
+        <v>683</v>
       </c>
       <c r="E237" s="20"/>
       <c r="F237" s="20"/>
@@ -16025,14 +16153,14 @@
     </row>
     <row r="238" spans="1:9" ht="19" customHeight="1">
       <c r="A238" s="19" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B238" s="20"/>
       <c r="C238" s="20" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D238" s="21" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E238" s="20"/>
       <c r="F238" s="20"/>
@@ -16042,14 +16170,14 @@
     </row>
     <row r="239" spans="1:9" ht="19" customHeight="1">
       <c r="A239" s="19" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="20" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D239" s="20" t="s">
-        <v>1146</v>
+        <v>516</v>
+      </c>
+      <c r="D239" s="21" t="s">
+        <v>685</v>
       </c>
       <c r="E239" s="20"/>
       <c r="F239" s="20"/>
@@ -16059,14 +16187,14 @@
     </row>
     <row r="240" spans="1:9" ht="19" customHeight="1">
       <c r="A240" s="19" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B240" s="20"/>
       <c r="C240" s="20" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E240" s="20"/>
       <c r="F240" s="20"/>
@@ -16076,14 +16204,14 @@
     </row>
     <row r="241" spans="1:9" ht="19" customHeight="1">
       <c r="A241" s="19" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B241" s="20"/>
       <c r="C241" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D241" s="20" t="s">
-        <v>690</v>
+        <v>520</v>
+      </c>
+      <c r="D241" s="22" t="s">
+        <v>687</v>
       </c>
       <c r="E241" s="20"/>
       <c r="F241" s="20"/>
@@ -16093,14 +16221,14 @@
     </row>
     <row r="242" spans="1:9" ht="19" customHeight="1">
       <c r="A242" s="19" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B242" s="20"/>
       <c r="C242" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="D242" s="20" t="s">
-        <v>691</v>
+        <v>522</v>
+      </c>
+      <c r="D242" s="21" t="s">
+        <v>688</v>
       </c>
       <c r="E242" s="20"/>
       <c r="F242" s="20"/>
@@ -16110,14 +16238,14 @@
     </row>
     <row r="243" spans="1:9" ht="19" customHeight="1">
       <c r="A243" s="19" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="20" t="s">
-        <v>531</v>
+        <v>1145</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>692</v>
+        <v>1146</v>
       </c>
       <c r="E243" s="20"/>
       <c r="F243" s="20"/>
@@ -16127,14 +16255,14 @@
     </row>
     <row r="244" spans="1:9" ht="19" customHeight="1">
       <c r="A244" s="19" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="20" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D244" s="20" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E244" s="20"/>
       <c r="F244" s="20"/>
@@ -16144,14 +16272,14 @@
     </row>
     <row r="245" spans="1:9" ht="19" customHeight="1">
       <c r="A245" s="19" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B245" s="20"/>
       <c r="C245" s="20" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E245" s="20"/>
       <c r="F245" s="20"/>
@@ -16161,14 +16289,14 @@
     </row>
     <row r="246" spans="1:9" ht="19" customHeight="1">
       <c r="A246" s="19" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="D246" s="21" t="s">
-        <v>695</v>
+        <v>529</v>
+      </c>
+      <c r="D246" s="20" t="s">
+        <v>691</v>
       </c>
       <c r="E246" s="20"/>
       <c r="F246" s="20"/>
@@ -16178,14 +16306,14 @@
     </row>
     <row r="247" spans="1:9" ht="19" customHeight="1">
       <c r="A247" s="19" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="20" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="D247" s="20" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E247" s="20"/>
       <c r="F247" s="20"/>
@@ -16195,14 +16323,14 @@
     </row>
     <row r="248" spans="1:9" ht="19" customHeight="1">
       <c r="A248" s="19" t="s">
-        <v>1026</v>
+        <v>532</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="20" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D248" s="20" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E248" s="20"/>
       <c r="F248" s="20"/>
@@ -16212,14 +16340,14 @@
     </row>
     <row r="249" spans="1:9" ht="19" customHeight="1">
       <c r="A249" s="19" t="s">
-        <v>1027</v>
+        <v>534</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="20" t="s">
-        <v>541</v>
-      </c>
-      <c r="D249" s="21" t="s">
-        <v>698</v>
+        <v>535</v>
+      </c>
+      <c r="D249" s="20" t="s">
+        <v>694</v>
       </c>
       <c r="E249" s="20"/>
       <c r="F249" s="20"/>
@@ -16229,14 +16357,14 @@
     </row>
     <row r="250" spans="1:9" ht="19" customHeight="1">
       <c r="A250" s="19" t="s">
-        <v>1028</v>
+        <v>536</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="20" t="s">
-        <v>1029</v>
+        <v>537</v>
       </c>
       <c r="D250" s="21" t="s">
-        <v>1030</v>
+        <v>695</v>
       </c>
       <c r="E250" s="20"/>
       <c r="F250" s="20"/>
@@ -16246,14 +16374,14 @@
     </row>
     <row r="251" spans="1:9" ht="19" customHeight="1">
       <c r="A251" s="19" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="20" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
@@ -16263,14 +16391,14 @@
     </row>
     <row r="252" spans="1:9" ht="19" customHeight="1">
       <c r="A252" s="19" t="s">
-        <v>544</v>
+        <v>1026</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="20" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E252" s="20"/>
       <c r="F252" s="20"/>
@@ -16280,14 +16408,14 @@
     </row>
     <row r="253" spans="1:9" ht="19" customHeight="1">
       <c r="A253" s="19" t="s">
-        <v>546</v>
+        <v>1027</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="20" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D253" s="21" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E253" s="20"/>
       <c r="F253" s="20"/>
@@ -16297,14 +16425,14 @@
     </row>
     <row r="254" spans="1:9" ht="19" customHeight="1">
       <c r="A254" s="19" t="s">
-        <v>548</v>
+        <v>1028</v>
       </c>
       <c r="B254" s="20"/>
       <c r="C254" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="D254" s="20" t="s">
-        <v>702</v>
+        <v>1029</v>
+      </c>
+      <c r="D254" s="21" t="s">
+        <v>1030</v>
       </c>
       <c r="E254" s="20"/>
       <c r="F254" s="20"/>
@@ -16314,14 +16442,14 @@
     </row>
     <row r="255" spans="1:9" ht="19" customHeight="1">
       <c r="A255" s="19" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B255" s="20"/>
       <c r="C255" s="20" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E255" s="20"/>
       <c r="F255" s="20"/>
@@ -16331,14 +16459,14 @@
     </row>
     <row r="256" spans="1:9" ht="19" customHeight="1">
       <c r="A256" s="19" t="s">
-        <v>1165</v>
+        <v>544</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="20" t="s">
-        <v>1164</v>
+        <v>545</v>
       </c>
       <c r="D256" s="20" t="s">
-        <v>1163</v>
+        <v>700</v>
       </c>
       <c r="E256" s="20"/>
       <c r="F256" s="20"/>
@@ -16348,14 +16476,14 @@
     </row>
     <row r="257" spans="1:9" ht="19" customHeight="1">
       <c r="A257" s="19" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="20" t="s">
-        <v>553</v>
-      </c>
-      <c r="D257" s="20" t="s">
-        <v>704</v>
+        <v>547</v>
+      </c>
+      <c r="D257" s="21" t="s">
+        <v>701</v>
       </c>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
@@ -16365,14 +16493,14 @@
     </row>
     <row r="258" spans="1:9" ht="19" customHeight="1">
       <c r="A258" s="19" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="20" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D258" s="20" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E258" s="20"/>
       <c r="F258" s="20"/>
@@ -16382,14 +16510,14 @@
     </row>
     <row r="259" spans="1:9" ht="19" customHeight="1">
       <c r="A259" s="19" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="D259" s="21" t="s">
-        <v>706</v>
+        <v>551</v>
+      </c>
+      <c r="D259" s="20" t="s">
+        <v>703</v>
       </c>
       <c r="E259" s="20"/>
       <c r="F259" s="20"/>
@@ -16399,14 +16527,14 @@
     </row>
     <row r="260" spans="1:9" ht="19" customHeight="1">
       <c r="A260" s="19" t="s">
-        <v>558</v>
+        <v>1165</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="20" t="s">
-        <v>559</v>
-      </c>
-      <c r="D260" s="21" t="s">
-        <v>707</v>
+        <v>1164</v>
+      </c>
+      <c r="D260" s="20" t="s">
+        <v>1163</v>
       </c>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
@@ -16416,14 +16544,14 @@
     </row>
     <row r="261" spans="1:9" ht="19" customHeight="1">
       <c r="A261" s="19" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="20" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="D261" s="20" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
@@ -16433,14 +16561,14 @@
     </row>
     <row r="262" spans="1:9" ht="19" customHeight="1">
       <c r="A262" s="19" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="20" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="D262" s="20" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
@@ -16450,14 +16578,14 @@
     </row>
     <row r="263" spans="1:9" ht="19" customHeight="1">
       <c r="A263" s="19" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="20" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D263" s="20" t="s">
-        <v>710</v>
+        <v>557</v>
+      </c>
+      <c r="D263" s="21" t="s">
+        <v>706</v>
       </c>
       <c r="E263" s="20"/>
       <c r="F263" s="20"/>
@@ -16467,14 +16595,14 @@
     </row>
     <row r="264" spans="1:9" ht="19" customHeight="1">
       <c r="A264" s="19" t="s">
-        <v>1108</v>
+        <v>558</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="20" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D264" s="20" t="s">
-        <v>1113</v>
+        <v>559</v>
+      </c>
+      <c r="D264" s="21" t="s">
+        <v>707</v>
       </c>
       <c r="E264" s="20"/>
       <c r="F264" s="20"/>
@@ -16484,14 +16612,14 @@
     </row>
     <row r="265" spans="1:9" ht="19" customHeight="1">
       <c r="A265" s="19" t="s">
-        <v>1121</v>
+        <v>560</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="20" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D265" s="22" t="s">
-        <v>1130</v>
+        <v>561</v>
+      </c>
+      <c r="D265" s="20" t="s">
+        <v>708</v>
       </c>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
@@ -16501,14 +16629,14 @@
     </row>
     <row r="266" spans="1:9" ht="19" customHeight="1">
       <c r="A266" s="19" t="s">
-        <v>1122</v>
+        <v>562</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="20" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D266" s="22" t="s">
-        <v>1128</v>
+        <v>563</v>
+      </c>
+      <c r="D266" s="20" t="s">
+        <v>709</v>
       </c>
       <c r="E266" s="20"/>
       <c r="F266" s="20"/>
@@ -16518,14 +16646,14 @@
     </row>
     <row r="267" spans="1:9" ht="19" customHeight="1">
       <c r="A267" s="19" t="s">
-        <v>1123</v>
+        <v>564</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="20" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D267" s="22" t="s">
-        <v>1126</v>
+        <v>1175</v>
+      </c>
+      <c r="D267" s="20" t="s">
+        <v>710</v>
       </c>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
@@ -16535,14 +16663,14 @@
     </row>
     <row r="268" spans="1:9" ht="19" customHeight="1">
       <c r="A268" s="19" t="s">
-        <v>1124</v>
+        <v>1108</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="20" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D268" s="22" t="s">
-        <v>1174</v>
+        <v>1112</v>
+      </c>
+      <c r="D268" s="20" t="s">
+        <v>1113</v>
       </c>
       <c r="E268" s="20"/>
       <c r="F268" s="20"/>
@@ -16552,14 +16680,14 @@
     </row>
     <row r="269" spans="1:9" ht="19" customHeight="1">
       <c r="A269" s="19" t="s">
-        <v>910</v>
+        <v>1121</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="20" t="s">
-        <v>912</v>
-      </c>
-      <c r="D269" s="20" t="s">
-        <v>911</v>
+        <v>1129</v>
+      </c>
+      <c r="D269" s="22" t="s">
+        <v>1130</v>
       </c>
       <c r="E269" s="20"/>
       <c r="F269" s="20"/>
@@ -16569,14 +16697,14 @@
     </row>
     <row r="270" spans="1:9" ht="19" customHeight="1">
       <c r="A270" s="19" t="s">
-        <v>565</v>
+        <v>1122</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="D270" s="21" t="s">
-        <v>711</v>
+        <v>1127</v>
+      </c>
+      <c r="D270" s="22" t="s">
+        <v>1128</v>
       </c>
       <c r="E270" s="20"/>
       <c r="F270" s="20"/>
@@ -16586,14 +16714,14 @@
     </row>
     <row r="271" spans="1:9" ht="19" customHeight="1">
       <c r="A271" s="19" t="s">
-        <v>567</v>
+        <v>1123</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="D271" s="21" t="s">
-        <v>712</v>
+        <v>1125</v>
+      </c>
+      <c r="D271" s="22" t="s">
+        <v>1126</v>
       </c>
       <c r="E271" s="20"/>
       <c r="F271" s="20"/>
@@ -16603,14 +16731,14 @@
     </row>
     <row r="272" spans="1:9" ht="19" customHeight="1">
       <c r="A272" s="19" t="s">
-        <v>569</v>
+        <v>1124</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="D272" s="20" t="s">
-        <v>713</v>
+        <v>1173</v>
+      </c>
+      <c r="D272" s="22" t="s">
+        <v>1174</v>
       </c>
       <c r="E272" s="20"/>
       <c r="F272" s="20"/>
@@ -16620,14 +16748,14 @@
     </row>
     <row r="273" spans="1:9" ht="19" customHeight="1">
       <c r="A273" s="19" t="s">
-        <v>1109</v>
+        <v>910</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="20" t="s">
-        <v>1131</v>
+        <v>912</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>1132</v>
+        <v>911</v>
       </c>
       <c r="E273" s="20"/>
       <c r="F273" s="20"/>
@@ -16637,14 +16765,14 @@
     </row>
     <row r="274" spans="1:9" ht="19" customHeight="1">
       <c r="A274" s="19" t="s">
-        <v>1110</v>
+        <v>565</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="20" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D274" s="20" t="s">
-        <v>1117</v>
+        <v>566</v>
+      </c>
+      <c r="D274" s="21" t="s">
+        <v>711</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -16654,14 +16782,14 @@
     </row>
     <row r="275" spans="1:9" ht="19" customHeight="1">
       <c r="A275" s="19" t="s">
-        <v>1118</v>
+        <v>567</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="20" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D275" s="20" t="s">
-        <v>1120</v>
+        <v>568</v>
+      </c>
+      <c r="D275" s="21" t="s">
+        <v>712</v>
       </c>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
@@ -16671,14 +16799,14 @@
     </row>
     <row r="276" spans="1:9" ht="19" customHeight="1">
       <c r="A276" s="19" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="20" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D276" s="20" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -16688,14 +16816,14 @@
     </row>
     <row r="277" spans="1:9" ht="19" customHeight="1">
       <c r="A277" s="19" t="s">
-        <v>1031</v>
+        <v>1109</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="20" t="s">
-        <v>1032</v>
+        <v>1131</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>1176</v>
+        <v>1132</v>
       </c>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
@@ -16705,14 +16833,14 @@
     </row>
     <row r="278" spans="1:9" ht="19" customHeight="1">
       <c r="A278" s="19" t="s">
-        <v>571</v>
+        <v>1110</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="20" t="s">
-        <v>572</v>
+        <v>1111</v>
       </c>
       <c r="D278" s="20" t="s">
-        <v>714</v>
+        <v>1117</v>
       </c>
       <c r="E278" s="20"/>
       <c r="F278" s="20"/>
@@ -16722,14 +16850,14 @@
     </row>
     <row r="279" spans="1:9" ht="19" customHeight="1">
       <c r="A279" s="19" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="20" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="D279" s="20" t="s">
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="E279" s="20"/>
       <c r="F279" s="20"/>
@@ -16739,14 +16867,14 @@
     </row>
     <row r="280" spans="1:9" ht="19" customHeight="1">
       <c r="A280" s="19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="20" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D280" s="20" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E280" s="20"/>
       <c r="F280" s="20"/>
@@ -16756,14 +16884,14 @@
     </row>
     <row r="281" spans="1:9" ht="19" customHeight="1">
       <c r="A281" s="19" t="s">
-        <v>577</v>
+        <v>1031</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="20" t="s">
-        <v>578</v>
+        <v>1032</v>
       </c>
       <c r="D281" s="20" t="s">
-        <v>717</v>
+        <v>1176</v>
       </c>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
@@ -16773,14 +16901,14 @@
     </row>
     <row r="282" spans="1:9" ht="19" customHeight="1">
       <c r="A282" s="19" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="D282" s="21" t="s">
-        <v>718</v>
+        <v>572</v>
+      </c>
+      <c r="D282" s="20" t="s">
+        <v>714</v>
       </c>
       <c r="E282" s="20"/>
       <c r="F282" s="20"/>
@@ -16790,14 +16918,14 @@
     </row>
     <row r="283" spans="1:9" ht="19" customHeight="1">
       <c r="A283" s="19" t="s">
-        <v>581</v>
+        <v>1114</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="D283" s="21" t="s">
-        <v>719</v>
+        <v>1116</v>
+      </c>
+      <c r="D283" s="20" t="s">
+        <v>1115</v>
       </c>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
@@ -16807,14 +16935,14 @@
     </row>
     <row r="284" spans="1:9" ht="19" customHeight="1">
       <c r="A284" s="19" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="20" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D284" s="20" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E284" s="20"/>
       <c r="F284" s="20"/>
@@ -16824,14 +16952,14 @@
     </row>
     <row r="285" spans="1:9" ht="19" customHeight="1">
       <c r="A285" s="19" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="D285" s="21" t="s">
-        <v>721</v>
+        <v>578</v>
+      </c>
+      <c r="D285" s="20" t="s">
+        <v>717</v>
       </c>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
@@ -16841,14 +16969,14 @@
     </row>
     <row r="286" spans="1:9" ht="19" customHeight="1">
       <c r="A286" s="19" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="20" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D286" s="21" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E286" s="20"/>
       <c r="F286" s="20"/>
@@ -16858,14 +16986,14 @@
     </row>
     <row r="287" spans="1:9" ht="19" customHeight="1">
       <c r="A287" s="19" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="20" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="D287" s="21" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
@@ -16875,14 +17003,14 @@
     </row>
     <row r="288" spans="1:9" ht="19" customHeight="1">
       <c r="A288" s="19" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="20" t="s">
-        <v>592</v>
-      </c>
-      <c r="D288" s="21" t="s">
-        <v>724</v>
+        <v>584</v>
+      </c>
+      <c r="D288" s="20" t="s">
+        <v>720</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -16892,14 +17020,14 @@
     </row>
     <row r="289" spans="1:9" ht="19" customHeight="1">
       <c r="A289" s="19" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="20" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E289" s="20"/>
       <c r="F289" s="20"/>
@@ -16909,14 +17037,14 @@
     </row>
     <row r="290" spans="1:9" ht="19" customHeight="1">
       <c r="A290" s="19" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="20" t="s">
-        <v>596</v>
-      </c>
-      <c r="D290" s="20" t="s">
-        <v>726</v>
+        <v>588</v>
+      </c>
+      <c r="D290" s="21" t="s">
+        <v>722</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -16926,14 +17054,14 @@
     </row>
     <row r="291" spans="1:9" ht="19" customHeight="1">
       <c r="A291" s="19" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="20" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E291" s="20"/>
       <c r="F291" s="20"/>
@@ -16943,14 +17071,14 @@
     </row>
     <row r="292" spans="1:9" ht="19" customHeight="1">
       <c r="A292" s="19" t="s">
-        <v>951</v>
+        <v>591</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="20" t="s">
-        <v>952</v>
-      </c>
-      <c r="D292" s="20" t="s">
-        <v>953</v>
+        <v>592</v>
+      </c>
+      <c r="D292" s="21" t="s">
+        <v>724</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -16960,14 +17088,14 @@
     </row>
     <row r="293" spans="1:9" ht="19" customHeight="1">
       <c r="A293" s="19" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="20" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D293" s="21" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E293" s="20"/>
       <c r="F293" s="20"/>
@@ -16977,14 +17105,14 @@
     </row>
     <row r="294" spans="1:9" ht="19" customHeight="1">
       <c r="A294" s="19" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="20" t="s">
-        <v>602</v>
-      </c>
-      <c r="D294" s="21" t="s">
-        <v>729</v>
+        <v>596</v>
+      </c>
+      <c r="D294" s="20" t="s">
+        <v>726</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -16994,14 +17122,14 @@
     </row>
     <row r="295" spans="1:9" ht="19" customHeight="1">
       <c r="A295" s="19" t="s">
-        <v>1023</v>
+        <v>597</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="20" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D295" s="20" t="s">
-        <v>1025</v>
+        <v>598</v>
+      </c>
+      <c r="D295" s="21" t="s">
+        <v>727</v>
       </c>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
@@ -17011,14 +17139,14 @@
     </row>
     <row r="296" spans="1:9" ht="19" customHeight="1">
       <c r="A296" s="19" t="s">
-        <v>603</v>
+        <v>951</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="20" t="s">
-        <v>604</v>
-      </c>
-      <c r="D296" s="21" t="s">
-        <v>730</v>
+        <v>952</v>
+      </c>
+      <c r="D296" s="20" t="s">
+        <v>953</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -17028,14 +17156,14 @@
     </row>
     <row r="297" spans="1:9" ht="19" customHeight="1">
       <c r="A297" s="19" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="20" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
@@ -17045,14 +17173,14 @@
     </row>
     <row r="298" spans="1:9" ht="19" customHeight="1">
       <c r="A298" s="19" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="D298" s="20" t="s">
-        <v>732</v>
+        <v>602</v>
+      </c>
+      <c r="D298" s="21" t="s">
+        <v>729</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -17062,14 +17190,14 @@
     </row>
     <row r="299" spans="1:9" ht="19" customHeight="1">
       <c r="A299" s="19" t="s">
-        <v>609</v>
+        <v>1023</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="20" t="s">
-        <v>610</v>
+        <v>1024</v>
       </c>
       <c r="D299" s="20" t="s">
-        <v>733</v>
+        <v>1025</v>
       </c>
       <c r="E299" s="20"/>
       <c r="F299" s="20"/>
@@ -17079,14 +17207,14 @@
     </row>
     <row r="300" spans="1:9" ht="19" customHeight="1">
       <c r="A300" s="19" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="20" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="D300" s="21" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E300" s="20"/>
       <c r="F300" s="20"/>
@@ -17096,14 +17224,14 @@
     </row>
     <row r="301" spans="1:9" ht="19" customHeight="1">
       <c r="A301" s="19" t="s">
-        <v>1079</v>
+        <v>605</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="20" t="s">
-        <v>1080</v>
+        <v>606</v>
       </c>
       <c r="D301" s="21" t="s">
-        <v>1081</v>
+        <v>731</v>
       </c>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
@@ -17113,14 +17241,14 @@
     </row>
     <row r="302" spans="1:9" ht="19" customHeight="1">
       <c r="A302" s="19" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="D302" s="22" t="s">
-        <v>735</v>
+        <v>608</v>
+      </c>
+      <c r="D302" s="20" t="s">
+        <v>732</v>
       </c>
       <c r="E302" s="20"/>
       <c r="F302" s="20"/>
@@ -17130,14 +17258,14 @@
     </row>
     <row r="303" spans="1:9" ht="19" customHeight="1">
       <c r="A303" s="19" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="D303" s="21" t="s">
-        <v>936</v>
+        <v>610</v>
+      </c>
+      <c r="D303" s="20" t="s">
+        <v>733</v>
       </c>
       <c r="E303" s="20"/>
       <c r="F303" s="20"/>
@@ -17147,14 +17275,14 @@
     </row>
     <row r="304" spans="1:9" ht="19" customHeight="1">
       <c r="A304" s="19" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="20" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D304" s="21" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E304" s="20"/>
       <c r="F304" s="20"/>
@@ -17164,14 +17292,14 @@
     </row>
     <row r="305" spans="1:9" ht="19" customHeight="1">
       <c r="A305" s="19" t="s">
-        <v>619</v>
+        <v>1079</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="D305" s="20" t="s">
-        <v>737</v>
+        <v>1080</v>
+      </c>
+      <c r="D305" s="21" t="s">
+        <v>1081</v>
       </c>
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
@@ -17181,14 +17309,14 @@
     </row>
     <row r="306" spans="1:9" ht="19" customHeight="1">
       <c r="A306" s="19" t="s">
-        <v>948</v>
+        <v>613</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="20" t="s">
-        <v>949</v>
-      </c>
-      <c r="D306" s="20" t="s">
-        <v>950</v>
+        <v>614</v>
+      </c>
+      <c r="D306" s="22" t="s">
+        <v>735</v>
       </c>
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
@@ -17198,14 +17326,14 @@
     </row>
     <row r="307" spans="1:9" ht="19" customHeight="1">
       <c r="A307" s="19" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="20" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>738</v>
+        <v>936</v>
       </c>
       <c r="E307" s="20"/>
       <c r="F307" s="20"/>
@@ -17215,14 +17343,14 @@
     </row>
     <row r="308" spans="1:9" ht="19" customHeight="1">
       <c r="A308" s="19" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="20" t="s">
-        <v>954</v>
+        <v>618</v>
       </c>
       <c r="D308" s="21" t="s">
-        <v>955</v>
+        <v>736</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -17232,14 +17360,14 @@
     </row>
     <row r="309" spans="1:9" ht="19" customHeight="1">
       <c r="A309" s="19" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="20" t="s">
-        <v>625</v>
-      </c>
-      <c r="D309" s="21" t="s">
-        <v>739</v>
+        <v>620</v>
+      </c>
+      <c r="D309" s="20" t="s">
+        <v>737</v>
       </c>
       <c r="E309" s="20"/>
       <c r="F309" s="20"/>
@@ -17249,14 +17377,14 @@
     </row>
     <row r="310" spans="1:9" ht="19" customHeight="1">
       <c r="A310" s="19" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="20" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="D310" s="20" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="E310" s="20"/>
       <c r="F310" s="20"/>
@@ -17266,14 +17394,14 @@
     </row>
     <row r="311" spans="1:9" ht="19" customHeight="1">
       <c r="A311" s="19" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="20" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D311" s="21" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E311" s="20"/>
       <c r="F311" s="20"/>
@@ -17283,14 +17411,14 @@
     </row>
     <row r="312" spans="1:9" ht="19" customHeight="1">
       <c r="A312" s="19" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="20" t="s">
-        <v>629</v>
+        <v>954</v>
       </c>
       <c r="D312" s="21" t="s">
-        <v>741</v>
+        <v>955</v>
       </c>
       <c r="E312" s="20"/>
       <c r="F312" s="20"/>
@@ -17300,14 +17428,14 @@
     </row>
     <row r="313" spans="1:9" ht="19" customHeight="1">
       <c r="A313" s="19" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="20" t="s">
-        <v>631</v>
-      </c>
-      <c r="D313" s="20" t="s">
-        <v>742</v>
+        <v>625</v>
+      </c>
+      <c r="D313" s="21" t="s">
+        <v>739</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -17317,14 +17445,14 @@
     </row>
     <row r="314" spans="1:9" ht="19" customHeight="1">
       <c r="A314" s="19" t="s">
-        <v>632</v>
+        <v>956</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="20" t="s">
-        <v>633</v>
-      </c>
-      <c r="D314" s="21" t="s">
-        <v>743</v>
+        <v>957</v>
+      </c>
+      <c r="D314" s="20" t="s">
+        <v>958</v>
       </c>
       <c r="E314" s="20"/>
       <c r="F314" s="20"/>
@@ -17334,14 +17462,14 @@
     </row>
     <row r="315" spans="1:9" ht="19" customHeight="1">
       <c r="A315" s="19" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="20" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E315" s="20"/>
       <c r="F315" s="20"/>
@@ -17351,14 +17479,14 @@
     </row>
     <row r="316" spans="1:9" ht="19" customHeight="1">
       <c r="A316" s="19" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="20" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D316" s="21" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E316" s="20"/>
       <c r="F316" s="20"/>
@@ -17368,14 +17496,14 @@
     </row>
     <row r="317" spans="1:9" ht="19" customHeight="1">
       <c r="A317" s="19" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="20" t="s">
-        <v>639</v>
-      </c>
-      <c r="D317" s="22" t="s">
-        <v>746</v>
+        <v>631</v>
+      </c>
+      <c r="D317" s="20" t="s">
+        <v>742</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -17385,14 +17513,14 @@
     </row>
     <row r="318" spans="1:9" ht="19" customHeight="1">
       <c r="A318" s="19" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="20" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E318" s="20"/>
       <c r="F318" s="20"/>
@@ -17402,14 +17530,14 @@
     </row>
     <row r="319" spans="1:9" ht="19" customHeight="1">
       <c r="A319" s="19" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="20" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="D319" s="21" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E319" s="20"/>
       <c r="F319" s="20"/>
@@ -17419,14 +17547,14 @@
     </row>
     <row r="320" spans="1:9" ht="19" customHeight="1">
       <c r="A320" s="19" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="20" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D320" s="21" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -17436,14 +17564,14 @@
     </row>
     <row r="321" spans="1:9" ht="19" customHeight="1">
       <c r="A321" s="19" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="20" t="s">
-        <v>647</v>
-      </c>
-      <c r="D321" s="21" t="s">
-        <v>750</v>
+        <v>639</v>
+      </c>
+      <c r="D321" s="22" t="s">
+        <v>746</v>
       </c>
       <c r="E321" s="20"/>
       <c r="F321" s="20"/>
@@ -17453,14 +17581,14 @@
     </row>
     <row r="322" spans="1:9" ht="19" customHeight="1">
       <c r="A322" s="19" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="20" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D322" s="21" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E322" s="20"/>
       <c r="F322" s="20"/>
@@ -17470,14 +17598,14 @@
     </row>
     <row r="323" spans="1:9" ht="19" customHeight="1">
       <c r="A323" s="19" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="20" t="s">
-        <v>651</v>
-      </c>
-      <c r="D323" s="20" t="s">
-        <v>752</v>
+        <v>642</v>
+      </c>
+      <c r="D323" s="21" t="s">
+        <v>748</v>
       </c>
       <c r="E323" s="20"/>
       <c r="F323" s="20"/>
@@ -17487,14 +17615,14 @@
     </row>
     <row r="324" spans="1:9" ht="19" customHeight="1">
       <c r="A324" s="19" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B324" s="20"/>
-      <c r="C324" s="27" t="s">
-        <v>653</v>
-      </c>
-      <c r="D324" s="27" t="s">
-        <v>753</v>
+      <c r="C324" s="20" t="s">
+        <v>645</v>
+      </c>
+      <c r="D324" s="21" t="s">
+        <v>749</v>
       </c>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
@@ -17504,14 +17632,14 @@
     </row>
     <row r="325" spans="1:9" ht="19" customHeight="1">
       <c r="A325" s="19" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="20" t="s">
-        <v>655</v>
-      </c>
-      <c r="D325" s="20" t="s">
-        <v>754</v>
+        <v>647</v>
+      </c>
+      <c r="D325" s="21" t="s">
+        <v>750</v>
       </c>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
@@ -17521,14 +17649,14 @@
     </row>
     <row r="326" spans="1:9" ht="19" customHeight="1">
       <c r="A326" s="19" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="20" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D326" s="21" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E326" s="20"/>
       <c r="F326" s="20"/>
@@ -17538,14 +17666,14 @@
     </row>
     <row r="327" spans="1:9" ht="19" customHeight="1">
       <c r="A327" s="19" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="20" t="s">
-        <v>659</v>
-      </c>
-      <c r="D327" s="21" t="s">
-        <v>756</v>
+        <v>651</v>
+      </c>
+      <c r="D327" s="20" t="s">
+        <v>752</v>
       </c>
       <c r="E327" s="20"/>
       <c r="F327" s="20"/>
@@ -17555,14 +17683,14 @@
     </row>
     <row r="328" spans="1:9" ht="19" customHeight="1">
       <c r="A328" s="19" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="B328" s="20"/>
-      <c r="C328" s="20" t="s">
-        <v>661</v>
-      </c>
-      <c r="D328" s="21" t="s">
-        <v>757</v>
+      <c r="C328" s="27" t="s">
+        <v>653</v>
+      </c>
+      <c r="D328" s="27" t="s">
+        <v>753</v>
       </c>
       <c r="E328" s="20"/>
       <c r="F328" s="20"/>
@@ -17572,14 +17700,14 @@
     </row>
     <row r="329" spans="1:9" ht="19" customHeight="1">
       <c r="A329" s="19" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="20" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="D329" s="20" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="E329" s="20"/>
       <c r="F329" s="20"/>
@@ -17589,14 +17717,14 @@
     </row>
     <row r="330" spans="1:9" ht="19" customHeight="1">
       <c r="A330" s="19" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="D330" s="22" t="s">
-        <v>759</v>
+        <v>657</v>
+      </c>
+      <c r="D330" s="21" t="s">
+        <v>755</v>
       </c>
       <c r="E330" s="20"/>
       <c r="F330" s="20"/>
@@ -17606,14 +17734,14 @@
     </row>
     <row r="331" spans="1:9" ht="19" customHeight="1">
       <c r="A331" s="19" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="20" t="s">
-        <v>667</v>
-      </c>
-      <c r="D331" s="20" t="s">
-        <v>760</v>
+        <v>659</v>
+      </c>
+      <c r="D331" s="21" t="s">
+        <v>756</v>
       </c>
       <c r="E331" s="20"/>
       <c r="F331" s="20"/>
@@ -17623,14 +17751,14 @@
     </row>
     <row r="332" spans="1:9" ht="19" customHeight="1">
       <c r="A332" s="19" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="20" t="s">
-        <v>669</v>
-      </c>
-      <c r="D332" s="20" t="s">
-        <v>761</v>
+        <v>661</v>
+      </c>
+      <c r="D332" s="21" t="s">
+        <v>757</v>
       </c>
       <c r="E332" s="20"/>
       <c r="F332" s="20"/>
@@ -17640,14 +17768,14 @@
     </row>
     <row r="333" spans="1:9" ht="19" customHeight="1">
       <c r="A333" s="19" t="s">
-        <v>945</v>
+        <v>662</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="20" t="s">
-        <v>946</v>
+        <v>663</v>
       </c>
       <c r="D333" s="20" t="s">
-        <v>947</v>
+        <v>758</v>
       </c>
       <c r="E333" s="20"/>
       <c r="F333" s="20"/>
@@ -17657,14 +17785,14 @@
     </row>
     <row r="334" spans="1:9" ht="19" customHeight="1">
       <c r="A334" s="19" t="s">
-        <v>1071</v>
+        <v>664</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="20" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D334" s="20" t="s">
-        <v>1073</v>
+        <v>665</v>
+      </c>
+      <c r="D334" s="22" t="s">
+        <v>759</v>
       </c>
       <c r="E334" s="20"/>
       <c r="F334" s="20"/>
@@ -17674,14 +17802,14 @@
     </row>
     <row r="335" spans="1:9" ht="19" customHeight="1">
       <c r="A335" s="19" t="s">
-        <v>1139</v>
+        <v>666</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="20" t="s">
-        <v>1140</v>
+        <v>667</v>
       </c>
       <c r="D335" s="20" t="s">
-        <v>1141</v>
+        <v>760</v>
       </c>
       <c r="E335" s="20"/>
       <c r="F335" s="20"/>
@@ -17691,14 +17819,14 @@
     </row>
     <row r="336" spans="1:9" ht="19" customHeight="1">
       <c r="A336" s="19" t="s">
-        <v>1133</v>
+        <v>668</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="20" t="s">
-        <v>1134</v>
+        <v>669</v>
       </c>
       <c r="D336" s="20" t="s">
-        <v>1135</v>
+        <v>761</v>
       </c>
       <c r="E336" s="20"/>
       <c r="F336" s="20"/>
@@ -17708,14 +17836,14 @@
     </row>
     <row r="337" spans="1:9" ht="19" customHeight="1">
       <c r="A337" s="19" t="s">
-        <v>1136</v>
+        <v>945</v>
       </c>
       <c r="B337" s="20"/>
       <c r="C337" s="20" t="s">
-        <v>1137</v>
+        <v>946</v>
       </c>
       <c r="D337" s="20" t="s">
-        <v>1138</v>
+        <v>947</v>
       </c>
       <c r="E337" s="20"/>
       <c r="F337" s="20"/>
@@ -17725,14 +17853,14 @@
     </row>
     <row r="338" spans="1:9" ht="19" customHeight="1">
       <c r="A338" s="19" t="s">
-        <v>1142</v>
+        <v>1071</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="20" t="s">
-        <v>1143</v>
+        <v>1072</v>
       </c>
       <c r="D338" s="20" t="s">
-        <v>1144</v>
+        <v>1073</v>
       </c>
       <c r="E338" s="20"/>
       <c r="F338" s="20"/>
@@ -17742,14 +17870,14 @@
     </row>
     <row r="339" spans="1:9" ht="19" customHeight="1">
       <c r="A339" s="19" t="s">
-        <v>1154</v>
+        <v>1139</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="20" t="s">
-        <v>1156</v>
+        <v>1140</v>
       </c>
       <c r="D339" s="20" t="s">
-        <v>1155</v>
+        <v>1141</v>
       </c>
       <c r="E339" s="20"/>
       <c r="F339" s="20"/>
@@ -17759,14 +17887,14 @@
     </row>
     <row r="340" spans="1:9" ht="19" customHeight="1">
       <c r="A340" s="19" t="s">
-        <v>1157</v>
+        <v>1133</v>
       </c>
       <c r="B340" s="20"/>
       <c r="C340" s="20" t="s">
-        <v>1158</v>
+        <v>1134</v>
       </c>
       <c r="D340" s="20" t="s">
-        <v>1159</v>
+        <v>1135</v>
       </c>
       <c r="E340" s="20"/>
       <c r="F340" s="20"/>
@@ -17776,14 +17904,14 @@
     </row>
     <row r="341" spans="1:9" ht="19" customHeight="1">
       <c r="A341" s="19" t="s">
-        <v>1160</v>
+        <v>1136</v>
       </c>
       <c r="B341" s="20"/>
       <c r="C341" s="20" t="s">
-        <v>1161</v>
+        <v>1137</v>
       </c>
       <c r="D341" s="20" t="s">
-        <v>1162</v>
+        <v>1138</v>
       </c>
       <c r="E341" s="20"/>
       <c r="F341" s="20"/>
@@ -17793,14 +17921,14 @@
     </row>
     <row r="342" spans="1:9" ht="19" customHeight="1">
       <c r="A342" s="19" t="s">
-        <v>1166</v>
+        <v>1142</v>
       </c>
       <c r="B342" s="20"/>
       <c r="C342" s="20" t="s">
-        <v>1167</v>
+        <v>1143</v>
       </c>
       <c r="D342" s="20" t="s">
-        <v>1168</v>
+        <v>1144</v>
       </c>
       <c r="E342" s="20"/>
       <c r="F342" s="20"/>
@@ -17809,10 +17937,16 @@
       <c r="I342" s="18"/>
     </row>
     <row r="343" spans="1:9" ht="19" customHeight="1">
-      <c r="A343" s="19"/>
+      <c r="A343" s="19" t="s">
+        <v>1154</v>
+      </c>
       <c r="B343" s="20"/>
-      <c r="C343" s="20"/>
-      <c r="D343" s="20"/>
+      <c r="C343" s="20" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D343" s="20" t="s">
+        <v>1155</v>
+      </c>
       <c r="E343" s="20"/>
       <c r="F343" s="20"/>
       <c r="G343" s="18"/>
@@ -17820,10 +17954,16 @@
       <c r="I343" s="18"/>
     </row>
     <row r="344" spans="1:9" ht="19" customHeight="1">
-      <c r="A344" s="19"/>
+      <c r="A344" s="19" t="s">
+        <v>1157</v>
+      </c>
       <c r="B344" s="20"/>
-      <c r="C344" s="20"/>
-      <c r="D344" s="20"/>
+      <c r="C344" s="20" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D344" s="20" t="s">
+        <v>1159</v>
+      </c>
       <c r="E344" s="20"/>
       <c r="F344" s="20"/>
       <c r="G344" s="18"/>
@@ -17831,10 +17971,16 @@
       <c r="I344" s="18"/>
     </row>
     <row r="345" spans="1:9" ht="19" customHeight="1">
-      <c r="A345" s="19"/>
+      <c r="A345" s="19" t="s">
+        <v>1160</v>
+      </c>
       <c r="B345" s="20"/>
-      <c r="C345" s="20"/>
-      <c r="D345" s="20"/>
+      <c r="C345" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D345" s="20" t="s">
+        <v>1162</v>
+      </c>
       <c r="E345" s="20"/>
       <c r="F345" s="20"/>
       <c r="G345" s="18"/>
@@ -17842,10 +17988,16 @@
       <c r="I345" s="18"/>
     </row>
     <row r="346" spans="1:9" ht="19" customHeight="1">
-      <c r="A346" s="19"/>
+      <c r="A346" s="19" t="s">
+        <v>1166</v>
+      </c>
       <c r="B346" s="20"/>
-      <c r="C346" s="20"/>
-      <c r="D346" s="20"/>
+      <c r="C346" s="20" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D346" s="20" t="s">
+        <v>1168</v>
+      </c>
       <c r="E346" s="20"/>
       <c r="F346" s="20"/>
       <c r="G346" s="18"/>
@@ -18424,15 +18576,59 @@
       <c r="H398" s="17"/>
       <c r="I398" s="18"/>
     </row>
+    <row r="399" spans="1:9" ht="19" customHeight="1">
+      <c r="A399" s="19"/>
+      <c r="B399" s="20"/>
+      <c r="C399" s="20"/>
+      <c r="D399" s="20"/>
+      <c r="E399" s="20"/>
+      <c r="F399" s="20"/>
+      <c r="G399" s="18"/>
+      <c r="H399" s="17"/>
+      <c r="I399" s="18"/>
+    </row>
+    <row r="400" spans="1:9" ht="19" customHeight="1">
+      <c r="A400" s="19"/>
+      <c r="B400" s="20"/>
+      <c r="C400" s="20"/>
+      <c r="D400" s="20"/>
+      <c r="E400" s="20"/>
+      <c r="F400" s="20"/>
+      <c r="G400" s="18"/>
+      <c r="H400" s="17"/>
+      <c r="I400" s="18"/>
+    </row>
+    <row r="401" spans="1:9" ht="19" customHeight="1">
+      <c r="A401" s="19"/>
+      <c r="B401" s="20"/>
+      <c r="C401" s="20"/>
+      <c r="D401" s="20"/>
+      <c r="E401" s="20"/>
+      <c r="F401" s="20"/>
+      <c r="G401" s="18"/>
+      <c r="H401" s="17"/>
+      <c r="I401" s="18"/>
+    </row>
+    <row r="402" spans="1:9" ht="19" customHeight="1">
+      <c r="A402" s="19"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
+      <c r="D402" s="20"/>
+      <c r="E402" s="20"/>
+      <c r="F402" s="20"/>
+      <c r="G402" s="18"/>
+      <c r="H402" s="17"/>
+      <c r="I402" s="18"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:J211" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
+  <autoFilter ref="A4:J215" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A236:E237 E223:G223 A223:C235 A260:E261 A296:E297 A318:E319 A320:C332 E320:E332 E224:E235 B65:G65 D117:D135 I8:I28 A8:G28 E238:E259 A117:C143 E117:G143 D140:D143 A30:G64 A219:G222 E262 F224:G262 E276:E295 D277 E298:E317 A298:C317 F276:G335 A333:E335 E263:G275 I219:I398 A262:C295 A238:C259 A336:G398 A144:G217 I30:I217 A66:G116">
+  <conditionalFormatting sqref="A240:E241 E227:G227 A227:C239 A264:E265 A300:E301 A322:E323 A324:C336 E324:E336 E228:E239 B65:G65 D121:D139 I8:I28 A8:G28 E242:E263 A121:C147 E121:G147 D144:D147 A30:G64 A223:G226 E266 F228:G266 E280:E299 D281 E302:E321 A302:C321 F280:G339 A337:E339 E267:G279 I223:I402 A266:C299 A242:C263 A340:G402 A148:G221 I30:I221 A66:G120">
     <cfRule type="expression" dxfId="136" priority="262">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H30:H85 H219:H398 H117:H217 H87:H114">
+  <conditionalFormatting sqref="H8:H28 H30:H85 H223:H402 H121:H221 H87:H118">
     <cfRule type="cellIs" dxfId="135" priority="217" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
@@ -18446,7 +18642,7 @@
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H30:H85 H219:H398 H117:H217 H87:H114">
+  <conditionalFormatting sqref="H8:H28 H30:H85 H223:H402 H121:H221 H87:H118">
     <cfRule type="cellIs" dxfId="131" priority="218" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -18463,19 +18659,19 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H30:H85 H219:H398 H117:H217 H87:H114">
+  <conditionalFormatting sqref="H8:H28 H30:H85 H223:H402 H121:H221 H87:H118">
     <cfRule type="cellIs" dxfId="126" priority="220" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D136:D137">
+  <conditionalFormatting sqref="D140:D141">
     <cfRule type="expression" dxfId="125" priority="141">
-      <formula>$G136&lt;&gt;""</formula>
+      <formula>$G140&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D138:D139">
+  <conditionalFormatting sqref="D142:D143">
     <cfRule type="expression" dxfId="124" priority="140">
-      <formula>$G138&lt;&gt;""</formula>
+      <formula>$G142&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5 I5 A5">
@@ -18524,26 +18720,26 @@
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C218:G218 I218 A218">
+  <conditionalFormatting sqref="C222:G222 I222 A222">
     <cfRule type="expression" dxfId="111" priority="122">
-      <formula>$G218&lt;&gt;""</formula>
+      <formula>$G222&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H218">
+  <conditionalFormatting sqref="H222">
     <cfRule type="cellIs" dxfId="110" priority="112" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="109" priority="119" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",H218)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",H222)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="108" priority="120" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",H218)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",H222)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="107" priority="121" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H218)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H222)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H218">
+  <conditionalFormatting sqref="H222">
     <cfRule type="cellIs" dxfId="106" priority="113" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -18560,19 +18756,19 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H218">
+  <conditionalFormatting sqref="H222">
     <cfRule type="cellIs" dxfId="101" priority="115" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B218">
+  <conditionalFormatting sqref="B222">
     <cfRule type="expression" dxfId="100" priority="111">
-      <formula>$G218&lt;&gt;""</formula>
+      <formula>$G222&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D311:D332 D223:D244 D247 D296:D298 D302:D303 D270 D305:D307 D278:D289 D251:D253 D257:D261">
+  <conditionalFormatting sqref="D315:D336 D227:D248 D251 D300:D302 D306:D307 D274 D309:D311 D282:D293 D255:D257 D261:D265">
     <cfRule type="expression" dxfId="99" priority="264">
-      <formula>$G225&lt;&gt;""</formula>
+      <formula>$G229&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6 I6 C6:G6">
@@ -18677,21 +18873,21 @@
       <formula>$G65&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H115:H116">
+  <conditionalFormatting sqref="H119:H120">
     <cfRule type="cellIs" dxfId="72" priority="48" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="71" priority="55" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",H115)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",H119)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="70" priority="56" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",H115)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",H119)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="69" priority="57" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H115)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H119)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H115:H116">
+  <conditionalFormatting sqref="H119:H120">
     <cfRule type="cellIs" dxfId="68" priority="49" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -18708,7 +18904,7 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H115:H116">
+  <conditionalFormatting sqref="H119:H120">
     <cfRule type="cellIs" dxfId="63" priority="51" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
@@ -18754,9 +18950,9 @@
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D308:D310 D293:D295 D290:D291 D248:D250 D299:D301 D269 D254:D256">
+  <conditionalFormatting sqref="D312:D314 D297:D299 D294:D295 D252:D254 D303:D305 D273 D258:D260">
     <cfRule type="expression" dxfId="51" priority="267">
-      <formula>$G251&lt;&gt;""</formula>
+      <formula>$G255&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
@@ -18795,59 +18991,59 @@
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D292 D272">
+  <conditionalFormatting sqref="D296 D276">
     <cfRule type="expression" dxfId="40" priority="271">
-      <formula>$G276&lt;&gt;""</formula>
+      <formula>$G280&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D246">
+  <conditionalFormatting sqref="D250">
     <cfRule type="expression" dxfId="39" priority="302">
-      <formula>$G247&lt;&gt;""</formula>
+      <formula>$G251&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D245">
+  <conditionalFormatting sqref="D249">
     <cfRule type="expression" dxfId="38" priority="303">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D262:D268">
+  <conditionalFormatting sqref="D266:D272">
     <cfRule type="expression" dxfId="37" priority="305">
-      <formula>$G270&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D265">
-    <cfRule type="expression" dxfId="36" priority="339">
-      <formula>$G270&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D273">
-    <cfRule type="expression" dxfId="35" priority="2">
-      <formula>$G273&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D274:D275">
-    <cfRule type="expression" dxfId="34" priority="1">
       <formula>$G274&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D304">
+  <conditionalFormatting sqref="D269">
+    <cfRule type="expression" dxfId="36" priority="339">
+      <formula>$G274&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D277">
+    <cfRule type="expression" dxfId="35" priority="2">
+      <formula>$G277&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D278:D279">
+    <cfRule type="expression" dxfId="34" priority="1">
+      <formula>$G278&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D308">
     <cfRule type="expression" dxfId="33" priority="371">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D276">
+  <conditionalFormatting sqref="D280">
     <cfRule type="expression" dxfId="32" priority="372">
-      <formula>$G281&lt;&gt;""</formula>
+      <formula>$G285&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D271">
+  <conditionalFormatting sqref="D275">
     <cfRule type="expression" dxfId="31" priority="374">
-      <formula>$G278&lt;&gt;""</formula>
+      <formula>$G282&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D266:D268">
+  <conditionalFormatting sqref="D270:D272">
     <cfRule type="expression" dxfId="30" priority="376">
-      <formula>$G270&lt;&gt;""</formula>
+      <formula>$G274&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24645733-C574-C549-9865-25CFDFBC2328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1E91BF-76D6-E34E-A72E-C899FB078191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35740" yWindow="1980" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="1196">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -10128,6 +10128,24 @@
   </si>
   <si>
     <t>${subject} is greater than or equal to ${expected}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>invalidScreenWeight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid weight(weight=${subject}). Check screen file. (file=${file})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weightが不正です。screenファイルを確認してください。(file=${file})</t>
+    <rPh sb="7" eb="9">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニn</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11751,8 +11769,8 @@
   <dimension ref="A1:I402"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
+      <pane ySplit="4" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A347" sqref="A347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>
@@ -18005,10 +18023,16 @@
       <c r="I346" s="18"/>
     </row>
     <row r="347" spans="1:9" ht="19" customHeight="1">
-      <c r="A347" s="19"/>
+      <c r="A347" s="19" t="s">
+        <v>1193</v>
+      </c>
       <c r="B347" s="20"/>
-      <c r="C347" s="20"/>
-      <c r="D347" s="20"/>
+      <c r="C347" s="20" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D347" s="20" t="s">
+        <v>1195</v>
+      </c>
       <c r="E347" s="20"/>
       <c r="F347" s="20"/>
       <c r="G347" s="18"/>
@@ -18623,7 +18647,7 @@
   </sheetData>
   <autoFilter ref="A4:J215" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A240:E241 E227:G227 A227:C239 A264:E265 A300:E301 A322:E323 A324:C336 E324:E336 E228:E239 B65:G65 D121:D139 I8:I28 A8:G28 E242:E263 A121:C147 E121:G147 D144:D147 A30:G64 A223:G226 E266 F228:G266 E280:E299 D281 E302:E321 A302:C321 F280:G339 A337:E339 E267:G279 I223:I402 A266:C299 A242:C263 A340:G402 A148:G221 I30:I221 A66:G120">
+  <conditionalFormatting sqref="A240:E241 E227:G227 A227:C239 A264:E265 A300:E301 A322:E323 A324:C336 E324:E336 E228:E239 B65:G65 D121:D139 I8:I28 A8:G28 E242:E263 A121:C147 E121:G147 D144:D147 A30:G64 A223:G226 E266 F228:G266 E280:E299 D281 E302:E321 A302:C321 F280:G339 A337:E339 E267:G279 I223:I402 A266:C299 A242:C263 A148:G221 I30:I221 A66:G120 A340:G402">
     <cfRule type="expression" dxfId="136" priority="262">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1E91BF-76D6-E34E-A72E-C899FB078191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A125CC-8711-844C-85F0-1E2499744918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35740" yWindow="1980" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1193">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -8424,35 +8424,6 @@
       </rPr>
       <t>(value=${value})</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>emptySelectorIsNotAllowed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Empty selector is not allowed. (selector=${subject}, expression=${arg1}, origin=${file})</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>空のセレクターは許可されていません。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(selector=${subject}, expression=${arg1}, origin=${file})</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">カラノ </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キョカ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -11766,11 +11737,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I402"/>
+  <dimension ref="A1:I401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A347" sqref="A347"/>
+      <pane ySplit="4" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>
@@ -12354,10 +12325,10 @@
         <v>801</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -12367,16 +12338,16 @@
     </row>
     <row r="34" spans="1:9" ht="19" customHeight="1">
       <c r="A34" s="19" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>1099</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>1102</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -12386,16 +12357,16 @@
     </row>
     <row r="35" spans="1:9" ht="19" customHeight="1">
       <c r="A35" s="19" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D35" s="22" t="s">
         <v>1074</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>1077</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -12519,16 +12490,16 @@
     </row>
     <row r="42" spans="1:9" ht="19" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -12538,16 +12509,16 @@
     </row>
     <row r="43" spans="1:9" ht="19" customHeight="1">
       <c r="A43" s="19" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -12671,16 +12642,16 @@
     </row>
     <row r="50" spans="1:9" ht="19" customHeight="1">
       <c r="A50" s="19" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -12690,16 +12661,16 @@
     </row>
     <row r="51" spans="1:9" ht="19" customHeight="1">
       <c r="A51" s="19" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -12728,16 +12699,16 @@
     </row>
     <row r="53" spans="1:9" ht="19" customHeight="1">
       <c r="A53" s="19" t="s">
+        <v>956</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>957</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>958</v>
+      </c>
+      <c r="D53" s="20" t="s">
         <v>959</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>960</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>961</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>962</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
@@ -12747,16 +12718,16 @@
     </row>
     <row r="54" spans="1:9" ht="19" customHeight="1">
       <c r="A54" s="19" t="s">
+        <v>960</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>961</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>962</v>
+      </c>
+      <c r="D54" s="20" t="s">
         <v>963</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>964</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>965</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>966</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -12766,16 +12737,16 @@
     </row>
     <row r="55" spans="1:9" ht="19" customHeight="1">
       <c r="A55" s="19" t="s">
+        <v>964</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>967</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="C55" s="20" t="s">
         <v>970</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="D55" s="20" t="s">
         <v>973</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>976</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
@@ -12785,16 +12756,16 @@
     </row>
     <row r="56" spans="1:9" ht="19" customHeight="1">
       <c r="A56" s="19" t="s">
+        <v>965</v>
+      </c>
+      <c r="B56" s="20" t="s">
         <v>968</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="C56" s="20" t="s">
         <v>971</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="D56" s="20" t="s">
         <v>974</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>977</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
@@ -12804,16 +12775,16 @@
     </row>
     <row r="57" spans="1:9" ht="19" customHeight="1">
       <c r="A57" s="19" t="s">
+        <v>966</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>969</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="C57" s="20" t="s">
         <v>972</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="D57" s="20" t="s">
         <v>975</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>978</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
@@ -12956,7 +12927,7 @@
     </row>
     <row r="65" spans="1:9" ht="19" customHeight="1">
       <c r="A65" s="19" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>888</v>
@@ -13396,13 +13367,13 @@
         <v>96</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
@@ -13412,16 +13383,16 @@
     </row>
     <row r="89" spans="1:9" ht="19" customHeight="1">
       <c r="A89" s="19" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D89" s="21" t="s">
         <v>1147</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>1150</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
@@ -13431,16 +13402,16 @@
     </row>
     <row r="90" spans="1:9" ht="19" customHeight="1">
       <c r="A90" s="19" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>1169</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>1172</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
@@ -13456,10 +13427,10 @@
         <v>841</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
@@ -13475,10 +13446,10 @@
         <v>842</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
@@ -13494,10 +13465,10 @@
         <v>856</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
@@ -13513,10 +13484,10 @@
         <v>878</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -13532,10 +13503,10 @@
         <v>855</v>
       </c>
       <c r="C95" s="20" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D95" s="22" t="s">
         <v>1015</v>
-      </c>
-      <c r="D95" s="22" t="s">
-        <v>1018</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
@@ -13551,10 +13522,10 @@
         <v>854</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
@@ -13564,16 +13535,16 @@
     </row>
     <row r="97" spans="1:9" ht="19" customHeight="1">
       <c r="A97" s="19" t="s">
+        <v>980</v>
+      </c>
+      <c r="B97" s="19" t="s">
         <v>983</v>
       </c>
-      <c r="B97" s="19" t="s">
-        <v>986</v>
-      </c>
       <c r="C97" s="20" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
@@ -13583,16 +13554,16 @@
     </row>
     <row r="98" spans="1:9" ht="19" customHeight="1">
       <c r="A98" s="19" t="s">
+        <v>981</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>982</v>
+      </c>
+      <c r="C98" s="20" t="s">
         <v>984</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="D98" s="20" t="s">
         <v>985</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>987</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>988</v>
       </c>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
@@ -13608,10 +13579,10 @@
         <v>853</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
@@ -13627,10 +13598,10 @@
         <v>852</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
@@ -13646,10 +13617,10 @@
         <v>851</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
@@ -13665,10 +13636,10 @@
         <v>850</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
@@ -13684,10 +13655,10 @@
         <v>862</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
@@ -13703,10 +13674,10 @@
         <v>863</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
@@ -13722,10 +13693,10 @@
         <v>864</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
@@ -13741,10 +13712,10 @@
         <v>865</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
@@ -13760,10 +13731,10 @@
         <v>868</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
@@ -13779,10 +13750,10 @@
         <v>869</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
@@ -13792,16 +13763,16 @@
     </row>
     <row r="109" spans="1:9" ht="19" customHeight="1">
       <c r="A109" s="19" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
@@ -13811,16 +13782,16 @@
     </row>
     <row r="110" spans="1:9" ht="19" customHeight="1">
       <c r="A110" s="19" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
@@ -13830,16 +13801,16 @@
     </row>
     <row r="111" spans="1:9" ht="19" customHeight="1">
       <c r="A111" s="19" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
@@ -13849,16 +13820,16 @@
     </row>
     <row r="112" spans="1:9" ht="19" customHeight="1">
       <c r="A112" s="19" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
@@ -13887,16 +13858,16 @@
     </row>
     <row r="114" spans="1:9" ht="19" customHeight="1">
       <c r="A114" s="19" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
@@ -14723,13 +14694,13 @@
     </row>
     <row r="158" spans="1:9" ht="19" customHeight="1">
       <c r="A158" s="19" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D158" s="22" t="s">
         <v>357</v>
@@ -14742,13 +14713,13 @@
     </row>
     <row r="159" spans="1:9" ht="19" customHeight="1">
       <c r="A159" s="19" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D159" s="22" t="s">
         <v>358</v>
@@ -14862,7 +14833,7 @@
         <v>448</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="D165" s="22" t="s">
         <v>366</v>
@@ -14881,7 +14852,7 @@
         <v>455</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D166" s="22" t="s">
         <v>373</v>
@@ -14900,7 +14871,7 @@
         <v>449</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D167" s="22" t="s">
         <v>367</v>
@@ -14919,7 +14890,7 @@
         <v>450</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="D168" s="22" t="s">
         <v>368</v>
@@ -14938,7 +14909,7 @@
         <v>451</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="D169" s="22" t="s">
         <v>369</v>
@@ -14957,7 +14928,7 @@
         <v>452</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="D170" s="22" t="s">
         <v>370</v>
@@ -14976,7 +14947,7 @@
         <v>453</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="D171" s="22" t="s">
         <v>371</v>
@@ -14995,7 +14966,7 @@
         <v>454</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="D172" s="22" t="s">
         <v>372</v>
@@ -15084,16 +15055,16 @@
     </row>
     <row r="177" spans="1:9" ht="19" customHeight="1">
       <c r="A177" s="19" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B177" s="19" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C177" s="20" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D177" s="20" t="s">
         <v>1051</v>
-      </c>
-      <c r="B177" s="19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C177" s="20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D177" s="20" t="s">
-        <v>1054</v>
       </c>
       <c r="E177" s="20"/>
       <c r="F177" s="20"/>
@@ -15109,7 +15080,7 @@
         <v>460</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D178" s="22" t="s">
         <v>376</v>
@@ -15128,7 +15099,7 @@
         <v>461</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D179" s="22" t="s">
         <v>885</v>
@@ -15147,7 +15118,7 @@
         <v>466</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D180" s="22" t="s">
         <v>382</v>
@@ -15166,7 +15137,7 @@
         <v>467</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D181" s="22" t="s">
         <v>383</v>
@@ -15185,7 +15156,7 @@
         <v>462</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D182" s="22" t="s">
         <v>377</v>
@@ -15204,7 +15175,7 @@
         <v>463</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D183" s="22" t="s">
         <v>378</v>
@@ -15223,7 +15194,7 @@
         <v>464</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="D184" s="22" t="s">
         <v>379</v>
@@ -15242,7 +15213,7 @@
         <v>465</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D185" s="22" t="s">
         <v>380</v>
@@ -15540,16 +15511,16 @@
     </row>
     <row r="201" spans="1:9" ht="19" customHeight="1">
       <c r="A201" s="19" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B201" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="E201" s="20"/>
       <c r="F201" s="20"/>
@@ -15559,16 +15530,16 @@
     </row>
     <row r="202" spans="1:9" ht="19" customHeight="1">
       <c r="A202" s="19" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B202" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C202" s="20" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D202" s="20" t="s">
         <v>1045</v>
-      </c>
-      <c r="D202" s="20" t="s">
-        <v>1048</v>
       </c>
       <c r="E202" s="20"/>
       <c r="F202" s="20"/>
@@ -15578,16 +15549,16 @@
     </row>
     <row r="203" spans="1:9" ht="19" customHeight="1">
       <c r="A203" s="19" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B203" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C203" s="20" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D203" s="20" t="s">
         <v>1046</v>
-      </c>
-      <c r="D203" s="20" t="s">
-        <v>1049</v>
       </c>
       <c r="E203" s="20"/>
       <c r="F203" s="20"/>
@@ -15597,16 +15568,16 @@
     </row>
     <row r="204" spans="1:9" ht="19" customHeight="1">
       <c r="A204" s="19" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B204" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C204" s="20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D204" s="20" t="s">
         <v>1047</v>
-      </c>
-      <c r="D204" s="20" t="s">
-        <v>1050</v>
       </c>
       <c r="E204" s="20"/>
       <c r="F204" s="20"/>
@@ -15829,10 +15800,10 @@
       </c>
       <c r="B216" s="20"/>
       <c r="C216" s="20" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D216" s="20" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="E216" s="20"/>
       <c r="F216" s="20"/>
@@ -15846,10 +15817,10 @@
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="20" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
@@ -16260,10 +16231,10 @@
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="20" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="E243" s="20"/>
       <c r="F243" s="20"/>
@@ -16409,7 +16380,7 @@
     </row>
     <row r="252" spans="1:9" ht="19" customHeight="1">
       <c r="A252" s="19" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="20" t="s">
@@ -16426,7 +16397,7 @@
     </row>
     <row r="253" spans="1:9" ht="19" customHeight="1">
       <c r="A253" s="19" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="20" t="s">
@@ -16443,14 +16414,14 @@
     </row>
     <row r="254" spans="1:9" ht="19" customHeight="1">
       <c r="A254" s="19" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B254" s="20"/>
       <c r="C254" s="20" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D254" s="21" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E254" s="20"/>
       <c r="F254" s="20"/>
@@ -16545,14 +16516,14 @@
     </row>
     <row r="260" spans="1:9" ht="19" customHeight="1">
       <c r="A260" s="19" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="20" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
@@ -16668,7 +16639,7 @@
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="20" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="D267" s="20" t="s">
         <v>710</v>
@@ -16681,14 +16652,14 @@
     </row>
     <row r="268" spans="1:9" ht="19" customHeight="1">
       <c r="A268" s="19" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="20" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="D268" s="20" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="E268" s="20"/>
       <c r="F268" s="20"/>
@@ -16698,14 +16669,14 @@
     </row>
     <row r="269" spans="1:9" ht="19" customHeight="1">
       <c r="A269" s="19" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="20" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="D269" s="22" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E269" s="20"/>
       <c r="F269" s="20"/>
@@ -16715,14 +16686,14 @@
     </row>
     <row r="270" spans="1:9" ht="19" customHeight="1">
       <c r="A270" s="19" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="20" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="D270" s="22" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E270" s="20"/>
       <c r="F270" s="20"/>
@@ -16732,14 +16703,14 @@
     </row>
     <row r="271" spans="1:9" ht="19" customHeight="1">
       <c r="A271" s="19" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="20" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="D271" s="22" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E271" s="20"/>
       <c r="F271" s="20"/>
@@ -16749,14 +16720,14 @@
     </row>
     <row r="272" spans="1:9" ht="19" customHeight="1">
       <c r="A272" s="19" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="20" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="D272" s="22" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E272" s="20"/>
       <c r="F272" s="20"/>
@@ -16834,14 +16805,14 @@
     </row>
     <row r="277" spans="1:9" ht="19" customHeight="1">
       <c r="A277" s="19" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="20" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
@@ -16851,14 +16822,14 @@
     </row>
     <row r="278" spans="1:9" ht="19" customHeight="1">
       <c r="A278" s="19" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="20" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="D278" s="20" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="E278" s="20"/>
       <c r="F278" s="20"/>
@@ -16868,14 +16839,14 @@
     </row>
     <row r="279" spans="1:9" ht="19" customHeight="1">
       <c r="A279" s="19" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="20" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D279" s="20" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="E279" s="20"/>
       <c r="F279" s="20"/>
@@ -16902,14 +16873,14 @@
     </row>
     <row r="281" spans="1:9" ht="19" customHeight="1">
       <c r="A281" s="19" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="20" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="D281" s="20" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
@@ -16936,14 +16907,14 @@
     </row>
     <row r="283" spans="1:9" ht="19" customHeight="1">
       <c r="A283" s="19" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="20" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="D283" s="20" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
@@ -17157,14 +17128,14 @@
     </row>
     <row r="296" spans="1:9" ht="19" customHeight="1">
       <c r="A296" s="19" t="s">
-        <v>951</v>
+        <v>599</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="20" t="s">
-        <v>952</v>
-      </c>
-      <c r="D296" s="20" t="s">
-        <v>953</v>
+        <v>600</v>
+      </c>
+      <c r="D296" s="21" t="s">
+        <v>728</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -17174,14 +17145,14 @@
     </row>
     <row r="297" spans="1:9" ht="19" customHeight="1">
       <c r="A297" s="19" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="20" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
@@ -17191,14 +17162,14 @@
     </row>
     <row r="298" spans="1:9" ht="19" customHeight="1">
       <c r="A298" s="19" t="s">
-        <v>601</v>
+        <v>1020</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="20" t="s">
-        <v>602</v>
-      </c>
-      <c r="D298" s="21" t="s">
-        <v>729</v>
+        <v>1021</v>
+      </c>
+      <c r="D298" s="20" t="s">
+        <v>1022</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -17208,14 +17179,14 @@
     </row>
     <row r="299" spans="1:9" ht="19" customHeight="1">
       <c r="A299" s="19" t="s">
-        <v>1023</v>
+        <v>603</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="20" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D299" s="20" t="s">
-        <v>1025</v>
+        <v>604</v>
+      </c>
+      <c r="D299" s="21" t="s">
+        <v>730</v>
       </c>
       <c r="E299" s="20"/>
       <c r="F299" s="20"/>
@@ -17225,14 +17196,14 @@
     </row>
     <row r="300" spans="1:9" ht="19" customHeight="1">
       <c r="A300" s="19" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="20" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D300" s="21" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E300" s="20"/>
       <c r="F300" s="20"/>
@@ -17242,14 +17213,14 @@
     </row>
     <row r="301" spans="1:9" ht="19" customHeight="1">
       <c r="A301" s="19" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="20" t="s">
-        <v>606</v>
-      </c>
-      <c r="D301" s="21" t="s">
-        <v>731</v>
+        <v>608</v>
+      </c>
+      <c r="D301" s="20" t="s">
+        <v>732</v>
       </c>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
@@ -17259,14 +17230,14 @@
     </row>
     <row r="302" spans="1:9" ht="19" customHeight="1">
       <c r="A302" s="19" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="20" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D302" s="20" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E302" s="20"/>
       <c r="F302" s="20"/>
@@ -17276,14 +17247,14 @@
     </row>
     <row r="303" spans="1:9" ht="19" customHeight="1">
       <c r="A303" s="19" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="20" t="s">
-        <v>610</v>
-      </c>
-      <c r="D303" s="20" t="s">
-        <v>733</v>
+        <v>612</v>
+      </c>
+      <c r="D303" s="21" t="s">
+        <v>734</v>
       </c>
       <c r="E303" s="20"/>
       <c r="F303" s="20"/>
@@ -17293,14 +17264,14 @@
     </row>
     <row r="304" spans="1:9" ht="19" customHeight="1">
       <c r="A304" s="19" t="s">
-        <v>611</v>
+        <v>1076</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="20" t="s">
-        <v>612</v>
+        <v>1077</v>
       </c>
       <c r="D304" s="21" t="s">
-        <v>734</v>
+        <v>1078</v>
       </c>
       <c r="E304" s="20"/>
       <c r="F304" s="20"/>
@@ -17310,14 +17281,14 @@
     </row>
     <row r="305" spans="1:9" ht="19" customHeight="1">
       <c r="A305" s="19" t="s">
-        <v>1079</v>
+        <v>613</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="20" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D305" s="21" t="s">
-        <v>1081</v>
+        <v>614</v>
+      </c>
+      <c r="D305" s="22" t="s">
+        <v>735</v>
       </c>
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
@@ -17327,14 +17298,14 @@
     </row>
     <row r="306" spans="1:9" ht="19" customHeight="1">
       <c r="A306" s="19" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="D306" s="22" t="s">
-        <v>735</v>
+        <v>616</v>
+      </c>
+      <c r="D306" s="21" t="s">
+        <v>936</v>
       </c>
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
@@ -17344,14 +17315,14 @@
     </row>
     <row r="307" spans="1:9" ht="19" customHeight="1">
       <c r="A307" s="19" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="20" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>936</v>
+        <v>736</v>
       </c>
       <c r="E307" s="20"/>
       <c r="F307" s="20"/>
@@ -17361,14 +17332,14 @@
     </row>
     <row r="308" spans="1:9" ht="19" customHeight="1">
       <c r="A308" s="19" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="20" t="s">
-        <v>618</v>
-      </c>
-      <c r="D308" s="21" t="s">
-        <v>736</v>
+        <v>620</v>
+      </c>
+      <c r="D308" s="20" t="s">
+        <v>737</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -17378,14 +17349,14 @@
     </row>
     <row r="309" spans="1:9" ht="19" customHeight="1">
       <c r="A309" s="19" t="s">
-        <v>619</v>
+        <v>948</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="20" t="s">
-        <v>620</v>
+        <v>949</v>
       </c>
       <c r="D309" s="20" t="s">
-        <v>737</v>
+        <v>950</v>
       </c>
       <c r="E309" s="20"/>
       <c r="F309" s="20"/>
@@ -17395,14 +17366,14 @@
     </row>
     <row r="310" spans="1:9" ht="19" customHeight="1">
       <c r="A310" s="19" t="s">
-        <v>948</v>
+        <v>621</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="20" t="s">
-        <v>949</v>
-      </c>
-      <c r="D310" s="20" t="s">
-        <v>950</v>
+        <v>622</v>
+      </c>
+      <c r="D310" s="21" t="s">
+        <v>738</v>
       </c>
       <c r="E310" s="20"/>
       <c r="F310" s="20"/>
@@ -17412,14 +17383,14 @@
     </row>
     <row r="311" spans="1:9" ht="19" customHeight="1">
       <c r="A311" s="19" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="20" t="s">
-        <v>622</v>
+        <v>951</v>
       </c>
       <c r="D311" s="21" t="s">
-        <v>738</v>
+        <v>952</v>
       </c>
       <c r="E311" s="20"/>
       <c r="F311" s="20"/>
@@ -17429,14 +17400,14 @@
     </row>
     <row r="312" spans="1:9" ht="19" customHeight="1">
       <c r="A312" s="19" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="20" t="s">
-        <v>954</v>
+        <v>625</v>
       </c>
       <c r="D312" s="21" t="s">
-        <v>955</v>
+        <v>739</v>
       </c>
       <c r="E312" s="20"/>
       <c r="F312" s="20"/>
@@ -17446,14 +17417,14 @@
     </row>
     <row r="313" spans="1:9" ht="19" customHeight="1">
       <c r="A313" s="19" t="s">
-        <v>624</v>
+        <v>953</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="20" t="s">
-        <v>625</v>
-      </c>
-      <c r="D313" s="21" t="s">
-        <v>739</v>
+        <v>954</v>
+      </c>
+      <c r="D313" s="20" t="s">
+        <v>955</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -17463,14 +17434,14 @@
     </row>
     <row r="314" spans="1:9" ht="19" customHeight="1">
       <c r="A314" s="19" t="s">
-        <v>956</v>
+        <v>626</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="20" t="s">
-        <v>957</v>
-      </c>
-      <c r="D314" s="20" t="s">
-        <v>958</v>
+        <v>627</v>
+      </c>
+      <c r="D314" s="21" t="s">
+        <v>740</v>
       </c>
       <c r="E314" s="20"/>
       <c r="F314" s="20"/>
@@ -17480,14 +17451,14 @@
     </row>
     <row r="315" spans="1:9" ht="19" customHeight="1">
       <c r="A315" s="19" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="20" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E315" s="20"/>
       <c r="F315" s="20"/>
@@ -17497,14 +17468,14 @@
     </row>
     <row r="316" spans="1:9" ht="19" customHeight="1">
       <c r="A316" s="19" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="20" t="s">
-        <v>629</v>
-      </c>
-      <c r="D316" s="21" t="s">
-        <v>741</v>
+        <v>631</v>
+      </c>
+      <c r="D316" s="20" t="s">
+        <v>742</v>
       </c>
       <c r="E316" s="20"/>
       <c r="F316" s="20"/>
@@ -17514,14 +17485,14 @@
     </row>
     <row r="317" spans="1:9" ht="19" customHeight="1">
       <c r="A317" s="19" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="20" t="s">
-        <v>631</v>
-      </c>
-      <c r="D317" s="20" t="s">
-        <v>742</v>
+        <v>633</v>
+      </c>
+      <c r="D317" s="21" t="s">
+        <v>743</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -17531,14 +17502,14 @@
     </row>
     <row r="318" spans="1:9" ht="19" customHeight="1">
       <c r="A318" s="19" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="20" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E318" s="20"/>
       <c r="F318" s="20"/>
@@ -17548,14 +17519,14 @@
     </row>
     <row r="319" spans="1:9" ht="19" customHeight="1">
       <c r="A319" s="19" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="20" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D319" s="21" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E319" s="20"/>
       <c r="F319" s="20"/>
@@ -17565,14 +17536,14 @@
     </row>
     <row r="320" spans="1:9" ht="19" customHeight="1">
       <c r="A320" s="19" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="20" t="s">
-        <v>637</v>
-      </c>
-      <c r="D320" s="21" t="s">
-        <v>745</v>
+        <v>639</v>
+      </c>
+      <c r="D320" s="22" t="s">
+        <v>746</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -17582,14 +17553,14 @@
     </row>
     <row r="321" spans="1:9" ht="19" customHeight="1">
       <c r="A321" s="19" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="20" t="s">
-        <v>639</v>
-      </c>
-      <c r="D321" s="22" t="s">
-        <v>746</v>
+        <v>641</v>
+      </c>
+      <c r="D321" s="21" t="s">
+        <v>747</v>
       </c>
       <c r="E321" s="20"/>
       <c r="F321" s="20"/>
@@ -17599,14 +17570,14 @@
     </row>
     <row r="322" spans="1:9" ht="19" customHeight="1">
       <c r="A322" s="19" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="20" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D322" s="21" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E322" s="20"/>
       <c r="F322" s="20"/>
@@ -17616,14 +17587,14 @@
     </row>
     <row r="323" spans="1:9" ht="19" customHeight="1">
       <c r="A323" s="19" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="20" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D323" s="21" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E323" s="20"/>
       <c r="F323" s="20"/>
@@ -17633,14 +17604,14 @@
     </row>
     <row r="324" spans="1:9" ht="19" customHeight="1">
       <c r="A324" s="19" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="20" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
@@ -17650,14 +17621,14 @@
     </row>
     <row r="325" spans="1:9" ht="19" customHeight="1">
       <c r="A325" s="19" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="20" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
@@ -17667,14 +17638,14 @@
     </row>
     <row r="326" spans="1:9" ht="19" customHeight="1">
       <c r="A326" s="19" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="20" t="s">
-        <v>649</v>
-      </c>
-      <c r="D326" s="21" t="s">
-        <v>751</v>
+        <v>651</v>
+      </c>
+      <c r="D326" s="20" t="s">
+        <v>752</v>
       </c>
       <c r="E326" s="20"/>
       <c r="F326" s="20"/>
@@ -17684,14 +17655,14 @@
     </row>
     <row r="327" spans="1:9" ht="19" customHeight="1">
       <c r="A327" s="19" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B327" s="20"/>
-      <c r="C327" s="20" t="s">
-        <v>651</v>
-      </c>
-      <c r="D327" s="20" t="s">
-        <v>752</v>
+      <c r="C327" s="27" t="s">
+        <v>653</v>
+      </c>
+      <c r="D327" s="27" t="s">
+        <v>753</v>
       </c>
       <c r="E327" s="20"/>
       <c r="F327" s="20"/>
@@ -17701,14 +17672,14 @@
     </row>
     <row r="328" spans="1:9" ht="19" customHeight="1">
       <c r="A328" s="19" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B328" s="20"/>
-      <c r="C328" s="27" t="s">
-        <v>653</v>
-      </c>
-      <c r="D328" s="27" t="s">
-        <v>753</v>
+      <c r="C328" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="D328" s="20" t="s">
+        <v>754</v>
       </c>
       <c r="E328" s="20"/>
       <c r="F328" s="20"/>
@@ -17718,14 +17689,14 @@
     </row>
     <row r="329" spans="1:9" ht="19" customHeight="1">
       <c r="A329" s="19" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="20" t="s">
-        <v>655</v>
-      </c>
-      <c r="D329" s="20" t="s">
-        <v>754</v>
+        <v>657</v>
+      </c>
+      <c r="D329" s="21" t="s">
+        <v>755</v>
       </c>
       <c r="E329" s="20"/>
       <c r="F329" s="20"/>
@@ -17735,14 +17706,14 @@
     </row>
     <row r="330" spans="1:9" ht="19" customHeight="1">
       <c r="A330" s="19" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="20" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D330" s="21" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E330" s="20"/>
       <c r="F330" s="20"/>
@@ -17752,14 +17723,14 @@
     </row>
     <row r="331" spans="1:9" ht="19" customHeight="1">
       <c r="A331" s="19" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="20" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E331" s="20"/>
       <c r="F331" s="20"/>
@@ -17769,14 +17740,14 @@
     </row>
     <row r="332" spans="1:9" ht="19" customHeight="1">
       <c r="A332" s="19" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="20" t="s">
-        <v>661</v>
-      </c>
-      <c r="D332" s="21" t="s">
-        <v>757</v>
+        <v>663</v>
+      </c>
+      <c r="D332" s="20" t="s">
+        <v>758</v>
       </c>
       <c r="E332" s="20"/>
       <c r="F332" s="20"/>
@@ -17786,14 +17757,14 @@
     </row>
     <row r="333" spans="1:9" ht="19" customHeight="1">
       <c r="A333" s="19" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="20" t="s">
-        <v>663</v>
-      </c>
-      <c r="D333" s="20" t="s">
-        <v>758</v>
+        <v>665</v>
+      </c>
+      <c r="D333" s="22" t="s">
+        <v>759</v>
       </c>
       <c r="E333" s="20"/>
       <c r="F333" s="20"/>
@@ -17803,14 +17774,14 @@
     </row>
     <row r="334" spans="1:9" ht="19" customHeight="1">
       <c r="A334" s="19" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="D334" s="22" t="s">
-        <v>759</v>
+        <v>667</v>
+      </c>
+      <c r="D334" s="20" t="s">
+        <v>760</v>
       </c>
       <c r="E334" s="20"/>
       <c r="F334" s="20"/>
@@ -17820,14 +17791,14 @@
     </row>
     <row r="335" spans="1:9" ht="19" customHeight="1">
       <c r="A335" s="19" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="20" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D335" s="20" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E335" s="20"/>
       <c r="F335" s="20"/>
@@ -17837,14 +17808,14 @@
     </row>
     <row r="336" spans="1:9" ht="19" customHeight="1">
       <c r="A336" s="19" t="s">
-        <v>668</v>
+        <v>945</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="20" t="s">
-        <v>669</v>
+        <v>946</v>
       </c>
       <c r="D336" s="20" t="s">
-        <v>761</v>
+        <v>947</v>
       </c>
       <c r="E336" s="20"/>
       <c r="F336" s="20"/>
@@ -17854,14 +17825,14 @@
     </row>
     <row r="337" spans="1:9" ht="19" customHeight="1">
       <c r="A337" s="19" t="s">
-        <v>945</v>
+        <v>1068</v>
       </c>
       <c r="B337" s="20"/>
       <c r="C337" s="20" t="s">
-        <v>946</v>
+        <v>1069</v>
       </c>
       <c r="D337" s="20" t="s">
-        <v>947</v>
+        <v>1070</v>
       </c>
       <c r="E337" s="20"/>
       <c r="F337" s="20"/>
@@ -17871,14 +17842,14 @@
     </row>
     <row r="338" spans="1:9" ht="19" customHeight="1">
       <c r="A338" s="19" t="s">
-        <v>1071</v>
+        <v>1136</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="20" t="s">
-        <v>1072</v>
+        <v>1137</v>
       </c>
       <c r="D338" s="20" t="s">
-        <v>1073</v>
+        <v>1138</v>
       </c>
       <c r="E338" s="20"/>
       <c r="F338" s="20"/>
@@ -17888,14 +17859,14 @@
     </row>
     <row r="339" spans="1:9" ht="19" customHeight="1">
       <c r="A339" s="19" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="20" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="D339" s="20" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="E339" s="20"/>
       <c r="F339" s="20"/>
@@ -17922,14 +17893,14 @@
     </row>
     <row r="341" spans="1:9" ht="19" customHeight="1">
       <c r="A341" s="19" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="B341" s="20"/>
       <c r="C341" s="20" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="D341" s="20" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="E341" s="20"/>
       <c r="F341" s="20"/>
@@ -17939,14 +17910,14 @@
     </row>
     <row r="342" spans="1:9" ht="19" customHeight="1">
       <c r="A342" s="19" t="s">
-        <v>1142</v>
+        <v>1151</v>
       </c>
       <c r="B342" s="20"/>
       <c r="C342" s="20" t="s">
-        <v>1143</v>
+        <v>1153</v>
       </c>
       <c r="D342" s="20" t="s">
-        <v>1144</v>
+        <v>1152</v>
       </c>
       <c r="E342" s="20"/>
       <c r="F342" s="20"/>
@@ -17960,10 +17931,10 @@
       </c>
       <c r="B343" s="20"/>
       <c r="C343" s="20" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D343" s="20" t="s">
         <v>1156</v>
-      </c>
-      <c r="D343" s="20" t="s">
-        <v>1155</v>
       </c>
       <c r="E343" s="20"/>
       <c r="F343" s="20"/>
@@ -17990,14 +17961,14 @@
     </row>
     <row r="345" spans="1:9" ht="19" customHeight="1">
       <c r="A345" s="19" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="B345" s="20"/>
       <c r="C345" s="20" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="D345" s="20" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="E345" s="20"/>
       <c r="F345" s="20"/>
@@ -18007,14 +17978,14 @@
     </row>
     <row r="346" spans="1:9" ht="19" customHeight="1">
       <c r="A346" s="19" t="s">
-        <v>1166</v>
+        <v>1190</v>
       </c>
       <c r="B346" s="20"/>
       <c r="C346" s="20" t="s">
-        <v>1167</v>
+        <v>1191</v>
       </c>
       <c r="D346" s="20" t="s">
-        <v>1168</v>
+        <v>1192</v>
       </c>
       <c r="E346" s="20"/>
       <c r="F346" s="20"/>
@@ -18023,16 +17994,10 @@
       <c r="I346" s="18"/>
     </row>
     <row r="347" spans="1:9" ht="19" customHeight="1">
-      <c r="A347" s="19" t="s">
-        <v>1193</v>
-      </c>
+      <c r="A347" s="19"/>
       <c r="B347" s="20"/>
-      <c r="C347" s="20" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D347" s="20" t="s">
-        <v>1195</v>
-      </c>
+      <c r="C347" s="20"/>
+      <c r="D347" s="20"/>
       <c r="E347" s="20"/>
       <c r="F347" s="20"/>
       <c r="G347" s="18"/>
@@ -18633,26 +18598,15 @@
       <c r="H401" s="17"/>
       <c r="I401" s="18"/>
     </row>
-    <row r="402" spans="1:9" ht="19" customHeight="1">
-      <c r="A402" s="19"/>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
-      <c r="D402" s="20"/>
-      <c r="E402" s="20"/>
-      <c r="F402" s="20"/>
-      <c r="G402" s="18"/>
-      <c r="H402" s="17"/>
-      <c r="I402" s="18"/>
-    </row>
   </sheetData>
   <autoFilter ref="A4:J215" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A240:E241 E227:G227 A227:C239 A264:E265 A300:E301 A322:E323 A324:C336 E324:E336 E228:E239 B65:G65 D121:D139 I8:I28 A8:G28 E242:E263 A121:C147 E121:G147 D144:D147 A30:G64 A223:G226 E266 F228:G266 E280:E299 D281 E302:E321 A302:C321 F280:G339 A337:E339 E267:G279 I223:I402 A266:C299 A242:C263 A148:G221 I30:I221 A66:G120 A340:G402">
+  <conditionalFormatting sqref="A240:E241 E227:G227 A227:C239 A264:E265 A299:E300 A321:E322 A323:C335 E323:E335 E228:E239 B65:G65 D121:D139 I8:I28 A8:G28 E242:E263 A121:C147 E121:G147 D144:D147 A30:G64 A223:G226 E266 F228:G266 D281 E301:E320 A301:C320 A336:E338 E267:G279 A242:C263 A148:G221 I30:I221 A66:G120 A339:G401 E280:E298 F280:G338 I223:I401 A266:C298">
     <cfRule type="expression" dxfId="136" priority="262">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H30:H85 H223:H402 H121:H221 H87:H118">
+  <conditionalFormatting sqref="H8:H28 H30:H85 H121:H221 H87:H118 H223:H401">
     <cfRule type="cellIs" dxfId="135" priority="217" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
@@ -18666,7 +18620,7 @@
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H30:H85 H223:H402 H121:H221 H87:H118">
+  <conditionalFormatting sqref="H8:H28 H30:H85 H121:H221 H87:H118 H223:H401">
     <cfRule type="cellIs" dxfId="131" priority="218" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -18683,7 +18637,7 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H28 H30:H85 H223:H402 H121:H221 H87:H118">
+  <conditionalFormatting sqref="H8:H28 H30:H85 H121:H221 H87:H118 H223:H401">
     <cfRule type="cellIs" dxfId="126" priority="220" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
@@ -18790,7 +18744,7 @@
       <formula>$G222&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D315:D336 D227:D248 D251 D300:D302 D306:D307 D274 D309:D311 D282:D293 D255:D257 D261:D265">
+  <conditionalFormatting sqref="D314:D335 D227:D248 D251 D299:D301 D305:D306 D274 D308:D310 D255:D257 D261:D265 D282:D295">
     <cfRule type="expression" dxfId="99" priority="264">
       <formula>$G229&lt;&gt;""</formula>
     </cfRule>
@@ -18974,7 +18928,7 @@
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D312:D314 D297:D299 D294:D295 D252:D254 D303:D305 D273 D258:D260">
+  <conditionalFormatting sqref="D311:D313 D296:D298 D252:D254 D302:D304 D273 D258:D260">
     <cfRule type="expression" dxfId="51" priority="267">
       <formula>$G255&lt;&gt;""</formula>
     </cfRule>
@@ -19015,7 +18969,7 @@
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D296 D276">
+  <conditionalFormatting sqref="D276">
     <cfRule type="expression" dxfId="40" priority="271">
       <formula>$G280&lt;&gt;""</formula>
     </cfRule>
@@ -19050,7 +19004,7 @@
       <formula>$G278&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D308">
+  <conditionalFormatting sqref="D307">
     <cfRule type="expression" dxfId="33" priority="371">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A125CC-8711-844C-85F0-1E2499744918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D83840-9465-FF41-A10B-2A4866543981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35740" yWindow="1980" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -9889,33 +9889,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>relativeSelectorNotSupportedInFindingWebElement</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Relative selector is not supported in finding WebElement. Use cache mode.(selector=${arg1}, expression=${arg2})</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>相対セレクターはWebElementの検索では使用できません。キャッシュモードで使用してください。 (selector=${arg1}, expression=${arg2})</t>
-    <rPh sb="0" eb="2">
-      <t>ソウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ケンサ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>restartApp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -10117,6 +10090,30 @@
     <rPh sb="23" eb="25">
       <t>カクニn</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>relativeSelectorNotSupportedInDirectAccessMode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この相対セレクターはダイレクトアクセスモードでは使用できません。キャッシュモードで使用してください。 (selector=${arg1}, expression=${arg2})</t>
+    <rPh sb="2" eb="4">
+      <t>ソウタイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This relative selector is not supported in Direct Access mode. Use Cache mode.(selector=${arg1}, expression=${arg2})</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11740,8 +11737,8 @@
   <dimension ref="A1:I401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="4" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A345" sqref="A345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>
@@ -13402,16 +13399,16 @@
     </row>
     <row r="90" spans="1:9" ht="19" customHeight="1">
       <c r="A90" s="19" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>1166</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>1169</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
@@ -13763,16 +13760,16 @@
     </row>
     <row r="109" spans="1:9" ht="19" customHeight="1">
       <c r="A109" s="19" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
@@ -13782,16 +13779,16 @@
     </row>
     <row r="110" spans="1:9" ht="19" customHeight="1">
       <c r="A110" s="19" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
@@ -13801,16 +13798,16 @@
     </row>
     <row r="111" spans="1:9" ht="19" customHeight="1">
       <c r="A111" s="19" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
@@ -13820,16 +13817,16 @@
     </row>
     <row r="112" spans="1:9" ht="19" customHeight="1">
       <c r="A112" s="19" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
@@ -16639,7 +16636,7 @@
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="20" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D267" s="20" t="s">
         <v>710</v>
@@ -16724,10 +16721,10 @@
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="20" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D272" s="22" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="E272" s="20"/>
       <c r="F272" s="20"/>
@@ -16880,7 +16877,7 @@
         <v>1029</v>
       </c>
       <c r="D281" s="20" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
@@ -17961,14 +17958,14 @@
     </row>
     <row r="345" spans="1:9" ht="19" customHeight="1">
       <c r="A345" s="19" t="s">
-        <v>1163</v>
+        <v>1190</v>
       </c>
       <c r="B345" s="20"/>
       <c r="C345" s="20" t="s">
-        <v>1164</v>
+        <v>1192</v>
       </c>
       <c r="D345" s="20" t="s">
-        <v>1165</v>
+        <v>1191</v>
       </c>
       <c r="E345" s="20"/>
       <c r="F345" s="20"/>
@@ -17978,14 +17975,14 @@
     </row>
     <row r="346" spans="1:9" ht="19" customHeight="1">
       <c r="A346" s="19" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="B346" s="20"/>
       <c r="C346" s="20" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D346" s="20" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="E346" s="20"/>
       <c r="F346" s="20"/>
@@ -18601,7 +18598,7 @@
   </sheetData>
   <autoFilter ref="A4:J215" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A240:E241 E227:G227 A227:C239 A264:E265 A299:E300 A321:E322 A323:C335 E323:E335 E228:E239 B65:G65 D121:D139 I8:I28 A8:G28 E242:E263 A121:C147 E121:G147 D144:D147 A30:G64 A223:G226 E266 F228:G266 D281 E301:E320 A301:C320 A336:E338 E267:G279 A242:C263 A148:G221 I30:I221 A66:G120 A339:G401 E280:E298 F280:G338 I223:I401 A266:C298">
+  <conditionalFormatting sqref="A240:E241 E227:G227 A227:C239 A264:E265 A299:E300 A321:E322 A323:C335 E323:E335 E228:E239 B65:G65 D121:D139 I8:I28 A8:G28 E242:E263 A121:C147 E121:G147 D144:D147 A30:G64 A223:G226 E266 F228:G266 D281 E301:E320 A301:C320 A336:E338 E267:G279 A242:C263 A148:G221 I30:I221 A66:G120 E280:E298 F280:G338 A266:C298 A339:G401 I223:I401">
     <cfRule type="expression" dxfId="136" priority="262">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D83840-9465-FF41-A10B-2A4866543981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3F574D-F1BE-924E-A2AE-F475DA520DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35740" yWindow="1980" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -11737,8 +11737,8 @@
   <dimension ref="A1:I401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A345" sqref="A345"/>
+      <pane ySplit="4" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFF65D6-19D0-344F-84DF-16D866FDAC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E518B5B-9874-154A-8E50-2EF9893DC9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27340" yWindow="500" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="List" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">message!$A$4:$J$218</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">message!$A$4:$J$219</definedName>
     <definedName name="実施結果">List!$A$3:$A$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="1357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="1359">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -10973,14 +10973,6 @@
   </si>
   <si>
     <t>existInCell("${subject}")</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dontExistInCell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dontExistInCell("${subject}")</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -11040,6 +11032,22 @@
     <rPh sb="16" eb="18">
       <t>シテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>existInCellNot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>existInCellNot("${subject}")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dontExistInCell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dontExistInCell("${subject}")</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -12730,11 +12738,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I491"/>
+  <dimension ref="A1:I492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A353" sqref="A353"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>
@@ -13179,16 +13187,16 @@
     </row>
     <row r="26" spans="1:9" ht="19" customHeight="1">
       <c r="A26" s="19" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -13445,16 +13453,16 @@
     </row>
     <row r="40" spans="1:9" ht="19" customHeight="1">
       <c r="A40" s="19" t="s">
-        <v>104</v>
+        <v>1357</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>430</v>
+        <v>1358</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>105</v>
+        <v>1345</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>310</v>
+        <v>1347</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
@@ -13464,16 +13472,16 @@
     </row>
     <row r="41" spans="1:9" ht="19" customHeight="1">
       <c r="A41" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>799</v>
+        <v>430</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
@@ -13483,16 +13491,16 @@
     </row>
     <row r="42" spans="1:9" ht="19" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>436</v>
+        <v>799</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -13502,16 +13510,16 @@
     </row>
     <row r="43" spans="1:9" ht="19" customHeight="1">
       <c r="A43" s="19" t="s">
-        <v>1060</v>
+        <v>108</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>1062</v>
+        <v>436</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>1064</v>
+        <v>109</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>1066</v>
+        <v>312</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -13521,16 +13529,16 @@
     </row>
     <row r="44" spans="1:9" ht="19" customHeight="1">
       <c r="A44" s="19" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
@@ -13540,16 +13548,16 @@
     </row>
     <row r="45" spans="1:9" ht="19" customHeight="1">
       <c r="A45" s="19" t="s">
-        <v>110</v>
+        <v>1061</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>796</v>
+        <v>1063</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>111</v>
+        <v>1065</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>313</v>
+        <v>1067</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
@@ -13559,16 +13567,16 @@
     </row>
     <row r="46" spans="1:9" ht="19" customHeight="1">
       <c r="A46" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -13578,16 +13586,16 @@
     </row>
     <row r="47" spans="1:9" ht="19" customHeight="1">
       <c r="A47" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
@@ -13597,16 +13605,16 @@
     </row>
     <row r="48" spans="1:9" ht="19" customHeight="1">
       <c r="A48" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>431</v>
+        <v>798</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
@@ -13616,16 +13624,16 @@
     </row>
     <row r="49" spans="1:9" ht="19" customHeight="1">
       <c r="A49" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
@@ -13635,16 +13643,16 @@
     </row>
     <row r="50" spans="1:9" ht="19" customHeight="1">
       <c r="A50" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -13654,16 +13662,16 @@
     </row>
     <row r="51" spans="1:9" ht="19" customHeight="1">
       <c r="A51" s="19" t="s">
-        <v>1052</v>
+        <v>120</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>1054</v>
+        <v>433</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>1056</v>
+        <v>121</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>1058</v>
+        <v>318</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -13673,16 +13681,16 @@
     </row>
     <row r="52" spans="1:9" ht="19" customHeight="1">
       <c r="A52" s="19" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
@@ -13692,16 +13700,16 @@
     </row>
     <row r="53" spans="1:9" ht="19" customHeight="1">
       <c r="A53" s="19" t="s">
-        <v>122</v>
+        <v>1053</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>436</v>
+        <v>1055</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>117</v>
+        <v>1057</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>316</v>
+        <v>1059</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
@@ -13717,10 +13725,10 @@
         <v>1343</v>
       </c>
       <c r="C54" s="20" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D54" s="20" t="s">
         <v>1346</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>1348</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -13730,16 +13738,16 @@
     </row>
     <row r="55" spans="1:9" ht="19" customHeight="1">
       <c r="A55" s="19" t="s">
-        <v>1344</v>
+        <v>122</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>1345</v>
+        <v>436</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>1347</v>
+        <v>117</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>1349</v>
+        <v>316</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
@@ -13749,16 +13757,16 @@
     </row>
     <row r="56" spans="1:9" ht="19" customHeight="1">
       <c r="A56" s="19" t="s">
-        <v>956</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>957</v>
+        <v>1355</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>1356</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>958</v>
+        <v>1345</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>959</v>
+        <v>1347</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
@@ -13768,16 +13776,16 @@
     </row>
     <row r="57" spans="1:9" ht="19" customHeight="1">
       <c r="A57" s="19" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
@@ -13787,16 +13795,16 @@
     </row>
     <row r="58" spans="1:9" ht="19" customHeight="1">
       <c r="A58" s="19" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
@@ -13806,16 +13814,16 @@
     </row>
     <row r="59" spans="1:9" ht="19" customHeight="1">
       <c r="A59" s="19" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
@@ -13825,16 +13833,16 @@
     </row>
     <row r="60" spans="1:9" ht="19" customHeight="1">
       <c r="A60" s="19" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
@@ -13844,16 +13852,16 @@
     </row>
     <row r="61" spans="1:9" ht="19" customHeight="1">
       <c r="A61" s="19" t="s">
-        <v>61</v>
+        <v>966</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>814</v>
+        <v>969</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>291</v>
+        <v>972</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>975</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -13863,16 +13871,16 @@
     </row>
     <row r="62" spans="1:9" ht="19" customHeight="1">
       <c r="A62" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>412</v>
+        <v>814</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>292</v>
+        <v>62</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>291</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
@@ -13882,16 +13890,16 @@
     </row>
     <row r="63" spans="1:9" ht="19" customHeight="1">
       <c r="A63" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>293</v>
+        <v>64</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
@@ -13901,16 +13909,16 @@
     </row>
     <row r="64" spans="1:9" ht="19" customHeight="1">
       <c r="A64" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
@@ -13920,16 +13928,16 @@
     </row>
     <row r="65" spans="1:9" ht="19" customHeight="1">
       <c r="A65" s="19" t="s">
-        <v>919</v>
+        <v>67</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>920</v>
+        <v>414</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>921</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>921</v>
+        <v>68</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>294</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
@@ -13939,16 +13947,16 @@
     </row>
     <row r="66" spans="1:9" ht="19" customHeight="1">
       <c r="A66" s="19" t="s">
-        <v>818</v>
+        <v>919</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>820</v>
+        <v>920</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>821</v>
+        <v>921</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>822</v>
+        <v>921</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
@@ -13958,16 +13966,16 @@
     </row>
     <row r="67" spans="1:9" ht="19" customHeight="1">
       <c r="A67" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
@@ -13977,16 +13985,16 @@
     </row>
     <row r="68" spans="1:9" ht="19" customHeight="1">
       <c r="A68" s="19" t="s">
-        <v>1075</v>
+        <v>819</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>888</v>
+        <v>824</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>887</v>
+        <v>825</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
@@ -13996,16 +14004,16 @@
     </row>
     <row r="69" spans="1:9" ht="19" customHeight="1">
       <c r="A69" s="19" t="s">
-        <v>816</v>
+        <v>1075</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>817</v>
+        <v>888</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>886</v>
+        <v>823</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
@@ -14015,16 +14023,16 @@
     </row>
     <row r="70" spans="1:9" ht="19" customHeight="1">
       <c r="A70" s="19" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>835</v>
+        <v>889</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>836</v>
+        <v>886</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
@@ -14034,16 +14042,16 @@
     </row>
     <row r="71" spans="1:9" ht="19" customHeight="1">
       <c r="A71" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>879</v>
+        <v>835</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>881</v>
+        <v>836</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
@@ -14053,16 +14061,16 @@
     </row>
     <row r="72" spans="1:9" ht="19" customHeight="1">
       <c r="A72" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
@@ -14072,16 +14080,16 @@
     </row>
     <row r="73" spans="1:9" ht="19" customHeight="1">
       <c r="A73" s="19" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>883</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>884</v>
+        <v>880</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>882</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
@@ -14091,16 +14099,16 @@
     </row>
     <row r="74" spans="1:9" ht="19" customHeight="1">
       <c r="A74" s="19" t="s">
-        <v>69</v>
+        <v>829</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>415</v>
+        <v>830</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>901</v>
+        <v>883</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>884</v>
       </c>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
@@ -14110,16 +14118,16 @@
     </row>
     <row r="75" spans="1:9" ht="19" customHeight="1">
       <c r="A75" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>295</v>
+        <v>901</v>
       </c>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
@@ -14129,16 +14137,16 @@
     </row>
     <row r="76" spans="1:9" ht="19" customHeight="1">
       <c r="A76" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>902</v>
+        <v>295</v>
       </c>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
@@ -14148,16 +14156,16 @@
     </row>
     <row r="77" spans="1:9" ht="19" customHeight="1">
       <c r="A77" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>296</v>
+        <v>902</v>
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="20"/>
@@ -14167,16 +14175,16 @@
     </row>
     <row r="78" spans="1:9" ht="19" customHeight="1">
       <c r="A78" s="19" t="s">
-        <v>930</v>
+        <v>75</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>931</v>
+        <v>418</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>932</v>
+        <v>76</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>933</v>
+        <v>296</v>
       </c>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
@@ -14186,16 +14194,16 @@
     </row>
     <row r="79" spans="1:9" ht="19" customHeight="1">
       <c r="A79" s="19" t="s">
-        <v>77</v>
+        <v>930</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>419</v>
+        <v>931</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>297</v>
+        <v>932</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>933</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
@@ -14205,16 +14213,16 @@
     </row>
     <row r="80" spans="1:9" ht="19" customHeight="1">
       <c r="A80" s="19" t="s">
-        <v>898</v>
+        <v>77</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>899</v>
+        <v>419</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>900</v>
+        <v>78</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>903</v>
+        <v>297</v>
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
@@ -14224,16 +14232,16 @@
     </row>
     <row r="81" spans="1:9" ht="19" customHeight="1">
       <c r="A81" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>420</v>
+        <v>898</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>899</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>298</v>
+        <v>900</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>903</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
@@ -14243,16 +14251,16 @@
     </row>
     <row r="82" spans="1:9" ht="19" customHeight="1">
       <c r="A82" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>421</v>
+        <v>79</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>420</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>299</v>
+        <v>80</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>298</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
@@ -14262,16 +14270,16 @@
     </row>
     <row r="83" spans="1:9" ht="19" customHeight="1">
       <c r="A83" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>423</v>
+        <v>81</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>421</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>300</v>
+        <v>82</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>299</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
@@ -14281,16 +14289,16 @@
     </row>
     <row r="84" spans="1:9" ht="19" customHeight="1">
       <c r="A84" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>301</v>
+        <v>422</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>300</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
@@ -14300,16 +14308,16 @@
     </row>
     <row r="85" spans="1:9" ht="19" customHeight="1">
       <c r="A85" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
@@ -14319,16 +14327,16 @@
     </row>
     <row r="86" spans="1:9" ht="19" customHeight="1">
       <c r="A86" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -14338,16 +14346,16 @@
     </row>
     <row r="87" spans="1:9" ht="19" customHeight="1">
       <c r="A87" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
@@ -14357,16 +14365,16 @@
     </row>
     <row r="88" spans="1:9" ht="19" customHeight="1">
       <c r="A88" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
@@ -14376,16 +14384,16 @@
     </row>
     <row r="89" spans="1:9" ht="19" customHeight="1">
       <c r="A89" s="19" t="s">
-        <v>923</v>
+        <v>92</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>924</v>
+        <v>428</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>925</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>926</v>
+        <v>93</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
@@ -14395,16 +14403,16 @@
     </row>
     <row r="90" spans="1:9" ht="19" customHeight="1">
       <c r="A90" s="19" t="s">
-        <v>94</v>
+        <v>923</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>94</v>
+        <v>924</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>95</v>
+        <v>925</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>306</v>
+        <v>926</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
@@ -14414,16 +14422,16 @@
     </row>
     <row r="91" spans="1:9" ht="19" customHeight="1">
       <c r="A91" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>1148</v>
+        <v>94</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>1149</v>
+        <v>95</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>1150</v>
+        <v>306</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
@@ -14433,16 +14441,16 @@
     </row>
     <row r="92" spans="1:9" ht="19" customHeight="1">
       <c r="A92" s="19" t="s">
-        <v>1144</v>
+        <v>96</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D92" s="21" t="s">
-        <v>1147</v>
+        <v>1149</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>1150</v>
       </c>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
@@ -14452,16 +14460,16 @@
     </row>
     <row r="93" spans="1:9" ht="19" customHeight="1">
       <c r="A93" s="19" t="s">
-        <v>1163</v>
+        <v>1144</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>1164</v>
+        <v>1145</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>1165</v>
+        <v>1146</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>1166</v>
+        <v>1147</v>
       </c>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
@@ -14471,16 +14479,16 @@
     </row>
     <row r="94" spans="1:9" ht="19" customHeight="1">
       <c r="A94" s="19" t="s">
-        <v>839</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>841</v>
+        <v>1163</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>1164</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>1002</v>
+        <v>1165</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>1166</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -14490,16 +14498,16 @@
     </row>
     <row r="95" spans="1:9" ht="19" customHeight="1">
       <c r="A95" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
@@ -14509,16 +14517,16 @@
     </row>
     <row r="96" spans="1:9" ht="19" customHeight="1">
       <c r="A96" s="19" t="s">
-        <v>843</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>856</v>
+        <v>840</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>842</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>1016</v>
+        <v>1009</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>1003</v>
       </c>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
@@ -14528,16 +14536,16 @@
     </row>
     <row r="97" spans="1:9" ht="19" customHeight="1">
       <c r="A97" s="19" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>878</v>
+        <v>856</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
@@ -14547,16 +14555,16 @@
     </row>
     <row r="98" spans="1:9" ht="19" customHeight="1">
       <c r="A98" s="19" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>855</v>
+        <v>878</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
@@ -14566,16 +14574,16 @@
     </row>
     <row r="99" spans="1:9" ht="19" customHeight="1">
       <c r="A99" s="19" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
@@ -14585,16 +14593,16 @@
     </row>
     <row r="100" spans="1:9" ht="19" customHeight="1">
       <c r="A100" s="19" t="s">
-        <v>980</v>
+        <v>846</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>983</v>
+        <v>854</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>978</v>
-      </c>
-      <c r="D100" s="20" t="s">
-        <v>979</v>
+        <v>1013</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>1014</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
@@ -14604,16 +14612,16 @@
     </row>
     <row r="101" spans="1:9" ht="19" customHeight="1">
       <c r="A101" s="19" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
@@ -14623,16 +14631,16 @@
     </row>
     <row r="102" spans="1:9" ht="19" customHeight="1">
       <c r="A102" s="19" t="s">
-        <v>857</v>
+        <v>981</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>853</v>
+        <v>982</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
@@ -14642,16 +14650,16 @@
     </row>
     <row r="103" spans="1:9" ht="19" customHeight="1">
       <c r="A103" s="19" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
@@ -14661,16 +14669,16 @@
     </row>
     <row r="104" spans="1:9" ht="19" customHeight="1">
       <c r="A104" s="19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
@@ -14680,16 +14688,16 @@
     </row>
     <row r="105" spans="1:9" ht="19" customHeight="1">
       <c r="A105" s="19" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
@@ -14699,16 +14707,16 @@
     </row>
     <row r="106" spans="1:9" ht="19" customHeight="1">
       <c r="A106" s="19" t="s">
-        <v>858</v>
-      </c>
-      <c r="B106" s="20" t="s">
-        <v>862</v>
+        <v>849</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>850</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
@@ -14718,16 +14726,16 @@
     </row>
     <row r="107" spans="1:9" ht="19" customHeight="1">
       <c r="A107" s="19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
@@ -14737,16 +14745,16 @@
     </row>
     <row r="108" spans="1:9" ht="19" customHeight="1">
       <c r="A108" s="19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
@@ -14756,16 +14764,16 @@
     </row>
     <row r="109" spans="1:9" ht="19" customHeight="1">
       <c r="A109" s="19" t="s">
-        <v>861</v>
-      </c>
-      <c r="B109" s="19" t="s">
-        <v>865</v>
+        <v>860</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>864</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
@@ -14775,16 +14783,16 @@
     </row>
     <row r="110" spans="1:9" ht="19" customHeight="1">
       <c r="A110" s="19" t="s">
-        <v>866</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>868</v>
+        <v>861</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>865</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>1006</v>
+        <v>990</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
@@ -14794,16 +14802,16 @@
     </row>
     <row r="111" spans="1:9" ht="19" customHeight="1">
       <c r="A111" s="19" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
@@ -14813,16 +14821,16 @@
     </row>
     <row r="112" spans="1:9" ht="19" customHeight="1">
       <c r="A112" s="19" t="s">
-        <v>1181</v>
+        <v>867</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>1183</v>
+        <v>869</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>1185</v>
+        <v>1005</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>1171</v>
+        <v>1007</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
@@ -14832,16 +14840,16 @@
     </row>
     <row r="113" spans="1:9" ht="19" customHeight="1">
       <c r="A113" s="19" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
@@ -14851,16 +14859,16 @@
     </row>
     <row r="114" spans="1:9" ht="19" customHeight="1">
       <c r="A114" s="19" t="s">
-        <v>1173</v>
+        <v>1182</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>1175</v>
+        <v>1184</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>1177</v>
+        <v>1186</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
@@ -14870,16 +14878,16 @@
     </row>
     <row r="115" spans="1:9" ht="19" customHeight="1">
       <c r="A115" s="19" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
@@ -14889,16 +14897,16 @@
     </row>
     <row r="116" spans="1:9" ht="19" customHeight="1">
       <c r="A116" s="19" t="s">
-        <v>123</v>
+        <v>1174</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>795</v>
+        <v>1176</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>124</v>
+        <v>1178</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>324</v>
+        <v>1180</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
@@ -14908,16 +14916,16 @@
     </row>
     <row r="117" spans="1:9" ht="19" customHeight="1">
       <c r="A117" s="19" t="s">
-        <v>1018</v>
+        <v>123</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>1019</v>
+        <v>795</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>976</v>
+        <v>124</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>977</v>
+        <v>324</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
@@ -14927,16 +14935,16 @@
     </row>
     <row r="118" spans="1:9" ht="19" customHeight="1">
       <c r="A118" s="19" t="s">
-        <v>937</v>
+        <v>1018</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>938</v>
+        <v>1019</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>940</v>
+        <v>976</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>939</v>
+        <v>977</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
@@ -14946,16 +14954,16 @@
     </row>
     <row r="119" spans="1:9" ht="19" customHeight="1">
       <c r="A119" s="19" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -14965,16 +14973,16 @@
     </row>
     <row r="120" spans="1:9" ht="19" customHeight="1">
       <c r="A120" s="19" t="s">
-        <v>125</v>
+        <v>941</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>434</v>
+        <v>942</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>126</v>
+        <v>943</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>319</v>
+        <v>944</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
@@ -14984,16 +14992,16 @@
     </row>
     <row r="121" spans="1:9" ht="19" customHeight="1">
       <c r="A121" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B121" s="19" t="s">
-        <v>435</v>
+        <v>125</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>434</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
@@ -15003,16 +15011,16 @@
     </row>
     <row r="122" spans="1:9" ht="19" customHeight="1">
       <c r="A122" s="19" t="s">
-        <v>890</v>
+        <v>127</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>891</v>
+        <v>435</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>893</v>
+        <v>128</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>892</v>
+        <v>320</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
@@ -15022,16 +15030,16 @@
     </row>
     <row r="123" spans="1:9" ht="19" customHeight="1">
       <c r="A123" s="19" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
@@ -15041,16 +15049,16 @@
     </row>
     <row r="124" spans="1:9" ht="19" customHeight="1">
       <c r="A124" s="19" t="s">
-        <v>129</v>
+        <v>894</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>794</v>
+        <v>897</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>130</v>
+        <v>895</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>321</v>
+        <v>896</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
@@ -15060,16 +15068,16 @@
     </row>
     <row r="125" spans="1:9" ht="19" customHeight="1">
       <c r="A125" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
@@ -15079,16 +15087,16 @@
     </row>
     <row r="126" spans="1:9" ht="19" customHeight="1">
       <c r="A126" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
@@ -15098,16 +15106,16 @@
     </row>
     <row r="127" spans="1:9" ht="19" customHeight="1">
       <c r="A127" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="20"/>
@@ -15117,16 +15125,16 @@
     </row>
     <row r="128" spans="1:9" ht="19" customHeight="1">
       <c r="A128" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="20"/>
@@ -15136,16 +15144,16 @@
     </row>
     <row r="129" spans="1:9" ht="19" customHeight="1">
       <c r="A129" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
@@ -15155,16 +15163,16 @@
     </row>
     <row r="130" spans="1:9" ht="19" customHeight="1">
       <c r="A130" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
@@ -15174,16 +15182,16 @@
     </row>
     <row r="131" spans="1:9" ht="19" customHeight="1">
       <c r="A131" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>768</v>
+        <v>791</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="20"/>
@@ -15193,16 +15201,16 @@
     </row>
     <row r="132" spans="1:9" ht="19" customHeight="1">
       <c r="A132" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
@@ -15212,16 +15220,16 @@
     </row>
     <row r="133" spans="1:9" ht="19" customHeight="1">
       <c r="A133" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="20"/>
@@ -15231,16 +15239,16 @@
     </row>
     <row r="134" spans="1:9" ht="19" customHeight="1">
       <c r="A134" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
@@ -15250,16 +15258,16 @@
     </row>
     <row r="135" spans="1:9" ht="19" customHeight="1">
       <c r="A135" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="20"/>
@@ -15269,16 +15277,16 @@
     </row>
     <row r="136" spans="1:9" ht="19" customHeight="1">
       <c r="A136" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
@@ -15288,16 +15296,16 @@
     </row>
     <row r="137" spans="1:9" ht="19" customHeight="1">
       <c r="A137" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
@@ -15307,16 +15315,16 @@
     </row>
     <row r="138" spans="1:9" ht="19" customHeight="1">
       <c r="A138" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
@@ -15326,16 +15334,16 @@
     </row>
     <row r="139" spans="1:9" ht="19" customHeight="1">
       <c r="A139" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="20"/>
@@ -15345,16 +15353,16 @@
     </row>
     <row r="140" spans="1:9" ht="19" customHeight="1">
       <c r="A140" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E140" s="20"/>
       <c r="F140" s="20"/>
@@ -15364,16 +15372,16 @@
     </row>
     <row r="141" spans="1:9" ht="19" customHeight="1">
       <c r="A141" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="20"/>
@@ -15383,16 +15391,16 @@
     </row>
     <row r="142" spans="1:9" ht="19" customHeight="1">
       <c r="A142" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="20"/>
@@ -15402,16 +15410,16 @@
     </row>
     <row r="143" spans="1:9" ht="19" customHeight="1">
       <c r="A143" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E143" s="20"/>
       <c r="F143" s="20"/>
@@ -15421,16 +15429,16 @@
     </row>
     <row r="144" spans="1:9" ht="19" customHeight="1">
       <c r="A144" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="20"/>
@@ -15440,16 +15448,16 @@
     </row>
     <row r="145" spans="1:9" ht="19" customHeight="1">
       <c r="A145" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="20"/>
@@ -15459,16 +15467,16 @@
     </row>
     <row r="146" spans="1:9" ht="19" customHeight="1">
       <c r="A146" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="20"/>
@@ -15478,16 +15486,16 @@
     </row>
     <row r="147" spans="1:9" ht="19" customHeight="1">
       <c r="A147" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E147" s="20"/>
       <c r="F147" s="20"/>
@@ -15497,16 +15505,16 @@
     </row>
     <row r="148" spans="1:9" ht="19" customHeight="1">
       <c r="A148" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="20"/>
@@ -15516,16 +15524,16 @@
     </row>
     <row r="149" spans="1:9" ht="19" customHeight="1">
       <c r="A149" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="20"/>
@@ -15535,16 +15543,16 @@
     </row>
     <row r="150" spans="1:9" ht="19" customHeight="1">
       <c r="A150" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D150" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E150" s="20"/>
       <c r="F150" s="20"/>
@@ -15554,16 +15562,16 @@
     </row>
     <row r="151" spans="1:9" ht="19" customHeight="1">
       <c r="A151" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="B151" s="20" t="s">
-        <v>436</v>
+        <v>179</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>787</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D151" s="20" t="s">
-        <v>182</v>
+        <v>338</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
@@ -15573,7 +15581,7 @@
     </row>
     <row r="152" spans="1:9" ht="19" customHeight="1">
       <c r="A152" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B152" s="20" t="s">
         <v>436</v>
@@ -15592,7 +15600,7 @@
     </row>
     <row r="153" spans="1:9" ht="19" customHeight="1">
       <c r="A153" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B153" s="20" t="s">
         <v>436</v>
@@ -15611,7 +15619,7 @@
     </row>
     <row r="154" spans="1:9" ht="19" customHeight="1">
       <c r="A154" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B154" s="20" t="s">
         <v>436</v>
@@ -15630,16 +15638,16 @@
     </row>
     <row r="155" spans="1:9" ht="19" customHeight="1">
       <c r="A155" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="B155" s="19" t="s">
-        <v>437</v>
+        <v>185</v>
+      </c>
+      <c r="B155" s="20" t="s">
+        <v>436</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D155" s="22" t="s">
-        <v>339</v>
+        <v>182</v>
+      </c>
+      <c r="D155" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="E155" s="20"/>
       <c r="F155" s="20"/>
@@ -15649,16 +15657,16 @@
     </row>
     <row r="156" spans="1:9" ht="19" customHeight="1">
       <c r="A156" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
@@ -15668,16 +15676,16 @@
     </row>
     <row r="157" spans="1:9" ht="19" customHeight="1">
       <c r="A157" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E157" s="20"/>
       <c r="F157" s="20"/>
@@ -15687,16 +15695,16 @@
     </row>
     <row r="158" spans="1:9" ht="19" customHeight="1">
       <c r="A158" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E158" s="20"/>
       <c r="F158" s="20"/>
@@ -15706,16 +15714,16 @@
     </row>
     <row r="159" spans="1:9" ht="19" customHeight="1">
       <c r="A159" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E159" s="20"/>
       <c r="F159" s="20"/>
@@ -15725,16 +15733,16 @@
     </row>
     <row r="160" spans="1:9" ht="19" customHeight="1">
       <c r="A160" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E160" s="20"/>
       <c r="F160" s="20"/>
@@ -15744,16 +15752,16 @@
     </row>
     <row r="161" spans="1:9" ht="19" customHeight="1">
       <c r="A161" s="19" t="s">
-        <v>1030</v>
+        <v>196</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>1031</v>
+        <v>442</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>1032</v>
+        <v>197</v>
       </c>
       <c r="D161" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E161" s="20"/>
       <c r="F161" s="20"/>
@@ -15763,16 +15771,16 @@
     </row>
     <row r="162" spans="1:9" ht="19" customHeight="1">
       <c r="A162" s="19" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E162" s="20"/>
       <c r="F162" s="20"/>
@@ -15782,16 +15790,16 @@
     </row>
     <row r="163" spans="1:9" ht="19" customHeight="1">
       <c r="A163" s="19" t="s">
-        <v>198</v>
+        <v>1033</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>443</v>
+        <v>1034</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D163" s="21" t="s">
-        <v>359</v>
+        <v>1035</v>
+      </c>
+      <c r="D163" s="22" t="s">
+        <v>358</v>
       </c>
       <c r="E163" s="20"/>
       <c r="F163" s="20"/>
@@ -15801,16 +15809,16 @@
     </row>
     <row r="164" spans="1:9" ht="19" customHeight="1">
       <c r="A164" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D164" s="22" t="s">
-        <v>360</v>
+        <v>199</v>
+      </c>
+      <c r="D164" s="21" t="s">
+        <v>359</v>
       </c>
       <c r="E164" s="20"/>
       <c r="F164" s="20"/>
@@ -15820,16 +15828,16 @@
     </row>
     <row r="165" spans="1:9" ht="19" customHeight="1">
       <c r="A165" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D165" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E165" s="20"/>
       <c r="F165" s="20"/>
@@ -15839,16 +15847,16 @@
     </row>
     <row r="166" spans="1:9" ht="19" customHeight="1">
       <c r="A166" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E166" s="20"/>
       <c r="F166" s="20"/>
@@ -15858,16 +15866,16 @@
     </row>
     <row r="167" spans="1:9" ht="19" customHeight="1">
       <c r="A167" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D167" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E167" s="20"/>
       <c r="F167" s="20"/>
@@ -15877,16 +15885,16 @@
     </row>
     <row r="168" spans="1:9" ht="19" customHeight="1">
       <c r="A168" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>1079</v>
+        <v>207</v>
       </c>
       <c r="D168" s="22" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E168" s="20"/>
       <c r="F168" s="20"/>
@@ -15896,16 +15904,16 @@
     </row>
     <row r="169" spans="1:9" ht="19" customHeight="1">
       <c r="A169" s="19" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D169" s="22" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E169" s="20"/>
       <c r="F169" s="20"/>
@@ -15915,16 +15923,16 @@
     </row>
     <row r="170" spans="1:9" ht="19" customHeight="1">
       <c r="A170" s="19" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D170" s="22" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="E170" s="20"/>
       <c r="F170" s="20"/>
@@ -15934,16 +15942,16 @@
     </row>
     <row r="171" spans="1:9" ht="19" customHeight="1">
       <c r="A171" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D171" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E171" s="20"/>
       <c r="F171" s="20"/>
@@ -15953,16 +15961,16 @@
     </row>
     <row r="172" spans="1:9" ht="19" customHeight="1">
       <c r="A172" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E172" s="20"/>
       <c r="F172" s="20"/>
@@ -15972,16 +15980,16 @@
     </row>
     <row r="173" spans="1:9" ht="19" customHeight="1">
       <c r="A173" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E173" s="20"/>
       <c r="F173" s="20"/>
@@ -15991,16 +15999,16 @@
     </row>
     <row r="174" spans="1:9" ht="19" customHeight="1">
       <c r="A174" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D174" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E174" s="20"/>
       <c r="F174" s="20"/>
@@ -16010,16 +16018,16 @@
     </row>
     <row r="175" spans="1:9" ht="19" customHeight="1">
       <c r="A175" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E175" s="20"/>
       <c r="F175" s="20"/>
@@ -16029,16 +16037,16 @@
     </row>
     <row r="176" spans="1:9" ht="19" customHeight="1">
       <c r="A176" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="D176" s="20" t="s">
-        <v>364</v>
+        <v>1086</v>
+      </c>
+      <c r="D176" s="22" t="s">
+        <v>372</v>
       </c>
       <c r="E176" s="20"/>
       <c r="F176" s="20"/>
@@ -16048,16 +16056,16 @@
     </row>
     <row r="177" spans="1:9" ht="19" customHeight="1">
       <c r="A177" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E177" s="20"/>
       <c r="F177" s="20"/>
@@ -16067,16 +16075,16 @@
     </row>
     <row r="178" spans="1:9" ht="19" customHeight="1">
       <c r="A178" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D178" s="20" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="E178" s="20"/>
       <c r="F178" s="20"/>
@@ -16086,16 +16094,16 @@
     </row>
     <row r="179" spans="1:9" ht="19" customHeight="1">
       <c r="A179" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D179" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E179" s="20"/>
       <c r="F179" s="20"/>
@@ -16105,16 +16113,16 @@
     </row>
     <row r="180" spans="1:9" ht="19" customHeight="1">
       <c r="A180" s="19" t="s">
-        <v>1048</v>
+        <v>222</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>1049</v>
+        <v>459</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>1050</v>
+        <v>223</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>1051</v>
+        <v>375</v>
       </c>
       <c r="E180" s="20"/>
       <c r="F180" s="20"/>
@@ -16124,16 +16132,16 @@
     </row>
     <row r="181" spans="1:9" ht="19" customHeight="1">
       <c r="A181" s="19" t="s">
-        <v>224</v>
+        <v>1048</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>460</v>
+        <v>1049</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D181" s="22" t="s">
-        <v>376</v>
+        <v>1050</v>
+      </c>
+      <c r="D181" s="20" t="s">
+        <v>1051</v>
       </c>
       <c r="E181" s="20"/>
       <c r="F181" s="20"/>
@@ -16143,16 +16151,16 @@
     </row>
     <row r="182" spans="1:9" ht="19" customHeight="1">
       <c r="A182" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D182" s="22" t="s">
-        <v>885</v>
+        <v>376</v>
       </c>
       <c r="E182" s="20"/>
       <c r="F182" s="20"/>
@@ -16162,16 +16170,16 @@
     </row>
     <row r="183" spans="1:9" ht="19" customHeight="1">
       <c r="A183" s="19" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>382</v>
+        <v>885</v>
       </c>
       <c r="E183" s="20"/>
       <c r="F183" s="20"/>
@@ -16181,16 +16189,16 @@
     </row>
     <row r="184" spans="1:9" ht="19" customHeight="1">
       <c r="A184" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D184" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E184" s="20"/>
       <c r="F184" s="20"/>
@@ -16200,16 +16208,16 @@
     </row>
     <row r="185" spans="1:9" ht="19" customHeight="1">
       <c r="A185" s="19" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="D185" s="22" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E185" s="20"/>
       <c r="F185" s="20"/>
@@ -16219,16 +16227,16 @@
     </row>
     <row r="186" spans="1:9" ht="19" customHeight="1">
       <c r="A186" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D186" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E186" s="20"/>
       <c r="F186" s="20"/>
@@ -16238,16 +16246,16 @@
     </row>
     <row r="187" spans="1:9" ht="19" customHeight="1">
       <c r="A187" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D187" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E187" s="20"/>
       <c r="F187" s="20"/>
@@ -16257,16 +16265,16 @@
     </row>
     <row r="188" spans="1:9" ht="19" customHeight="1">
       <c r="A188" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D188" s="22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E188" s="20"/>
       <c r="F188" s="20"/>
@@ -16276,16 +16284,16 @@
     </row>
     <row r="189" spans="1:9" ht="19" customHeight="1">
       <c r="A189" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="D189" s="20" t="s">
-        <v>381</v>
+        <v>1092</v>
+      </c>
+      <c r="D189" s="22" t="s">
+        <v>380</v>
       </c>
       <c r="E189" s="20"/>
       <c r="F189" s="20"/>
@@ -16295,16 +16303,16 @@
     </row>
     <row r="190" spans="1:9" ht="19" customHeight="1">
       <c r="A190" s="19" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B190" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D190" s="20" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E190" s="20"/>
       <c r="F190" s="20"/>
@@ -16314,16 +16322,16 @@
     </row>
     <row r="191" spans="1:9" ht="19" customHeight="1">
       <c r="A191" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E191" s="20"/>
       <c r="F191" s="20"/>
@@ -16333,16 +16341,16 @@
     </row>
     <row r="192" spans="1:9" ht="19" customHeight="1">
       <c r="A192" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D192" s="20" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E192" s="20"/>
       <c r="F192" s="20"/>
@@ -16352,16 +16360,16 @@
     </row>
     <row r="193" spans="1:9" ht="19" customHeight="1">
       <c r="A193" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E193" s="20"/>
       <c r="F193" s="20"/>
@@ -16371,16 +16379,16 @@
     </row>
     <row r="194" spans="1:9" ht="19" customHeight="1">
       <c r="A194" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D194" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E194" s="20"/>
       <c r="F194" s="20"/>
@@ -16390,16 +16398,16 @@
     </row>
     <row r="195" spans="1:9" ht="19" customHeight="1">
       <c r="A195" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E195" s="20"/>
       <c r="F195" s="20"/>
@@ -16409,16 +16417,16 @@
     </row>
     <row r="196" spans="1:9" ht="19" customHeight="1">
       <c r="A196" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E196" s="20"/>
       <c r="F196" s="20"/>
@@ -16428,16 +16436,16 @@
     </row>
     <row r="197" spans="1:9" ht="19" customHeight="1">
       <c r="A197" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>828</v>
+        <v>473</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
@@ -16447,16 +16455,16 @@
     </row>
     <row r="198" spans="1:9" ht="19" customHeight="1">
       <c r="A198" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D198" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E198" s="20"/>
       <c r="F198" s="20"/>
@@ -16466,16 +16474,16 @@
     </row>
     <row r="199" spans="1:9" ht="19" customHeight="1">
       <c r="A199" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>474</v>
+        <v>827</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="D199" s="21" t="s">
-        <v>392</v>
+        <v>250</v>
+      </c>
+      <c r="D199" s="20" t="s">
+        <v>391</v>
       </c>
       <c r="E199" s="20"/>
       <c r="F199" s="20"/>
@@ -16485,16 +16493,16 @@
     </row>
     <row r="200" spans="1:9" ht="19" customHeight="1">
       <c r="A200" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B200" s="20" t="s">
-        <v>475</v>
+        <v>251</v>
+      </c>
+      <c r="B200" s="19" t="s">
+        <v>474</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="D200" s="20" t="s">
-        <v>482</v>
+        <v>252</v>
+      </c>
+      <c r="D200" s="21" t="s">
+        <v>392</v>
       </c>
       <c r="E200" s="20"/>
       <c r="F200" s="20"/>
@@ -16504,16 +16512,16 @@
     </row>
     <row r="201" spans="1:9" ht="19" customHeight="1">
       <c r="A201" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>393</v>
+        <v>482</v>
       </c>
       <c r="E201" s="20"/>
       <c r="F201" s="20"/>
@@ -16523,16 +16531,16 @@
     </row>
     <row r="202" spans="1:9" ht="19" customHeight="1">
       <c r="A202" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="B202" s="19" t="s">
-        <v>477</v>
+        <v>255</v>
+      </c>
+      <c r="B202" s="20" t="s">
+        <v>476</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D202" s="21" t="s">
-        <v>394</v>
+        <v>256</v>
+      </c>
+      <c r="D202" s="20" t="s">
+        <v>393</v>
       </c>
       <c r="E202" s="20"/>
       <c r="F202" s="20"/>
@@ -16542,16 +16550,16 @@
     </row>
     <row r="203" spans="1:9" ht="19" customHeight="1">
       <c r="A203" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>259</v>
+        <v>477</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E203" s="20"/>
       <c r="F203" s="20"/>
@@ -16561,16 +16569,16 @@
     </row>
     <row r="204" spans="1:9" ht="19" customHeight="1">
       <c r="A204" s="19" t="s">
-        <v>1036</v>
+        <v>259</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>436</v>
+        <v>259</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D204" s="20" t="s">
-        <v>1038</v>
+        <v>260</v>
+      </c>
+      <c r="D204" s="21" t="s">
+        <v>395</v>
       </c>
       <c r="E204" s="20"/>
       <c r="F204" s="20"/>
@@ -16580,16 +16588,16 @@
     </row>
     <row r="205" spans="1:9" ht="19" customHeight="1">
       <c r="A205" s="19" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B205" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="D205" s="20" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="E205" s="20"/>
       <c r="F205" s="20"/>
@@ -16599,16 +16607,16 @@
     </row>
     <row r="206" spans="1:9" ht="19" customHeight="1">
       <c r="A206" s="19" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B206" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D206" s="20" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E206" s="20"/>
       <c r="F206" s="20"/>
@@ -16618,16 +16626,16 @@
     </row>
     <row r="207" spans="1:9" ht="19" customHeight="1">
       <c r="A207" s="19" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B207" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D207" s="20" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
@@ -16637,16 +16645,16 @@
     </row>
     <row r="208" spans="1:9" ht="19" customHeight="1">
       <c r="A208" s="19" t="s">
-        <v>261</v>
+        <v>1041</v>
       </c>
       <c r="B208" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D208" s="22" t="s">
-        <v>396</v>
+        <v>1044</v>
+      </c>
+      <c r="D208" s="20" t="s">
+        <v>1047</v>
       </c>
       <c r="E208" s="20"/>
       <c r="F208" s="20"/>
@@ -16656,16 +16664,16 @@
     </row>
     <row r="209" spans="1:9" ht="19" customHeight="1">
       <c r="A209" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B209" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D209" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E209" s="20"/>
       <c r="F209" s="20"/>
@@ -16675,16 +16683,16 @@
     </row>
     <row r="210" spans="1:9" ht="19" customHeight="1">
       <c r="A210" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="B210" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B210" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="D210" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="D210" s="22" t="s">
+        <v>397</v>
       </c>
       <c r="E210" s="20"/>
       <c r="F210" s="20"/>
@@ -16694,16 +16702,16 @@
     </row>
     <row r="211" spans="1:9" ht="19" customHeight="1">
       <c r="A211" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B211" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E211" s="20"/>
       <c r="F211" s="20"/>
@@ -16713,16 +16721,16 @@
     </row>
     <row r="212" spans="1:9" ht="19" customHeight="1">
       <c r="A212" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B212" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D212" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E212" s="20"/>
       <c r="F212" s="20"/>
@@ -16732,16 +16740,16 @@
     </row>
     <row r="213" spans="1:9" ht="19" customHeight="1">
       <c r="A213" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B213" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>402</v>
+        <v>265</v>
       </c>
       <c r="D213" s="20" t="s">
-        <v>408</v>
+        <v>265</v>
       </c>
       <c r="E213" s="20"/>
       <c r="F213" s="20"/>
@@ -16751,16 +16759,16 @@
     </row>
     <row r="214" spans="1:9" ht="19" customHeight="1">
       <c r="A214" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B214" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D214" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E214" s="20"/>
       <c r="F214" s="20"/>
@@ -16770,16 +16778,16 @@
     </row>
     <row r="215" spans="1:9" ht="19" customHeight="1">
       <c r="A215" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B215" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D215" s="20" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="E215" s="20"/>
       <c r="F215" s="20"/>
@@ -16789,16 +16797,16 @@
     </row>
     <row r="216" spans="1:9" ht="19" customHeight="1">
       <c r="A216" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B216" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D216" s="20" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E216" s="20"/>
       <c r="F216" s="20"/>
@@ -16808,16 +16816,16 @@
     </row>
     <row r="217" spans="1:9" ht="19" customHeight="1">
       <c r="A217" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B217" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="D217" s="21" t="s">
-        <v>400</v>
+        <v>405</v>
+      </c>
+      <c r="D217" s="20" t="s">
+        <v>398</v>
       </c>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
@@ -16827,16 +16835,16 @@
     </row>
     <row r="218" spans="1:9" ht="19" customHeight="1">
       <c r="A218" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B218" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E218" s="20"/>
       <c r="F218" s="20"/>
@@ -16846,14 +16854,16 @@
     </row>
     <row r="219" spans="1:9" ht="19" customHeight="1">
       <c r="A219" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="B219" s="20"/>
+        <v>271</v>
+      </c>
+      <c r="B219" s="20" t="s">
+        <v>436</v>
+      </c>
       <c r="C219" s="20" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D219" s="20" t="s">
-        <v>1103</v>
+        <v>407</v>
+      </c>
+      <c r="D219" s="21" t="s">
+        <v>401</v>
       </c>
       <c r="E219" s="20"/>
       <c r="F219" s="20"/>
@@ -16863,14 +16873,14 @@
     </row>
     <row r="220" spans="1:9" ht="19" customHeight="1">
       <c r="A220" s="19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="20" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D220" s="20" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E220" s="20"/>
       <c r="F220" s="20"/>
@@ -16879,10 +16889,16 @@
       <c r="I220" s="18"/>
     </row>
     <row r="221" spans="1:9" ht="19" customHeight="1">
-      <c r="A221" s="19"/>
+      <c r="A221" s="19" t="s">
+        <v>491</v>
+      </c>
       <c r="B221" s="20"/>
-      <c r="C221" s="20"/>
-      <c r="D221" s="20"/>
+      <c r="C221" s="20" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D221" s="20" t="s">
+        <v>1104</v>
+      </c>
       <c r="E221" s="20"/>
       <c r="F221" s="20"/>
       <c r="G221" s="18"/>
@@ -16956,45 +16972,39 @@
       <c r="I227" s="18"/>
     </row>
     <row r="228" spans="1:9" ht="19" customHeight="1">
-      <c r="A228" s="26" t="s">
+      <c r="A228" s="19"/>
+      <c r="B228" s="20"/>
+      <c r="C228" s="20"/>
+      <c r="D228" s="20"/>
+      <c r="E228" s="20"/>
+      <c r="F228" s="20"/>
+      <c r="G228" s="18"/>
+      <c r="H228" s="17"/>
+      <c r="I228" s="18"/>
+    </row>
+    <row r="229" spans="1:9" ht="19" customHeight="1">
+      <c r="A229" s="26" t="s">
         <v>483</v>
       </c>
-      <c r="B228" s="23"/>
-      <c r="C228" s="23"/>
-      <c r="D228" s="23"/>
-      <c r="E228" s="23"/>
-      <c r="F228" s="23"/>
-      <c r="G228" s="24"/>
-      <c r="H228" s="25"/>
-      <c r="I228" s="24"/>
-    </row>
-    <row r="229" spans="1:9" ht="19" customHeight="1">
-      <c r="A229" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="B229" s="20"/>
-      <c r="C229" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="D229" s="20" t="s">
-        <v>670</v>
-      </c>
-      <c r="E229" s="20"/>
-      <c r="F229" s="20"/>
-      <c r="G229" s="18"/>
-      <c r="H229" s="17"/>
-      <c r="I229" s="18"/>
+      <c r="B229" s="23"/>
+      <c r="C229" s="23"/>
+      <c r="D229" s="23"/>
+      <c r="E229" s="23"/>
+      <c r="F229" s="23"/>
+      <c r="G229" s="24"/>
+      <c r="H229" s="25"/>
+      <c r="I229" s="24"/>
     </row>
     <row r="230" spans="1:9" ht="19" customHeight="1">
       <c r="A230" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="20" t="s">
-        <v>486</v>
-      </c>
-      <c r="D230" s="22" t="s">
-        <v>671</v>
+        <v>485</v>
+      </c>
+      <c r="D230" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="E230" s="20"/>
       <c r="F230" s="20"/>
@@ -17004,14 +17014,14 @@
     </row>
     <row r="231" spans="1:9" ht="19" customHeight="1">
       <c r="A231" s="19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B231" s="20"/>
       <c r="C231" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="D231" s="20" t="s">
-        <v>672</v>
+        <v>486</v>
+      </c>
+      <c r="D231" s="22" t="s">
+        <v>671</v>
       </c>
       <c r="E231" s="20"/>
       <c r="F231" s="20"/>
@@ -17021,14 +17031,14 @@
     </row>
     <row r="232" spans="1:9" ht="19" customHeight="1">
       <c r="A232" s="19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="D232" s="22" t="s">
-        <v>673</v>
+        <v>487</v>
+      </c>
+      <c r="D232" s="20" t="s">
+        <v>672</v>
       </c>
       <c r="E232" s="20"/>
       <c r="F232" s="20"/>
@@ -17038,14 +17048,14 @@
     </row>
     <row r="233" spans="1:9" ht="19" customHeight="1">
       <c r="A233" s="19" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="D233" s="21" t="s">
-        <v>674</v>
+        <v>489</v>
+      </c>
+      <c r="D233" s="22" t="s">
+        <v>673</v>
       </c>
       <c r="E233" s="20"/>
       <c r="F233" s="20"/>
@@ -17055,14 +17065,14 @@
     </row>
     <row r="234" spans="1:9" ht="19" customHeight="1">
       <c r="A234" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="D234" s="22" t="s">
-        <v>675</v>
+        <v>493</v>
+      </c>
+      <c r="D234" s="21" t="s">
+        <v>674</v>
       </c>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
@@ -17072,14 +17082,14 @@
     </row>
     <row r="235" spans="1:9" ht="19" customHeight="1">
       <c r="A235" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B235" s="20"/>
       <c r="C235" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="D235" s="21" t="s">
-        <v>676</v>
+        <v>495</v>
+      </c>
+      <c r="D235" s="22" t="s">
+        <v>675</v>
       </c>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
@@ -17089,14 +17099,14 @@
     </row>
     <row r="236" spans="1:9" ht="19" customHeight="1">
       <c r="A236" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B236" s="20"/>
       <c r="C236" s="20" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D236" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E236" s="20"/>
       <c r="F236" s="20"/>
@@ -17106,14 +17116,14 @@
     </row>
     <row r="237" spans="1:9" ht="19" customHeight="1">
       <c r="A237" s="19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B237" s="20"/>
       <c r="C237" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D237" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E237" s="20"/>
       <c r="F237" s="20"/>
@@ -17123,14 +17133,14 @@
     </row>
     <row r="238" spans="1:9" ht="19" customHeight="1">
       <c r="A238" s="19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B238" s="20"/>
       <c r="C238" s="20" t="s">
-        <v>934</v>
+        <v>501</v>
       </c>
       <c r="D238" s="21" t="s">
-        <v>935</v>
+        <v>678</v>
       </c>
       <c r="E238" s="20"/>
       <c r="F238" s="20"/>
@@ -17140,14 +17150,14 @@
     </row>
     <row r="239" spans="1:9" ht="19" customHeight="1">
       <c r="A239" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="20" t="s">
-        <v>504</v>
+        <v>934</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>679</v>
+        <v>935</v>
       </c>
       <c r="E239" s="20"/>
       <c r="F239" s="20"/>
@@ -17157,14 +17167,14 @@
     </row>
     <row r="240" spans="1:9" ht="19" customHeight="1">
       <c r="A240" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B240" s="20"/>
       <c r="C240" s="20" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E240" s="20"/>
       <c r="F240" s="20"/>
@@ -17174,14 +17184,14 @@
     </row>
     <row r="241" spans="1:9" ht="19" customHeight="1">
       <c r="A241" s="19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B241" s="20"/>
       <c r="C241" s="20" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D241" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E241" s="20"/>
       <c r="F241" s="20"/>
@@ -17191,14 +17201,14 @@
     </row>
     <row r="242" spans="1:9" ht="19" customHeight="1">
       <c r="A242" s="19" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B242" s="20"/>
       <c r="C242" s="20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D242" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E242" s="20"/>
       <c r="F242" s="20"/>
@@ -17208,14 +17218,14 @@
     </row>
     <row r="243" spans="1:9" ht="19" customHeight="1">
       <c r="A243" s="19" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="20" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D243" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E243" s="20"/>
       <c r="F243" s="20"/>
@@ -17225,14 +17235,14 @@
     </row>
     <row r="244" spans="1:9" ht="19" customHeight="1">
       <c r="A244" s="19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E244" s="20"/>
       <c r="F244" s="20"/>
@@ -17242,14 +17252,14 @@
     </row>
     <row r="245" spans="1:9" ht="19" customHeight="1">
       <c r="A245" s="19" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B245" s="20"/>
       <c r="C245" s="20" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D245" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E245" s="20"/>
       <c r="F245" s="20"/>
@@ -17259,14 +17269,14 @@
     </row>
     <row r="246" spans="1:9" ht="19" customHeight="1">
       <c r="A246" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="D246" s="20" t="s">
-        <v>686</v>
+        <v>516</v>
+      </c>
+      <c r="D246" s="21" t="s">
+        <v>685</v>
       </c>
       <c r="E246" s="20"/>
       <c r="F246" s="20"/>
@@ -17276,14 +17286,14 @@
     </row>
     <row r="247" spans="1:9" ht="19" customHeight="1">
       <c r="A247" s="19" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D247" s="22" t="s">
-        <v>687</v>
+        <v>518</v>
+      </c>
+      <c r="D247" s="20" t="s">
+        <v>686</v>
       </c>
       <c r="E247" s="20"/>
       <c r="F247" s="20"/>
@@ -17293,14 +17303,14 @@
     </row>
     <row r="248" spans="1:9" ht="19" customHeight="1">
       <c r="A248" s="19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="D248" s="21" t="s">
-        <v>688</v>
+        <v>520</v>
+      </c>
+      <c r="D248" s="22" t="s">
+        <v>687</v>
       </c>
       <c r="E248" s="20"/>
       <c r="F248" s="20"/>
@@ -17310,14 +17320,14 @@
     </row>
     <row r="249" spans="1:9" ht="19" customHeight="1">
       <c r="A249" s="19" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="20" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D249" s="20" t="s">
-        <v>1143</v>
+        <v>522</v>
+      </c>
+      <c r="D249" s="21" t="s">
+        <v>688</v>
       </c>
       <c r="E249" s="20"/>
       <c r="F249" s="20"/>
@@ -17327,14 +17337,14 @@
     </row>
     <row r="250" spans="1:9" ht="19" customHeight="1">
       <c r="A250" s="19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="20" t="s">
-        <v>525</v>
+        <v>1142</v>
       </c>
       <c r="D250" s="20" t="s">
-        <v>689</v>
+        <v>1143</v>
       </c>
       <c r="E250" s="20"/>
       <c r="F250" s="20"/>
@@ -17344,14 +17354,14 @@
     </row>
     <row r="251" spans="1:9" ht="19" customHeight="1">
       <c r="A251" s="19" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="20" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
@@ -17361,14 +17371,14 @@
     </row>
     <row r="252" spans="1:9" ht="19" customHeight="1">
       <c r="A252" s="19" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="20" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E252" s="20"/>
       <c r="F252" s="20"/>
@@ -17378,14 +17388,14 @@
     </row>
     <row r="253" spans="1:9" ht="19" customHeight="1">
       <c r="A253" s="19" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="20" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E253" s="20"/>
       <c r="F253" s="20"/>
@@ -17395,14 +17405,14 @@
     </row>
     <row r="254" spans="1:9" ht="19" customHeight="1">
       <c r="A254" s="19" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B254" s="20"/>
       <c r="C254" s="20" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E254" s="20"/>
       <c r="F254" s="20"/>
@@ -17412,14 +17422,14 @@
     </row>
     <row r="255" spans="1:9" ht="19" customHeight="1">
       <c r="A255" s="19" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B255" s="20"/>
       <c r="C255" s="20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E255" s="20"/>
       <c r="F255" s="20"/>
@@ -17429,14 +17439,14 @@
     </row>
     <row r="256" spans="1:9" ht="19" customHeight="1">
       <c r="A256" s="19" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="D256" s="21" t="s">
-        <v>695</v>
+        <v>535</v>
+      </c>
+      <c r="D256" s="20" t="s">
+        <v>694</v>
       </c>
       <c r="E256" s="20"/>
       <c r="F256" s="20"/>
@@ -17446,14 +17456,14 @@
     </row>
     <row r="257" spans="1:9" ht="19" customHeight="1">
       <c r="A257" s="19" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="20" t="s">
-        <v>539</v>
-      </c>
-      <c r="D257" s="20" t="s">
-        <v>696</v>
+        <v>537</v>
+      </c>
+      <c r="D257" s="21" t="s">
+        <v>695</v>
       </c>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
@@ -17463,14 +17473,14 @@
     </row>
     <row r="258" spans="1:9" ht="19" customHeight="1">
       <c r="A258" s="19" t="s">
-        <v>1023</v>
+        <v>538</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D258" s="20" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E258" s="20"/>
       <c r="F258" s="20"/>
@@ -17480,14 +17490,14 @@
     </row>
     <row r="259" spans="1:9" ht="19" customHeight="1">
       <c r="A259" s="19" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="20" t="s">
-        <v>541</v>
-      </c>
-      <c r="D259" s="21" t="s">
-        <v>698</v>
+        <v>540</v>
+      </c>
+      <c r="D259" s="20" t="s">
+        <v>697</v>
       </c>
       <c r="E259" s="20"/>
       <c r="F259" s="20"/>
@@ -17497,14 +17507,14 @@
     </row>
     <row r="260" spans="1:9" ht="19" customHeight="1">
       <c r="A260" s="19" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="20" t="s">
-        <v>1026</v>
+        <v>541</v>
       </c>
       <c r="D260" s="21" t="s">
-        <v>1027</v>
+        <v>698</v>
       </c>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
@@ -17514,14 +17524,14 @@
     </row>
     <row r="261" spans="1:9" ht="19" customHeight="1">
       <c r="A261" s="19" t="s">
-        <v>542</v>
+        <v>1025</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="20" t="s">
-        <v>543</v>
-      </c>
-      <c r="D261" s="20" t="s">
-        <v>699</v>
+        <v>1026</v>
+      </c>
+      <c r="D261" s="21" t="s">
+        <v>1027</v>
       </c>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
@@ -17531,14 +17541,14 @@
     </row>
     <row r="262" spans="1:9" ht="19" customHeight="1">
       <c r="A262" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D262" s="20" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
@@ -17548,14 +17558,14 @@
     </row>
     <row r="263" spans="1:9" ht="19" customHeight="1">
       <c r="A263" s="19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="20" t="s">
-        <v>547</v>
-      </c>
-      <c r="D263" s="21" t="s">
-        <v>701</v>
+        <v>545</v>
+      </c>
+      <c r="D263" s="20" t="s">
+        <v>700</v>
       </c>
       <c r="E263" s="20"/>
       <c r="F263" s="20"/>
@@ -17565,14 +17575,14 @@
     </row>
     <row r="264" spans="1:9" ht="19" customHeight="1">
       <c r="A264" s="19" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="D264" s="20" t="s">
-        <v>702</v>
+        <v>547</v>
+      </c>
+      <c r="D264" s="21" t="s">
+        <v>701</v>
       </c>
       <c r="E264" s="20"/>
       <c r="F264" s="20"/>
@@ -17582,14 +17592,14 @@
     </row>
     <row r="265" spans="1:9" ht="19" customHeight="1">
       <c r="A265" s="19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D265" s="20" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
@@ -17599,14 +17609,14 @@
     </row>
     <row r="266" spans="1:9" ht="19" customHeight="1">
       <c r="A266" s="19" t="s">
-        <v>1162</v>
+        <v>550</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="20" t="s">
-        <v>1161</v>
+        <v>551</v>
       </c>
       <c r="D266" s="20" t="s">
-        <v>1160</v>
+        <v>703</v>
       </c>
       <c r="E266" s="20"/>
       <c r="F266" s="20"/>
@@ -17616,14 +17626,14 @@
     </row>
     <row r="267" spans="1:9" ht="19" customHeight="1">
       <c r="A267" s="19" t="s">
-        <v>552</v>
+        <v>1162</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="20" t="s">
-        <v>553</v>
+        <v>1161</v>
       </c>
       <c r="D267" s="20" t="s">
-        <v>704</v>
+        <v>1160</v>
       </c>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
@@ -17633,14 +17643,14 @@
     </row>
     <row r="268" spans="1:9" ht="19" customHeight="1">
       <c r="A268" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="20" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D268" s="20" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E268" s="20"/>
       <c r="F268" s="20"/>
@@ -17650,14 +17660,14 @@
     </row>
     <row r="269" spans="1:9" ht="19" customHeight="1">
       <c r="A269" s="19" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="D269" s="21" t="s">
-        <v>706</v>
+        <v>555</v>
+      </c>
+      <c r="D269" s="20" t="s">
+        <v>705</v>
       </c>
       <c r="E269" s="20"/>
       <c r="F269" s="20"/>
@@ -17667,14 +17677,14 @@
     </row>
     <row r="270" spans="1:9" ht="19" customHeight="1">
       <c r="A270" s="19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D270" s="21" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E270" s="20"/>
       <c r="F270" s="20"/>
@@ -17684,14 +17694,14 @@
     </row>
     <row r="271" spans="1:9" ht="19" customHeight="1">
       <c r="A271" s="19" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="D271" s="20" t="s">
-        <v>708</v>
+        <v>559</v>
+      </c>
+      <c r="D271" s="21" t="s">
+        <v>707</v>
       </c>
       <c r="E271" s="20"/>
       <c r="F271" s="20"/>
@@ -17701,14 +17711,14 @@
     </row>
     <row r="272" spans="1:9" ht="19" customHeight="1">
       <c r="A272" s="19" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D272" s="20" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E272" s="20"/>
       <c r="F272" s="20"/>
@@ -17718,14 +17728,14 @@
     </row>
     <row r="273" spans="1:9" ht="19" customHeight="1">
       <c r="A273" s="19" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="20" t="s">
-        <v>1169</v>
+        <v>563</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E273" s="20"/>
       <c r="F273" s="20"/>
@@ -17735,14 +17745,14 @@
     </row>
     <row r="274" spans="1:9" ht="19" customHeight="1">
       <c r="A274" s="19" t="s">
-        <v>1105</v>
+        <v>564</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="20" t="s">
-        <v>1109</v>
+        <v>1169</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>1110</v>
+        <v>710</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -17752,14 +17762,14 @@
     </row>
     <row r="275" spans="1:9" ht="19" customHeight="1">
       <c r="A275" s="19" t="s">
-        <v>1118</v>
+        <v>1105</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="20" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D275" s="22" t="s">
-        <v>1127</v>
+        <v>1109</v>
+      </c>
+      <c r="D275" s="20" t="s">
+        <v>1110</v>
       </c>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
@@ -17769,14 +17779,14 @@
     </row>
     <row r="276" spans="1:9" ht="19" customHeight="1">
       <c r="A276" s="19" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="20" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="D276" s="22" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -17786,14 +17796,14 @@
     </row>
     <row r="277" spans="1:9" ht="19" customHeight="1">
       <c r="A277" s="19" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="20" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="D277" s="22" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
@@ -17803,14 +17813,14 @@
     </row>
     <row r="278" spans="1:9" ht="19" customHeight="1">
       <c r="A278" s="19" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="20" t="s">
-        <v>1167</v>
+        <v>1122</v>
       </c>
       <c r="D278" s="22" t="s">
-        <v>1168</v>
+        <v>1123</v>
       </c>
       <c r="E278" s="20"/>
       <c r="F278" s="20"/>
@@ -17820,14 +17830,14 @@
     </row>
     <row r="279" spans="1:9" ht="19" customHeight="1">
       <c r="A279" s="19" t="s">
-        <v>910</v>
+        <v>1121</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="20" t="s">
-        <v>912</v>
-      </c>
-      <c r="D279" s="20" t="s">
-        <v>911</v>
+        <v>1167</v>
+      </c>
+      <c r="D279" s="22" t="s">
+        <v>1168</v>
       </c>
       <c r="E279" s="20"/>
       <c r="F279" s="20"/>
@@ -17837,14 +17847,14 @@
     </row>
     <row r="280" spans="1:9" ht="19" customHeight="1">
       <c r="A280" s="19" t="s">
-        <v>565</v>
+        <v>910</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="D280" s="21" t="s">
-        <v>711</v>
+        <v>912</v>
+      </c>
+      <c r="D280" s="20" t="s">
+        <v>911</v>
       </c>
       <c r="E280" s="20"/>
       <c r="F280" s="20"/>
@@ -17854,14 +17864,14 @@
     </row>
     <row r="281" spans="1:9" ht="19" customHeight="1">
       <c r="A281" s="19" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="20" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
@@ -17871,14 +17881,14 @@
     </row>
     <row r="282" spans="1:9" ht="19" customHeight="1">
       <c r="A282" s="19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="D282" s="20" t="s">
-        <v>713</v>
+        <v>568</v>
+      </c>
+      <c r="D282" s="21" t="s">
+        <v>712</v>
       </c>
       <c r="E282" s="20"/>
       <c r="F282" s="20"/>
@@ -17888,14 +17898,14 @@
     </row>
     <row r="283" spans="1:9" ht="19" customHeight="1">
       <c r="A283" s="19" t="s">
-        <v>1106</v>
+        <v>569</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="20" t="s">
-        <v>1128</v>
+        <v>570</v>
       </c>
       <c r="D283" s="20" t="s">
-        <v>1129</v>
+        <v>713</v>
       </c>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
@@ -17905,14 +17915,14 @@
     </row>
     <row r="284" spans="1:9" ht="19" customHeight="1">
       <c r="A284" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="20" t="s">
-        <v>1108</v>
+        <v>1128</v>
       </c>
       <c r="D284" s="20" t="s">
-        <v>1114</v>
+        <v>1129</v>
       </c>
       <c r="E284" s="20"/>
       <c r="F284" s="20"/>
@@ -17922,14 +17932,14 @@
     </row>
     <row r="285" spans="1:9" ht="19" customHeight="1">
       <c r="A285" s="19" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="20" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="D285" s="20" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
@@ -17939,14 +17949,14 @@
     </row>
     <row r="286" spans="1:9" ht="19" customHeight="1">
       <c r="A286" s="19" t="s">
-        <v>573</v>
+        <v>1115</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="20" t="s">
-        <v>574</v>
+        <v>1116</v>
       </c>
       <c r="D286" s="20" t="s">
-        <v>715</v>
+        <v>1117</v>
       </c>
       <c r="E286" s="20"/>
       <c r="F286" s="20"/>
@@ -17956,14 +17966,14 @@
     </row>
     <row r="287" spans="1:9" ht="19" customHeight="1">
       <c r="A287" s="19" t="s">
-        <v>1028</v>
+        <v>573</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="20" t="s">
-        <v>1029</v>
+        <v>574</v>
       </c>
       <c r="D287" s="20" t="s">
-        <v>1170</v>
+        <v>715</v>
       </c>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
@@ -17973,14 +17983,14 @@
     </row>
     <row r="288" spans="1:9" ht="19" customHeight="1">
       <c r="A288" s="19" t="s">
-        <v>571</v>
+        <v>1028</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="20" t="s">
-        <v>572</v>
+        <v>1029</v>
       </c>
       <c r="D288" s="20" t="s">
-        <v>714</v>
+        <v>1170</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -17990,14 +18000,14 @@
     </row>
     <row r="289" spans="1:9" ht="19" customHeight="1">
       <c r="A289" s="19" t="s">
-        <v>1111</v>
+        <v>571</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="20" t="s">
-        <v>1113</v>
+        <v>572</v>
       </c>
       <c r="D289" s="20" t="s">
-        <v>1112</v>
+        <v>714</v>
       </c>
       <c r="E289" s="20"/>
       <c r="F289" s="20"/>
@@ -18007,14 +18017,14 @@
     </row>
     <row r="290" spans="1:9" ht="19" customHeight="1">
       <c r="A290" s="19" t="s">
-        <v>575</v>
+        <v>1111</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="20" t="s">
-        <v>576</v>
+        <v>1113</v>
       </c>
       <c r="D290" s="20" t="s">
-        <v>716</v>
+        <v>1112</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -18024,14 +18034,14 @@
     </row>
     <row r="291" spans="1:9" ht="19" customHeight="1">
       <c r="A291" s="19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D291" s="20" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E291" s="20"/>
       <c r="F291" s="20"/>
@@ -18041,14 +18051,14 @@
     </row>
     <row r="292" spans="1:9" ht="19" customHeight="1">
       <c r="A292" s="19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="D292" s="21" t="s">
-        <v>718</v>
+        <v>578</v>
+      </c>
+      <c r="D292" s="20" t="s">
+        <v>717</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -18058,14 +18068,14 @@
     </row>
     <row r="293" spans="1:9" ht="19" customHeight="1">
       <c r="A293" s="19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="20" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D293" s="21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E293" s="20"/>
       <c r="F293" s="20"/>
@@ -18075,14 +18085,14 @@
     </row>
     <row r="294" spans="1:9" ht="19" customHeight="1">
       <c r="A294" s="19" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="D294" s="20" t="s">
-        <v>720</v>
+        <v>582</v>
+      </c>
+      <c r="D294" s="21" t="s">
+        <v>719</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -18092,14 +18102,14 @@
     </row>
     <row r="295" spans="1:9" ht="19" customHeight="1">
       <c r="A295" s="19" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="D295" s="21" t="s">
-        <v>721</v>
+        <v>584</v>
+      </c>
+      <c r="D295" s="20" t="s">
+        <v>720</v>
       </c>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
@@ -18109,14 +18119,14 @@
     </row>
     <row r="296" spans="1:9" ht="19" customHeight="1">
       <c r="A296" s="19" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="20" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D296" s="21" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -18126,14 +18136,14 @@
     </row>
     <row r="297" spans="1:9" ht="19" customHeight="1">
       <c r="A297" s="19" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="20" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
@@ -18143,14 +18153,14 @@
     </row>
     <row r="298" spans="1:9" ht="19" customHeight="1">
       <c r="A298" s="19" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D298" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -18160,14 +18170,14 @@
     </row>
     <row r="299" spans="1:9" ht="19" customHeight="1">
       <c r="A299" s="19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="20" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D299" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E299" s="20"/>
       <c r="F299" s="20"/>
@@ -18177,14 +18187,14 @@
     </row>
     <row r="300" spans="1:9" ht="19" customHeight="1">
       <c r="A300" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="20" t="s">
-        <v>596</v>
-      </c>
-      <c r="D300" s="20" t="s">
-        <v>726</v>
+        <v>594</v>
+      </c>
+      <c r="D300" s="21" t="s">
+        <v>725</v>
       </c>
       <c r="E300" s="20"/>
       <c r="F300" s="20"/>
@@ -18194,14 +18204,14 @@
     </row>
     <row r="301" spans="1:9" ht="19" customHeight="1">
       <c r="A301" s="19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="20" t="s">
-        <v>598</v>
-      </c>
-      <c r="D301" s="21" t="s">
-        <v>727</v>
+        <v>596</v>
+      </c>
+      <c r="D301" s="20" t="s">
+        <v>726</v>
       </c>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
@@ -18211,14 +18221,14 @@
     </row>
     <row r="302" spans="1:9" ht="19" customHeight="1">
       <c r="A302" s="19" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="20" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D302" s="21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E302" s="20"/>
       <c r="F302" s="20"/>
@@ -18228,14 +18238,14 @@
     </row>
     <row r="303" spans="1:9" ht="19" customHeight="1">
       <c r="A303" s="19" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="20" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D303" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E303" s="20"/>
       <c r="F303" s="20"/>
@@ -18245,14 +18255,14 @@
     </row>
     <row r="304" spans="1:9" ht="19" customHeight="1">
       <c r="A304" s="19" t="s">
-        <v>1020</v>
+        <v>601</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="20" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D304" s="20" t="s">
-        <v>1022</v>
+        <v>602</v>
+      </c>
+      <c r="D304" s="21" t="s">
+        <v>729</v>
       </c>
       <c r="E304" s="20"/>
       <c r="F304" s="20"/>
@@ -18262,14 +18272,14 @@
     </row>
     <row r="305" spans="1:9" ht="19" customHeight="1">
       <c r="A305" s="19" t="s">
-        <v>603</v>
+        <v>1020</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="20" t="s">
-        <v>604</v>
-      </c>
-      <c r="D305" s="21" t="s">
-        <v>730</v>
+        <v>1021</v>
+      </c>
+      <c r="D305" s="20" t="s">
+        <v>1022</v>
       </c>
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
@@ -18279,14 +18289,14 @@
     </row>
     <row r="306" spans="1:9" ht="19" customHeight="1">
       <c r="A306" s="19" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="20" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
@@ -18296,14 +18306,14 @@
     </row>
     <row r="307" spans="1:9" ht="19" customHeight="1">
       <c r="A307" s="19" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="D307" s="20" t="s">
-        <v>732</v>
+        <v>606</v>
+      </c>
+      <c r="D307" s="21" t="s">
+        <v>731</v>
       </c>
       <c r="E307" s="20"/>
       <c r="F307" s="20"/>
@@ -18313,14 +18323,14 @@
     </row>
     <row r="308" spans="1:9" ht="19" customHeight="1">
       <c r="A308" s="19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="20" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D308" s="20" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -18330,14 +18340,14 @@
     </row>
     <row r="309" spans="1:9" ht="19" customHeight="1">
       <c r="A309" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="20" t="s">
-        <v>612</v>
-      </c>
-      <c r="D309" s="21" t="s">
-        <v>734</v>
+        <v>610</v>
+      </c>
+      <c r="D309" s="20" t="s">
+        <v>733</v>
       </c>
       <c r="E309" s="20"/>
       <c r="F309" s="20"/>
@@ -18347,14 +18357,14 @@
     </row>
     <row r="310" spans="1:9" ht="19" customHeight="1">
       <c r="A310" s="19" t="s">
-        <v>1076</v>
+        <v>611</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="20" t="s">
-        <v>1077</v>
+        <v>612</v>
       </c>
       <c r="D310" s="21" t="s">
-        <v>1078</v>
+        <v>734</v>
       </c>
       <c r="E310" s="20"/>
       <c r="F310" s="20"/>
@@ -18364,14 +18374,14 @@
     </row>
     <row r="311" spans="1:9" ht="19" customHeight="1">
       <c r="A311" s="19" t="s">
-        <v>613</v>
+        <v>1076</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="D311" s="22" t="s">
-        <v>735</v>
+        <v>1077</v>
+      </c>
+      <c r="D311" s="21" t="s">
+        <v>1078</v>
       </c>
       <c r="E311" s="20"/>
       <c r="F311" s="20"/>
@@ -18381,14 +18391,14 @@
     </row>
     <row r="312" spans="1:9" ht="19" customHeight="1">
       <c r="A312" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="D312" s="21" t="s">
-        <v>936</v>
+        <v>614</v>
+      </c>
+      <c r="D312" s="22" t="s">
+        <v>735</v>
       </c>
       <c r="E312" s="20"/>
       <c r="F312" s="20"/>
@@ -18398,14 +18408,14 @@
     </row>
     <row r="313" spans="1:9" ht="19" customHeight="1">
       <c r="A313" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="20" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D313" s="21" t="s">
-        <v>736</v>
+        <v>936</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -18415,14 +18425,14 @@
     </row>
     <row r="314" spans="1:9" ht="19" customHeight="1">
       <c r="A314" s="19" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="D314" s="20" t="s">
-        <v>737</v>
+        <v>618</v>
+      </c>
+      <c r="D314" s="21" t="s">
+        <v>736</v>
       </c>
       <c r="E314" s="20"/>
       <c r="F314" s="20"/>
@@ -18432,14 +18442,14 @@
     </row>
     <row r="315" spans="1:9" ht="19" customHeight="1">
       <c r="A315" s="19" t="s">
-        <v>948</v>
+        <v>619</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="20" t="s">
-        <v>949</v>
+        <v>620</v>
       </c>
       <c r="D315" s="20" t="s">
-        <v>950</v>
+        <v>737</v>
       </c>
       <c r="E315" s="20"/>
       <c r="F315" s="20"/>
@@ -18449,14 +18459,14 @@
     </row>
     <row r="316" spans="1:9" ht="19" customHeight="1">
       <c r="A316" s="19" t="s">
-        <v>621</v>
+        <v>948</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="D316" s="21" t="s">
-        <v>738</v>
+        <v>949</v>
+      </c>
+      <c r="D316" s="20" t="s">
+        <v>950</v>
       </c>
       <c r="E316" s="20"/>
       <c r="F316" s="20"/>
@@ -18466,14 +18476,14 @@
     </row>
     <row r="317" spans="1:9" ht="19" customHeight="1">
       <c r="A317" s="19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="20" t="s">
-        <v>951</v>
+        <v>622</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>952</v>
+        <v>738</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -18483,14 +18493,14 @@
     </row>
     <row r="318" spans="1:9" ht="19" customHeight="1">
       <c r="A318" s="19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="20" t="s">
-        <v>625</v>
+        <v>951</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>739</v>
+        <v>952</v>
       </c>
       <c r="E318" s="20"/>
       <c r="F318" s="20"/>
@@ -18500,14 +18510,14 @@
     </row>
     <row r="319" spans="1:9" ht="19" customHeight="1">
       <c r="A319" s="19" t="s">
-        <v>953</v>
+        <v>624</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="20" t="s">
-        <v>954</v>
-      </c>
-      <c r="D319" s="20" t="s">
-        <v>955</v>
+        <v>625</v>
+      </c>
+      <c r="D319" s="21" t="s">
+        <v>739</v>
       </c>
       <c r="E319" s="20"/>
       <c r="F319" s="20"/>
@@ -18517,14 +18527,14 @@
     </row>
     <row r="320" spans="1:9" ht="19" customHeight="1">
       <c r="A320" s="19" t="s">
-        <v>626</v>
+        <v>953</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="20" t="s">
-        <v>627</v>
-      </c>
-      <c r="D320" s="21" t="s">
-        <v>740</v>
+        <v>954</v>
+      </c>
+      <c r="D320" s="20" t="s">
+        <v>955</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -18534,14 +18544,14 @@
     </row>
     <row r="321" spans="1:9" ht="19" customHeight="1">
       <c r="A321" s="19" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="20" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D321" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E321" s="20"/>
       <c r="F321" s="20"/>
@@ -18551,14 +18561,14 @@
     </row>
     <row r="322" spans="1:9" ht="19" customHeight="1">
       <c r="A322" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="20" t="s">
-        <v>631</v>
-      </c>
-      <c r="D322" s="20" t="s">
-        <v>742</v>
+        <v>629</v>
+      </c>
+      <c r="D322" s="21" t="s">
+        <v>741</v>
       </c>
       <c r="E322" s="20"/>
       <c r="F322" s="20"/>
@@ -18568,14 +18578,14 @@
     </row>
     <row r="323" spans="1:9" ht="19" customHeight="1">
       <c r="A323" s="19" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="20" t="s">
-        <v>633</v>
-      </c>
-      <c r="D323" s="21" t="s">
-        <v>743</v>
+        <v>631</v>
+      </c>
+      <c r="D323" s="20" t="s">
+        <v>742</v>
       </c>
       <c r="E323" s="20"/>
       <c r="F323" s="20"/>
@@ -18585,14 +18595,14 @@
     </row>
     <row r="324" spans="1:9" ht="19" customHeight="1">
       <c r="A324" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="20" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
@@ -18602,14 +18612,14 @@
     </row>
     <row r="325" spans="1:9" ht="19" customHeight="1">
       <c r="A325" s="19" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="20" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
@@ -18619,14 +18629,14 @@
     </row>
     <row r="326" spans="1:9" ht="19" customHeight="1">
       <c r="A326" s="19" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="20" t="s">
-        <v>639</v>
-      </c>
-      <c r="D326" s="22" t="s">
-        <v>746</v>
+        <v>637</v>
+      </c>
+      <c r="D326" s="21" t="s">
+        <v>745</v>
       </c>
       <c r="E326" s="20"/>
       <c r="F326" s="20"/>
@@ -18636,14 +18646,14 @@
     </row>
     <row r="327" spans="1:9" ht="19" customHeight="1">
       <c r="A327" s="19" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="20" t="s">
-        <v>641</v>
-      </c>
-      <c r="D327" s="21" t="s">
-        <v>747</v>
+        <v>639</v>
+      </c>
+      <c r="D327" s="22" t="s">
+        <v>746</v>
       </c>
       <c r="E327" s="20"/>
       <c r="F327" s="20"/>
@@ -18653,14 +18663,14 @@
     </row>
     <row r="328" spans="1:9" ht="19" customHeight="1">
       <c r="A328" s="19" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D328" s="21" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E328" s="20"/>
       <c r="F328" s="20"/>
@@ -18670,14 +18680,14 @@
     </row>
     <row r="329" spans="1:9" ht="19" customHeight="1">
       <c r="A329" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="20" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D329" s="21" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E329" s="20"/>
       <c r="F329" s="20"/>
@@ -18687,14 +18697,14 @@
     </row>
     <row r="330" spans="1:9" ht="19" customHeight="1">
       <c r="A330" s="19" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="20" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D330" s="21" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E330" s="20"/>
       <c r="F330" s="20"/>
@@ -18704,14 +18714,14 @@
     </row>
     <row r="331" spans="1:9" ht="19" customHeight="1">
       <c r="A331" s="19" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="20" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E331" s="20"/>
       <c r="F331" s="20"/>
@@ -18721,14 +18731,14 @@
     </row>
     <row r="332" spans="1:9" ht="19" customHeight="1">
       <c r="A332" s="19" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="20" t="s">
-        <v>651</v>
-      </c>
-      <c r="D332" s="20" t="s">
-        <v>752</v>
+        <v>649</v>
+      </c>
+      <c r="D332" s="21" t="s">
+        <v>751</v>
       </c>
       <c r="E332" s="20"/>
       <c r="F332" s="20"/>
@@ -18738,14 +18748,14 @@
     </row>
     <row r="333" spans="1:9" ht="19" customHeight="1">
       <c r="A333" s="19" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B333" s="20"/>
-      <c r="C333" s="27" t="s">
-        <v>653</v>
-      </c>
-      <c r="D333" s="27" t="s">
-        <v>753</v>
+      <c r="C333" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="D333" s="20" t="s">
+        <v>752</v>
       </c>
       <c r="E333" s="20"/>
       <c r="F333" s="20"/>
@@ -18755,14 +18765,14 @@
     </row>
     <row r="334" spans="1:9" ht="19" customHeight="1">
       <c r="A334" s="19" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B334" s="20"/>
-      <c r="C334" s="20" t="s">
-        <v>655</v>
-      </c>
-      <c r="D334" s="20" t="s">
-        <v>754</v>
+      <c r="C334" s="27" t="s">
+        <v>653</v>
+      </c>
+      <c r="D334" s="27" t="s">
+        <v>753</v>
       </c>
       <c r="E334" s="20"/>
       <c r="F334" s="20"/>
@@ -18772,14 +18782,14 @@
     </row>
     <row r="335" spans="1:9" ht="19" customHeight="1">
       <c r="A335" s="19" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="20" t="s">
-        <v>657</v>
-      </c>
-      <c r="D335" s="21" t="s">
-        <v>755</v>
+        <v>655</v>
+      </c>
+      <c r="D335" s="20" t="s">
+        <v>754</v>
       </c>
       <c r="E335" s="20"/>
       <c r="F335" s="20"/>
@@ -18789,14 +18799,14 @@
     </row>
     <row r="336" spans="1:9" ht="19" customHeight="1">
       <c r="A336" s="19" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="20" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D336" s="21" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E336" s="20"/>
       <c r="F336" s="20"/>
@@ -18806,14 +18816,14 @@
     </row>
     <row r="337" spans="1:9" ht="19" customHeight="1">
       <c r="A337" s="19" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B337" s="20"/>
       <c r="C337" s="20" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D337" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E337" s="20"/>
       <c r="F337" s="20"/>
@@ -18823,14 +18833,14 @@
     </row>
     <row r="338" spans="1:9" ht="19" customHeight="1">
       <c r="A338" s="19" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="20" t="s">
-        <v>663</v>
-      </c>
-      <c r="D338" s="20" t="s">
-        <v>758</v>
+        <v>661</v>
+      </c>
+      <c r="D338" s="21" t="s">
+        <v>757</v>
       </c>
       <c r="E338" s="20"/>
       <c r="F338" s="20"/>
@@ -18840,14 +18850,14 @@
     </row>
     <row r="339" spans="1:9" ht="19" customHeight="1">
       <c r="A339" s="19" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="D339" s="22" t="s">
-        <v>759</v>
+        <v>663</v>
+      </c>
+      <c r="D339" s="20" t="s">
+        <v>758</v>
       </c>
       <c r="E339" s="20"/>
       <c r="F339" s="20"/>
@@ -18857,14 +18867,14 @@
     </row>
     <row r="340" spans="1:9" ht="19" customHeight="1">
       <c r="A340" s="19" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B340" s="20"/>
       <c r="C340" s="20" t="s">
-        <v>667</v>
-      </c>
-      <c r="D340" s="20" t="s">
-        <v>760</v>
+        <v>665</v>
+      </c>
+      <c r="D340" s="22" t="s">
+        <v>759</v>
       </c>
       <c r="E340" s="20"/>
       <c r="F340" s="20"/>
@@ -18874,14 +18884,14 @@
     </row>
     <row r="341" spans="1:9" ht="19" customHeight="1">
       <c r="A341" s="19" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B341" s="20"/>
       <c r="C341" s="20" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D341" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E341" s="20"/>
       <c r="F341" s="20"/>
@@ -18891,14 +18901,14 @@
     </row>
     <row r="342" spans="1:9" ht="19" customHeight="1">
       <c r="A342" s="19" t="s">
-        <v>945</v>
+        <v>668</v>
       </c>
       <c r="B342" s="20"/>
       <c r="C342" s="20" t="s">
-        <v>946</v>
+        <v>669</v>
       </c>
       <c r="D342" s="20" t="s">
-        <v>947</v>
+        <v>761</v>
       </c>
       <c r="E342" s="20"/>
       <c r="F342" s="20"/>
@@ -18908,14 +18918,14 @@
     </row>
     <row r="343" spans="1:9" ht="19" customHeight="1">
       <c r="A343" s="19" t="s">
-        <v>1068</v>
+        <v>945</v>
       </c>
       <c r="B343" s="20"/>
       <c r="C343" s="20" t="s">
-        <v>1069</v>
+        <v>946</v>
       </c>
       <c r="D343" s="20" t="s">
-        <v>1070</v>
+        <v>947</v>
       </c>
       <c r="E343" s="20"/>
       <c r="F343" s="20"/>
@@ -18925,14 +18935,14 @@
     </row>
     <row r="344" spans="1:9" ht="19" customHeight="1">
       <c r="A344" s="19" t="s">
-        <v>1136</v>
+        <v>1068</v>
       </c>
       <c r="B344" s="20"/>
       <c r="C344" s="20" t="s">
-        <v>1137</v>
+        <v>1069</v>
       </c>
       <c r="D344" s="20" t="s">
-        <v>1138</v>
+        <v>1070</v>
       </c>
       <c r="E344" s="20"/>
       <c r="F344" s="20"/>
@@ -18942,14 +18952,14 @@
     </row>
     <row r="345" spans="1:9" ht="19" customHeight="1">
       <c r="A345" s="19" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="B345" s="20"/>
       <c r="C345" s="20" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="D345" s="20" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="E345" s="20"/>
       <c r="F345" s="20"/>
@@ -18959,14 +18969,14 @@
     </row>
     <row r="346" spans="1:9" ht="19" customHeight="1">
       <c r="A346" s="19" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B346" s="20"/>
       <c r="C346" s="20" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="D346" s="20" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="E346" s="20"/>
       <c r="F346" s="20"/>
@@ -18976,14 +18986,14 @@
     </row>
     <row r="347" spans="1:9" ht="19" customHeight="1">
       <c r="A347" s="19" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="B347" s="20"/>
       <c r="C347" s="20" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="D347" s="20" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="E347" s="20"/>
       <c r="F347" s="20"/>
@@ -18993,14 +19003,14 @@
     </row>
     <row r="348" spans="1:9" ht="19" customHeight="1">
       <c r="A348" s="19" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="B348" s="20"/>
       <c r="C348" s="20" t="s">
-        <v>1153</v>
+        <v>1140</v>
       </c>
       <c r="D348" s="20" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="E348" s="20"/>
       <c r="F348" s="20"/>
@@ -19010,14 +19020,14 @@
     </row>
     <row r="349" spans="1:9" ht="19" customHeight="1">
       <c r="A349" s="19" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="B349" s="20"/>
       <c r="C349" s="20" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D349" s="20" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="E349" s="20"/>
       <c r="F349" s="20"/>
@@ -19027,14 +19037,14 @@
     </row>
     <row r="350" spans="1:9" ht="19" customHeight="1">
       <c r="A350" s="19" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B350" s="20"/>
       <c r="C350" s="20" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="D350" s="20" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="E350" s="20"/>
       <c r="F350" s="20"/>
@@ -19044,14 +19054,14 @@
     </row>
     <row r="351" spans="1:9" ht="19" customHeight="1">
       <c r="A351" s="19" t="s">
-        <v>1190</v>
+        <v>1157</v>
       </c>
       <c r="B351" s="20"/>
       <c r="C351" s="20" t="s">
-        <v>1192</v>
+        <v>1158</v>
       </c>
       <c r="D351" s="20" t="s">
-        <v>1191</v>
+        <v>1159</v>
       </c>
       <c r="E351" s="20"/>
       <c r="F351" s="20"/>
@@ -19061,14 +19071,14 @@
     </row>
     <row r="352" spans="1:9" ht="19" customHeight="1">
       <c r="A352" s="19" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="B352" s="20"/>
       <c r="C352" s="20" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="D352" s="20" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="E352" s="20"/>
       <c r="F352" s="20"/>
@@ -19078,14 +19088,14 @@
     </row>
     <row r="353" spans="1:9" ht="19" customHeight="1">
       <c r="A353" s="19" t="s">
-        <v>1354</v>
+        <v>1187</v>
       </c>
       <c r="B353" s="20"/>
       <c r="C353" s="20" t="s">
-        <v>1355</v>
+        <v>1188</v>
       </c>
       <c r="D353" s="20" t="s">
-        <v>1356</v>
+        <v>1189</v>
       </c>
       <c r="E353" s="20"/>
       <c r="F353" s="20"/>
@@ -19094,10 +19104,16 @@
       <c r="I353" s="18"/>
     </row>
     <row r="354" spans="1:9" ht="19" customHeight="1">
-      <c r="A354" s="19"/>
+      <c r="A354" s="19" t="s">
+        <v>1352</v>
+      </c>
       <c r="B354" s="20"/>
-      <c r="C354" s="20"/>
-      <c r="D354" s="20"/>
+      <c r="C354" s="20" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D354" s="20" t="s">
+        <v>1354</v>
+      </c>
       <c r="E354" s="20"/>
       <c r="F354" s="20"/>
       <c r="G354" s="18"/>
@@ -19138,45 +19154,39 @@
       <c r="I357" s="18"/>
     </row>
     <row r="358" spans="1:9" ht="19" customHeight="1">
-      <c r="A358" s="26" t="s">
+      <c r="A358" s="19"/>
+      <c r="B358" s="20"/>
+      <c r="C358" s="20"/>
+      <c r="D358" s="20"/>
+      <c r="E358" s="20"/>
+      <c r="F358" s="20"/>
+      <c r="G358" s="18"/>
+      <c r="H358" s="17"/>
+      <c r="I358" s="18"/>
+    </row>
+    <row r="359" spans="1:9" ht="19" customHeight="1">
+      <c r="A359" s="26" t="s">
         <v>1193</v>
       </c>
-      <c r="B358" s="23"/>
-      <c r="C358" s="23"/>
-      <c r="D358" s="23"/>
-      <c r="E358" s="23"/>
-      <c r="F358" s="23"/>
-      <c r="G358" s="24"/>
-      <c r="H358" s="25"/>
-      <c r="I358" s="24"/>
-    </row>
-    <row r="359" spans="1:9" ht="19" customHeight="1">
-      <c r="A359" s="19" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B359" s="20"/>
-      <c r="C359" s="20" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D359" s="20" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E359" s="20"/>
-      <c r="F359" s="20"/>
-      <c r="G359" s="18"/>
-      <c r="H359" s="17"/>
-      <c r="I359" s="18"/>
+      <c r="B359" s="23"/>
+      <c r="C359" s="23"/>
+      <c r="D359" s="23"/>
+      <c r="E359" s="23"/>
+      <c r="F359" s="23"/>
+      <c r="G359" s="24"/>
+      <c r="H359" s="25"/>
+      <c r="I359" s="24"/>
     </row>
     <row r="360" spans="1:9" ht="19" customHeight="1">
       <c r="A360" s="19" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B360" s="20"/>
       <c r="C360" s="20" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D360" s="20" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="E360" s="20"/>
       <c r="F360" s="20"/>
@@ -19186,14 +19196,14 @@
     </row>
     <row r="361" spans="1:9" ht="19" customHeight="1">
       <c r="A361" s="19" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B361" s="20"/>
       <c r="C361" s="20" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D361" s="20" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="E361" s="20"/>
       <c r="F361" s="20"/>
@@ -19203,14 +19213,14 @@
     </row>
     <row r="362" spans="1:9" ht="19" customHeight="1">
       <c r="A362" s="19" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B362" s="20"/>
       <c r="C362" s="20" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D362" s="20" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="E362" s="20"/>
       <c r="F362" s="20"/>
@@ -19220,14 +19230,14 @@
     </row>
     <row r="363" spans="1:9" ht="19" customHeight="1">
       <c r="A363" s="19" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B363" s="20"/>
       <c r="C363" s="20" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D363" s="20" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E363" s="20"/>
       <c r="F363" s="20"/>
@@ -19237,14 +19247,14 @@
     </row>
     <row r="364" spans="1:9" ht="19" customHeight="1">
       <c r="A364" s="19" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B364" s="20"/>
       <c r="C364" s="20" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D364" s="20" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E364" s="20"/>
       <c r="F364" s="20"/>
@@ -19254,14 +19264,14 @@
     </row>
     <row r="365" spans="1:9" ht="19" customHeight="1">
       <c r="A365" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B365" s="20"/>
       <c r="C365" s="20" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D365" s="20" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E365" s="20"/>
       <c r="F365" s="20"/>
@@ -19271,14 +19281,14 @@
     </row>
     <row r="366" spans="1:9" ht="19" customHeight="1">
       <c r="A366" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B366" s="20"/>
       <c r="C366" s="20" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D366" s="20" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E366" s="20"/>
       <c r="F366" s="20"/>
@@ -19288,14 +19298,14 @@
     </row>
     <row r="367" spans="1:9" ht="19" customHeight="1">
       <c r="A367" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B367" s="20"/>
       <c r="C367" s="20" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D367" s="20" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E367" s="20"/>
       <c r="F367" s="20"/>
@@ -19305,14 +19315,14 @@
     </row>
     <row r="368" spans="1:9" ht="19" customHeight="1">
       <c r="A368" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B368" s="20"/>
       <c r="C368" s="20" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D368" s="20" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E368" s="20"/>
       <c r="F368" s="20"/>
@@ -19322,14 +19332,14 @@
     </row>
     <row r="369" spans="1:9" ht="19" customHeight="1">
       <c r="A369" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B369" s="20"/>
       <c r="C369" s="20" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D369" s="20" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E369" s="20"/>
       <c r="F369" s="20"/>
@@ -19339,14 +19349,14 @@
     </row>
     <row r="370" spans="1:9" ht="19" customHeight="1">
       <c r="A370" s="19" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B370" s="20"/>
       <c r="C370" s="20" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D370" s="20" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E370" s="20"/>
       <c r="F370" s="20"/>
@@ -19356,14 +19366,14 @@
     </row>
     <row r="371" spans="1:9" ht="19" customHeight="1">
       <c r="A371" s="19" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B371" s="20"/>
       <c r="C371" s="20" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D371" s="20" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E371" s="20"/>
       <c r="F371" s="20"/>
@@ -19373,14 +19383,14 @@
     </row>
     <row r="372" spans="1:9" ht="19" customHeight="1">
       <c r="A372" s="19" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B372" s="20"/>
       <c r="C372" s="20" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D372" s="20" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E372" s="20"/>
       <c r="F372" s="20"/>
@@ -19390,14 +19400,14 @@
     </row>
     <row r="373" spans="1:9" ht="19" customHeight="1">
       <c r="A373" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B373" s="20"/>
       <c r="C373" s="20" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D373" s="20" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E373" s="20"/>
       <c r="F373" s="20"/>
@@ -19407,14 +19417,14 @@
     </row>
     <row r="374" spans="1:9" ht="19" customHeight="1">
       <c r="A374" s="19" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B374" s="20"/>
       <c r="C374" s="20" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D374" s="20" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E374" s="20"/>
       <c r="F374" s="20"/>
@@ -19424,14 +19434,14 @@
     </row>
     <row r="375" spans="1:9" ht="19" customHeight="1">
       <c r="A375" s="19" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B375" s="20"/>
       <c r="C375" s="20" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D375" s="20" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E375" s="20"/>
       <c r="F375" s="20"/>
@@ -19441,14 +19451,14 @@
     </row>
     <row r="376" spans="1:9" ht="19" customHeight="1">
       <c r="A376" s="19" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B376" s="20"/>
       <c r="C376" s="20" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D376" s="20" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E376" s="20"/>
       <c r="F376" s="20"/>
@@ -19458,14 +19468,14 @@
     </row>
     <row r="377" spans="1:9" ht="19" customHeight="1">
       <c r="A377" s="19" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B377" s="20"/>
       <c r="C377" s="20" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D377" s="20" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E377" s="20"/>
       <c r="F377" s="20"/>
@@ -19475,14 +19485,14 @@
     </row>
     <row r="378" spans="1:9" ht="19" customHeight="1">
       <c r="A378" s="19" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="20" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D378" s="20" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E378" s="20"/>
       <c r="F378" s="20"/>
@@ -19492,14 +19502,14 @@
     </row>
     <row r="379" spans="1:9" ht="19" customHeight="1">
       <c r="A379" s="19" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B379" s="20"/>
       <c r="C379" s="20" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D379" s="20" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E379" s="20"/>
       <c r="F379" s="20"/>
@@ -19509,14 +19519,14 @@
     </row>
     <row r="380" spans="1:9" ht="19" customHeight="1">
       <c r="A380" s="19" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B380" s="20"/>
       <c r="C380" s="20" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D380" s="20" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E380" s="20"/>
       <c r="F380" s="20"/>
@@ -19526,14 +19536,14 @@
     </row>
     <row r="381" spans="1:9" ht="19" customHeight="1">
       <c r="A381" s="19" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B381" s="20"/>
       <c r="C381" s="20" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D381" s="20" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E381" s="20"/>
       <c r="F381" s="20"/>
@@ -19543,14 +19553,14 @@
     </row>
     <row r="382" spans="1:9" ht="19" customHeight="1">
       <c r="A382" s="19" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B382" s="20"/>
       <c r="C382" s="20" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D382" s="20" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E382" s="20"/>
       <c r="F382" s="20"/>
@@ -19560,14 +19570,14 @@
     </row>
     <row r="383" spans="1:9" ht="19" customHeight="1">
       <c r="A383" s="19" t="s">
-        <v>1242</v>
+        <v>1217</v>
       </c>
       <c r="B383" s="20"/>
-      <c r="C383" s="19" t="s">
-        <v>1242</v>
+      <c r="C383" s="20" t="s">
+        <v>1217</v>
       </c>
       <c r="D383" s="20" t="s">
-        <v>1284</v>
+        <v>1241</v>
       </c>
       <c r="E383" s="20"/>
       <c r="F383" s="20"/>
@@ -19577,14 +19587,14 @@
     </row>
     <row r="384" spans="1:9" ht="19" customHeight="1">
       <c r="A384" s="19" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B384" s="20"/>
       <c r="C384" s="19" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D384" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E384" s="20"/>
       <c r="F384" s="20"/>
@@ -19594,14 +19604,14 @@
     </row>
     <row r="385" spans="1:9" ht="19" customHeight="1">
       <c r="A385" s="19" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="19" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D385" s="20" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E385" s="20"/>
       <c r="F385" s="20"/>
@@ -19611,14 +19621,14 @@
     </row>
     <row r="386" spans="1:9" ht="19" customHeight="1">
       <c r="A386" s="19" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B386" s="20"/>
       <c r="C386" s="19" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D386" s="20" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E386" s="20"/>
       <c r="F386" s="20"/>
@@ -19628,14 +19638,14 @@
     </row>
     <row r="387" spans="1:9" ht="19" customHeight="1">
       <c r="A387" s="19" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B387" s="20"/>
       <c r="C387" s="19" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D387" s="20" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E387" s="20"/>
       <c r="F387" s="20"/>
@@ -19645,14 +19655,14 @@
     </row>
     <row r="388" spans="1:9" ht="19" customHeight="1">
       <c r="A388" s="19" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B388" s="20"/>
       <c r="C388" s="19" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D388" s="20" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E388" s="20"/>
       <c r="F388" s="20"/>
@@ -19662,14 +19672,14 @@
     </row>
     <row r="389" spans="1:9" ht="19" customHeight="1">
       <c r="A389" s="19" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="19" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D389" s="20" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E389" s="20"/>
       <c r="F389" s="20"/>
@@ -19679,14 +19689,14 @@
     </row>
     <row r="390" spans="1:9" ht="19" customHeight="1">
       <c r="A390" s="19" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="19" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D390" s="20" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E390" s="20"/>
       <c r="F390" s="20"/>
@@ -19696,14 +19706,14 @@
     </row>
     <row r="391" spans="1:9" ht="19" customHeight="1">
       <c r="A391" s="19" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B391" s="20"/>
       <c r="C391" s="19" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D391" s="20" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E391" s="20"/>
       <c r="F391" s="20"/>
@@ -19713,14 +19723,14 @@
     </row>
     <row r="392" spans="1:9" ht="19" customHeight="1">
       <c r="A392" s="19" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="19" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D392" s="20" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E392" s="20"/>
       <c r="F392" s="20"/>
@@ -19730,14 +19740,14 @@
     </row>
     <row r="393" spans="1:9" ht="19" customHeight="1">
       <c r="A393" s="19" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="19" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D393" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E393" s="20"/>
       <c r="F393" s="20"/>
@@ -19747,14 +19757,14 @@
     </row>
     <row r="394" spans="1:9" ht="19" customHeight="1">
       <c r="A394" s="19" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="19" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D394" s="20" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E394" s="20"/>
       <c r="F394" s="20"/>
@@ -19764,14 +19774,14 @@
     </row>
     <row r="395" spans="1:9" ht="19" customHeight="1">
       <c r="A395" s="19" t="s">
-        <v>1339</v>
+        <v>1253</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="19" t="s">
-        <v>1339</v>
+        <v>1253</v>
       </c>
       <c r="D395" s="20" t="s">
-        <v>1340</v>
+        <v>1295</v>
       </c>
       <c r="E395" s="20"/>
       <c r="F395" s="20"/>
@@ -19781,14 +19791,14 @@
     </row>
     <row r="396" spans="1:9" ht="19" customHeight="1">
       <c r="A396" s="19" t="s">
-        <v>1254</v>
+        <v>1339</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="19" t="s">
-        <v>1254</v>
+        <v>1339</v>
       </c>
       <c r="D396" s="20" t="s">
-        <v>1296</v>
+        <v>1340</v>
       </c>
       <c r="E396" s="20"/>
       <c r="F396" s="20"/>
@@ -19798,14 +19808,14 @@
     </row>
     <row r="397" spans="1:9" ht="19" customHeight="1">
       <c r="A397" s="19" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="19" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D397" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E397" s="20"/>
       <c r="F397" s="20"/>
@@ -19815,14 +19825,14 @@
     </row>
     <row r="398" spans="1:9" ht="19" customHeight="1">
       <c r="A398" s="19" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="19" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D398" s="20" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E398" s="20"/>
       <c r="F398" s="20"/>
@@ -19832,14 +19842,14 @@
     </row>
     <row r="399" spans="1:9" ht="19" customHeight="1">
       <c r="A399" s="19" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="19" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D399" s="20" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E399" s="20"/>
       <c r="F399" s="20"/>
@@ -19849,14 +19859,14 @@
     </row>
     <row r="400" spans="1:9" ht="19" customHeight="1">
       <c r="A400" s="19" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B400" s="20"/>
       <c r="C400" s="19" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D400" s="20" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="E400" s="20"/>
       <c r="F400" s="20"/>
@@ -19866,14 +19876,14 @@
     </row>
     <row r="401" spans="1:9" ht="19" customHeight="1">
       <c r="A401" s="19" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="19" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D401" s="20" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="E401" s="20"/>
       <c r="F401" s="20"/>
@@ -19883,14 +19893,14 @@
     </row>
     <row r="402" spans="1:9" ht="19" customHeight="1">
       <c r="A402" s="19" t="s">
-        <v>1341</v>
+        <v>1259</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="19" t="s">
-        <v>1341</v>
+        <v>1259</v>
       </c>
       <c r="D402" s="20" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="E402" s="20"/>
       <c r="F402" s="20"/>
@@ -19900,14 +19910,14 @@
     </row>
     <row r="403" spans="1:9" ht="19" customHeight="1">
       <c r="A403" s="19" t="s">
-        <v>1260</v>
+        <v>1341</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="19" t="s">
-        <v>1260</v>
+        <v>1341</v>
       </c>
       <c r="D403" s="20" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="E403" s="20"/>
       <c r="F403" s="20"/>
@@ -19917,14 +19927,14 @@
     </row>
     <row r="404" spans="1:9" ht="19" customHeight="1">
       <c r="A404" s="19" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="19" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D404" s="20" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="E404" s="20"/>
       <c r="F404" s="20"/>
@@ -19934,14 +19944,14 @@
     </row>
     <row r="405" spans="1:9" ht="19" customHeight="1">
       <c r="A405" s="19" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="19" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D405" s="20" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="E405" s="20"/>
       <c r="F405" s="20"/>
@@ -19951,14 +19961,14 @@
     </row>
     <row r="406" spans="1:9" ht="19" customHeight="1">
       <c r="A406" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D406" s="20" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E406" s="20"/>
       <c r="F406" s="20"/>
@@ -19968,14 +19978,14 @@
     </row>
     <row r="407" spans="1:9" ht="19" customHeight="1">
       <c r="A407" s="19" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="19" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D407" s="20" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E407" s="20"/>
       <c r="F407" s="20"/>
@@ -19985,14 +19995,14 @@
     </row>
     <row r="408" spans="1:9" ht="19" customHeight="1">
       <c r="A408" s="19" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="19" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D408" s="20" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E408" s="20"/>
       <c r="F408" s="20"/>
@@ -20002,14 +20012,14 @@
     </row>
     <row r="409" spans="1:9" ht="19" customHeight="1">
       <c r="A409" s="19" t="s">
-        <v>1327</v>
+        <v>1265</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="19" t="s">
-        <v>1327</v>
+        <v>1265</v>
       </c>
       <c r="D409" s="20" t="s">
-        <v>1333</v>
+        <v>1308</v>
       </c>
       <c r="E409" s="20"/>
       <c r="F409" s="20"/>
@@ -20019,14 +20029,14 @@
     </row>
     <row r="410" spans="1:9" ht="19" customHeight="1">
       <c r="A410" s="19" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="19" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D410" s="20" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E410" s="20"/>
       <c r="F410" s="20"/>
@@ -20036,14 +20046,14 @@
     </row>
     <row r="411" spans="1:9" ht="19" customHeight="1">
       <c r="A411" s="19" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="19" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D411" s="20" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E411" s="20"/>
       <c r="F411" s="20"/>
@@ -20053,14 +20063,14 @@
     </row>
     <row r="412" spans="1:9" ht="19" customHeight="1">
       <c r="A412" s="19" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="19" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D412" s="20" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E412" s="20"/>
       <c r="F412" s="20"/>
@@ -20070,14 +20080,14 @@
     </row>
     <row r="413" spans="1:9" ht="19" customHeight="1">
       <c r="A413" s="19" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="19" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D413" s="20" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E413" s="20"/>
       <c r="F413" s="20"/>
@@ -20087,14 +20097,14 @@
     </row>
     <row r="414" spans="1:9" ht="19" customHeight="1">
       <c r="A414" s="19" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="19" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D414" s="20" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E414" s="20"/>
       <c r="F414" s="20"/>
@@ -20104,14 +20114,14 @@
     </row>
     <row r="415" spans="1:9" ht="19" customHeight="1">
       <c r="A415" s="19" t="s">
-        <v>1266</v>
+        <v>1332</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="19" t="s">
-        <v>1266</v>
+        <v>1332</v>
       </c>
       <c r="D415" s="20" t="s">
-        <v>1309</v>
+        <v>1338</v>
       </c>
       <c r="E415" s="20"/>
       <c r="F415" s="20"/>
@@ -20121,14 +20131,14 @@
     </row>
     <row r="416" spans="1:9" ht="19" customHeight="1">
       <c r="A416" s="19" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="19" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D416" s="20" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E416" s="20"/>
       <c r="F416" s="20"/>
@@ -20138,14 +20148,14 @@
     </row>
     <row r="417" spans="1:9" ht="19" customHeight="1">
       <c r="A417" s="19" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="19" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D417" s="20" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E417" s="20"/>
       <c r="F417" s="20"/>
@@ -20155,14 +20165,14 @@
     </row>
     <row r="418" spans="1:9" ht="19" customHeight="1">
       <c r="A418" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D418" s="20" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="E418" s="20"/>
       <c r="F418" s="20"/>
@@ -20172,14 +20182,14 @@
     </row>
     <row r="419" spans="1:9" ht="19" customHeight="1">
       <c r="A419" s="19" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="19" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D419" s="20" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="E419" s="20"/>
       <c r="F419" s="20"/>
@@ -20189,14 +20199,14 @@
     </row>
     <row r="420" spans="1:9" ht="19" customHeight="1">
       <c r="A420" s="19" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="19" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D420" s="20" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="E420" s="20"/>
       <c r="F420" s="20"/>
@@ -20206,14 +20216,14 @@
     </row>
     <row r="421" spans="1:9" ht="19" customHeight="1">
       <c r="A421" s="19" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="19" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D421" s="20" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E421" s="20"/>
       <c r="F421" s="20"/>
@@ -20223,14 +20233,14 @@
     </row>
     <row r="422" spans="1:9" ht="19" customHeight="1">
       <c r="A422" s="19" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="19" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D422" s="20" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E422" s="20"/>
       <c r="F422" s="20"/>
@@ -20240,14 +20250,14 @@
     </row>
     <row r="423" spans="1:9" ht="19" customHeight="1">
       <c r="A423" s="19" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="19" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D423" s="20" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E423" s="20"/>
       <c r="F423" s="20"/>
@@ -20257,14 +20267,14 @@
     </row>
     <row r="424" spans="1:9" ht="19" customHeight="1">
       <c r="A424" s="19" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="19" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D424" s="20" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E424" s="20"/>
       <c r="F424" s="20"/>
@@ -20274,14 +20284,14 @@
     </row>
     <row r="425" spans="1:9" ht="19" customHeight="1">
       <c r="A425" s="19" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="19" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D425" s="20" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E425" s="20"/>
       <c r="F425" s="20"/>
@@ -20291,14 +20301,14 @@
     </row>
     <row r="426" spans="1:9" ht="19" customHeight="1">
       <c r="A426" s="19" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="19" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D426" s="20" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E426" s="20"/>
       <c r="F426" s="20"/>
@@ -20308,14 +20318,14 @@
     </row>
     <row r="427" spans="1:9" ht="19" customHeight="1">
       <c r="A427" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D427" s="20" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E427" s="20"/>
       <c r="F427" s="20"/>
@@ -20325,14 +20335,14 @@
     </row>
     <row r="428" spans="1:9" ht="19" customHeight="1">
       <c r="A428" s="19" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="19" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D428" s="20" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E428" s="20"/>
       <c r="F428" s="20"/>
@@ -20342,14 +20352,14 @@
     </row>
     <row r="429" spans="1:9" ht="19" customHeight="1">
       <c r="A429" s="19" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="19" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D429" s="20" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E429" s="20"/>
       <c r="F429" s="20"/>
@@ -20359,14 +20369,14 @@
     </row>
     <row r="430" spans="1:9" ht="19" customHeight="1">
       <c r="A430" s="19" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="19" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D430" s="20" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E430" s="20"/>
       <c r="F430" s="20"/>
@@ -20376,14 +20386,14 @@
     </row>
     <row r="431" spans="1:9" ht="19" customHeight="1">
       <c r="A431" s="19" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="19" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D431" s="20" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E431" s="20"/>
       <c r="F431" s="20"/>
@@ -20393,14 +20403,14 @@
     </row>
     <row r="432" spans="1:9" ht="19" customHeight="1">
       <c r="A432" s="19" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="19" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D432" s="20" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E432" s="20"/>
       <c r="F432" s="20"/>
@@ -20409,10 +20419,16 @@
       <c r="I432" s="18"/>
     </row>
     <row r="433" spans="1:9" ht="19" customHeight="1">
-      <c r="A433" s="19"/>
+      <c r="A433" s="19" t="s">
+        <v>1283</v>
+      </c>
       <c r="B433" s="20"/>
-      <c r="C433" s="20"/>
-      <c r="D433" s="20"/>
+      <c r="C433" s="19" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D433" s="20" t="s">
+        <v>1326</v>
+      </c>
       <c r="E433" s="20"/>
       <c r="F433" s="20"/>
       <c r="G433" s="18"/>
@@ -21057,15 +21073,26 @@
       <c r="H491" s="17"/>
       <c r="I491" s="18"/>
     </row>
+    <row r="492" spans="1:9" ht="19" customHeight="1">
+      <c r="A492" s="19"/>
+      <c r="B492" s="20"/>
+      <c r="C492" s="20"/>
+      <c r="D492" s="20"/>
+      <c r="E492" s="20"/>
+      <c r="F492" s="20"/>
+      <c r="G492" s="18"/>
+      <c r="H492" s="17"/>
+      <c r="I492" s="18"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:J218" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
+  <autoFilter ref="A4:J219" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A246:E247 E233:G233 A233:C245 A270:E271 A305:E306 A327:E328 A329:C341 E329:E341 E234:E245 B68:G68 D124:D142 I8:I29 E248:E269 A124:C150 E124:G150 D147:D150 A229:G232 E272 F234:G272 D287 E307:E326 A307:C326 A342:E344 E273:G285 A248:C269 A151:G227 A69:G123 E286:E304 F286:G344 A272:C304 I229:I491 I31:I227 A31:G67 A8:G29 A345:G491">
+  <conditionalFormatting sqref="A247:E248 E234:G234 A234:C246 A271:E272 A306:E307 A328:E329 A330:C342 E330:E342 E235:E246 B69:G69 D125:D143 I8:I29 E249:E270 A125:C151 E125:G151 D148:D151 A230:G233 E273 F235:G273 D288 E308:E327 A308:C327 A343:E345 E274:G286 A249:C270 A152:G228 A70:G124 E287:E305 F287:G345 A273:C305 I230:I492 A8:G29 A346:G492 I31:I228 A31:G68">
     <cfRule type="expression" dxfId="146" priority="274">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H29 H124:H227 H90:H121 H229:H491 H31:H88">
+  <conditionalFormatting sqref="H8:H29 H125:H228 H91:H122 H230:H492 H31:H89">
     <cfRule type="cellIs" dxfId="145" priority="229" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
@@ -21079,7 +21106,7 @@
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H29 H124:H227 H90:H121 H229:H491 H31:H88">
+  <conditionalFormatting sqref="H8:H29 H125:H228 H91:H122 H230:H492 H31:H89">
     <cfRule type="cellIs" dxfId="141" priority="230" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -21096,19 +21123,19 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H29 H124:H227 H90:H121 H229:H491 H31:H88">
+  <conditionalFormatting sqref="H8:H29 H125:H228 H91:H122 H230:H492 H31:H89">
     <cfRule type="cellIs" dxfId="136" priority="232" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D143:D144">
+  <conditionalFormatting sqref="D144:D145">
     <cfRule type="expression" dxfId="135" priority="153">
-      <formula>$G143&lt;&gt;""</formula>
+      <formula>$G144&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D145:D146">
+  <conditionalFormatting sqref="D146:D147">
     <cfRule type="expression" dxfId="134" priority="152">
-      <formula>$G145&lt;&gt;""</formula>
+      <formula>$G146&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5 I5 A5">
@@ -21157,26 +21184,26 @@
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C228:G228 I228 A228">
+  <conditionalFormatting sqref="C229:G229 I229 A229">
     <cfRule type="expression" dxfId="121" priority="134">
-      <formula>$G228&lt;&gt;""</formula>
+      <formula>$G229&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H228">
+  <conditionalFormatting sqref="H229">
     <cfRule type="cellIs" dxfId="120" priority="124" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="119" priority="131" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",H228)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",H229)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="118" priority="132" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",H228)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",H229)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="117" priority="133" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H228)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H229)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H228">
+  <conditionalFormatting sqref="H229">
     <cfRule type="cellIs" dxfId="116" priority="125" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -21193,19 +21220,19 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H228">
+  <conditionalFormatting sqref="H229">
     <cfRule type="cellIs" dxfId="111" priority="127" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B228">
+  <conditionalFormatting sqref="B229">
     <cfRule type="expression" dxfId="110" priority="123">
-      <formula>$G228&lt;&gt;""</formula>
+      <formula>$G229&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D320:D341 D233:D254 D257 D305:D307 D311:D312 D280 D314:D316 D261:D263 D267:D271 D288:D301">
+  <conditionalFormatting sqref="D321:D342 D234:D255 D258 D306:D308 D312:D313 D281 D315:D317 D262:D264 D268:D272 D289:D302">
     <cfRule type="expression" dxfId="109" priority="276">
-      <formula>$G235&lt;&gt;""</formula>
+      <formula>$G236&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6 I6 C6:G6">
@@ -21305,26 +21332,26 @@
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
+  <conditionalFormatting sqref="A69">
     <cfRule type="expression" dxfId="83" priority="71">
-      <formula>$G68&lt;&gt;""</formula>
+      <formula>$G69&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122:H123">
+  <conditionalFormatting sqref="H123:H124">
     <cfRule type="cellIs" dxfId="82" priority="60" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="81" priority="67" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",H122)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",H123)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="80" priority="68" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",H122)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",H123)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="79" priority="69" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H122)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H123)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122:H123">
+  <conditionalFormatting sqref="H123:H124">
     <cfRule type="cellIs" dxfId="78" priority="61" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -21341,7 +21368,7 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122:H123">
+  <conditionalFormatting sqref="H123:H124">
     <cfRule type="cellIs" dxfId="73" priority="63" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
@@ -21387,26 +21414,26 @@
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D317:D319 D302:D304 D258:D260 D308:D310 D279 D264:D266">
+  <conditionalFormatting sqref="D318:D320 D303:D305 D259:D261 D309:D311 D280 D265:D267">
     <cfRule type="expression" dxfId="61" priority="279">
-      <formula>$G261&lt;&gt;""</formula>
+      <formula>$G262&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
+  <conditionalFormatting sqref="H90">
     <cfRule type="cellIs" dxfId="60" priority="16" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="59" priority="23" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",H89)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",H90)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="58" priority="24" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",H89)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",H90)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="57" priority="25" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H89)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H90)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
+  <conditionalFormatting sqref="H90">
     <cfRule type="cellIs" dxfId="56" priority="17" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -21423,81 +21450,81 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
+  <conditionalFormatting sqref="H90">
     <cfRule type="cellIs" dxfId="51" priority="19" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D282">
+  <conditionalFormatting sqref="D283">
     <cfRule type="expression" dxfId="50" priority="283">
-      <formula>$G286&lt;&gt;""</formula>
+      <formula>$G287&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D257">
+    <cfRule type="expression" dxfId="49" priority="314">
+      <formula>$G258&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D256">
-    <cfRule type="expression" dxfId="49" priority="314">
-      <formula>$G257&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D255">
     <cfRule type="expression" dxfId="48" priority="315">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D272:D278">
+  <conditionalFormatting sqref="D273:D279">
     <cfRule type="expression" dxfId="47" priority="317">
-      <formula>$G280&lt;&gt;""</formula>
+      <formula>$G281&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D275">
+  <conditionalFormatting sqref="D276">
     <cfRule type="expression" dxfId="46" priority="351">
-      <formula>$G280&lt;&gt;""</formula>
+      <formula>$G281&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D283">
+  <conditionalFormatting sqref="D284">
     <cfRule type="expression" dxfId="45" priority="14">
-      <formula>$G283&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D284:D285">
-    <cfRule type="expression" dxfId="44" priority="13">
       <formula>$G284&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D313">
+  <conditionalFormatting sqref="D285:D286">
+    <cfRule type="expression" dxfId="44" priority="13">
+      <formula>$G285&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D314">
     <cfRule type="expression" dxfId="43" priority="383">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D286">
+  <conditionalFormatting sqref="D287">
     <cfRule type="expression" dxfId="42" priority="384">
-      <formula>$G291&lt;&gt;""</formula>
+      <formula>$G292&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D281">
+  <conditionalFormatting sqref="D282">
     <cfRule type="expression" dxfId="41" priority="386">
-      <formula>$G288&lt;&gt;""</formula>
+      <formula>$G289&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D276:D278">
+  <conditionalFormatting sqref="D277:D279">
     <cfRule type="expression" dxfId="40" priority="388">
-      <formula>$G280&lt;&gt;""</formula>
+      <formula>$G281&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H358">
+  <conditionalFormatting sqref="H359">
     <cfRule type="cellIs" dxfId="39" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="38" priority="9" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",H358)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",H359)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="37" priority="10" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",H358)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",H359)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="36" priority="11" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H358)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H359)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H358">
+  <conditionalFormatting sqref="H359">
     <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -21514,7 +21541,7 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H358">
+  <conditionalFormatting sqref="H359">
     <cfRule type="cellIs" dxfId="30" priority="5" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E518B5B-9874-154A-8E50-2EF9893DC9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97EB8BF-843C-8941-BC7D-08F7943AA1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27340" yWindow="500" windowWidth="40900" windowHeight="37920" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="List" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">message!$A$4:$J$219</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">message!$A$4:$J$220</definedName>
     <definedName name="実施結果">List!$A$3:$A$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="1359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="1363">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -11048,6 +11048,36 @@
   </si>
   <si>
     <t>dontExistInCell("${subject}")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>existImage("${subject}")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>${subject}の画像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が存在すること</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Image of ${subject} exists</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>existImageOf</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -12738,11 +12768,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I492"/>
+  <dimension ref="A1:I493"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <pane ySplit="4" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="19" customHeight="1" outlineLevelCol="1"/>
@@ -13643,16 +13673,16 @@
     </row>
     <row r="50" spans="1:9" ht="19" customHeight="1">
       <c r="A50" s="19" t="s">
-        <v>118</v>
+        <v>1362</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>432</v>
+        <v>1359</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>119</v>
+        <v>1361</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>317</v>
+        <v>1360</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -13662,16 +13692,16 @@
     </row>
     <row r="51" spans="1:9" ht="19" customHeight="1">
       <c r="A51" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -13681,16 +13711,16 @@
     </row>
     <row r="52" spans="1:9" ht="19" customHeight="1">
       <c r="A52" s="19" t="s">
-        <v>1052</v>
+        <v>120</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>1054</v>
+        <v>433</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>1056</v>
+        <v>121</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>1058</v>
+        <v>318</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
@@ -13700,16 +13730,16 @@
     </row>
     <row r="53" spans="1:9" ht="19" customHeight="1">
       <c r="A53" s="19" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
@@ -13719,16 +13749,16 @@
     </row>
     <row r="54" spans="1:9" ht="19" customHeight="1">
       <c r="A54" s="19" t="s">
-        <v>1342</v>
+        <v>1053</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>1343</v>
+        <v>1055</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>1344</v>
+        <v>1057</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>1346</v>
+        <v>1059</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -13738,16 +13768,16 @@
     </row>
     <row r="55" spans="1:9" ht="19" customHeight="1">
       <c r="A55" s="19" t="s">
-        <v>122</v>
+        <v>1342</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>436</v>
+        <v>1343</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>117</v>
+        <v>1344</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>316</v>
+        <v>1346</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
@@ -13757,16 +13787,16 @@
     </row>
     <row r="56" spans="1:9" ht="19" customHeight="1">
       <c r="A56" s="19" t="s">
-        <v>1355</v>
+        <v>122</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>1356</v>
+        <v>436</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>1345</v>
+        <v>117</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>1347</v>
+        <v>316</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
@@ -13776,16 +13806,16 @@
     </row>
     <row r="57" spans="1:9" ht="19" customHeight="1">
       <c r="A57" s="19" t="s">
-        <v>956</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>957</v>
+        <v>1355</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>1356</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>958</v>
+        <v>1345</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>959</v>
+        <v>1347</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
@@ -13795,16 +13825,16 @@
     </row>
     <row r="58" spans="1:9" ht="19" customHeight="1">
       <c r="A58" s="19" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
@@ -13814,16 +13844,16 @@
     </row>
     <row r="59" spans="1:9" ht="19" customHeight="1">
       <c r="A59" s="19" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
@@ -13833,16 +13863,16 @@
     </row>
     <row r="60" spans="1:9" ht="19" customHeight="1">
       <c r="A60" s="19" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
@@ -13852,16 +13882,16 @@
     </row>
     <row r="61" spans="1:9" ht="19" customHeight="1">
       <c r="A61" s="19" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -13871,16 +13901,16 @@
     </row>
     <row r="62" spans="1:9" ht="19" customHeight="1">
       <c r="A62" s="19" t="s">
-        <v>61</v>
+        <v>966</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>814</v>
+        <v>969</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>291</v>
+        <v>972</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>975</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
@@ -13890,16 +13920,16 @@
     </row>
     <row r="63" spans="1:9" ht="19" customHeight="1">
       <c r="A63" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>412</v>
+        <v>814</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>292</v>
+        <v>62</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>291</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
@@ -13909,16 +13939,16 @@
     </row>
     <row r="64" spans="1:9" ht="19" customHeight="1">
       <c r="A64" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>293</v>
+        <v>64</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
@@ -13928,16 +13958,16 @@
     </row>
     <row r="65" spans="1:9" ht="19" customHeight="1">
       <c r="A65" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
@@ -13947,16 +13977,16 @@
     </row>
     <row r="66" spans="1:9" ht="19" customHeight="1">
       <c r="A66" s="19" t="s">
-        <v>919</v>
+        <v>67</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>920</v>
+        <v>414</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>921</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>921</v>
+        <v>68</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>294</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
@@ -13966,16 +13996,16 @@
     </row>
     <row r="67" spans="1:9" ht="19" customHeight="1">
       <c r="A67" s="19" t="s">
-        <v>818</v>
+        <v>919</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>820</v>
+        <v>920</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>821</v>
+        <v>921</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>822</v>
+        <v>921</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
@@ -13985,16 +14015,16 @@
     </row>
     <row r="68" spans="1:9" ht="19" customHeight="1">
       <c r="A68" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
@@ -14004,16 +14034,16 @@
     </row>
     <row r="69" spans="1:9" ht="19" customHeight="1">
       <c r="A69" s="19" t="s">
-        <v>1075</v>
+        <v>819</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>888</v>
+        <v>824</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>887</v>
+        <v>825</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
@@ -14023,16 +14053,16 @@
     </row>
     <row r="70" spans="1:9" ht="19" customHeight="1">
       <c r="A70" s="19" t="s">
-        <v>816</v>
+        <v>1075</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>817</v>
+        <v>888</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>886</v>
+        <v>823</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
@@ -14042,16 +14072,16 @@
     </row>
     <row r="71" spans="1:9" ht="19" customHeight="1">
       <c r="A71" s="19" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>835</v>
+        <v>889</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>836</v>
+        <v>886</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
@@ -14061,16 +14091,16 @@
     </row>
     <row r="72" spans="1:9" ht="19" customHeight="1">
       <c r="A72" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>879</v>
+        <v>835</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>881</v>
+        <v>836</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
@@ -14080,16 +14110,16 @@
     </row>
     <row r="73" spans="1:9" ht="19" customHeight="1">
       <c r="A73" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
@@ -14099,16 +14129,16 @@
     </row>
     <row r="74" spans="1:9" ht="19" customHeight="1">
       <c r="A74" s="19" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>883</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>884</v>
+        <v>880</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>882</v>
       </c>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
@@ -14118,16 +14148,16 @@
     </row>
     <row r="75" spans="1:9" ht="19" customHeight="1">
       <c r="A75" s="19" t="s">
-        <v>69</v>
+        <v>829</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>415</v>
+        <v>830</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>901</v>
+        <v>883</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>884</v>
       </c>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
@@ -14137,16 +14167,16 @@
     </row>
     <row r="76" spans="1:9" ht="19" customHeight="1">
       <c r="A76" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>295</v>
+        <v>901</v>
       </c>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
@@ -14156,16 +14186,16 @@
     </row>
     <row r="77" spans="1:9" ht="19" customHeight="1">
       <c r="A77" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>902</v>
+        <v>295</v>
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="20"/>
@@ -14175,16 +14205,16 @@
     </row>
     <row r="78" spans="1:9" ht="19" customHeight="1">
       <c r="A78" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>296</v>
+        <v>902</v>
       </c>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
@@ -14194,16 +14224,16 @@
     </row>
     <row r="79" spans="1:9" ht="19" customHeight="1">
       <c r="A79" s="19" t="s">
-        <v>930</v>
+        <v>75</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>931</v>
+        <v>418</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>932</v>
+        <v>76</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>933</v>
+        <v>296</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
@@ -14213,16 +14243,16 @@
     </row>
     <row r="80" spans="1:9" ht="19" customHeight="1">
       <c r="A80" s="19" t="s">
-        <v>77</v>
+        <v>930</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>419</v>
+        <v>931</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>297</v>
+        <v>932</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>933</v>
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
@@ -14232,16 +14262,16 @@
     </row>
     <row r="81" spans="1:9" ht="19" customHeight="1">
       <c r="A81" s="19" t="s">
-        <v>898</v>
+        <v>77</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>899</v>
+        <v>419</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>900</v>
+        <v>78</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>903</v>
+        <v>297</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
@@ -14251,16 +14281,16 @@
     </row>
     <row r="82" spans="1:9" ht="19" customHeight="1">
       <c r="A82" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>420</v>
+        <v>898</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>899</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>298</v>
+        <v>900</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>903</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
@@ -14270,16 +14300,16 @@
     </row>
     <row r="83" spans="1:9" ht="19" customHeight="1">
       <c r="A83" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>421</v>
+        <v>79</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>420</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>299</v>
+        <v>80</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>298</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
@@ -14289,16 +14319,16 @@
     </row>
     <row r="84" spans="1:9" ht="19" customHeight="1">
       <c r="A84" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>423</v>
+        <v>81</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>421</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>300</v>
+        <v>82</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>299</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
@@ -14308,16 +14338,16 @@
     </row>
     <row r="85" spans="1:9" ht="19" customHeight="1">
       <c r="A85" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>301</v>
+        <v>422</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>300</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
@@ -14327,16 +14357,16 @@
     </row>
     <row r="86" spans="1:9" ht="19" customHeight="1">
       <c r="A86" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -14346,16 +14376,16 @@
     </row>
     <row r="87" spans="1:9" ht="19" customHeight="1">
       <c r="A87" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
@@ -14365,16 +14395,16 @@
     </row>
     <row r="88" spans="1:9" ht="19" customHeight="1">
       <c r="A88" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
@@ -14384,16 +14414,16 @@
     </row>
     <row r="89" spans="1:9" ht="19" customHeight="1">
       <c r="A89" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
@@ -14403,16 +14433,16 @@
     </row>
     <row r="90" spans="1:9" ht="19" customHeight="1">
       <c r="A90" s="19" t="s">
-        <v>923</v>
+        <v>92</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>924</v>
+        <v>428</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>925</v>
-      </c>
-      <c r="D90" s="22" t="s">
-        <v>926</v>
+        <v>93</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
@@ -14422,16 +14452,16 @@
     </row>
     <row r="91" spans="1:9" ht="19" customHeight="1">
       <c r="A91" s="19" t="s">
-        <v>94</v>
+        <v>923</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>94</v>
+        <v>924</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>95</v>
+        <v>925</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>306</v>
+        <v>926</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
@@ -14441,16 +14471,16 @@
     </row>
     <row r="92" spans="1:9" ht="19" customHeight="1">
       <c r="A92" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>1148</v>
+        <v>94</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>1149</v>
+        <v>95</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>1150</v>
+        <v>306</v>
       </c>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
@@ -14460,16 +14490,16 @@
     </row>
     <row r="93" spans="1:9" ht="19" customHeight="1">
       <c r="A93" s="19" t="s">
-        <v>1144</v>
+        <v>96</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D93" s="21" t="s">
-        <v>1147</v>
+        <v>1149</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>1150</v>
       </c>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
@@ -14479,16 +14509,16 @@
     </row>
     <row r="94" spans="1:9" ht="19" customHeight="1">
       <c r="A94" s="19" t="s">
-        <v>1163</v>
+        <v>1144</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>1164</v>
+        <v>1145</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>1165</v>
+        <v>1146</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>1166</v>
+        <v>1147</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -14498,16 +14528,16 @@
     </row>
     <row r="95" spans="1:9" ht="19" customHeight="1">
       <c r="A95" s="19" t="s">
-        <v>839</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>841</v>
+        <v>1163</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>1164</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>1002</v>
+        <v>1165</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>1166</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
@@ -14517,16 +14547,16 @@
     </row>
     <row r="96" spans="1:9" ht="19" customHeight="1">
       <c r="A96" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
@@ -14536,16 +14566,16 @@
     </row>
     <row r="97" spans="1:9" ht="19" customHeight="1">
       <c r="A97" s="19" t="s">
-        <v>843</v>
-      </c>
-      <c r="B97" s="19" t="s">
-        <v>856</v>
+        <v>840</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>842</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D97" s="22" t="s">
-        <v>1016</v>
+        <v>1009</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>1003</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
@@ -14555,16 +14585,16 @@
     </row>
     <row r="98" spans="1:9" ht="19" customHeight="1">
       <c r="A98" s="19" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>878</v>
+        <v>856</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
@@ -14574,16 +14604,16 @@
     </row>
     <row r="99" spans="1:9" ht="19" customHeight="1">
       <c r="A99" s="19" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>855</v>
+        <v>878</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
@@ -14593,16 +14623,16 @@
     </row>
     <row r="100" spans="1:9" ht="19" customHeight="1">
       <c r="A100" s="19" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
@@ -14612,16 +14642,16 @@
     </row>
     <row r="101" spans="1:9" ht="19" customHeight="1">
       <c r="A101" s="19" t="s">
-        <v>980</v>
+        <v>846</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>983</v>
+        <v>854</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>978</v>
-      </c>
-      <c r="D101" s="20" t="s">
-        <v>979</v>
+        <v>1013</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>1014</v>
       </c>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
@@ -14631,16 +14661,16 @@
     </row>
     <row r="102" spans="1:9" ht="19" customHeight="1">
       <c r="A102" s="19" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
@@ -14650,16 +14680,16 @@
     </row>
     <row r="103" spans="1:9" ht="19" customHeight="1">
       <c r="A103" s="19" t="s">
-        <v>857</v>
+        <v>981</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>853</v>
+        <v>982</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
@@ -14669,16 +14699,16 @@
     </row>
     <row r="104" spans="1:9" ht="19" customHeight="1">
       <c r="A104" s="19" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
@@ -14688,16 +14718,16 @@
     </row>
     <row r="105" spans="1:9" ht="19" customHeight="1">
       <c r="A105" s="19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
@@ -14707,16 +14737,16 @@
     </row>
     <row r="106" spans="1:9" ht="19" customHeight="1">
       <c r="A106" s="19" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
@@ -14726,16 +14756,16 @@
     </row>
     <row r="107" spans="1:9" ht="19" customHeight="1">
       <c r="A107" s="19" t="s">
-        <v>858</v>
-      </c>
-      <c r="B107" s="20" t="s">
-        <v>862</v>
+        <v>849</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>850</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
@@ -14745,16 +14775,16 @@
     </row>
     <row r="108" spans="1:9" ht="19" customHeight="1">
       <c r="A108" s="19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
@@ -14764,16 +14794,16 @@
     </row>
     <row r="109" spans="1:9" ht="19" customHeight="1">
       <c r="A109" s="19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
@@ -14783,16 +14813,16 @@
     </row>
     <row r="110" spans="1:9" ht="19" customHeight="1">
       <c r="A110" s="19" t="s">
-        <v>861</v>
-      </c>
-      <c r="B110" s="19" t="s">
-        <v>865</v>
+        <v>860</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>864</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
@@ -14802,16 +14832,16 @@
     </row>
     <row r="111" spans="1:9" ht="19" customHeight="1">
       <c r="A111" s="19" t="s">
-        <v>866</v>
-      </c>
-      <c r="B111" s="20" t="s">
-        <v>868</v>
+        <v>861</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>865</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>1006</v>
+        <v>990</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
@@ -14821,16 +14851,16 @@
     </row>
     <row r="112" spans="1:9" ht="19" customHeight="1">
       <c r="A112" s="19" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
@@ -14840,16 +14870,16 @@
     </row>
     <row r="113" spans="1:9" ht="19" customHeight="1">
       <c r="A113" s="19" t="s">
-        <v>1181</v>
+        <v>867</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>1183</v>
+        <v>869</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>1185</v>
+        <v>1005</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>1171</v>
+        <v>1007</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
@@ -14859,16 +14889,16 @@
     </row>
     <row r="114" spans="1:9" ht="19" customHeight="1">
       <c r="A114" s="19" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
@@ -14878,16 +14908,16 @@
     </row>
     <row r="115" spans="1:9" ht="19" customHeight="1">
       <c r="A115" s="19" t="s">
-        <v>1173</v>
+        <v>1182</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>1175</v>
+        <v>1184</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>1177</v>
+        <v>1186</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
@@ -14897,16 +14927,16 @@
     </row>
     <row r="116" spans="1:9" ht="19" customHeight="1">
       <c r="A116" s="19" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
@@ -14916,16 +14946,16 @@
     </row>
     <row r="117" spans="1:9" ht="19" customHeight="1">
       <c r="A117" s="19" t="s">
-        <v>123</v>
+        <v>1174</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>795</v>
+        <v>1176</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>124</v>
+        <v>1178</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>324</v>
+        <v>1180</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
@@ -14935,16 +14965,16 @@
     </row>
     <row r="118" spans="1:9" ht="19" customHeight="1">
       <c r="A118" s="19" t="s">
-        <v>1018</v>
+        <v>123</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>1019</v>
+        <v>795</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>976</v>
+        <v>124</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>977</v>
+        <v>324</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
@@ -14954,16 +14984,16 @@
     </row>
     <row r="119" spans="1:9" ht="19" customHeight="1">
       <c r="A119" s="19" t="s">
-        <v>937</v>
+        <v>1018</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>938</v>
+        <v>1019</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>940</v>
+        <v>976</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>939</v>
+        <v>977</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -14973,16 +15003,16 @@
     </row>
     <row r="120" spans="1:9" ht="19" customHeight="1">
       <c r="A120" s="19" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
@@ -14992,16 +15022,16 @@
     </row>
     <row r="121" spans="1:9" ht="19" customHeight="1">
       <c r="A121" s="19" t="s">
-        <v>125</v>
+        <v>941</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>434</v>
+        <v>942</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>126</v>
+        <v>943</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>319</v>
+        <v>944</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
@@ -15011,16 +15041,16 @@
     </row>
     <row r="122" spans="1:9" ht="19" customHeight="1">
       <c r="A122" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B122" s="19" t="s">
-        <v>435</v>
+        <v>125</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>434</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
@@ -15030,16 +15060,16 @@
     </row>
     <row r="123" spans="1:9" ht="19" customHeight="1">
       <c r="A123" s="19" t="s">
-        <v>890</v>
+        <v>127</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>891</v>
+        <v>435</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>893</v>
+        <v>128</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>892</v>
+        <v>320</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
@@ -15049,16 +15079,16 @@
     </row>
     <row r="124" spans="1:9" ht="19" customHeight="1">
       <c r="A124" s="19" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
@@ -15068,16 +15098,16 @@
     </row>
     <row r="125" spans="1:9" ht="19" customHeight="1">
       <c r="A125" s="19" t="s">
-        <v>129</v>
+        <v>894</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>794</v>
+        <v>897</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>130</v>
+        <v>895</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>321</v>
+        <v>896</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
@@ -15087,16 +15117,16 @@
     </row>
     <row r="126" spans="1:9" ht="19" customHeight="1">
       <c r="A126" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
@@ -15106,16 +15136,16 @@
     </row>
     <row r="127" spans="1:9" ht="19" customHeight="1">
       <c r="A127" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="20"/>
@@ -15125,16 +15155,16 @@
     </row>
     <row r="128" spans="1:9" ht="19" customHeight="1">
       <c r="A128" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="20"/>
@@ -15144,16 +15174,16 @@
     </row>
     <row r="129" spans="1:9" ht="19" customHeight="1">
       <c r="A129" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
@@ -15163,16 +15193,16 @@
     </row>
     <row r="130" spans="1:9" ht="19" customHeight="1">
       <c r="A130" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
@@ -15182,16 +15212,16 @@
     </row>
     <row r="131" spans="1:9" ht="19" customHeight="1">
       <c r="A131" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="20"/>
@@ -15201,16 +15231,16 @@
     </row>
     <row r="132" spans="1:9" ht="19" customHeight="1">
       <c r="A132" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>768</v>
+        <v>791</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
@@ -15220,16 +15250,16 @@
     </row>
     <row r="133" spans="1:9" ht="19" customHeight="1">
       <c r="A133" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="20"/>
@@ -15239,16 +15269,16 @@
     </row>
     <row r="134" spans="1:9" ht="19" customHeight="1">
       <c r="A134" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
@@ -15258,16 +15288,16 @@
     </row>
     <row r="135" spans="1:9" ht="19" customHeight="1">
       <c r="A135" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="20"/>
@@ -15277,16 +15307,16 @@
     </row>
     <row r="136" spans="1:9" ht="19" customHeight="1">
       <c r="A136" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
@@ -15296,16 +15326,16 @@
     </row>
     <row r="137" spans="1:9" ht="19" customHeight="1">
       <c r="A137" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
@@ -15315,16 +15345,16 @@
     </row>
     <row r="138" spans="1:9" ht="19" customHeight="1">
       <c r="A138" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
@@ -15334,16 +15364,16 @@
     </row>
     <row r="139" spans="1:9" ht="19" customHeight="1">
       <c r="A139" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="20"/>
@@ -15353,16 +15383,16 @@
     </row>
     <row r="140" spans="1:9" ht="19" customHeight="1">
       <c r="A140" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="E140" s="20"/>
       <c r="F140" s="20"/>
@@ -15372,16 +15402,16 @@
     </row>
     <row r="141" spans="1:9" ht="19" customHeight="1">
       <c r="A141" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="20"/>
@@ -15391,16 +15421,16 @@
     </row>
     <row r="142" spans="1:9" ht="19" customHeight="1">
       <c r="A142" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="20"/>
@@ -15410,16 +15440,16 @@
     </row>
     <row r="143" spans="1:9" ht="19" customHeight="1">
       <c r="A143" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E143" s="20"/>
       <c r="F143" s="20"/>
@@ -15429,16 +15459,16 @@
     </row>
     <row r="144" spans="1:9" ht="19" customHeight="1">
       <c r="A144" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="20"/>
@@ -15448,16 +15478,16 @@
     </row>
     <row r="145" spans="1:9" ht="19" customHeight="1">
       <c r="A145" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="20"/>
@@ -15467,16 +15497,16 @@
     </row>
     <row r="146" spans="1:9" ht="19" customHeight="1">
       <c r="A146" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="20"/>
@@ -15486,16 +15516,16 @@
     </row>
     <row r="147" spans="1:9" ht="19" customHeight="1">
       <c r="A147" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E147" s="20"/>
       <c r="F147" s="20"/>
@@ -15505,16 +15535,16 @@
     </row>
     <row r="148" spans="1:9" ht="19" customHeight="1">
       <c r="A148" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="20"/>
@@ -15524,16 +15554,16 @@
     </row>
     <row r="149" spans="1:9" ht="19" customHeight="1">
       <c r="A149" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="20"/>
@@ -15543,16 +15573,16 @@
     </row>
     <row r="150" spans="1:9" ht="19" customHeight="1">
       <c r="A150" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D150" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E150" s="20"/>
       <c r="F150" s="20"/>
@@ -15562,16 +15592,16 @@
     </row>
     <row r="151" spans="1:9" ht="19" customHeight="1">
       <c r="A151" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D151" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
@@ -15581,16 +15611,16 @@
     </row>
     <row r="152" spans="1:9" ht="19" customHeight="1">
       <c r="A152" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="B152" s="20" t="s">
-        <v>436</v>
+        <v>179</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>787</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D152" s="20" t="s">
-        <v>182</v>
+        <v>338</v>
       </c>
       <c r="E152" s="20"/>
       <c r="F152" s="20"/>
@@ -15600,7 +15630,7 @@
     </row>
     <row r="153" spans="1:9" ht="19" customHeight="1">
       <c r="A153" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B153" s="20" t="s">
         <v>436</v>
@@ -15619,7 +15649,7 @@
     </row>
     <row r="154" spans="1:9" ht="19" customHeight="1">
       <c r="A154" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B154" s="20" t="s">
         <v>436</v>
@@ -15638,7 +15668,7 @@
     </row>
     <row r="155" spans="1:9" ht="19" customHeight="1">
       <c r="A155" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B155" s="20" t="s">
         <v>436</v>
@@ -15657,16 +15687,16 @@
     </row>
     <row r="156" spans="1:9" ht="19" customHeight="1">
       <c r="A156" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="B156" s="19" t="s">
-        <v>437</v>
+        <v>185</v>
+      </c>
+      <c r="B156" s="20" t="s">
+        <v>436</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D156" s="22" t="s">
-        <v>339</v>
+        <v>182</v>
+      </c>
+      <c r="D156" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
@@ -15676,16 +15706,16 @@
     </row>
     <row r="157" spans="1:9" ht="19" customHeight="1">
       <c r="A157" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="E157" s="20"/>
       <c r="F157" s="20"/>
@@ -15695,16 +15725,16 @@
     </row>
     <row r="158" spans="1:9" ht="19" customHeight="1">
       <c r="A158" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E158" s="20"/>
       <c r="F158" s="20"/>
@@ -15714,16 +15744,16 @@
     </row>
     <row r="159" spans="1:9" ht="19" customHeight="1">
       <c r="A159" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E159" s="20"/>
       <c r="F159" s="20"/>
@@ -15733,16 +15763,16 @@
     </row>
     <row r="160" spans="1:9" ht="19" customHeight="1">
       <c r="A160" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E160" s="20"/>
       <c r="F160" s="20"/>
@@ -15752,16 +15782,16 @@
     </row>
     <row r="161" spans="1:9" ht="19" customHeight="1">
       <c r="A161" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D161" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E161" s="20"/>
       <c r="F161" s="20"/>
@@ -15771,16 +15801,16 @@
     </row>
     <row r="162" spans="1:9" ht="19" customHeight="1">
       <c r="A162" s="19" t="s">
-        <v>1030</v>
+        <v>196</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>1031</v>
+        <v>442</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>1032</v>
+        <v>197</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E162" s="20"/>
       <c r="F162" s="20"/>
@@ -15790,16 +15820,16 @@
     </row>
     <row r="163" spans="1:9" ht="19" customHeight="1">
       <c r="A163" s="19" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E163" s="20"/>
       <c r="F163" s="20"/>
@@ -15809,16 +15839,16 @@
     </row>
     <row r="164" spans="1:9" ht="19" customHeight="1">
       <c r="A164" s="19" t="s">
-        <v>198</v>
+        <v>1033</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>443</v>
+        <v>1034</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D164" s="21" t="s">
-        <v>359</v>
+        <v>1035</v>
+      </c>
+      <c r="D164" s="22" t="s">
+        <v>358</v>
       </c>
       <c r="E164" s="20"/>
       <c r="F164" s="20"/>
@@ -15828,16 +15858,16 @@
     </row>
     <row r="165" spans="1:9" ht="19" customHeight="1">
       <c r="A165" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D165" s="22" t="s">
-        <v>360</v>
+        <v>199</v>
+      </c>
+      <c r="D165" s="21" t="s">
+        <v>359</v>
       </c>
       <c r="E165" s="20"/>
       <c r="F165" s="20"/>
@@ -15847,16 +15877,16 @@
     </row>
     <row r="166" spans="1:9" ht="19" customHeight="1">
       <c r="A166" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E166" s="20"/>
       <c r="F166" s="20"/>
@@ -15866,16 +15896,16 @@
     </row>
     <row r="167" spans="1:9" ht="19" customHeight="1">
       <c r="A167" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D167" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E167" s="20"/>
       <c r="F167" s="20"/>
@@ -15885,16 +15915,16 @@
     </row>
     <row r="168" spans="1:9" ht="19" customHeight="1">
       <c r="A168" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D168" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E168" s="20"/>
       <c r="F168" s="20"/>
@@ -15904,16 +15934,16 @@
     </row>
     <row r="169" spans="1:9" ht="19" customHeight="1">
       <c r="A169" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>1079</v>
+        <v>207</v>
       </c>
       <c r="D169" s="22" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E169" s="20"/>
       <c r="F169" s="20"/>
@@ -15923,16 +15953,16 @@
     </row>
     <row r="170" spans="1:9" ht="19" customHeight="1">
       <c r="A170" s="19" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D170" s="22" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E170" s="20"/>
       <c r="F170" s="20"/>
@@ -15942,16 +15972,16 @@
     </row>
     <row r="171" spans="1:9" ht="19" customHeight="1">
       <c r="A171" s="19" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D171" s="22" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="E171" s="20"/>
       <c r="F171" s="20"/>
@@ -15961,16 +15991,16 @@
     </row>
     <row r="172" spans="1:9" ht="19" customHeight="1">
       <c r="A172" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E172" s="20"/>
       <c r="F172" s="20"/>
@@ -15980,16 +16010,16 @@
     </row>
     <row r="173" spans="1:9" ht="19" customHeight="1">
       <c r="A173" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E173" s="20"/>
       <c r="F173" s="20"/>
@@ -15999,16 +16029,16 @@
     </row>
     <row r="174" spans="1:9" ht="19" customHeight="1">
       <c r="A174" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D174" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E174" s="20"/>
       <c r="F174" s="20"/>
@@ -16018,16 +16048,16 @@
     </row>
     <row r="175" spans="1:9" ht="19" customHeight="1">
       <c r="A175" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E175" s="20"/>
       <c r="F175" s="20"/>
@@ -16037,16 +16067,16 @@
     </row>
     <row r="176" spans="1:9" ht="19" customHeight="1">
       <c r="A176" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D176" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E176" s="20"/>
       <c r="F176" s="20"/>
@@ -16056,16 +16086,16 @@
     </row>
     <row r="177" spans="1:9" ht="19" customHeight="1">
       <c r="A177" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="D177" s="20" t="s">
-        <v>364</v>
+        <v>1086</v>
+      </c>
+      <c r="D177" s="22" t="s">
+        <v>372</v>
       </c>
       <c r="E177" s="20"/>
       <c r="F177" s="20"/>
@@ -16075,16 +16105,16 @@
     </row>
     <row r="178" spans="1:9" ht="19" customHeight="1">
       <c r="A178" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D178" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E178" s="20"/>
       <c r="F178" s="20"/>
@@ -16094,16 +16124,16 @@
     </row>
     <row r="179" spans="1:9" ht="19" customHeight="1">
       <c r="A179" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D179" s="20" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="E179" s="20"/>
       <c r="F179" s="20"/>
@@ -16113,16 +16143,16 @@
     </row>
     <row r="180" spans="1:9" ht="19" customHeight="1">
       <c r="A180" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E180" s="20"/>
       <c r="F180" s="20"/>
@@ -16132,16 +16162,16 @@
     </row>
     <row r="181" spans="1:9" ht="19" customHeight="1">
       <c r="A181" s="19" t="s">
-        <v>1048</v>
+        <v>222</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>1049</v>
+        <v>459</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>1050</v>
+        <v>223</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>1051</v>
+        <v>375</v>
       </c>
       <c r="E181" s="20"/>
       <c r="F181" s="20"/>
@@ -16151,16 +16181,16 @@
     </row>
     <row r="182" spans="1:9" ht="19" customHeight="1">
       <c r="A182" s="19" t="s">
-        <v>224</v>
+        <v>1048</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>460</v>
+        <v>1049</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D182" s="22" t="s">
-        <v>376</v>
+        <v>1050</v>
+      </c>
+      <c r="D182" s="20" t="s">
+        <v>1051</v>
       </c>
       <c r="E182" s="20"/>
       <c r="F182" s="20"/>
@@ -16170,16 +16200,16 @@
     </row>
     <row r="183" spans="1:9" ht="19" customHeight="1">
       <c r="A183" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>885</v>
+        <v>376</v>
       </c>
       <c r="E183" s="20"/>
       <c r="F183" s="20"/>
@@ -16189,16 +16219,16 @@
     </row>
     <row r="184" spans="1:9" ht="19" customHeight="1">
       <c r="A184" s="19" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D184" s="22" t="s">
-        <v>382</v>
+        <v>885</v>
       </c>
       <c r="E184" s="20"/>
       <c r="F184" s="20"/>
@@ -16208,16 +16238,16 @@
     </row>
     <row r="185" spans="1:9" ht="19" customHeight="1">
       <c r="A185" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D185" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E185" s="20"/>
       <c r="F185" s="20"/>
@@ -16227,16 +16257,16 @@
     </row>
     <row r="186" spans="1:9" ht="19" customHeight="1">
       <c r="A186" s="19" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="D186" s="22" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E186" s="20"/>
       <c r="F186" s="20"/>
@@ -16246,16 +16276,16 @@
     </row>
     <row r="187" spans="1:9" ht="19" customHeight="1">
       <c r="A187" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D187" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E187" s="20"/>
       <c r="F187" s="20"/>
@@ -16265,16 +16295,16 @@
     </row>
     <row r="188" spans="1:9" ht="19" customHeight="1">
       <c r="A188" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D188" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E188" s="20"/>
       <c r="F188" s="20"/>
@@ -16284,16 +16314,16 @@
     </row>
     <row r="189" spans="1:9" ht="19" customHeight="1">
       <c r="A189" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D189" s="22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E189" s="20"/>
       <c r="F189" s="20"/>
@@ -16303,16 +16333,16 @@
     </row>
     <row r="190" spans="1:9" ht="19" customHeight="1">
       <c r="A190" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="D190" s="20" t="s">
-        <v>381</v>
+        <v>1092</v>
+      </c>
+      <c r="D190" s="22" t="s">
+        <v>380</v>
       </c>
       <c r="E190" s="20"/>
       <c r="F190" s="20"/>
@@ -16322,16 +16352,16 @@
     </row>
     <row r="191" spans="1:9" ht="19" customHeight="1">
       <c r="A191" s="19" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B191" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E191" s="20"/>
       <c r="F191" s="20"/>
@@ -16341,16 +16371,16 @@
     </row>
     <row r="192" spans="1:9" ht="19" customHeight="1">
       <c r="A192" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D192" s="20" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E192" s="20"/>
       <c r="F192" s="20"/>
@@ -16360,16 +16390,16 @@
     </row>
     <row r="193" spans="1:9" ht="19" customHeight="1">
       <c r="A193" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E193" s="20"/>
       <c r="F193" s="20"/>
@@ -16379,16 +16409,16 @@
     </row>
     <row r="194" spans="1:9" ht="19" customHeight="1">
       <c r="A194" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D194" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E194" s="20"/>
       <c r="F194" s="20"/>
@@ -16398,16 +16428,16 @@
     </row>
     <row r="195" spans="1:9" ht="19" customHeight="1">
       <c r="A195" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E195" s="20"/>
       <c r="F195" s="20"/>
@@ -16417,16 +16447,16 @@
     </row>
     <row r="196" spans="1:9" ht="19" customHeight="1">
       <c r="A196" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E196" s="20"/>
       <c r="F196" s="20"/>
@@ -16436,16 +16466,16 @@
     </row>
     <row r="197" spans="1:9" ht="19" customHeight="1">
       <c r="A197" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
@@ -16455,16 +16485,16 @@
     </row>
     <row r="198" spans="1:9" ht="19" customHeight="1">
       <c r="A198" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>828</v>
+        <v>473</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D198" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E198" s="20"/>
       <c r="F198" s="20"/>
@@ -16474,16 +16504,16 @@
     </row>
     <row r="199" spans="1:9" ht="19" customHeight="1">
       <c r="A199" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D199" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E199" s="20"/>
       <c r="F199" s="20"/>
@@ -16493,16 +16523,16 @@
     </row>
     <row r="200" spans="1:9" ht="19" customHeight="1">
       <c r="A200" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>474</v>
+        <v>827</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="D200" s="21" t="s">
-        <v>392</v>
+        <v>250</v>
+      </c>
+      <c r="D200" s="20" t="s">
+        <v>391</v>
       </c>
       <c r="E200" s="20"/>
       <c r="F200" s="20"/>
@@ -16512,16 +16542,16 @@
     </row>
     <row r="201" spans="1:9" ht="19" customHeight="1">
       <c r="A201" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B201" s="20" t="s">
-        <v>475</v>
+        <v>251</v>
+      </c>
+      <c r="B201" s="19" t="s">
+        <v>474</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="D201" s="20" t="s">
-        <v>482</v>
+        <v>252</v>
+      </c>
+      <c r="D201" s="21" t="s">
+        <v>392</v>
       </c>
       <c r="E201" s="20"/>
       <c r="F201" s="20"/>
@@ -16531,16 +16561,16 @@
     </row>
     <row r="202" spans="1:9" ht="19" customHeight="1">
       <c r="A202" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D202" s="20" t="s">
-        <v>393</v>
+        <v>482</v>
       </c>
       <c r="E202" s="20"/>
       <c r="F202" s="20"/>
@@ -16550,16 +16580,16 @@
     </row>
     <row r="203" spans="1:9" ht="19" customHeight="1">
       <c r="A203" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="B203" s="19" t="s">
-        <v>477</v>
+        <v>255</v>
+      </c>
+      <c r="B203" s="20" t="s">
+        <v>476</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D203" s="21" t="s">
-        <v>394</v>
+        <v>256</v>
+      </c>
+      <c r="D203" s="20" t="s">
+        <v>393</v>
       </c>
       <c r="E203" s="20"/>
       <c r="F203" s="20"/>
@@ -16569,16 +16599,16 @@
     </row>
     <row r="204" spans="1:9" ht="19" customHeight="1">
       <c r="A204" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>259</v>
+        <v>477</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D204" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E204" s="20"/>
       <c r="F204" s="20"/>
@@ -16588,16 +16618,16 @@
     </row>
     <row r="205" spans="1:9" ht="19" customHeight="1">
       <c r="A205" s="19" t="s">
-        <v>1036</v>
+        <v>259</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>436</v>
+        <v>259</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D205" s="20" t="s">
-        <v>1038</v>
+        <v>260</v>
+      </c>
+      <c r="D205" s="21" t="s">
+        <v>395</v>
       </c>
       <c r="E205" s="20"/>
       <c r="F205" s="20"/>
@@ -16607,16 +16637,16 @@
     </row>
     <row r="206" spans="1:9" ht="19" customHeight="1">
       <c r="A206" s="19" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B206" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="D206" s="20" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="E206" s="20"/>
       <c r="F206" s="20"/>
@@ -16626,16 +16656,16 @@
     </row>
     <row r="207" spans="1:9" ht="19" customHeight="1">
       <c r="A207" s="19" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B207" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D207" s="20" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
@@ -16645,16 +16675,16 @@
     </row>
     <row r="208" spans="1:9" ht="19" customHeight="1">
       <c r="A208" s="19" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B208" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D208" s="20" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E208" s="20"/>
       <c r="F208" s="20"/>
@@ -16664,16 +16694,16 @@
     </row>
     <row r="209" spans="1:9" ht="19" customHeight="1">
       <c r="A209" s="19" t="s">
-        <v>261</v>
+        <v>1041</v>
       </c>
       <c r="B209" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D209" s="22" t="s">
-        <v>396</v>
+        <v>1044</v>
+      </c>
+      <c r="D209" s="20" t="s">
+        <v>1047</v>
       </c>
       <c r="E209" s="20"/>
       <c r="F209" s="20"/>
@@ -16683,16 +16713,16 @@
     </row>
     <row r="210" spans="1:9" ht="19" customHeight="1">
       <c r="A210" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B210" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D210" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E210" s="20"/>
       <c r="F210" s="20"/>
@@ -16702,16 +16732,16 @@
     </row>
     <row r="211" spans="1:9" ht="19" customHeight="1">
       <c r="A211" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="B211" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B211" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="D211" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="D211" s="22" t="s">
+        <v>397</v>
       </c>
       <c r="E211" s="20"/>
       <c r="F211" s="20"/>
@@ -16721,16 +16751,16 @@
     </row>
     <row r="212" spans="1:9" ht="19" customHeight="1">
       <c r="A212" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B212" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D212" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E212" s="20"/>
       <c r="F212" s="20"/>
@@ -16740,16 +16770,16 @@
     </row>
     <row r="213" spans="1:9" ht="19" customHeight="1">
       <c r="A213" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B213" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D213" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E213" s="20"/>
       <c r="F213" s="20"/>
@@ -16759,16 +16789,16 @@
     </row>
     <row r="214" spans="1:9" ht="19" customHeight="1">
       <c r="A214" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B214" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>402</v>
+        <v>265</v>
       </c>
       <c r="D214" s="20" t="s">
-        <v>408</v>
+        <v>265</v>
       </c>
       <c r="E214" s="20"/>
       <c r="F214" s="20"/>
@@ -16778,16 +16808,16 @@
     </row>
     <row r="215" spans="1:9" ht="19" customHeight="1">
       <c r="A215" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B215" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D215" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E215" s="20"/>
       <c r="F215" s="20"/>
@@ -16797,16 +16827,16 @@
     </row>
     <row r="216" spans="1:9" ht="19" customHeight="1">
       <c r="A216" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B216" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D216" s="20" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="E216" s="20"/>
       <c r="F216" s="20"/>
@@ -16816,16 +16846,16 @@
     </row>
     <row r="217" spans="1:9" ht="19" customHeight="1">
       <c r="A217" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B217" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
@@ -16835,16 +16865,16 @@
     </row>
     <row r="218" spans="1:9" ht="19" customHeight="1">
       <c r="A218" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B218" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="D218" s="21" t="s">
-        <v>400</v>
+        <v>405</v>
+      </c>
+      <c r="D218" s="20" t="s">
+        <v>398</v>
       </c>
       <c r="E218" s="20"/>
       <c r="F218" s="20"/>
@@ -16854,16 +16884,16 @@
     </row>
     <row r="219" spans="1:9" ht="19" customHeight="1">
       <c r="A219" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B219" s="20" t="s">
         <v>436</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E219" s="20"/>
       <c r="F219" s="20"/>
@@ -16873,14 +16903,16 @@
     </row>
     <row r="220" spans="1:9" ht="19" customHeight="1">
       <c r="A220" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="B220" s="20"/>
+        <v>271</v>
+      </c>
+      <c r="B220" s="20" t="s">
+        <v>436</v>
+      </c>
       <c r="C220" s="20" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D220" s="20" t="s">
-        <v>1103</v>
+        <v>407</v>
+      </c>
+      <c r="D220" s="21" t="s">
+        <v>401</v>
       </c>
       <c r="E220" s="20"/>
       <c r="F220" s="20"/>
@@ -16890,14 +16922,14 @@
     </row>
     <row r="221" spans="1:9" ht="19" customHeight="1">
       <c r="A221" s="19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="20" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D221" s="20" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E221" s="20"/>
       <c r="F221" s="20"/>
@@ -16906,10 +16938,16 @@
       <c r="I221" s="18"/>
     </row>
     <row r="222" spans="1:9" ht="19" customHeight="1">
-      <c r="A222" s="19"/>
+      <c r="A222" s="19" t="s">
+        <v>491</v>
+      </c>
       <c r="B222" s="20"/>
-      <c r="C222" s="20"/>
-      <c r="D222" s="20"/>
+      <c r="C222" s="20" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D222" s="20" t="s">
+        <v>1104</v>
+      </c>
       <c r="E222" s="20"/>
       <c r="F222" s="20"/>
       <c r="G222" s="18"/>
@@ -16983,45 +17021,39 @@
       <c r="I228" s="18"/>
     </row>
     <row r="229" spans="1:9" ht="19" customHeight="1">
-      <c r="A229" s="26" t="s">
+      <c r="A229" s="19"/>
+      <c r="B229" s="20"/>
+      <c r="C229" s="20"/>
+      <c r="D229" s="20"/>
+      <c r="E229" s="20"/>
+      <c r="F229" s="20"/>
+      <c r="G229" s="18"/>
+      <c r="H229" s="17"/>
+      <c r="I229" s="18"/>
+    </row>
+    <row r="230" spans="1:9" ht="19" customHeight="1">
+      <c r="A230" s="26" t="s">
         <v>483</v>
       </c>
-      <c r="B229" s="23"/>
-      <c r="C229" s="23"/>
-      <c r="D229" s="23"/>
-      <c r="E229" s="23"/>
-      <c r="F229" s="23"/>
-      <c r="G229" s="24"/>
-      <c r="H229" s="25"/>
-      <c r="I229" s="24"/>
-    </row>
-    <row r="230" spans="1:9" ht="19" customHeight="1">
-      <c r="A230" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="B230" s="20"/>
-      <c r="C230" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="D230" s="20" t="s">
-        <v>670</v>
-      </c>
-      <c r="E230" s="20"/>
-      <c r="F230" s="20"/>
-      <c r="G230" s="18"/>
-      <c r="H230" s="17"/>
-      <c r="I230" s="18"/>
+      <c r="B230" s="23"/>
+      <c r="C230" s="23"/>
+      <c r="D230" s="23"/>
+      <c r="E230" s="23"/>
+      <c r="F230" s="23"/>
+      <c r="G230" s="24"/>
+      <c r="H230" s="25"/>
+      <c r="I230" s="24"/>
     </row>
     <row r="231" spans="1:9" ht="19" customHeight="1">
       <c r="A231" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B231" s="20"/>
       <c r="C231" s="20" t="s">
-        <v>486</v>
-      </c>
-      <c r="D231" s="22" t="s">
-        <v>671</v>
+        <v>485</v>
+      </c>
+      <c r="D231" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="E231" s="20"/>
       <c r="F231" s="20"/>
@@ -17031,14 +17063,14 @@
     </row>
     <row r="232" spans="1:9" ht="19" customHeight="1">
       <c r="A232" s="19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="D232" s="20" t="s">
-        <v>672</v>
+        <v>486</v>
+      </c>
+      <c r="D232" s="22" t="s">
+        <v>671</v>
       </c>
       <c r="E232" s="20"/>
       <c r="F232" s="20"/>
@@ -17048,14 +17080,14 @@
     </row>
     <row r="233" spans="1:9" ht="19" customHeight="1">
       <c r="A233" s="19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="D233" s="22" t="s">
-        <v>673</v>
+        <v>487</v>
+      </c>
+      <c r="D233" s="20" t="s">
+        <v>672</v>
       </c>
       <c r="E233" s="20"/>
       <c r="F233" s="20"/>
@@ -17065,14 +17097,14 @@
     </row>
     <row r="234" spans="1:9" ht="19" customHeight="1">
       <c r="A234" s="19" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="D234" s="21" t="s">
-        <v>674</v>
+        <v>489</v>
+      </c>
+      <c r="D234" s="22" t="s">
+        <v>673</v>
       </c>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
@@ -17082,14 +17114,14 @@
     </row>
     <row r="235" spans="1:9" ht="19" customHeight="1">
       <c r="A235" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B235" s="20"/>
       <c r="C235" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="D235" s="22" t="s">
-        <v>675</v>
+        <v>493</v>
+      </c>
+      <c r="D235" s="21" t="s">
+        <v>674</v>
       </c>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
@@ -17099,14 +17131,14 @@
     </row>
     <row r="236" spans="1:9" ht="19" customHeight="1">
       <c r="A236" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B236" s="20"/>
       <c r="C236" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="D236" s="21" t="s">
-        <v>676</v>
+        <v>495</v>
+      </c>
+      <c r="D236" s="22" t="s">
+        <v>675</v>
       </c>
       <c r="E236" s="20"/>
       <c r="F236" s="20"/>
@@ -17116,14 +17148,14 @@
     </row>
     <row r="237" spans="1:9" ht="19" customHeight="1">
       <c r="A237" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B237" s="20"/>
       <c r="C237" s="20" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D237" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E237" s="20"/>
       <c r="F237" s="20"/>
@@ -17133,14 +17165,14 @@
     </row>
     <row r="238" spans="1:9" ht="19" customHeight="1">
       <c r="A238" s="19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B238" s="20"/>
       <c r="C238" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D238" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E238" s="20"/>
       <c r="F238" s="20"/>
@@ -17150,14 +17182,14 @@
     </row>
     <row r="239" spans="1:9" ht="19" customHeight="1">
       <c r="A239" s="19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="20" t="s">
-        <v>934</v>
+        <v>501</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>935</v>
+        <v>678</v>
       </c>
       <c r="E239" s="20"/>
       <c r="F239" s="20"/>
@@ -17167,14 +17199,14 @@
     </row>
     <row r="240" spans="1:9" ht="19" customHeight="1">
       <c r="A240" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B240" s="20"/>
       <c r="C240" s="20" t="s">
-        <v>504</v>
+        <v>934</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>679</v>
+        <v>935</v>
       </c>
       <c r="E240" s="20"/>
       <c r="F240" s="20"/>
@@ -17184,14 +17216,14 @@
     </row>
     <row r="241" spans="1:9" ht="19" customHeight="1">
       <c r="A241" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B241" s="20"/>
       <c r="C241" s="20" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D241" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E241" s="20"/>
       <c r="F241" s="20"/>
@@ -17201,14 +17233,14 @@
     </row>
     <row r="242" spans="1:9" ht="19" customHeight="1">
       <c r="A242" s="19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B242" s="20"/>
       <c r="C242" s="20" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D242" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E242" s="20"/>
       <c r="F242" s="20"/>
@@ -17218,14 +17250,14 @@
     </row>
     <row r="243" spans="1:9" ht="19" customHeight="1">
       <c r="A243" s="19" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D243" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E243" s="20"/>
       <c r="F243" s="20"/>
@@ -17235,14 +17267,14 @@
     </row>
     <row r="244" spans="1:9" ht="19" customHeight="1">
       <c r="A244" s="19" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="20" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E244" s="20"/>
       <c r="F244" s="20"/>
@@ -17252,14 +17284,14 @@
     </row>
     <row r="245" spans="1:9" ht="19" customHeight="1">
       <c r="A245" s="19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B245" s="20"/>
       <c r="C245" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D245" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E245" s="20"/>
       <c r="F245" s="20"/>
@@ -17269,14 +17301,14 @@
     </row>
     <row r="246" spans="1:9" ht="19" customHeight="1">
       <c r="A246" s="19" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="20" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D246" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E246" s="20"/>
       <c r="F246" s="20"/>
@@ -17286,14 +17318,14 @@
     </row>
     <row r="247" spans="1:9" ht="19" customHeight="1">
       <c r="A247" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="D247" s="20" t="s">
-        <v>686</v>
+        <v>516</v>
+      </c>
+      <c r="D247" s="21" t="s">
+        <v>685</v>
       </c>
       <c r="E247" s="20"/>
       <c r="F247" s="20"/>
@@ -17303,14 +17335,14 @@
     </row>
     <row r="248" spans="1:9" ht="19" customHeight="1">
       <c r="A248" s="19" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D248" s="22" t="s">
-        <v>687</v>
+        <v>518</v>
+      </c>
+      <c r="D248" s="20" t="s">
+        <v>686</v>
       </c>
       <c r="E248" s="20"/>
       <c r="F248" s="20"/>
@@ -17320,14 +17352,14 @@
     </row>
     <row r="249" spans="1:9" ht="19" customHeight="1">
       <c r="A249" s="19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="D249" s="21" t="s">
-        <v>688</v>
+        <v>520</v>
+      </c>
+      <c r="D249" s="22" t="s">
+        <v>687</v>
       </c>
       <c r="E249" s="20"/>
       <c r="F249" s="20"/>
@@ -17337,14 +17369,14 @@
     </row>
     <row r="250" spans="1:9" ht="19" customHeight="1">
       <c r="A250" s="19" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="20" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D250" s="20" t="s">
-        <v>1143</v>
+        <v>522</v>
+      </c>
+      <c r="D250" s="21" t="s">
+        <v>688</v>
       </c>
       <c r="E250" s="20"/>
       <c r="F250" s="20"/>
@@ -17354,14 +17386,14 @@
     </row>
     <row r="251" spans="1:9" ht="19" customHeight="1">
       <c r="A251" s="19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="20" t="s">
-        <v>525</v>
+        <v>1142</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>689</v>
+        <v>1143</v>
       </c>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
@@ -17371,14 +17403,14 @@
     </row>
     <row r="252" spans="1:9" ht="19" customHeight="1">
       <c r="A252" s="19" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="20" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E252" s="20"/>
       <c r="F252" s="20"/>
@@ -17388,14 +17420,14 @@
     </row>
     <row r="253" spans="1:9" ht="19" customHeight="1">
       <c r="A253" s="19" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="20" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E253" s="20"/>
       <c r="F253" s="20"/>
@@ -17405,14 +17437,14 @@
     </row>
     <row r="254" spans="1:9" ht="19" customHeight="1">
       <c r="A254" s="19" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B254" s="20"/>
       <c r="C254" s="20" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E254" s="20"/>
       <c r="F254" s="20"/>
@@ -17422,14 +17454,14 @@
     </row>
     <row r="255" spans="1:9" ht="19" customHeight="1">
       <c r="A255" s="19" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B255" s="20"/>
       <c r="C255" s="20" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E255" s="20"/>
       <c r="F255" s="20"/>
@@ -17439,14 +17471,14 @@
     </row>
     <row r="256" spans="1:9" ht="19" customHeight="1">
       <c r="A256" s="19" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D256" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E256" s="20"/>
       <c r="F256" s="20"/>
@@ -17456,14 +17488,14 @@
     </row>
     <row r="257" spans="1:9" ht="19" customHeight="1">
       <c r="A257" s="19" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="D257" s="21" t="s">
-        <v>695</v>
+        <v>535</v>
+      </c>
+      <c r="D257" s="20" t="s">
+        <v>694</v>
       </c>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
@@ -17473,14 +17505,14 @@
     </row>
     <row r="258" spans="1:9" ht="19" customHeight="1">
       <c r="A258" s="19" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="20" t="s">
-        <v>539</v>
-      </c>
-      <c r="D258" s="20" t="s">
-        <v>696</v>
+        <v>537</v>
+      </c>
+      <c r="D258" s="21" t="s">
+        <v>695</v>
       </c>
       <c r="E258" s="20"/>
       <c r="F258" s="20"/>
@@ -17490,14 +17522,14 @@
     </row>
     <row r="259" spans="1:9" ht="19" customHeight="1">
       <c r="A259" s="19" t="s">
-        <v>1023</v>
+        <v>538</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E259" s="20"/>
       <c r="F259" s="20"/>
@@ -17507,14 +17539,14 @@
     </row>
     <row r="260" spans="1:9" ht="19" customHeight="1">
       <c r="A260" s="19" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="20" t="s">
-        <v>541</v>
-      </c>
-      <c r="D260" s="21" t="s">
-        <v>698</v>
+        <v>540</v>
+      </c>
+      <c r="D260" s="20" t="s">
+        <v>697</v>
       </c>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
@@ -17524,14 +17556,14 @@
     </row>
     <row r="261" spans="1:9" ht="19" customHeight="1">
       <c r="A261" s="19" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="20" t="s">
-        <v>1026</v>
+        <v>541</v>
       </c>
       <c r="D261" s="21" t="s">
-        <v>1027</v>
+        <v>698</v>
       </c>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
@@ -17541,14 +17573,14 @@
     </row>
     <row r="262" spans="1:9" ht="19" customHeight="1">
       <c r="A262" s="19" t="s">
-        <v>542</v>
+        <v>1025</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="20" t="s">
-        <v>543</v>
-      </c>
-      <c r="D262" s="20" t="s">
-        <v>699</v>
+        <v>1026</v>
+      </c>
+      <c r="D262" s="21" t="s">
+        <v>1027</v>
       </c>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
@@ -17558,14 +17590,14 @@
     </row>
     <row r="263" spans="1:9" ht="19" customHeight="1">
       <c r="A263" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D263" s="20" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E263" s="20"/>
       <c r="F263" s="20"/>
@@ -17575,14 +17607,14 @@
     </row>
     <row r="264" spans="1:9" ht="19" customHeight="1">
       <c r="A264" s="19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="20" t="s">
-        <v>547</v>
-      </c>
-      <c r="D264" s="21" t="s">
-        <v>701</v>
+        <v>545</v>
+      </c>
+      <c r="D264" s="20" t="s">
+        <v>700</v>
       </c>
       <c r="E264" s="20"/>
       <c r="F264" s="20"/>
@@ -17592,14 +17624,14 @@
     </row>
     <row r="265" spans="1:9" ht="19" customHeight="1">
       <c r="A265" s="19" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="D265" s="20" t="s">
-        <v>702</v>
+        <v>547</v>
+      </c>
+      <c r="D265" s="21" t="s">
+        <v>701</v>
       </c>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
@@ -17609,14 +17641,14 @@
     </row>
     <row r="266" spans="1:9" ht="19" customHeight="1">
       <c r="A266" s="19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D266" s="20" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E266" s="20"/>
       <c r="F266" s="20"/>
@@ -17626,14 +17658,14 @@
     </row>
     <row r="267" spans="1:9" ht="19" customHeight="1">
       <c r="A267" s="19" t="s">
-        <v>1162</v>
+        <v>550</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="20" t="s">
-        <v>1161</v>
+        <v>551</v>
       </c>
       <c r="D267" s="20" t="s">
-        <v>1160</v>
+        <v>703</v>
       </c>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
@@ -17643,14 +17675,14 @@
     </row>
     <row r="268" spans="1:9" ht="19" customHeight="1">
       <c r="A268" s="19" t="s">
-        <v>552</v>
+        <v>1162</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="20" t="s">
-        <v>553</v>
+        <v>1161</v>
       </c>
       <c r="D268" s="20" t="s">
-        <v>704</v>
+        <v>1160</v>
       </c>
       <c r="E268" s="20"/>
       <c r="F268" s="20"/>
@@ -17660,14 +17692,14 @@
     </row>
     <row r="269" spans="1:9" ht="19" customHeight="1">
       <c r="A269" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="20" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D269" s="20" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E269" s="20"/>
       <c r="F269" s="20"/>
@@ -17677,14 +17709,14 @@
     </row>
     <row r="270" spans="1:9" ht="19" customHeight="1">
       <c r="A270" s="19" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="D270" s="21" t="s">
-        <v>706</v>
+        <v>555</v>
+      </c>
+      <c r="D270" s="20" t="s">
+        <v>705</v>
       </c>
       <c r="E270" s="20"/>
       <c r="F270" s="20"/>
@@ -17694,14 +17726,14 @@
     </row>
     <row r="271" spans="1:9" ht="19" customHeight="1">
       <c r="A271" s="19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D271" s="21" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E271" s="20"/>
       <c r="F271" s="20"/>
@@ -17711,14 +17743,14 @@
     </row>
     <row r="272" spans="1:9" ht="19" customHeight="1">
       <c r="A272" s="19" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="D272" s="20" t="s">
-        <v>708</v>
+        <v>559</v>
+      </c>
+      <c r="D272" s="21" t="s">
+        <v>707</v>
       </c>
       <c r="E272" s="20"/>
       <c r="F272" s="20"/>
@@ -17728,14 +17760,14 @@
     </row>
     <row r="273" spans="1:9" ht="19" customHeight="1">
       <c r="A273" s="19" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E273" s="20"/>
       <c r="F273" s="20"/>
@@ -17745,14 +17777,14 @@
     </row>
     <row r="274" spans="1:9" ht="19" customHeight="1">
       <c r="A274" s="19" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="20" t="s">
-        <v>1169</v>
+        <v>563</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -17762,14 +17794,14 @@
     </row>
     <row r="275" spans="1:9" ht="19" customHeight="1">
       <c r="A275" s="19" t="s">
-        <v>1105</v>
+        <v>564</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="20" t="s">
-        <v>1109</v>
+        <v>1169</v>
       </c>
       <c r="D275" s="20" t="s">
-        <v>1110</v>
+        <v>710</v>
       </c>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
@@ -17779,14 +17811,14 @@
     </row>
     <row r="276" spans="1:9" ht="19" customHeight="1">
       <c r="A276" s="19" t="s">
-        <v>1118</v>
+        <v>1105</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="20" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D276" s="22" t="s">
-        <v>1127</v>
+        <v>1109</v>
+      </c>
+      <c r="D276" s="20" t="s">
+        <v>1110</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -17796,14 +17828,14 @@
     </row>
     <row r="277" spans="1:9" ht="19" customHeight="1">
       <c r="A277" s="19" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="20" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="D277" s="22" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
@@ -17813,14 +17845,14 @@
     </row>
     <row r="278" spans="1:9" ht="19" customHeight="1">
       <c r="A278" s="19" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="20" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="D278" s="22" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="E278" s="20"/>
       <c r="F278" s="20"/>
@@ -17830,14 +17862,14 @@
     </row>
     <row r="279" spans="1:9" ht="19" customHeight="1">
       <c r="A279" s="19" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="20" t="s">
-        <v>1167</v>
+        <v>1122</v>
       </c>
       <c r="D279" s="22" t="s">
-        <v>1168</v>
+        <v>1123</v>
       </c>
       <c r="E279" s="20"/>
       <c r="F279" s="20"/>
@@ -17847,14 +17879,14 @@
     </row>
     <row r="280" spans="1:9" ht="19" customHeight="1">
       <c r="A280" s="19" t="s">
-        <v>910</v>
+        <v>1121</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="20" t="s">
-        <v>912</v>
-      </c>
-      <c r="D280" s="20" t="s">
-        <v>911</v>
+        <v>1167</v>
+      </c>
+      <c r="D280" s="22" t="s">
+        <v>1168</v>
       </c>
       <c r="E280" s="20"/>
       <c r="F280" s="20"/>
@@ -17864,14 +17896,14 @@
     </row>
     <row r="281" spans="1:9" ht="19" customHeight="1">
       <c r="A281" s="19" t="s">
-        <v>565</v>
+        <v>910</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="D281" s="21" t="s">
-        <v>711</v>
+        <v>912</v>
+      </c>
+      <c r="D281" s="20" t="s">
+        <v>911</v>
       </c>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
@@ -17881,14 +17913,14 @@
     </row>
     <row r="282" spans="1:9" ht="19" customHeight="1">
       <c r="A282" s="19" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="20" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E282" s="20"/>
       <c r="F282" s="20"/>
@@ -17898,14 +17930,14 @@
     </row>
     <row r="283" spans="1:9" ht="19" customHeight="1">
       <c r="A283" s="19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="D283" s="20" t="s">
-        <v>713</v>
+        <v>568</v>
+      </c>
+      <c r="D283" s="21" t="s">
+        <v>712</v>
       </c>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
@@ -17915,14 +17947,14 @@
     </row>
     <row r="284" spans="1:9" ht="19" customHeight="1">
       <c r="A284" s="19" t="s">
-        <v>1106</v>
+        <v>569</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="20" t="s">
-        <v>1128</v>
+        <v>570</v>
       </c>
       <c r="D284" s="20" t="s">
-        <v>1129</v>
+        <v>713</v>
       </c>
       <c r="E284" s="20"/>
       <c r="F284" s="20"/>
@@ -17932,14 +17964,14 @@
     </row>
     <row r="285" spans="1:9" ht="19" customHeight="1">
       <c r="A285" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="20" t="s">
-        <v>1108</v>
+        <v>1128</v>
       </c>
       <c r="D285" s="20" t="s">
-        <v>1114</v>
+        <v>1129</v>
       </c>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
@@ -17949,14 +17981,14 @@
     </row>
     <row r="286" spans="1:9" ht="19" customHeight="1">
       <c r="A286" s="19" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="20" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="D286" s="20" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="E286" s="20"/>
       <c r="F286" s="20"/>
@@ -17966,14 +17998,14 @@
     </row>
     <row r="287" spans="1:9" ht="19" customHeight="1">
       <c r="A287" s="19" t="s">
-        <v>573</v>
+        <v>1115</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="20" t="s">
-        <v>574</v>
+        <v>1116</v>
       </c>
       <c r="D287" s="20" t="s">
-        <v>715</v>
+        <v>1117</v>
       </c>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
@@ -17983,14 +18015,14 @@
     </row>
     <row r="288" spans="1:9" ht="19" customHeight="1">
       <c r="A288" s="19" t="s">
-        <v>1028</v>
+        <v>573</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="20" t="s">
-        <v>1029</v>
+        <v>574</v>
       </c>
       <c r="D288" s="20" t="s">
-        <v>1170</v>
+        <v>715</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -18000,14 +18032,14 @@
     </row>
     <row r="289" spans="1:9" ht="19" customHeight="1">
       <c r="A289" s="19" t="s">
-        <v>571</v>
+        <v>1028</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="20" t="s">
-        <v>572</v>
+        <v>1029</v>
       </c>
       <c r="D289" s="20" t="s">
-        <v>714</v>
+        <v>1170</v>
       </c>
       <c r="E289" s="20"/>
       <c r="F289" s="20"/>
@@ -18017,14 +18049,14 @@
     </row>
     <row r="290" spans="1:9" ht="19" customHeight="1">
       <c r="A290" s="19" t="s">
-        <v>1111</v>
+        <v>571</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="20" t="s">
-        <v>1113</v>
+        <v>572</v>
       </c>
       <c r="D290" s="20" t="s">
-        <v>1112</v>
+        <v>714</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -18034,14 +18066,14 @@
     </row>
     <row r="291" spans="1:9" ht="19" customHeight="1">
       <c r="A291" s="19" t="s">
-        <v>575</v>
+        <v>1111</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="20" t="s">
-        <v>576</v>
+        <v>1113</v>
       </c>
       <c r="D291" s="20" t="s">
-        <v>716</v>
+        <v>1112</v>
       </c>
       <c r="E291" s="20"/>
       <c r="F291" s="20"/>
@@ -18051,14 +18083,14 @@
     </row>
     <row r="292" spans="1:9" ht="19" customHeight="1">
       <c r="A292" s="19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D292" s="20" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -18068,14 +18100,14 @@
     </row>
     <row r="293" spans="1:9" ht="19" customHeight="1">
       <c r="A293" s="19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="D293" s="21" t="s">
-        <v>718</v>
+        <v>578</v>
+      </c>
+      <c r="D293" s="20" t="s">
+        <v>717</v>
       </c>
       <c r="E293" s="20"/>
       <c r="F293" s="20"/>
@@ -18085,14 +18117,14 @@
     </row>
     <row r="294" spans="1:9" ht="19" customHeight="1">
       <c r="A294" s="19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="20" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D294" s="21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -18102,14 +18134,14 @@
     </row>
     <row r="295" spans="1:9" ht="19" customHeight="1">
       <c r="A295" s="19" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="D295" s="20" t="s">
-        <v>720</v>
+        <v>582</v>
+      </c>
+      <c r="D295" s="21" t="s">
+        <v>719</v>
       </c>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
@@ -18119,14 +18151,14 @@
     </row>
     <row r="296" spans="1:9" ht="19" customHeight="1">
       <c r="A296" s="19" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="D296" s="21" t="s">
-        <v>721</v>
+        <v>584</v>
+      </c>
+      <c r="D296" s="20" t="s">
+        <v>720</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -18136,14 +18168,14 @@
     </row>
     <row r="297" spans="1:9" ht="19" customHeight="1">
       <c r="A297" s="19" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="20" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
@@ -18153,14 +18185,14 @@
     </row>
     <row r="298" spans="1:9" ht="19" customHeight="1">
       <c r="A298" s="19" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="20" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D298" s="21" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -18170,14 +18202,14 @@
     </row>
     <row r="299" spans="1:9" ht="19" customHeight="1">
       <c r="A299" s="19" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D299" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E299" s="20"/>
       <c r="F299" s="20"/>
@@ -18187,14 +18219,14 @@
     </row>
     <row r="300" spans="1:9" ht="19" customHeight="1">
       <c r="A300" s="19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="20" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D300" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E300" s="20"/>
       <c r="F300" s="20"/>
@@ -18204,14 +18236,14 @@
     </row>
     <row r="301" spans="1:9" ht="19" customHeight="1">
       <c r="A301" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="20" t="s">
-        <v>596</v>
-      </c>
-      <c r="D301" s="20" t="s">
-        <v>726</v>
+        <v>594</v>
+      </c>
+      <c r="D301" s="21" t="s">
+        <v>725</v>
       </c>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
@@ -18221,14 +18253,14 @@
     </row>
     <row r="302" spans="1:9" ht="19" customHeight="1">
       <c r="A302" s="19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="20" t="s">
-        <v>598</v>
-      </c>
-      <c r="D302" s="21" t="s">
-        <v>727</v>
+        <v>596</v>
+      </c>
+      <c r="D302" s="20" t="s">
+        <v>726</v>
       </c>
       <c r="E302" s="20"/>
       <c r="F302" s="20"/>
@@ -18238,14 +18270,14 @@
     </row>
     <row r="303" spans="1:9" ht="19" customHeight="1">
       <c r="A303" s="19" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="20" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D303" s="21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E303" s="20"/>
       <c r="F303" s="20"/>
@@ -18255,14 +18287,14 @@
     </row>
     <row r="304" spans="1:9" ht="19" customHeight="1">
       <c r="A304" s="19" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="20" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D304" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E304" s="20"/>
       <c r="F304" s="20"/>
@@ -18272,14 +18304,14 @@
     </row>
     <row r="305" spans="1:9" ht="19" customHeight="1">
       <c r="A305" s="19" t="s">
-        <v>1020</v>
+        <v>601</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="20" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D305" s="20" t="s">
-        <v>1022</v>
+        <v>602</v>
+      </c>
+      <c r="D305" s="21" t="s">
+        <v>729</v>
       </c>
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
@@ -18289,14 +18321,14 @@
     </row>
     <row r="306" spans="1:9" ht="19" customHeight="1">
       <c r="A306" s="19" t="s">
-        <v>603</v>
+        <v>1020</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="20" t="s">
-        <v>604</v>
-      </c>
-      <c r="D306" s="21" t="s">
-        <v>730</v>
+        <v>1021</v>
+      </c>
+      <c r="D306" s="20" t="s">
+        <v>1022</v>
       </c>
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
@@ -18306,14 +18338,14 @@
     </row>
     <row r="307" spans="1:9" ht="19" customHeight="1">
       <c r="A307" s="19" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="20" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E307" s="20"/>
       <c r="F307" s="20"/>
@@ -18323,14 +18355,14 @@
     </row>
     <row r="308" spans="1:9" ht="19" customHeight="1">
       <c r="A308" s="19" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="D308" s="20" t="s">
-        <v>732</v>
+        <v>606</v>
+      </c>
+      <c r="D308" s="21" t="s">
+        <v>731</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -18340,14 +18372,14 @@
     </row>
     <row r="309" spans="1:9" ht="19" customHeight="1">
       <c r="A309" s="19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="20" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D309" s="20" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E309" s="20"/>
       <c r="F309" s="20"/>
@@ -18357,14 +18389,14 @@
     </row>
     <row r="310" spans="1:9" ht="19" customHeight="1">
       <c r="A310" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="20" t="s">
-        <v>612</v>
-      </c>
-      <c r="D310" s="21" t="s">
-        <v>734</v>
+        <v>610</v>
+      </c>
+      <c r="D310" s="20" t="s">
+        <v>733</v>
       </c>
       <c r="E310" s="20"/>
       <c r="F310" s="20"/>
@@ -18374,14 +18406,14 @@
     </row>
     <row r="311" spans="1:9" ht="19" customHeight="1">
       <c r="A311" s="19" t="s">
-        <v>1076</v>
+        <v>611</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="20" t="s">
-        <v>1077</v>
+        <v>612</v>
       </c>
       <c r="D311" s="21" t="s">
-        <v>1078</v>
+        <v>734</v>
       </c>
       <c r="E311" s="20"/>
       <c r="F311" s="20"/>
@@ -18391,14 +18423,14 @@
     </row>
     <row r="312" spans="1:9" ht="19" customHeight="1">
       <c r="A312" s="19" t="s">
-        <v>613</v>
+        <v>1076</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="D312" s="22" t="s">
-        <v>735</v>
+        <v>1077</v>
+      </c>
+      <c r="D312" s="21" t="s">
+        <v>1078</v>
       </c>
       <c r="E312" s="20"/>
       <c r="F312" s="20"/>
@@ -18408,14 +18440,14 @@
     </row>
     <row r="313" spans="1:9" ht="19" customHeight="1">
       <c r="A313" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="D313" s="21" t="s">
-        <v>936</v>
+        <v>614</v>
+      </c>
+      <c r="D313" s="22" t="s">
+        <v>735</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -18425,14 +18457,14 @@
     </row>
     <row r="314" spans="1:9" ht="19" customHeight="1">
       <c r="A314" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="20" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>736</v>
+        <v>936</v>
       </c>
       <c r="E314" s="20"/>
       <c r="F314" s="20"/>
@@ -18442,14 +18474,14 @@
     </row>
     <row r="315" spans="1:9" ht="19" customHeight="1">
       <c r="A315" s="19" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="D315" s="20" t="s">
-        <v>737</v>
+        <v>618</v>
+      </c>
+      <c r="D315" s="21" t="s">
+        <v>736</v>
       </c>
       <c r="E315" s="20"/>
       <c r="F315" s="20"/>
@@ -18459,14 +18491,14 @@
     </row>
     <row r="316" spans="1:9" ht="19" customHeight="1">
       <c r="A316" s="19" t="s">
-        <v>948</v>
+        <v>619</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="20" t="s">
-        <v>949</v>
+        <v>620</v>
       </c>
       <c r="D316" s="20" t="s">
-        <v>950</v>
+        <v>737</v>
       </c>
       <c r="E316" s="20"/>
       <c r="F316" s="20"/>
@@ -18476,14 +18508,14 @@
     </row>
     <row r="317" spans="1:9" ht="19" customHeight="1">
       <c r="A317" s="19" t="s">
-        <v>621</v>
+        <v>948</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="D317" s="21" t="s">
-        <v>738</v>
+        <v>949</v>
+      </c>
+      <c r="D317" s="20" t="s">
+        <v>950</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -18493,14 +18525,14 @@
     </row>
     <row r="318" spans="1:9" ht="19" customHeight="1">
       <c r="A318" s="19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="20" t="s">
-        <v>951</v>
+        <v>622</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>952</v>
+        <v>738</v>
       </c>
       <c r="E318" s="20"/>
       <c r="F318" s="20"/>
@@ -18510,14 +18542,14 @@
     </row>
     <row r="319" spans="1:9" ht="19" customHeight="1">
       <c r="A319" s="19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="20" t="s">
-        <v>625</v>
+        <v>951</v>
       </c>
       <c r="D319" s="21" t="s">
-        <v>739</v>
+        <v>952</v>
       </c>
       <c r="E319" s="20"/>
       <c r="F319" s="20"/>
@@ -18527,14 +18559,14 @@
     </row>
     <row r="320" spans="1:9" ht="19" customHeight="1">
       <c r="A320" s="19" t="s">
-        <v>953</v>
+        <v>624</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="20" t="s">
-        <v>954</v>
-      </c>
-      <c r="D320" s="20" t="s">
-        <v>955</v>
+        <v>625</v>
+      </c>
+      <c r="D320" s="21" t="s">
+        <v>739</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -18544,14 +18576,14 @@
     </row>
     <row r="321" spans="1:9" ht="19" customHeight="1">
       <c r="A321" s="19" t="s">
-        <v>626</v>
+        <v>953</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="20" t="s">
-        <v>627</v>
-      </c>
-      <c r="D321" s="21" t="s">
-        <v>740</v>
+        <v>954</v>
+      </c>
+      <c r="D321" s="20" t="s">
+        <v>955</v>
       </c>
       <c r="E321" s="20"/>
       <c r="F321" s="20"/>
@@ -18561,14 +18593,14 @@
     </row>
     <row r="322" spans="1:9" ht="19" customHeight="1">
       <c r="A322" s="19" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="20" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D322" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E322" s="20"/>
       <c r="F322" s="20"/>
@@ -18578,14 +18610,14 @@
     </row>
     <row r="323" spans="1:9" ht="19" customHeight="1">
       <c r="A323" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="20" t="s">
-        <v>631</v>
-      </c>
-      <c r="D323" s="20" t="s">
-        <v>742</v>
+        <v>629</v>
+      </c>
+      <c r="D323" s="21" t="s">
+        <v>741</v>
       </c>
       <c r="E323" s="20"/>
       <c r="F323" s="20"/>
@@ -18595,14 +18627,14 @@
     </row>
     <row r="324" spans="1:9" ht="19" customHeight="1">
       <c r="A324" s="19" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="20" t="s">
-        <v>633</v>
-      </c>
-      <c r="D324" s="21" t="s">
-        <v>743</v>
+        <v>631</v>
+      </c>
+      <c r="D324" s="20" t="s">
+        <v>742</v>
       </c>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
@@ -18612,14 +18644,14 @@
     </row>
     <row r="325" spans="1:9" ht="19" customHeight="1">
       <c r="A325" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="20" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
@@ -18629,14 +18661,14 @@
     </row>
     <row r="326" spans="1:9" ht="19" customHeight="1">
       <c r="A326" s="19" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="20" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D326" s="21" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E326" s="20"/>
       <c r="F326" s="20"/>
@@ -18646,14 +18678,14 @@
     </row>
     <row r="327" spans="1:9" ht="19" customHeight="1">
       <c r="A327" s="19" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="20" t="s">
-        <v>639</v>
-      </c>
-      <c r="D327" s="22" t="s">
-        <v>746</v>
+        <v>637</v>
+      </c>
+      <c r="D327" s="21" t="s">
+        <v>745</v>
       </c>
       <c r="E327" s="20"/>
       <c r="F327" s="20"/>
@@ -18663,14 +18695,14 @@
     </row>
     <row r="328" spans="1:9" ht="19" customHeight="1">
       <c r="A328" s="19" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="20" t="s">
-        <v>641</v>
-      </c>
-      <c r="D328" s="21" t="s">
-        <v>747</v>
+        <v>639</v>
+      </c>
+      <c r="D328" s="22" t="s">
+        <v>746</v>
       </c>
       <c r="E328" s="20"/>
       <c r="F328" s="20"/>
@@ -18680,14 +18712,14 @@
     </row>
     <row r="329" spans="1:9" ht="19" customHeight="1">
       <c r="A329" s="19" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D329" s="21" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E329" s="20"/>
       <c r="F329" s="20"/>
@@ -18697,14 +18729,14 @@
     </row>
     <row r="330" spans="1:9" ht="19" customHeight="1">
       <c r="A330" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="20" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D330" s="21" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E330" s="20"/>
       <c r="F330" s="20"/>
@@ -18714,14 +18746,14 @@
     </row>
     <row r="331" spans="1:9" ht="19" customHeight="1">
       <c r="A331" s="19" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="20" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E331" s="20"/>
       <c r="F331" s="20"/>
@@ -18731,14 +18763,14 @@
     </row>
     <row r="332" spans="1:9" ht="19" customHeight="1">
       <c r="A332" s="19" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="20" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D332" s="21" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E332" s="20"/>
       <c r="F332" s="20"/>
@@ -18748,14 +18780,14 @@
     </row>
     <row r="333" spans="1:9" ht="19" customHeight="1">
       <c r="A333" s="19" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="20" t="s">
-        <v>651</v>
-      </c>
-      <c r="D333" s="20" t="s">
-        <v>752</v>
+        <v>649</v>
+      </c>
+      <c r="D333" s="21" t="s">
+        <v>751</v>
       </c>
       <c r="E333" s="20"/>
       <c r="F333" s="20"/>
@@ -18765,14 +18797,14 @@
     </row>
     <row r="334" spans="1:9" ht="19" customHeight="1">
       <c r="A334" s="19" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B334" s="20"/>
-      <c r="C334" s="27" t="s">
-        <v>653</v>
-      </c>
-      <c r="D334" s="27" t="s">
-        <v>753</v>
+      <c r="C334" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="D334" s="20" t="s">
+        <v>752</v>
       </c>
       <c r="E334" s="20"/>
       <c r="F334" s="20"/>
@@ -18782,14 +18814,14 @@
     </row>
     <row r="335" spans="1:9" ht="19" customHeight="1">
       <c r="A335" s="19" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B335" s="20"/>
-      <c r="C335" s="20" t="s">
-        <v>655</v>
-      </c>
-      <c r="D335" s="20" t="s">
-        <v>754</v>
+      <c r="C335" s="27" t="s">
+        <v>653</v>
+      </c>
+      <c r="D335" s="27" t="s">
+        <v>753</v>
       </c>
       <c r="E335" s="20"/>
       <c r="F335" s="20"/>
@@ -18799,14 +18831,14 @@
     </row>
     <row r="336" spans="1:9" ht="19" customHeight="1">
       <c r="A336" s="19" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="20" t="s">
-        <v>657</v>
-      </c>
-      <c r="D336" s="21" t="s">
-        <v>755</v>
+        <v>655</v>
+      </c>
+      <c r="D336" s="20" t="s">
+        <v>754</v>
       </c>
       <c r="E336" s="20"/>
       <c r="F336" s="20"/>
@@ -18816,14 +18848,14 @@
     </row>
     <row r="337" spans="1:9" ht="19" customHeight="1">
       <c r="A337" s="19" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B337" s="20"/>
       <c r="C337" s="20" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D337" s="21" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E337" s="20"/>
       <c r="F337" s="20"/>
@@ -18833,14 +18865,14 @@
     </row>
     <row r="338" spans="1:9" ht="19" customHeight="1">
       <c r="A338" s="19" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="20" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D338" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E338" s="20"/>
       <c r="F338" s="20"/>
@@ -18850,14 +18882,14 @@
     </row>
     <row r="339" spans="1:9" ht="19" customHeight="1">
       <c r="A339" s="19" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="20" t="s">
-        <v>663</v>
-      </c>
-      <c r="D339" s="20" t="s">
-        <v>758</v>
+        <v>661</v>
+      </c>
+      <c r="D339" s="21" t="s">
+        <v>757</v>
       </c>
       <c r="E339" s="20"/>
       <c r="F339" s="20"/>
@@ -18867,14 +18899,14 @@
     </row>
     <row r="340" spans="1:9" ht="19" customHeight="1">
       <c r="A340" s="19" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B340" s="20"/>
       <c r="C340" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="D340" s="22" t="s">
-        <v>759</v>
+        <v>663</v>
+      </c>
+      <c r="D340" s="20" t="s">
+        <v>758</v>
       </c>
       <c r="E340" s="20"/>
       <c r="F340" s="20"/>
@@ -18884,14 +18916,14 @@
     </row>
     <row r="341" spans="1:9" ht="19" customHeight="1">
       <c r="A341" s="19" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B341" s="20"/>
       <c r="C341" s="20" t="s">
-        <v>667</v>
-      </c>
-      <c r="D341" s="20" t="s">
-        <v>760</v>
+        <v>665</v>
+      </c>
+      <c r="D341" s="22" t="s">
+        <v>759</v>
       </c>
       <c r="E341" s="20"/>
       <c r="F341" s="20"/>
@@ -18901,14 +18933,14 @@
     </row>
     <row r="342" spans="1:9" ht="19" customHeight="1">
       <c r="A342" s="19" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B342" s="20"/>
       <c r="C342" s="20" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D342" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E342" s="20"/>
       <c r="F342" s="20"/>
@@ -18918,14 +18950,14 @@
     </row>
     <row r="343" spans="1:9" ht="19" customHeight="1">
       <c r="A343" s="19" t="s">
-        <v>945</v>
+        <v>668</v>
       </c>
       <c r="B343" s="20"/>
       <c r="C343" s="20" t="s">
-        <v>946</v>
+        <v>669</v>
       </c>
       <c r="D343" s="20" t="s">
-        <v>947</v>
+        <v>761</v>
       </c>
       <c r="E343" s="20"/>
       <c r="F343" s="20"/>
@@ -18935,14 +18967,14 @@
     </row>
     <row r="344" spans="1:9" ht="19" customHeight="1">
       <c r="A344" s="19" t="s">
-        <v>1068</v>
+        <v>945</v>
       </c>
       <c r="B344" s="20"/>
       <c r="C344" s="20" t="s">
-        <v>1069</v>
+        <v>946</v>
       </c>
       <c r="D344" s="20" t="s">
-        <v>1070</v>
+        <v>947</v>
       </c>
       <c r="E344" s="20"/>
       <c r="F344" s="20"/>
@@ -18952,14 +18984,14 @@
     </row>
     <row r="345" spans="1:9" ht="19" customHeight="1">
       <c r="A345" s="19" t="s">
-        <v>1136</v>
+        <v>1068</v>
       </c>
       <c r="B345" s="20"/>
       <c r="C345" s="20" t="s">
-        <v>1137</v>
+        <v>1069</v>
       </c>
       <c r="D345" s="20" t="s">
-        <v>1138</v>
+        <v>1070</v>
       </c>
       <c r="E345" s="20"/>
       <c r="F345" s="20"/>
@@ -18969,14 +19001,14 @@
     </row>
     <row r="346" spans="1:9" ht="19" customHeight="1">
       <c r="A346" s="19" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="B346" s="20"/>
       <c r="C346" s="20" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="D346" s="20" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="E346" s="20"/>
       <c r="F346" s="20"/>
@@ -18986,14 +19018,14 @@
     </row>
     <row r="347" spans="1:9" ht="19" customHeight="1">
       <c r="A347" s="19" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B347" s="20"/>
       <c r="C347" s="20" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="D347" s="20" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="E347" s="20"/>
       <c r="F347" s="20"/>
@@ -19003,14 +19035,14 @@
     </row>
     <row r="348" spans="1:9" ht="19" customHeight="1">
       <c r="A348" s="19" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="B348" s="20"/>
       <c r="C348" s="20" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="D348" s="20" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="E348" s="20"/>
       <c r="F348" s="20"/>
@@ -19020,14 +19052,14 @@
     </row>
     <row r="349" spans="1:9" ht="19" customHeight="1">
       <c r="A349" s="19" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="B349" s="20"/>
       <c r="C349" s="20" t="s">
-        <v>1153</v>
+        <v>1140</v>
       </c>
       <c r="D349" s="20" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="E349" s="20"/>
       <c r="F349" s="20"/>
@@ -19037,14 +19069,14 @@
     </row>
     <row r="350" spans="1:9" ht="19" customHeight="1">
       <c r="A350" s="19" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="B350" s="20"/>
       <c r="C350" s="20" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D350" s="20" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="E350" s="20"/>
       <c r="F350" s="20"/>
@@ -19054,14 +19086,14 @@
     </row>
     <row r="351" spans="1:9" ht="19" customHeight="1">
       <c r="A351" s="19" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B351" s="20"/>
       <c r="C351" s="20" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="D351" s="20" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="E351" s="20"/>
       <c r="F351" s="20"/>
@@ -19071,14 +19103,14 @@
     </row>
     <row r="352" spans="1:9" ht="19" customHeight="1">
       <c r="A352" s="19" t="s">
-        <v>1190</v>
+        <v>1157</v>
       </c>
       <c r="B352" s="20"/>
       <c r="C352" s="20" t="s">
-        <v>1192</v>
+        <v>1158</v>
       </c>
       <c r="D352" s="20" t="s">
-        <v>1191</v>
+        <v>1159</v>
       </c>
       <c r="E352" s="20"/>
       <c r="F352" s="20"/>
@@ -19088,14 +19120,14 @@
     </row>
     <row r="353" spans="1:9" ht="19" customHeight="1">
       <c r="A353" s="19" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="B353" s="20"/>
       <c r="C353" s="20" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="D353" s="20" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="E353" s="20"/>
       <c r="F353" s="20"/>
@@ -19105,14 +19137,14 @@
     </row>
     <row r="354" spans="1:9" ht="19" customHeight="1">
       <c r="A354" s="19" t="s">
-        <v>1352</v>
+        <v>1187</v>
       </c>
       <c r="B354" s="20"/>
       <c r="C354" s="20" t="s">
-        <v>1353</v>
+        <v>1188</v>
       </c>
       <c r="D354" s="20" t="s">
-        <v>1354</v>
+        <v>1189</v>
       </c>
       <c r="E354" s="20"/>
       <c r="F354" s="20"/>
@@ -19121,10 +19153,16 @@
       <c r="I354" s="18"/>
     </row>
     <row r="355" spans="1:9" ht="19" customHeight="1">
-      <c r="A355" s="19"/>
+      <c r="A355" s="19" t="s">
+        <v>1352</v>
+      </c>
       <c r="B355" s="20"/>
-      <c r="C355" s="20"/>
-      <c r="D355" s="20"/>
+      <c r="C355" s="20" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D355" s="20" t="s">
+        <v>1354</v>
+      </c>
       <c r="E355" s="20"/>
       <c r="F355" s="20"/>
       <c r="G355" s="18"/>
@@ -19165,45 +19203,39 @@
       <c r="I358" s="18"/>
     </row>
     <row r="359" spans="1:9" ht="19" customHeight="1">
-      <c r="A359" s="26" t="s">
+      <c r="A359" s="19"/>
+      <c r="B359" s="20"/>
+      <c r="C359" s="20"/>
+      <c r="D359" s="20"/>
+      <c r="E359" s="20"/>
+      <c r="F359" s="20"/>
+      <c r="G359" s="18"/>
+      <c r="H359" s="17"/>
+      <c r="I359" s="18"/>
+    </row>
+    <row r="360" spans="1:9" ht="19" customHeight="1">
+      <c r="A360" s="26" t="s">
         <v>1193</v>
       </c>
-      <c r="B359" s="23"/>
-      <c r="C359" s="23"/>
-      <c r="D359" s="23"/>
-      <c r="E359" s="23"/>
-      <c r="F359" s="23"/>
-      <c r="G359" s="24"/>
-      <c r="H359" s="25"/>
-      <c r="I359" s="24"/>
-    </row>
-    <row r="360" spans="1:9" ht="19" customHeight="1">
-      <c r="A360" s="19" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B360" s="20"/>
-      <c r="C360" s="20" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D360" s="20" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E360" s="20"/>
-      <c r="F360" s="20"/>
-      <c r="G360" s="18"/>
-      <c r="H360" s="17"/>
-      <c r="I360" s="18"/>
+      <c r="B360" s="23"/>
+      <c r="C360" s="23"/>
+      <c r="D360" s="23"/>
+      <c r="E360" s="23"/>
+      <c r="F360" s="23"/>
+      <c r="G360" s="24"/>
+      <c r="H360" s="25"/>
+      <c r="I360" s="24"/>
     </row>
     <row r="361" spans="1:9" ht="19" customHeight="1">
       <c r="A361" s="19" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B361" s="20"/>
       <c r="C361" s="20" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D361" s="20" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="E361" s="20"/>
       <c r="F361" s="20"/>
@@ -19213,14 +19245,14 @@
     </row>
     <row r="362" spans="1:9" ht="19" customHeight="1">
       <c r="A362" s="19" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B362" s="20"/>
       <c r="C362" s="20" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D362" s="20" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="E362" s="20"/>
       <c r="F362" s="20"/>
@@ -19230,14 +19262,14 @@
     </row>
     <row r="363" spans="1:9" ht="19" customHeight="1">
       <c r="A363" s="19" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B363" s="20"/>
       <c r="C363" s="20" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D363" s="20" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="E363" s="20"/>
       <c r="F363" s="20"/>
@@ -19247,14 +19279,14 @@
     </row>
     <row r="364" spans="1:9" ht="19" customHeight="1">
       <c r="A364" s="19" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B364" s="20"/>
       <c r="C364" s="20" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D364" s="20" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E364" s="20"/>
       <c r="F364" s="20"/>
@@ -19264,14 +19296,14 @@
     </row>
     <row r="365" spans="1:9" ht="19" customHeight="1">
       <c r="A365" s="19" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B365" s="20"/>
       <c r="C365" s="20" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D365" s="20" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E365" s="20"/>
       <c r="F365" s="20"/>
@@ -19281,14 +19313,14 @@
     </row>
     <row r="366" spans="1:9" ht="19" customHeight="1">
       <c r="A366" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B366" s="20"/>
       <c r="C366" s="20" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D366" s="20" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E366" s="20"/>
       <c r="F366" s="20"/>
@@ -19298,14 +19330,14 @@
     </row>
     <row r="367" spans="1:9" ht="19" customHeight="1">
       <c r="A367" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B367" s="20"/>
       <c r="C367" s="20" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D367" s="20" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E367" s="20"/>
       <c r="F367" s="20"/>
@@ -19315,14 +19347,14 @@
     </row>
     <row r="368" spans="1:9" ht="19" customHeight="1">
       <c r="A368" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B368" s="20"/>
       <c r="C368" s="20" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D368" s="20" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E368" s="20"/>
       <c r="F368" s="20"/>
@@ -19332,14 +19364,14 @@
     </row>
     <row r="369" spans="1:9" ht="19" customHeight="1">
       <c r="A369" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B369" s="20"/>
       <c r="C369" s="20" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D369" s="20" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E369" s="20"/>
       <c r="F369" s="20"/>
@@ -19349,14 +19381,14 @@
     </row>
     <row r="370" spans="1:9" ht="19" customHeight="1">
       <c r="A370" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B370" s="20"/>
       <c r="C370" s="20" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D370" s="20" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E370" s="20"/>
       <c r="F370" s="20"/>
@@ -19366,14 +19398,14 @@
     </row>
     <row r="371" spans="1:9" ht="19" customHeight="1">
       <c r="A371" s="19" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B371" s="20"/>
       <c r="C371" s="20" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D371" s="20" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E371" s="20"/>
       <c r="F371" s="20"/>
@@ -19383,14 +19415,14 @@
     </row>
     <row r="372" spans="1:9" ht="19" customHeight="1">
       <c r="A372" s="19" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B372" s="20"/>
       <c r="C372" s="20" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D372" s="20" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E372" s="20"/>
       <c r="F372" s="20"/>
@@ -19400,14 +19432,14 @@
     </row>
     <row r="373" spans="1:9" ht="19" customHeight="1">
       <c r="A373" s="19" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B373" s="20"/>
       <c r="C373" s="20" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D373" s="20" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E373" s="20"/>
       <c r="F373" s="20"/>
@@ -19417,14 +19449,14 @@
     </row>
     <row r="374" spans="1:9" ht="19" customHeight="1">
       <c r="A374" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B374" s="20"/>
       <c r="C374" s="20" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D374" s="20" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E374" s="20"/>
       <c r="F374" s="20"/>
@@ -19434,14 +19466,14 @@
     </row>
     <row r="375" spans="1:9" ht="19" customHeight="1">
       <c r="A375" s="19" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B375" s="20"/>
       <c r="C375" s="20" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D375" s="20" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E375" s="20"/>
       <c r="F375" s="20"/>
@@ -19451,14 +19483,14 @@
     </row>
     <row r="376" spans="1:9" ht="19" customHeight="1">
       <c r="A376" s="19" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B376" s="20"/>
       <c r="C376" s="20" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D376" s="20" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E376" s="20"/>
       <c r="F376" s="20"/>
@@ -19468,14 +19500,14 @@
     </row>
     <row r="377" spans="1:9" ht="19" customHeight="1">
       <c r="A377" s="19" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B377" s="20"/>
       <c r="C377" s="20" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D377" s="20" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E377" s="20"/>
       <c r="F377" s="20"/>
@@ -19485,14 +19517,14 @@
     </row>
     <row r="378" spans="1:9" ht="19" customHeight="1">
       <c r="A378" s="19" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="20" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D378" s="20" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E378" s="20"/>
       <c r="F378" s="20"/>
@@ -19502,14 +19534,14 @@
     </row>
     <row r="379" spans="1:9" ht="19" customHeight="1">
       <c r="A379" s="19" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B379" s="20"/>
       <c r="C379" s="20" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D379" s="20" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E379" s="20"/>
       <c r="F379" s="20"/>
@@ -19519,14 +19551,14 @@
     </row>
     <row r="380" spans="1:9" ht="19" customHeight="1">
       <c r="A380" s="19" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B380" s="20"/>
       <c r="C380" s="20" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D380" s="20" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E380" s="20"/>
       <c r="F380" s="20"/>
@@ -19536,14 +19568,14 @@
     </row>
     <row r="381" spans="1:9" ht="19" customHeight="1">
       <c r="A381" s="19" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B381" s="20"/>
       <c r="C381" s="20" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D381" s="20" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E381" s="20"/>
       <c r="F381" s="20"/>
@@ -19553,14 +19585,14 @@
     </row>
     <row r="382" spans="1:9" ht="19" customHeight="1">
       <c r="A382" s="19" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B382" s="20"/>
       <c r="C382" s="20" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D382" s="20" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E382" s="20"/>
       <c r="F382" s="20"/>
@@ -19570,14 +19602,14 @@
     </row>
     <row r="383" spans="1:9" ht="19" customHeight="1">
       <c r="A383" s="19" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="20" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D383" s="20" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E383" s="20"/>
       <c r="F383" s="20"/>
@@ -19587,14 +19619,14 @@
     </row>
     <row r="384" spans="1:9" ht="19" customHeight="1">
       <c r="A384" s="19" t="s">
-        <v>1242</v>
+        <v>1217</v>
       </c>
       <c r="B384" s="20"/>
-      <c r="C384" s="19" t="s">
-        <v>1242</v>
+      <c r="C384" s="20" t="s">
+        <v>1217</v>
       </c>
       <c r="D384" s="20" t="s">
-        <v>1284</v>
+        <v>1241</v>
       </c>
       <c r="E384" s="20"/>
       <c r="F384" s="20"/>
@@ -19604,14 +19636,14 @@
     </row>
     <row r="385" spans="1:9" ht="19" customHeight="1">
       <c r="A385" s="19" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="19" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D385" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E385" s="20"/>
       <c r="F385" s="20"/>
@@ -19621,14 +19653,14 @@
     </row>
     <row r="386" spans="1:9" ht="19" customHeight="1">
       <c r="A386" s="19" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B386" s="20"/>
       <c r="C386" s="19" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D386" s="20" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E386" s="20"/>
       <c r="F386" s="20"/>
@@ -19638,14 +19670,14 @@
     </row>
     <row r="387" spans="1:9" ht="19" customHeight="1">
       <c r="A387" s="19" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B387" s="20"/>
       <c r="C387" s="19" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D387" s="20" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E387" s="20"/>
       <c r="F387" s="20"/>
@@ -19655,14 +19687,14 @@
     </row>
     <row r="388" spans="1:9" ht="19" customHeight="1">
       <c r="A388" s="19" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B388" s="20"/>
       <c r="C388" s="19" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D388" s="20" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E388" s="20"/>
       <c r="F388" s="20"/>
@@ -19672,14 +19704,14 @@
     </row>
     <row r="389" spans="1:9" ht="19" customHeight="1">
       <c r="A389" s="19" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="19" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D389" s="20" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E389" s="20"/>
       <c r="F389" s="20"/>
@@ -19689,14 +19721,14 @@
     </row>
     <row r="390" spans="1:9" ht="19" customHeight="1">
       <c r="A390" s="19" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="19" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D390" s="20" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E390" s="20"/>
       <c r="F390" s="20"/>
@@ -19706,14 +19738,14 @@
     </row>
     <row r="391" spans="1:9" ht="19" customHeight="1">
       <c r="A391" s="19" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B391" s="20"/>
       <c r="C391" s="19" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D391" s="20" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E391" s="20"/>
       <c r="F391" s="20"/>
@@ -19723,14 +19755,14 @@
     </row>
     <row r="392" spans="1:9" ht="19" customHeight="1">
       <c r="A392" s="19" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="19" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D392" s="20" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E392" s="20"/>
       <c r="F392" s="20"/>
@@ -19740,14 +19772,14 @@
     </row>
     <row r="393" spans="1:9" ht="19" customHeight="1">
       <c r="A393" s="19" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="19" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D393" s="20" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E393" s="20"/>
       <c r="F393" s="20"/>
@@ -19757,14 +19789,14 @@
     </row>
     <row r="394" spans="1:9" ht="19" customHeight="1">
       <c r="A394" s="19" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="19" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D394" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E394" s="20"/>
       <c r="F394" s="20"/>
@@ -19774,14 +19806,14 @@
     </row>
     <row r="395" spans="1:9" ht="19" customHeight="1">
       <c r="A395" s="19" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="19" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D395" s="20" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E395" s="20"/>
       <c r="F395" s="20"/>
@@ -19791,14 +19823,14 @@
     </row>
     <row r="396" spans="1:9" ht="19" customHeight="1">
       <c r="A396" s="19" t="s">
-        <v>1339</v>
+        <v>1253</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="19" t="s">
-        <v>1339</v>
+        <v>1253</v>
       </c>
       <c r="D396" s="20" t="s">
-        <v>1340</v>
+        <v>1295</v>
       </c>
       <c r="E396" s="20"/>
       <c r="F396" s="20"/>
@@ -19808,14 +19840,14 @@
     </row>
     <row r="397" spans="1:9" ht="19" customHeight="1">
       <c r="A397" s="19" t="s">
-        <v>1254</v>
+        <v>1339</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="19" t="s">
-        <v>1254</v>
+        <v>1339</v>
       </c>
       <c r="D397" s="20" t="s">
-        <v>1296</v>
+        <v>1340</v>
       </c>
       <c r="E397" s="20"/>
       <c r="F397" s="20"/>
@@ -19825,14 +19857,14 @@
     </row>
     <row r="398" spans="1:9" ht="19" customHeight="1">
       <c r="A398" s="19" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="19" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D398" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E398" s="20"/>
       <c r="F398" s="20"/>
@@ -19842,14 +19874,14 @@
     </row>
     <row r="399" spans="1:9" ht="19" customHeight="1">
       <c r="A399" s="19" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="19" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D399" s="20" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E399" s="20"/>
       <c r="F399" s="20"/>
@@ -19859,14 +19891,14 @@
     </row>
     <row r="400" spans="1:9" ht="19" customHeight="1">
       <c r="A400" s="19" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B400" s="20"/>
       <c r="C400" s="19" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D400" s="20" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E400" s="20"/>
       <c r="F400" s="20"/>
@@ -19876,14 +19908,14 @@
     </row>
     <row r="401" spans="1:9" ht="19" customHeight="1">
       <c r="A401" s="19" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="19" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D401" s="20" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="E401" s="20"/>
       <c r="F401" s="20"/>
@@ -19893,14 +19925,14 @@
     </row>
     <row r="402" spans="1:9" ht="19" customHeight="1">
       <c r="A402" s="19" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="19" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D402" s="20" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="E402" s="20"/>
       <c r="F402" s="20"/>
@@ -19910,14 +19942,14 @@
     </row>
     <row r="403" spans="1:9" ht="19" customHeight="1">
       <c r="A403" s="19" t="s">
-        <v>1341</v>
+        <v>1259</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="19" t="s">
-        <v>1341</v>
+        <v>1259</v>
       </c>
       <c r="D403" s="20" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="E403" s="20"/>
       <c r="F403" s="20"/>
@@ -19927,14 +19959,14 @@
     </row>
     <row r="404" spans="1:9" ht="19" customHeight="1">
       <c r="A404" s="19" t="s">
-        <v>1260</v>
+        <v>1341</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="19" t="s">
-        <v>1260</v>
+        <v>1341</v>
       </c>
       <c r="D404" s="20" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="E404" s="20"/>
       <c r="F404" s="20"/>
@@ -19944,14 +19976,14 @@
     </row>
     <row r="405" spans="1:9" ht="19" customHeight="1">
       <c r="A405" s="19" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="19" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D405" s="20" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="E405" s="20"/>
       <c r="F405" s="20"/>
@@ -19961,14 +19993,14 @@
     </row>
     <row r="406" spans="1:9" ht="19" customHeight="1">
       <c r="A406" s="19" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="19" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D406" s="20" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="E406" s="20"/>
       <c r="F406" s="20"/>
@@ -19978,14 +20010,14 @@
     </row>
     <row r="407" spans="1:9" ht="19" customHeight="1">
       <c r="A407" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D407" s="20" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E407" s="20"/>
       <c r="F407" s="20"/>
@@ -19995,14 +20027,14 @@
     </row>
     <row r="408" spans="1:9" ht="19" customHeight="1">
       <c r="A408" s="19" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="19" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D408" s="20" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E408" s="20"/>
       <c r="F408" s="20"/>
@@ -20012,14 +20044,14 @@
     </row>
     <row r="409" spans="1:9" ht="19" customHeight="1">
       <c r="A409" s="19" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="19" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D409" s="20" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E409" s="20"/>
       <c r="F409" s="20"/>
@@ -20029,14 +20061,14 @@
     </row>
     <row r="410" spans="1:9" ht="19" customHeight="1">
       <c r="A410" s="19" t="s">
-        <v>1327</v>
+        <v>1265</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="19" t="s">
-        <v>1327</v>
+        <v>1265</v>
       </c>
       <c r="D410" s="20" t="s">
-        <v>1333</v>
+        <v>1308</v>
       </c>
       <c r="E410" s="20"/>
       <c r="F410" s="20"/>
@@ -20046,14 +20078,14 @@
     </row>
     <row r="411" spans="1:9" ht="19" customHeight="1">
       <c r="A411" s="19" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="19" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D411" s="20" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E411" s="20"/>
       <c r="F411" s="20"/>
@@ -20063,14 +20095,14 @@
     </row>
     <row r="412" spans="1:9" ht="19" customHeight="1">
       <c r="A412" s="19" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="19" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D412" s="20" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E412" s="20"/>
       <c r="F412" s="20"/>
@@ -20080,14 +20112,14 @@
     </row>
     <row r="413" spans="1:9" ht="19" customHeight="1">
       <c r="A413" s="19" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="19" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D413" s="20" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E413" s="20"/>
       <c r="F413" s="20"/>
@@ -20097,14 +20129,14 @@
     </row>
     <row r="414" spans="1:9" ht="19" customHeight="1">
       <c r="A414" s="19" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="19" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D414" s="20" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E414" s="20"/>
       <c r="F414" s="20"/>
@@ -20114,14 +20146,14 @@
     </row>
     <row r="415" spans="1:9" ht="19" customHeight="1">
       <c r="A415" s="19" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="19" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D415" s="20" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E415" s="20"/>
       <c r="F415" s="20"/>
@@ -20131,14 +20163,14 @@
     </row>
     <row r="416" spans="1:9" ht="19" customHeight="1">
       <c r="A416" s="19" t="s">
-        <v>1266</v>
+        <v>1332</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="19" t="s">
-        <v>1266</v>
+        <v>1332</v>
       </c>
       <c r="D416" s="20" t="s">
-        <v>1309</v>
+        <v>1338</v>
       </c>
       <c r="E416" s="20"/>
       <c r="F416" s="20"/>
@@ -20148,14 +20180,14 @@
     </row>
     <row r="417" spans="1:9" ht="19" customHeight="1">
       <c r="A417" s="19" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="19" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D417" s="20" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E417" s="20"/>
       <c r="F417" s="20"/>
@@ -20165,14 +20197,14 @@
     </row>
     <row r="418" spans="1:9" ht="19" customHeight="1">
       <c r="A418" s="19" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="19" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D418" s="20" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E418" s="20"/>
       <c r="F418" s="20"/>
@@ -20182,14 +20214,14 @@
     </row>
     <row r="419" spans="1:9" ht="19" customHeight="1">
       <c r="A419" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D419" s="20" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="E419" s="20"/>
       <c r="F419" s="20"/>
@@ -20199,14 +20231,14 @@
     </row>
     <row r="420" spans="1:9" ht="19" customHeight="1">
       <c r="A420" s="19" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="19" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D420" s="20" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="E420" s="20"/>
       <c r="F420" s="20"/>
@@ -20216,14 +20248,14 @@
     </row>
     <row r="421" spans="1:9" ht="19" customHeight="1">
       <c r="A421" s="19" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="19" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D421" s="20" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="E421" s="20"/>
       <c r="F421" s="20"/>
@@ -20233,14 +20265,14 @@
     </row>
     <row r="422" spans="1:9" ht="19" customHeight="1">
       <c r="A422" s="19" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="19" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D422" s="20" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E422" s="20"/>
       <c r="F422" s="20"/>
@@ -20250,14 +20282,14 @@
     </row>
     <row r="423" spans="1:9" ht="19" customHeight="1">
       <c r="A423" s="19" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="19" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D423" s="20" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E423" s="20"/>
       <c r="F423" s="20"/>
@@ -20267,14 +20299,14 @@
     </row>
     <row r="424" spans="1:9" ht="19" customHeight="1">
       <c r="A424" s="19" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="19" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D424" s="20" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E424" s="20"/>
       <c r="F424" s="20"/>
@@ -20284,14 +20316,14 @@
     </row>
     <row r="425" spans="1:9" ht="19" customHeight="1">
       <c r="A425" s="19" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="19" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D425" s="20" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E425" s="20"/>
       <c r="F425" s="20"/>
@@ -20301,14 +20333,14 @@
     </row>
     <row r="426" spans="1:9" ht="19" customHeight="1">
       <c r="A426" s="19" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="19" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D426" s="20" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E426" s="20"/>
       <c r="F426" s="20"/>
@@ -20318,14 +20350,14 @@
     </row>
     <row r="427" spans="1:9" ht="19" customHeight="1">
       <c r="A427" s="19" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="19" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D427" s="20" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E427" s="20"/>
       <c r="F427" s="20"/>
@@ -20335,14 +20367,14 @@
     </row>
     <row r="428" spans="1:9" ht="19" customHeight="1">
       <c r="A428" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D428" s="20" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E428" s="20"/>
       <c r="F428" s="20"/>
@@ -20352,14 +20384,14 @@
     </row>
     <row r="429" spans="1:9" ht="19" customHeight="1">
       <c r="A429" s="19" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="19" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D429" s="20" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E429" s="20"/>
       <c r="F429" s="20"/>
@@ -20369,14 +20401,14 @@
     </row>
     <row r="430" spans="1:9" ht="19" customHeight="1">
       <c r="A430" s="19" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="19" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D430" s="20" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E430" s="20"/>
       <c r="F430" s="20"/>
@@ -20386,14 +20418,14 @@
     </row>
     <row r="431" spans="1:9" ht="19" customHeight="1">
       <c r="A431" s="19" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="19" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D431" s="20" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E431" s="20"/>
       <c r="F431" s="20"/>
@@ -20403,14 +20435,14 @@
     </row>
     <row r="432" spans="1:9" ht="19" customHeight="1">
       <c r="A432" s="19" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="19" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D432" s="20" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E432" s="20"/>
       <c r="F432" s="20"/>
@@ -20420,14 +20452,14 @@
     </row>
     <row r="433" spans="1:9" ht="19" customHeight="1">
       <c r="A433" s="19" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="19" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D433" s="20" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E433" s="20"/>
       <c r="F433" s="20"/>
@@ -20436,10 +20468,16 @@
       <c r="I433" s="18"/>
     </row>
     <row r="434" spans="1:9" ht="19" customHeight="1">
-      <c r="A434" s="19"/>
+      <c r="A434" s="19" t="s">
+        <v>1283</v>
+      </c>
       <c r="B434" s="20"/>
-      <c r="C434" s="20"/>
-      <c r="D434" s="20"/>
+      <c r="C434" s="19" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D434" s="20" t="s">
+        <v>1326</v>
+      </c>
       <c r="E434" s="20"/>
       <c r="F434" s="20"/>
       <c r="G434" s="18"/>
@@ -21084,15 +21122,26 @@
       <c r="H492" s="17"/>
       <c r="I492" s="18"/>
     </row>
+    <row r="493" spans="1:9" ht="19" customHeight="1">
+      <c r="A493" s="19"/>
+      <c r="B493" s="20"/>
+      <c r="C493" s="20"/>
+      <c r="D493" s="20"/>
+      <c r="E493" s="20"/>
+      <c r="F493" s="20"/>
+      <c r="G493" s="18"/>
+      <c r="H493" s="17"/>
+      <c r="I493" s="18"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:J219" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
+  <autoFilter ref="A4:J220" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A247:E248 E234:G234 A234:C246 A271:E272 A306:E307 A328:E329 A330:C342 E330:E342 E235:E246 B69:G69 D125:D143 I8:I29 E249:E270 A125:C151 E125:G151 D148:D151 A230:G233 E273 F235:G273 D288 E308:E327 A308:C327 A343:E345 E274:G286 A249:C270 A152:G228 A70:G124 E287:E305 F287:G345 A273:C305 I230:I492 A8:G29 A346:G492 I31:I228 A31:G68">
+  <conditionalFormatting sqref="A248:E249 E235:G235 A235:C247 A272:E273 A307:E308 A329:E330 A331:C343 E331:E343 E236:E247 B70:G70 D126:D144 I8:I29 E250:E271 A126:C152 E126:G152 D149:D152 A231:G234 E274 F236:G274 D289 E309:E328 A309:C328 A344:E346 E275:G287 A250:C271 A153:G229 A71:G125 E288:E306 F288:G346 A274:C306 I231:I493 A8:G29 A347:G493 I31:I229 A31:G69">
     <cfRule type="expression" dxfId="146" priority="274">
       <formula>$G8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H29 H125:H228 H91:H122 H230:H492 H31:H89">
+  <conditionalFormatting sqref="H8:H29 H126:H229 H92:H123 H231:H493 H31:H90">
     <cfRule type="cellIs" dxfId="145" priority="229" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
@@ -21106,7 +21155,7 @@
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H29 H125:H228 H91:H122 H230:H492 H31:H89">
+  <conditionalFormatting sqref="H8:H29 H126:H229 H92:H123 H231:H493 H31:H90">
     <cfRule type="cellIs" dxfId="141" priority="230" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -21123,19 +21172,19 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H29 H125:H228 H91:H122 H230:H492 H31:H89">
+  <conditionalFormatting sqref="H8:H29 H126:H229 H92:H123 H231:H493 H31:H90">
     <cfRule type="cellIs" dxfId="136" priority="232" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D144:D145">
+  <conditionalFormatting sqref="D145:D146">
     <cfRule type="expression" dxfId="135" priority="153">
-      <formula>$G144&lt;&gt;""</formula>
+      <formula>$G145&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D146:D147">
+  <conditionalFormatting sqref="D147:D148">
     <cfRule type="expression" dxfId="134" priority="152">
-      <formula>$G146&lt;&gt;""</formula>
+      <formula>$G147&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5 I5 A5">
@@ -21184,26 +21233,26 @@
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C229:G229 I229 A229">
+  <conditionalFormatting sqref="C230:G230 I230 A230">
     <cfRule type="expression" dxfId="121" priority="134">
-      <formula>$G229&lt;&gt;""</formula>
+      <formula>$G230&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H229">
+  <conditionalFormatting sqref="H230">
     <cfRule type="cellIs" dxfId="120" priority="124" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="119" priority="131" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",H229)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",H230)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="118" priority="132" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",H229)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",H230)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="117" priority="133" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H229)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H230)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H229">
+  <conditionalFormatting sqref="H230">
     <cfRule type="cellIs" dxfId="116" priority="125" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -21220,19 +21269,19 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H229">
+  <conditionalFormatting sqref="H230">
     <cfRule type="cellIs" dxfId="111" priority="127" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B229">
+  <conditionalFormatting sqref="B230">
     <cfRule type="expression" dxfId="110" priority="123">
-      <formula>$G229&lt;&gt;""</formula>
+      <formula>$G230&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D321:D342 D234:D255 D258 D306:D308 D312:D313 D281 D315:D317 D262:D264 D268:D272 D289:D302">
+  <conditionalFormatting sqref="D322:D343 D235:D256 D259 D307:D309 D313:D314 D282 D316:D318 D263:D265 D269:D273 D290:D303">
     <cfRule type="expression" dxfId="109" priority="276">
-      <formula>$G236&lt;&gt;""</formula>
+      <formula>$G237&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6 I6 C6:G6">
@@ -21332,26 +21381,26 @@
       <formula>$G7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
+  <conditionalFormatting sqref="A70">
     <cfRule type="expression" dxfId="83" priority="71">
-      <formula>$G69&lt;&gt;""</formula>
+      <formula>$G70&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H123:H124">
+  <conditionalFormatting sqref="H124:H125">
     <cfRule type="cellIs" dxfId="82" priority="60" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="81" priority="67" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",H123)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",H124)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="80" priority="68" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",H123)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",H124)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="79" priority="69" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H123)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H124)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H123:H124">
+  <conditionalFormatting sqref="H124:H125">
     <cfRule type="cellIs" dxfId="78" priority="61" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -21368,7 +21417,7 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H123:H124">
+  <conditionalFormatting sqref="H124:H125">
     <cfRule type="cellIs" dxfId="73" priority="63" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
@@ -21414,26 +21463,26 @@
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D318:D320 D303:D305 D259:D261 D309:D311 D280 D265:D267">
+  <conditionalFormatting sqref="D319:D321 D304:D306 D260:D262 D310:D312 D281 D266:D268">
     <cfRule type="expression" dxfId="61" priority="279">
-      <formula>$G262&lt;&gt;""</formula>
+      <formula>$G263&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
+  <conditionalFormatting sqref="H91">
     <cfRule type="cellIs" dxfId="60" priority="16" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="59" priority="23" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",H90)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",H91)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="58" priority="24" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",H90)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",H91)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="57" priority="25" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H90)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H91)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
+  <conditionalFormatting sqref="H91">
     <cfRule type="cellIs" dxfId="56" priority="17" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -21450,81 +21499,81 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
+  <conditionalFormatting sqref="H91">
     <cfRule type="cellIs" dxfId="51" priority="19" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D283">
+  <conditionalFormatting sqref="D284">
     <cfRule type="expression" dxfId="50" priority="283">
-      <formula>$G287&lt;&gt;""</formula>
+      <formula>$G288&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D258">
+    <cfRule type="expression" dxfId="49" priority="314">
+      <formula>$G259&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D257">
-    <cfRule type="expression" dxfId="49" priority="314">
-      <formula>$G258&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D256">
     <cfRule type="expression" dxfId="48" priority="315">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D273:D279">
+  <conditionalFormatting sqref="D274:D280">
     <cfRule type="expression" dxfId="47" priority="317">
-      <formula>$G281&lt;&gt;""</formula>
+      <formula>$G282&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D276">
+  <conditionalFormatting sqref="D277">
     <cfRule type="expression" dxfId="46" priority="351">
-      <formula>$G281&lt;&gt;""</formula>
+      <formula>$G282&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D284">
+  <conditionalFormatting sqref="D285">
     <cfRule type="expression" dxfId="45" priority="14">
-      <formula>$G284&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D285:D286">
-    <cfRule type="expression" dxfId="44" priority="13">
       <formula>$G285&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D314">
+  <conditionalFormatting sqref="D286:D287">
+    <cfRule type="expression" dxfId="44" priority="13">
+      <formula>$G286&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D315">
     <cfRule type="expression" dxfId="43" priority="383">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D287">
+  <conditionalFormatting sqref="D288">
     <cfRule type="expression" dxfId="42" priority="384">
-      <formula>$G292&lt;&gt;""</formula>
+      <formula>$G293&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D282">
+  <conditionalFormatting sqref="D283">
     <cfRule type="expression" dxfId="41" priority="386">
-      <formula>$G289&lt;&gt;""</formula>
+      <formula>$G290&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D277:D279">
+  <conditionalFormatting sqref="D278:D280">
     <cfRule type="expression" dxfId="40" priority="388">
-      <formula>$G281&lt;&gt;""</formula>
+      <formula>$G282&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H359">
+  <conditionalFormatting sqref="H360">
     <cfRule type="cellIs" dxfId="39" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="38" priority="9" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",H359)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",H360)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="37" priority="10" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",H359)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKIP",H360)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="36" priority="11" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H359)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",H360)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H359">
+  <conditionalFormatting sqref="H360">
     <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -21541,7 +21590,7 @@
       <formula>"削除予定"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H359">
+  <conditionalFormatting sqref="H360">
     <cfRule type="cellIs" dxfId="30" priority="5" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>

--- a/src/main/resources/message.xlsx
+++ b/src/main/resources/message.xl